--- a/タスク/07班スプリントバックログ.xlsx
+++ b/タスク/07班スプリントバックログ.xlsx
@@ -3474,10 +3474,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>68</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3557,28 +3557,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>68</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4039,13 +4039,13 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4173,7 +4173,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8</c:v>
@@ -9359,8 +9359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9468,35 +9468,35 @@
       <c r="I3" s="143"/>
       <c r="J3" s="103">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$Q$2))))</f>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="K3" s="103">
         <f t="shared" ref="K3:Q3" si="0">INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$Q$2))))</f>
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="L3" s="103">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="M3" s="103">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="N3" s="103">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="O3" s="103">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="P3" s="103">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="Q3" s="103">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:32" s="100" customFormat="1">
@@ -9511,11 +9511,11 @@
       <c r="I4" s="143"/>
       <c r="J4" s="104">
         <f>SUM(J5:J104)</f>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="K4" s="104">
         <f>SUM(K5:K104)</f>
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="L4" s="104"/>
       <c r="M4" s="104"/>
@@ -10688,7 +10688,7 @@
       </c>
       <c r="D36" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="E36" s="109">
         <v>43028</v>
@@ -10699,15 +10699,19 @@
       <c r="G36" s="110">
         <v>2</v>
       </c>
-      <c r="H36" s="110"/>
+      <c r="H36" s="110">
+        <v>1</v>
+      </c>
       <c r="I36" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" s="112">
         <v>2</v>
       </c>
-      <c r="K36" s="112"/>
+      <c r="K36" s="112">
+        <v>0</v>
+      </c>
       <c r="L36" s="112"/>
       <c r="M36" s="112"/>
       <c r="N36" s="112"/>
@@ -10727,7 +10731,7 @@
       </c>
       <c r="D37" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="E37" s="109">
         <v>43028</v>
@@ -10738,15 +10742,19 @@
       <c r="G37" s="110">
         <v>2</v>
       </c>
-      <c r="H37" s="110"/>
+      <c r="H37" s="110">
+        <v>1</v>
+      </c>
       <c r="I37" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" s="112">
         <v>2</v>
       </c>
-      <c r="K37" s="112"/>
+      <c r="K37" s="112">
+        <v>0</v>
+      </c>
       <c r="L37" s="112"/>
       <c r="M37" s="112"/>
       <c r="N37" s="112"/>
@@ -10777,15 +10785,19 @@
       <c r="G38" s="110">
         <v>2</v>
       </c>
-      <c r="H38" s="110"/>
+      <c r="H38" s="110">
+        <v>1</v>
+      </c>
       <c r="I38" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" s="112">
         <v>2</v>
       </c>
-      <c r="K38" s="112"/>
+      <c r="K38" s="112">
+        <v>1</v>
+      </c>
       <c r="L38" s="112"/>
       <c r="M38" s="112"/>
       <c r="N38" s="112"/>
@@ -12108,12 +12120,16 @@
         <v>4</v>
       </c>
       <c r="H80" s="110"/>
-      <c r="I80" s="111" t="str">
+      <c r="I80" s="111">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J80" s="112"/>
-      <c r="K80" s="112"/>
+        <v>4</v>
+      </c>
+      <c r="J80" s="112">
+        <v>4</v>
+      </c>
+      <c r="K80" s="112">
+        <v>4</v>
+      </c>
       <c r="L80" s="112"/>
       <c r="M80" s="112"/>
       <c r="N80" s="112"/>
@@ -12151,7 +12167,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="112">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K81" s="112">
         <v>0</v>
@@ -12193,7 +12209,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="112">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K82" s="112">
         <v>0</v>
@@ -12227,12 +12243,16 @@
         <v>2</v>
       </c>
       <c r="H83" s="110"/>
-      <c r="I83" s="111" t="str">
+      <c r="I83" s="111">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J83" s="112"/>
-      <c r="K83" s="112"/>
+        <v>2</v>
+      </c>
+      <c r="J83" s="112">
+        <v>2</v>
+      </c>
+      <c r="K83" s="112">
+        <v>2</v>
+      </c>
       <c r="L83" s="112"/>
       <c r="M83" s="112"/>
       <c r="N83" s="112"/>
@@ -12262,12 +12282,16 @@
         <v>3</v>
       </c>
       <c r="H84" s="110"/>
-      <c r="I84" s="111" t="str">
+      <c r="I84" s="111">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J84" s="112"/>
-      <c r="K84" s="112"/>
+        <v>3</v>
+      </c>
+      <c r="J84" s="112">
+        <v>3</v>
+      </c>
+      <c r="K84" s="112">
+        <v>3</v>
+      </c>
       <c r="L84" s="112"/>
       <c r="M84" s="112"/>
       <c r="N84" s="112"/>
@@ -12297,12 +12321,16 @@
         <v>3</v>
       </c>
       <c r="H85" s="110"/>
-      <c r="I85" s="111" t="str">
+      <c r="I85" s="111">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J85" s="112"/>
-      <c r="K85" s="112"/>
+        <v>3</v>
+      </c>
+      <c r="J85" s="112">
+        <v>3</v>
+      </c>
+      <c r="K85" s="112">
+        <v>3</v>
+      </c>
       <c r="L85" s="112"/>
       <c r="M85" s="112"/>
       <c r="N85" s="112"/>
@@ -12332,12 +12360,16 @@
         <v>2</v>
       </c>
       <c r="H86" s="110"/>
-      <c r="I86" s="111" t="str">
+      <c r="I86" s="111">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J86" s="112"/>
-      <c r="K86" s="112"/>
+        <v>2</v>
+      </c>
+      <c r="J86" s="112">
+        <v>2</v>
+      </c>
+      <c r="K86" s="112">
+        <v>2</v>
+      </c>
       <c r="L86" s="112"/>
       <c r="M86" s="112"/>
       <c r="N86" s="112"/>
@@ -12367,12 +12399,16 @@
         <v>2</v>
       </c>
       <c r="H87" s="110"/>
-      <c r="I87" s="111" t="str">
+      <c r="I87" s="111">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J87" s="112"/>
-      <c r="K87" s="112"/>
+        <v>2</v>
+      </c>
+      <c r="J87" s="112">
+        <v>2</v>
+      </c>
+      <c r="K87" s="112">
+        <v>2</v>
+      </c>
       <c r="L87" s="112"/>
       <c r="M87" s="112"/>
       <c r="N87" s="112"/>
@@ -12954,11 +12990,11 @@
       </c>
       <c r="U108" s="125">
         <f t="shared" ca="1" si="7"/>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="V108" s="125">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="W108" s="126">
         <f t="shared" si="9"/>
@@ -13020,7 +13056,7 @@
       </c>
       <c r="U110" s="125">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="V110" s="125">
         <f t="shared" si="8"/>

--- a/タスク/07班スプリントバックログ.xlsx
+++ b/タスク/07班スプリントバックログ.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kousuke Nakagawa\Desktop\team07バックログ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Team07\タスク\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="3045" windowWidth="19230" windowHeight="12120" tabRatio="658" activeTab="1"/>
+    <workbookView xWindow="4815" yWindow="3045" windowWidth="19230" windowHeight="12120" tabRatio="658" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="1" r:id="rId1"/>
@@ -33,18 +33,18 @@
     <definedName name="登録者" localSheetId="4">OFFSET(デバッグシート!$R$2,0,0,COUNTA(デバッグシート!$R$2:$R$10),1)</definedName>
     <definedName name="登録者">OFFSET(#REF!,0,0,COUNTA(#REF!),1)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ohzu</author>
     <author>Windows ユーザー</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -93,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -141,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="1" shapeId="0">
+    <comment ref="P2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="1" shapeId="0">
+    <comment ref="Q2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -189,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -209,13 +209,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ohzu</author>
     <author>Windows ユーザー</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -232,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -248,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -264,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -280,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -296,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -312,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -329,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="1" shapeId="0">
+    <comment ref="R2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -344,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="1" shapeId="0">
+    <comment ref="S2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -359,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -379,13 +379,13 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ohzu</author>
     <author>Windows ユーザー</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -402,7 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -418,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -434,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -450,7 +450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -466,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -482,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -499,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="1" shapeId="0">
+    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -515,7 +515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="1" shapeId="0">
+    <comment ref="P2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -530,7 +530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="148">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -1540,11 +1540,185 @@
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>志村</t>
+    <rPh sb="0" eb="2">
+      <t>シムラ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カメラ修正</t>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カメラの近さ</t>
+    <rPh sb="4" eb="5">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カメラが壁にめり込んだ時に近寄るようにする</t>
+    <rPh sb="4" eb="5">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チカヨ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>マップ作製１</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>マップ作製２</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>マップ作製３</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>マップ作製４</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>マップ作製５</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>マップ作製６</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>マップ作製７</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>マップ作製８</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>増えたカートの判定</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CG科につけてもらうアニメーションのリストを作成</t>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アルファのバグチェック</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アルファのバグチェックおよび修正</t>
+    <rPh sb="14" eb="16">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>スコア画面へ遷移</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>スコア画面作成</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>親を追跡しない子供NPCを修正</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイセキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>NPCにモデルを入れる</t>
+    <rPh sb="8" eb="9">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>エネミーにモデルを入れる</t>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
@@ -2832,12 +3006,12 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="4"/>
-    <cellStyle name="標準_2009卒業制作スケジュール表" xfId="1"/>
-    <cellStyle name="標準_チーム編成" xfId="2"/>
-    <cellStyle name="標準_バグシート" xfId="3"/>
+    <cellStyle name="標準 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_2009卒業制作スケジュール表" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_チーム編成" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準_バグシート" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="63">
     <dxf>
       <font>
         <condense val="0"/>
@@ -3100,6 +3274,27 @@
       <font>
         <b/>
         <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="12"/>
@@ -3474,10 +3669,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>92</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3557,28 +3752,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>92</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>57</c:v>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>23</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>11</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4001,7 +4196,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4036,19 +4230,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4135,7 +4329,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4269,7 +4462,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4281,19 +4473,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4382,7 +4574,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -7458,6 +7649,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7493,6 +7701,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7668,7 +7893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E222"/>
   <sheetViews>
     <sheetView topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
@@ -9356,11 +9581,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K88" sqref="K88"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9468,35 +9693,35 @@
       <c r="I3" s="143"/>
       <c r="J3" s="103">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$Q$2))))</f>
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="K3" s="103">
         <f t="shared" ref="K3:Q3" si="0">INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$Q$2))))</f>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="L3" s="103">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="M3" s="103">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="N3" s="103">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="O3" s="103">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="P3" s="103">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="103">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:32" s="100" customFormat="1">
@@ -9511,11 +9736,11 @@
       <c r="I4" s="143"/>
       <c r="J4" s="104">
         <f>SUM(J5:J104)</f>
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="K4" s="104">
         <f>SUM(K5:K104)</f>
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="L4" s="104"/>
       <c r="M4" s="104"/>
@@ -9913,7 +10138,7 @@
         <v>未着手</v>
       </c>
       <c r="E14" s="109">
-        <v>43032</v>
+        <v>43035</v>
       </c>
       <c r="F14" s="109"/>
       <c r="G14" s="110">
@@ -9949,7 +10174,7 @@
       </c>
       <c r="D15" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="E15" s="109">
         <v>43028</v>
@@ -9965,13 +10190,13 @@
       </c>
       <c r="I15" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15" s="112">
         <v>4</v>
       </c>
       <c r="K15" s="112">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L15" s="112"/>
       <c r="M15" s="112"/>
@@ -9984,17 +10209,23 @@
       <c r="A16" s="105">
         <v>12</v>
       </c>
-      <c r="B16" s="106"/>
+      <c r="B16" s="129" t="s">
+        <v>140</v>
+      </c>
       <c r="C16" s="107" t="s">
         <v>109</v>
       </c>
       <c r="D16" s="108" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E16" s="109"/>
+        <v>未着手</v>
+      </c>
+      <c r="E16" s="109">
+        <v>43032</v>
+      </c>
       <c r="F16" s="109"/>
-      <c r="G16" s="110"/>
+      <c r="G16" s="110">
+        <v>3</v>
+      </c>
       <c r="H16" s="110"/>
       <c r="I16" s="111" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -10013,24 +10244,34 @@
       <c r="A17" s="105">
         <v>13</v>
       </c>
-      <c r="B17" s="106"/>
+      <c r="B17" s="129" t="s">
+        <v>142</v>
+      </c>
       <c r="C17" s="107" t="s">
         <v>109</v>
       </c>
       <c r="D17" s="108" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E17" s="109"/>
+        <v>未着手</v>
+      </c>
+      <c r="E17" s="109">
+        <v>43042</v>
+      </c>
       <c r="F17" s="109"/>
-      <c r="G17" s="110"/>
+      <c r="G17" s="110">
+        <v>6</v>
+      </c>
       <c r="H17" s="110"/>
-      <c r="I17" s="111" t="str">
+      <c r="I17" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
+        <v>6</v>
+      </c>
+      <c r="J17" s="112">
+        <v>6</v>
+      </c>
+      <c r="K17" s="112">
+        <v>6</v>
+      </c>
       <c r="L17" s="112"/>
       <c r="M17" s="112"/>
       <c r="N17" s="112"/>
@@ -10809,23 +11050,31 @@
       <c r="A39" s="105">
         <v>35</v>
       </c>
-      <c r="B39" s="106"/>
+      <c r="B39" s="129" t="s">
+        <v>142</v>
+      </c>
       <c r="C39" s="107" t="s">
         <v>110</v>
       </c>
       <c r="D39" s="108" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E39" s="109"/>
+        <v>未着手</v>
+      </c>
+      <c r="E39" s="109">
+        <v>43042</v>
+      </c>
       <c r="F39" s="109"/>
-      <c r="G39" s="110"/>
+      <c r="G39" s="110">
+        <v>6</v>
+      </c>
       <c r="H39" s="110"/>
-      <c r="I39" s="111" t="str">
+      <c r="I39" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J39" s="112"/>
+        <v>6</v>
+      </c>
+      <c r="J39" s="112">
+        <v>6</v>
+      </c>
       <c r="K39" s="112"/>
       <c r="L39" s="112"/>
       <c r="M39" s="112"/>
@@ -10838,13 +11087,15 @@
       <c r="A40" s="105">
         <v>36</v>
       </c>
-      <c r="B40" s="106"/>
+      <c r="B40" s="129" t="s">
+        <v>145</v>
+      </c>
       <c r="C40" s="107" t="s">
         <v>110</v>
       </c>
       <c r="D40" s="108" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>未着手</v>
       </c>
       <c r="E40" s="109"/>
       <c r="F40" s="109"/>
@@ -10867,24 +11118,34 @@
       <c r="A41" s="105">
         <v>37</v>
       </c>
-      <c r="B41" s="106"/>
+      <c r="B41" s="129" t="s">
+        <v>146</v>
+      </c>
       <c r="C41" s="107" t="s">
         <v>110</v>
       </c>
       <c r="D41" s="108" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E41" s="109"/>
+        <v>未着手</v>
+      </c>
+      <c r="E41" s="109">
+        <v>43039</v>
+      </c>
       <c r="F41" s="109"/>
-      <c r="G41" s="110"/>
+      <c r="G41" s="110">
+        <v>3</v>
+      </c>
       <c r="H41" s="110"/>
-      <c r="I41" s="111" t="str">
+      <c r="I41" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J41" s="112"/>
-      <c r="K41" s="112"/>
+        <v>3</v>
+      </c>
+      <c r="J41" s="112">
+        <v>3</v>
+      </c>
+      <c r="K41" s="112">
+        <v>3</v>
+      </c>
       <c r="L41" s="112"/>
       <c r="M41" s="112"/>
       <c r="N41" s="112"/>
@@ -10896,24 +11157,34 @@
       <c r="A42" s="105">
         <v>38</v>
       </c>
-      <c r="B42" s="106"/>
+      <c r="B42" s="129" t="s">
+        <v>147</v>
+      </c>
       <c r="C42" s="107" t="s">
         <v>110</v>
       </c>
       <c r="D42" s="108" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E42" s="109"/>
+        <v>未着手</v>
+      </c>
+      <c r="E42" s="109">
+        <v>43039</v>
+      </c>
       <c r="F42" s="109"/>
-      <c r="G42" s="110"/>
+      <c r="G42" s="110">
+        <v>3</v>
+      </c>
       <c r="H42" s="110"/>
-      <c r="I42" s="111" t="str">
+      <c r="I42" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J42" s="112"/>
-      <c r="K42" s="112"/>
+        <v>3</v>
+      </c>
+      <c r="J42" s="112">
+        <v>3</v>
+      </c>
+      <c r="K42" s="112">
+        <v>3</v>
+      </c>
       <c r="L42" s="112"/>
       <c r="M42" s="112"/>
       <c r="N42" s="112"/>
@@ -11295,7 +11566,7 @@
       </c>
       <c r="F54" s="109"/>
       <c r="G54" s="110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H54" s="110"/>
       <c r="I54" s="111">
@@ -11334,7 +11605,7 @@
       </c>
       <c r="F55" s="109"/>
       <c r="G55" s="110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H55" s="110"/>
       <c r="I55" s="111">
@@ -11369,11 +11640,11 @@
         <v>未着手</v>
       </c>
       <c r="E56" s="109">
-        <v>43032</v>
+        <v>43035</v>
       </c>
       <c r="F56" s="109"/>
       <c r="G56" s="110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H56" s="110"/>
       <c r="I56" s="111">
@@ -11412,7 +11683,7 @@
       </c>
       <c r="F57" s="109"/>
       <c r="G57" s="110">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H57" s="110"/>
       <c r="I57" s="111">
@@ -11522,24 +11793,34 @@
       <c r="A60" s="105">
         <v>56</v>
       </c>
-      <c r="B60" s="106"/>
+      <c r="B60" s="129" t="s">
+        <v>128</v>
+      </c>
       <c r="C60" s="107" t="s">
         <v>111</v>
       </c>
       <c r="D60" s="108" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E60" s="109"/>
+        <v>未着手</v>
+      </c>
+      <c r="E60" s="4">
+        <v>43039</v>
+      </c>
       <c r="F60" s="109"/>
-      <c r="G60" s="110"/>
+      <c r="G60" s="110">
+        <v>1</v>
+      </c>
       <c r="H60" s="110"/>
-      <c r="I60" s="111" t="str">
+      <c r="I60" s="111">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J60" s="112"/>
-      <c r="K60" s="112"/>
+        <v>1</v>
+      </c>
+      <c r="J60" s="110">
+        <v>1</v>
+      </c>
+      <c r="K60" s="110">
+        <v>1</v>
+      </c>
       <c r="L60" s="112"/>
       <c r="M60" s="112"/>
       <c r="N60" s="112"/>
@@ -11551,24 +11832,34 @@
       <c r="A61" s="105">
         <v>57</v>
       </c>
-      <c r="B61" s="106"/>
+      <c r="B61" s="129" t="s">
+        <v>129</v>
+      </c>
       <c r="C61" s="107" t="s">
         <v>111</v>
       </c>
       <c r="D61" s="108" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E61" s="109"/>
+        <v>未着手</v>
+      </c>
+      <c r="E61" s="109">
+        <v>43039</v>
+      </c>
       <c r="F61" s="109"/>
-      <c r="G61" s="110"/>
+      <c r="G61" s="110">
+        <v>2</v>
+      </c>
       <c r="H61" s="110"/>
-      <c r="I61" s="111" t="str">
+      <c r="I61" s="111">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J61" s="112"/>
-      <c r="K61" s="112"/>
+        <v>2</v>
+      </c>
+      <c r="J61" s="110">
+        <v>2</v>
+      </c>
+      <c r="K61" s="110">
+        <v>2</v>
+      </c>
       <c r="L61" s="112"/>
       <c r="M61" s="112"/>
       <c r="N61" s="112"/>
@@ -11580,24 +11871,34 @@
       <c r="A62" s="105">
         <v>58</v>
       </c>
-      <c r="B62" s="106"/>
+      <c r="B62" s="129" t="s">
+        <v>130</v>
+      </c>
       <c r="C62" s="107" t="s">
         <v>111</v>
       </c>
       <c r="D62" s="108" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E62" s="109"/>
+        <v>未着手</v>
+      </c>
+      <c r="E62" s="109">
+        <v>43039</v>
+      </c>
       <c r="F62" s="109"/>
-      <c r="G62" s="110"/>
+      <c r="G62" s="110">
+        <v>3</v>
+      </c>
       <c r="H62" s="110"/>
-      <c r="I62" s="111" t="str">
+      <c r="I62" s="111">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J62" s="112"/>
-      <c r="K62" s="112"/>
+        <v>3</v>
+      </c>
+      <c r="J62" s="110">
+        <v>3</v>
+      </c>
+      <c r="K62" s="110">
+        <v>3</v>
+      </c>
       <c r="L62" s="112"/>
       <c r="M62" s="112"/>
       <c r="N62" s="112"/>
@@ -11609,24 +11910,34 @@
       <c r="A63" s="105">
         <v>59</v>
       </c>
-      <c r="B63" s="106"/>
+      <c r="B63" s="129" t="s">
+        <v>139</v>
+      </c>
       <c r="C63" s="107" t="s">
         <v>111</v>
       </c>
       <c r="D63" s="108" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E63" s="109"/>
+        <v>未着手</v>
+      </c>
+      <c r="E63" s="109">
+        <v>43035</v>
+      </c>
       <c r="F63" s="109"/>
-      <c r="G63" s="110"/>
+      <c r="G63" s="110">
+        <v>1</v>
+      </c>
       <c r="H63" s="110"/>
-      <c r="I63" s="111" t="str">
+      <c r="I63" s="111">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J63" s="112"/>
-      <c r="K63" s="112"/>
+        <v>1</v>
+      </c>
+      <c r="J63" s="110">
+        <v>1</v>
+      </c>
+      <c r="K63" s="110">
+        <v>1</v>
+      </c>
       <c r="L63" s="112"/>
       <c r="M63" s="112"/>
       <c r="N63" s="112"/>
@@ -11638,24 +11949,34 @@
       <c r="A64" s="105">
         <v>60</v>
       </c>
-      <c r="B64" s="106"/>
+      <c r="B64" s="129" t="s">
+        <v>142</v>
+      </c>
       <c r="C64" s="107" t="s">
         <v>111</v>
       </c>
       <c r="D64" s="108" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E64" s="109"/>
+        <v>未着手</v>
+      </c>
+      <c r="E64" s="109">
+        <v>43042</v>
+      </c>
       <c r="F64" s="109"/>
-      <c r="G64" s="110"/>
+      <c r="G64" s="110">
+        <v>6</v>
+      </c>
       <c r="H64" s="110"/>
-      <c r="I64" s="111" t="str">
+      <c r="I64" s="111">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J64" s="112"/>
-      <c r="K64" s="112"/>
+        <v>6</v>
+      </c>
+      <c r="J64" s="112">
+        <v>6</v>
+      </c>
+      <c r="K64" s="112">
+        <v>6</v>
+      </c>
       <c r="L64" s="112"/>
       <c r="M64" s="112"/>
       <c r="N64" s="112"/>
@@ -12322,7 +12643,7 @@
       </c>
       <c r="H85" s="110"/>
       <c r="I85" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J85)=FALSE,OFFSET(I85,0,COUNTA(J85:Q85)),"")</f>
         <v>3</v>
       </c>
       <c r="J85" s="112">
@@ -12361,7 +12682,7 @@
       </c>
       <c r="H86" s="110"/>
       <c r="I86" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J86)=FALSE,OFFSET(I86,0,COUNTA(J86:Q86)),"")</f>
         <v>2</v>
       </c>
       <c r="J86" s="112">
@@ -12420,24 +12741,34 @@
       <c r="A88" s="105">
         <v>84</v>
       </c>
-      <c r="B88" s="106"/>
+      <c r="B88" s="129" t="s">
+        <v>142</v>
+      </c>
       <c r="C88" s="107" t="s">
         <v>112</v>
       </c>
       <c r="D88" s="108" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E88" s="109"/>
+        <v>未着手</v>
+      </c>
+      <c r="E88" s="109">
+        <v>43042</v>
+      </c>
       <c r="F88" s="109"/>
-      <c r="G88" s="110"/>
+      <c r="G88" s="110">
+        <v>3</v>
+      </c>
       <c r="H88" s="110"/>
-      <c r="I88" s="111" t="str">
+      <c r="I88" s="111">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J88" s="112"/>
-      <c r="K88" s="112"/>
+        <v>6</v>
+      </c>
+      <c r="J88" s="112">
+        <v>6</v>
+      </c>
+      <c r="K88" s="112">
+        <v>6</v>
+      </c>
       <c r="L88" s="112"/>
       <c r="M88" s="112"/>
       <c r="N88" s="112"/>
@@ -12449,24 +12780,34 @@
       <c r="A89" s="105">
         <v>85</v>
       </c>
-      <c r="B89" s="106"/>
+      <c r="B89" s="129" t="s">
+        <v>143</v>
+      </c>
       <c r="C89" s="107" t="s">
         <v>112</v>
       </c>
       <c r="D89" s="108" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E89" s="109"/>
+        <v>未着手</v>
+      </c>
+      <c r="E89" s="109">
+        <v>43035</v>
+      </c>
       <c r="F89" s="109"/>
-      <c r="G89" s="110"/>
+      <c r="G89" s="110">
+        <v>2</v>
+      </c>
       <c r="H89" s="110"/>
-      <c r="I89" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J89" s="112"/>
-      <c r="K89" s="112"/>
+      <c r="I89" s="111">
+        <f ca="1">IF(ISBLANK(J89)=FALSE,OFFSET(I89,0,COUNTA(J89:Q89)),"")</f>
+        <v>2</v>
+      </c>
+      <c r="J89" s="112">
+        <v>2</v>
+      </c>
+      <c r="K89" s="112">
+        <v>2</v>
+      </c>
       <c r="L89" s="112"/>
       <c r="M89" s="112"/>
       <c r="N89" s="112"/>
@@ -12478,24 +12819,34 @@
       <c r="A90" s="105">
         <v>86</v>
       </c>
-      <c r="B90" s="106"/>
+      <c r="B90" s="129" t="s">
+        <v>144</v>
+      </c>
       <c r="C90" s="107" t="s">
         <v>112</v>
       </c>
       <c r="D90" s="108" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E90" s="109"/>
+        <v>未着手</v>
+      </c>
+      <c r="E90" s="109">
+        <v>43042</v>
+      </c>
       <c r="F90" s="109"/>
-      <c r="G90" s="110"/>
+      <c r="G90" s="110">
+        <v>3</v>
+      </c>
       <c r="H90" s="110"/>
-      <c r="I90" s="111" t="str">
+      <c r="I90" s="111">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J90" s="112"/>
-      <c r="K90" s="112"/>
+        <v>3</v>
+      </c>
+      <c r="J90" s="112">
+        <v>3</v>
+      </c>
+      <c r="K90" s="112">
+        <v>3</v>
+      </c>
       <c r="L90" s="112"/>
       <c r="M90" s="112"/>
       <c r="N90" s="112"/>
@@ -12541,7 +12892,7 @@
         <v>112</v>
       </c>
       <c r="D92" s="111" t="str">
-        <f t="shared" ref="D92:D104" si="5">IF(ISBLANK($B92),"",IF(ISBLANK($F92),"未着手",IF($I92=0,"完了","作業中")))</f>
+        <f t="shared" ref="D92:D155" si="5">IF(ISBLANK($B92),"",IF(ISBLANK($F92),"未着手",IF($I92=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="E92" s="109"/>
@@ -12878,22 +13229,36 @@
       <c r="A104" s="105">
         <v>100</v>
       </c>
-      <c r="B104" s="116"/>
-      <c r="C104" s="115"/>
+      <c r="B104" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>127</v>
+      </c>
       <c r="D104" s="111" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E104" s="109"/>
-      <c r="F104" s="109"/>
-      <c r="G104" s="110"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>作業中</v>
+      </c>
+      <c r="E104" s="109">
+        <v>43025</v>
+      </c>
+      <c r="F104" s="109">
+        <v>43025</v>
+      </c>
+      <c r="G104" s="110">
+        <v>4</v>
+      </c>
       <c r="H104" s="110"/>
-      <c r="I104" s="111" t="str">
+      <c r="I104" s="111">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J104" s="112"/>
-      <c r="K104" s="112"/>
+        <v>4</v>
+      </c>
+      <c r="J104" s="112">
+        <v>4</v>
+      </c>
+      <c r="K104" s="112">
+        <v>4</v>
+      </c>
       <c r="L104" s="112"/>
       <c r="M104" s="112"/>
       <c r="N104" s="112"/>
@@ -12902,24 +13267,84 @@
       <c r="Q104" s="112"/>
     </row>
     <row r="105" spans="1:24" ht="10.5" customHeight="1">
-      <c r="J105" s="122"/>
-      <c r="K105" s="122"/>
-      <c r="L105" s="122"/>
-      <c r="M105" s="122"/>
-      <c r="N105" s="122"/>
-      <c r="O105" s="122"/>
-      <c r="P105" s="122"/>
-      <c r="Q105" s="122"/>
+      <c r="A105" s="105">
+        <v>101</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D105" s="111" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>作業中</v>
+      </c>
+      <c r="E105" s="109">
+        <v>43028</v>
+      </c>
+      <c r="F105" s="109">
+        <v>43028</v>
+      </c>
+      <c r="G105" s="110">
+        <v>4</v>
+      </c>
+      <c r="H105" s="110"/>
+      <c r="I105" s="111">
+        <f t="shared" ref="I105:I157" ca="1" si="6">IF(ISBLANK(J105)=FALSE,OFFSET(I105,0,COUNTA(J105:Q105)),"")</f>
+        <v>4</v>
+      </c>
+      <c r="J105" s="112">
+        <v>4</v>
+      </c>
+      <c r="K105" s="112">
+        <v>4</v>
+      </c>
+      <c r="L105" s="112"/>
+      <c r="M105" s="112"/>
+      <c r="N105" s="112"/>
+      <c r="O105" s="112"/>
+      <c r="P105" s="112"/>
+      <c r="Q105" s="112"/>
     </row>
     <row r="106" spans="1:24">
-      <c r="J106" s="122"/>
-      <c r="K106" s="122"/>
-      <c r="L106" s="122"/>
-      <c r="M106" s="122"/>
-      <c r="N106" s="122"/>
-      <c r="O106" s="122"/>
-      <c r="P106" s="122"/>
-      <c r="Q106" s="122"/>
+      <c r="A106" s="105">
+        <v>102</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D106" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v>未着手</v>
+      </c>
+      <c r="E106" s="109">
+        <v>43032</v>
+      </c>
+      <c r="F106" s="109"/>
+      <c r="G106" s="110">
+        <v>4</v>
+      </c>
+      <c r="H106" s="110"/>
+      <c r="I106" s="111">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J106" s="112">
+        <v>4</v>
+      </c>
+      <c r="K106" s="112">
+        <v>4</v>
+      </c>
+      <c r="L106" s="112"/>
+      <c r="M106" s="112"/>
+      <c r="N106" s="112"/>
+      <c r="O106" s="112"/>
+      <c r="P106" s="112"/>
+      <c r="Q106" s="112"/>
       <c r="S106" s="123" t="s">
         <v>11</v>
       </c>
@@ -12940,31 +13365,60 @@
       </c>
     </row>
     <row r="107" spans="1:24">
-      <c r="J107" s="122"/>
-      <c r="K107" s="122"/>
-      <c r="L107" s="122"/>
-      <c r="M107" s="122"/>
-      <c r="N107" s="122"/>
-      <c r="O107" s="122"/>
-      <c r="P107" s="122"/>
-      <c r="Q107" s="122"/>
+      <c r="A107" s="105">
+        <v>103</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D107" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v>未着手</v>
+      </c>
+      <c r="E107" s="109">
+        <v>43035</v>
+      </c>
+      <c r="F107" s="109"/>
+      <c r="G107" s="110">
+        <v>4</v>
+      </c>
+      <c r="H107" s="110"/>
+      <c r="I107" s="111">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J107" s="112">
+        <v>4</v>
+      </c>
+      <c r="K107" s="112">
+        <v>4</v>
+      </c>
+      <c r="L107" s="112"/>
+      <c r="M107" s="112"/>
+      <c r="N107" s="112"/>
+      <c r="O107" s="112"/>
+      <c r="P107" s="112"/>
+      <c r="Q107" s="112"/>
       <c r="S107" s="124" t="s">
         <v>114</v>
       </c>
       <c r="T107" s="125">
-        <f t="shared" ref="T107:T116" si="6">SUMIF($C$5:$C$104,S107,$G$5:$G$104)</f>
-        <v>30</v>
+        <f>SUMIF($C$5:$C$157,S107,$G$5:$G$157)</f>
+        <v>39</v>
       </c>
       <c r="U107" s="125">
-        <f t="shared" ref="U107:U116" ca="1" si="7">SUMIF($C$5:$C$104,S107,$I$5:$I$104)</f>
-        <v>21</v>
+        <f ca="1">SUMIF($C$5:$C$156,S107,$I$5:$I$157)</f>
+        <v>24</v>
       </c>
       <c r="V107" s="125">
-        <f t="shared" ref="V107:V116" si="8">SUMIF($C$5:$C$104,S107,$H$5:$H$104)</f>
+        <f>SUMIF($C$5:$C$157,S107,$H$5:$H$157)</f>
         <v>11</v>
       </c>
       <c r="W107" s="126">
-        <f t="shared" ref="W107:W116" si="9">COUNTA($J$2:$Q$2)*6-COUNTA($J$4:$Q$4)*6</f>
+        <f>COUNTA($J$2:$Q$2)*6-COUNTA($J$4:$Q$4)*6</f>
         <v>36</v>
       </c>
       <c r="X107" s="127">
@@ -12973,703 +13427,1609 @@
       </c>
     </row>
     <row r="108" spans="1:24">
-      <c r="J108" s="122"/>
-      <c r="K108" s="122"/>
-      <c r="L108" s="122"/>
-      <c r="M108" s="122"/>
-      <c r="N108" s="122"/>
-      <c r="O108" s="122"/>
-      <c r="P108" s="122"/>
-      <c r="Q108" s="122"/>
+      <c r="A108" s="105">
+        <v>104</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D108" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v>未着手</v>
+      </c>
+      <c r="E108" s="109">
+        <v>43039</v>
+      </c>
+      <c r="F108" s="109"/>
+      <c r="G108" s="110">
+        <v>4</v>
+      </c>
+      <c r="H108" s="110"/>
+      <c r="I108" s="111">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J108" s="112">
+        <v>4</v>
+      </c>
+      <c r="K108" s="112">
+        <v>4</v>
+      </c>
+      <c r="L108" s="112"/>
+      <c r="M108" s="112"/>
+      <c r="N108" s="112"/>
+      <c r="O108" s="112"/>
+      <c r="P108" s="112"/>
+      <c r="Q108" s="112"/>
       <c r="S108" s="124" t="s">
         <v>115</v>
       </c>
       <c r="T108" s="125">
-        <f t="shared" si="6"/>
-        <v>26</v>
+        <f t="shared" ref="T108:T116" si="7">SUMIF($C$5:$C$157,S108,$G$5:$G$157)</f>
+        <v>38</v>
       </c>
       <c r="U108" s="125">
-        <f t="shared" ca="1" si="7"/>
-        <v>17</v>
+        <f t="shared" ref="U108:U116" ca="1" si="8">SUMIF($C$5:$C$156,S108,$I$5:$I$157)</f>
+        <v>29</v>
       </c>
       <c r="V108" s="125">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="V108:V116" si="9">SUMIF($C$5:$C$157,S108,$H$5:$H$157)</f>
         <v>10</v>
       </c>
       <c r="W108" s="126">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="W108:W116" si="10">COUNTA($J$2:$Q$2)*6-COUNTA($J$4:$Q$4)*6</f>
         <v>36</v>
       </c>
       <c r="X108" s="127">
-        <f t="shared" ref="X108:X116" ca="1" si="10">IF(W108&gt;U108,0,U108-W108)</f>
+        <f t="shared" ref="X108:X116" ca="1" si="11">IF(W108&gt;U108,0,U108-W108)</f>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:24">
-      <c r="J109" s="122"/>
-      <c r="K109" s="122"/>
-      <c r="L109" s="122"/>
-      <c r="M109" s="122"/>
-      <c r="N109" s="122"/>
-      <c r="O109" s="122"/>
-      <c r="P109" s="122"/>
-      <c r="Q109" s="122"/>
+      <c r="A109" s="105">
+        <v>105</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D109" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v>未着手</v>
+      </c>
+      <c r="E109" s="109">
+        <v>43046</v>
+      </c>
+      <c r="F109" s="109"/>
+      <c r="G109" s="110">
+        <v>3</v>
+      </c>
+      <c r="H109" s="110"/>
+      <c r="I109" s="111">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J109" s="112">
+        <v>4</v>
+      </c>
+      <c r="K109" s="112">
+        <v>4</v>
+      </c>
+      <c r="L109" s="112"/>
+      <c r="M109" s="112"/>
+      <c r="N109" s="112"/>
+      <c r="O109" s="112"/>
+      <c r="P109" s="112"/>
+      <c r="Q109" s="112"/>
       <c r="S109" s="124" t="s">
         <v>116</v>
       </c>
       <c r="T109" s="125">
-        <f t="shared" si="6"/>
-        <v>26</v>
+        <f t="shared" si="7"/>
+        <v>38</v>
       </c>
       <c r="U109" s="125">
-        <f t="shared" ca="1" si="7"/>
-        <v>18</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>31</v>
       </c>
       <c r="V109" s="125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="W109" s="126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="X109" s="127">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:24">
-      <c r="J110" s="122"/>
-      <c r="K110" s="122"/>
-      <c r="L110" s="122"/>
-      <c r="M110" s="122"/>
-      <c r="N110" s="122"/>
-      <c r="O110" s="122"/>
-      <c r="P110" s="122"/>
-      <c r="Q110" s="122"/>
+      <c r="A110" s="105">
+        <v>106</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D110" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v>未着手</v>
+      </c>
+      <c r="E110" s="4">
+        <v>43046</v>
+      </c>
+      <c r="F110" s="109"/>
+      <c r="G110" s="110">
+        <v>3</v>
+      </c>
+      <c r="H110" s="110"/>
+      <c r="I110" s="111">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J110" s="112">
+        <v>4</v>
+      </c>
+      <c r="K110" s="112">
+        <v>4</v>
+      </c>
+      <c r="L110" s="112"/>
+      <c r="M110" s="112"/>
+      <c r="N110" s="112"/>
+      <c r="O110" s="112"/>
+      <c r="P110" s="112"/>
+      <c r="Q110" s="112"/>
       <c r="S110" s="124" t="s">
         <v>117</v>
       </c>
       <c r="T110" s="125">
-        <f t="shared" si="6"/>
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>28</v>
       </c>
       <c r="U110" s="125">
-        <f t="shared" ca="1" si="7"/>
-        <v>16</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>27</v>
       </c>
       <c r="V110" s="125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="W110" s="126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="X110" s="127">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:24">
-      <c r="J111" s="122"/>
-      <c r="K111" s="122"/>
-      <c r="L111" s="122"/>
-      <c r="M111" s="122"/>
-      <c r="N111" s="122"/>
-      <c r="O111" s="122"/>
-      <c r="P111" s="122"/>
-      <c r="Q111" s="122"/>
+      <c r="A111" s="105">
+        <v>107</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D111" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v>未着手</v>
+      </c>
+      <c r="E111" s="109">
+        <v>43049</v>
+      </c>
+      <c r="F111" s="109"/>
+      <c r="G111" s="110">
+        <v>4</v>
+      </c>
+      <c r="H111" s="110"/>
+      <c r="I111" s="111">
+        <f ca="1">IF(ISBLANK(J111)=FALSE,OFFSET(I111,0,COUNTA(J111:Q111)),"")</f>
+        <v>4</v>
+      </c>
+      <c r="J111" s="112">
+        <v>4</v>
+      </c>
+      <c r="K111" s="112">
+        <v>4</v>
+      </c>
+      <c r="L111" s="112"/>
+      <c r="M111" s="112"/>
+      <c r="N111" s="112"/>
+      <c r="O111" s="112"/>
+      <c r="P111" s="112"/>
+      <c r="Q111" s="112"/>
       <c r="S111" s="124" t="s">
         <v>118</v>
       </c>
       <c r="T111" s="125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="U111" s="125">
+        <f t="shared" ca="1" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="V111" s="125">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U111" s="125">
+      <c r="W111" s="126">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="X111" s="127">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24">
+      <c r="A112" s="105">
+        <v>108</v>
+      </c>
+      <c r="B112" s="129" t="s">
+        <v>141</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D112" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v>未着手</v>
+      </c>
+      <c r="E112" s="109">
+        <v>43042</v>
+      </c>
+      <c r="F112" s="109"/>
+      <c r="G112" s="110">
+        <v>6</v>
+      </c>
+      <c r="H112" s="110"/>
+      <c r="I112" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J112" s="112"/>
+      <c r="K112" s="112"/>
+      <c r="L112" s="112"/>
+      <c r="M112" s="112"/>
+      <c r="N112" s="112"/>
+      <c r="O112" s="112"/>
+      <c r="P112" s="112"/>
+      <c r="Q112" s="112"/>
+      <c r="S112" s="124"/>
+      <c r="T112" s="125">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V111" s="125">
+      <c r="U112" s="125">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W111" s="126">
+      <c r="V112" s="125">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W112" s="126">
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="X111" s="127">
-        <f t="shared" si="10"/>
+      <c r="X112" s="127">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:24">
-      <c r="J112" s="122"/>
-      <c r="K112" s="122"/>
-      <c r="L112" s="122"/>
-      <c r="M112" s="122"/>
-      <c r="N112" s="122"/>
-      <c r="O112" s="122"/>
-      <c r="P112" s="122"/>
-      <c r="Q112" s="122"/>
-      <c r="S112" s="124"/>
-      <c r="T112" s="125">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U112" s="125">
+    <row r="113" spans="1:24">
+      <c r="A113" s="105">
+        <v>109</v>
+      </c>
+      <c r="B113" s="116"/>
+      <c r="C113" s="115"/>
+      <c r="D113" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E113" s="109"/>
+      <c r="F113" s="109"/>
+      <c r="G113" s="110"/>
+      <c r="H113" s="110"/>
+      <c r="I113" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J113" s="112"/>
+      <c r="K113" s="112"/>
+      <c r="L113" s="112"/>
+      <c r="M113" s="112"/>
+      <c r="N113" s="112"/>
+      <c r="O113" s="112"/>
+      <c r="P113" s="112"/>
+      <c r="Q113" s="112"/>
+      <c r="S113" s="124"/>
+      <c r="T113" s="125">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V112" s="125">
+      <c r="U113" s="125">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W112" s="126">
+      <c r="V113" s="125">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W113" s="126">
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="X112" s="127">
-        <f t="shared" si="10"/>
+      <c r="X113" s="127">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="10:24">
-      <c r="J113" s="122"/>
-      <c r="K113" s="122"/>
-      <c r="L113" s="122"/>
-      <c r="M113" s="122"/>
-      <c r="N113" s="122"/>
-      <c r="O113" s="122"/>
-      <c r="P113" s="122"/>
-      <c r="Q113" s="122"/>
-      <c r="S113" s="124"/>
-      <c r="T113" s="125">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U113" s="125">
+    <row r="114" spans="1:24">
+      <c r="A114" s="105">
+        <v>110</v>
+      </c>
+      <c r="B114" s="116"/>
+      <c r="C114" s="115"/>
+      <c r="D114" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E114" s="109"/>
+      <c r="F114" s="109"/>
+      <c r="G114" s="110"/>
+      <c r="H114" s="110"/>
+      <c r="I114" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J114" s="112"/>
+      <c r="K114" s="112"/>
+      <c r="L114" s="112"/>
+      <c r="M114" s="112"/>
+      <c r="N114" s="112"/>
+      <c r="O114" s="112"/>
+      <c r="P114" s="112"/>
+      <c r="Q114" s="112"/>
+      <c r="S114" s="124"/>
+      <c r="T114" s="125">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V113" s="125">
+      <c r="U114" s="125">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W113" s="126">
+      <c r="V114" s="125">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W114" s="126">
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="X113" s="127">
-        <f t="shared" si="10"/>
+      <c r="X114" s="127">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="10:24">
-      <c r="J114" s="122"/>
-      <c r="K114" s="122"/>
-      <c r="L114" s="122"/>
-      <c r="M114" s="122"/>
-      <c r="N114" s="122"/>
-      <c r="O114" s="122"/>
-      <c r="P114" s="122"/>
-      <c r="Q114" s="122"/>
-      <c r="S114" s="124"/>
-      <c r="T114" s="125">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U114" s="125">
+    <row r="115" spans="1:24">
+      <c r="A115" s="105">
+        <v>111</v>
+      </c>
+      <c r="B115" s="116"/>
+      <c r="C115" s="115"/>
+      <c r="D115" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E115" s="109"/>
+      <c r="F115" s="109"/>
+      <c r="G115" s="110"/>
+      <c r="H115" s="110"/>
+      <c r="I115" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J115" s="112"/>
+      <c r="K115" s="112"/>
+      <c r="L115" s="112"/>
+      <c r="M115" s="112"/>
+      <c r="N115" s="112"/>
+      <c r="O115" s="112"/>
+      <c r="P115" s="112"/>
+      <c r="Q115" s="112"/>
+      <c r="S115" s="124"/>
+      <c r="T115" s="125">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V114" s="125">
+      <c r="U115" s="125">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W114" s="126">
+      <c r="V115" s="125">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W115" s="126">
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="X114" s="127">
-        <f t="shared" si="10"/>
+      <c r="X115" s="127">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="10:24">
-      <c r="J115" s="122"/>
-      <c r="K115" s="122"/>
-      <c r="L115" s="122"/>
-      <c r="M115" s="122"/>
-      <c r="N115" s="122"/>
-      <c r="O115" s="122"/>
-      <c r="P115" s="122"/>
-      <c r="Q115" s="122"/>
-      <c r="S115" s="124"/>
-      <c r="T115" s="125">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U115" s="125">
+    <row r="116" spans="1:24">
+      <c r="A116" s="105">
+        <v>112</v>
+      </c>
+      <c r="B116" s="116"/>
+      <c r="C116" s="115"/>
+      <c r="D116" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E116" s="109"/>
+      <c r="F116" s="109"/>
+      <c r="G116" s="110"/>
+      <c r="H116" s="110"/>
+      <c r="I116" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J116" s="112"/>
+      <c r="K116" s="112"/>
+      <c r="L116" s="112"/>
+      <c r="M116" s="112"/>
+      <c r="N116" s="112"/>
+      <c r="O116" s="112"/>
+      <c r="P116" s="112"/>
+      <c r="Q116" s="112"/>
+      <c r="S116" s="124"/>
+      <c r="T116" s="125">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V115" s="125">
+      <c r="U116" s="125">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W115" s="126">
+      <c r="V116" s="125">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W116" s="126">
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="X115" s="127">
-        <f t="shared" si="10"/>
+      <c r="X116" s="127">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="10:24">
-      <c r="J116" s="122"/>
-      <c r="K116" s="122"/>
-      <c r="L116" s="122"/>
-      <c r="M116" s="122"/>
-      <c r="N116" s="122"/>
-      <c r="O116" s="122"/>
-      <c r="P116" s="122"/>
-      <c r="Q116" s="122"/>
-      <c r="S116" s="124"/>
-      <c r="T116" s="125">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U116" s="125">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V116" s="125">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W116" s="126">
-        <f t="shared" si="9"/>
-        <v>36</v>
-      </c>
-      <c r="X116" s="127">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="10:24">
-      <c r="J117" s="122"/>
-      <c r="K117" s="122"/>
-      <c r="L117" s="122"/>
-      <c r="M117" s="122"/>
-      <c r="N117" s="122"/>
-      <c r="O117" s="122"/>
-      <c r="P117" s="122"/>
-      <c r="Q117" s="122"/>
-    </row>
-    <row r="118" spans="10:24">
-      <c r="J118" s="122"/>
-      <c r="K118" s="122"/>
-      <c r="L118" s="122"/>
-      <c r="M118" s="122"/>
-      <c r="N118" s="122"/>
-      <c r="O118" s="122"/>
-      <c r="P118" s="122"/>
-      <c r="Q118" s="122"/>
-    </row>
-    <row r="119" spans="10:24">
-      <c r="J119" s="122"/>
-      <c r="K119" s="122"/>
-      <c r="L119" s="122"/>
-      <c r="M119" s="122"/>
-      <c r="N119" s="122"/>
-      <c r="O119" s="122"/>
-      <c r="P119" s="122"/>
-      <c r="Q119" s="122"/>
-    </row>
-    <row r="120" spans="10:24">
-      <c r="J120" s="122"/>
-      <c r="K120" s="122"/>
-      <c r="L120" s="122"/>
-      <c r="M120" s="122"/>
-      <c r="N120" s="122"/>
-      <c r="O120" s="122"/>
-      <c r="P120" s="122"/>
-      <c r="Q120" s="122"/>
-    </row>
-    <row r="121" spans="10:24">
-      <c r="J121" s="122"/>
-      <c r="K121" s="122"/>
-      <c r="L121" s="122"/>
-      <c r="M121" s="122"/>
-      <c r="N121" s="122"/>
-      <c r="O121" s="122"/>
-      <c r="P121" s="122"/>
-      <c r="Q121" s="122"/>
-    </row>
-    <row r="122" spans="10:24">
-      <c r="J122" s="122"/>
-      <c r="K122" s="122"/>
-      <c r="L122" s="122"/>
-      <c r="M122" s="122"/>
-      <c r="N122" s="122"/>
-      <c r="O122" s="122"/>
-      <c r="P122" s="122"/>
-      <c r="Q122" s="122"/>
-    </row>
-    <row r="123" spans="10:24">
-      <c r="J123" s="122"/>
-      <c r="K123" s="122"/>
-      <c r="L123" s="122"/>
-      <c r="M123" s="122"/>
-      <c r="N123" s="122"/>
-      <c r="O123" s="122"/>
-      <c r="P123" s="122"/>
-      <c r="Q123" s="122"/>
-    </row>
-    <row r="124" spans="10:24">
-      <c r="J124" s="122"/>
-      <c r="K124" s="122"/>
-      <c r="L124" s="122"/>
-      <c r="M124" s="122"/>
-      <c r="N124" s="122"/>
-      <c r="O124" s="122"/>
-      <c r="P124" s="122"/>
-      <c r="Q124" s="122"/>
-    </row>
-    <row r="125" spans="10:24">
-      <c r="J125" s="122"/>
-      <c r="K125" s="122"/>
-      <c r="L125" s="122"/>
-      <c r="M125" s="122"/>
-      <c r="N125" s="122"/>
-      <c r="O125" s="122"/>
-      <c r="P125" s="122"/>
-      <c r="Q125" s="122"/>
-    </row>
-    <row r="126" spans="10:24">
-      <c r="J126" s="122"/>
-      <c r="K126" s="122"/>
-      <c r="L126" s="122"/>
-      <c r="M126" s="122"/>
-      <c r="N126" s="122"/>
-      <c r="O126" s="122"/>
-      <c r="P126" s="122"/>
-      <c r="Q126" s="122"/>
-    </row>
-    <row r="127" spans="10:24">
-      <c r="J127" s="122"/>
-      <c r="K127" s="122"/>
-      <c r="L127" s="122"/>
-      <c r="M127" s="122"/>
-      <c r="N127" s="122"/>
-      <c r="O127" s="122"/>
-      <c r="P127" s="122"/>
-      <c r="Q127" s="122"/>
-    </row>
-    <row r="128" spans="10:24">
-      <c r="J128" s="122"/>
-      <c r="K128" s="122"/>
-      <c r="L128" s="122"/>
-      <c r="M128" s="122"/>
-      <c r="N128" s="122"/>
-      <c r="O128" s="122"/>
-      <c r="P128" s="122"/>
-      <c r="Q128" s="122"/>
-    </row>
-    <row r="129" spans="10:17">
-      <c r="J129" s="122"/>
-      <c r="K129" s="122"/>
-      <c r="L129" s="122"/>
-      <c r="M129" s="122"/>
-      <c r="N129" s="122"/>
-      <c r="O129" s="122"/>
-      <c r="P129" s="122"/>
-      <c r="Q129" s="122"/>
-    </row>
-    <row r="130" spans="10:17">
-      <c r="J130" s="122"/>
-      <c r="K130" s="122"/>
-      <c r="L130" s="122"/>
-      <c r="M130" s="122"/>
-      <c r="N130" s="122"/>
-      <c r="O130" s="122"/>
-      <c r="P130" s="122"/>
-      <c r="Q130" s="122"/>
-    </row>
-    <row r="131" spans="10:17">
-      <c r="J131" s="122"/>
-      <c r="K131" s="122"/>
-      <c r="L131" s="122"/>
-      <c r="M131" s="122"/>
-      <c r="N131" s="122"/>
-      <c r="O131" s="122"/>
-      <c r="P131" s="122"/>
-      <c r="Q131" s="122"/>
-    </row>
-    <row r="132" spans="10:17">
-      <c r="J132" s="122"/>
-      <c r="K132" s="122"/>
-      <c r="L132" s="122"/>
-      <c r="M132" s="122"/>
-      <c r="N132" s="122"/>
-      <c r="O132" s="122"/>
-      <c r="P132" s="122"/>
-      <c r="Q132" s="122"/>
-    </row>
-    <row r="133" spans="10:17">
-      <c r="J133" s="122"/>
-      <c r="K133" s="122"/>
-      <c r="L133" s="122"/>
-      <c r="M133" s="122"/>
-      <c r="N133" s="122"/>
-      <c r="O133" s="122"/>
-      <c r="P133" s="122"/>
-      <c r="Q133" s="122"/>
-    </row>
-    <row r="134" spans="10:17">
-      <c r="J134" s="122"/>
-      <c r="K134" s="122"/>
-      <c r="L134" s="122"/>
-      <c r="M134" s="122"/>
-      <c r="N134" s="122"/>
-      <c r="O134" s="122"/>
-      <c r="P134" s="122"/>
-      <c r="Q134" s="122"/>
-    </row>
-    <row r="135" spans="10:17">
-      <c r="J135" s="122"/>
-      <c r="K135" s="122"/>
-      <c r="L135" s="122"/>
-      <c r="M135" s="122"/>
-      <c r="N135" s="122"/>
-      <c r="O135" s="122"/>
-      <c r="P135" s="122"/>
-      <c r="Q135" s="122"/>
-    </row>
-    <row r="136" spans="10:17">
-      <c r="J136" s="122"/>
-      <c r="K136" s="122"/>
-      <c r="L136" s="122"/>
-      <c r="M136" s="122"/>
-      <c r="N136" s="122"/>
-      <c r="O136" s="122"/>
-      <c r="P136" s="122"/>
-      <c r="Q136" s="122"/>
-    </row>
-    <row r="137" spans="10:17">
-      <c r="J137" s="122"/>
-      <c r="K137" s="122"/>
-      <c r="L137" s="122"/>
-      <c r="M137" s="122"/>
-      <c r="N137" s="122"/>
-      <c r="O137" s="122"/>
-      <c r="P137" s="122"/>
-      <c r="Q137" s="122"/>
-    </row>
-    <row r="138" spans="10:17">
-      <c r="J138" s="122"/>
-      <c r="K138" s="122"/>
-      <c r="L138" s="122"/>
-      <c r="M138" s="122"/>
-      <c r="N138" s="122"/>
-      <c r="O138" s="122"/>
-      <c r="P138" s="122"/>
-      <c r="Q138" s="122"/>
-    </row>
-    <row r="139" spans="10:17">
-      <c r="J139" s="122"/>
-      <c r="K139" s="122"/>
-      <c r="L139" s="122"/>
-      <c r="M139" s="122"/>
-      <c r="N139" s="122"/>
-      <c r="O139" s="122"/>
-      <c r="P139" s="122"/>
-      <c r="Q139" s="122"/>
-    </row>
-    <row r="140" spans="10:17">
-      <c r="J140" s="122"/>
-      <c r="K140" s="122"/>
-      <c r="L140" s="122"/>
-      <c r="M140" s="122"/>
-      <c r="N140" s="122"/>
-      <c r="O140" s="122"/>
-      <c r="P140" s="122"/>
-      <c r="Q140" s="122"/>
-    </row>
-    <row r="141" spans="10:17">
-      <c r="J141" s="122"/>
-      <c r="K141" s="122"/>
-      <c r="L141" s="122"/>
-      <c r="M141" s="122"/>
-      <c r="N141" s="122"/>
-      <c r="O141" s="122"/>
-      <c r="P141" s="122"/>
-      <c r="Q141" s="122"/>
-    </row>
-    <row r="142" spans="10:17">
-      <c r="J142" s="122"/>
-      <c r="K142" s="122"/>
-      <c r="L142" s="122"/>
-      <c r="M142" s="122"/>
-      <c r="N142" s="122"/>
-      <c r="O142" s="122"/>
-      <c r="P142" s="122"/>
-      <c r="Q142" s="122"/>
-    </row>
-    <row r="143" spans="10:17">
-      <c r="J143" s="122"/>
-      <c r="K143" s="122"/>
-      <c r="L143" s="122"/>
-      <c r="M143" s="122"/>
-      <c r="N143" s="122"/>
-      <c r="O143" s="122"/>
-      <c r="P143" s="122"/>
-      <c r="Q143" s="122"/>
-    </row>
-    <row r="144" spans="10:17">
-      <c r="J144" s="122"/>
-      <c r="K144" s="122"/>
-      <c r="L144" s="122"/>
-      <c r="M144" s="122"/>
-      <c r="N144" s="122"/>
-      <c r="O144" s="122"/>
-      <c r="P144" s="122"/>
-      <c r="Q144" s="122"/>
-    </row>
-    <row r="145" spans="10:17">
-      <c r="J145" s="122"/>
-      <c r="K145" s="122"/>
-      <c r="L145" s="122"/>
-      <c r="M145" s="122"/>
-      <c r="N145" s="122"/>
-      <c r="O145" s="122"/>
-      <c r="P145" s="122"/>
-      <c r="Q145" s="122"/>
-    </row>
-    <row r="146" spans="10:17">
-      <c r="J146" s="122"/>
-      <c r="K146" s="122"/>
-      <c r="L146" s="122"/>
-      <c r="M146" s="122"/>
-      <c r="N146" s="122"/>
-      <c r="O146" s="122"/>
-      <c r="P146" s="122"/>
-      <c r="Q146" s="122"/>
-    </row>
-    <row r="147" spans="10:17">
-      <c r="J147" s="122"/>
-      <c r="K147" s="122"/>
-      <c r="L147" s="122"/>
-      <c r="M147" s="122"/>
-      <c r="N147" s="122"/>
-      <c r="O147" s="122"/>
-      <c r="P147" s="122"/>
-      <c r="Q147" s="122"/>
-    </row>
-    <row r="148" spans="10:17">
-      <c r="J148" s="122"/>
-      <c r="K148" s="122"/>
-      <c r="L148" s="122"/>
-      <c r="M148" s="122"/>
-      <c r="N148" s="122"/>
-      <c r="O148" s="122"/>
-      <c r="P148" s="122"/>
-      <c r="Q148" s="122"/>
-    </row>
-    <row r="149" spans="10:17">
-      <c r="J149" s="122"/>
-      <c r="K149" s="122"/>
-      <c r="L149" s="122"/>
-      <c r="M149" s="122"/>
-      <c r="N149" s="122"/>
-      <c r="O149" s="122"/>
-      <c r="P149" s="122"/>
-      <c r="Q149" s="122"/>
-    </row>
-    <row r="150" spans="10:17">
-      <c r="J150" s="122"/>
-      <c r="K150" s="122"/>
-      <c r="L150" s="122"/>
-      <c r="M150" s="122"/>
-      <c r="N150" s="122"/>
-      <c r="O150" s="122"/>
-      <c r="P150" s="122"/>
-      <c r="Q150" s="122"/>
-    </row>
-    <row r="151" spans="10:17">
-      <c r="J151" s="122"/>
-      <c r="K151" s="122"/>
-      <c r="L151" s="122"/>
-      <c r="M151" s="122"/>
-      <c r="N151" s="122"/>
-      <c r="O151" s="122"/>
-      <c r="P151" s="122"/>
-      <c r="Q151" s="122"/>
-    </row>
-    <row r="152" spans="10:17">
-      <c r="J152" s="122"/>
-      <c r="K152" s="122"/>
-      <c r="L152" s="122"/>
-      <c r="M152" s="122"/>
-      <c r="N152" s="122"/>
-      <c r="O152" s="122"/>
-      <c r="P152" s="122"/>
-      <c r="Q152" s="122"/>
-    </row>
-    <row r="153" spans="10:17">
-      <c r="J153" s="122"/>
-      <c r="K153" s="122"/>
-      <c r="L153" s="122"/>
-      <c r="M153" s="122"/>
-      <c r="N153" s="122"/>
-      <c r="O153" s="122"/>
-      <c r="P153" s="122"/>
-      <c r="Q153" s="122"/>
-    </row>
-    <row r="154" spans="10:17">
-      <c r="J154" s="122"/>
-      <c r="K154" s="122"/>
-      <c r="L154" s="122"/>
-      <c r="M154" s="122"/>
-      <c r="N154" s="122"/>
-      <c r="O154" s="122"/>
-      <c r="P154" s="122"/>
-      <c r="Q154" s="122"/>
-    </row>
-    <row r="155" spans="10:17">
-      <c r="J155" s="122"/>
-      <c r="K155" s="122"/>
-      <c r="L155" s="122"/>
-      <c r="M155" s="122"/>
-      <c r="N155" s="122"/>
-      <c r="O155" s="122"/>
-      <c r="P155" s="122"/>
-      <c r="Q155" s="122"/>
-    </row>
-    <row r="156" spans="10:17">
-      <c r="J156" s="122"/>
-      <c r="K156" s="122"/>
-      <c r="L156" s="122"/>
-      <c r="M156" s="122"/>
-      <c r="N156" s="122"/>
-      <c r="O156" s="122"/>
-      <c r="P156" s="122"/>
-      <c r="Q156" s="122"/>
-    </row>
-    <row r="157" spans="10:17">
-      <c r="J157" s="122"/>
-      <c r="K157" s="122"/>
-      <c r="L157" s="122"/>
-      <c r="M157" s="122"/>
-      <c r="N157" s="122"/>
-      <c r="O157" s="122"/>
-      <c r="P157" s="122"/>
-      <c r="Q157" s="122"/>
-    </row>
-    <row r="158" spans="10:17">
+    <row r="117" spans="1:24">
+      <c r="A117" s="105">
+        <v>113</v>
+      </c>
+      <c r="B117" s="116"/>
+      <c r="C117" s="115"/>
+      <c r="D117" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E117" s="109"/>
+      <c r="F117" s="109"/>
+      <c r="G117" s="110"/>
+      <c r="H117" s="110"/>
+      <c r="I117" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J117" s="112"/>
+      <c r="K117" s="112"/>
+      <c r="L117" s="112"/>
+      <c r="M117" s="112"/>
+      <c r="N117" s="112"/>
+      <c r="O117" s="112"/>
+      <c r="P117" s="112"/>
+      <c r="Q117" s="112"/>
+    </row>
+    <row r="118" spans="1:24">
+      <c r="A118" s="105">
+        <v>114</v>
+      </c>
+      <c r="B118" s="116"/>
+      <c r="C118" s="115"/>
+      <c r="D118" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E118" s="109"/>
+      <c r="F118" s="109"/>
+      <c r="G118" s="110"/>
+      <c r="H118" s="110"/>
+      <c r="I118" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J118" s="112"/>
+      <c r="K118" s="112"/>
+      <c r="L118" s="112"/>
+      <c r="M118" s="112"/>
+      <c r="N118" s="112"/>
+      <c r="O118" s="112"/>
+      <c r="P118" s="112"/>
+      <c r="Q118" s="112"/>
+    </row>
+    <row r="119" spans="1:24">
+      <c r="A119" s="105">
+        <v>115</v>
+      </c>
+      <c r="B119" s="116"/>
+      <c r="C119" s="115"/>
+      <c r="D119" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E119" s="109"/>
+      <c r="F119" s="109"/>
+      <c r="G119" s="110"/>
+      <c r="H119" s="110"/>
+      <c r="I119" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J119" s="112"/>
+      <c r="K119" s="112"/>
+      <c r="L119" s="112"/>
+      <c r="M119" s="112"/>
+      <c r="N119" s="112"/>
+      <c r="O119" s="112"/>
+      <c r="P119" s="112"/>
+      <c r="Q119" s="112"/>
+    </row>
+    <row r="120" spans="1:24">
+      <c r="A120" s="105">
+        <v>116</v>
+      </c>
+      <c r="B120" s="116"/>
+      <c r="C120" s="115"/>
+      <c r="D120" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E120" s="109"/>
+      <c r="F120" s="109"/>
+      <c r="G120" s="110"/>
+      <c r="H120" s="110"/>
+      <c r="I120" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J120" s="112"/>
+      <c r="K120" s="112"/>
+      <c r="L120" s="112"/>
+      <c r="M120" s="112"/>
+      <c r="N120" s="112"/>
+      <c r="O120" s="112"/>
+      <c r="P120" s="112"/>
+      <c r="Q120" s="112"/>
+    </row>
+    <row r="121" spans="1:24">
+      <c r="A121" s="105">
+        <v>117</v>
+      </c>
+      <c r="B121" s="116"/>
+      <c r="C121" s="115"/>
+      <c r="D121" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E121" s="109"/>
+      <c r="F121" s="109"/>
+      <c r="G121" s="110"/>
+      <c r="H121" s="110"/>
+      <c r="I121" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J121" s="112"/>
+      <c r="K121" s="112"/>
+      <c r="L121" s="112"/>
+      <c r="M121" s="112"/>
+      <c r="N121" s="112"/>
+      <c r="O121" s="112"/>
+      <c r="P121" s="112"/>
+      <c r="Q121" s="112"/>
+    </row>
+    <row r="122" spans="1:24">
+      <c r="A122" s="105">
+        <v>118</v>
+      </c>
+      <c r="B122" s="116"/>
+      <c r="C122" s="115"/>
+      <c r="D122" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E122" s="109"/>
+      <c r="F122" s="109"/>
+      <c r="G122" s="110"/>
+      <c r="H122" s="110"/>
+      <c r="I122" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J122" s="112"/>
+      <c r="K122" s="112"/>
+      <c r="L122" s="112"/>
+      <c r="M122" s="112"/>
+      <c r="N122" s="112"/>
+      <c r="O122" s="112"/>
+      <c r="P122" s="112"/>
+      <c r="Q122" s="112"/>
+    </row>
+    <row r="123" spans="1:24">
+      <c r="A123" s="105">
+        <v>119</v>
+      </c>
+      <c r="B123" s="116"/>
+      <c r="C123" s="115"/>
+      <c r="D123" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E123" s="109"/>
+      <c r="F123" s="109"/>
+      <c r="G123" s="110"/>
+      <c r="H123" s="110"/>
+      <c r="I123" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J123" s="112"/>
+      <c r="K123" s="112"/>
+      <c r="L123" s="112"/>
+      <c r="M123" s="112"/>
+      <c r="N123" s="112"/>
+      <c r="O123" s="112"/>
+      <c r="P123" s="112"/>
+      <c r="Q123" s="112"/>
+    </row>
+    <row r="124" spans="1:24">
+      <c r="A124" s="105">
+        <v>120</v>
+      </c>
+      <c r="B124" s="116"/>
+      <c r="C124" s="115"/>
+      <c r="D124" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E124" s="109"/>
+      <c r="F124" s="109"/>
+      <c r="G124" s="110"/>
+      <c r="H124" s="110"/>
+      <c r="I124" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J124" s="112"/>
+      <c r="K124" s="112"/>
+      <c r="L124" s="112"/>
+      <c r="M124" s="112"/>
+      <c r="N124" s="112"/>
+      <c r="O124" s="112"/>
+      <c r="P124" s="112"/>
+      <c r="Q124" s="112"/>
+    </row>
+    <row r="125" spans="1:24">
+      <c r="A125" s="105">
+        <v>121</v>
+      </c>
+      <c r="B125" s="116"/>
+      <c r="C125" s="115"/>
+      <c r="D125" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E125" s="109"/>
+      <c r="F125" s="109"/>
+      <c r="G125" s="110"/>
+      <c r="H125" s="110"/>
+      <c r="I125" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J125" s="112"/>
+      <c r="K125" s="112"/>
+      <c r="L125" s="112"/>
+      <c r="M125" s="112"/>
+      <c r="N125" s="112"/>
+      <c r="O125" s="112"/>
+      <c r="P125" s="112"/>
+      <c r="Q125" s="112"/>
+    </row>
+    <row r="126" spans="1:24">
+      <c r="A126" s="105">
+        <v>122</v>
+      </c>
+      <c r="B126" s="116"/>
+      <c r="C126" s="115"/>
+      <c r="D126" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E126" s="109"/>
+      <c r="F126" s="109"/>
+      <c r="G126" s="110"/>
+      <c r="H126" s="110"/>
+      <c r="I126" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J126" s="112"/>
+      <c r="K126" s="112"/>
+      <c r="L126" s="112"/>
+      <c r="M126" s="112"/>
+      <c r="N126" s="112"/>
+      <c r="O126" s="112"/>
+      <c r="P126" s="112"/>
+      <c r="Q126" s="112"/>
+    </row>
+    <row r="127" spans="1:24">
+      <c r="A127" s="105">
+        <v>123</v>
+      </c>
+      <c r="B127" s="116"/>
+      <c r="C127" s="115"/>
+      <c r="D127" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E127" s="109"/>
+      <c r="F127" s="109"/>
+      <c r="G127" s="110"/>
+      <c r="H127" s="110"/>
+      <c r="I127" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J127" s="112"/>
+      <c r="K127" s="112"/>
+      <c r="L127" s="112"/>
+      <c r="M127" s="112"/>
+      <c r="N127" s="112"/>
+      <c r="O127" s="112"/>
+      <c r="P127" s="112"/>
+      <c r="Q127" s="112"/>
+    </row>
+    <row r="128" spans="1:24">
+      <c r="A128" s="105">
+        <v>124</v>
+      </c>
+      <c r="B128" s="116"/>
+      <c r="C128" s="115"/>
+      <c r="D128" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E128" s="109"/>
+      <c r="F128" s="109"/>
+      <c r="G128" s="110"/>
+      <c r="H128" s="110"/>
+      <c r="I128" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J128" s="112"/>
+      <c r="K128" s="112"/>
+      <c r="L128" s="112"/>
+      <c r="M128" s="112"/>
+      <c r="N128" s="112"/>
+      <c r="O128" s="112"/>
+      <c r="P128" s="112"/>
+      <c r="Q128" s="112"/>
+    </row>
+    <row r="129" spans="1:17">
+      <c r="A129" s="105">
+        <v>125</v>
+      </c>
+      <c r="B129" s="116"/>
+      <c r="C129" s="115"/>
+      <c r="D129" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E129" s="109"/>
+      <c r="F129" s="109"/>
+      <c r="G129" s="110"/>
+      <c r="H129" s="110"/>
+      <c r="I129" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J129" s="112"/>
+      <c r="K129" s="112"/>
+      <c r="L129" s="112"/>
+      <c r="M129" s="112"/>
+      <c r="N129" s="112"/>
+      <c r="O129" s="112"/>
+      <c r="P129" s="112"/>
+      <c r="Q129" s="112"/>
+    </row>
+    <row r="130" spans="1:17">
+      <c r="A130" s="105">
+        <v>126</v>
+      </c>
+      <c r="B130" s="116"/>
+      <c r="C130" s="115"/>
+      <c r="D130" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E130" s="109"/>
+      <c r="F130" s="109"/>
+      <c r="G130" s="110"/>
+      <c r="H130" s="110"/>
+      <c r="I130" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J130" s="112"/>
+      <c r="K130" s="112"/>
+      <c r="L130" s="112"/>
+      <c r="M130" s="112"/>
+      <c r="N130" s="112"/>
+      <c r="O130" s="112"/>
+      <c r="P130" s="112"/>
+      <c r="Q130" s="112"/>
+    </row>
+    <row r="131" spans="1:17">
+      <c r="A131" s="105">
+        <v>127</v>
+      </c>
+      <c r="B131" s="116"/>
+      <c r="C131" s="115"/>
+      <c r="D131" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E131" s="109"/>
+      <c r="F131" s="109"/>
+      <c r="G131" s="110"/>
+      <c r="H131" s="110"/>
+      <c r="I131" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J131" s="112"/>
+      <c r="K131" s="112"/>
+      <c r="L131" s="112"/>
+      <c r="M131" s="112"/>
+      <c r="N131" s="112"/>
+      <c r="O131" s="112"/>
+      <c r="P131" s="112"/>
+      <c r="Q131" s="112"/>
+    </row>
+    <row r="132" spans="1:17">
+      <c r="A132" s="105">
+        <v>128</v>
+      </c>
+      <c r="B132" s="116"/>
+      <c r="C132" s="115"/>
+      <c r="D132" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E132" s="109"/>
+      <c r="F132" s="109"/>
+      <c r="G132" s="110"/>
+      <c r="H132" s="110"/>
+      <c r="I132" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J132" s="112"/>
+      <c r="K132" s="112"/>
+      <c r="L132" s="112"/>
+      <c r="M132" s="112"/>
+      <c r="N132" s="112"/>
+      <c r="O132" s="112"/>
+      <c r="P132" s="112"/>
+      <c r="Q132" s="112"/>
+    </row>
+    <row r="133" spans="1:17">
+      <c r="A133" s="105">
+        <v>129</v>
+      </c>
+      <c r="B133" s="116"/>
+      <c r="C133" s="115"/>
+      <c r="D133" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E133" s="109"/>
+      <c r="F133" s="109"/>
+      <c r="G133" s="110"/>
+      <c r="H133" s="110"/>
+      <c r="I133" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J133" s="112"/>
+      <c r="K133" s="112"/>
+      <c r="L133" s="112"/>
+      <c r="M133" s="112"/>
+      <c r="N133" s="112"/>
+      <c r="O133" s="112"/>
+      <c r="P133" s="112"/>
+      <c r="Q133" s="112"/>
+    </row>
+    <row r="134" spans="1:17">
+      <c r="A134" s="105">
+        <v>130</v>
+      </c>
+      <c r="B134" s="116"/>
+      <c r="C134" s="115"/>
+      <c r="D134" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E134" s="109"/>
+      <c r="F134" s="109"/>
+      <c r="G134" s="110"/>
+      <c r="H134" s="110"/>
+      <c r="I134" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J134" s="112"/>
+      <c r="K134" s="112"/>
+      <c r="L134" s="112"/>
+      <c r="M134" s="112"/>
+      <c r="N134" s="112"/>
+      <c r="O134" s="112"/>
+      <c r="P134" s="112"/>
+      <c r="Q134" s="112"/>
+    </row>
+    <row r="135" spans="1:17">
+      <c r="A135" s="105">
+        <v>131</v>
+      </c>
+      <c r="B135" s="116"/>
+      <c r="C135" s="115"/>
+      <c r="D135" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E135" s="109"/>
+      <c r="F135" s="109"/>
+      <c r="G135" s="110"/>
+      <c r="H135" s="110"/>
+      <c r="I135" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J135" s="112"/>
+      <c r="K135" s="112"/>
+      <c r="L135" s="112"/>
+      <c r="M135" s="112"/>
+      <c r="N135" s="112"/>
+      <c r="O135" s="112"/>
+      <c r="P135" s="112"/>
+      <c r="Q135" s="112"/>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="A136" s="105">
+        <v>132</v>
+      </c>
+      <c r="B136" s="116"/>
+      <c r="C136" s="115"/>
+      <c r="D136" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E136" s="109"/>
+      <c r="F136" s="109"/>
+      <c r="G136" s="110"/>
+      <c r="H136" s="110"/>
+      <c r="I136" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J136" s="112"/>
+      <c r="K136" s="112"/>
+      <c r="L136" s="112"/>
+      <c r="M136" s="112"/>
+      <c r="N136" s="112"/>
+      <c r="O136" s="112"/>
+      <c r="P136" s="112"/>
+      <c r="Q136" s="112"/>
+    </row>
+    <row r="137" spans="1:17">
+      <c r="A137" s="105">
+        <v>133</v>
+      </c>
+      <c r="B137" s="116"/>
+      <c r="C137" s="115"/>
+      <c r="D137" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E137" s="109"/>
+      <c r="F137" s="109"/>
+      <c r="G137" s="110"/>
+      <c r="H137" s="110"/>
+      <c r="I137" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J137" s="112"/>
+      <c r="K137" s="112"/>
+      <c r="L137" s="112"/>
+      <c r="M137" s="112"/>
+      <c r="N137" s="112"/>
+      <c r="O137" s="112"/>
+      <c r="P137" s="112"/>
+      <c r="Q137" s="112"/>
+    </row>
+    <row r="138" spans="1:17">
+      <c r="A138" s="105">
+        <v>134</v>
+      </c>
+      <c r="B138" s="116"/>
+      <c r="C138" s="115"/>
+      <c r="D138" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E138" s="109"/>
+      <c r="F138" s="109"/>
+      <c r="G138" s="110"/>
+      <c r="H138" s="110"/>
+      <c r="I138" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J138" s="112"/>
+      <c r="K138" s="112"/>
+      <c r="L138" s="112"/>
+      <c r="M138" s="112"/>
+      <c r="N138" s="112"/>
+      <c r="O138" s="112"/>
+      <c r="P138" s="112"/>
+      <c r="Q138" s="112"/>
+    </row>
+    <row r="139" spans="1:17">
+      <c r="A139" s="105">
+        <v>135</v>
+      </c>
+      <c r="B139" s="116"/>
+      <c r="C139" s="115"/>
+      <c r="D139" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E139" s="109"/>
+      <c r="F139" s="109"/>
+      <c r="G139" s="110"/>
+      <c r="H139" s="110"/>
+      <c r="I139" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J139" s="112"/>
+      <c r="K139" s="112"/>
+      <c r="L139" s="112"/>
+      <c r="M139" s="112"/>
+      <c r="N139" s="112"/>
+      <c r="O139" s="112"/>
+      <c r="P139" s="112"/>
+      <c r="Q139" s="112"/>
+    </row>
+    <row r="140" spans="1:17">
+      <c r="A140" s="105">
+        <v>136</v>
+      </c>
+      <c r="B140" s="116"/>
+      <c r="C140" s="115"/>
+      <c r="D140" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E140" s="109"/>
+      <c r="F140" s="109"/>
+      <c r="G140" s="110"/>
+      <c r="H140" s="110"/>
+      <c r="I140" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J140" s="112"/>
+      <c r="K140" s="112"/>
+      <c r="L140" s="112"/>
+      <c r="M140" s="112"/>
+      <c r="N140" s="112"/>
+      <c r="O140" s="112"/>
+      <c r="P140" s="112"/>
+      <c r="Q140" s="112"/>
+    </row>
+    <row r="141" spans="1:17">
+      <c r="A141" s="105">
+        <v>137</v>
+      </c>
+      <c r="B141" s="116"/>
+      <c r="C141" s="115"/>
+      <c r="D141" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E141" s="109"/>
+      <c r="F141" s="109"/>
+      <c r="G141" s="110"/>
+      <c r="H141" s="110"/>
+      <c r="I141" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J141" s="112"/>
+      <c r="K141" s="112"/>
+      <c r="L141" s="112"/>
+      <c r="M141" s="112"/>
+      <c r="N141" s="112"/>
+      <c r="O141" s="112"/>
+      <c r="P141" s="112"/>
+      <c r="Q141" s="112"/>
+    </row>
+    <row r="142" spans="1:17">
+      <c r="A142" s="105">
+        <v>138</v>
+      </c>
+      <c r="B142" s="116"/>
+      <c r="C142" s="115"/>
+      <c r="D142" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E142" s="109"/>
+      <c r="F142" s="109"/>
+      <c r="G142" s="110"/>
+      <c r="H142" s="110"/>
+      <c r="I142" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J142" s="112"/>
+      <c r="K142" s="112"/>
+      <c r="L142" s="112"/>
+      <c r="M142" s="112"/>
+      <c r="N142" s="112"/>
+      <c r="O142" s="112"/>
+      <c r="P142" s="112"/>
+      <c r="Q142" s="112"/>
+    </row>
+    <row r="143" spans="1:17">
+      <c r="A143" s="105">
+        <v>139</v>
+      </c>
+      <c r="B143" s="116"/>
+      <c r="C143" s="115"/>
+      <c r="D143" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E143" s="109"/>
+      <c r="F143" s="109"/>
+      <c r="G143" s="110"/>
+      <c r="H143" s="110"/>
+      <c r="I143" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J143" s="112"/>
+      <c r="K143" s="112"/>
+      <c r="L143" s="112"/>
+      <c r="M143" s="112"/>
+      <c r="N143" s="112"/>
+      <c r="O143" s="112"/>
+      <c r="P143" s="112"/>
+      <c r="Q143" s="112"/>
+    </row>
+    <row r="144" spans="1:17">
+      <c r="A144" s="105">
+        <v>140</v>
+      </c>
+      <c r="B144" s="116"/>
+      <c r="C144" s="115"/>
+      <c r="D144" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E144" s="109"/>
+      <c r="F144" s="109"/>
+      <c r="G144" s="110"/>
+      <c r="H144" s="110"/>
+      <c r="I144" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J144" s="112"/>
+      <c r="K144" s="112"/>
+      <c r="L144" s="112"/>
+      <c r="M144" s="112"/>
+      <c r="N144" s="112"/>
+      <c r="O144" s="112"/>
+      <c r="P144" s="112"/>
+      <c r="Q144" s="112"/>
+    </row>
+    <row r="145" spans="1:17">
+      <c r="A145" s="105">
+        <v>141</v>
+      </c>
+      <c r="B145" s="116"/>
+      <c r="C145" s="115"/>
+      <c r="D145" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E145" s="109"/>
+      <c r="F145" s="109"/>
+      <c r="G145" s="110"/>
+      <c r="H145" s="110"/>
+      <c r="I145" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J145" s="112"/>
+      <c r="K145" s="112"/>
+      <c r="L145" s="112"/>
+      <c r="M145" s="112"/>
+      <c r="N145" s="112"/>
+      <c r="O145" s="112"/>
+      <c r="P145" s="112"/>
+      <c r="Q145" s="112"/>
+    </row>
+    <row r="146" spans="1:17">
+      <c r="A146" s="105">
+        <v>142</v>
+      </c>
+      <c r="B146" s="116"/>
+      <c r="C146" s="115"/>
+      <c r="D146" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E146" s="109"/>
+      <c r="F146" s="109"/>
+      <c r="G146" s="110"/>
+      <c r="H146" s="110"/>
+      <c r="I146" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J146" s="112"/>
+      <c r="K146" s="112"/>
+      <c r="L146" s="112"/>
+      <c r="M146" s="112"/>
+      <c r="N146" s="112"/>
+      <c r="O146" s="112"/>
+      <c r="P146" s="112"/>
+      <c r="Q146" s="112"/>
+    </row>
+    <row r="147" spans="1:17">
+      <c r="A147" s="105">
+        <v>143</v>
+      </c>
+      <c r="B147" s="116"/>
+      <c r="C147" s="115"/>
+      <c r="D147" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E147" s="109"/>
+      <c r="F147" s="109"/>
+      <c r="G147" s="110"/>
+      <c r="H147" s="110"/>
+      <c r="I147" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J147" s="112"/>
+      <c r="K147" s="112"/>
+      <c r="L147" s="112"/>
+      <c r="M147" s="112"/>
+      <c r="N147" s="112"/>
+      <c r="O147" s="112"/>
+      <c r="P147" s="112"/>
+      <c r="Q147" s="112"/>
+    </row>
+    <row r="148" spans="1:17">
+      <c r="A148" s="105">
+        <v>144</v>
+      </c>
+      <c r="B148" s="116"/>
+      <c r="C148" s="115"/>
+      <c r="D148" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E148" s="109"/>
+      <c r="F148" s="109"/>
+      <c r="G148" s="110"/>
+      <c r="H148" s="110"/>
+      <c r="I148" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J148" s="112"/>
+      <c r="K148" s="112"/>
+      <c r="L148" s="112"/>
+      <c r="M148" s="112"/>
+      <c r="N148" s="112"/>
+      <c r="O148" s="112"/>
+      <c r="P148" s="112"/>
+      <c r="Q148" s="112"/>
+    </row>
+    <row r="149" spans="1:17">
+      <c r="A149" s="105">
+        <v>145</v>
+      </c>
+      <c r="B149" s="116"/>
+      <c r="C149" s="115"/>
+      <c r="D149" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E149" s="109"/>
+      <c r="F149" s="109"/>
+      <c r="G149" s="110"/>
+      <c r="H149" s="110"/>
+      <c r="I149" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J149" s="112"/>
+      <c r="K149" s="112"/>
+      <c r="L149" s="112"/>
+      <c r="M149" s="112"/>
+      <c r="N149" s="112"/>
+      <c r="O149" s="112"/>
+      <c r="P149" s="112"/>
+      <c r="Q149" s="112"/>
+    </row>
+    <row r="150" spans="1:17">
+      <c r="A150" s="105">
+        <v>146</v>
+      </c>
+      <c r="B150" s="116"/>
+      <c r="C150" s="115"/>
+      <c r="D150" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E150" s="109"/>
+      <c r="F150" s="109"/>
+      <c r="G150" s="110"/>
+      <c r="H150" s="110"/>
+      <c r="I150" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J150" s="112"/>
+      <c r="K150" s="112"/>
+      <c r="L150" s="112"/>
+      <c r="M150" s="112"/>
+      <c r="N150" s="112"/>
+      <c r="O150" s="112"/>
+      <c r="P150" s="112"/>
+      <c r="Q150" s="112"/>
+    </row>
+    <row r="151" spans="1:17">
+      <c r="A151" s="105">
+        <v>147</v>
+      </c>
+      <c r="B151" s="116"/>
+      <c r="C151" s="115"/>
+      <c r="D151" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E151" s="109"/>
+      <c r="F151" s="109"/>
+      <c r="G151" s="110"/>
+      <c r="H151" s="110"/>
+      <c r="I151" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J151" s="112"/>
+      <c r="K151" s="112"/>
+      <c r="L151" s="112"/>
+      <c r="M151" s="112"/>
+      <c r="N151" s="112"/>
+      <c r="O151" s="112"/>
+      <c r="P151" s="112"/>
+      <c r="Q151" s="112"/>
+    </row>
+    <row r="152" spans="1:17">
+      <c r="A152" s="105">
+        <v>148</v>
+      </c>
+      <c r="B152" s="116"/>
+      <c r="C152" s="115"/>
+      <c r="D152" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E152" s="109"/>
+      <c r="F152" s="109"/>
+      <c r="G152" s="110"/>
+      <c r="H152" s="110"/>
+      <c r="I152" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J152" s="112"/>
+      <c r="K152" s="112"/>
+      <c r="L152" s="112"/>
+      <c r="M152" s="112"/>
+      <c r="N152" s="112"/>
+      <c r="O152" s="112"/>
+      <c r="P152" s="112"/>
+      <c r="Q152" s="112"/>
+    </row>
+    <row r="153" spans="1:17">
+      <c r="A153" s="105">
+        <v>149</v>
+      </c>
+      <c r="B153" s="116"/>
+      <c r="C153" s="115"/>
+      <c r="D153" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E153" s="109"/>
+      <c r="F153" s="109"/>
+      <c r="G153" s="110"/>
+      <c r="H153" s="110"/>
+      <c r="I153" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J153" s="112"/>
+      <c r="K153" s="112"/>
+      <c r="L153" s="112"/>
+      <c r="M153" s="112"/>
+      <c r="N153" s="112"/>
+      <c r="O153" s="112"/>
+      <c r="P153" s="112"/>
+      <c r="Q153" s="112"/>
+    </row>
+    <row r="154" spans="1:17">
+      <c r="A154" s="105">
+        <v>150</v>
+      </c>
+      <c r="B154" s="116"/>
+      <c r="C154" s="115"/>
+      <c r="D154" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E154" s="109"/>
+      <c r="F154" s="109"/>
+      <c r="G154" s="110"/>
+      <c r="H154" s="110"/>
+      <c r="I154" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J154" s="112"/>
+      <c r="K154" s="112"/>
+      <c r="L154" s="112"/>
+      <c r="M154" s="112"/>
+      <c r="N154" s="112"/>
+      <c r="O154" s="112"/>
+      <c r="P154" s="112"/>
+      <c r="Q154" s="112"/>
+    </row>
+    <row r="155" spans="1:17">
+      <c r="A155" s="105">
+        <v>151</v>
+      </c>
+      <c r="B155" s="116"/>
+      <c r="C155" s="115"/>
+      <c r="D155" s="111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E155" s="109"/>
+      <c r="F155" s="109"/>
+      <c r="G155" s="110"/>
+      <c r="H155" s="110"/>
+      <c r="I155" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J155" s="112"/>
+      <c r="K155" s="112"/>
+      <c r="L155" s="112"/>
+      <c r="M155" s="112"/>
+      <c r="N155" s="112"/>
+      <c r="O155" s="112"/>
+      <c r="P155" s="112"/>
+      <c r="Q155" s="112"/>
+    </row>
+    <row r="156" spans="1:17">
+      <c r="A156" s="105">
+        <v>152</v>
+      </c>
+      <c r="B156" s="116"/>
+      <c r="C156" s="115"/>
+      <c r="D156" s="111" t="str">
+        <f t="shared" ref="D156:D157" si="12">IF(ISBLANK($B156),"",IF(ISBLANK($F156),"未着手",IF($I156=0,"完了","作業中")))</f>
+        <v/>
+      </c>
+      <c r="E156" s="109"/>
+      <c r="F156" s="109"/>
+      <c r="G156" s="110"/>
+      <c r="H156" s="110"/>
+      <c r="I156" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J156" s="112"/>
+      <c r="K156" s="112"/>
+      <c r="L156" s="112"/>
+      <c r="M156" s="112"/>
+      <c r="N156" s="112"/>
+      <c r="O156" s="112"/>
+      <c r="P156" s="112"/>
+      <c r="Q156" s="112"/>
+    </row>
+    <row r="157" spans="1:17">
+      <c r="A157" s="105">
+        <v>153</v>
+      </c>
+      <c r="B157" s="116"/>
+      <c r="C157" s="115"/>
+      <c r="D157" s="111" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E157" s="109"/>
+      <c r="F157" s="109"/>
+      <c r="G157" s="110"/>
+      <c r="H157" s="110"/>
+      <c r="I157" s="111" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J157" s="112"/>
+      <c r="K157" s="112"/>
+      <c r="L157" s="112"/>
+      <c r="M157" s="112"/>
+      <c r="N157" s="112"/>
+      <c r="O157" s="112"/>
+      <c r="P157" s="112"/>
+      <c r="Q157" s="112"/>
+    </row>
+    <row r="158" spans="1:17">
       <c r="J158" s="122"/>
       <c r="K158" s="122"/>
       <c r="L158" s="122"/>
@@ -13679,7 +15039,7 @@
       <c r="P158" s="122"/>
       <c r="Q158" s="122"/>
     </row>
-    <row r="159" spans="10:17">
+    <row r="159" spans="1:17">
       <c r="J159" s="122"/>
       <c r="K159" s="122"/>
       <c r="L159" s="122"/>
@@ -13689,7 +15049,7 @@
       <c r="P159" s="122"/>
       <c r="Q159" s="122"/>
     </row>
-    <row r="160" spans="10:17">
+    <row r="160" spans="1:17">
       <c r="J160" s="122"/>
       <c r="K160" s="122"/>
       <c r="L160" s="122"/>
@@ -13993,62 +15353,73 @@
     <mergeCell ref="H1:H4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="59" priority="13" stopIfTrue="1">
-      <formula>D105="未着手"</formula>
+  <conditionalFormatting sqref="D158:D65536">
+    <cfRule type="expression" dxfId="62" priority="16" stopIfTrue="1">
+      <formula>D158="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="14" stopIfTrue="1">
-      <formula>D105="作業中"</formula>
+    <cfRule type="expression" dxfId="61" priority="17" stopIfTrue="1">
+      <formula>D158="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="15" stopIfTrue="1">
-      <formula>OR(D105="終了",D105="完了")</formula>
+    <cfRule type="expression" dxfId="60" priority="18" stopIfTrue="1">
+      <formula>OR(D158="終了",D158="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B102:XFD104 C101:XFD101 A5:A104 D92:XFD100 E5:XFD91">
-    <cfRule type="expression" dxfId="56" priority="16" stopIfTrue="1">
+  <conditionalFormatting sqref="C101:XFD101 D92:XFD100 A5:A157 B113:Q157 B102:XFD104 B105:B111 C105:Q112 E5:XFD91">
+    <cfRule type="expression" dxfId="59" priority="19" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="20" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="21" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="53" priority="19" stopIfTrue="1">
-      <formula>D105="未着手"</formula>
+  <conditionalFormatting sqref="B158:B65536">
+    <cfRule type="expression" dxfId="56" priority="22" stopIfTrue="1">
+      <formula>D158="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="20" stopIfTrue="1">
-      <formula>D105="作業中"</formula>
+    <cfRule type="expression" dxfId="55" priority="23" stopIfTrue="1">
+      <formula>D158="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="21" stopIfTrue="1">
-      <formula>OR(D105="終了",D105="完了")</formula>
+    <cfRule type="expression" dxfId="54" priority="24" stopIfTrue="1">
+      <formula>OR(D158="終了",D158="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="50" priority="22" stopIfTrue="1">
-      <formula>D105="未着手"</formula>
+  <conditionalFormatting sqref="C158:C65536">
+    <cfRule type="expression" dxfId="53" priority="25" stopIfTrue="1">
+      <formula>D158="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="23" stopIfTrue="1">
-      <formula>D105="作業中"</formula>
+    <cfRule type="expression" dxfId="52" priority="26" stopIfTrue="1">
+      <formula>D158="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="24" stopIfTrue="1">
-      <formula>OR(D105="終了",D105="完了")</formula>
+    <cfRule type="expression" dxfId="51" priority="27" stopIfTrue="1">
+      <formula>OR(D158="終了",D158="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E105:Q65536">
-    <cfRule type="expression" dxfId="47" priority="25" stopIfTrue="1">
-      <formula>$D105="未着手"</formula>
+  <conditionalFormatting sqref="E158:Q65536">
+    <cfRule type="expression" dxfId="50" priority="28" stopIfTrue="1">
+      <formula>$D158="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="26" stopIfTrue="1">
-      <formula>$D105="作業中"</formula>
+    <cfRule type="expression" dxfId="49" priority="29" stopIfTrue="1">
+      <formula>$D158="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="27" stopIfTrue="1">
-      <formula>OR($D105="終了",$D105="完了")</formula>
+    <cfRule type="expression" dxfId="48" priority="30" stopIfTrue="1">
+      <formula>OR($D158="終了",$D158="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B8 B15:B101">
+    <cfRule type="expression" dxfId="47" priority="13" stopIfTrue="1">
+      <formula>$D5="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="14" stopIfTrue="1">
+      <formula>$D5="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="15" stopIfTrue="1">
+      <formula>OR($D5="終了",$D5="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D91">
     <cfRule type="expression" dxfId="44" priority="10" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
@@ -14059,7 +15430,7 @@
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D91">
+  <conditionalFormatting sqref="C5:C100">
     <cfRule type="expression" dxfId="41" priority="7" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
@@ -14070,38 +15441,41 @@
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C100">
+  <conditionalFormatting sqref="B9:B14">
     <cfRule type="expression" dxfId="38" priority="4" stopIfTrue="1">
-      <formula>$D5="未着手"</formula>
+      <formula>$D9="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="37" priority="5" stopIfTrue="1">
-      <formula>$D5="作業中"</formula>
+      <formula>$D9="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="36" priority="6" stopIfTrue="1">
-      <formula>OR($D5="終了",$D5="完了")</formula>
+      <formula>OR($D9="終了",$D9="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B14">
+  <conditionalFormatting sqref="B112">
     <cfRule type="expression" dxfId="35" priority="1" stopIfTrue="1">
-      <formula>$D9="未着手"</formula>
+      <formula>$D112="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="34" priority="2" stopIfTrue="1">
-      <formula>$D9="作業中"</formula>
+      <formula>$D112="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="33" priority="3" stopIfTrue="1">
-      <formula>OR($D9="終了",$D9="完了")</formula>
+      <formula>OR($D112="終了",$D112="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="J4" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z188"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -17957,7 +19331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21243,7 +22617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22041,7 +23415,7 @@
       <c r="K51" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:K51"/>
+  <autoFilter ref="B1:K51" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="A2:K51">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
@@ -22055,19 +23429,19 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I51" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>登録者</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B51" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>重要度</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>担当者</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D51" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>状況</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E51" xr:uid="{00000000-0002-0000-0400-000004000000}">
       <formula1>状況２</formula1>
     </dataValidation>
   </dataValidations>

--- a/タスク/07班スプリントバックログ.xlsx
+++ b/タスク/07班スプリントバックログ.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Team07\タスク\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kousuke Nakagawa\Desktop\Team07\タスク\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="3045" windowWidth="19230" windowHeight="12120" tabRatio="658" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4815" yWindow="3045" windowWidth="19230" windowHeight="12120" tabRatio="658" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="1" r:id="rId1"/>
@@ -33,18 +33,18 @@
     <definedName name="登録者" localSheetId="4">OFFSET(デバッグシート!$R$2,0,0,COUNTA(デバッグシート!$R$2:$R$10),1)</definedName>
     <definedName name="登録者">OFFSET(#REF!,0,0,COUNTA(#REF!),1)</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ohzu</author>
     <author>Windows ユーザー</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -109,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -158,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="P2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="Q2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -189,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -209,13 +209,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ohzu</author>
     <author>Windows ユーザー</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -232,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -248,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -264,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -296,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -312,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -329,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="R2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -344,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="S2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -359,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -379,13 +379,13 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ohzu</author>
     <author>Windows ユーザー</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -402,7 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -418,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -434,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -450,7 +450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -466,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -482,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -499,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+    <comment ref="O2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -515,7 +515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
+    <comment ref="P2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -530,7 +530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="149">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -1714,11 +1714,39 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>投げたカゴの回収、投げたカゴに持っている物ついていくように、投げたカゴがぶつかったら物を落とすように</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
@@ -3006,10 +3034,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="標準_2009卒業制作スケジュール表" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="標準_チーム編成" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="標準_バグシート" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準 2" xfId="4"/>
+    <cellStyle name="標準_2009卒業制作スケジュール表" xfId="1"/>
+    <cellStyle name="標準_チーム編成" xfId="2"/>
+    <cellStyle name="標準_バグシート" xfId="3"/>
   </cellStyles>
   <dxfs count="63">
     <dxf>
@@ -3669,10 +3697,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>138</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>109</c:v>
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3752,28 +3783,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>138</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4196,6 +4227,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4233,16 +4265,16 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4329,6 +4361,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4366,16 +4399,16 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4462,6 +4495,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4479,7 +4513,7 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>28</c:v>
@@ -4574,6 +4608,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -7649,23 +7684,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7701,23 +7719,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7893,7 +7894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E222"/>
   <sheetViews>
     <sheetView topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
@@ -9581,11 +9582,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="C29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X109" sqref="X109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9693,35 +9694,35 @@
       <c r="I3" s="143"/>
       <c r="J3" s="103">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$Q$2))))</f>
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="K3" s="103">
         <f t="shared" ref="K3:Q3" si="0">INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$Q$2))))</f>
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L3" s="103">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M3" s="103">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="N3" s="103">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O3" s="103">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P3" s="103">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="103">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:32" s="100" customFormat="1">
@@ -9736,13 +9737,16 @@
       <c r="I4" s="143"/>
       <c r="J4" s="104">
         <f>SUM(J5:J104)</f>
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="K4" s="104">
         <f>SUM(K5:K104)</f>
-        <v>109</v>
-      </c>
-      <c r="L4" s="104"/>
+        <v>118</v>
+      </c>
+      <c r="L4" s="104">
+        <f>SUM(L5:L104)</f>
+        <v>102</v>
+      </c>
       <c r="M4" s="104"/>
       <c r="N4" s="104"/>
       <c r="O4" s="104"/>
@@ -9781,7 +9785,9 @@
       <c r="K5" s="112">
         <v>3</v>
       </c>
-      <c r="L5" s="112"/>
+      <c r="L5" s="112">
+        <v>3</v>
+      </c>
       <c r="M5" s="112"/>
       <c r="N5" s="112"/>
       <c r="O5" s="112"/>
@@ -9820,7 +9826,9 @@
       <c r="K6" s="112">
         <v>3</v>
       </c>
-      <c r="L6" s="112"/>
+      <c r="L6" s="112">
+        <v>3</v>
+      </c>
       <c r="M6" s="112"/>
       <c r="N6" s="112"/>
       <c r="O6" s="112"/>
@@ -9863,7 +9871,9 @@
       <c r="K7" s="112">
         <v>0</v>
       </c>
-      <c r="L7" s="112"/>
+      <c r="L7" s="112">
+        <v>0</v>
+      </c>
       <c r="M7" s="112"/>
       <c r="N7" s="112"/>
       <c r="O7" s="112"/>
@@ -9902,7 +9912,9 @@
       <c r="K8" s="112">
         <v>6</v>
       </c>
-      <c r="L8" s="112"/>
+      <c r="L8" s="112">
+        <v>6</v>
+      </c>
       <c r="M8" s="112"/>
       <c r="N8" s="112"/>
       <c r="O8" s="112"/>
@@ -9941,7 +9953,9 @@
       <c r="K9" s="112">
         <v>3</v>
       </c>
-      <c r="L9" s="112"/>
+      <c r="L9" s="112">
+        <v>3</v>
+      </c>
       <c r="M9" s="112"/>
       <c r="N9" s="112"/>
       <c r="O9" s="112"/>
@@ -9984,7 +9998,9 @@
       <c r="K10" s="112">
         <v>0</v>
       </c>
-      <c r="L10" s="112"/>
+      <c r="L10" s="112">
+        <v>0</v>
+      </c>
       <c r="M10" s="112"/>
       <c r="N10" s="112"/>
       <c r="O10" s="112"/>
@@ -10027,7 +10043,9 @@
       <c r="K11" s="112">
         <v>0</v>
       </c>
-      <c r="L11" s="112"/>
+      <c r="L11" s="112">
+        <v>0</v>
+      </c>
       <c r="M11" s="112"/>
       <c r="N11" s="112"/>
       <c r="O11" s="112"/>
@@ -10070,7 +10088,9 @@
       <c r="K12" s="112">
         <v>0</v>
       </c>
-      <c r="L12" s="112"/>
+      <c r="L12" s="112">
+        <v>0</v>
+      </c>
       <c r="M12" s="112"/>
       <c r="N12" s="112"/>
       <c r="O12" s="112"/>
@@ -10113,7 +10133,9 @@
       <c r="K13" s="112">
         <v>0</v>
       </c>
-      <c r="L13" s="112"/>
+      <c r="L13" s="112">
+        <v>0</v>
+      </c>
       <c r="M13" s="112"/>
       <c r="N13" s="112"/>
       <c r="O13" s="112"/>
@@ -10155,7 +10177,9 @@
       <c r="K14" s="112">
         <v>3</v>
       </c>
-      <c r="L14" s="112"/>
+      <c r="L14" s="112">
+        <v>3</v>
+      </c>
       <c r="M14" s="112"/>
       <c r="N14" s="112"/>
       <c r="O14" s="112"/>
@@ -10198,7 +10222,9 @@
       <c r="K15" s="112">
         <v>0</v>
       </c>
-      <c r="L15" s="112"/>
+      <c r="L15" s="112">
+        <v>0</v>
+      </c>
       <c r="M15" s="112"/>
       <c r="N15" s="112"/>
       <c r="O15" s="112"/>
@@ -10272,7 +10298,9 @@
       <c r="K17" s="112">
         <v>6</v>
       </c>
-      <c r="L17" s="112"/>
+      <c r="L17" s="112">
+        <v>6</v>
+      </c>
       <c r="M17" s="112"/>
       <c r="N17" s="112"/>
       <c r="O17" s="112"/>
@@ -10493,20 +10521,24 @@
         <v>110</v>
       </c>
       <c r="D25" s="108" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
       </c>
       <c r="E25" s="109">
         <v>43032</v>
       </c>
-      <c r="F25" s="109"/>
+      <c r="F25" s="109">
+        <v>43032</v>
+      </c>
       <c r="G25" s="110">
         <v>3</v>
       </c>
-      <c r="H25" s="110"/>
+      <c r="H25" s="110">
+        <v>1</v>
+      </c>
       <c r="I25" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J25" s="112">
         <v>3</v>
@@ -10514,7 +10546,9 @@
       <c r="K25" s="112">
         <v>3</v>
       </c>
-      <c r="L25" s="112"/>
+      <c r="L25" s="112">
+        <v>2</v>
+      </c>
       <c r="M25" s="112"/>
       <c r="N25" s="112"/>
       <c r="O25" s="112"/>
@@ -10553,7 +10587,9 @@
       <c r="K26" s="112">
         <v>3</v>
       </c>
-      <c r="L26" s="112"/>
+      <c r="L26" s="112">
+        <v>3</v>
+      </c>
       <c r="M26" s="112"/>
       <c r="N26" s="112"/>
       <c r="O26" s="112"/>
@@ -10592,7 +10628,9 @@
       <c r="K27" s="112">
         <v>2</v>
       </c>
-      <c r="L27" s="112"/>
+      <c r="L27" s="112">
+        <v>2</v>
+      </c>
       <c r="M27" s="112"/>
       <c r="N27" s="112"/>
       <c r="O27" s="112"/>
@@ -10631,7 +10669,9 @@
       <c r="K28" s="112">
         <v>1</v>
       </c>
-      <c r="L28" s="112"/>
+      <c r="L28" s="112">
+        <v>1</v>
+      </c>
       <c r="M28" s="112"/>
       <c r="N28" s="112"/>
       <c r="O28" s="112"/>
@@ -10670,7 +10710,9 @@
       <c r="K29" s="112">
         <v>1</v>
       </c>
-      <c r="L29" s="112"/>
+      <c r="L29" s="112">
+        <v>1</v>
+      </c>
       <c r="M29" s="112"/>
       <c r="N29" s="112"/>
       <c r="O29" s="112"/>
@@ -10709,7 +10751,9 @@
       <c r="K30" s="112">
         <v>1</v>
       </c>
-      <c r="L30" s="112"/>
+      <c r="L30" s="112">
+        <v>1</v>
+      </c>
       <c r="M30" s="112"/>
       <c r="N30" s="112"/>
       <c r="O30" s="112"/>
@@ -10748,7 +10792,9 @@
       <c r="K31" s="112">
         <v>1</v>
       </c>
-      <c r="L31" s="112"/>
+      <c r="L31" s="112">
+        <v>1</v>
+      </c>
       <c r="M31" s="112"/>
       <c r="N31" s="112"/>
       <c r="O31" s="112"/>
@@ -10807,20 +10853,24 @@
         <v>110</v>
       </c>
       <c r="D33" s="108" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
       </c>
       <c r="E33" s="109">
         <v>43035</v>
       </c>
-      <c r="F33" s="109"/>
+      <c r="F33" s="109">
+        <v>43032</v>
+      </c>
       <c r="G33" s="110">
         <v>2</v>
       </c>
-      <c r="H33" s="110"/>
+      <c r="H33" s="110">
+        <v>1</v>
+      </c>
       <c r="I33" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" s="112">
         <v>2</v>
@@ -10828,7 +10878,9 @@
       <c r="K33" s="112">
         <v>2</v>
       </c>
-      <c r="L33" s="112"/>
+      <c r="L33" s="112">
+        <v>1</v>
+      </c>
       <c r="M33" s="112"/>
       <c r="N33" s="112"/>
       <c r="O33" s="112"/>
@@ -10846,13 +10898,15 @@
         <v>110</v>
       </c>
       <c r="D34" s="108" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
       </c>
       <c r="E34" s="109">
         <v>43035</v>
       </c>
-      <c r="F34" s="109"/>
+      <c r="F34" s="109">
+        <v>43032</v>
+      </c>
       <c r="G34" s="110">
         <v>2</v>
       </c>
@@ -10867,7 +10921,9 @@
       <c r="K34" s="112">
         <v>2</v>
       </c>
-      <c r="L34" s="112"/>
+      <c r="L34" s="112">
+        <v>2</v>
+      </c>
       <c r="M34" s="112"/>
       <c r="N34" s="112"/>
       <c r="O34" s="112"/>
@@ -11015,7 +11071,7 @@
       </c>
       <c r="D38" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="E38" s="109">
         <v>43028</v>
@@ -11027,11 +11083,11 @@
         <v>2</v>
       </c>
       <c r="H38" s="110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" s="112">
         <v>2</v>
@@ -11039,7 +11095,9 @@
       <c r="K38" s="112">
         <v>1</v>
       </c>
-      <c r="L38" s="112"/>
+      <c r="L38" s="112">
+        <v>0</v>
+      </c>
       <c r="M38" s="112"/>
       <c r="N38" s="112"/>
       <c r="O38" s="112"/>
@@ -11075,8 +11133,12 @@
       <c r="J39" s="112">
         <v>6</v>
       </c>
-      <c r="K39" s="112"/>
-      <c r="L39" s="112"/>
+      <c r="K39" s="112">
+        <v>6</v>
+      </c>
+      <c r="L39" s="112">
+        <v>6</v>
+      </c>
       <c r="M39" s="112"/>
       <c r="N39" s="112"/>
       <c r="O39" s="112"/>
@@ -11094,20 +11156,32 @@
         <v>110</v>
       </c>
       <c r="D40" s="108" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
-      </c>
-      <c r="E40" s="109"/>
-      <c r="F40" s="109"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
+      </c>
+      <c r="E40" s="109">
+        <v>43032</v>
+      </c>
+      <c r="F40" s="109">
+        <v>43032</v>
+      </c>
       <c r="G40" s="110"/>
-      <c r="H40" s="110"/>
-      <c r="I40" s="111" t="str">
+      <c r="H40" s="110">
+        <v>2</v>
+      </c>
+      <c r="I40" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J40" s="112"/>
-      <c r="K40" s="112"/>
-      <c r="L40" s="112"/>
+        <v>1</v>
+      </c>
+      <c r="J40" s="112">
+        <v>3</v>
+      </c>
+      <c r="K40" s="112">
+        <v>3</v>
+      </c>
+      <c r="L40" s="112">
+        <v>1</v>
+      </c>
       <c r="M40" s="112"/>
       <c r="N40" s="112"/>
       <c r="O40" s="112"/>
@@ -11146,7 +11220,9 @@
       <c r="K41" s="112">
         <v>3</v>
       </c>
-      <c r="L41" s="112"/>
+      <c r="L41" s="112">
+        <v>3</v>
+      </c>
       <c r="M41" s="112"/>
       <c r="N41" s="112"/>
       <c r="O41" s="112"/>
@@ -11185,7 +11261,9 @@
       <c r="K42" s="112">
         <v>3</v>
       </c>
-      <c r="L42" s="112"/>
+      <c r="L42" s="112">
+        <v>3</v>
+      </c>
       <c r="M42" s="112"/>
       <c r="N42" s="112"/>
       <c r="O42" s="112"/>
@@ -11460,7 +11538,9 @@
       <c r="K51" s="112">
         <v>0</v>
       </c>
-      <c r="L51" s="112"/>
+      <c r="L51" s="112">
+        <v>0</v>
+      </c>
       <c r="M51" s="112"/>
       <c r="N51" s="112"/>
       <c r="O51" s="112"/>
@@ -11479,7 +11559,7 @@
       </c>
       <c r="D52" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="E52" s="109">
         <v>43028</v>
@@ -11490,10 +11570,12 @@
       <c r="G52" s="110">
         <v>2</v>
       </c>
-      <c r="H52" s="110"/>
+      <c r="H52" s="110">
+        <v>2</v>
+      </c>
       <c r="I52" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" s="112">
         <v>2</v>
@@ -11501,7 +11583,9 @@
       <c r="K52" s="112">
         <v>2</v>
       </c>
-      <c r="L52" s="112"/>
+      <c r="L52" s="112">
+        <v>0</v>
+      </c>
       <c r="M52" s="112"/>
       <c r="N52" s="112"/>
       <c r="O52" s="112"/>
@@ -11519,20 +11603,24 @@
         <v>111</v>
       </c>
       <c r="D53" s="108" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
       </c>
       <c r="E53" s="109">
         <v>43028</v>
       </c>
-      <c r="F53" s="109"/>
+      <c r="F53" s="109">
+        <v>43032</v>
+      </c>
       <c r="G53" s="110">
         <v>4</v>
       </c>
-      <c r="H53" s="110"/>
+      <c r="H53" s="110">
+        <v>2</v>
+      </c>
       <c r="I53" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J53" s="112">
         <v>4</v>
@@ -11540,7 +11628,9 @@
       <c r="K53" s="112">
         <v>4</v>
       </c>
-      <c r="L53" s="112"/>
+      <c r="L53" s="112">
+        <v>2</v>
+      </c>
       <c r="M53" s="112"/>
       <c r="N53" s="112"/>
       <c r="O53" s="112"/>
@@ -11579,7 +11669,9 @@
       <c r="K54" s="112">
         <v>1</v>
       </c>
-      <c r="L54" s="112"/>
+      <c r="L54" s="112">
+        <v>1</v>
+      </c>
       <c r="M54" s="112"/>
       <c r="N54" s="112"/>
       <c r="O54" s="112"/>
@@ -11618,7 +11710,9 @@
       <c r="K55" s="112">
         <v>1</v>
       </c>
-      <c r="L55" s="112"/>
+      <c r="L55" s="112">
+        <v>1</v>
+      </c>
       <c r="M55" s="112"/>
       <c r="N55" s="112"/>
       <c r="O55" s="112"/>
@@ -11657,7 +11751,9 @@
       <c r="K56" s="112">
         <v>4</v>
       </c>
-      <c r="L56" s="112"/>
+      <c r="L56" s="112">
+        <v>4</v>
+      </c>
       <c r="M56" s="112"/>
       <c r="N56" s="112"/>
       <c r="O56" s="112"/>
@@ -11696,7 +11792,9 @@
       <c r="K57" s="112">
         <v>6</v>
       </c>
-      <c r="L57" s="112"/>
+      <c r="L57" s="112">
+        <v>6</v>
+      </c>
       <c r="M57" s="112"/>
       <c r="N57" s="112"/>
       <c r="O57" s="112"/>
@@ -11739,7 +11837,9 @@
       <c r="K58" s="112">
         <v>0</v>
       </c>
-      <c r="L58" s="112"/>
+      <c r="L58" s="112">
+        <v>0</v>
+      </c>
       <c r="M58" s="112"/>
       <c r="N58" s="112"/>
       <c r="O58" s="112"/>
@@ -11782,7 +11882,9 @@
       <c r="K59" s="112">
         <v>0</v>
       </c>
-      <c r="L59" s="112"/>
+      <c r="L59" s="112">
+        <v>0</v>
+      </c>
       <c r="M59" s="112"/>
       <c r="N59" s="112"/>
       <c r="O59" s="112"/>
@@ -11821,7 +11923,9 @@
       <c r="K60" s="110">
         <v>1</v>
       </c>
-      <c r="L60" s="112"/>
+      <c r="L60" s="110">
+        <v>1</v>
+      </c>
       <c r="M60" s="112"/>
       <c r="N60" s="112"/>
       <c r="O60" s="112"/>
@@ -11860,7 +11964,9 @@
       <c r="K61" s="110">
         <v>2</v>
       </c>
-      <c r="L61" s="112"/>
+      <c r="L61" s="110">
+        <v>2</v>
+      </c>
       <c r="M61" s="112"/>
       <c r="N61" s="112"/>
       <c r="O61" s="112"/>
@@ -11899,7 +12005,9 @@
       <c r="K62" s="110">
         <v>3</v>
       </c>
-      <c r="L62" s="112"/>
+      <c r="L62" s="110">
+        <v>3</v>
+      </c>
       <c r="M62" s="112"/>
       <c r="N62" s="112"/>
       <c r="O62" s="112"/>
@@ -11938,7 +12046,9 @@
       <c r="K63" s="110">
         <v>1</v>
       </c>
-      <c r="L63" s="112"/>
+      <c r="L63" s="110">
+        <v>1</v>
+      </c>
       <c r="M63" s="112"/>
       <c r="N63" s="112"/>
       <c r="O63" s="112"/>
@@ -11977,7 +12087,9 @@
       <c r="K64" s="112">
         <v>6</v>
       </c>
-      <c r="L64" s="112"/>
+      <c r="L64" s="112">
+        <v>6</v>
+      </c>
       <c r="M64" s="112"/>
       <c r="N64" s="112"/>
       <c r="O64" s="112"/>
@@ -11988,25 +12100,41 @@
       <c r="A65" s="105">
         <v>61</v>
       </c>
-      <c r="B65" s="106"/>
+      <c r="B65" s="129" t="s">
+        <v>148</v>
+      </c>
       <c r="C65" s="107" t="s">
         <v>111</v>
       </c>
       <c r="D65" s="108" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E65" s="109"/>
-      <c r="F65" s="109"/>
-      <c r="G65" s="110"/>
-      <c r="H65" s="110"/>
-      <c r="I65" s="111" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>完了</v>
+      </c>
+      <c r="E65" s="109">
+        <v>43028</v>
+      </c>
+      <c r="F65" s="109">
+        <v>43031</v>
+      </c>
+      <c r="G65" s="110">
+        <v>4</v>
+      </c>
+      <c r="H65" s="110">
+        <v>4</v>
+      </c>
+      <c r="I65" s="111">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J65" s="112"/>
-      <c r="K65" s="112"/>
-      <c r="L65" s="112"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="112">
+        <v>4</v>
+      </c>
+      <c r="K65" s="112">
+        <v>4</v>
+      </c>
+      <c r="L65" s="112">
+        <v>0</v>
+      </c>
       <c r="M65" s="112"/>
       <c r="N65" s="112"/>
       <c r="O65" s="112"/>
@@ -12443,7 +12571,7 @@
       <c r="H80" s="110"/>
       <c r="I80" s="111">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J80" s="112">
         <v>4</v>
@@ -12451,7 +12579,9 @@
       <c r="K80" s="112">
         <v>4</v>
       </c>
-      <c r="L80" s="112"/>
+      <c r="L80" s="112">
+        <v>3</v>
+      </c>
       <c r="M80" s="112"/>
       <c r="N80" s="112"/>
       <c r="O80" s="112"/>
@@ -12493,7 +12623,9 @@
       <c r="K81" s="112">
         <v>0</v>
       </c>
-      <c r="L81" s="112"/>
+      <c r="L81" s="112">
+        <v>0</v>
+      </c>
       <c r="M81" s="112"/>
       <c r="N81" s="112"/>
       <c r="O81" s="112"/>
@@ -12535,7 +12667,9 @@
       <c r="K82" s="112">
         <v>0</v>
       </c>
-      <c r="L82" s="112"/>
+      <c r="L82" s="112">
+        <v>0</v>
+      </c>
       <c r="M82" s="112"/>
       <c r="N82" s="112"/>
       <c r="O82" s="112"/>
@@ -12566,7 +12700,7 @@
       <c r="H83" s="110"/>
       <c r="I83" s="111">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" s="112">
         <v>2</v>
@@ -12574,7 +12708,9 @@
       <c r="K83" s="112">
         <v>2</v>
       </c>
-      <c r="L83" s="112"/>
+      <c r="L83" s="112">
+        <v>1</v>
+      </c>
       <c r="M83" s="112"/>
       <c r="N83" s="112"/>
       <c r="O83" s="112"/>
@@ -12605,7 +12741,7 @@
       <c r="H84" s="110"/>
       <c r="I84" s="111">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J84" s="112">
         <v>3</v>
@@ -12613,7 +12749,9 @@
       <c r="K84" s="112">
         <v>3</v>
       </c>
-      <c r="L84" s="112"/>
+      <c r="L84" s="112">
+        <v>2</v>
+      </c>
       <c r="M84" s="112"/>
       <c r="N84" s="112"/>
       <c r="O84" s="112"/>
@@ -12652,7 +12790,9 @@
       <c r="K85" s="112">
         <v>3</v>
       </c>
-      <c r="L85" s="112"/>
+      <c r="L85" s="112">
+        <v>3</v>
+      </c>
       <c r="M85" s="112"/>
       <c r="N85" s="112"/>
       <c r="O85" s="112"/>
@@ -12691,7 +12831,9 @@
       <c r="K86" s="112">
         <v>2</v>
       </c>
-      <c r="L86" s="112"/>
+      <c r="L86" s="112">
+        <v>2</v>
+      </c>
       <c r="M86" s="112"/>
       <c r="N86" s="112"/>
       <c r="O86" s="112"/>
@@ -12730,7 +12872,9 @@
       <c r="K87" s="112">
         <v>2</v>
       </c>
-      <c r="L87" s="112"/>
+      <c r="L87" s="112">
+        <v>2</v>
+      </c>
       <c r="M87" s="112"/>
       <c r="N87" s="112"/>
       <c r="O87" s="112"/>
@@ -12769,7 +12913,9 @@
       <c r="K88" s="112">
         <v>6</v>
       </c>
-      <c r="L88" s="112"/>
+      <c r="L88" s="112">
+        <v>6</v>
+      </c>
       <c r="M88" s="112"/>
       <c r="N88" s="112"/>
       <c r="O88" s="112"/>
@@ -12808,7 +12954,9 @@
       <c r="K89" s="112">
         <v>2</v>
       </c>
-      <c r="L89" s="112"/>
+      <c r="L89" s="112">
+        <v>2</v>
+      </c>
       <c r="M89" s="112"/>
       <c r="N89" s="112"/>
       <c r="O89" s="112"/>
@@ -12847,7 +12995,9 @@
       <c r="K90" s="112">
         <v>3</v>
       </c>
-      <c r="L90" s="112"/>
+      <c r="L90" s="112">
+        <v>3</v>
+      </c>
       <c r="M90" s="112"/>
       <c r="N90" s="112"/>
       <c r="O90" s="112"/>
@@ -13237,29 +13387,33 @@
       </c>
       <c r="D104" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="E104" s="109">
         <v>43025</v>
       </c>
       <c r="F104" s="109">
-        <v>43025</v>
+        <v>43018</v>
       </c>
       <c r="G104" s="110">
         <v>4</v>
       </c>
-      <c r="H104" s="110"/>
+      <c r="H104" s="110">
+        <v>3</v>
+      </c>
       <c r="I104" s="111">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J104" s="112">
         <v>4</v>
       </c>
       <c r="K104" s="112">
-        <v>4</v>
-      </c>
-      <c r="L104" s="112"/>
+        <v>0</v>
+      </c>
+      <c r="L104" s="112">
+        <v>0</v>
+      </c>
       <c r="M104" s="112"/>
       <c r="N104" s="112"/>
       <c r="O104" s="112"/>
@@ -13278,29 +13432,33 @@
       </c>
       <c r="D105" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="E105" s="109">
         <v>43028</v>
       </c>
       <c r="F105" s="109">
-        <v>43028</v>
+        <v>43021</v>
       </c>
       <c r="G105" s="110">
         <v>4</v>
       </c>
-      <c r="H105" s="110"/>
+      <c r="H105" s="110">
+        <v>3</v>
+      </c>
       <c r="I105" s="111">
         <f t="shared" ref="I105:I157" ca="1" si="6">IF(ISBLANK(J105)=FALSE,OFFSET(I105,0,COUNTA(J105:Q105)),"")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J105" s="112">
         <v>4</v>
       </c>
       <c r="K105" s="112">
-        <v>4</v>
-      </c>
-      <c r="L105" s="112"/>
+        <v>0</v>
+      </c>
+      <c r="L105" s="112">
+        <v>0</v>
+      </c>
       <c r="M105" s="112"/>
       <c r="N105" s="112"/>
       <c r="O105" s="112"/>
@@ -13318,20 +13476,24 @@
         <v>127</v>
       </c>
       <c r="D106" s="111" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>完了</v>
       </c>
       <c r="E106" s="109">
         <v>43032</v>
       </c>
-      <c r="F106" s="109"/>
+      <c r="F106" s="109">
+        <v>43023</v>
+      </c>
       <c r="G106" s="110">
         <v>4</v>
       </c>
-      <c r="H106" s="110"/>
+      <c r="H106" s="110">
+        <v>3</v>
+      </c>
       <c r="I106" s="111">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J106" s="112">
         <v>4</v>
@@ -13339,7 +13501,9 @@
       <c r="K106" s="112">
         <v>4</v>
       </c>
-      <c r="L106" s="112"/>
+      <c r="L106" s="112">
+        <v>0</v>
+      </c>
       <c r="M106" s="112"/>
       <c r="N106" s="112"/>
       <c r="O106" s="112"/>
@@ -13375,20 +13539,24 @@
         <v>127</v>
       </c>
       <c r="D107" s="111" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>完了</v>
       </c>
       <c r="E107" s="109">
         <v>43035</v>
       </c>
-      <c r="F107" s="109"/>
+      <c r="F107" s="109">
+        <v>43028</v>
+      </c>
       <c r="G107" s="110">
         <v>4</v>
       </c>
-      <c r="H107" s="110"/>
+      <c r="H107" s="110">
+        <v>3</v>
+      </c>
       <c r="I107" s="111">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J107" s="112">
         <v>4</v>
@@ -13396,7 +13564,9 @@
       <c r="K107" s="112">
         <v>4</v>
       </c>
-      <c r="L107" s="112"/>
+      <c r="L107" s="112">
+        <v>0</v>
+      </c>
       <c r="M107" s="112"/>
       <c r="N107" s="112"/>
       <c r="O107" s="112"/>
@@ -13419,7 +13589,7 @@
       </c>
       <c r="W107" s="126">
         <f>COUNTA($J$2:$Q$2)*6-COUNTA($J$4:$Q$4)*6</f>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="X107" s="127">
         <f ca="1">IF(W107&gt;U107,0,U107-W107)</f>
@@ -13437,20 +13607,24 @@
         <v>127</v>
       </c>
       <c r="D108" s="111" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>完了</v>
       </c>
       <c r="E108" s="109">
         <v>43039</v>
       </c>
-      <c r="F108" s="109"/>
+      <c r="F108" s="109">
+        <v>43028</v>
+      </c>
       <c r="G108" s="110">
         <v>4</v>
       </c>
-      <c r="H108" s="110"/>
+      <c r="H108" s="110">
+        <v>4</v>
+      </c>
       <c r="I108" s="111">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J108" s="112">
         <v>4</v>
@@ -13458,7 +13632,9 @@
       <c r="K108" s="112">
         <v>4</v>
       </c>
-      <c r="L108" s="112"/>
+      <c r="L108" s="112">
+        <v>0</v>
+      </c>
       <c r="M108" s="112"/>
       <c r="N108" s="112"/>
       <c r="O108" s="112"/>
@@ -13473,15 +13649,15 @@
       </c>
       <c r="U108" s="125">
         <f t="shared" ref="U108:U116" ca="1" si="8">SUMIF($C$5:$C$156,S108,$I$5:$I$157)</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V108" s="125">
         <f t="shared" ref="V108:V116" si="9">SUMIF($C$5:$C$157,S108,$H$5:$H$157)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="W108" s="126">
         <f t="shared" ref="W108:W116" si="10">COUNTA($J$2:$Q$2)*6-COUNTA($J$4:$Q$4)*6</f>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="X108" s="127">
         <f t="shared" ref="X108:X116" ca="1" si="11">IF(W108&gt;U108,0,U108-W108)</f>
@@ -13499,20 +13675,22 @@
         <v>127</v>
       </c>
       <c r="D109" s="111" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>作業中</v>
       </c>
       <c r="E109" s="109">
         <v>43046</v>
       </c>
-      <c r="F109" s="109"/>
+      <c r="F109" s="109">
+        <v>43028</v>
+      </c>
       <c r="G109" s="110">
         <v>3</v>
       </c>
       <c r="H109" s="110"/>
       <c r="I109" s="111">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="J109" s="112">
         <v>4</v>
@@ -13520,7 +13698,9 @@
       <c r="K109" s="112">
         <v>4</v>
       </c>
-      <c r="L109" s="112"/>
+      <c r="L109" s="112">
+        <v>1.5</v>
+      </c>
       <c r="M109" s="112"/>
       <c r="N109" s="112"/>
       <c r="O109" s="112"/>
@@ -13531,19 +13711,19 @@
       </c>
       <c r="T109" s="125">
         <f t="shared" si="7"/>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="U109" s="125">
         <f t="shared" ca="1" si="8"/>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="V109" s="125">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W109" s="126">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="X109" s="127">
         <f t="shared" ca="1" si="11"/>
@@ -13561,20 +13741,22 @@
         <v>127</v>
       </c>
       <c r="D110" s="111" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>作業中</v>
       </c>
       <c r="E110" s="4">
         <v>43046</v>
       </c>
-      <c r="F110" s="109"/>
+      <c r="F110" s="109">
+        <v>43028</v>
+      </c>
       <c r="G110" s="110">
         <v>3</v>
       </c>
       <c r="H110" s="110"/>
       <c r="I110" s="111">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="J110" s="112">
         <v>4</v>
@@ -13582,7 +13764,9 @@
       <c r="K110" s="112">
         <v>4</v>
       </c>
-      <c r="L110" s="112"/>
+      <c r="L110" s="112">
+        <v>1.5</v>
+      </c>
       <c r="M110" s="112"/>
       <c r="N110" s="112"/>
       <c r="O110" s="112"/>
@@ -13597,7 +13781,7 @@
       </c>
       <c r="U110" s="125">
         <f t="shared" ca="1" si="8"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="V110" s="125">
         <f t="shared" si="9"/>
@@ -13605,7 +13789,7 @@
       </c>
       <c r="W110" s="126">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="X110" s="127">
         <f t="shared" ca="1" si="11"/>
@@ -13623,20 +13807,22 @@
         <v>127</v>
       </c>
       <c r="D111" s="111" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>作業中</v>
       </c>
       <c r="E111" s="109">
         <v>43049</v>
       </c>
-      <c r="F111" s="109"/>
+      <c r="F111" s="109">
+        <v>43028</v>
+      </c>
       <c r="G111" s="110">
         <v>4</v>
       </c>
       <c r="H111" s="110"/>
       <c r="I111" s="111">
         <f ca="1">IF(ISBLANK(J111)=FALSE,OFFSET(I111,0,COUNTA(J111:Q111)),"")</f>
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="J111" s="112">
         <v>4</v>
@@ -13644,7 +13830,9 @@
       <c r="K111" s="112">
         <v>4</v>
       </c>
-      <c r="L111" s="112"/>
+      <c r="L111" s="112">
+        <v>1.5</v>
+      </c>
       <c r="M111" s="112"/>
       <c r="N111" s="112"/>
       <c r="O111" s="112"/>
@@ -13659,15 +13847,15 @@
       </c>
       <c r="U111" s="125">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>4.5</v>
       </c>
       <c r="V111" s="125">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="W111" s="126">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="X111" s="127">
         <f t="shared" ca="1" si="11"/>
@@ -13723,7 +13911,7 @@
       </c>
       <c r="W112" s="126">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="X112" s="127">
         <f t="shared" si="11"/>
@@ -13771,7 +13959,7 @@
       </c>
       <c r="W113" s="126">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="X113" s="127">
         <f t="shared" si="11"/>
@@ -13819,7 +14007,7 @@
       </c>
       <c r="W114" s="126">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="X114" s="127">
         <f t="shared" si="11"/>
@@ -13867,7 +14055,7 @@
       </c>
       <c r="W115" s="126">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="X115" s="127">
         <f t="shared" si="11"/>
@@ -13915,7 +14103,7 @@
       </c>
       <c r="W116" s="126">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="X116" s="127">
         <f t="shared" si="11"/>
@@ -15475,7 +15663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z188"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -19331,7 +19519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22617,7 +22805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23415,7 +23603,7 @@
       <c r="K51" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:K51" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="B1:K51"/>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="A2:K51">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
@@ -23429,19 +23617,19 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I51" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I51">
       <formula1>登録者</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B51" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B51">
       <formula1>重要度</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51" xr:uid="{00000000-0002-0000-0400-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51">
       <formula1>担当者</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D51" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D51">
       <formula1>状況</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E51" xr:uid="{00000000-0002-0000-0400-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E51">
       <formula1>状況２</formula1>
     </dataValidation>
   </dataValidations>

--- a/タスク/07班スプリントバックログ.xlsx
+++ b/タスク/07班スプリントバックログ.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kousuke Nakagawa\Desktop\Team07\タスク\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Team07\タスク\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="3045" windowWidth="19230" windowHeight="12120" tabRatio="658" activeTab="1"/>
+    <workbookView xWindow="4815" yWindow="3045" windowWidth="19230" windowHeight="12120" tabRatio="658" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="1" r:id="rId1"/>
@@ -33,18 +33,18 @@
     <definedName name="登録者" localSheetId="4">OFFSET(デバッグシート!$R$2,0,0,COUNTA(デバッグシート!$R$2:$R$10),1)</definedName>
     <definedName name="登録者">OFFSET(#REF!,0,0,COUNTA(#REF!),1)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ohzu</author>
     <author>Windows ユーザー</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -93,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -141,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="1" shapeId="0">
+    <comment ref="P2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="1" shapeId="0">
+    <comment ref="Q2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -189,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -209,13 +209,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ohzu</author>
     <author>Windows ユーザー</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -232,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -248,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -264,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -280,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -296,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -312,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -329,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="1" shapeId="0">
+    <comment ref="R2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -344,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="1" shapeId="0">
+    <comment ref="S2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -359,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -379,13 +379,13 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ohzu</author>
     <author>Windows ユーザー</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -402,7 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -418,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -434,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -450,7 +450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -466,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -482,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -499,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="1" shapeId="0">
+    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -515,7 +515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="1" shapeId="0">
+    <comment ref="P2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -530,7 +530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="153">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -995,13 +995,6 @@
   </si>
   <si>
     <t>エフェクトの回収</t>
-    <rPh sb="6" eb="8">
-      <t>カイシュウ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>３Dモデルの回収</t>
     <rPh sb="6" eb="8">
       <t>カイシュウ</t>
     </rPh>
@@ -1742,11 +1735,61 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>３Dモデルの回収(人型)</t>
+    <rPh sb="6" eb="8">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒトガタ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>３Dモデルの回収(もの）</t>
+    <rPh sb="6" eb="8">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>デフォルトのカート以外のモデル回収</t>
+    <rPh sb="9" eb="11">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ベータに向けてのバックログ作成</t>
+    <rPh sb="4" eb="5">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アルファチェックからのベータに向けての修正作業</t>
+    <rPh sb="15" eb="16">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
@@ -3034,10 +3077,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="4"/>
-    <cellStyle name="標準_2009卒業制作スケジュール表" xfId="1"/>
-    <cellStyle name="標準_チーム編成" xfId="2"/>
-    <cellStyle name="標準_バグシート" xfId="3"/>
+    <cellStyle name="標準 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_2009卒業制作スケジュール表" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_チーム編成" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準_バグシート" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="63">
     <dxf>
@@ -3697,13 +3740,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>145</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>118</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102</c:v>
+                  <c:v>110.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3783,28 +3826,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>145</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>126</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4227,7 +4270,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4262,7 +4304,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>27</c:v>
@@ -4361,7 +4403,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4396,7 +4437,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>16</c:v>
@@ -4495,7 +4536,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4507,7 +4547,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>38</c:v>
@@ -4608,7 +4648,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -7684,6 +7723,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7719,6 +7775,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7894,7 +7967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E222"/>
   <sheetViews>
     <sheetView topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
@@ -9582,11 +9655,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X109" sqref="X109"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9694,35 +9767,35 @@
       <c r="I3" s="143"/>
       <c r="J3" s="103">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$Q$2))))</f>
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="K3" s="103">
         <f t="shared" ref="K3:Q3" si="0">INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$Q$2))))</f>
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="L3" s="103">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="M3" s="103">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="N3" s="103">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="O3" s="103">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="P3" s="103">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="103">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:32" s="100" customFormat="1">
@@ -9736,16 +9809,16 @@
       <c r="H4" s="148"/>
       <c r="I4" s="143"/>
       <c r="J4" s="104">
-        <f>SUM(J5:J104)</f>
-        <v>145</v>
+        <f>SUM(J5:J157)</f>
+        <v>183</v>
       </c>
       <c r="K4" s="104">
-        <f>SUM(K5:K104)</f>
-        <v>118</v>
+        <f t="shared" ref="K4:L4" si="1">SUM(K5:K157)</f>
+        <v>152</v>
       </c>
       <c r="L4" s="104">
-        <f>SUM(L5:L104)</f>
-        <v>102</v>
+        <f t="shared" si="1"/>
+        <v>110.5</v>
       </c>
       <c r="M4" s="104"/>
       <c r="N4" s="104"/>
@@ -9761,14 +9834,14 @@
         <v>76</v>
       </c>
       <c r="C5" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="108" t="str">
-        <f t="shared" ref="D5:D68" si="1">IF(ISBLANK($B5),"",IF(ISBLANK($F5),"未着手",IF($I5=0,"完了","作業中")))</f>
+        <f t="shared" ref="D5:D68" si="2">IF(ISBLANK($B5),"",IF(ISBLANK($F5),"未着手",IF($I5=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="E5" s="109">
-        <v>43035</v>
+        <v>43039</v>
       </c>
       <c r="F5" s="109"/>
       <c r="G5" s="110">
@@ -9776,7 +9849,7 @@
       </c>
       <c r="H5" s="110"/>
       <c r="I5" s="111">
-        <f t="shared" ref="I5:I56" ca="1" si="2">IF(ISBLANK(J5)=FALSE,OFFSET(I5,0,COUNTA(J5:Q5)),"")</f>
+        <f t="shared" ref="I5:I56" ca="1" si="3">IF(ISBLANK(J5)=FALSE,OFFSET(I5,0,COUNTA(J5:Q5)),"")</f>
         <v>3</v>
       </c>
       <c r="J5" s="112">
@@ -9802,14 +9875,14 @@
         <v>77</v>
       </c>
       <c r="C6" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E6" s="109">
-        <v>43035</v>
+        <v>43039</v>
       </c>
       <c r="F6" s="109"/>
       <c r="G6" s="110">
@@ -9817,7 +9890,7 @@
       </c>
       <c r="H6" s="110"/>
       <c r="I6" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="J6" s="112">
@@ -9843,10 +9916,10 @@
         <v>78</v>
       </c>
       <c r="C7" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E7" s="109">
@@ -9862,7 +9935,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J7" s="112">
@@ -9884,36 +9957,40 @@
       <c r="A8" s="105">
         <v>4</v>
       </c>
-      <c r="B8" s="106" t="s">
-        <v>79</v>
+      <c r="B8" s="129" t="s">
+        <v>148</v>
       </c>
       <c r="C8" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8" s="108" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
       </c>
       <c r="E8" s="109">
-        <v>43039</v>
-      </c>
-      <c r="F8" s="109"/>
+        <v>43032</v>
+      </c>
+      <c r="F8" s="109">
+        <v>43032</v>
+      </c>
       <c r="G8" s="110">
-        <v>6</v>
-      </c>
-      <c r="H8" s="110"/>
+        <v>3</v>
+      </c>
+      <c r="H8" s="110">
+        <v>3</v>
+      </c>
       <c r="I8" s="111">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="J8" s="112">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K8" s="112">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L8" s="112">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M8" s="112"/>
       <c r="N8" s="112"/>
@@ -9926,17 +10003,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="114" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E9" s="109">
-        <v>43032</v>
+        <v>43035</v>
       </c>
       <c r="F9" s="109"/>
       <c r="G9" s="110">
@@ -9944,7 +10021,7 @@
       </c>
       <c r="H9" s="110"/>
       <c r="I9" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="J9" s="112">
@@ -9967,13 +10044,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="106" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E10" s="109">
@@ -9989,7 +10066,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J10" s="112">
@@ -10012,13 +10089,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="114" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E11" s="109">
@@ -10034,7 +10111,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J11" s="112">
@@ -10057,13 +10134,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="106" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E12" s="109">
@@ -10079,7 +10156,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J12" s="112">
@@ -10102,13 +10179,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C13" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D13" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E13" s="109">
@@ -10124,7 +10201,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J13" s="112">
@@ -10150,13 +10227,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E14" s="109">
@@ -10168,7 +10245,7 @@
       </c>
       <c r="H14" s="110"/>
       <c r="I14" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="J14" s="112">
@@ -10191,13 +10268,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="129" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D15" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E15" s="109">
@@ -10207,13 +10284,13 @@
         <v>43028</v>
       </c>
       <c r="G15" s="110">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15" s="110">
         <v>3</v>
       </c>
       <c r="I15" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J15" s="112">
@@ -10236,30 +10313,40 @@
         <v>12</v>
       </c>
       <c r="B16" s="129" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C16" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="108" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
       </c>
       <c r="E16" s="109">
         <v>43032</v>
       </c>
-      <c r="F16" s="109"/>
+      <c r="F16" s="109">
+        <v>43032</v>
+      </c>
       <c r="G16" s="110">
         <v>3</v>
       </c>
-      <c r="H16" s="110"/>
-      <c r="I16" s="111" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J16" s="112"/>
-      <c r="K16" s="112"/>
-      <c r="L16" s="112"/>
+      <c r="H16" s="110">
+        <v>3</v>
+      </c>
+      <c r="I16" s="111">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="112">
+        <v>3</v>
+      </c>
+      <c r="K16" s="112">
+        <v>3</v>
+      </c>
+      <c r="L16" s="112">
+        <v>0</v>
+      </c>
       <c r="M16" s="112"/>
       <c r="N16" s="112"/>
       <c r="O16" s="112"/>
@@ -10271,13 +10358,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="129" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C17" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E17" s="109">
@@ -10285,21 +10372,20 @@
       </c>
       <c r="F17" s="109"/>
       <c r="G17" s="110">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H17" s="110"/>
       <c r="I17" s="111">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J17" s="112">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K17" s="112">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L17" s="112">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M17" s="112"/>
       <c r="N17" s="112"/>
@@ -10311,25 +10397,37 @@
       <c r="A18" s="105">
         <v>14</v>
       </c>
-      <c r="B18" s="106"/>
+      <c r="B18" s="129" t="s">
+        <v>149</v>
+      </c>
       <c r="C18" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D18" s="108" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E18" s="109"/>
+        <f t="shared" si="2"/>
+        <v>未着手</v>
+      </c>
+      <c r="E18" s="109">
+        <v>43035</v>
+      </c>
       <c r="F18" s="109"/>
-      <c r="G18" s="110"/>
+      <c r="G18" s="110">
+        <v>3</v>
+      </c>
       <c r="H18" s="110"/>
-      <c r="I18" s="111" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J18" s="112"/>
-      <c r="K18" s="112"/>
-      <c r="L18" s="112"/>
+      <c r="I18" s="111">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J18" s="112">
+        <v>3</v>
+      </c>
+      <c r="K18" s="112">
+        <v>3</v>
+      </c>
+      <c r="L18" s="112">
+        <v>3</v>
+      </c>
       <c r="M18" s="112"/>
       <c r="N18" s="112"/>
       <c r="O18" s="112"/>
@@ -10340,25 +10438,37 @@
       <c r="A19" s="105">
         <v>15</v>
       </c>
-      <c r="B19" s="106"/>
+      <c r="B19" s="129" t="s">
+        <v>150</v>
+      </c>
       <c r="C19" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" s="108" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E19" s="109"/>
+        <f t="shared" si="2"/>
+        <v>未着手</v>
+      </c>
+      <c r="E19" s="109">
+        <v>43042</v>
+      </c>
       <c r="F19" s="109"/>
-      <c r="G19" s="110"/>
+      <c r="G19" s="110">
+        <v>3</v>
+      </c>
       <c r="H19" s="110"/>
-      <c r="I19" s="111" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J19" s="112"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="112"/>
+      <c r="I19" s="111">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J19" s="112">
+        <v>4</v>
+      </c>
+      <c r="K19" s="112">
+        <v>4</v>
+      </c>
+      <c r="L19" s="112">
+        <v>4</v>
+      </c>
       <c r="M19" s="112"/>
       <c r="N19" s="112"/>
       <c r="O19" s="112"/>
@@ -10369,25 +10479,37 @@
       <c r="A20" s="105">
         <v>16</v>
       </c>
-      <c r="B20" s="106"/>
+      <c r="B20" s="129" t="s">
+        <v>151</v>
+      </c>
       <c r="C20" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D20" s="108" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E20" s="109"/>
+        <f t="shared" si="2"/>
+        <v>未着手</v>
+      </c>
+      <c r="E20" s="109">
+        <v>43046</v>
+      </c>
       <c r="F20" s="109"/>
-      <c r="G20" s="110"/>
+      <c r="G20" s="110">
+        <v>3</v>
+      </c>
       <c r="H20" s="110"/>
-      <c r="I20" s="111" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J20" s="112"/>
-      <c r="K20" s="112"/>
-      <c r="L20" s="112"/>
+      <c r="I20" s="111">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J20" s="112">
+        <v>3</v>
+      </c>
+      <c r="K20" s="112">
+        <v>3</v>
+      </c>
+      <c r="L20" s="112">
+        <v>3</v>
+      </c>
       <c r="M20" s="112"/>
       <c r="N20" s="112"/>
       <c r="O20" s="112"/>
@@ -10398,25 +10520,37 @@
       <c r="A21" s="105">
         <v>17</v>
       </c>
-      <c r="B21" s="106"/>
+      <c r="B21" s="129" t="s">
+        <v>152</v>
+      </c>
       <c r="C21" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D21" s="108" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E21" s="109"/>
+        <f t="shared" si="2"/>
+        <v>未着手</v>
+      </c>
+      <c r="E21" s="109">
+        <v>43049</v>
+      </c>
       <c r="F21" s="109"/>
-      <c r="G21" s="110"/>
+      <c r="G21" s="110">
+        <v>3</v>
+      </c>
       <c r="H21" s="110"/>
-      <c r="I21" s="111" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J21" s="112"/>
-      <c r="K21" s="112"/>
-      <c r="L21" s="112"/>
+      <c r="I21" s="111">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J21" s="112">
+        <v>3</v>
+      </c>
+      <c r="K21" s="112">
+        <v>3</v>
+      </c>
+      <c r="L21" s="112">
+        <v>3</v>
+      </c>
       <c r="M21" s="112"/>
       <c r="N21" s="112"/>
       <c r="O21" s="112"/>
@@ -10429,10 +10563,10 @@
       </c>
       <c r="B22" s="106"/>
       <c r="C22" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D22" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E22" s="109"/>
@@ -10440,7 +10574,7 @@
       <c r="G22" s="110"/>
       <c r="H22" s="110"/>
       <c r="I22" s="111" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J22" s="112"/>
@@ -10458,10 +10592,10 @@
       </c>
       <c r="B23" s="106"/>
       <c r="C23" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E23" s="109"/>
@@ -10469,7 +10603,7 @@
       <c r="G23" s="110"/>
       <c r="H23" s="110"/>
       <c r="I23" s="111" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J23" s="112"/>
@@ -10487,10 +10621,10 @@
       </c>
       <c r="B24" s="106"/>
       <c r="C24" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D24" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E24" s="109"/>
@@ -10498,7 +10632,7 @@
       <c r="G24" s="110"/>
       <c r="H24" s="110"/>
       <c r="I24" s="111" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J24" s="112"/>
@@ -10515,13 +10649,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="106" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D25" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>作業中</v>
       </c>
       <c r="E25" s="109">
@@ -10537,7 +10671,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="J25" s="112">
@@ -10560,13 +10694,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="106" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D26" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E26" s="109">
@@ -10578,7 +10712,7 @@
       </c>
       <c r="H26" s="110"/>
       <c r="I26" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="J26" s="112">
@@ -10601,13 +10735,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D27" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E27" s="109">
@@ -10619,7 +10753,7 @@
       </c>
       <c r="H27" s="110"/>
       <c r="I27" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="J27" s="112">
@@ -10642,13 +10776,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="106" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D28" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E28" s="109">
@@ -10660,7 +10794,7 @@
       </c>
       <c r="H28" s="110"/>
       <c r="I28" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="J28" s="112">
@@ -10683,13 +10817,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="106" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D29" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E29" s="109">
@@ -10701,7 +10835,7 @@
       </c>
       <c r="H29" s="110"/>
       <c r="I29" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="J29" s="112">
@@ -10724,13 +10858,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="106" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C30" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D30" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E30" s="109">
@@ -10742,7 +10876,7 @@
       </c>
       <c r="H30" s="110"/>
       <c r="I30" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="J30" s="112">
@@ -10765,13 +10899,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="106" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C31" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D31" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E31" s="109">
@@ -10783,7 +10917,7 @@
       </c>
       <c r="H31" s="110"/>
       <c r="I31" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="J31" s="112">
@@ -10806,13 +10940,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="106" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C32" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D32" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E32" s="109">
@@ -10828,7 +10962,7 @@
         <v>6</v>
       </c>
       <c r="I32" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J32" s="112">
@@ -10847,13 +10981,13 @@
         <v>29</v>
       </c>
       <c r="B33" s="106" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C33" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D33" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>作業中</v>
       </c>
       <c r="E33" s="109">
@@ -10869,7 +11003,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="J33" s="112">
@@ -10892,13 +11026,13 @@
         <v>30</v>
       </c>
       <c r="B34" s="106" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>作業中</v>
       </c>
       <c r="E34" s="109">
@@ -10912,7 +11046,7 @@
       </c>
       <c r="H34" s="110"/>
       <c r="I34" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="J34" s="112">
@@ -10935,13 +11069,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="106" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E35" s="109">
@@ -10957,7 +11091,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J35" s="112">
@@ -10966,7 +11100,9 @@
       <c r="K35" s="112">
         <v>0</v>
       </c>
-      <c r="L35" s="112"/>
+      <c r="L35" s="112">
+        <v>0</v>
+      </c>
       <c r="M35" s="112"/>
       <c r="N35" s="112"/>
       <c r="O35" s="112"/>
@@ -10978,13 +11114,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="106" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C36" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E36" s="109">
@@ -11000,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J36" s="112">
@@ -11009,7 +11145,9 @@
       <c r="K36" s="112">
         <v>0</v>
       </c>
-      <c r="L36" s="112"/>
+      <c r="L36" s="112">
+        <v>0</v>
+      </c>
       <c r="M36" s="112"/>
       <c r="N36" s="112"/>
       <c r="O36" s="112"/>
@@ -11021,13 +11159,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="106" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C37" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E37" s="109">
@@ -11043,7 +11181,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J37" s="112">
@@ -11052,7 +11190,9 @@
       <c r="K37" s="112">
         <v>0</v>
       </c>
-      <c r="L37" s="112"/>
+      <c r="L37" s="112">
+        <v>0</v>
+      </c>
       <c r="M37" s="112"/>
       <c r="N37" s="112"/>
       <c r="O37" s="112"/>
@@ -11064,13 +11204,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="106" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C38" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D38" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E38" s="109">
@@ -11086,7 +11226,7 @@
         <v>3</v>
       </c>
       <c r="I38" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J38" s="112">
@@ -11109,13 +11249,13 @@
         <v>35</v>
       </c>
       <c r="B39" s="129" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C39" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D39" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E39" s="109">
@@ -11127,7 +11267,7 @@
       </c>
       <c r="H39" s="110"/>
       <c r="I39" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
       <c r="J39" s="112">
@@ -11150,13 +11290,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="129" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C40" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D40" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>作業中</v>
       </c>
       <c r="E40" s="109">
@@ -11170,7 +11310,7 @@
         <v>2</v>
       </c>
       <c r="I40" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="J40" s="112">
@@ -11193,13 +11333,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="129" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C41" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D41" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E41" s="109">
@@ -11211,7 +11351,7 @@
       </c>
       <c r="H41" s="110"/>
       <c r="I41" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="J41" s="112">
@@ -11234,13 +11374,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="129" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C42" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D42" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E42" s="109">
@@ -11252,7 +11392,7 @@
       </c>
       <c r="H42" s="110"/>
       <c r="I42" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="J42" s="112">
@@ -11276,10 +11416,10 @@
       </c>
       <c r="B43" s="106"/>
       <c r="C43" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D43" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E43" s="109"/>
@@ -11287,7 +11427,7 @@
       <c r="G43" s="110"/>
       <c r="H43" s="110"/>
       <c r="I43" s="111" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J43" s="112"/>
@@ -11305,10 +11445,10 @@
       </c>
       <c r="B44" s="106"/>
       <c r="C44" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D44" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E44" s="109"/>
@@ -11316,7 +11456,7 @@
       <c r="G44" s="110"/>
       <c r="H44" s="110"/>
       <c r="I44" s="111" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J44" s="112"/>
@@ -11334,10 +11474,10 @@
       </c>
       <c r="B45" s="106"/>
       <c r="C45" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D45" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E45" s="109"/>
@@ -11345,7 +11485,7 @@
       <c r="G45" s="110"/>
       <c r="H45" s="110"/>
       <c r="I45" s="111" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J45" s="112"/>
@@ -11363,10 +11503,10 @@
       </c>
       <c r="B46" s="106"/>
       <c r="C46" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D46" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E46" s="109"/>
@@ -11374,7 +11514,7 @@
       <c r="G46" s="110"/>
       <c r="H46" s="110"/>
       <c r="I46" s="111" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J46" s="112"/>
@@ -11392,10 +11532,10 @@
       </c>
       <c r="B47" s="106"/>
       <c r="C47" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D47" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E47" s="109"/>
@@ -11403,7 +11543,7 @@
       <c r="G47" s="110"/>
       <c r="H47" s="110"/>
       <c r="I47" s="111" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J47" s="112"/>
@@ -11421,10 +11561,10 @@
       </c>
       <c r="B48" s="106"/>
       <c r="C48" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D48" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E48" s="109"/>
@@ -11432,7 +11572,7 @@
       <c r="G48" s="110"/>
       <c r="H48" s="110"/>
       <c r="I48" s="111" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J48" s="112"/>
@@ -11450,10 +11590,10 @@
       </c>
       <c r="B49" s="106"/>
       <c r="C49" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D49" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E49" s="109"/>
@@ -11461,7 +11601,7 @@
       <c r="G49" s="110"/>
       <c r="H49" s="110"/>
       <c r="I49" s="111" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J49" s="112"/>
@@ -11479,10 +11619,10 @@
       </c>
       <c r="B50" s="106"/>
       <c r="C50" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D50" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E50" s="109"/>
@@ -11490,7 +11630,7 @@
       <c r="G50" s="110"/>
       <c r="H50" s="110"/>
       <c r="I50" s="111" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J50" s="112"/>
@@ -11507,13 +11647,13 @@
         <v>47</v>
       </c>
       <c r="B51" s="106" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C51" s="107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D51" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E51" s="109">
@@ -11529,7 +11669,7 @@
         <v>3</v>
       </c>
       <c r="I51" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J51" s="112">
@@ -11552,13 +11692,13 @@
         <v>48</v>
       </c>
       <c r="B52" s="106" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C52" s="107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D52" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E52" s="109">
@@ -11574,7 +11714,7 @@
         <v>2</v>
       </c>
       <c r="I52" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J52" s="112">
@@ -11597,13 +11737,13 @@
         <v>49</v>
       </c>
       <c r="B53" s="106" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C53" s="107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D53" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>作業中</v>
       </c>
       <c r="E53" s="109">
@@ -11619,7 +11759,7 @@
         <v>2</v>
       </c>
       <c r="I53" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="J53" s="112">
@@ -11642,13 +11782,13 @@
         <v>50</v>
       </c>
       <c r="B54" s="106" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C54" s="107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D54" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E54" s="109">
@@ -11660,7 +11800,7 @@
       </c>
       <c r="H54" s="110"/>
       <c r="I54" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="J54" s="112">
@@ -11683,13 +11823,13 @@
         <v>51</v>
       </c>
       <c r="B55" s="106" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C55" s="107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D55" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E55" s="109">
@@ -11701,7 +11841,7 @@
       </c>
       <c r="H55" s="110"/>
       <c r="I55" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="J55" s="112">
@@ -11724,13 +11864,13 @@
         <v>52</v>
       </c>
       <c r="B56" s="106" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C56" s="107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D56" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E56" s="109">
@@ -11742,7 +11882,7 @@
       </c>
       <c r="H56" s="110"/>
       <c r="I56" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
       <c r="J56" s="112">
@@ -11765,13 +11905,13 @@
         <v>53</v>
       </c>
       <c r="B57" s="106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C57" s="107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D57" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E57" s="109">
@@ -11783,7 +11923,7 @@
       </c>
       <c r="H57" s="110"/>
       <c r="I57" s="111">
-        <f t="shared" ref="I57:I104" ca="1" si="3">IF(ISBLANK(J57)=FALSE,OFFSET(I57,0,COUNTA(J57:Q57)),"")</f>
+        <f t="shared" ref="I57:I104" ca="1" si="4">IF(ISBLANK(J57)=FALSE,OFFSET(I57,0,COUNTA(J57:Q57)),"")</f>
         <v>6</v>
       </c>
       <c r="J57" s="112">
@@ -11806,13 +11946,13 @@
         <v>54</v>
       </c>
       <c r="B58" s="106" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C58" s="107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D58" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E58" s="109">
@@ -11828,7 +11968,7 @@
         <v>2</v>
       </c>
       <c r="I58" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J58" s="112">
@@ -11851,13 +11991,13 @@
         <v>55</v>
       </c>
       <c r="B59" s="129" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C59" s="107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D59" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E59" s="109">
@@ -11873,7 +12013,7 @@
         <v>3</v>
       </c>
       <c r="I59" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J59" s="112">
@@ -11896,13 +12036,13 @@
         <v>56</v>
       </c>
       <c r="B60" s="129" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C60" s="107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D60" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E60" s="4">
@@ -11914,7 +12054,7 @@
       </c>
       <c r="H60" s="110"/>
       <c r="I60" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="J60" s="110">
@@ -11937,13 +12077,13 @@
         <v>57</v>
       </c>
       <c r="B61" s="129" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C61" s="107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D61" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E61" s="109">
@@ -11955,7 +12095,7 @@
       </c>
       <c r="H61" s="110"/>
       <c r="I61" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="J61" s="110">
@@ -11978,13 +12118,13 @@
         <v>58</v>
       </c>
       <c r="B62" s="129" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C62" s="107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D62" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E62" s="109">
@@ -11996,7 +12136,7 @@
       </c>
       <c r="H62" s="110"/>
       <c r="I62" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
       <c r="J62" s="110">
@@ -12019,13 +12159,13 @@
         <v>59</v>
       </c>
       <c r="B63" s="129" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C63" s="107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D63" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E63" s="109">
@@ -12037,7 +12177,7 @@
       </c>
       <c r="H63" s="110"/>
       <c r="I63" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="J63" s="110">
@@ -12060,13 +12200,13 @@
         <v>60</v>
       </c>
       <c r="B64" s="129" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C64" s="107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D64" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E64" s="109">
@@ -12078,7 +12218,7 @@
       </c>
       <c r="H64" s="110"/>
       <c r="I64" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>6</v>
       </c>
       <c r="J64" s="112">
@@ -12101,13 +12241,13 @@
         <v>61</v>
       </c>
       <c r="B65" s="129" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C65" s="107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D65" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E65" s="109">
@@ -12123,7 +12263,7 @@
         <v>4</v>
       </c>
       <c r="I65" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J65" s="112">
@@ -12147,10 +12287,10 @@
       </c>
       <c r="B66" s="106"/>
       <c r="C66" s="107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D66" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E66" s="109"/>
@@ -12158,7 +12298,7 @@
       <c r="G66" s="110"/>
       <c r="H66" s="110"/>
       <c r="I66" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J66" s="112"/>
@@ -12176,10 +12316,10 @@
       </c>
       <c r="B67" s="106"/>
       <c r="C67" s="107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D67" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E67" s="109"/>
@@ -12187,7 +12327,7 @@
       <c r="G67" s="110"/>
       <c r="H67" s="110"/>
       <c r="I67" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J67" s="112"/>
@@ -12205,10 +12345,10 @@
       </c>
       <c r="B68" s="106"/>
       <c r="C68" s="107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D68" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E68" s="109"/>
@@ -12216,7 +12356,7 @@
       <c r="G68" s="110"/>
       <c r="H68" s="110"/>
       <c r="I68" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J68" s="112"/>
@@ -12234,10 +12374,10 @@
       </c>
       <c r="B69" s="106"/>
       <c r="C69" s="107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D69" s="108" t="str">
-        <f t="shared" ref="D69:D91" si="4">IF(ISBLANK($B69),"",IF(ISBLANK($F69),"未着手",IF($I69=0,"完了","作業中")))</f>
+        <f t="shared" ref="D69:D91" si="5">IF(ISBLANK($B69),"",IF(ISBLANK($F69),"未着手",IF($I69=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="E69" s="109"/>
@@ -12245,7 +12385,7 @@
       <c r="G69" s="110"/>
       <c r="H69" s="110"/>
       <c r="I69" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J69" s="112"/>
@@ -12263,10 +12403,10 @@
       </c>
       <c r="B70" s="106"/>
       <c r="C70" s="107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D70" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E70" s="109"/>
@@ -12274,7 +12414,7 @@
       <c r="G70" s="110"/>
       <c r="H70" s="110"/>
       <c r="I70" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J70" s="112"/>
@@ -12292,10 +12432,10 @@
       </c>
       <c r="B71" s="106"/>
       <c r="C71" s="107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D71" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E71" s="109"/>
@@ -12303,7 +12443,7 @@
       <c r="G71" s="110"/>
       <c r="H71" s="110"/>
       <c r="I71" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J71" s="112"/>
@@ -12321,10 +12461,10 @@
       </c>
       <c r="B72" s="106"/>
       <c r="C72" s="107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D72" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E72" s="109"/>
@@ -12332,7 +12472,7 @@
       <c r="G72" s="110"/>
       <c r="H72" s="110"/>
       <c r="I72" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J72" s="112"/>
@@ -12350,10 +12490,10 @@
       </c>
       <c r="B73" s="106"/>
       <c r="C73" s="107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D73" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E73" s="109"/>
@@ -12361,7 +12501,7 @@
       <c r="G73" s="110"/>
       <c r="H73" s="110"/>
       <c r="I73" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J73" s="112"/>
@@ -12379,10 +12519,10 @@
       </c>
       <c r="B74" s="106"/>
       <c r="C74" s="107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D74" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E74" s="109"/>
@@ -12390,7 +12530,7 @@
       <c r="G74" s="110"/>
       <c r="H74" s="110"/>
       <c r="I74" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J74" s="112"/>
@@ -12408,10 +12548,10 @@
       </c>
       <c r="B75" s="106"/>
       <c r="C75" s="107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D75" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E75" s="109"/>
@@ -12419,7 +12559,7 @@
       <c r="G75" s="110"/>
       <c r="H75" s="110"/>
       <c r="I75" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J75" s="112"/>
@@ -12437,10 +12577,10 @@
       </c>
       <c r="B76" s="106"/>
       <c r="C76" s="107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D76" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E76" s="109"/>
@@ -12448,7 +12588,7 @@
       <c r="G76" s="110"/>
       <c r="H76" s="110"/>
       <c r="I76" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J76" s="112"/>
@@ -12466,10 +12606,10 @@
       </c>
       <c r="B77" s="106"/>
       <c r="C77" s="107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D77" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E77" s="109"/>
@@ -12477,7 +12617,7 @@
       <c r="G77" s="110"/>
       <c r="H77" s="110"/>
       <c r="I77" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J77" s="112"/>
@@ -12495,10 +12635,10 @@
       </c>
       <c r="B78" s="106"/>
       <c r="C78" s="107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D78" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E78" s="109"/>
@@ -12506,7 +12646,7 @@
       <c r="G78" s="110"/>
       <c r="H78" s="110"/>
       <c r="I78" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J78" s="112"/>
@@ -12524,10 +12664,10 @@
       </c>
       <c r="B79" s="106"/>
       <c r="C79" s="107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D79" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E79" s="109"/>
@@ -12535,7 +12675,7 @@
       <c r="G79" s="110"/>
       <c r="H79" s="110"/>
       <c r="I79" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J79" s="112"/>
@@ -12552,13 +12692,13 @@
         <v>76</v>
       </c>
       <c r="B80" s="106" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C80" s="107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D80" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E80" s="109">
@@ -12570,7 +12710,7 @@
       </c>
       <c r="H80" s="110"/>
       <c r="I80" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
       <c r="J80" s="112">
@@ -12593,13 +12733,13 @@
         <v>77</v>
       </c>
       <c r="B81" s="106" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C81" s="107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D81" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>完了</v>
       </c>
       <c r="E81" s="109">
@@ -12637,13 +12777,13 @@
         <v>78</v>
       </c>
       <c r="B82" s="106" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C82" s="107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D82" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>完了</v>
       </c>
       <c r="E82" s="109">
@@ -12681,13 +12821,13 @@
         <v>79</v>
       </c>
       <c r="B83" s="106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C83" s="107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D83" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E83" s="4">
@@ -12699,7 +12839,7 @@
       </c>
       <c r="H83" s="110"/>
       <c r="I83" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="J83" s="112">
@@ -12722,13 +12862,13 @@
         <v>80</v>
       </c>
       <c r="B84" s="106" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C84" s="107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D84" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E84" s="109">
@@ -12740,7 +12880,7 @@
       </c>
       <c r="H84" s="110"/>
       <c r="I84" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="J84" s="112">
@@ -12763,13 +12903,13 @@
         <v>81</v>
       </c>
       <c r="B85" s="106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C85" s="107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D85" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E85" s="109">
@@ -12804,13 +12944,13 @@
         <v>82</v>
       </c>
       <c r="B86" s="106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C86" s="107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D86" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E86" s="109">
@@ -12845,13 +12985,13 @@
         <v>83</v>
       </c>
       <c r="B87" s="106" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C87" s="107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D87" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E87" s="109">
@@ -12863,7 +13003,7 @@
       </c>
       <c r="H87" s="110"/>
       <c r="I87" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="J87" s="112">
@@ -12886,13 +13026,13 @@
         <v>84</v>
       </c>
       <c r="B88" s="129" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C88" s="107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D88" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E88" s="109">
@@ -12904,7 +13044,7 @@
       </c>
       <c r="H88" s="110"/>
       <c r="I88" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>6</v>
       </c>
       <c r="J88" s="112">
@@ -12927,13 +13067,13 @@
         <v>85</v>
       </c>
       <c r="B89" s="129" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C89" s="107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D89" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E89" s="109">
@@ -12968,13 +13108,13 @@
         <v>86</v>
       </c>
       <c r="B90" s="129" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C90" s="107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D90" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E90" s="109">
@@ -12986,7 +13126,7 @@
       </c>
       <c r="H90" s="110"/>
       <c r="I90" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
       <c r="J90" s="112">
@@ -13010,10 +13150,10 @@
       </c>
       <c r="B91" s="106"/>
       <c r="C91" s="107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D91" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E91" s="109"/>
@@ -13021,7 +13161,7 @@
       <c r="G91" s="110"/>
       <c r="H91" s="110"/>
       <c r="I91" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J91" s="112"/>
@@ -13039,10 +13179,10 @@
       </c>
       <c r="B92" s="106"/>
       <c r="C92" s="107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D92" s="111" t="str">
-        <f t="shared" ref="D92:D155" si="5">IF(ISBLANK($B92),"",IF(ISBLANK($F92),"未着手",IF($I92=0,"完了","作業中")))</f>
+        <f t="shared" ref="D92:D155" si="6">IF(ISBLANK($B92),"",IF(ISBLANK($F92),"未着手",IF($I92=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="E92" s="109"/>
@@ -13050,7 +13190,7 @@
       <c r="G92" s="110"/>
       <c r="H92" s="110"/>
       <c r="I92" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J92" s="112"/>
@@ -13068,10 +13208,10 @@
       </c>
       <c r="B93" s="106"/>
       <c r="C93" s="107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D93" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E93" s="109"/>
@@ -13079,7 +13219,7 @@
       <c r="G93" s="110"/>
       <c r="H93" s="110"/>
       <c r="I93" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J93" s="112"/>
@@ -13097,10 +13237,10 @@
       </c>
       <c r="B94" s="106"/>
       <c r="C94" s="107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D94" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E94" s="109"/>
@@ -13108,7 +13248,7 @@
       <c r="G94" s="110"/>
       <c r="H94" s="110"/>
       <c r="I94" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J94" s="112"/>
@@ -13126,10 +13266,10 @@
       </c>
       <c r="B95" s="106"/>
       <c r="C95" s="107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D95" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E95" s="109"/>
@@ -13137,7 +13277,7 @@
       <c r="G95" s="110"/>
       <c r="H95" s="110"/>
       <c r="I95" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J95" s="112"/>
@@ -13155,10 +13295,10 @@
       </c>
       <c r="B96" s="106"/>
       <c r="C96" s="107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D96" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E96" s="109"/>
@@ -13166,7 +13306,7 @@
       <c r="G96" s="110"/>
       <c r="H96" s="110"/>
       <c r="I96" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J96" s="112"/>
@@ -13184,10 +13324,10 @@
       </c>
       <c r="B97" s="106"/>
       <c r="C97" s="107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D97" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E97" s="109"/>
@@ -13195,7 +13335,7 @@
       <c r="G97" s="110"/>
       <c r="H97" s="110"/>
       <c r="I97" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J97" s="112"/>
@@ -13213,10 +13353,10 @@
       </c>
       <c r="B98" s="106"/>
       <c r="C98" s="107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D98" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E98" s="109"/>
@@ -13224,7 +13364,7 @@
       <c r="G98" s="110"/>
       <c r="H98" s="110"/>
       <c r="I98" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J98" s="112"/>
@@ -13242,10 +13382,10 @@
       </c>
       <c r="B99" s="106"/>
       <c r="C99" s="107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D99" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E99" s="109"/>
@@ -13253,7 +13393,7 @@
       <c r="G99" s="110"/>
       <c r="H99" s="110"/>
       <c r="I99" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J99" s="112"/>
@@ -13271,10 +13411,10 @@
       </c>
       <c r="B100" s="106"/>
       <c r="C100" s="107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D100" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E100" s="109"/>
@@ -13282,7 +13422,7 @@
       <c r="G100" s="110"/>
       <c r="H100" s="110"/>
       <c r="I100" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J100" s="112"/>
@@ -13301,7 +13441,7 @@
       <c r="B101" s="106"/>
       <c r="C101" s="115"/>
       <c r="D101" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E101" s="109"/>
@@ -13309,7 +13449,7 @@
       <c r="G101" s="110"/>
       <c r="H101" s="110"/>
       <c r="I101" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J101" s="112"/>
@@ -13328,7 +13468,7 @@
       <c r="B102" s="116"/>
       <c r="C102" s="115"/>
       <c r="D102" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E102" s="109"/>
@@ -13336,7 +13476,7 @@
       <c r="G102" s="110"/>
       <c r="H102" s="110"/>
       <c r="I102" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J102" s="112"/>
@@ -13355,7 +13495,7 @@
       <c r="B103" s="116"/>
       <c r="C103" s="115"/>
       <c r="D103" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E103" s="109"/>
@@ -13363,7 +13503,7 @@
       <c r="G103" s="110"/>
       <c r="H103" s="110"/>
       <c r="I103" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J103" s="112"/>
@@ -13380,13 +13520,13 @@
         <v>100</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D104" s="111" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>完了</v>
       </c>
       <c r="E104" s="109">
@@ -13402,7 +13542,7 @@
         <v>3</v>
       </c>
       <c r="I104" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J104" s="112">
@@ -13425,13 +13565,13 @@
         <v>101</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D105" s="111" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>完了</v>
       </c>
       <c r="E105" s="109">
@@ -13447,7 +13587,7 @@
         <v>3</v>
       </c>
       <c r="I105" s="111">
-        <f t="shared" ref="I105:I157" ca="1" si="6">IF(ISBLANK(J105)=FALSE,OFFSET(I105,0,COUNTA(J105:Q105)),"")</f>
+        <f t="shared" ref="I105:I157" ca="1" si="7">IF(ISBLANK(J105)=FALSE,OFFSET(I105,0,COUNTA(J105:Q105)),"")</f>
         <v>0</v>
       </c>
       <c r="J105" s="112">
@@ -13470,13 +13610,13 @@
         <v>102</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D106" s="111" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>完了</v>
       </c>
       <c r="E106" s="109">
@@ -13492,7 +13632,7 @@
         <v>3</v>
       </c>
       <c r="I106" s="111">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="J106" s="112">
@@ -13533,13 +13673,13 @@
         <v>103</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D107" s="111" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>完了</v>
       </c>
       <c r="E107" s="109">
@@ -13555,7 +13695,7 @@
         <v>3</v>
       </c>
       <c r="I107" s="111">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="J107" s="112">
@@ -13573,19 +13713,19 @@
       <c r="P107" s="112"/>
       <c r="Q107" s="112"/>
       <c r="S107" s="124" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T107" s="125">
         <f>SUMIF($C$5:$C$157,S107,$G$5:$G$157)</f>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="U107" s="125">
         <f ca="1">SUMIF($C$5:$C$156,S107,$I$5:$I$157)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V107" s="125">
         <f>SUMIF($C$5:$C$157,S107,$H$5:$H$157)</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="W107" s="126">
         <f>COUNTA($J$2:$Q$2)*6-COUNTA($J$4:$Q$4)*6</f>
@@ -13601,13 +13741,13 @@
         <v>104</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D108" s="111" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>完了</v>
       </c>
       <c r="E108" s="109">
@@ -13623,7 +13763,7 @@
         <v>4</v>
       </c>
       <c r="I108" s="111">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="J108" s="112">
@@ -13641,26 +13781,26 @@
       <c r="P108" s="112"/>
       <c r="Q108" s="112"/>
       <c r="S108" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T108" s="125">
-        <f t="shared" ref="T108:T116" si="7">SUMIF($C$5:$C$157,S108,$G$5:$G$157)</f>
+        <f t="shared" ref="T108:T116" si="8">SUMIF($C$5:$C$157,S108,$G$5:$G$157)</f>
         <v>38</v>
       </c>
       <c r="U108" s="125">
-        <f t="shared" ref="U108:U116" ca="1" si="8">SUMIF($C$5:$C$156,S108,$I$5:$I$157)</f>
+        <f t="shared" ref="U108:U116" ca="1" si="9">SUMIF($C$5:$C$156,S108,$I$5:$I$157)</f>
         <v>27</v>
       </c>
       <c r="V108" s="125">
-        <f t="shared" ref="V108:V116" si="9">SUMIF($C$5:$C$157,S108,$H$5:$H$157)</f>
+        <f t="shared" ref="V108:V116" si="10">SUMIF($C$5:$C$157,S108,$H$5:$H$157)</f>
         <v>16</v>
       </c>
       <c r="W108" s="126">
-        <f t="shared" ref="W108:W116" si="10">COUNTA($J$2:$Q$2)*6-COUNTA($J$4:$Q$4)*6</f>
+        <f t="shared" ref="W108:W116" si="11">COUNTA($J$2:$Q$2)*6-COUNTA($J$4:$Q$4)*6</f>
         <v>30</v>
       </c>
       <c r="X108" s="127">
-        <f t="shared" ref="X108:X116" ca="1" si="11">IF(W108&gt;U108,0,U108-W108)</f>
+        <f t="shared" ref="X108:X116" ca="1" si="12">IF(W108&gt;U108,0,U108-W108)</f>
         <v>0</v>
       </c>
     </row>
@@ -13669,13 +13809,13 @@
         <v>105</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D109" s="111" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>作業中</v>
       </c>
       <c r="E109" s="109">
@@ -13689,7 +13829,7 @@
       </c>
       <c r="H109" s="110"/>
       <c r="I109" s="111">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1.5</v>
       </c>
       <c r="J109" s="112">
@@ -13707,26 +13847,26 @@
       <c r="P109" s="112"/>
       <c r="Q109" s="112"/>
       <c r="S109" s="124" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T109" s="125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="U109" s="125">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>27</v>
       </c>
       <c r="V109" s="125">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="W109" s="126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="X109" s="127">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13735,13 +13875,13 @@
         <v>106</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D110" s="111" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>作業中</v>
       </c>
       <c r="E110" s="4">
@@ -13755,7 +13895,7 @@
       </c>
       <c r="H110" s="110"/>
       <c r="I110" s="111">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1.5</v>
       </c>
       <c r="J110" s="112">
@@ -13773,26 +13913,26 @@
       <c r="P110" s="112"/>
       <c r="Q110" s="112"/>
       <c r="S110" s="124" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T110" s="125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="U110" s="125">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>24</v>
       </c>
       <c r="V110" s="125">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="W110" s="126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="X110" s="127">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13801,13 +13941,13 @@
         <v>107</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D111" s="111" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>作業中</v>
       </c>
       <c r="E111" s="109">
@@ -13839,26 +13979,26 @@
       <c r="P111" s="112"/>
       <c r="Q111" s="112"/>
       <c r="S111" s="124" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T111" s="125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="U111" s="125">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>4.5</v>
       </c>
       <c r="V111" s="125">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="W111" s="126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="X111" s="127">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13867,13 +14007,13 @@
         <v>108</v>
       </c>
       <c r="B112" s="129" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D112" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="E112" s="109">
@@ -13885,7 +14025,7 @@
       </c>
       <c r="H112" s="110"/>
       <c r="I112" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J112" s="112"/>
@@ -13898,23 +14038,23 @@
       <c r="Q112" s="112"/>
       <c r="S112" s="124"/>
       <c r="T112" s="125">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U112" s="125">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V112" s="125">
+      <c r="U112" s="125">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="V112" s="125">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="W112" s="126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="X112" s="127">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13925,7 +14065,7 @@
       <c r="B113" s="116"/>
       <c r="C113" s="115"/>
       <c r="D113" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E113" s="109"/>
@@ -13933,7 +14073,7 @@
       <c r="G113" s="110"/>
       <c r="H113" s="110"/>
       <c r="I113" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J113" s="112"/>
@@ -13946,23 +14086,23 @@
       <c r="Q113" s="112"/>
       <c r="S113" s="124"/>
       <c r="T113" s="125">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U113" s="125">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V113" s="125">
+      <c r="U113" s="125">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="V113" s="125">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="W113" s="126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="X113" s="127">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13973,7 +14113,7 @@
       <c r="B114" s="116"/>
       <c r="C114" s="115"/>
       <c r="D114" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E114" s="109"/>
@@ -13981,7 +14121,7 @@
       <c r="G114" s="110"/>
       <c r="H114" s="110"/>
       <c r="I114" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J114" s="112"/>
@@ -13994,23 +14134,23 @@
       <c r="Q114" s="112"/>
       <c r="S114" s="124"/>
       <c r="T114" s="125">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U114" s="125">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V114" s="125">
+      <c r="U114" s="125">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="V114" s="125">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="W114" s="126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="X114" s="127">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14021,7 +14161,7 @@
       <c r="B115" s="116"/>
       <c r="C115" s="115"/>
       <c r="D115" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E115" s="109"/>
@@ -14029,7 +14169,7 @@
       <c r="G115" s="110"/>
       <c r="H115" s="110"/>
       <c r="I115" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J115" s="112"/>
@@ -14042,23 +14182,23 @@
       <c r="Q115" s="112"/>
       <c r="S115" s="124"/>
       <c r="T115" s="125">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U115" s="125">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V115" s="125">
+      <c r="U115" s="125">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="V115" s="125">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="W115" s="126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="X115" s="127">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14069,7 +14209,7 @@
       <c r="B116" s="116"/>
       <c r="C116" s="115"/>
       <c r="D116" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E116" s="109"/>
@@ -14077,7 +14217,7 @@
       <c r="G116" s="110"/>
       <c r="H116" s="110"/>
       <c r="I116" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J116" s="112"/>
@@ -14090,23 +14230,23 @@
       <c r="Q116" s="112"/>
       <c r="S116" s="124"/>
       <c r="T116" s="125">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U116" s="125">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V116" s="125">
+      <c r="U116" s="125">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="V116" s="125">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="W116" s="126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="X116" s="127">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14117,7 +14257,7 @@
       <c r="B117" s="116"/>
       <c r="C117" s="115"/>
       <c r="D117" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E117" s="109"/>
@@ -14125,7 +14265,7 @@
       <c r="G117" s="110"/>
       <c r="H117" s="110"/>
       <c r="I117" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J117" s="112"/>
@@ -14144,7 +14284,7 @@
       <c r="B118" s="116"/>
       <c r="C118" s="115"/>
       <c r="D118" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E118" s="109"/>
@@ -14152,7 +14292,7 @@
       <c r="G118" s="110"/>
       <c r="H118" s="110"/>
       <c r="I118" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J118" s="112"/>
@@ -14171,7 +14311,7 @@
       <c r="B119" s="116"/>
       <c r="C119" s="115"/>
       <c r="D119" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E119" s="109"/>
@@ -14179,7 +14319,7 @@
       <c r="G119" s="110"/>
       <c r="H119" s="110"/>
       <c r="I119" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J119" s="112"/>
@@ -14198,7 +14338,7 @@
       <c r="B120" s="116"/>
       <c r="C120" s="115"/>
       <c r="D120" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E120" s="109"/>
@@ -14206,7 +14346,7 @@
       <c r="G120" s="110"/>
       <c r="H120" s="110"/>
       <c r="I120" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J120" s="112"/>
@@ -14225,7 +14365,7 @@
       <c r="B121" s="116"/>
       <c r="C121" s="115"/>
       <c r="D121" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E121" s="109"/>
@@ -14233,7 +14373,7 @@
       <c r="G121" s="110"/>
       <c r="H121" s="110"/>
       <c r="I121" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J121" s="112"/>
@@ -14252,7 +14392,7 @@
       <c r="B122" s="116"/>
       <c r="C122" s="115"/>
       <c r="D122" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E122" s="109"/>
@@ -14260,7 +14400,7 @@
       <c r="G122" s="110"/>
       <c r="H122" s="110"/>
       <c r="I122" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J122" s="112"/>
@@ -14279,7 +14419,7 @@
       <c r="B123" s="116"/>
       <c r="C123" s="115"/>
       <c r="D123" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E123" s="109"/>
@@ -14287,7 +14427,7 @@
       <c r="G123" s="110"/>
       <c r="H123" s="110"/>
       <c r="I123" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J123" s="112"/>
@@ -14306,7 +14446,7 @@
       <c r="B124" s="116"/>
       <c r="C124" s="115"/>
       <c r="D124" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E124" s="109"/>
@@ -14314,7 +14454,7 @@
       <c r="G124" s="110"/>
       <c r="H124" s="110"/>
       <c r="I124" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J124" s="112"/>
@@ -14333,7 +14473,7 @@
       <c r="B125" s="116"/>
       <c r="C125" s="115"/>
       <c r="D125" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E125" s="109"/>
@@ -14341,7 +14481,7 @@
       <c r="G125" s="110"/>
       <c r="H125" s="110"/>
       <c r="I125" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J125" s="112"/>
@@ -14360,7 +14500,7 @@
       <c r="B126" s="116"/>
       <c r="C126" s="115"/>
       <c r="D126" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E126" s="109"/>
@@ -14368,7 +14508,7 @@
       <c r="G126" s="110"/>
       <c r="H126" s="110"/>
       <c r="I126" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J126" s="112"/>
@@ -14387,7 +14527,7 @@
       <c r="B127" s="116"/>
       <c r="C127" s="115"/>
       <c r="D127" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E127" s="109"/>
@@ -14395,7 +14535,7 @@
       <c r="G127" s="110"/>
       <c r="H127" s="110"/>
       <c r="I127" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J127" s="112"/>
@@ -14414,7 +14554,7 @@
       <c r="B128" s="116"/>
       <c r="C128" s="115"/>
       <c r="D128" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E128" s="109"/>
@@ -14422,7 +14562,7 @@
       <c r="G128" s="110"/>
       <c r="H128" s="110"/>
       <c r="I128" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J128" s="112"/>
@@ -14441,7 +14581,7 @@
       <c r="B129" s="116"/>
       <c r="C129" s="115"/>
       <c r="D129" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E129" s="109"/>
@@ -14449,7 +14589,7 @@
       <c r="G129" s="110"/>
       <c r="H129" s="110"/>
       <c r="I129" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J129" s="112"/>
@@ -14468,7 +14608,7 @@
       <c r="B130" s="116"/>
       <c r="C130" s="115"/>
       <c r="D130" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E130" s="109"/>
@@ -14476,7 +14616,7 @@
       <c r="G130" s="110"/>
       <c r="H130" s="110"/>
       <c r="I130" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J130" s="112"/>
@@ -14495,7 +14635,7 @@
       <c r="B131" s="116"/>
       <c r="C131" s="115"/>
       <c r="D131" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E131" s="109"/>
@@ -14503,7 +14643,7 @@
       <c r="G131" s="110"/>
       <c r="H131" s="110"/>
       <c r="I131" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J131" s="112"/>
@@ -14522,7 +14662,7 @@
       <c r="B132" s="116"/>
       <c r="C132" s="115"/>
       <c r="D132" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E132" s="109"/>
@@ -14530,7 +14670,7 @@
       <c r="G132" s="110"/>
       <c r="H132" s="110"/>
       <c r="I132" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J132" s="112"/>
@@ -14549,7 +14689,7 @@
       <c r="B133" s="116"/>
       <c r="C133" s="115"/>
       <c r="D133" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E133" s="109"/>
@@ -14557,7 +14697,7 @@
       <c r="G133" s="110"/>
       <c r="H133" s="110"/>
       <c r="I133" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J133" s="112"/>
@@ -14576,7 +14716,7 @@
       <c r="B134" s="116"/>
       <c r="C134" s="115"/>
       <c r="D134" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E134" s="109"/>
@@ -14584,7 +14724,7 @@
       <c r="G134" s="110"/>
       <c r="H134" s="110"/>
       <c r="I134" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J134" s="112"/>
@@ -14603,7 +14743,7 @@
       <c r="B135" s="116"/>
       <c r="C135" s="115"/>
       <c r="D135" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E135" s="109"/>
@@ -14611,7 +14751,7 @@
       <c r="G135" s="110"/>
       <c r="H135" s="110"/>
       <c r="I135" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J135" s="112"/>
@@ -14630,7 +14770,7 @@
       <c r="B136" s="116"/>
       <c r="C136" s="115"/>
       <c r="D136" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E136" s="109"/>
@@ -14638,7 +14778,7 @@
       <c r="G136" s="110"/>
       <c r="H136" s="110"/>
       <c r="I136" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J136" s="112"/>
@@ -14657,7 +14797,7 @@
       <c r="B137" s="116"/>
       <c r="C137" s="115"/>
       <c r="D137" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E137" s="109"/>
@@ -14665,7 +14805,7 @@
       <c r="G137" s="110"/>
       <c r="H137" s="110"/>
       <c r="I137" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J137" s="112"/>
@@ -14684,7 +14824,7 @@
       <c r="B138" s="116"/>
       <c r="C138" s="115"/>
       <c r="D138" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E138" s="109"/>
@@ -14692,7 +14832,7 @@
       <c r="G138" s="110"/>
       <c r="H138" s="110"/>
       <c r="I138" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J138" s="112"/>
@@ -14711,7 +14851,7 @@
       <c r="B139" s="116"/>
       <c r="C139" s="115"/>
       <c r="D139" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E139" s="109"/>
@@ -14719,7 +14859,7 @@
       <c r="G139" s="110"/>
       <c r="H139" s="110"/>
       <c r="I139" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J139" s="112"/>
@@ -14738,7 +14878,7 @@
       <c r="B140" s="116"/>
       <c r="C140" s="115"/>
       <c r="D140" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E140" s="109"/>
@@ -14746,7 +14886,7 @@
       <c r="G140" s="110"/>
       <c r="H140" s="110"/>
       <c r="I140" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J140" s="112"/>
@@ -14765,7 +14905,7 @@
       <c r="B141" s="116"/>
       <c r="C141" s="115"/>
       <c r="D141" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E141" s="109"/>
@@ -14773,7 +14913,7 @@
       <c r="G141" s="110"/>
       <c r="H141" s="110"/>
       <c r="I141" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J141" s="112"/>
@@ -14792,7 +14932,7 @@
       <c r="B142" s="116"/>
       <c r="C142" s="115"/>
       <c r="D142" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E142" s="109"/>
@@ -14800,7 +14940,7 @@
       <c r="G142" s="110"/>
       <c r="H142" s="110"/>
       <c r="I142" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J142" s="112"/>
@@ -14819,7 +14959,7 @@
       <c r="B143" s="116"/>
       <c r="C143" s="115"/>
       <c r="D143" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E143" s="109"/>
@@ -14827,7 +14967,7 @@
       <c r="G143" s="110"/>
       <c r="H143" s="110"/>
       <c r="I143" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J143" s="112"/>
@@ -14846,7 +14986,7 @@
       <c r="B144" s="116"/>
       <c r="C144" s="115"/>
       <c r="D144" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E144" s="109"/>
@@ -14854,7 +14994,7 @@
       <c r="G144" s="110"/>
       <c r="H144" s="110"/>
       <c r="I144" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J144" s="112"/>
@@ -14873,7 +15013,7 @@
       <c r="B145" s="116"/>
       <c r="C145" s="115"/>
       <c r="D145" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E145" s="109"/>
@@ -14881,7 +15021,7 @@
       <c r="G145" s="110"/>
       <c r="H145" s="110"/>
       <c r="I145" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J145" s="112"/>
@@ -14900,7 +15040,7 @@
       <c r="B146" s="116"/>
       <c r="C146" s="115"/>
       <c r="D146" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E146" s="109"/>
@@ -14908,7 +15048,7 @@
       <c r="G146" s="110"/>
       <c r="H146" s="110"/>
       <c r="I146" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J146" s="112"/>
@@ -14927,7 +15067,7 @@
       <c r="B147" s="116"/>
       <c r="C147" s="115"/>
       <c r="D147" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E147" s="109"/>
@@ -14935,7 +15075,7 @@
       <c r="G147" s="110"/>
       <c r="H147" s="110"/>
       <c r="I147" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J147" s="112"/>
@@ -14954,7 +15094,7 @@
       <c r="B148" s="116"/>
       <c r="C148" s="115"/>
       <c r="D148" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E148" s="109"/>
@@ -14962,7 +15102,7 @@
       <c r="G148" s="110"/>
       <c r="H148" s="110"/>
       <c r="I148" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J148" s="112"/>
@@ -14981,7 +15121,7 @@
       <c r="B149" s="116"/>
       <c r="C149" s="115"/>
       <c r="D149" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E149" s="109"/>
@@ -14989,7 +15129,7 @@
       <c r="G149" s="110"/>
       <c r="H149" s="110"/>
       <c r="I149" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J149" s="112"/>
@@ -15008,7 +15148,7 @@
       <c r="B150" s="116"/>
       <c r="C150" s="115"/>
       <c r="D150" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E150" s="109"/>
@@ -15016,7 +15156,7 @@
       <c r="G150" s="110"/>
       <c r="H150" s="110"/>
       <c r="I150" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J150" s="112"/>
@@ -15035,7 +15175,7 @@
       <c r="B151" s="116"/>
       <c r="C151" s="115"/>
       <c r="D151" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E151" s="109"/>
@@ -15043,7 +15183,7 @@
       <c r="G151" s="110"/>
       <c r="H151" s="110"/>
       <c r="I151" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J151" s="112"/>
@@ -15062,7 +15202,7 @@
       <c r="B152" s="116"/>
       <c r="C152" s="115"/>
       <c r="D152" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E152" s="109"/>
@@ -15070,7 +15210,7 @@
       <c r="G152" s="110"/>
       <c r="H152" s="110"/>
       <c r="I152" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J152" s="112"/>
@@ -15089,7 +15229,7 @@
       <c r="B153" s="116"/>
       <c r="C153" s="115"/>
       <c r="D153" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E153" s="109"/>
@@ -15097,7 +15237,7 @@
       <c r="G153" s="110"/>
       <c r="H153" s="110"/>
       <c r="I153" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J153" s="112"/>
@@ -15116,7 +15256,7 @@
       <c r="B154" s="116"/>
       <c r="C154" s="115"/>
       <c r="D154" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E154" s="109"/>
@@ -15124,7 +15264,7 @@
       <c r="G154" s="110"/>
       <c r="H154" s="110"/>
       <c r="I154" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J154" s="112"/>
@@ -15143,7 +15283,7 @@
       <c r="B155" s="116"/>
       <c r="C155" s="115"/>
       <c r="D155" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E155" s="109"/>
@@ -15151,7 +15291,7 @@
       <c r="G155" s="110"/>
       <c r="H155" s="110"/>
       <c r="I155" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J155" s="112"/>
@@ -15170,7 +15310,7 @@
       <c r="B156" s="116"/>
       <c r="C156" s="115"/>
       <c r="D156" s="111" t="str">
-        <f t="shared" ref="D156:D157" si="12">IF(ISBLANK($B156),"",IF(ISBLANK($F156),"未着手",IF($I156=0,"完了","作業中")))</f>
+        <f t="shared" ref="D156:D157" si="13">IF(ISBLANK($B156),"",IF(ISBLANK($F156),"未着手",IF($I156=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="E156" s="109"/>
@@ -15178,7 +15318,7 @@
       <c r="G156" s="110"/>
       <c r="H156" s="110"/>
       <c r="I156" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J156" s="112"/>
@@ -15197,7 +15337,7 @@
       <c r="B157" s="116"/>
       <c r="C157" s="115"/>
       <c r="D157" s="111" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E157" s="109"/>
@@ -15205,7 +15345,7 @@
       <c r="G157" s="110"/>
       <c r="H157" s="110"/>
       <c r="I157" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J157" s="112"/>
@@ -15654,16 +15794,13 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="J4" formulaRange="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z188"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -19519,7 +19656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22805,7 +22942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23603,7 +23740,7 @@
       <c r="K51" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:K51"/>
+  <autoFilter ref="B1:K51" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="A2:K51">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
@@ -23617,19 +23754,19 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I51" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>登録者</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B51" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>重要度</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>担当者</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D51" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>状況</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E51" xr:uid="{00000000-0002-0000-0400-000004000000}">
       <formula1>状況２</formula1>
     </dataValidation>
   </dataValidations>

--- a/タスク/07班スプリントバックログ.xlsx
+++ b/タスク/07班スプリントバックログ.xlsx
@@ -9658,7 +9658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>

--- a/タスク/07班スプリントバックログ.xlsx
+++ b/タスク/07班スプリントバックログ.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Team07\タスク\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kousuke Nakagawa\Desktop\team07バックログ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="3045" windowWidth="19230" windowHeight="12120" tabRatio="658" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4815" yWindow="3045" windowWidth="19230" windowHeight="12120" tabRatio="658" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="1" r:id="rId1"/>
@@ -33,18 +33,18 @@
     <definedName name="登録者" localSheetId="4">OFFSET(デバッグシート!$R$2,0,0,COUNTA(デバッグシート!$R$2:$R$10),1)</definedName>
     <definedName name="登録者">OFFSET(#REF!,0,0,COUNTA(#REF!),1)</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ohzu</author>
     <author>Windows ユーザー</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -109,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -158,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="P2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="Q2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -189,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -209,13 +209,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ohzu</author>
     <author>Windows ユーザー</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -232,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -248,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -264,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -296,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -312,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -329,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="R2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -344,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="S2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -359,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -379,13 +379,13 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ohzu</author>
     <author>Windows ユーザー</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -402,7 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -418,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -434,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -450,7 +450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -466,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -482,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -499,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+    <comment ref="O2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -515,7 +515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
+    <comment ref="P2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -530,7 +530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="151">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -995,6 +995,13 @@
   </si>
   <si>
     <t>エフェクトの回収</t>
+    <rPh sb="6" eb="8">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>３Dモデルの回収</t>
     <rPh sb="6" eb="8">
       <t>カイシュウ</t>
     </rPh>
@@ -1736,52 +1743,19 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>３Dモデルの回収(人型)</t>
-    <rPh sb="6" eb="8">
-      <t>カイシュウ</t>
+    <t>特売品にモデルを入れる</t>
+    <rPh sb="0" eb="3">
+      <t>トクバイヒン</t>
     </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒトガタ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>３Dモデルの回収(もの）</t>
-    <rPh sb="6" eb="8">
-      <t>カイシュウ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>デフォルトのカート以外のモデル回収</t>
-    <rPh sb="9" eb="11">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カイシュウ</t>
+    <rPh sb="8" eb="9">
+      <t>イ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ベータに向けてのバックログ作成</t>
-    <rPh sb="4" eb="5">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>アルファチェックからのベータに向けての修正作業</t>
-    <rPh sb="15" eb="16">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>サギョウ</t>
+    <t>エネミーにボーンを入れる</t>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1789,7 +1763,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
@@ -2659,7 +2633,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3074,13 +3048,17 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="標準_2009卒業制作スケジュール表" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="標準_チーム編成" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="標準_バグシート" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準 2" xfId="4"/>
+    <cellStyle name="標準_2009卒業制作スケジュール表" xfId="1"/>
+    <cellStyle name="標準_チーム編成" xfId="2"/>
+    <cellStyle name="標準_バグシート" xfId="3"/>
   </cellStyles>
   <dxfs count="63">
     <dxf>
@@ -3740,13 +3718,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>183</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>152</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110.5</c:v>
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3826,28 +3807,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>183</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>160</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>137</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>114</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>68</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4270,6 +4251,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4304,19 +4286,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4403,6 +4385,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4440,16 +4423,16 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4536,6 +4519,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4547,13 +4531,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>44</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>28</c:v>
@@ -4648,6 +4632,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4665,7 +4650,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -7723,23 +7708,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7775,23 +7743,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7967,7 +7918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E222"/>
   <sheetViews>
     <sheetView topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
@@ -9655,11 +9606,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9767,35 +9718,35 @@
       <c r="I3" s="143"/>
       <c r="J3" s="103">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$Q$2))))</f>
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="K3" s="103">
         <f t="shared" ref="K3:Q3" si="0">INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$Q$2))))</f>
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="L3" s="103">
         <f t="shared" si="0"/>
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="M3" s="103">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="N3" s="103">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="O3" s="103">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="P3" s="103">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="103">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:32" s="100" customFormat="1">
@@ -9809,18 +9760,21 @@
       <c r="H4" s="148"/>
       <c r="I4" s="143"/>
       <c r="J4" s="104">
-        <f>SUM(J5:J157)</f>
-        <v>183</v>
+        <f>SUM(J5:J104)</f>
+        <v>154</v>
       </c>
       <c r="K4" s="104">
-        <f t="shared" ref="K4:L4" si="1">SUM(K5:K157)</f>
-        <v>152</v>
+        <f>SUM(K5:K104)</f>
+        <v>127</v>
       </c>
       <c r="L4" s="104">
-        <f t="shared" si="1"/>
-        <v>110.5</v>
-      </c>
-      <c r="M4" s="104"/>
+        <f>SUM(L5:L104)</f>
+        <v>108</v>
+      </c>
+      <c r="M4" s="104">
+        <f>SUM(M5:M104)</f>
+        <v>91</v>
+      </c>
       <c r="N4" s="104"/>
       <c r="O4" s="104"/>
       <c r="P4" s="104"/>
@@ -9834,14 +9788,14 @@
         <v>76</v>
       </c>
       <c r="C5" s="107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D5" s="108" t="str">
-        <f t="shared" ref="D5:D68" si="2">IF(ISBLANK($B5),"",IF(ISBLANK($F5),"未着手",IF($I5=0,"完了","作業中")))</f>
+        <f t="shared" ref="D5:D68" si="1">IF(ISBLANK($B5),"",IF(ISBLANK($F5),"未着手",IF($I5=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="E5" s="109">
-        <v>43039</v>
+        <v>43042</v>
       </c>
       <c r="F5" s="109"/>
       <c r="G5" s="110">
@@ -9849,7 +9803,7 @@
       </c>
       <c r="H5" s="110"/>
       <c r="I5" s="111">
-        <f t="shared" ref="I5:I56" ca="1" si="3">IF(ISBLANK(J5)=FALSE,OFFSET(I5,0,COUNTA(J5:Q5)),"")</f>
+        <f t="shared" ref="I5:I56" ca="1" si="2">IF(ISBLANK(J5)=FALSE,OFFSET(I5,0,COUNTA(J5:Q5)),"")</f>
         <v>3</v>
       </c>
       <c r="J5" s="112">
@@ -9861,7 +9815,9 @@
       <c r="L5" s="112">
         <v>3</v>
       </c>
-      <c r="M5" s="112"/>
+      <c r="M5" s="112">
+        <v>3</v>
+      </c>
       <c r="N5" s="112"/>
       <c r="O5" s="112"/>
       <c r="P5" s="112"/>
@@ -9875,14 +9831,14 @@
         <v>77</v>
       </c>
       <c r="C6" s="107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D6" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E6" s="109">
-        <v>43039</v>
+        <v>43042</v>
       </c>
       <c r="F6" s="109"/>
       <c r="G6" s="110">
@@ -9890,7 +9846,7 @@
       </c>
       <c r="H6" s="110"/>
       <c r="I6" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="J6" s="112">
@@ -9902,7 +9858,9 @@
       <c r="L6" s="112">
         <v>3</v>
       </c>
-      <c r="M6" s="112"/>
+      <c r="M6" s="112">
+        <v>3</v>
+      </c>
       <c r="N6" s="112"/>
       <c r="O6" s="112"/>
       <c r="P6" s="112"/>
@@ -9916,10 +9874,10 @@
         <v>78</v>
       </c>
       <c r="C7" s="107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D7" s="108" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>完了</v>
       </c>
       <c r="E7" s="109">
@@ -9935,7 +9893,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="J7" s="112">
@@ -9947,7 +9905,9 @@
       <c r="L7" s="112">
         <v>0</v>
       </c>
-      <c r="M7" s="112"/>
+      <c r="M7" s="112">
+        <v>0</v>
+      </c>
       <c r="N7" s="112"/>
       <c r="O7" s="112"/>
       <c r="P7" s="112"/>
@@ -9957,42 +9917,44 @@
       <c r="A8" s="105">
         <v>4</v>
       </c>
-      <c r="B8" s="129" t="s">
-        <v>148</v>
+      <c r="B8" s="106" t="s">
+        <v>79</v>
       </c>
       <c r="C8" s="107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D8" s="108" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>完了</v>
+      </c>
+      <c r="E8" s="109">
+        <v>43035</v>
+      </c>
+      <c r="F8" s="109">
+        <v>43035</v>
+      </c>
+      <c r="G8" s="110">
+        <v>6</v>
+      </c>
+      <c r="H8" s="110">
+        <v>6</v>
+      </c>
+      <c r="I8" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v>完了</v>
-      </c>
-      <c r="E8" s="109">
-        <v>43032</v>
-      </c>
-      <c r="F8" s="109">
-        <v>43032</v>
-      </c>
-      <c r="G8" s="110">
-        <v>3</v>
-      </c>
-      <c r="H8" s="110">
-        <v>3</v>
-      </c>
-      <c r="I8" s="111">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J8" s="112">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K8" s="112">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L8" s="112">
+        <v>6</v>
+      </c>
+      <c r="M8" s="22">
         <v>0</v>
       </c>
-      <c r="M8" s="112"/>
       <c r="N8" s="112"/>
       <c r="O8" s="112"/>
       <c r="P8" s="112"/>
@@ -10003,17 +9965,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="114" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C9" s="107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D9" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E9" s="109">
-        <v>43035</v>
+        <v>43039</v>
       </c>
       <c r="F9" s="109"/>
       <c r="G9" s="110">
@@ -10021,7 +9983,7 @@
       </c>
       <c r="H9" s="110"/>
       <c r="I9" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="J9" s="112">
@@ -10033,7 +9995,9 @@
       <c r="L9" s="112">
         <v>3</v>
       </c>
-      <c r="M9" s="112"/>
+      <c r="M9" s="112">
+        <v>3</v>
+      </c>
       <c r="N9" s="112"/>
       <c r="O9" s="112"/>
       <c r="P9" s="112"/>
@@ -10044,13 +10008,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="106" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C10" s="107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D10" s="108" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>完了</v>
       </c>
       <c r="E10" s="109">
@@ -10066,7 +10030,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="J10" s="112">
@@ -10078,7 +10042,9 @@
       <c r="L10" s="112">
         <v>0</v>
       </c>
-      <c r="M10" s="112"/>
+      <c r="M10" s="112">
+        <v>0</v>
+      </c>
       <c r="N10" s="112"/>
       <c r="O10" s="112"/>
       <c r="P10" s="112"/>
@@ -10089,13 +10055,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="114" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C11" s="107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D11" s="108" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>完了</v>
       </c>
       <c r="E11" s="109">
@@ -10111,7 +10077,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="J11" s="112">
@@ -10123,7 +10089,9 @@
       <c r="L11" s="112">
         <v>0</v>
       </c>
-      <c r="M11" s="112"/>
+      <c r="M11" s="112">
+        <v>0</v>
+      </c>
       <c r="N11" s="112"/>
       <c r="O11" s="112"/>
       <c r="P11" s="112"/>
@@ -10134,13 +10102,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="106" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C12" s="107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D12" s="108" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>完了</v>
       </c>
       <c r="E12" s="109">
@@ -10156,7 +10124,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="J12" s="112">
@@ -10168,7 +10136,9 @@
       <c r="L12" s="112">
         <v>0</v>
       </c>
-      <c r="M12" s="112"/>
+      <c r="M12" s="112">
+        <v>0</v>
+      </c>
       <c r="N12" s="112"/>
       <c r="O12" s="112"/>
       <c r="P12" s="112"/>
@@ -10179,13 +10149,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="106" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C13" s="107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D13" s="108" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>完了</v>
       </c>
       <c r="E13" s="109">
@@ -10201,7 +10171,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="J13" s="112">
@@ -10213,7 +10183,9 @@
       <c r="L13" s="112">
         <v>0</v>
       </c>
-      <c r="M13" s="112"/>
+      <c r="M13" s="112">
+        <v>0</v>
+      </c>
       <c r="N13" s="112"/>
       <c r="O13" s="112"/>
       <c r="P13" s="112"/>
@@ -10227,17 +10199,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="106" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C14" s="107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D14" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E14" s="109">
-        <v>43035</v>
+        <v>43039</v>
       </c>
       <c r="F14" s="109"/>
       <c r="G14" s="110">
@@ -10245,7 +10217,7 @@
       </c>
       <c r="H14" s="110"/>
       <c r="I14" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="J14" s="112">
@@ -10257,7 +10229,9 @@
       <c r="L14" s="112">
         <v>3</v>
       </c>
-      <c r="M14" s="112"/>
+      <c r="M14" s="112">
+        <v>3</v>
+      </c>
       <c r="N14" s="112"/>
       <c r="O14" s="112"/>
       <c r="P14" s="112"/>
@@ -10268,13 +10242,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="129" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C15" s="107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D15" s="108" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>完了</v>
       </c>
       <c r="E15" s="109">
@@ -10284,13 +10258,13 @@
         <v>43028</v>
       </c>
       <c r="G15" s="110">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15" s="110">
         <v>3</v>
       </c>
       <c r="I15" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="J15" s="112">
@@ -10302,7 +10276,9 @@
       <c r="L15" s="112">
         <v>0</v>
       </c>
-      <c r="M15" s="112"/>
+      <c r="M15" s="112">
+        <v>0</v>
+      </c>
       <c r="N15" s="112"/>
       <c r="O15" s="112"/>
       <c r="P15" s="112"/>
@@ -10313,13 +10289,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="129" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C16" s="107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D16" s="108" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>完了</v>
       </c>
       <c r="E16" s="109">
@@ -10332,10 +10308,10 @@
         <v>3</v>
       </c>
       <c r="H16" s="110">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="J16" s="112">
@@ -10347,7 +10323,9 @@
       <c r="L16" s="112">
         <v>0</v>
       </c>
-      <c r="M16" s="112"/>
+      <c r="M16" s="112">
+        <v>0</v>
+      </c>
       <c r="N16" s="112"/>
       <c r="O16" s="112"/>
       <c r="P16" s="112"/>
@@ -10358,13 +10336,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="129" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C17" s="107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D17" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E17" s="109">
@@ -10372,22 +10350,25 @@
       </c>
       <c r="F17" s="109"/>
       <c r="G17" s="110">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H17" s="110"/>
       <c r="I17" s="111">
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
       </c>
       <c r="J17" s="112">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K17" s="112">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L17" s="112">
-        <v>3</v>
-      </c>
-      <c r="M17" s="112"/>
+        <v>6</v>
+      </c>
+      <c r="M17" s="112">
+        <v>6</v>
+      </c>
       <c r="N17" s="112"/>
       <c r="O17" s="112"/>
       <c r="P17" s="112"/>
@@ -10397,37 +10378,25 @@
       <c r="A18" s="105">
         <v>14</v>
       </c>
-      <c r="B18" s="129" t="s">
-        <v>149</v>
-      </c>
+      <c r="B18" s="106"/>
       <c r="C18" s="107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D18" s="108" t="str">
-        <f t="shared" si="2"/>
-        <v>未着手</v>
-      </c>
-      <c r="E18" s="109">
-        <v>43035</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E18" s="109"/>
       <c r="F18" s="109"/>
-      <c r="G18" s="110">
-        <v>3</v>
-      </c>
+      <c r="G18" s="110"/>
       <c r="H18" s="110"/>
-      <c r="I18" s="111">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="J18" s="112">
-        <v>3</v>
-      </c>
-      <c r="K18" s="112">
-        <v>3</v>
-      </c>
-      <c r="L18" s="112">
-        <v>3</v>
-      </c>
+      <c r="I18" s="111" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J18" s="112"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="112"/>
       <c r="M18" s="112"/>
       <c r="N18" s="112"/>
       <c r="O18" s="112"/>
@@ -10438,37 +10407,25 @@
       <c r="A19" s="105">
         <v>15</v>
       </c>
-      <c r="B19" s="129" t="s">
-        <v>150</v>
-      </c>
+      <c r="B19" s="106"/>
       <c r="C19" s="107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D19" s="108" t="str">
-        <f t="shared" si="2"/>
-        <v>未着手</v>
-      </c>
-      <c r="E19" s="109">
-        <v>43042</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E19" s="109"/>
       <c r="F19" s="109"/>
-      <c r="G19" s="110">
-        <v>3</v>
-      </c>
+      <c r="G19" s="110"/>
       <c r="H19" s="110"/>
-      <c r="I19" s="111">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="J19" s="112">
-        <v>4</v>
-      </c>
-      <c r="K19" s="112">
-        <v>4</v>
-      </c>
-      <c r="L19" s="112">
-        <v>4</v>
-      </c>
+      <c r="I19" s="111" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J19" s="112"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
       <c r="M19" s="112"/>
       <c r="N19" s="112"/>
       <c r="O19" s="112"/>
@@ -10479,37 +10436,25 @@
       <c r="A20" s="105">
         <v>16</v>
       </c>
-      <c r="B20" s="129" t="s">
-        <v>151</v>
-      </c>
+      <c r="B20" s="106"/>
       <c r="C20" s="107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D20" s="108" t="str">
-        <f t="shared" si="2"/>
-        <v>未着手</v>
-      </c>
-      <c r="E20" s="109">
-        <v>43046</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E20" s="109"/>
       <c r="F20" s="109"/>
-      <c r="G20" s="110">
-        <v>3</v>
-      </c>
+      <c r="G20" s="110"/>
       <c r="H20" s="110"/>
-      <c r="I20" s="111">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="J20" s="112">
-        <v>3</v>
-      </c>
-      <c r="K20" s="112">
-        <v>3</v>
-      </c>
-      <c r="L20" s="112">
-        <v>3</v>
-      </c>
+      <c r="I20" s="111" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J20" s="112"/>
+      <c r="K20" s="112"/>
+      <c r="L20" s="112"/>
       <c r="M20" s="112"/>
       <c r="N20" s="112"/>
       <c r="O20" s="112"/>
@@ -10520,37 +10465,25 @@
       <c r="A21" s="105">
         <v>17</v>
       </c>
-      <c r="B21" s="129" t="s">
-        <v>152</v>
-      </c>
+      <c r="B21" s="106"/>
       <c r="C21" s="107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D21" s="108" t="str">
-        <f t="shared" si="2"/>
-        <v>未着手</v>
-      </c>
-      <c r="E21" s="109">
-        <v>43049</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E21" s="109"/>
       <c r="F21" s="109"/>
-      <c r="G21" s="110">
-        <v>3</v>
-      </c>
+      <c r="G21" s="110"/>
       <c r="H21" s="110"/>
-      <c r="I21" s="111">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="J21" s="112">
-        <v>3</v>
-      </c>
-      <c r="K21" s="112">
-        <v>3</v>
-      </c>
-      <c r="L21" s="112">
-        <v>3</v>
-      </c>
+      <c r="I21" s="111" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J21" s="112"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="112"/>
       <c r="M21" s="112"/>
       <c r="N21" s="112"/>
       <c r="O21" s="112"/>
@@ -10563,10 +10496,10 @@
       </c>
       <c r="B22" s="106"/>
       <c r="C22" s="107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D22" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E22" s="109"/>
@@ -10574,7 +10507,7 @@
       <c r="G22" s="110"/>
       <c r="H22" s="110"/>
       <c r="I22" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J22" s="112"/>
@@ -10592,10 +10525,10 @@
       </c>
       <c r="B23" s="106"/>
       <c r="C23" s="107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D23" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E23" s="109"/>
@@ -10603,7 +10536,7 @@
       <c r="G23" s="110"/>
       <c r="H23" s="110"/>
       <c r="I23" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J23" s="112"/>
@@ -10621,10 +10554,10 @@
       </c>
       <c r="B24" s="106"/>
       <c r="C24" s="107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D24" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E24" s="109"/>
@@ -10632,7 +10565,7 @@
       <c r="G24" s="110"/>
       <c r="H24" s="110"/>
       <c r="I24" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J24" s="112"/>
@@ -10649,13 +10582,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="106" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C25" s="107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D25" s="108" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>作業中</v>
       </c>
       <c r="E25" s="109">
@@ -10671,8 +10604,8 @@
         <v>1</v>
       </c>
       <c r="I25" s="111">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="J25" s="112">
         <v>3</v>
@@ -10683,7 +10616,9 @@
       <c r="L25" s="112">
         <v>2</v>
       </c>
-      <c r="M25" s="112"/>
+      <c r="M25" s="112">
+        <v>1</v>
+      </c>
       <c r="N25" s="112"/>
       <c r="O25" s="112"/>
       <c r="P25" s="112"/>
@@ -10694,13 +10629,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="106" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" s="107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D26" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E26" s="109">
@@ -10712,7 +10647,7 @@
       </c>
       <c r="H26" s="110"/>
       <c r="I26" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="J26" s="112">
@@ -10724,7 +10659,9 @@
       <c r="L26" s="112">
         <v>3</v>
       </c>
-      <c r="M26" s="112"/>
+      <c r="M26" s="112">
+        <v>3</v>
+      </c>
       <c r="N26" s="112"/>
       <c r="O26" s="112"/>
       <c r="P26" s="112"/>
@@ -10735,13 +10672,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="107" t="s">
-        <v>109</v>
+        <v>82</v>
+      </c>
+      <c r="C27" s="158" t="s">
+        <v>111</v>
       </c>
       <c r="D27" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E27" s="109">
@@ -10753,7 +10690,7 @@
       </c>
       <c r="H27" s="110"/>
       <c r="I27" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="J27" s="112">
@@ -10765,7 +10702,9 @@
       <c r="L27" s="112">
         <v>2</v>
       </c>
-      <c r="M27" s="112"/>
+      <c r="M27" s="112">
+        <v>2</v>
+      </c>
       <c r="N27" s="112"/>
       <c r="O27" s="112"/>
       <c r="P27" s="112"/>
@@ -10776,25 +10715,27 @@
         <v>24</v>
       </c>
       <c r="B28" s="106" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C28" s="107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D28" s="108" t="str">
-        <f t="shared" si="2"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
       </c>
       <c r="E28" s="109">
         <v>43035</v>
       </c>
-      <c r="F28" s="109"/>
+      <c r="F28" s="109">
+        <v>43035</v>
+      </c>
       <c r="G28" s="110">
         <v>1</v>
       </c>
       <c r="H28" s="110"/>
       <c r="I28" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="J28" s="112">
@@ -10806,7 +10747,9 @@
       <c r="L28" s="112">
         <v>1</v>
       </c>
-      <c r="M28" s="112"/>
+      <c r="M28" s="112">
+        <v>1</v>
+      </c>
       <c r="N28" s="112"/>
       <c r="O28" s="112"/>
       <c r="P28" s="112"/>
@@ -10817,25 +10760,27 @@
         <v>25</v>
       </c>
       <c r="B29" s="106" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C29" s="107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D29" s="108" t="str">
-        <f t="shared" si="2"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
       </c>
       <c r="E29" s="109">
         <v>43035</v>
       </c>
-      <c r="F29" s="109"/>
+      <c r="F29" s="109">
+        <v>43035</v>
+      </c>
       <c r="G29" s="110">
         <v>1</v>
       </c>
       <c r="H29" s="110"/>
       <c r="I29" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="J29" s="112">
@@ -10847,7 +10792,9 @@
       <c r="L29" s="112">
         <v>1</v>
       </c>
-      <c r="M29" s="112"/>
+      <c r="M29" s="112">
+        <v>1</v>
+      </c>
       <c r="N29" s="112"/>
       <c r="O29" s="112"/>
       <c r="P29" s="112"/>
@@ -10858,25 +10805,27 @@
         <v>26</v>
       </c>
       <c r="B30" s="106" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C30" s="107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D30" s="108" t="str">
-        <f t="shared" si="2"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
       </c>
       <c r="E30" s="109">
         <v>43035</v>
       </c>
-      <c r="F30" s="109"/>
+      <c r="F30" s="109">
+        <v>43035</v>
+      </c>
       <c r="G30" s="110">
         <v>1</v>
       </c>
       <c r="H30" s="110"/>
       <c r="I30" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="J30" s="112">
@@ -10888,7 +10837,9 @@
       <c r="L30" s="112">
         <v>1</v>
       </c>
-      <c r="M30" s="112"/>
+      <c r="M30" s="112">
+        <v>1</v>
+      </c>
       <c r="N30" s="112"/>
       <c r="O30" s="112"/>
       <c r="P30" s="112"/>
@@ -10899,25 +10850,27 @@
         <v>27</v>
       </c>
       <c r="B31" s="106" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C31" s="107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D31" s="108" t="str">
-        <f t="shared" si="2"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
       </c>
       <c r="E31" s="109">
         <v>43035</v>
       </c>
-      <c r="F31" s="109"/>
+      <c r="F31" s="109">
+        <v>43035</v>
+      </c>
       <c r="G31" s="110">
         <v>1</v>
       </c>
       <c r="H31" s="110"/>
       <c r="I31" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="J31" s="112">
@@ -10929,7 +10882,9 @@
       <c r="L31" s="112">
         <v>1</v>
       </c>
-      <c r="M31" s="112"/>
+      <c r="M31" s="112">
+        <v>1</v>
+      </c>
       <c r="N31" s="112"/>
       <c r="O31" s="112"/>
       <c r="P31" s="112"/>
@@ -10940,13 +10895,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="106" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C32" s="107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D32" s="108" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>完了</v>
       </c>
       <c r="E32" s="109">
@@ -10962,7 +10917,7 @@
         <v>6</v>
       </c>
       <c r="I32" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="J32" s="112">
@@ -10981,14 +10936,14 @@
         <v>29</v>
       </c>
       <c r="B33" s="106" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C33" s="107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D33" s="108" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>完了</v>
       </c>
       <c r="E33" s="109">
         <v>43035</v>
@@ -11000,11 +10955,11 @@
         <v>2</v>
       </c>
       <c r="H33" s="110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33" s="111">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="J33" s="112">
         <v>2</v>
@@ -11015,7 +10970,9 @@
       <c r="L33" s="112">
         <v>1</v>
       </c>
-      <c r="M33" s="112"/>
+      <c r="M33" s="112">
+        <v>0</v>
+      </c>
       <c r="N33" s="112"/>
       <c r="O33" s="112"/>
       <c r="P33" s="112"/>
@@ -11026,14 +10983,14 @@
         <v>30</v>
       </c>
       <c r="B34" s="106" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C34" s="107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="108" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>完了</v>
       </c>
       <c r="E34" s="109">
         <v>43035</v>
@@ -11044,10 +11001,12 @@
       <c r="G34" s="110">
         <v>2</v>
       </c>
-      <c r="H34" s="110"/>
+      <c r="H34" s="110">
+        <v>6</v>
+      </c>
       <c r="I34" s="111">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="J34" s="112">
         <v>2</v>
@@ -11058,7 +11017,9 @@
       <c r="L34" s="112">
         <v>2</v>
       </c>
-      <c r="M34" s="112"/>
+      <c r="M34" s="112">
+        <v>0</v>
+      </c>
       <c r="N34" s="112"/>
       <c r="O34" s="112"/>
       <c r="P34" s="112"/>
@@ -11069,13 +11030,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="106" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C35" s="107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="108" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>完了</v>
       </c>
       <c r="E35" s="109">
@@ -11091,7 +11052,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="J35" s="112">
@@ -11100,9 +11061,7 @@
       <c r="K35" s="112">
         <v>0</v>
       </c>
-      <c r="L35" s="112">
-        <v>0</v>
-      </c>
+      <c r="L35" s="112"/>
       <c r="M35" s="112"/>
       <c r="N35" s="112"/>
       <c r="O35" s="112"/>
@@ -11114,13 +11073,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="106" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C36" s="107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="108" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>完了</v>
       </c>
       <c r="E36" s="109">
@@ -11136,7 +11095,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="J36" s="112">
@@ -11145,9 +11104,7 @@
       <c r="K36" s="112">
         <v>0</v>
       </c>
-      <c r="L36" s="112">
-        <v>0</v>
-      </c>
+      <c r="L36" s="112"/>
       <c r="M36" s="112"/>
       <c r="N36" s="112"/>
       <c r="O36" s="112"/>
@@ -11159,13 +11116,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="106" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C37" s="107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="108" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>完了</v>
       </c>
       <c r="E37" s="109">
@@ -11181,7 +11138,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="J37" s="112">
@@ -11190,9 +11147,7 @@
       <c r="K37" s="112">
         <v>0</v>
       </c>
-      <c r="L37" s="112">
-        <v>0</v>
-      </c>
+      <c r="L37" s="112"/>
       <c r="M37" s="112"/>
       <c r="N37" s="112"/>
       <c r="O37" s="112"/>
@@ -11204,13 +11159,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="106" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C38" s="107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D38" s="108" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>完了</v>
       </c>
       <c r="E38" s="109">
@@ -11226,7 +11181,7 @@
         <v>3</v>
       </c>
       <c r="I38" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="J38" s="112">
@@ -11249,13 +11204,13 @@
         <v>35</v>
       </c>
       <c r="B39" s="129" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C39" s="107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D39" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E39" s="109">
@@ -11267,7 +11222,7 @@
       </c>
       <c r="H39" s="110"/>
       <c r="I39" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>6</v>
       </c>
       <c r="J39" s="112">
@@ -11279,7 +11234,9 @@
       <c r="L39" s="112">
         <v>6</v>
       </c>
-      <c r="M39" s="112"/>
+      <c r="M39" s="112">
+        <v>6</v>
+      </c>
       <c r="N39" s="112"/>
       <c r="O39" s="112"/>
       <c r="P39" s="112"/>
@@ -11290,14 +11247,14 @@
         <v>36</v>
       </c>
       <c r="B40" s="129" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C40" s="107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D40" s="108" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>完了</v>
       </c>
       <c r="E40" s="109">
         <v>43032</v>
@@ -11310,8 +11267,8 @@
         <v>2</v>
       </c>
       <c r="I40" s="111">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="J40" s="112">
         <v>3</v>
@@ -11322,7 +11279,9 @@
       <c r="L40" s="112">
         <v>1</v>
       </c>
-      <c r="M40" s="112"/>
+      <c r="M40" s="112">
+        <v>0</v>
+      </c>
       <c r="N40" s="112"/>
       <c r="O40" s="112"/>
       <c r="P40" s="112"/>
@@ -11333,13 +11292,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="129" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C41" s="107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D41" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E41" s="109">
@@ -11351,7 +11310,7 @@
       </c>
       <c r="H41" s="110"/>
       <c r="I41" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="J41" s="112">
@@ -11363,7 +11322,9 @@
       <c r="L41" s="112">
         <v>3</v>
       </c>
-      <c r="M41" s="112"/>
+      <c r="M41" s="112">
+        <v>3</v>
+      </c>
       <c r="N41" s="112"/>
       <c r="O41" s="112"/>
       <c r="P41" s="112"/>
@@ -11374,13 +11335,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="129" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C42" s="107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D42" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E42" s="109">
@@ -11392,7 +11353,7 @@
       </c>
       <c r="H42" s="110"/>
       <c r="I42" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="J42" s="112">
@@ -11404,7 +11365,9 @@
       <c r="L42" s="112">
         <v>3</v>
       </c>
-      <c r="M42" s="112"/>
+      <c r="M42" s="112">
+        <v>3</v>
+      </c>
       <c r="N42" s="112"/>
       <c r="O42" s="112"/>
       <c r="P42" s="112"/>
@@ -11414,26 +11377,44 @@
       <c r="A43" s="105">
         <v>39</v>
       </c>
-      <c r="B43" s="106"/>
+      <c r="B43" s="129" t="s">
+        <v>149</v>
+      </c>
       <c r="C43" s="107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D43" s="108" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E43" s="109"/>
-      <c r="F43" s="109"/>
-      <c r="G43" s="110"/>
-      <c r="H43" s="110"/>
-      <c r="I43" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J43" s="112"/>
-      <c r="K43" s="112"/>
-      <c r="L43" s="112"/>
-      <c r="M43" s="112"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>完了</v>
+      </c>
+      <c r="E43" s="109">
+        <v>43035</v>
+      </c>
+      <c r="F43" s="109">
+        <v>43035</v>
+      </c>
+      <c r="G43" s="110">
+        <v>1</v>
+      </c>
+      <c r="H43" s="110">
+        <v>1</v>
+      </c>
+      <c r="I43" s="111">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="112">
+        <v>1</v>
+      </c>
+      <c r="K43" s="112">
+        <v>1</v>
+      </c>
+      <c r="L43" s="112">
+        <v>1</v>
+      </c>
+      <c r="M43" s="112">
+        <v>0</v>
+      </c>
       <c r="N43" s="112"/>
       <c r="O43" s="112"/>
       <c r="P43" s="112"/>
@@ -11443,26 +11424,40 @@
       <c r="A44" s="105">
         <v>40</v>
       </c>
-      <c r="B44" s="106"/>
+      <c r="B44" s="129" t="s">
+        <v>150</v>
+      </c>
       <c r="C44" s="107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D44" s="108" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E44" s="109"/>
+        <f t="shared" si="1"/>
+        <v>未着手</v>
+      </c>
+      <c r="E44" s="109">
+        <v>43039</v>
+      </c>
       <c r="F44" s="109"/>
-      <c r="G44" s="110"/>
+      <c r="G44" s="110">
+        <v>4</v>
+      </c>
       <c r="H44" s="110"/>
-      <c r="I44" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J44" s="112"/>
-      <c r="K44" s="112"/>
-      <c r="L44" s="112"/>
-      <c r="M44" s="112"/>
+      <c r="I44" s="111">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J44" s="112">
+        <v>4</v>
+      </c>
+      <c r="K44" s="112">
+        <v>4</v>
+      </c>
+      <c r="L44" s="112">
+        <v>4</v>
+      </c>
+      <c r="M44" s="112">
+        <v>4</v>
+      </c>
       <c r="N44" s="112"/>
       <c r="O44" s="112"/>
       <c r="P44" s="112"/>
@@ -11474,10 +11469,10 @@
       </c>
       <c r="B45" s="106"/>
       <c r="C45" s="107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D45" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E45" s="109"/>
@@ -11485,7 +11480,7 @@
       <c r="G45" s="110"/>
       <c r="H45" s="110"/>
       <c r="I45" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J45" s="112"/>
@@ -11503,10 +11498,10 @@
       </c>
       <c r="B46" s="106"/>
       <c r="C46" s="107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D46" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E46" s="109"/>
@@ -11514,7 +11509,7 @@
       <c r="G46" s="110"/>
       <c r="H46" s="110"/>
       <c r="I46" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J46" s="112"/>
@@ -11532,10 +11527,10 @@
       </c>
       <c r="B47" s="106"/>
       <c r="C47" s="107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D47" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E47" s="109"/>
@@ -11543,7 +11538,7 @@
       <c r="G47" s="110"/>
       <c r="H47" s="110"/>
       <c r="I47" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J47" s="112"/>
@@ -11561,10 +11556,10 @@
       </c>
       <c r="B48" s="106"/>
       <c r="C48" s="107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D48" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E48" s="109"/>
@@ -11572,7 +11567,7 @@
       <c r="G48" s="110"/>
       <c r="H48" s="110"/>
       <c r="I48" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J48" s="112"/>
@@ -11590,10 +11585,10 @@
       </c>
       <c r="B49" s="106"/>
       <c r="C49" s="107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D49" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E49" s="109"/>
@@ -11601,7 +11596,7 @@
       <c r="G49" s="110"/>
       <c r="H49" s="110"/>
       <c r="I49" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J49" s="112"/>
@@ -11619,10 +11614,10 @@
       </c>
       <c r="B50" s="106"/>
       <c r="C50" s="107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D50" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E50" s="109"/>
@@ -11630,7 +11625,7 @@
       <c r="G50" s="110"/>
       <c r="H50" s="110"/>
       <c r="I50" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J50" s="112"/>
@@ -11647,13 +11642,13 @@
         <v>47</v>
       </c>
       <c r="B51" s="106" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C51" s="107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D51" s="108" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>完了</v>
       </c>
       <c r="E51" s="109">
@@ -11669,7 +11664,7 @@
         <v>3</v>
       </c>
       <c r="I51" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="J51" s="112">
@@ -11681,7 +11676,9 @@
       <c r="L51" s="112">
         <v>0</v>
       </c>
-      <c r="M51" s="112"/>
+      <c r="M51" s="112">
+        <v>0</v>
+      </c>
       <c r="N51" s="112"/>
       <c r="O51" s="112"/>
       <c r="P51" s="112"/>
@@ -11692,13 +11689,13 @@
         <v>48</v>
       </c>
       <c r="B52" s="106" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C52" s="107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D52" s="108" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>完了</v>
       </c>
       <c r="E52" s="109">
@@ -11714,7 +11711,7 @@
         <v>2</v>
       </c>
       <c r="I52" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="J52" s="112">
@@ -11726,7 +11723,9 @@
       <c r="L52" s="112">
         <v>0</v>
       </c>
-      <c r="M52" s="112"/>
+      <c r="M52" s="112">
+        <v>0</v>
+      </c>
       <c r="N52" s="112"/>
       <c r="O52" s="112"/>
       <c r="P52" s="112"/>
@@ -11737,13 +11736,13 @@
         <v>49</v>
       </c>
       <c r="B53" s="106" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C53" s="107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D53" s="108" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>作業中</v>
       </c>
       <c r="E53" s="109">
@@ -11759,8 +11758,8 @@
         <v>2</v>
       </c>
       <c r="I53" s="111">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="J53" s="112">
         <v>4</v>
@@ -11771,7 +11770,9 @@
       <c r="L53" s="112">
         <v>2</v>
       </c>
-      <c r="M53" s="112"/>
+      <c r="M53" s="112">
+        <v>1</v>
+      </c>
       <c r="N53" s="112"/>
       <c r="O53" s="112"/>
       <c r="P53" s="112"/>
@@ -11782,25 +11783,29 @@
         <v>50</v>
       </c>
       <c r="B54" s="106" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C54" s="107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D54" s="108" t="str">
-        <f t="shared" si="2"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
       </c>
       <c r="E54" s="109">
         <v>43032</v>
       </c>
-      <c r="F54" s="109"/>
+      <c r="F54" s="109">
+        <v>43035</v>
+      </c>
       <c r="G54" s="110">
         <v>3</v>
       </c>
-      <c r="H54" s="110"/>
+      <c r="H54" s="110">
+        <v>1</v>
+      </c>
       <c r="I54" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="J54" s="112">
@@ -11812,7 +11817,9 @@
       <c r="L54" s="112">
         <v>1</v>
       </c>
-      <c r="M54" s="112"/>
+      <c r="M54" s="112">
+        <v>1</v>
+      </c>
       <c r="N54" s="112"/>
       <c r="O54" s="112"/>
       <c r="P54" s="112"/>
@@ -11823,37 +11830,43 @@
         <v>51</v>
       </c>
       <c r="B55" s="106" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C55" s="107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D55" s="108" t="str">
-        <f t="shared" si="2"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
       </c>
       <c r="E55" s="109">
         <v>43032</v>
       </c>
-      <c r="F55" s="109"/>
+      <c r="F55" s="109">
+        <v>43035</v>
+      </c>
       <c r="G55" s="110">
         <v>3</v>
       </c>
-      <c r="H55" s="110"/>
+      <c r="H55" s="110">
+        <v>1</v>
+      </c>
       <c r="I55" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="J55" s="112">
+        <v>2</v>
+      </c>
+      <c r="K55" s="112">
+        <v>2</v>
+      </c>
+      <c r="L55" s="112">
+        <v>2</v>
+      </c>
+      <c r="M55" s="112">
         <v>1</v>
       </c>
-      <c r="K55" s="112">
-        <v>1</v>
-      </c>
-      <c r="L55" s="112">
-        <v>1</v>
-      </c>
-      <c r="M55" s="112"/>
       <c r="N55" s="112"/>
       <c r="O55" s="112"/>
       <c r="P55" s="112"/>
@@ -11864,13 +11877,13 @@
         <v>52</v>
       </c>
       <c r="B56" s="106" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C56" s="107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D56" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E56" s="109">
@@ -11882,7 +11895,7 @@
       </c>
       <c r="H56" s="110"/>
       <c r="I56" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
       <c r="J56" s="112">
@@ -11894,7 +11907,9 @@
       <c r="L56" s="112">
         <v>4</v>
       </c>
-      <c r="M56" s="112"/>
+      <c r="M56" s="112">
+        <v>4</v>
+      </c>
       <c r="N56" s="112"/>
       <c r="O56" s="112"/>
       <c r="P56" s="112"/>
@@ -11905,13 +11920,13 @@
         <v>53</v>
       </c>
       <c r="B57" s="106" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C57" s="107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D57" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E57" s="109">
@@ -11923,7 +11938,7 @@
       </c>
       <c r="H57" s="110"/>
       <c r="I57" s="111">
-        <f t="shared" ref="I57:I104" ca="1" si="4">IF(ISBLANK(J57)=FALSE,OFFSET(I57,0,COUNTA(J57:Q57)),"")</f>
+        <f t="shared" ref="I57:I104" ca="1" si="3">IF(ISBLANK(J57)=FALSE,OFFSET(I57,0,COUNTA(J57:Q57)),"")</f>
         <v>6</v>
       </c>
       <c r="J57" s="112">
@@ -11935,7 +11950,9 @@
       <c r="L57" s="112">
         <v>6</v>
       </c>
-      <c r="M57" s="112"/>
+      <c r="M57" s="112">
+        <v>6</v>
+      </c>
       <c r="N57" s="112"/>
       <c r="O57" s="112"/>
       <c r="P57" s="112"/>
@@ -11946,13 +11963,13 @@
         <v>54</v>
       </c>
       <c r="B58" s="106" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C58" s="107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D58" s="108" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>完了</v>
       </c>
       <c r="E58" s="109">
@@ -11968,7 +11985,7 @@
         <v>2</v>
       </c>
       <c r="I58" s="111">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J58" s="112">
@@ -11980,7 +11997,9 @@
       <c r="L58" s="112">
         <v>0</v>
       </c>
-      <c r="M58" s="112"/>
+      <c r="M58" s="112">
+        <v>0</v>
+      </c>
       <c r="N58" s="112"/>
       <c r="O58" s="112"/>
       <c r="P58" s="112"/>
@@ -11991,13 +12010,13 @@
         <v>55</v>
       </c>
       <c r="B59" s="129" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C59" s="107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D59" s="108" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>完了</v>
       </c>
       <c r="E59" s="109">
@@ -12013,7 +12032,7 @@
         <v>3</v>
       </c>
       <c r="I59" s="111">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J59" s="112">
@@ -12025,7 +12044,9 @@
       <c r="L59" s="112">
         <v>0</v>
       </c>
-      <c r="M59" s="112"/>
+      <c r="M59" s="112">
+        <v>0</v>
+      </c>
       <c r="N59" s="112"/>
       <c r="O59" s="112"/>
       <c r="P59" s="112"/>
@@ -12036,13 +12057,13 @@
         <v>56</v>
       </c>
       <c r="B60" s="129" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C60" s="107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D60" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E60" s="4">
@@ -12054,7 +12075,7 @@
       </c>
       <c r="H60" s="110"/>
       <c r="I60" s="111">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="J60" s="110">
@@ -12066,7 +12087,9 @@
       <c r="L60" s="110">
         <v>1</v>
       </c>
-      <c r="M60" s="112"/>
+      <c r="M60" s="110">
+        <v>1</v>
+      </c>
       <c r="N60" s="112"/>
       <c r="O60" s="112"/>
       <c r="P60" s="112"/>
@@ -12077,13 +12100,13 @@
         <v>57</v>
       </c>
       <c r="B61" s="129" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C61" s="107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D61" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E61" s="109">
@@ -12095,7 +12118,7 @@
       </c>
       <c r="H61" s="110"/>
       <c r="I61" s="111">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="J61" s="110">
@@ -12107,7 +12130,9 @@
       <c r="L61" s="110">
         <v>2</v>
       </c>
-      <c r="M61" s="112"/>
+      <c r="M61" s="110">
+        <v>2</v>
+      </c>
       <c r="N61" s="112"/>
       <c r="O61" s="112"/>
       <c r="P61" s="112"/>
@@ -12118,13 +12143,13 @@
         <v>58</v>
       </c>
       <c r="B62" s="129" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C62" s="107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D62" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E62" s="109">
@@ -12136,7 +12161,7 @@
       </c>
       <c r="H62" s="110"/>
       <c r="I62" s="111">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="J62" s="110">
@@ -12148,7 +12173,9 @@
       <c r="L62" s="110">
         <v>3</v>
       </c>
-      <c r="M62" s="112"/>
+      <c r="M62" s="110">
+        <v>3</v>
+      </c>
       <c r="N62" s="112"/>
       <c r="O62" s="112"/>
       <c r="P62" s="112"/>
@@ -12159,13 +12186,13 @@
         <v>59</v>
       </c>
       <c r="B63" s="129" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C63" s="107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D63" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E63" s="109">
@@ -12177,7 +12204,7 @@
       </c>
       <c r="H63" s="110"/>
       <c r="I63" s="111">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="J63" s="110">
@@ -12189,7 +12216,9 @@
       <c r="L63" s="110">
         <v>1</v>
       </c>
-      <c r="M63" s="112"/>
+      <c r="M63" s="110">
+        <v>1</v>
+      </c>
       <c r="N63" s="112"/>
       <c r="O63" s="112"/>
       <c r="P63" s="112"/>
@@ -12200,13 +12229,13 @@
         <v>60</v>
       </c>
       <c r="B64" s="129" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C64" s="107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D64" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E64" s="109">
@@ -12218,7 +12247,7 @@
       </c>
       <c r="H64" s="110"/>
       <c r="I64" s="111">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
       <c r="J64" s="112">
@@ -12230,7 +12259,9 @@
       <c r="L64" s="112">
         <v>6</v>
       </c>
-      <c r="M64" s="112"/>
+      <c r="M64" s="112">
+        <v>6</v>
+      </c>
       <c r="N64" s="112"/>
       <c r="O64" s="112"/>
       <c r="P64" s="112"/>
@@ -12241,13 +12272,13 @@
         <v>61</v>
       </c>
       <c r="B65" s="129" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C65" s="107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D65" s="108" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>完了</v>
       </c>
       <c r="E65" s="109">
@@ -12263,7 +12294,7 @@
         <v>4</v>
       </c>
       <c r="I65" s="111">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J65" s="112">
@@ -12275,7 +12306,9 @@
       <c r="L65" s="112">
         <v>0</v>
       </c>
-      <c r="M65" s="112"/>
+      <c r="M65" s="112">
+        <v>0</v>
+      </c>
       <c r="N65" s="112"/>
       <c r="O65" s="112"/>
       <c r="P65" s="112"/>
@@ -12287,10 +12320,10 @@
       </c>
       <c r="B66" s="106"/>
       <c r="C66" s="107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D66" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E66" s="109"/>
@@ -12298,7 +12331,7 @@
       <c r="G66" s="110"/>
       <c r="H66" s="110"/>
       <c r="I66" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J66" s="112"/>
@@ -12316,10 +12349,10 @@
       </c>
       <c r="B67" s="106"/>
       <c r="C67" s="107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D67" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E67" s="109"/>
@@ -12327,7 +12360,7 @@
       <c r="G67" s="110"/>
       <c r="H67" s="110"/>
       <c r="I67" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J67" s="112"/>
@@ -12345,10 +12378,10 @@
       </c>
       <c r="B68" s="106"/>
       <c r="C68" s="107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D68" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E68" s="109"/>
@@ -12356,7 +12389,7 @@
       <c r="G68" s="110"/>
       <c r="H68" s="110"/>
       <c r="I68" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J68" s="112"/>
@@ -12374,10 +12407,10 @@
       </c>
       <c r="B69" s="106"/>
       <c r="C69" s="107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D69" s="108" t="str">
-        <f t="shared" ref="D69:D91" si="5">IF(ISBLANK($B69),"",IF(ISBLANK($F69),"未着手",IF($I69=0,"完了","作業中")))</f>
+        <f t="shared" ref="D69:D91" si="4">IF(ISBLANK($B69),"",IF(ISBLANK($F69),"未着手",IF($I69=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="E69" s="109"/>
@@ -12385,7 +12418,7 @@
       <c r="G69" s="110"/>
       <c r="H69" s="110"/>
       <c r="I69" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J69" s="112"/>
@@ -12403,10 +12436,10 @@
       </c>
       <c r="B70" s="106"/>
       <c r="C70" s="107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D70" s="108" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E70" s="109"/>
@@ -12414,7 +12447,7 @@
       <c r="G70" s="110"/>
       <c r="H70" s="110"/>
       <c r="I70" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J70" s="112"/>
@@ -12432,10 +12465,10 @@
       </c>
       <c r="B71" s="106"/>
       <c r="C71" s="107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D71" s="108" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E71" s="109"/>
@@ -12443,7 +12476,7 @@
       <c r="G71" s="110"/>
       <c r="H71" s="110"/>
       <c r="I71" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J71" s="112"/>
@@ -12461,10 +12494,10 @@
       </c>
       <c r="B72" s="106"/>
       <c r="C72" s="107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D72" s="108" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E72" s="109"/>
@@ -12472,7 +12505,7 @@
       <c r="G72" s="110"/>
       <c r="H72" s="110"/>
       <c r="I72" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J72" s="112"/>
@@ -12490,10 +12523,10 @@
       </c>
       <c r="B73" s="106"/>
       <c r="C73" s="107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D73" s="108" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E73" s="109"/>
@@ -12501,7 +12534,7 @@
       <c r="G73" s="110"/>
       <c r="H73" s="110"/>
       <c r="I73" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J73" s="112"/>
@@ -12519,10 +12552,10 @@
       </c>
       <c r="B74" s="106"/>
       <c r="C74" s="107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D74" s="108" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E74" s="109"/>
@@ -12530,7 +12563,7 @@
       <c r="G74" s="110"/>
       <c r="H74" s="110"/>
       <c r="I74" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J74" s="112"/>
@@ -12548,10 +12581,10 @@
       </c>
       <c r="B75" s="106"/>
       <c r="C75" s="107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D75" s="108" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E75" s="109"/>
@@ -12559,7 +12592,7 @@
       <c r="G75" s="110"/>
       <c r="H75" s="110"/>
       <c r="I75" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J75" s="112"/>
@@ -12577,10 +12610,10 @@
       </c>
       <c r="B76" s="106"/>
       <c r="C76" s="107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D76" s="108" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E76" s="109"/>
@@ -12588,7 +12621,7 @@
       <c r="G76" s="110"/>
       <c r="H76" s="110"/>
       <c r="I76" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J76" s="112"/>
@@ -12606,10 +12639,10 @@
       </c>
       <c r="B77" s="106"/>
       <c r="C77" s="107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D77" s="108" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E77" s="109"/>
@@ -12617,7 +12650,7 @@
       <c r="G77" s="110"/>
       <c r="H77" s="110"/>
       <c r="I77" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J77" s="112"/>
@@ -12635,10 +12668,10 @@
       </c>
       <c r="B78" s="106"/>
       <c r="C78" s="107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D78" s="108" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E78" s="109"/>
@@ -12646,7 +12679,7 @@
       <c r="G78" s="110"/>
       <c r="H78" s="110"/>
       <c r="I78" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J78" s="112"/>
@@ -12664,10 +12697,10 @@
       </c>
       <c r="B79" s="106"/>
       <c r="C79" s="107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D79" s="108" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E79" s="109"/>
@@ -12675,7 +12708,7 @@
       <c r="G79" s="110"/>
       <c r="H79" s="110"/>
       <c r="I79" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J79" s="112"/>
@@ -12692,13 +12725,13 @@
         <v>76</v>
       </c>
       <c r="B80" s="106" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C80" s="107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D80" s="108" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E80" s="109">
@@ -12710,7 +12743,7 @@
       </c>
       <c r="H80" s="110"/>
       <c r="I80" s="111">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="J80" s="112">
@@ -12722,7 +12755,9 @@
       <c r="L80" s="112">
         <v>3</v>
       </c>
-      <c r="M80" s="112"/>
+      <c r="M80" s="112">
+        <v>3</v>
+      </c>
       <c r="N80" s="112"/>
       <c r="O80" s="112"/>
       <c r="P80" s="112"/>
@@ -12733,13 +12768,13 @@
         <v>77</v>
       </c>
       <c r="B81" s="106" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C81" s="107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D81" s="108" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>完了</v>
       </c>
       <c r="E81" s="109">
@@ -12766,7 +12801,9 @@
       <c r="L81" s="112">
         <v>0</v>
       </c>
-      <c r="M81" s="112"/>
+      <c r="M81" s="112">
+        <v>0</v>
+      </c>
       <c r="N81" s="112"/>
       <c r="O81" s="112"/>
       <c r="P81" s="112"/>
@@ -12777,13 +12814,13 @@
         <v>78</v>
       </c>
       <c r="B82" s="106" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C82" s="107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D82" s="108" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>完了</v>
       </c>
       <c r="E82" s="109">
@@ -12810,7 +12847,9 @@
       <c r="L82" s="112">
         <v>0</v>
       </c>
-      <c r="M82" s="112"/>
+      <c r="M82" s="112">
+        <v>0</v>
+      </c>
       <c r="N82" s="112"/>
       <c r="O82" s="112"/>
       <c r="P82" s="112"/>
@@ -12821,13 +12860,13 @@
         <v>79</v>
       </c>
       <c r="B83" s="106" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C83" s="107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D83" s="108" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E83" s="4">
@@ -12839,7 +12878,7 @@
       </c>
       <c r="H83" s="110"/>
       <c r="I83" s="111">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="J83" s="112">
@@ -12851,7 +12890,9 @@
       <c r="L83" s="112">
         <v>1</v>
       </c>
-      <c r="M83" s="112"/>
+      <c r="M83" s="112">
+        <v>1</v>
+      </c>
       <c r="N83" s="112"/>
       <c r="O83" s="112"/>
       <c r="P83" s="112"/>
@@ -12862,13 +12903,13 @@
         <v>80</v>
       </c>
       <c r="B84" s="106" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C84" s="107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D84" s="108" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E84" s="109">
@@ -12880,8 +12921,8 @@
       </c>
       <c r="H84" s="110"/>
       <c r="I84" s="111">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="J84" s="112">
         <v>3</v>
@@ -12892,7 +12933,9 @@
       <c r="L84" s="112">
         <v>2</v>
       </c>
-      <c r="M84" s="112"/>
+      <c r="M84" s="112">
+        <v>1</v>
+      </c>
       <c r="N84" s="112"/>
       <c r="O84" s="112"/>
       <c r="P84" s="112"/>
@@ -12903,13 +12946,13 @@
         <v>81</v>
       </c>
       <c r="B85" s="106" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C85" s="107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D85" s="108" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E85" s="109">
@@ -12922,7 +12965,7 @@
       <c r="H85" s="110"/>
       <c r="I85" s="111">
         <f ca="1">IF(ISBLANK(J85)=FALSE,OFFSET(I85,0,COUNTA(J85:Q85)),"")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J85" s="112">
         <v>3</v>
@@ -12933,7 +12976,9 @@
       <c r="L85" s="112">
         <v>3</v>
       </c>
-      <c r="M85" s="112"/>
+      <c r="M85" s="112">
+        <v>2</v>
+      </c>
       <c r="N85" s="112"/>
       <c r="O85" s="112"/>
       <c r="P85" s="112"/>
@@ -12944,13 +12989,13 @@
         <v>82</v>
       </c>
       <c r="B86" s="106" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C86" s="107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D86" s="108" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E86" s="109">
@@ -12974,7 +13019,9 @@
       <c r="L86" s="112">
         <v>2</v>
       </c>
-      <c r="M86" s="112"/>
+      <c r="M86" s="112">
+        <v>2</v>
+      </c>
       <c r="N86" s="112"/>
       <c r="O86" s="112"/>
       <c r="P86" s="112"/>
@@ -12985,13 +13032,13 @@
         <v>83</v>
       </c>
       <c r="B87" s="106" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C87" s="107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D87" s="108" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E87" s="109">
@@ -13003,8 +13050,8 @@
       </c>
       <c r="H87" s="110"/>
       <c r="I87" s="111">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="J87" s="112">
         <v>2</v>
@@ -13015,7 +13062,9 @@
       <c r="L87" s="112">
         <v>2</v>
       </c>
-      <c r="M87" s="112"/>
+      <c r="M87" s="112">
+        <v>1</v>
+      </c>
       <c r="N87" s="112"/>
       <c r="O87" s="112"/>
       <c r="P87" s="112"/>
@@ -13026,13 +13075,13 @@
         <v>84</v>
       </c>
       <c r="B88" s="129" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C88" s="107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D88" s="108" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E88" s="109">
@@ -13044,7 +13093,7 @@
       </c>
       <c r="H88" s="110"/>
       <c r="I88" s="111">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
       <c r="J88" s="112">
@@ -13056,7 +13105,9 @@
       <c r="L88" s="112">
         <v>6</v>
       </c>
-      <c r="M88" s="112"/>
+      <c r="M88" s="112">
+        <v>6</v>
+      </c>
       <c r="N88" s="112"/>
       <c r="O88" s="112"/>
       <c r="P88" s="112"/>
@@ -13067,13 +13118,13 @@
         <v>85</v>
       </c>
       <c r="B89" s="129" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C89" s="107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D89" s="108" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E89" s="109">
@@ -13097,7 +13148,9 @@
       <c r="L89" s="112">
         <v>2</v>
       </c>
-      <c r="M89" s="112"/>
+      <c r="M89" s="112">
+        <v>2</v>
+      </c>
       <c r="N89" s="112"/>
       <c r="O89" s="112"/>
       <c r="P89" s="112"/>
@@ -13108,13 +13161,13 @@
         <v>86</v>
       </c>
       <c r="B90" s="129" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C90" s="107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D90" s="108" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E90" s="109">
@@ -13126,7 +13179,7 @@
       </c>
       <c r="H90" s="110"/>
       <c r="I90" s="111">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="J90" s="112">
@@ -13138,7 +13191,9 @@
       <c r="L90" s="112">
         <v>3</v>
       </c>
-      <c r="M90" s="112"/>
+      <c r="M90" s="112">
+        <v>3</v>
+      </c>
       <c r="N90" s="112"/>
       <c r="O90" s="112"/>
       <c r="P90" s="112"/>
@@ -13150,10 +13205,10 @@
       </c>
       <c r="B91" s="106"/>
       <c r="C91" s="107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D91" s="108" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E91" s="109"/>
@@ -13161,7 +13216,7 @@
       <c r="G91" s="110"/>
       <c r="H91" s="110"/>
       <c r="I91" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J91" s="112"/>
@@ -13179,10 +13234,10 @@
       </c>
       <c r="B92" s="106"/>
       <c r="C92" s="107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D92" s="111" t="str">
-        <f t="shared" ref="D92:D155" si="6">IF(ISBLANK($B92),"",IF(ISBLANK($F92),"未着手",IF($I92=0,"完了","作業中")))</f>
+        <f t="shared" ref="D92:D155" si="5">IF(ISBLANK($B92),"",IF(ISBLANK($F92),"未着手",IF($I92=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="E92" s="109"/>
@@ -13190,7 +13245,7 @@
       <c r="G92" s="110"/>
       <c r="H92" s="110"/>
       <c r="I92" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J92" s="112"/>
@@ -13208,10 +13263,10 @@
       </c>
       <c r="B93" s="106"/>
       <c r="C93" s="107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D93" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E93" s="109"/>
@@ -13219,7 +13274,7 @@
       <c r="G93" s="110"/>
       <c r="H93" s="110"/>
       <c r="I93" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J93" s="112"/>
@@ -13237,10 +13292,10 @@
       </c>
       <c r="B94" s="106"/>
       <c r="C94" s="107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D94" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E94" s="109"/>
@@ -13248,7 +13303,7 @@
       <c r="G94" s="110"/>
       <c r="H94" s="110"/>
       <c r="I94" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J94" s="112"/>
@@ -13266,10 +13321,10 @@
       </c>
       <c r="B95" s="106"/>
       <c r="C95" s="107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D95" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E95" s="109"/>
@@ -13277,7 +13332,7 @@
       <c r="G95" s="110"/>
       <c r="H95" s="110"/>
       <c r="I95" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J95" s="112"/>
@@ -13295,10 +13350,10 @@
       </c>
       <c r="B96" s="106"/>
       <c r="C96" s="107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D96" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E96" s="109"/>
@@ -13306,7 +13361,7 @@
       <c r="G96" s="110"/>
       <c r="H96" s="110"/>
       <c r="I96" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J96" s="112"/>
@@ -13324,10 +13379,10 @@
       </c>
       <c r="B97" s="106"/>
       <c r="C97" s="107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D97" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E97" s="109"/>
@@ -13335,7 +13390,7 @@
       <c r="G97" s="110"/>
       <c r="H97" s="110"/>
       <c r="I97" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J97" s="112"/>
@@ -13353,10 +13408,10 @@
       </c>
       <c r="B98" s="106"/>
       <c r="C98" s="107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D98" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E98" s="109"/>
@@ -13364,7 +13419,7 @@
       <c r="G98" s="110"/>
       <c r="H98" s="110"/>
       <c r="I98" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J98" s="112"/>
@@ -13382,10 +13437,10 @@
       </c>
       <c r="B99" s="106"/>
       <c r="C99" s="107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D99" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E99" s="109"/>
@@ -13393,7 +13448,7 @@
       <c r="G99" s="110"/>
       <c r="H99" s="110"/>
       <c r="I99" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J99" s="112"/>
@@ -13411,10 +13466,10 @@
       </c>
       <c r="B100" s="106"/>
       <c r="C100" s="107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D100" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E100" s="109"/>
@@ -13422,7 +13477,7 @@
       <c r="G100" s="110"/>
       <c r="H100" s="110"/>
       <c r="I100" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J100" s="112"/>
@@ -13441,7 +13496,7 @@
       <c r="B101" s="106"/>
       <c r="C101" s="115"/>
       <c r="D101" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E101" s="109"/>
@@ -13449,7 +13504,7 @@
       <c r="G101" s="110"/>
       <c r="H101" s="110"/>
       <c r="I101" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J101" s="112"/>
@@ -13468,7 +13523,7 @@
       <c r="B102" s="116"/>
       <c r="C102" s="115"/>
       <c r="D102" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E102" s="109"/>
@@ -13476,7 +13531,7 @@
       <c r="G102" s="110"/>
       <c r="H102" s="110"/>
       <c r="I102" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J102" s="112"/>
@@ -13495,7 +13550,7 @@
       <c r="B103" s="116"/>
       <c r="C103" s="115"/>
       <c r="D103" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E103" s="109"/>
@@ -13503,7 +13558,7 @@
       <c r="G103" s="110"/>
       <c r="H103" s="110"/>
       <c r="I103" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J103" s="112"/>
@@ -13520,13 +13575,13 @@
         <v>100</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D104" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>完了</v>
       </c>
       <c r="E104" s="109">
@@ -13542,7 +13597,7 @@
         <v>3</v>
       </c>
       <c r="I104" s="111">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J104" s="112">
@@ -13554,7 +13609,9 @@
       <c r="L104" s="112">
         <v>0</v>
       </c>
-      <c r="M104" s="112"/>
+      <c r="M104" s="112">
+        <v>0</v>
+      </c>
       <c r="N104" s="112"/>
       <c r="O104" s="112"/>
       <c r="P104" s="112"/>
@@ -13565,13 +13622,13 @@
         <v>101</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D105" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>完了</v>
       </c>
       <c r="E105" s="109">
@@ -13587,7 +13644,7 @@
         <v>3</v>
       </c>
       <c r="I105" s="111">
-        <f t="shared" ref="I105:I157" ca="1" si="7">IF(ISBLANK(J105)=FALSE,OFFSET(I105,0,COUNTA(J105:Q105)),"")</f>
+        <f t="shared" ref="I105:I157" ca="1" si="6">IF(ISBLANK(J105)=FALSE,OFFSET(I105,0,COUNTA(J105:Q105)),"")</f>
         <v>0</v>
       </c>
       <c r="J105" s="112">
@@ -13599,7 +13656,9 @@
       <c r="L105" s="112">
         <v>0</v>
       </c>
-      <c r="M105" s="112"/>
+      <c r="M105" s="112">
+        <v>0</v>
+      </c>
       <c r="N105" s="112"/>
       <c r="O105" s="112"/>
       <c r="P105" s="112"/>
@@ -13610,13 +13669,13 @@
         <v>102</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D106" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>完了</v>
       </c>
       <c r="E106" s="109">
@@ -13632,7 +13691,7 @@
         <v>3</v>
       </c>
       <c r="I106" s="111">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="J106" s="112">
@@ -13644,7 +13703,9 @@
       <c r="L106" s="112">
         <v>0</v>
       </c>
-      <c r="M106" s="112"/>
+      <c r="M106" s="112">
+        <v>0</v>
+      </c>
       <c r="N106" s="112"/>
       <c r="O106" s="112"/>
       <c r="P106" s="112"/>
@@ -13673,13 +13734,13 @@
         <v>103</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D107" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>完了</v>
       </c>
       <c r="E107" s="109">
@@ -13695,7 +13756,7 @@
         <v>3</v>
       </c>
       <c r="I107" s="111">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="J107" s="112">
@@ -13707,21 +13768,23 @@
       <c r="L107" s="112">
         <v>0</v>
       </c>
-      <c r="M107" s="112"/>
+      <c r="M107" s="112">
+        <v>0</v>
+      </c>
       <c r="N107" s="112"/>
       <c r="O107" s="112"/>
       <c r="P107" s="112"/>
       <c r="Q107" s="112"/>
       <c r="S107" s="124" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="T107" s="125">
         <f>SUMIF($C$5:$C$157,S107,$G$5:$G$157)</f>
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="U107" s="125">
         <f ca="1">SUMIF($C$5:$C$156,S107,$I$5:$I$157)</f>
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="V107" s="125">
         <f>SUMIF($C$5:$C$157,S107,$H$5:$H$157)</f>
@@ -13729,7 +13792,7 @@
       </c>
       <c r="W107" s="126">
         <f>COUNTA($J$2:$Q$2)*6-COUNTA($J$4:$Q$4)*6</f>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="X107" s="127">
         <f ca="1">IF(W107&gt;U107,0,U107-W107)</f>
@@ -13741,13 +13804,13 @@
         <v>104</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D108" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>完了</v>
       </c>
       <c r="E108" s="109">
@@ -13763,7 +13826,7 @@
         <v>4</v>
       </c>
       <c r="I108" s="111">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="J108" s="112">
@@ -13775,32 +13838,34 @@
       <c r="L108" s="112">
         <v>0</v>
       </c>
-      <c r="M108" s="112"/>
+      <c r="M108" s="112">
+        <v>0</v>
+      </c>
       <c r="N108" s="112"/>
       <c r="O108" s="112"/>
       <c r="P108" s="112"/>
       <c r="Q108" s="112"/>
       <c r="S108" s="124" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T108" s="125">
-        <f t="shared" ref="T108:T116" si="8">SUMIF($C$5:$C$157,S108,$G$5:$G$157)</f>
-        <v>38</v>
+        <f t="shared" ref="T108:T116" si="7">SUMIF($C$5:$C$157,S108,$G$5:$G$157)</f>
+        <v>41</v>
       </c>
       <c r="U108" s="125">
-        <f t="shared" ref="U108:U116" ca="1" si="9">SUMIF($C$5:$C$156,S108,$I$5:$I$157)</f>
-        <v>27</v>
+        <f t="shared" ref="U108:U116" ca="1" si="8">SUMIF($C$5:$C$156,S108,$I$5:$I$157)</f>
+        <v>24</v>
       </c>
       <c r="V108" s="125">
-        <f t="shared" ref="V108:V116" si="10">SUMIF($C$5:$C$157,S108,$H$5:$H$157)</f>
-        <v>16</v>
+        <f t="shared" ref="V108:V116" si="9">SUMIF($C$5:$C$157,S108,$H$5:$H$157)</f>
+        <v>25</v>
       </c>
       <c r="W108" s="126">
-        <f t="shared" ref="W108:W116" si="11">COUNTA($J$2:$Q$2)*6-COUNTA($J$4:$Q$4)*6</f>
-        <v>30</v>
+        <f t="shared" ref="W108:W116" si="10">COUNTA($J$2:$Q$2)*6-COUNTA($J$4:$Q$4)*6</f>
+        <v>24</v>
       </c>
       <c r="X108" s="127">
-        <f t="shared" ref="X108:X116" ca="1" si="12">IF(W108&gt;U108,0,U108-W108)</f>
+        <f t="shared" ref="X108:X116" ca="1" si="11">IF(W108&gt;U108,0,U108-W108)</f>
         <v>0</v>
       </c>
     </row>
@@ -13809,14 +13874,14 @@
         <v>105</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D109" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>完了</v>
       </c>
       <c r="E109" s="109">
         <v>43046</v>
@@ -13827,10 +13892,12 @@
       <c r="G109" s="110">
         <v>3</v>
       </c>
-      <c r="H109" s="110"/>
+      <c r="H109" s="110">
+        <v>3</v>
+      </c>
       <c r="I109" s="111">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="J109" s="112">
         <v>4</v>
@@ -13841,33 +13908,35 @@
       <c r="L109" s="112">
         <v>1.5</v>
       </c>
-      <c r="M109" s="112"/>
+      <c r="M109" s="112">
+        <v>0</v>
+      </c>
       <c r="N109" s="112"/>
       <c r="O109" s="112"/>
       <c r="P109" s="112"/>
       <c r="Q109" s="112"/>
       <c r="S109" s="124" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="T109" s="125">
-        <f t="shared" si="8"/>
-        <v>42</v>
+        <f t="shared" si="7"/>
+        <v>44</v>
       </c>
       <c r="U109" s="125">
-        <f t="shared" ca="1" si="9"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>28</v>
       </c>
       <c r="V109" s="125">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="W109" s="126">
         <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="W109" s="126">
-        <f t="shared" si="11"/>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="X109" s="127">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:24">
@@ -13875,14 +13944,14 @@
         <v>106</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D110" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>完了</v>
       </c>
       <c r="E110" s="4">
         <v>43046</v>
@@ -13893,10 +13962,12 @@
       <c r="G110" s="110">
         <v>3</v>
       </c>
-      <c r="H110" s="110"/>
+      <c r="H110" s="110">
+        <v>3</v>
+      </c>
       <c r="I110" s="111">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="J110" s="112">
         <v>4</v>
@@ -13907,32 +13978,34 @@
       <c r="L110" s="112">
         <v>1.5</v>
       </c>
-      <c r="M110" s="112"/>
+      <c r="M110" s="112">
+        <v>0</v>
+      </c>
       <c r="N110" s="112"/>
       <c r="O110" s="112"/>
       <c r="P110" s="112"/>
       <c r="Q110" s="112"/>
       <c r="S110" s="124" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="T110" s="125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="U110" s="125">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="V110" s="125">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="W110" s="126">
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="V110" s="125">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="W110" s="126">
-        <f t="shared" si="11"/>
-        <v>30</v>
-      </c>
       <c r="X110" s="127">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13941,13 +14014,13 @@
         <v>107</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D111" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>作業中</v>
       </c>
       <c r="E111" s="109">
@@ -13959,10 +14032,12 @@
       <c r="G111" s="110">
         <v>4</v>
       </c>
-      <c r="H111" s="110"/>
+      <c r="H111" s="110">
+        <v>4</v>
+      </c>
       <c r="I111" s="111">
         <f ca="1">IF(ISBLANK(J111)=FALSE,OFFSET(I111,0,COUNTA(J111:Q111)),"")</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J111" s="112">
         <v>4</v>
@@ -13973,32 +14048,34 @@
       <c r="L111" s="112">
         <v>1.5</v>
       </c>
-      <c r="M111" s="112"/>
+      <c r="M111" s="112">
+        <v>1</v>
+      </c>
       <c r="N111" s="112"/>
       <c r="O111" s="112"/>
       <c r="P111" s="112"/>
       <c r="Q111" s="112"/>
       <c r="S111" s="124" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="T111" s="125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="U111" s="125">
-        <f t="shared" ca="1" si="9"/>
-        <v>4.5</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="V111" s="125">
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="W111" s="126">
         <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="W111" s="126">
-        <f t="shared" si="11"/>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="X111" s="127">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14007,13 +14084,13 @@
         <v>108</v>
       </c>
       <c r="B112" s="129" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D112" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E112" s="109">
@@ -14025,7 +14102,7 @@
       </c>
       <c r="H112" s="110"/>
       <c r="I112" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J112" s="112"/>
@@ -14038,23 +14115,23 @@
       <c r="Q112" s="112"/>
       <c r="S112" s="124"/>
       <c r="T112" s="125">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U112" s="125">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U112" s="125">
+      <c r="V112" s="125">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V112" s="125">
+      <c r="W112" s="126">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W112" s="126">
+        <v>24</v>
+      </c>
+      <c r="X112" s="127">
         <f t="shared" si="11"/>
-        <v>30</v>
-      </c>
-      <c r="X112" s="127">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14065,7 +14142,7 @@
       <c r="B113" s="116"/>
       <c r="C113" s="115"/>
       <c r="D113" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E113" s="109"/>
@@ -14073,7 +14150,7 @@
       <c r="G113" s="110"/>
       <c r="H113" s="110"/>
       <c r="I113" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J113" s="112"/>
@@ -14086,23 +14163,23 @@
       <c r="Q113" s="112"/>
       <c r="S113" s="124"/>
       <c r="T113" s="125">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U113" s="125">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U113" s="125">
+      <c r="V113" s="125">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V113" s="125">
+      <c r="W113" s="126">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W113" s="126">
+        <v>24</v>
+      </c>
+      <c r="X113" s="127">
         <f t="shared" si="11"/>
-        <v>30</v>
-      </c>
-      <c r="X113" s="127">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14113,7 +14190,7 @@
       <c r="B114" s="116"/>
       <c r="C114" s="115"/>
       <c r="D114" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E114" s="109"/>
@@ -14121,7 +14198,7 @@
       <c r="G114" s="110"/>
       <c r="H114" s="110"/>
       <c r="I114" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J114" s="112"/>
@@ -14134,23 +14211,23 @@
       <c r="Q114" s="112"/>
       <c r="S114" s="124"/>
       <c r="T114" s="125">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U114" s="125">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U114" s="125">
+      <c r="V114" s="125">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V114" s="125">
+      <c r="W114" s="126">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W114" s="126">
+        <v>24</v>
+      </c>
+      <c r="X114" s="127">
         <f t="shared" si="11"/>
-        <v>30</v>
-      </c>
-      <c r="X114" s="127">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14161,7 +14238,7 @@
       <c r="B115" s="116"/>
       <c r="C115" s="115"/>
       <c r="D115" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E115" s="109"/>
@@ -14169,7 +14246,7 @@
       <c r="G115" s="110"/>
       <c r="H115" s="110"/>
       <c r="I115" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J115" s="112"/>
@@ -14182,23 +14259,23 @@
       <c r="Q115" s="112"/>
       <c r="S115" s="124"/>
       <c r="T115" s="125">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U115" s="125">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U115" s="125">
+      <c r="V115" s="125">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V115" s="125">
+      <c r="W115" s="126">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W115" s="126">
+        <v>24</v>
+      </c>
+      <c r="X115" s="127">
         <f t="shared" si="11"/>
-        <v>30</v>
-      </c>
-      <c r="X115" s="127">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14209,7 +14286,7 @@
       <c r="B116" s="116"/>
       <c r="C116" s="115"/>
       <c r="D116" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E116" s="109"/>
@@ -14217,7 +14294,7 @@
       <c r="G116" s="110"/>
       <c r="H116" s="110"/>
       <c r="I116" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J116" s="112"/>
@@ -14230,23 +14307,23 @@
       <c r="Q116" s="112"/>
       <c r="S116" s="124"/>
       <c r="T116" s="125">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U116" s="125">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U116" s="125">
+      <c r="V116" s="125">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V116" s="125">
+      <c r="W116" s="126">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W116" s="126">
+        <v>24</v>
+      </c>
+      <c r="X116" s="127">
         <f t="shared" si="11"/>
-        <v>30</v>
-      </c>
-      <c r="X116" s="127">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14257,7 +14334,7 @@
       <c r="B117" s="116"/>
       <c r="C117" s="115"/>
       <c r="D117" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E117" s="109"/>
@@ -14265,7 +14342,7 @@
       <c r="G117" s="110"/>
       <c r="H117" s="110"/>
       <c r="I117" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J117" s="112"/>
@@ -14284,7 +14361,7 @@
       <c r="B118" s="116"/>
       <c r="C118" s="115"/>
       <c r="D118" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E118" s="109"/>
@@ -14292,7 +14369,7 @@
       <c r="G118" s="110"/>
       <c r="H118" s="110"/>
       <c r="I118" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J118" s="112"/>
@@ -14311,7 +14388,7 @@
       <c r="B119" s="116"/>
       <c r="C119" s="115"/>
       <c r="D119" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E119" s="109"/>
@@ -14319,7 +14396,7 @@
       <c r="G119" s="110"/>
       <c r="H119" s="110"/>
       <c r="I119" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J119" s="112"/>
@@ -14338,7 +14415,7 @@
       <c r="B120" s="116"/>
       <c r="C120" s="115"/>
       <c r="D120" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E120" s="109"/>
@@ -14346,7 +14423,7 @@
       <c r="G120" s="110"/>
       <c r="H120" s="110"/>
       <c r="I120" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J120" s="112"/>
@@ -14365,7 +14442,7 @@
       <c r="B121" s="116"/>
       <c r="C121" s="115"/>
       <c r="D121" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E121" s="109"/>
@@ -14373,7 +14450,7 @@
       <c r="G121" s="110"/>
       <c r="H121" s="110"/>
       <c r="I121" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J121" s="112"/>
@@ -14392,7 +14469,7 @@
       <c r="B122" s="116"/>
       <c r="C122" s="115"/>
       <c r="D122" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E122" s="109"/>
@@ -14400,7 +14477,7 @@
       <c r="G122" s="110"/>
       <c r="H122" s="110"/>
       <c r="I122" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J122" s="112"/>
@@ -14419,7 +14496,7 @@
       <c r="B123" s="116"/>
       <c r="C123" s="115"/>
       <c r="D123" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E123" s="109"/>
@@ -14427,7 +14504,7 @@
       <c r="G123" s="110"/>
       <c r="H123" s="110"/>
       <c r="I123" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J123" s="112"/>
@@ -14446,7 +14523,7 @@
       <c r="B124" s="116"/>
       <c r="C124" s="115"/>
       <c r="D124" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E124" s="109"/>
@@ -14454,7 +14531,7 @@
       <c r="G124" s="110"/>
       <c r="H124" s="110"/>
       <c r="I124" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J124" s="112"/>
@@ -14473,7 +14550,7 @@
       <c r="B125" s="116"/>
       <c r="C125" s="115"/>
       <c r="D125" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E125" s="109"/>
@@ -14481,7 +14558,7 @@
       <c r="G125" s="110"/>
       <c r="H125" s="110"/>
       <c r="I125" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J125" s="112"/>
@@ -14500,7 +14577,7 @@
       <c r="B126" s="116"/>
       <c r="C126" s="115"/>
       <c r="D126" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E126" s="109"/>
@@ -14508,7 +14585,7 @@
       <c r="G126" s="110"/>
       <c r="H126" s="110"/>
       <c r="I126" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J126" s="112"/>
@@ -14527,7 +14604,7 @@
       <c r="B127" s="116"/>
       <c r="C127" s="115"/>
       <c r="D127" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E127" s="109"/>
@@ -14535,7 +14612,7 @@
       <c r="G127" s="110"/>
       <c r="H127" s="110"/>
       <c r="I127" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J127" s="112"/>
@@ -14554,7 +14631,7 @@
       <c r="B128" s="116"/>
       <c r="C128" s="115"/>
       <c r="D128" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E128" s="109"/>
@@ -14562,7 +14639,7 @@
       <c r="G128" s="110"/>
       <c r="H128" s="110"/>
       <c r="I128" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J128" s="112"/>
@@ -14581,7 +14658,7 @@
       <c r="B129" s="116"/>
       <c r="C129" s="115"/>
       <c r="D129" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E129" s="109"/>
@@ -14589,7 +14666,7 @@
       <c r="G129" s="110"/>
       <c r="H129" s="110"/>
       <c r="I129" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J129" s="112"/>
@@ -14608,7 +14685,7 @@
       <c r="B130" s="116"/>
       <c r="C130" s="115"/>
       <c r="D130" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E130" s="109"/>
@@ -14616,7 +14693,7 @@
       <c r="G130" s="110"/>
       <c r="H130" s="110"/>
       <c r="I130" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J130" s="112"/>
@@ -14635,7 +14712,7 @@
       <c r="B131" s="116"/>
       <c r="C131" s="115"/>
       <c r="D131" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E131" s="109"/>
@@ -14643,7 +14720,7 @@
       <c r="G131" s="110"/>
       <c r="H131" s="110"/>
       <c r="I131" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J131" s="112"/>
@@ -14662,7 +14739,7 @@
       <c r="B132" s="116"/>
       <c r="C132" s="115"/>
       <c r="D132" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E132" s="109"/>
@@ -14670,7 +14747,7 @@
       <c r="G132" s="110"/>
       <c r="H132" s="110"/>
       <c r="I132" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J132" s="112"/>
@@ -14689,7 +14766,7 @@
       <c r="B133" s="116"/>
       <c r="C133" s="115"/>
       <c r="D133" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E133" s="109"/>
@@ -14697,7 +14774,7 @@
       <c r="G133" s="110"/>
       <c r="H133" s="110"/>
       <c r="I133" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J133" s="112"/>
@@ -14716,7 +14793,7 @@
       <c r="B134" s="116"/>
       <c r="C134" s="115"/>
       <c r="D134" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E134" s="109"/>
@@ -14724,7 +14801,7 @@
       <c r="G134" s="110"/>
       <c r="H134" s="110"/>
       <c r="I134" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J134" s="112"/>
@@ -14743,7 +14820,7 @@
       <c r="B135" s="116"/>
       <c r="C135" s="115"/>
       <c r="D135" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E135" s="109"/>
@@ -14751,7 +14828,7 @@
       <c r="G135" s="110"/>
       <c r="H135" s="110"/>
       <c r="I135" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J135" s="112"/>
@@ -14770,7 +14847,7 @@
       <c r="B136" s="116"/>
       <c r="C136" s="115"/>
       <c r="D136" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E136" s="109"/>
@@ -14778,7 +14855,7 @@
       <c r="G136" s="110"/>
       <c r="H136" s="110"/>
       <c r="I136" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J136" s="112"/>
@@ -14797,7 +14874,7 @@
       <c r="B137" s="116"/>
       <c r="C137" s="115"/>
       <c r="D137" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E137" s="109"/>
@@ -14805,7 +14882,7 @@
       <c r="G137" s="110"/>
       <c r="H137" s="110"/>
       <c r="I137" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J137" s="112"/>
@@ -14824,7 +14901,7 @@
       <c r="B138" s="116"/>
       <c r="C138" s="115"/>
       <c r="D138" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E138" s="109"/>
@@ -14832,7 +14909,7 @@
       <c r="G138" s="110"/>
       <c r="H138" s="110"/>
       <c r="I138" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J138" s="112"/>
@@ -14851,7 +14928,7 @@
       <c r="B139" s="116"/>
       <c r="C139" s="115"/>
       <c r="D139" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E139" s="109"/>
@@ -14859,7 +14936,7 @@
       <c r="G139" s="110"/>
       <c r="H139" s="110"/>
       <c r="I139" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J139" s="112"/>
@@ -14878,7 +14955,7 @@
       <c r="B140" s="116"/>
       <c r="C140" s="115"/>
       <c r="D140" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E140" s="109"/>
@@ -14886,7 +14963,7 @@
       <c r="G140" s="110"/>
       <c r="H140" s="110"/>
       <c r="I140" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J140" s="112"/>
@@ -14905,7 +14982,7 @@
       <c r="B141" s="116"/>
       <c r="C141" s="115"/>
       <c r="D141" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E141" s="109"/>
@@ -14913,7 +14990,7 @@
       <c r="G141" s="110"/>
       <c r="H141" s="110"/>
       <c r="I141" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J141" s="112"/>
@@ -14932,7 +15009,7 @@
       <c r="B142" s="116"/>
       <c r="C142" s="115"/>
       <c r="D142" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E142" s="109"/>
@@ -14940,7 +15017,7 @@
       <c r="G142" s="110"/>
       <c r="H142" s="110"/>
       <c r="I142" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J142" s="112"/>
@@ -14959,7 +15036,7 @@
       <c r="B143" s="116"/>
       <c r="C143" s="115"/>
       <c r="D143" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E143" s="109"/>
@@ -14967,7 +15044,7 @@
       <c r="G143" s="110"/>
       <c r="H143" s="110"/>
       <c r="I143" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J143" s="112"/>
@@ -14986,7 +15063,7 @@
       <c r="B144" s="116"/>
       <c r="C144" s="115"/>
       <c r="D144" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E144" s="109"/>
@@ -14994,7 +15071,7 @@
       <c r="G144" s="110"/>
       <c r="H144" s="110"/>
       <c r="I144" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J144" s="112"/>
@@ -15013,7 +15090,7 @@
       <c r="B145" s="116"/>
       <c r="C145" s="115"/>
       <c r="D145" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E145" s="109"/>
@@ -15021,7 +15098,7 @@
       <c r="G145" s="110"/>
       <c r="H145" s="110"/>
       <c r="I145" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J145" s="112"/>
@@ -15040,7 +15117,7 @@
       <c r="B146" s="116"/>
       <c r="C146" s="115"/>
       <c r="D146" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E146" s="109"/>
@@ -15048,7 +15125,7 @@
       <c r="G146" s="110"/>
       <c r="H146" s="110"/>
       <c r="I146" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J146" s="112"/>
@@ -15067,7 +15144,7 @@
       <c r="B147" s="116"/>
       <c r="C147" s="115"/>
       <c r="D147" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E147" s="109"/>
@@ -15075,7 +15152,7 @@
       <c r="G147" s="110"/>
       <c r="H147" s="110"/>
       <c r="I147" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J147" s="112"/>
@@ -15094,7 +15171,7 @@
       <c r="B148" s="116"/>
       <c r="C148" s="115"/>
       <c r="D148" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E148" s="109"/>
@@ -15102,7 +15179,7 @@
       <c r="G148" s="110"/>
       <c r="H148" s="110"/>
       <c r="I148" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J148" s="112"/>
@@ -15121,7 +15198,7 @@
       <c r="B149" s="116"/>
       <c r="C149" s="115"/>
       <c r="D149" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E149" s="109"/>
@@ -15129,7 +15206,7 @@
       <c r="G149" s="110"/>
       <c r="H149" s="110"/>
       <c r="I149" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J149" s="112"/>
@@ -15148,7 +15225,7 @@
       <c r="B150" s="116"/>
       <c r="C150" s="115"/>
       <c r="D150" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E150" s="109"/>
@@ -15156,7 +15233,7 @@
       <c r="G150" s="110"/>
       <c r="H150" s="110"/>
       <c r="I150" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J150" s="112"/>
@@ -15175,7 +15252,7 @@
       <c r="B151" s="116"/>
       <c r="C151" s="115"/>
       <c r="D151" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E151" s="109"/>
@@ -15183,7 +15260,7 @@
       <c r="G151" s="110"/>
       <c r="H151" s="110"/>
       <c r="I151" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J151" s="112"/>
@@ -15202,7 +15279,7 @@
       <c r="B152" s="116"/>
       <c r="C152" s="115"/>
       <c r="D152" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E152" s="109"/>
@@ -15210,7 +15287,7 @@
       <c r="G152" s="110"/>
       <c r="H152" s="110"/>
       <c r="I152" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J152" s="112"/>
@@ -15229,7 +15306,7 @@
       <c r="B153" s="116"/>
       <c r="C153" s="115"/>
       <c r="D153" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E153" s="109"/>
@@ -15237,7 +15314,7 @@
       <c r="G153" s="110"/>
       <c r="H153" s="110"/>
       <c r="I153" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J153" s="112"/>
@@ -15256,7 +15333,7 @@
       <c r="B154" s="116"/>
       <c r="C154" s="115"/>
       <c r="D154" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E154" s="109"/>
@@ -15264,7 +15341,7 @@
       <c r="G154" s="110"/>
       <c r="H154" s="110"/>
       <c r="I154" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J154" s="112"/>
@@ -15283,7 +15360,7 @@
       <c r="B155" s="116"/>
       <c r="C155" s="115"/>
       <c r="D155" s="111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E155" s="109"/>
@@ -15291,7 +15368,7 @@
       <c r="G155" s="110"/>
       <c r="H155" s="110"/>
       <c r="I155" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J155" s="112"/>
@@ -15310,7 +15387,7 @@
       <c r="B156" s="116"/>
       <c r="C156" s="115"/>
       <c r="D156" s="111" t="str">
-        <f t="shared" ref="D156:D157" si="13">IF(ISBLANK($B156),"",IF(ISBLANK($F156),"未着手",IF($I156=0,"完了","作業中")))</f>
+        <f t="shared" ref="D156:D157" si="12">IF(ISBLANK($B156),"",IF(ISBLANK($F156),"未着手",IF($I156=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="E156" s="109"/>
@@ -15318,7 +15395,7 @@
       <c r="G156" s="110"/>
       <c r="H156" s="110"/>
       <c r="I156" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J156" s="112"/>
@@ -15337,7 +15414,7 @@
       <c r="B157" s="116"/>
       <c r="C157" s="115"/>
       <c r="D157" s="111" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="E157" s="109"/>
@@ -15345,7 +15422,7 @@
       <c r="G157" s="110"/>
       <c r="H157" s="110"/>
       <c r="I157" s="111" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J157" s="112"/>
@@ -15794,13 +15871,16 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="J4" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z188"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -19656,7 +19736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22942,7 +23022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23740,7 +23820,7 @@
       <c r="K51" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:K51" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="B1:K51"/>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="A2:K51">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
@@ -23754,19 +23834,19 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I51" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I51">
       <formula1>登録者</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B51" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B51">
       <formula1>重要度</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51" xr:uid="{00000000-0002-0000-0400-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51">
       <formula1>担当者</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D51" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D51">
       <formula1>状況</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E51" xr:uid="{00000000-0002-0000-0400-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E51">
       <formula1>状況２</formula1>
     </dataValidation>
   </dataValidations>

--- a/タスク/07班スプリントバックログ.xlsx
+++ b/タスク/07班スプリントバックログ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kousuke Nakagawa\Desktop\team07バックログ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kousuke Nakagawa\Desktop\Team07\タスク\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -158,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="1" shapeId="0">
+    <comment ref="O2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="1" shapeId="0">
+    <comment ref="P2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="152">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -871,10 +871,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>11/3</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>11/10</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -987,13 +983,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>SEリソースの回収</t>
-    <rPh sb="7" eb="9">
-      <t>カイシュウ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>エフェクトの回収</t>
     <rPh sb="6" eb="8">
       <t>カイシュウ</t>
@@ -1014,29 +1003,6 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>警備員がプレイヤーをつかめた時に追い出す</t>
-    <rPh sb="0" eb="3">
-      <t>ケイビイン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ばばあをカートと分離</t>
-    <rPh sb="8" eb="10">
-      <t>ブンリ</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -1302,19 +1268,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>特売品をレジに通したときスコアを表示する</t>
-    <rPh sb="0" eb="3">
-      <t>トクバイヒン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>時間表示のカートをゲーム開始に合わせて進ませる</t>
     <rPh sb="0" eb="2">
       <t>ジカン</t>
@@ -1517,10 +1470,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>クレジット</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>カート話した時の籠とのぶつかり</t>
     <rPh sb="3" eb="4">
       <t>ハナ</t>
@@ -1665,26 +1614,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>スコア画面へ遷移</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>スコア画面作成</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>親を追跡しない子供NPCを修正</t>
     <rPh sb="0" eb="1">
       <t>オヤ</t>
@@ -1756,6 +1685,114 @@
     <t>エネミーにボーンを入れる</t>
     <rPh sb="9" eb="10">
       <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>リザルト画面へ遷移</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>リザルト画面作成</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クレジット</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>seリソース回収</t>
+    <rPh sb="6" eb="8">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>追加の３ｄモデル回収</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>警備員がプレイヤーをつかめた時に追い出す(中川→安武)</t>
+    <rPh sb="0" eb="3">
+      <t>ケイビイン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ナカガワ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヤスタケ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ばばあをカートと分離(中川→安武)</t>
+    <rPh sb="8" eb="10">
+      <t>ブンリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナカガワ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヤスタケ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>特売品をレジに通したときスコアを表示する(横橋→安武)</t>
+    <rPh sb="0" eb="3">
+      <t>トクバイヒン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヨコハシ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヤスタケ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>子供が何人ついてきているか取得</t>
+    <rPh sb="0" eb="2">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナンニン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -2966,6 +3003,10 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3047,10 +3088,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3681,9 +3718,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'スプリントバックログ(第１）'!$J$2:$Q$2</c:f>
+              <c:f>'スプリントバックログ(第１）'!$J$2:$P$2</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10/17</c:v>
                 </c:pt>
@@ -3700,12 +3737,9 @@
                   <c:v>10/31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11/3</c:v>
+                  <c:v>11/7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11/7</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>11/10</c:v>
                 </c:pt>
               </c:strCache>
@@ -3713,21 +3747,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第１）'!$J$4:$Q$4</c:f>
+              <c:f>'スプリントバックログ(第１）'!$J$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>154</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>127</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108</c:v>
+                  <c:v>118.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91</c:v>
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3770,9 +3807,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'スプリントバックログ(第１）'!$J$2:$Q$2</c:f>
+              <c:f>'スプリントバックログ(第１）'!$J$2:$P$2</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10/17</c:v>
                 </c:pt>
@@ -3789,12 +3826,9 @@
                   <c:v>10/31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11/3</c:v>
+                  <c:v>11/7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11/7</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>11/10</c:v>
                 </c:pt>
               </c:strCache>
@@ -3802,33 +3836,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第１）'!$J$3:$Q$3</c:f>
+              <c:f>'スプリントバックログ(第１）'!$J$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>154</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>134</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>115</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>96</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4258,7 +4289,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'スプリントバックログ(第１）'!$S$107:$S$116</c:f>
+              <c:f>'スプリントバックログ(第１）'!$R$107:$R$116</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4281,24 +4312,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第１）'!$U$107:$U$116</c:f>
+              <c:f>'スプリントバックログ(第１）'!$T$107:$T$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4392,7 +4423,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'スプリントバックログ(第１）'!$S$107:$S$116</c:f>
+              <c:f>'スプリントバックログ(第１）'!$R$107:$R$116</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4415,18 +4446,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第１）'!$V$107:$V$116</c:f>
+              <c:f>'スプリントバックログ(第１）'!$U$107:$U$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -4526,21 +4557,21 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第１）'!$T$107:$T$116</c:f>
+              <c:f>'スプリントバックログ(第１）'!$S$107:$S$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>36</c:v>
@@ -4574,7 +4605,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'スプリントバックログ(第１）'!$X$106</c:f>
+              <c:f>'スプリントバックログ(第１）'!$W$106</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4639,21 +4670,21 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第１）'!$X$107:$X$116</c:f>
+              <c:f>'スプリントバックログ(第１）'!$W$107:$W$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -7393,13 +7424,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -7431,13 +7462,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -7936,19 +7967,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
-      <c r="A1" s="130" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
+      <c r="A1" s="131" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1">
-      <c r="D2" s="131" t="s">
+      <c r="D2" s="132" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="131"/>
+      <c r="E2" s="132"/>
     </row>
     <row r="3" spans="1:5" ht="7.5" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:5" s="46" customFormat="1" ht="14.25" thickBot="1">
@@ -7967,7 +7998,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="132" t="s">
+      <c r="A5" s="133" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="76"/>
@@ -7976,21 +8007,21 @@
       <c r="E5" s="49"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="133"/>
+      <c r="A6" s="134"/>
       <c r="B6" s="70"/>
       <c r="C6" s="50"/>
       <c r="D6" s="51"/>
       <c r="E6" s="52"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="133"/>
+      <c r="A7" s="134"/>
       <c r="B7" s="70"/>
       <c r="C7" s="50"/>
       <c r="D7" s="51"/>
       <c r="E7" s="52"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="133"/>
+      <c r="A8" s="134"/>
       <c r="B8" s="71">
         <v>43025</v>
       </c>
@@ -7999,7 +8030,7 @@
       <c r="E8" s="52"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="133"/>
+      <c r="A9" s="134"/>
       <c r="B9" s="72">
         <f>B8</f>
         <v>43025</v>
@@ -8009,49 +8040,49 @@
       <c r="E9" s="52"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="133"/>
+      <c r="A10" s="134"/>
       <c r="B10" s="72"/>
       <c r="C10" s="50"/>
       <c r="D10" s="51"/>
       <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="133"/>
+      <c r="A11" s="134"/>
       <c r="B11" s="71"/>
       <c r="C11" s="50"/>
       <c r="D11" s="51"/>
       <c r="E11" s="52"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="133"/>
+      <c r="A12" s="134"/>
       <c r="B12" s="69"/>
       <c r="C12" s="55"/>
       <c r="D12" s="51"/>
       <c r="E12" s="52"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="133"/>
+      <c r="A13" s="134"/>
       <c r="B13" s="68"/>
       <c r="C13" s="53"/>
       <c r="D13" s="51"/>
       <c r="E13" s="52"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="133"/>
+      <c r="A14" s="134"/>
       <c r="B14" s="70"/>
       <c r="C14" s="50"/>
       <c r="D14" s="51"/>
       <c r="E14" s="52"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="133"/>
+      <c r="A15" s="134"/>
       <c r="B15" s="71"/>
       <c r="C15" s="50"/>
       <c r="D15" s="51"/>
       <c r="E15" s="52"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="133"/>
+      <c r="A16" s="134"/>
       <c r="B16" s="71">
         <v>43028</v>
       </c>
@@ -8060,7 +8091,7 @@
       <c r="E16" s="52"/>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="133"/>
+      <c r="A17" s="134"/>
       <c r="B17" s="72">
         <f>B16</f>
         <v>43028</v>
@@ -8070,49 +8101,49 @@
       <c r="E17" s="52"/>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="133"/>
+      <c r="A18" s="134"/>
       <c r="B18" s="72"/>
       <c r="C18" s="50"/>
       <c r="D18" s="51"/>
       <c r="E18" s="52"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="133"/>
+      <c r="A19" s="134"/>
       <c r="B19" s="71"/>
       <c r="C19" s="50"/>
       <c r="D19" s="51"/>
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="133"/>
+      <c r="A20" s="134"/>
       <c r="B20" s="69"/>
       <c r="C20" s="55"/>
       <c r="D20" s="51"/>
       <c r="E20" s="52"/>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="133"/>
+      <c r="A21" s="134"/>
       <c r="B21" s="68"/>
       <c r="C21" s="53"/>
       <c r="D21" s="51"/>
       <c r="E21" s="52"/>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="133"/>
+      <c r="A22" s="134"/>
       <c r="B22" s="70"/>
       <c r="C22" s="50"/>
       <c r="D22" s="51"/>
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="133"/>
+      <c r="A23" s="134"/>
       <c r="B23" s="70"/>
       <c r="C23" s="50"/>
       <c r="D23" s="51"/>
       <c r="E23" s="52"/>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="133"/>
+      <c r="A24" s="134"/>
       <c r="B24" s="71">
         <v>43032</v>
       </c>
@@ -8121,7 +8152,7 @@
       <c r="E24" s="52"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="133"/>
+      <c r="A25" s="134"/>
       <c r="B25" s="72">
         <f>B24</f>
         <v>43032</v>
@@ -8131,49 +8162,49 @@
       <c r="E25" s="52"/>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="133"/>
+      <c r="A26" s="134"/>
       <c r="B26" s="72"/>
       <c r="C26" s="50"/>
       <c r="D26" s="51"/>
       <c r="E26" s="52"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="133"/>
+      <c r="A27" s="134"/>
       <c r="B27" s="71"/>
       <c r="C27" s="50"/>
       <c r="D27" s="51"/>
       <c r="E27" s="52"/>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="133"/>
+      <c r="A28" s="134"/>
       <c r="B28" s="70"/>
       <c r="C28" s="55"/>
       <c r="D28" s="51"/>
       <c r="E28" s="52"/>
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="133"/>
+      <c r="A29" s="134"/>
       <c r="B29" s="68"/>
       <c r="C29" s="78"/>
       <c r="D29" s="51"/>
       <c r="E29" s="54"/>
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="133"/>
+      <c r="A30" s="134"/>
       <c r="B30" s="70"/>
       <c r="C30" s="75"/>
       <c r="D30" s="51"/>
       <c r="E30" s="54"/>
     </row>
     <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="133"/>
+      <c r="A31" s="134"/>
       <c r="B31" s="70"/>
       <c r="C31" s="50"/>
       <c r="D31" s="51"/>
       <c r="E31" s="54"/>
     </row>
     <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="133"/>
+      <c r="A32" s="134"/>
       <c r="B32" s="71">
         <v>43035</v>
       </c>
@@ -8182,7 +8213,7 @@
       <c r="E32" s="52"/>
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="133"/>
+      <c r="A33" s="134"/>
       <c r="B33" s="72">
         <f>B32</f>
         <v>43035</v>
@@ -8192,49 +8223,49 @@
       <c r="E33" s="52"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="133"/>
+      <c r="A34" s="134"/>
       <c r="B34" s="72"/>
       <c r="C34" s="50"/>
       <c r="D34" s="51"/>
       <c r="E34" s="52"/>
     </row>
     <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="133"/>
+      <c r="A35" s="134"/>
       <c r="B35" s="71"/>
       <c r="C35" s="50"/>
       <c r="D35" s="51"/>
       <c r="E35" s="52"/>
     </row>
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="133"/>
+      <c r="A36" s="134"/>
       <c r="B36" s="69"/>
       <c r="C36" s="55"/>
       <c r="D36" s="51"/>
       <c r="E36" s="52"/>
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="133"/>
+      <c r="A37" s="134"/>
       <c r="B37" s="68"/>
       <c r="C37" s="50"/>
       <c r="D37" s="51"/>
       <c r="E37" s="52"/>
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="133"/>
+      <c r="A38" s="134"/>
       <c r="B38" s="70"/>
       <c r="C38" s="50"/>
       <c r="D38" s="51"/>
       <c r="E38" s="52"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="133"/>
+      <c r="A39" s="134"/>
       <c r="B39" s="70"/>
       <c r="C39" s="50"/>
       <c r="D39" s="51"/>
       <c r="E39" s="52"/>
     </row>
     <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="133"/>
+      <c r="A40" s="134"/>
       <c r="B40" s="71">
         <v>43039</v>
       </c>
@@ -8243,7 +8274,7 @@
       <c r="E40" s="52"/>
     </row>
     <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="133"/>
+      <c r="A41" s="134"/>
       <c r="B41" s="72">
         <f>B40</f>
         <v>43039</v>
@@ -8253,28 +8284,28 @@
       <c r="E41" s="52"/>
     </row>
     <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="133"/>
+      <c r="A42" s="134"/>
       <c r="B42" s="72"/>
       <c r="C42" s="50"/>
       <c r="D42" s="51"/>
       <c r="E42" s="52"/>
     </row>
     <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="133"/>
+      <c r="A43" s="134"/>
       <c r="B43" s="71"/>
       <c r="C43" s="50"/>
       <c r="D43" s="51"/>
       <c r="E43" s="52"/>
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="133"/>
+      <c r="A44" s="134"/>
       <c r="B44" s="69"/>
       <c r="C44" s="50"/>
       <c r="D44" s="51"/>
       <c r="E44" s="52"/>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="133"/>
+      <c r="A45" s="134"/>
       <c r="B45" s="87" t="s">
         <v>43</v>
       </c>
@@ -8283,21 +8314,21 @@
       <c r="E45" s="52"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="133"/>
+      <c r="A46" s="134"/>
       <c r="B46" s="70"/>
       <c r="C46" s="50"/>
       <c r="D46" s="51"/>
       <c r="E46" s="54"/>
     </row>
     <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="133"/>
+      <c r="A47" s="134"/>
       <c r="B47" s="70"/>
       <c r="C47" s="50"/>
       <c r="D47" s="51"/>
       <c r="E47" s="54"/>
     </row>
     <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="133"/>
+      <c r="A48" s="134"/>
       <c r="B48" s="71">
         <v>43042</v>
       </c>
@@ -8306,7 +8337,7 @@
       <c r="E48" s="54"/>
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="133"/>
+      <c r="A49" s="134"/>
       <c r="B49" s="72">
         <f>B48</f>
         <v>43042</v>
@@ -8316,28 +8347,28 @@
       <c r="E49" s="52"/>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="133"/>
+      <c r="A50" s="134"/>
       <c r="B50" s="72"/>
       <c r="C50" s="50"/>
       <c r="D50" s="56"/>
       <c r="E50" s="52"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="133"/>
+      <c r="A51" s="134"/>
       <c r="B51" s="71"/>
       <c r="C51" s="50"/>
       <c r="D51" s="56"/>
       <c r="E51" s="63"/>
     </row>
     <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="133"/>
+      <c r="A52" s="134"/>
       <c r="B52" s="69"/>
       <c r="C52" s="55"/>
       <c r="D52" s="56"/>
       <c r="E52" s="57"/>
     </row>
     <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="133"/>
+      <c r="A53" s="134"/>
       <c r="B53" s="80"/>
       <c r="C53" s="78" t="s">
         <v>41</v>
@@ -8346,7 +8377,7 @@
       <c r="E53" s="57"/>
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="133"/>
+      <c r="A54" s="134"/>
       <c r="B54" s="81"/>
       <c r="C54" s="75" t="s">
         <v>40</v>
@@ -8355,14 +8386,14 @@
       <c r="E54" s="57"/>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="133"/>
+      <c r="A55" s="134"/>
       <c r="B55" s="81"/>
       <c r="C55" s="50"/>
       <c r="D55" s="56"/>
       <c r="E55" s="57"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="133"/>
+      <c r="A56" s="134"/>
       <c r="B56" s="82">
         <v>43046</v>
       </c>
@@ -8371,7 +8402,7 @@
       <c r="E56" s="57"/>
     </row>
     <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A57" s="133"/>
+      <c r="A57" s="134"/>
       <c r="B57" s="83">
         <f>B56</f>
         <v>43046</v>
@@ -8381,28 +8412,28 @@
       <c r="E57" s="57"/>
     </row>
     <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="133"/>
+      <c r="A58" s="134"/>
       <c r="B58" s="83"/>
       <c r="C58" s="50"/>
       <c r="D58" s="56"/>
       <c r="E58" s="57"/>
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="133"/>
+      <c r="A59" s="134"/>
       <c r="B59" s="82"/>
       <c r="C59" s="50"/>
       <c r="D59" s="56"/>
       <c r="E59" s="57"/>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="133"/>
+      <c r="A60" s="134"/>
       <c r="B60" s="84"/>
       <c r="C60" s="55"/>
       <c r="D60" s="56"/>
       <c r="E60" s="57"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="133"/>
+      <c r="A61" s="134"/>
       <c r="B61" s="80"/>
       <c r="C61" s="78" t="s">
         <v>41</v>
@@ -8411,7 +8442,7 @@
       <c r="E61" s="57"/>
     </row>
     <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="133"/>
+      <c r="A62" s="134"/>
       <c r="B62" s="81"/>
       <c r="C62" s="75" t="s">
         <v>40</v>
@@ -8420,14 +8451,14 @@
       <c r="E62" s="57"/>
     </row>
     <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="133"/>
+      <c r="A63" s="134"/>
       <c r="B63" s="81"/>
       <c r="C63" s="50"/>
       <c r="D63" s="56"/>
       <c r="E63" s="57"/>
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="133"/>
+      <c r="A64" s="134"/>
       <c r="B64" s="82">
         <v>43049</v>
       </c>
@@ -8436,7 +8467,7 @@
       <c r="E64" s="57"/>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="133"/>
+      <c r="A65" s="134"/>
       <c r="B65" s="83">
         <f>B64</f>
         <v>43049</v>
@@ -8446,28 +8477,28 @@
       <c r="E65" s="57"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="133"/>
+      <c r="A66" s="134"/>
       <c r="B66" s="83"/>
       <c r="C66" s="50"/>
       <c r="D66" s="56"/>
       <c r="E66" s="57"/>
     </row>
     <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="133"/>
+      <c r="A67" s="134"/>
       <c r="B67" s="82"/>
       <c r="C67" s="50"/>
       <c r="D67" s="56"/>
       <c r="E67" s="57"/>
     </row>
     <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A68" s="133"/>
+      <c r="A68" s="134"/>
       <c r="B68" s="84"/>
       <c r="C68" s="55"/>
       <c r="D68" s="56"/>
       <c r="E68" s="57"/>
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="134" t="s">
+      <c r="A69" s="135" t="s">
         <v>45</v>
       </c>
       <c r="B69" s="76"/>
@@ -8476,21 +8507,21 @@
       <c r="E69" s="49"/>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="135"/>
+      <c r="A70" s="136"/>
       <c r="B70" s="70"/>
       <c r="C70" s="50"/>
       <c r="D70" s="89"/>
       <c r="E70" s="52"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="135"/>
+      <c r="A71" s="136"/>
       <c r="B71" s="70"/>
       <c r="C71" s="50"/>
       <c r="D71" s="89"/>
       <c r="E71" s="52"/>
     </row>
     <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="135"/>
+      <c r="A72" s="136"/>
       <c r="B72" s="71">
         <v>43053</v>
       </c>
@@ -8499,7 +8530,7 @@
       <c r="E72" s="52"/>
     </row>
     <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="135"/>
+      <c r="A73" s="136"/>
       <c r="B73" s="72">
         <f>B72</f>
         <v>43053</v>
@@ -8509,49 +8540,49 @@
       <c r="E73" s="57"/>
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="135"/>
+      <c r="A74" s="136"/>
       <c r="B74" s="72"/>
       <c r="C74" s="50"/>
       <c r="D74" s="90"/>
       <c r="E74" s="57"/>
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="135"/>
+      <c r="A75" s="136"/>
       <c r="B75" s="71"/>
       <c r="C75" s="50"/>
       <c r="D75" s="90"/>
       <c r="E75" s="57"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="135"/>
+      <c r="A76" s="136"/>
       <c r="B76" s="69"/>
       <c r="C76" s="55"/>
       <c r="D76" s="90"/>
       <c r="E76" s="57"/>
     </row>
     <row r="77" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="135"/>
+      <c r="A77" s="136"/>
       <c r="B77" s="70"/>
       <c r="C77" s="78"/>
       <c r="D77" s="89"/>
       <c r="E77" s="52"/>
     </row>
     <row r="78" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="135"/>
+      <c r="A78" s="136"/>
       <c r="B78" s="70"/>
       <c r="C78" s="75"/>
       <c r="D78" s="91"/>
       <c r="E78" s="54"/>
     </row>
     <row r="79" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="135"/>
+      <c r="A79" s="136"/>
       <c r="B79" s="70"/>
       <c r="C79" s="73"/>
       <c r="D79" s="91"/>
       <c r="E79" s="54"/>
     </row>
     <row r="80" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="135"/>
+      <c r="A80" s="136"/>
       <c r="B80" s="71">
         <v>43056</v>
       </c>
@@ -8560,7 +8591,7 @@
       <c r="E80" s="52"/>
     </row>
     <row r="81" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="135"/>
+      <c r="A81" s="136"/>
       <c r="B81" s="72">
         <f>B80</f>
         <v>43056</v>
@@ -8570,49 +8601,49 @@
       <c r="E81" s="52"/>
     </row>
     <row r="82" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="135"/>
+      <c r="A82" s="136"/>
       <c r="B82" s="72"/>
       <c r="C82" s="50"/>
       <c r="D82" s="89"/>
       <c r="E82" s="52"/>
     </row>
     <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="135"/>
+      <c r="A83" s="136"/>
       <c r="B83" s="71"/>
       <c r="C83" s="50"/>
       <c r="D83" s="89"/>
       <c r="E83" s="52"/>
     </row>
     <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="135"/>
+      <c r="A84" s="136"/>
       <c r="B84" s="70"/>
       <c r="C84" s="55"/>
       <c r="D84" s="90"/>
       <c r="E84" s="57"/>
     </row>
     <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="135"/>
+      <c r="A85" s="136"/>
       <c r="B85" s="68"/>
       <c r="C85" s="73"/>
       <c r="D85" s="89"/>
       <c r="E85" s="52"/>
     </row>
     <row r="86" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="135"/>
+      <c r="A86" s="136"/>
       <c r="B86" s="70"/>
       <c r="C86" s="73"/>
       <c r="D86" s="91"/>
       <c r="E86" s="54"/>
     </row>
     <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A87" s="135"/>
+      <c r="A87" s="136"/>
       <c r="B87" s="70"/>
       <c r="C87" s="73"/>
       <c r="D87" s="91"/>
       <c r="E87" s="54"/>
     </row>
     <row r="88" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A88" s="135"/>
+      <c r="A88" s="136"/>
       <c r="B88" s="71">
         <v>43060</v>
       </c>
@@ -8621,7 +8652,7 @@
       <c r="E88" s="52"/>
     </row>
     <row r="89" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A89" s="135"/>
+      <c r="A89" s="136"/>
       <c r="B89" s="72">
         <f>B88</f>
         <v>43060</v>
@@ -8631,49 +8662,49 @@
       <c r="E89" s="52"/>
     </row>
     <row r="90" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A90" s="135"/>
+      <c r="A90" s="136"/>
       <c r="B90" s="72"/>
       <c r="C90" s="50"/>
       <c r="D90" s="89"/>
       <c r="E90" s="52"/>
     </row>
     <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="135"/>
+      <c r="A91" s="136"/>
       <c r="B91" s="71"/>
       <c r="C91" s="50"/>
       <c r="D91" s="89"/>
       <c r="E91" s="52"/>
     </row>
     <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A92" s="135"/>
+      <c r="A92" s="136"/>
       <c r="B92" s="69"/>
       <c r="C92" s="55"/>
       <c r="D92" s="89"/>
       <c r="E92" s="52"/>
     </row>
     <row r="93" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A93" s="135"/>
+      <c r="A93" s="136"/>
       <c r="B93" s="70"/>
       <c r="C93" s="73"/>
       <c r="D93" s="89"/>
       <c r="E93" s="54"/>
     </row>
     <row r="94" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A94" s="135"/>
+      <c r="A94" s="136"/>
       <c r="B94" s="70"/>
       <c r="C94" s="75"/>
       <c r="D94" s="89"/>
       <c r="E94" s="54"/>
     </row>
     <row r="95" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A95" s="135"/>
+      <c r="A95" s="136"/>
       <c r="B95" s="70"/>
       <c r="C95" s="75"/>
       <c r="D95" s="89"/>
       <c r="E95" s="54"/>
     </row>
     <row r="96" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A96" s="135"/>
+      <c r="A96" s="136"/>
       <c r="B96" s="71">
         <v>43063</v>
       </c>
@@ -8682,7 +8713,7 @@
       <c r="E96" s="52"/>
     </row>
     <row r="97" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A97" s="135"/>
+      <c r="A97" s="136"/>
       <c r="B97" s="72">
         <f>B96</f>
         <v>43063</v>
@@ -8692,49 +8723,49 @@
       <c r="E97" s="52"/>
     </row>
     <row r="98" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A98" s="135"/>
+      <c r="A98" s="136"/>
       <c r="B98" s="72"/>
       <c r="C98" s="50"/>
       <c r="D98" s="89"/>
       <c r="E98" s="52"/>
     </row>
     <row r="99" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A99" s="135"/>
+      <c r="A99" s="136"/>
       <c r="B99" s="71"/>
       <c r="C99" s="50"/>
       <c r="D99" s="89"/>
       <c r="E99" s="52"/>
     </row>
     <row r="100" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A100" s="135"/>
+      <c r="A100" s="136"/>
       <c r="B100" s="69"/>
       <c r="C100" s="55"/>
       <c r="D100" s="89"/>
       <c r="E100" s="52"/>
     </row>
     <row r="101" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A101" s="135"/>
+      <c r="A101" s="136"/>
       <c r="B101" s="70"/>
       <c r="C101" s="78"/>
       <c r="D101" s="89"/>
       <c r="E101" s="54"/>
     </row>
     <row r="102" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A102" s="135"/>
+      <c r="A102" s="136"/>
       <c r="B102" s="70"/>
       <c r="C102" s="75"/>
       <c r="D102" s="89"/>
       <c r="E102" s="52"/>
     </row>
     <row r="103" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A103" s="135"/>
+      <c r="A103" s="136"/>
       <c r="B103" s="70"/>
       <c r="C103" s="75"/>
       <c r="D103" s="89"/>
       <c r="E103" s="52"/>
     </row>
     <row r="104" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A104" s="135"/>
+      <c r="A104" s="136"/>
       <c r="B104" s="71">
         <v>43067</v>
       </c>
@@ -8743,7 +8774,7 @@
       <c r="E104" s="52"/>
     </row>
     <row r="105" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A105" s="135"/>
+      <c r="A105" s="136"/>
       <c r="B105" s="72">
         <f>B104</f>
         <v>43067</v>
@@ -8753,49 +8784,49 @@
       <c r="E105" s="52"/>
     </row>
     <row r="106" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A106" s="135"/>
+      <c r="A106" s="136"/>
       <c r="B106" s="72"/>
       <c r="C106" s="50"/>
       <c r="D106" s="89"/>
       <c r="E106" s="52"/>
     </row>
     <row r="107" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A107" s="135"/>
+      <c r="A107" s="136"/>
       <c r="B107" s="71"/>
       <c r="C107" s="50"/>
       <c r="D107" s="89"/>
       <c r="E107" s="52"/>
     </row>
     <row r="108" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A108" s="135"/>
+      <c r="A108" s="136"/>
       <c r="B108" s="69"/>
       <c r="C108" s="55"/>
       <c r="D108" s="51"/>
       <c r="E108" s="52"/>
     </row>
     <row r="109" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A109" s="135"/>
+      <c r="A109" s="136"/>
       <c r="B109" s="70"/>
       <c r="C109" s="73"/>
       <c r="D109" s="91"/>
       <c r="E109" s="54"/>
     </row>
     <row r="110" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A110" s="135"/>
+      <c r="A110" s="136"/>
       <c r="B110" s="70"/>
       <c r="C110" s="75"/>
       <c r="D110" s="89"/>
       <c r="E110" s="54"/>
     </row>
     <row r="111" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A111" s="135"/>
+      <c r="A111" s="136"/>
       <c r="B111" s="70"/>
       <c r="C111" s="75"/>
       <c r="D111" s="89"/>
       <c r="E111" s="54"/>
     </row>
     <row r="112" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A112" s="135"/>
+      <c r="A112" s="136"/>
       <c r="B112" s="71">
         <v>43070</v>
       </c>
@@ -8804,7 +8835,7 @@
       <c r="E112" s="52"/>
     </row>
     <row r="113" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A113" s="135"/>
+      <c r="A113" s="136"/>
       <c r="B113" s="72">
         <f>B112</f>
         <v>43070</v>
@@ -8814,49 +8845,49 @@
       <c r="E113" s="52"/>
     </row>
     <row r="114" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A114" s="135"/>
+      <c r="A114" s="136"/>
       <c r="B114" s="72"/>
       <c r="C114" s="50"/>
       <c r="D114" s="89"/>
       <c r="E114" s="52"/>
     </row>
     <row r="115" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A115" s="135"/>
+      <c r="A115" s="136"/>
       <c r="B115" s="71"/>
       <c r="C115" s="50"/>
       <c r="D115" s="89"/>
       <c r="E115" s="52"/>
     </row>
     <row r="116" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A116" s="135"/>
+      <c r="A116" s="136"/>
       <c r="B116" s="69"/>
       <c r="C116" s="55"/>
       <c r="D116" s="89"/>
       <c r="E116" s="52"/>
     </row>
     <row r="117" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A117" s="135"/>
+      <c r="A117" s="136"/>
       <c r="B117" s="70"/>
       <c r="C117" s="73"/>
       <c r="D117" s="89"/>
       <c r="E117" s="52"/>
     </row>
     <row r="118" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A118" s="135"/>
+      <c r="A118" s="136"/>
       <c r="B118" s="70"/>
       <c r="C118" s="75"/>
       <c r="D118" s="89"/>
       <c r="E118" s="52"/>
     </row>
     <row r="119" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A119" s="135"/>
+      <c r="A119" s="136"/>
       <c r="B119" s="70"/>
       <c r="C119" s="75"/>
       <c r="D119" s="89"/>
       <c r="E119" s="52"/>
     </row>
     <row r="120" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A120" s="135"/>
+      <c r="A120" s="136"/>
       <c r="B120" s="71">
         <v>43074</v>
       </c>
@@ -8865,7 +8896,7 @@
       <c r="E120" s="52"/>
     </row>
     <row r="121" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A121" s="135"/>
+      <c r="A121" s="136"/>
       <c r="B121" s="72">
         <f>B120</f>
         <v>43074</v>
@@ -8875,49 +8906,49 @@
       <c r="E121" s="52"/>
     </row>
     <row r="122" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A122" s="135"/>
+      <c r="A122" s="136"/>
       <c r="B122" s="72"/>
       <c r="C122" s="50"/>
       <c r="D122" s="89"/>
       <c r="E122" s="52"/>
     </row>
     <row r="123" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A123" s="135"/>
+      <c r="A123" s="136"/>
       <c r="B123" s="71"/>
       <c r="C123" s="50"/>
       <c r="D123" s="89"/>
       <c r="E123" s="52"/>
     </row>
     <row r="124" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A124" s="135"/>
+      <c r="A124" s="136"/>
       <c r="B124" s="69"/>
       <c r="C124" s="55"/>
       <c r="D124" s="89"/>
       <c r="E124" s="52"/>
     </row>
     <row r="125" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A125" s="135"/>
+      <c r="A125" s="136"/>
       <c r="B125" s="70"/>
       <c r="C125" s="73"/>
       <c r="D125" s="89"/>
       <c r="E125" s="52"/>
     </row>
     <row r="126" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A126" s="135"/>
+      <c r="A126" s="136"/>
       <c r="B126" s="70"/>
       <c r="C126" s="75"/>
       <c r="D126" s="89"/>
       <c r="E126" s="52"/>
     </row>
     <row r="127" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A127" s="135"/>
+      <c r="A127" s="136"/>
       <c r="B127" s="70"/>
       <c r="C127" s="75"/>
       <c r="D127" s="89"/>
       <c r="E127" s="52"/>
     </row>
     <row r="128" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A128" s="135"/>
+      <c r="A128" s="136"/>
       <c r="B128" s="71">
         <v>43077</v>
       </c>
@@ -8926,7 +8957,7 @@
       <c r="E128" s="52"/>
     </row>
     <row r="129" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A129" s="135"/>
+      <c r="A129" s="136"/>
       <c r="B129" s="72">
         <f>B128</f>
         <v>43077</v>
@@ -8936,28 +8967,28 @@
       <c r="E129" s="52"/>
     </row>
     <row r="130" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A130" s="135"/>
+      <c r="A130" s="136"/>
       <c r="B130" s="72"/>
       <c r="C130" s="50"/>
       <c r="D130" s="89"/>
       <c r="E130" s="52"/>
     </row>
     <row r="131" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A131" s="135"/>
+      <c r="A131" s="136"/>
       <c r="B131" s="71"/>
       <c r="C131" s="50"/>
       <c r="D131" s="89"/>
       <c r="E131" s="52"/>
     </row>
     <row r="132" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A132" s="135"/>
+      <c r="A132" s="136"/>
       <c r="B132" s="69"/>
       <c r="C132" s="55"/>
       <c r="D132" s="89"/>
       <c r="E132" s="52"/>
     </row>
     <row r="133" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A133" s="135"/>
+      <c r="A133" s="136"/>
       <c r="B133" s="81"/>
       <c r="C133" s="78" t="s">
         <v>42</v>
@@ -8966,7 +8997,7 @@
       <c r="E133" s="52"/>
     </row>
     <row r="134" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A134" s="135"/>
+      <c r="A134" s="136"/>
       <c r="B134" s="81"/>
       <c r="C134" s="75" t="s">
         <v>40</v>
@@ -8975,14 +9006,14 @@
       <c r="E134" s="52"/>
     </row>
     <row r="135" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A135" s="135"/>
+      <c r="A135" s="136"/>
       <c r="B135" s="81"/>
       <c r="C135" s="75"/>
       <c r="D135" s="89"/>
       <c r="E135" s="52"/>
     </row>
     <row r="136" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A136" s="135"/>
+      <c r="A136" s="136"/>
       <c r="B136" s="82">
         <v>43081</v>
       </c>
@@ -8991,7 +9022,7 @@
       <c r="E136" s="52"/>
     </row>
     <row r="137" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A137" s="135"/>
+      <c r="A137" s="136"/>
       <c r="B137" s="83">
         <f>B136</f>
         <v>43081</v>
@@ -9001,28 +9032,28 @@
       <c r="E137" s="52"/>
     </row>
     <row r="138" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A138" s="135"/>
+      <c r="A138" s="136"/>
       <c r="B138" s="83"/>
       <c r="C138" s="50"/>
       <c r="D138" s="89"/>
       <c r="E138" s="52"/>
     </row>
     <row r="139" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A139" s="135"/>
+      <c r="A139" s="136"/>
       <c r="B139" s="82"/>
       <c r="C139" s="50"/>
       <c r="D139" s="89"/>
       <c r="E139" s="52"/>
     </row>
     <row r="140" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A140" s="135"/>
+      <c r="A140" s="136"/>
       <c r="B140" s="84"/>
       <c r="C140" s="55"/>
       <c r="D140" s="89"/>
       <c r="E140" s="52"/>
     </row>
     <row r="141" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A141" s="135"/>
+      <c r="A141" s="136"/>
       <c r="B141" s="81"/>
       <c r="C141" s="78" t="s">
         <v>42</v>
@@ -9031,7 +9062,7 @@
       <c r="E141" s="52"/>
     </row>
     <row r="142" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A142" s="135"/>
+      <c r="A142" s="136"/>
       <c r="B142" s="81"/>
       <c r="C142" s="75" t="s">
         <v>40</v>
@@ -9040,14 +9071,14 @@
       <c r="E142" s="52"/>
     </row>
     <row r="143" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A143" s="135"/>
+      <c r="A143" s="136"/>
       <c r="B143" s="81"/>
       <c r="C143" s="75"/>
       <c r="D143" s="89"/>
       <c r="E143" s="52"/>
     </row>
     <row r="144" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A144" s="135"/>
+      <c r="A144" s="136"/>
       <c r="B144" s="82">
         <v>43084</v>
       </c>
@@ -9056,7 +9087,7 @@
       <c r="E144" s="52"/>
     </row>
     <row r="145" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A145" s="135"/>
+      <c r="A145" s="136"/>
       <c r="B145" s="83">
         <f>B144</f>
         <v>43084</v>
@@ -9066,28 +9097,28 @@
       <c r="E145" s="52"/>
     </row>
     <row r="146" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A146" s="135"/>
+      <c r="A146" s="136"/>
       <c r="B146" s="83"/>
       <c r="C146" s="50"/>
       <c r="D146" s="89"/>
       <c r="E146" s="52"/>
     </row>
     <row r="147" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A147" s="135"/>
+      <c r="A147" s="136"/>
       <c r="B147" s="82"/>
       <c r="C147" s="50"/>
       <c r="D147" s="89"/>
       <c r="E147" s="52"/>
     </row>
     <row r="148" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A148" s="136"/>
+      <c r="A148" s="137"/>
       <c r="B148" s="94"/>
       <c r="C148" s="58"/>
       <c r="D148" s="92"/>
       <c r="E148" s="59"/>
     </row>
     <row r="149" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A149" s="137" t="s">
+      <c r="A149" s="138" t="s">
         <v>47</v>
       </c>
       <c r="B149" s="76"/>
@@ -9096,21 +9127,21 @@
       <c r="E149" s="49"/>
     </row>
     <row r="150" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A150" s="138"/>
+      <c r="A150" s="139"/>
       <c r="B150" s="70"/>
       <c r="C150" s="75"/>
       <c r="D150" s="89"/>
       <c r="E150" s="52"/>
     </row>
     <row r="151" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A151" s="138"/>
+      <c r="A151" s="139"/>
       <c r="B151" s="70"/>
       <c r="C151" s="75"/>
       <c r="D151" s="89"/>
       <c r="E151" s="52"/>
     </row>
     <row r="152" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A152" s="138"/>
+      <c r="A152" s="139"/>
       <c r="B152" s="71">
         <v>43088</v>
       </c>
@@ -9119,7 +9150,7 @@
       <c r="E152" s="52"/>
     </row>
     <row r="153" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A153" s="138"/>
+      <c r="A153" s="139"/>
       <c r="B153" s="72">
         <f>B152</f>
         <v>43088</v>
@@ -9129,49 +9160,49 @@
       <c r="E153" s="52"/>
     </row>
     <row r="154" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A154" s="138"/>
+      <c r="A154" s="139"/>
       <c r="B154" s="72"/>
       <c r="C154" s="50"/>
       <c r="D154" s="89"/>
       <c r="E154" s="52"/>
     </row>
     <row r="155" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A155" s="138"/>
+      <c r="A155" s="139"/>
       <c r="B155" s="71"/>
       <c r="C155" s="50"/>
       <c r="D155" s="89"/>
       <c r="E155" s="52"/>
     </row>
     <row r="156" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A156" s="138"/>
+      <c r="A156" s="139"/>
       <c r="B156" s="69"/>
       <c r="C156" s="60"/>
       <c r="D156" s="89"/>
       <c r="E156" s="52"/>
     </row>
     <row r="157" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A157" s="138"/>
+      <c r="A157" s="139"/>
       <c r="B157" s="70"/>
       <c r="C157" s="75"/>
       <c r="D157" s="91"/>
       <c r="E157" s="54"/>
     </row>
     <row r="158" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A158" s="138"/>
+      <c r="A158" s="139"/>
       <c r="B158" s="65"/>
       <c r="C158" s="75"/>
       <c r="D158" s="91"/>
       <c r="E158" s="54"/>
     </row>
     <row r="159" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A159" s="138"/>
+      <c r="A159" s="139"/>
       <c r="B159" s="65"/>
       <c r="C159" s="50"/>
       <c r="D159" s="91"/>
       <c r="E159" s="54"/>
     </row>
     <row r="160" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A160" s="138"/>
+      <c r="A160" s="139"/>
       <c r="B160" s="71">
         <v>43091</v>
       </c>
@@ -9180,7 +9211,7 @@
       <c r="E160" s="52"/>
     </row>
     <row r="161" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A161" s="138"/>
+      <c r="A161" s="139"/>
       <c r="B161" s="77">
         <f>B160</f>
         <v>43091</v>
@@ -9190,49 +9221,49 @@
       <c r="E161" s="52"/>
     </row>
     <row r="162" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A162" s="138"/>
+      <c r="A162" s="139"/>
       <c r="B162" s="77"/>
       <c r="C162" s="50"/>
       <c r="D162" s="89"/>
       <c r="E162" s="52"/>
     </row>
     <row r="163" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A163" s="138"/>
+      <c r="A163" s="139"/>
       <c r="B163" s="66"/>
       <c r="C163" s="50"/>
       <c r="D163" s="89"/>
       <c r="E163" s="52"/>
     </row>
     <row r="164" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A164" s="138"/>
+      <c r="A164" s="139"/>
       <c r="B164" s="67"/>
       <c r="C164" s="55"/>
       <c r="D164" s="89"/>
       <c r="E164" s="52"/>
     </row>
     <row r="165" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A165" s="138"/>
+      <c r="A165" s="139"/>
       <c r="B165" s="70"/>
       <c r="C165" s="75"/>
       <c r="D165" s="89"/>
       <c r="E165" s="54"/>
     </row>
     <row r="166" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A166" s="138"/>
+      <c r="A166" s="139"/>
       <c r="B166" s="70"/>
       <c r="C166" s="75"/>
       <c r="D166" s="89"/>
       <c r="E166" s="54"/>
     </row>
     <row r="167" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A167" s="138"/>
+      <c r="A167" s="139"/>
       <c r="B167" s="70"/>
       <c r="C167" s="75"/>
       <c r="D167" s="89"/>
       <c r="E167" s="54"/>
     </row>
     <row r="168" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A168" s="138"/>
+      <c r="A168" s="139"/>
       <c r="B168" s="71">
         <v>43105</v>
       </c>
@@ -9241,7 +9272,7 @@
       <c r="E168" s="54"/>
     </row>
     <row r="169" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A169" s="138"/>
+      <c r="A169" s="139"/>
       <c r="B169" s="72">
         <f>B168</f>
         <v>43105</v>
@@ -9251,49 +9282,49 @@
       <c r="E169" s="54"/>
     </row>
     <row r="170" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A170" s="138"/>
+      <c r="A170" s="139"/>
       <c r="B170" s="72"/>
       <c r="C170" s="50"/>
       <c r="D170" s="89"/>
       <c r="E170" s="54"/>
     </row>
     <row r="171" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A171" s="138"/>
+      <c r="A171" s="139"/>
       <c r="B171" s="71"/>
       <c r="C171" s="50"/>
       <c r="D171" s="89"/>
       <c r="E171" s="54"/>
     </row>
     <row r="172" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A172" s="138"/>
+      <c r="A172" s="139"/>
       <c r="B172" s="69"/>
       <c r="C172" s="55"/>
       <c r="D172" s="89"/>
       <c r="E172" s="54"/>
     </row>
     <row r="173" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A173" s="138"/>
+      <c r="A173" s="139"/>
       <c r="B173" s="70"/>
       <c r="C173" s="73"/>
       <c r="D173" s="89"/>
       <c r="E173" s="54"/>
     </row>
     <row r="174" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A174" s="138"/>
+      <c r="A174" s="139"/>
       <c r="B174" s="70"/>
       <c r="C174" s="75"/>
       <c r="D174" s="89"/>
       <c r="E174" s="54"/>
     </row>
     <row r="175" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A175" s="138"/>
+      <c r="A175" s="139"/>
       <c r="B175" s="70"/>
       <c r="C175" s="75"/>
       <c r="D175" s="89"/>
       <c r="E175" s="54"/>
     </row>
     <row r="176" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A176" s="138"/>
+      <c r="A176" s="139"/>
       <c r="B176" s="71">
         <v>43109</v>
       </c>
@@ -9302,7 +9333,7 @@
       <c r="E176" s="54"/>
     </row>
     <row r="177" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A177" s="138"/>
+      <c r="A177" s="139"/>
       <c r="B177" s="72">
         <f>B176</f>
         <v>43109</v>
@@ -9312,49 +9343,49 @@
       <c r="E177" s="54"/>
     </row>
     <row r="178" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A178" s="138"/>
+      <c r="A178" s="139"/>
       <c r="B178" s="72"/>
       <c r="C178" s="50"/>
       <c r="D178" s="89"/>
       <c r="E178" s="54"/>
     </row>
     <row r="179" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A179" s="138"/>
+      <c r="A179" s="139"/>
       <c r="B179" s="71"/>
       <c r="C179" s="50"/>
       <c r="D179" s="89"/>
       <c r="E179" s="54"/>
     </row>
     <row r="180" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A180" s="138"/>
+      <c r="A180" s="139"/>
       <c r="B180" s="69"/>
       <c r="C180" s="55"/>
       <c r="D180" s="89"/>
       <c r="E180" s="54"/>
     </row>
     <row r="181" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A181" s="138"/>
+      <c r="A181" s="139"/>
       <c r="B181" s="70"/>
       <c r="C181" s="75"/>
       <c r="D181" s="89"/>
       <c r="E181" s="54"/>
     </row>
     <row r="182" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A182" s="138"/>
+      <c r="A182" s="139"/>
       <c r="B182" s="70"/>
       <c r="C182" s="75"/>
       <c r="D182" s="89"/>
       <c r="E182" s="54"/>
     </row>
     <row r="183" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A183" s="138"/>
+      <c r="A183" s="139"/>
       <c r="B183" s="70"/>
       <c r="C183" s="75"/>
       <c r="D183" s="89"/>
       <c r="E183" s="54"/>
     </row>
     <row r="184" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A184" s="138"/>
+      <c r="A184" s="139"/>
       <c r="B184" s="71">
         <v>43112</v>
       </c>
@@ -9363,7 +9394,7 @@
       <c r="E184" s="54"/>
     </row>
     <row r="185" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A185" s="138"/>
+      <c r="A185" s="139"/>
       <c r="B185" s="72">
         <f>B184</f>
         <v>43112</v>
@@ -9373,28 +9404,28 @@
       <c r="E185" s="54"/>
     </row>
     <row r="186" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A186" s="138"/>
+      <c r="A186" s="139"/>
       <c r="B186" s="72"/>
       <c r="C186" s="50"/>
       <c r="D186" s="89"/>
       <c r="E186" s="54"/>
     </row>
     <row r="187" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A187" s="138"/>
+      <c r="A187" s="139"/>
       <c r="B187" s="71"/>
       <c r="C187" s="50"/>
       <c r="D187" s="89"/>
       <c r="E187" s="54"/>
     </row>
     <row r="188" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A188" s="138"/>
+      <c r="A188" s="139"/>
       <c r="B188" s="69"/>
       <c r="C188" s="55"/>
       <c r="D188" s="89"/>
       <c r="E188" s="54"/>
     </row>
     <row r="189" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A189" s="138"/>
+      <c r="A189" s="139"/>
       <c r="B189" s="95"/>
       <c r="C189" s="75" t="s">
         <v>48</v>
@@ -9403,7 +9434,7 @@
       <c r="E189" s="54"/>
     </row>
     <row r="190" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A190" s="138"/>
+      <c r="A190" s="139"/>
       <c r="B190" s="96"/>
       <c r="C190" s="75" t="s">
         <v>40</v>
@@ -9412,14 +9443,14 @@
       <c r="E190" s="54"/>
     </row>
     <row r="191" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A191" s="138"/>
+      <c r="A191" s="139"/>
       <c r="B191" s="96"/>
       <c r="C191" s="75"/>
       <c r="D191" s="89"/>
       <c r="E191" s="54"/>
     </row>
     <row r="192" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A192" s="138"/>
+      <c r="A192" s="139"/>
       <c r="B192" s="82">
         <v>43116</v>
       </c>
@@ -9428,7 +9459,7 @@
       <c r="E192" s="52"/>
     </row>
     <row r="193" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A193" s="138"/>
+      <c r="A193" s="139"/>
       <c r="B193" s="97">
         <f>B192</f>
         <v>43116</v>
@@ -9438,28 +9469,28 @@
       <c r="E193" s="52"/>
     </row>
     <row r="194" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A194" s="138"/>
+      <c r="A194" s="139"/>
       <c r="B194" s="97"/>
       <c r="C194" s="50"/>
       <c r="D194" s="89"/>
       <c r="E194" s="52"/>
     </row>
     <row r="195" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A195" s="138"/>
+      <c r="A195" s="139"/>
       <c r="B195" s="98"/>
       <c r="C195" s="50"/>
       <c r="D195" s="89"/>
       <c r="E195" s="52"/>
     </row>
     <row r="196" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A196" s="138"/>
+      <c r="A196" s="139"/>
       <c r="B196" s="84"/>
       <c r="C196" s="55"/>
       <c r="D196" s="89"/>
       <c r="E196" s="52"/>
     </row>
     <row r="197" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A197" s="138"/>
+      <c r="A197" s="139"/>
       <c r="B197" s="95"/>
       <c r="C197" s="75" t="s">
         <v>48</v>
@@ -9468,7 +9499,7 @@
       <c r="E197" s="54"/>
     </row>
     <row r="198" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A198" s="138"/>
+      <c r="A198" s="139"/>
       <c r="B198" s="96"/>
       <c r="C198" s="75" t="s">
         <v>40</v>
@@ -9477,14 +9508,14 @@
       <c r="E198" s="54"/>
     </row>
     <row r="199" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A199" s="138"/>
+      <c r="A199" s="139"/>
       <c r="B199" s="96"/>
       <c r="C199" s="50"/>
       <c r="D199" s="89"/>
       <c r="E199" s="54"/>
     </row>
     <row r="200" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A200" s="138"/>
+      <c r="A200" s="139"/>
       <c r="B200" s="82">
         <v>43119</v>
       </c>
@@ -9493,7 +9524,7 @@
       <c r="E200" s="54"/>
     </row>
     <row r="201" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A201" s="138"/>
+      <c r="A201" s="139"/>
       <c r="B201" s="97">
         <f>B200</f>
         <v>43119</v>
@@ -9503,21 +9534,21 @@
       <c r="E201" s="54"/>
     </row>
     <row r="202" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A202" s="138"/>
+      <c r="A202" s="139"/>
       <c r="B202" s="97"/>
       <c r="C202" s="50"/>
       <c r="D202" s="89"/>
       <c r="E202" s="54"/>
     </row>
     <row r="203" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A203" s="138"/>
+      <c r="A203" s="139"/>
       <c r="B203" s="98"/>
       <c r="C203" s="50"/>
       <c r="D203" s="89"/>
       <c r="E203" s="54"/>
     </row>
     <row r="204" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A204" s="139"/>
+      <c r="A204" s="140"/>
       <c r="B204" s="94"/>
       <c r="C204" s="58"/>
       <c r="D204" s="92"/>
@@ -9536,7 +9567,7 @@
     <row r="207" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A207" s="64"/>
       <c r="B207" s="61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C207" s="62"/>
     </row>
@@ -9607,10 +9638,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF188"/>
+  <dimension ref="A1:AE188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9623,64 +9654,63 @@
     <col min="7" max="8" width="6.875" style="120" customWidth="1"/>
     <col min="9" max="9" width="6.75" style="121" customWidth="1"/>
     <col min="10" max="13" width="4.75" style="128" customWidth="1"/>
-    <col min="14" max="17" width="4.625" style="128" customWidth="1"/>
-    <col min="18" max="18" width="2.875" style="113" customWidth="1"/>
-    <col min="19" max="28" width="9" style="113"/>
-    <col min="29" max="29" width="14.25" style="113" customWidth="1"/>
-    <col min="30" max="30" width="4.75" style="113" customWidth="1"/>
-    <col min="31" max="31" width="3.75" style="113" customWidth="1"/>
-    <col min="32" max="16384" width="9" style="113"/>
+    <col min="14" max="16" width="4.625" style="128" customWidth="1"/>
+    <col min="17" max="17" width="2.875" style="113" customWidth="1"/>
+    <col min="18" max="27" width="9" style="113"/>
+    <col min="28" max="28" width="14.25" style="113" customWidth="1"/>
+    <col min="29" max="29" width="4.75" style="113" customWidth="1"/>
+    <col min="30" max="30" width="3.75" style="113" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="113"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="100" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="143" t="s">
+    <row r="1" spans="1:31" s="100" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="143" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="143" t="s">
+      <c r="C1" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="146" t="s">
+      <c r="E1" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="146" t="s">
+      <c r="F1" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="147" t="s">
+      <c r="G1" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="147" t="s">
+      <c r="H1" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="143" t="s">
+      <c r="I1" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="140" t="s">
+      <c r="J1" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="142"/>
-      <c r="P1" s="142"/>
-      <c r="Q1" s="142"/>
-    </row>
-    <row r="2" spans="1:32" s="100" customFormat="1">
-      <c r="A2" s="143"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="143"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="143"/>
+      <c r="P1" s="143"/>
+    </row>
+    <row r="2" spans="1:31" s="100" customFormat="1">
+      <c r="A2" s="144"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="144"/>
       <c r="J2" s="101" t="s">
         <v>49</v>
       </c>
@@ -9696,99 +9726,94 @@
       <c r="N2" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="101" t="s">
+      <c r="O2" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q2" s="102" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" s="100" customFormat="1">
-      <c r="A3" s="143"/>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="143"/>
+    </row>
+    <row r="3" spans="1:31" s="100" customFormat="1">
+      <c r="A3" s="144"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="144"/>
       <c r="J3" s="103">
-        <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$Q$2))))</f>
-        <v>154</v>
+        <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
+        <v>188</v>
       </c>
       <c r="K3" s="103">
-        <f t="shared" ref="K3:Q3" si="0">INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$Q$2))))</f>
+        <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
+        <v>161</v>
+      </c>
+      <c r="L3" s="103">
+        <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
         <v>134</v>
       </c>
-      <c r="L3" s="103">
+      <c r="M3" s="103">
+        <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
+        <v>107</v>
+      </c>
+      <c r="N3" s="103">
+        <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
+        <v>80</v>
+      </c>
+      <c r="O3" s="103">
+        <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
+        <v>53</v>
+      </c>
+      <c r="P3" s="103">
+        <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" s="100" customFormat="1">
+      <c r="A4" s="144"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="104">
+        <f>SUM(J5:J157)</f>
+        <v>188</v>
+      </c>
+      <c r="K4" s="104">
+        <f t="shared" ref="K4:N4" si="0">SUM(K5:K157)</f>
+        <v>157</v>
+      </c>
+      <c r="L4" s="104">
         <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-      <c r="M3" s="103">
+        <v>118.5</v>
+      </c>
+      <c r="M4" s="104">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="N3" s="103">
+      <c r="N4" s="104">
         <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="O3" s="103">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="P3" s="103">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="Q3" s="103">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" s="100" customFormat="1">
-      <c r="A4" s="143"/>
-      <c r="B4" s="144"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="104">
-        <f>SUM(J5:J104)</f>
-        <v>154</v>
-      </c>
-      <c r="K4" s="104">
-        <f>SUM(K5:K104)</f>
-        <v>127</v>
-      </c>
-      <c r="L4" s="104">
-        <f>SUM(L5:L104)</f>
-        <v>108</v>
-      </c>
-      <c r="M4" s="104">
-        <f>SUM(M5:M104)</f>
-        <v>91</v>
-      </c>
-      <c r="N4" s="104"/>
+        <v>68</v>
+      </c>
       <c r="O4" s="104"/>
       <c r="P4" s="104"/>
-      <c r="Q4" s="104"/>
-    </row>
-    <row r="5" spans="1:32">
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" s="105">
         <v>1</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="107" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D5" s="108" t="str">
         <f t="shared" ref="D5:D68" si="1">IF(ISBLANK($B5),"",IF(ISBLANK($F5),"未着手",IF($I5=0,"完了","作業中")))</f>
@@ -9803,7 +9828,7 @@
       </c>
       <c r="H5" s="110"/>
       <c r="I5" s="111">
-        <f t="shared" ref="I5:I56" ca="1" si="2">IF(ISBLANK(J5)=FALSE,OFFSET(I5,0,COUNTA(J5:Q5)),"")</f>
+        <f ca="1">IF(ISBLANK(J5)=FALSE,OFFSET(I5,0,COUNTA(J5:P5)),"")</f>
         <v>3</v>
       </c>
       <c r="J5" s="112">
@@ -9818,20 +9843,21 @@
       <c r="M5" s="112">
         <v>3</v>
       </c>
-      <c r="N5" s="112"/>
+      <c r="N5" s="112">
+        <v>3</v>
+      </c>
       <c r="O5" s="112"/>
       <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-    </row>
-    <row r="6" spans="1:32">
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" s="105">
         <v>2</v>
       </c>
-      <c r="B6" s="106" t="s">
-        <v>77</v>
+      <c r="B6" s="129" t="s">
+        <v>145</v>
       </c>
       <c r="C6" s="107" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D6" s="108" t="str">
         <f t="shared" si="1"/>
@@ -9846,7 +9872,7 @@
       </c>
       <c r="H6" s="110"/>
       <c r="I6" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J6)=FALSE,OFFSET(I6,0,COUNTA(J6:P6)),"")</f>
         <v>3</v>
       </c>
       <c r="J6" s="112">
@@ -9861,20 +9887,21 @@
       <c r="M6" s="112">
         <v>3</v>
       </c>
-      <c r="N6" s="112"/>
+      <c r="N6" s="112">
+        <v>3</v>
+      </c>
       <c r="O6" s="112"/>
       <c r="P6" s="112"/>
-      <c r="Q6" s="112"/>
-    </row>
-    <row r="7" spans="1:32">
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" s="105">
         <v>3</v>
       </c>
       <c r="B7" s="106" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="107" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D7" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -9893,7 +9920,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J7)=FALSE,OFFSET(I7,0,COUNTA(J7:P7)),"")</f>
         <v>0</v>
       </c>
       <c r="J7" s="112">
@@ -9908,20 +9935,21 @@
       <c r="M7" s="112">
         <v>0</v>
       </c>
-      <c r="N7" s="112"/>
+      <c r="N7" s="112">
+        <v>0</v>
+      </c>
       <c r="O7" s="112"/>
       <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-    </row>
-    <row r="8" spans="1:32">
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" s="105">
         <v>4</v>
       </c>
       <c r="B8" s="106" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C8" s="107" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D8" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -9940,7 +9968,7 @@
         <v>6</v>
       </c>
       <c r="I8" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J8)=FALSE,OFFSET(I8,0,COUNTA(J8:P8)),"")</f>
         <v>0</v>
       </c>
       <c r="J8" s="112">
@@ -9955,36 +9983,41 @@
       <c r="M8" s="22">
         <v>0</v>
       </c>
-      <c r="N8" s="112"/>
+      <c r="N8" s="22">
+        <v>0</v>
+      </c>
       <c r="O8" s="112"/>
       <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
-    </row>
-    <row r="9" spans="1:32">
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" s="105">
         <v>5</v>
       </c>
       <c r="B9" s="114" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C9" s="107" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D9" s="108" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($B9),"",IF(ISBLANK($F9),"未着手",IF($I9=0,"完了","作業中")))</f>
+        <v>完了</v>
       </c>
       <c r="E9" s="109">
         <v>43039</v>
       </c>
-      <c r="F9" s="109"/>
+      <c r="F9" s="109">
+        <v>43039</v>
+      </c>
       <c r="G9" s="110">
         <v>3</v>
       </c>
-      <c r="H9" s="110"/>
+      <c r="H9" s="110">
+        <v>1</v>
+      </c>
       <c r="I9" s="111">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f ca="1">IF(ISBLANK(J9)=FALSE,OFFSET(I9,0,COUNTA(J9:P9)),"")</f>
+        <v>0</v>
       </c>
       <c r="J9" s="112">
         <v>3</v>
@@ -9996,22 +10029,23 @@
         <v>3</v>
       </c>
       <c r="M9" s="112">
-        <v>3</v>
-      </c>
-      <c r="N9" s="112"/>
+        <v>1</v>
+      </c>
+      <c r="N9" s="112">
+        <v>0</v>
+      </c>
       <c r="O9" s="112"/>
       <c r="P9" s="112"/>
-      <c r="Q9" s="112"/>
-    </row>
-    <row r="10" spans="1:32">
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" s="105">
         <v>6</v>
       </c>
       <c r="B10" s="106" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C10" s="107" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D10" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -10030,7 +10064,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J10)=FALSE,OFFSET(I10,0,COUNTA(J10:P10)),"")</f>
         <v>0</v>
       </c>
       <c r="J10" s="112">
@@ -10042,23 +10076,24 @@
       <c r="L10" s="112">
         <v>0</v>
       </c>
-      <c r="M10" s="112">
-        <v>0</v>
-      </c>
-      <c r="N10" s="112"/>
+      <c r="M10" s="22">
+        <v>0</v>
+      </c>
+      <c r="N10" s="22">
+        <v>0</v>
+      </c>
       <c r="O10" s="112"/>
       <c r="P10" s="112"/>
-      <c r="Q10" s="112"/>
-    </row>
-    <row r="11" spans="1:32">
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" s="105">
         <v>7</v>
       </c>
       <c r="B11" s="114" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C11" s="107" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D11" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -10077,7 +10112,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J11)=FALSE,OFFSET(I11,0,COUNTA(J11:P11)),"")</f>
         <v>0</v>
       </c>
       <c r="J11" s="112">
@@ -10092,20 +10127,21 @@
       <c r="M11" s="112">
         <v>0</v>
       </c>
-      <c r="N11" s="112"/>
+      <c r="N11" s="112">
+        <v>0</v>
+      </c>
       <c r="O11" s="112"/>
       <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
-    </row>
-    <row r="12" spans="1:32">
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" s="105">
         <v>8</v>
       </c>
       <c r="B12" s="106" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C12" s="107" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D12" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -10124,7 +10160,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J12)=FALSE,OFFSET(I12,0,COUNTA(J12:P12)),"")</f>
         <v>0</v>
       </c>
       <c r="J12" s="112">
@@ -10139,20 +10175,21 @@
       <c r="M12" s="112">
         <v>0</v>
       </c>
-      <c r="N12" s="112"/>
+      <c r="N12" s="112">
+        <v>0</v>
+      </c>
       <c r="O12" s="112"/>
       <c r="P12" s="112"/>
-      <c r="Q12" s="112"/>
-    </row>
-    <row r="13" spans="1:32">
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" s="105">
         <v>9</v>
       </c>
       <c r="B13" s="106" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C13" s="107" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D13" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -10171,7 +10208,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J13)=FALSE,OFFSET(I13,0,COUNTA(J13:P13)),"")</f>
         <v>0</v>
       </c>
       <c r="J13" s="112">
@@ -10186,38 +10223,41 @@
       <c r="M13" s="112">
         <v>0</v>
       </c>
-      <c r="N13" s="112"/>
+      <c r="N13" s="112">
+        <v>0</v>
+      </c>
       <c r="O13" s="112"/>
       <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
-      <c r="AF13" s="113">
+      <c r="AE13" s="113">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:31">
       <c r="A14" s="105">
         <v>10</v>
       </c>
-      <c r="B14" s="106" t="s">
-        <v>124</v>
+      <c r="B14" s="129" t="s">
+        <v>146</v>
       </c>
       <c r="C14" s="107" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D14" s="108" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
       </c>
       <c r="E14" s="109">
         <v>43039</v>
       </c>
-      <c r="F14" s="109"/>
+      <c r="F14" s="109">
+        <v>43039</v>
+      </c>
       <c r="G14" s="110">
         <v>3</v>
       </c>
       <c r="H14" s="110"/>
       <c r="I14" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J14)=FALSE,OFFSET(I14,0,COUNTA(J14:P14)),"")</f>
         <v>3</v>
       </c>
       <c r="J14" s="112">
@@ -10232,20 +10272,21 @@
       <c r="M14" s="112">
         <v>3</v>
       </c>
-      <c r="N14" s="112"/>
+      <c r="N14" s="112">
+        <v>3</v>
+      </c>
       <c r="O14" s="112"/>
       <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
-    </row>
-    <row r="15" spans="1:32">
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" s="105">
         <v>11</v>
       </c>
       <c r="B15" s="129" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C15" s="107" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D15" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -10264,7 +10305,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J15)=FALSE,OFFSET(I15,0,COUNTA(J15:P15)),"")</f>
         <v>0</v>
       </c>
       <c r="J15" s="112">
@@ -10279,20 +10320,21 @@
       <c r="M15" s="112">
         <v>0</v>
       </c>
-      <c r="N15" s="112"/>
+      <c r="N15" s="112">
+        <v>0</v>
+      </c>
       <c r="O15" s="112"/>
       <c r="P15" s="112"/>
-      <c r="Q15" s="112"/>
-    </row>
-    <row r="16" spans="1:32">
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" s="105">
         <v>12</v>
       </c>
       <c r="B16" s="129" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C16" s="107" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D16" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -10311,7 +10353,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J16)=FALSE,OFFSET(I16,0,COUNTA(J16:P16)),"")</f>
         <v>0</v>
       </c>
       <c r="J16" s="112">
@@ -10326,20 +10368,21 @@
       <c r="M16" s="112">
         <v>0</v>
       </c>
-      <c r="N16" s="112"/>
+      <c r="N16" s="112">
+        <v>0</v>
+      </c>
       <c r="O16" s="112"/>
       <c r="P16" s="112"/>
-      <c r="Q16" s="112"/>
-    </row>
-    <row r="17" spans="1:17">
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="105">
         <v>13</v>
       </c>
       <c r="B17" s="129" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C17" s="107" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D17" s="108" t="str">
         <f t="shared" si="1"/>
@@ -10354,7 +10397,7 @@
       </c>
       <c r="H17" s="110"/>
       <c r="I17" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J17)=FALSE,OFFSET(I17,0,COUNTA(J17:P17)),"")</f>
         <v>6</v>
       </c>
       <c r="J17" s="112">
@@ -10369,47 +10412,65 @@
       <c r="M17" s="112">
         <v>6</v>
       </c>
-      <c r="N17" s="112"/>
+      <c r="N17" s="112">
+        <v>6</v>
+      </c>
       <c r="O17" s="112"/>
       <c r="P17" s="112"/>
-      <c r="Q17" s="112"/>
-    </row>
-    <row r="18" spans="1:17">
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="105">
         <v>14</v>
       </c>
-      <c r="B18" s="106"/>
+      <c r="B18" s="129" t="s">
+        <v>147</v>
+      </c>
       <c r="C18" s="107" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D18" s="108" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="110"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
+      </c>
+      <c r="E18" s="109">
+        <v>43039</v>
+      </c>
+      <c r="F18" s="109">
+        <v>43039</v>
+      </c>
+      <c r="G18" s="110">
+        <v>2</v>
+      </c>
       <c r="H18" s="110"/>
-      <c r="I18" s="111" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J18" s="112"/>
-      <c r="K18" s="112"/>
-      <c r="L18" s="112"/>
-      <c r="M18" s="112"/>
-      <c r="N18" s="112"/>
+      <c r="I18" s="111">
+        <f ca="1">IF(ISBLANK(J18)=FALSE,OFFSET(I18,0,COUNTA(J18:P18)),"")</f>
+        <v>2</v>
+      </c>
+      <c r="J18" s="112">
+        <v>2</v>
+      </c>
+      <c r="K18" s="112">
+        <v>2</v>
+      </c>
+      <c r="L18" s="112">
+        <v>2</v>
+      </c>
+      <c r="M18" s="112">
+        <v>2</v>
+      </c>
+      <c r="N18" s="112">
+        <v>2</v>
+      </c>
       <c r="O18" s="112"/>
       <c r="P18" s="112"/>
-      <c r="Q18" s="112"/>
-    </row>
-    <row r="19" spans="1:17">
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="105">
         <v>15</v>
       </c>
       <c r="B19" s="106"/>
       <c r="C19" s="107" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D19" s="108" t="str">
         <f t="shared" si="1"/>
@@ -10420,7 +10481,7 @@
       <c r="G19" s="110"/>
       <c r="H19" s="110"/>
       <c r="I19" s="111" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J19)=FALSE,OFFSET(I19,0,COUNTA(J19:P19)),"")</f>
         <v/>
       </c>
       <c r="J19" s="112"/>
@@ -10430,15 +10491,14 @@
       <c r="N19" s="112"/>
       <c r="O19" s="112"/>
       <c r="P19" s="112"/>
-      <c r="Q19" s="112"/>
-    </row>
-    <row r="20" spans="1:17">
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="105">
         <v>16</v>
       </c>
       <c r="B20" s="106"/>
       <c r="C20" s="107" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D20" s="108" t="str">
         <f t="shared" si="1"/>
@@ -10449,7 +10509,7 @@
       <c r="G20" s="110"/>
       <c r="H20" s="110"/>
       <c r="I20" s="111" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J20)=FALSE,OFFSET(I20,0,COUNTA(J20:P20)),"")</f>
         <v/>
       </c>
       <c r="J20" s="112"/>
@@ -10459,15 +10519,14 @@
       <c r="N20" s="112"/>
       <c r="O20" s="112"/>
       <c r="P20" s="112"/>
-      <c r="Q20" s="112"/>
-    </row>
-    <row r="21" spans="1:17">
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="105">
         <v>17</v>
       </c>
       <c r="B21" s="106"/>
       <c r="C21" s="107" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D21" s="108" t="str">
         <f t="shared" si="1"/>
@@ -10478,7 +10537,7 @@
       <c r="G21" s="110"/>
       <c r="H21" s="110"/>
       <c r="I21" s="111" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J21)=FALSE,OFFSET(I21,0,COUNTA(J21:P21)),"")</f>
         <v/>
       </c>
       <c r="J21" s="112"/>
@@ -10488,15 +10547,14 @@
       <c r="N21" s="112"/>
       <c r="O21" s="112"/>
       <c r="P21" s="112"/>
-      <c r="Q21" s="112"/>
-    </row>
-    <row r="22" spans="1:17">
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="105">
         <v>18</v>
       </c>
       <c r="B22" s="106"/>
       <c r="C22" s="107" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D22" s="108" t="str">
         <f t="shared" si="1"/>
@@ -10507,7 +10565,7 @@
       <c r="G22" s="110"/>
       <c r="H22" s="110"/>
       <c r="I22" s="111" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J22)=FALSE,OFFSET(I22,0,COUNTA(J22:P22)),"")</f>
         <v/>
       </c>
       <c r="J22" s="112"/>
@@ -10517,15 +10575,14 @@
       <c r="N22" s="112"/>
       <c r="O22" s="112"/>
       <c r="P22" s="112"/>
-      <c r="Q22" s="112"/>
-    </row>
-    <row r="23" spans="1:17">
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="105">
         <v>19</v>
       </c>
       <c r="B23" s="106"/>
       <c r="C23" s="107" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D23" s="108" t="str">
         <f t="shared" si="1"/>
@@ -10536,7 +10593,7 @@
       <c r="G23" s="110"/>
       <c r="H23" s="110"/>
       <c r="I23" s="111" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J23)=FALSE,OFFSET(I23,0,COUNTA(J23:P23)),"")</f>
         <v/>
       </c>
       <c r="J23" s="112"/>
@@ -10546,15 +10603,14 @@
       <c r="N23" s="112"/>
       <c r="O23" s="112"/>
       <c r="P23" s="112"/>
-      <c r="Q23" s="112"/>
-    </row>
-    <row r="24" spans="1:17">
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="105">
         <v>20</v>
       </c>
       <c r="B24" s="106"/>
       <c r="C24" s="107" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D24" s="108" t="str">
         <f t="shared" si="1"/>
@@ -10565,7 +10621,7 @@
       <c r="G24" s="110"/>
       <c r="H24" s="110"/>
       <c r="I24" s="111" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J24)=FALSE,OFFSET(I24,0,COUNTA(J24:P24)),"")</f>
         <v/>
       </c>
       <c r="J24" s="112"/>
@@ -10575,17 +10631,16 @@
       <c r="N24" s="112"/>
       <c r="O24" s="112"/>
       <c r="P24" s="112"/>
-      <c r="Q24" s="112"/>
-    </row>
-    <row r="25" spans="1:17">
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="105">
         <v>21</v>
       </c>
       <c r="B25" s="106" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C25" s="107" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D25" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -10604,7 +10659,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J25)=FALSE,OFFSET(I25,0,COUNTA(J25:P25)),"")</f>
         <v>1</v>
       </c>
       <c r="J25" s="112">
@@ -10619,36 +10674,41 @@
       <c r="M25" s="112">
         <v>1</v>
       </c>
-      <c r="N25" s="112"/>
+      <c r="N25" s="112">
+        <v>1</v>
+      </c>
       <c r="O25" s="112"/>
       <c r="P25" s="112"/>
-      <c r="Q25" s="112"/>
-    </row>
-    <row r="26" spans="1:17">
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="105">
         <v>22</v>
       </c>
-      <c r="B26" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="107" t="s">
-        <v>110</v>
+      <c r="B26" s="129" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="130" t="s">
+        <v>106</v>
       </c>
       <c r="D26" s="108" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>完了</v>
       </c>
       <c r="E26" s="109">
         <v>43032</v>
       </c>
-      <c r="F26" s="109"/>
+      <c r="F26" s="109">
+        <v>43037</v>
+      </c>
       <c r="G26" s="110">
         <v>3</v>
       </c>
-      <c r="H26" s="110"/>
+      <c r="H26" s="110">
+        <v>1</v>
+      </c>
       <c r="I26" s="111">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f ca="1">IF(ISBLANK(J26)=FALSE,OFFSET(I26,0,COUNTA(J26:P26)),"")</f>
+        <v>0</v>
       </c>
       <c r="J26" s="112">
         <v>3</v>
@@ -10662,36 +10722,41 @@
       <c r="M26" s="112">
         <v>3</v>
       </c>
-      <c r="N26" s="112"/>
+      <c r="N26" s="112">
+        <v>0</v>
+      </c>
       <c r="O26" s="112"/>
       <c r="P26" s="112"/>
-      <c r="Q26" s="112"/>
-    </row>
-    <row r="27" spans="1:17">
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="105">
         <v>23</v>
       </c>
-      <c r="B27" s="106" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="158" t="s">
-        <v>111</v>
+      <c r="B27" s="129" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="130" t="s">
+        <v>106</v>
       </c>
       <c r="D27" s="108" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>完了</v>
       </c>
       <c r="E27" s="109">
         <v>43032</v>
       </c>
-      <c r="F27" s="109"/>
+      <c r="F27" s="109">
+        <v>43037</v>
+      </c>
       <c r="G27" s="110">
         <v>2</v>
       </c>
-      <c r="H27" s="110"/>
+      <c r="H27" s="110">
+        <v>2</v>
+      </c>
       <c r="I27" s="111">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f ca="1">IF(ISBLANK(J27)=FALSE,OFFSET(I27,0,COUNTA(J27:P27)),"")</f>
+        <v>0</v>
       </c>
       <c r="J27" s="112">
         <v>2</v>
@@ -10705,24 +10770,25 @@
       <c r="M27" s="112">
         <v>2</v>
       </c>
-      <c r="N27" s="112"/>
+      <c r="N27" s="112">
+        <v>0</v>
+      </c>
       <c r="O27" s="112"/>
       <c r="P27" s="112"/>
-      <c r="Q27" s="112"/>
-    </row>
-    <row r="28" spans="1:17">
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="105">
         <v>24</v>
       </c>
       <c r="B28" s="106" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C28" s="107" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D28" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="E28" s="109">
         <v>43035</v>
@@ -10733,10 +10799,12 @@
       <c r="G28" s="110">
         <v>1</v>
       </c>
-      <c r="H28" s="110"/>
+      <c r="H28" s="110">
+        <v>1</v>
+      </c>
       <c r="I28" s="111">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f ca="1">IF(ISBLANK(J28)=FALSE,OFFSET(I28,0,COUNTA(J28:P28)),"")</f>
+        <v>0</v>
       </c>
       <c r="J28" s="112">
         <v>1</v>
@@ -10750,24 +10818,25 @@
       <c r="M28" s="112">
         <v>1</v>
       </c>
-      <c r="N28" s="112"/>
+      <c r="N28" s="112">
+        <v>0</v>
+      </c>
       <c r="O28" s="112"/>
       <c r="P28" s="112"/>
-      <c r="Q28" s="112"/>
-    </row>
-    <row r="29" spans="1:17">
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="105">
         <v>25</v>
       </c>
       <c r="B29" s="106" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C29" s="107" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D29" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="E29" s="109">
         <v>43035</v>
@@ -10778,10 +10847,12 @@
       <c r="G29" s="110">
         <v>1</v>
       </c>
-      <c r="H29" s="110"/>
+      <c r="H29" s="110">
+        <v>1</v>
+      </c>
       <c r="I29" s="111">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f ca="1">IF(ISBLANK(J29)=FALSE,OFFSET(I29,0,COUNTA(J29:P29)),"")</f>
+        <v>0</v>
       </c>
       <c r="J29" s="112">
         <v>1</v>
@@ -10795,20 +10866,21 @@
       <c r="M29" s="112">
         <v>1</v>
       </c>
-      <c r="N29" s="112"/>
+      <c r="N29" s="112">
+        <v>0</v>
+      </c>
       <c r="O29" s="112"/>
       <c r="P29" s="112"/>
-      <c r="Q29" s="112"/>
-    </row>
-    <row r="30" spans="1:17">
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="105">
         <v>26</v>
       </c>
       <c r="B30" s="106" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C30" s="107" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D30" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -10825,7 +10897,7 @@
       </c>
       <c r="H30" s="110"/>
       <c r="I30" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J30)=FALSE,OFFSET(I30,0,COUNTA(J30:P30)),"")</f>
         <v>1</v>
       </c>
       <c r="J30" s="112">
@@ -10840,20 +10912,21 @@
       <c r="M30" s="112">
         <v>1</v>
       </c>
-      <c r="N30" s="112"/>
+      <c r="N30" s="112">
+        <v>1</v>
+      </c>
       <c r="O30" s="112"/>
       <c r="P30" s="112"/>
-      <c r="Q30" s="112"/>
-    </row>
-    <row r="31" spans="1:17">
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="105">
         <v>27</v>
       </c>
       <c r="B31" s="106" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C31" s="107" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D31" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -10870,7 +10943,7 @@
       </c>
       <c r="H31" s="110"/>
       <c r="I31" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J31)=FALSE,OFFSET(I31,0,COUNTA(J31:P31)),"")</f>
         <v>1</v>
       </c>
       <c r="J31" s="112">
@@ -10885,20 +10958,21 @@
       <c r="M31" s="112">
         <v>1</v>
       </c>
-      <c r="N31" s="112"/>
+      <c r="N31" s="112">
+        <v>1</v>
+      </c>
       <c r="O31" s="112"/>
       <c r="P31" s="112"/>
-      <c r="Q31" s="112"/>
-    </row>
-    <row r="32" spans="1:17">
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="105">
         <v>28</v>
       </c>
       <c r="B32" s="106" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C32" s="107" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D32" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -10917,7 +10991,7 @@
         <v>6</v>
       </c>
       <c r="I32" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J32)=FALSE,OFFSET(I32,0,COUNTA(J32:P32)),"")</f>
         <v>0</v>
       </c>
       <c r="J32" s="112">
@@ -10929,17 +11003,16 @@
       <c r="N32" s="112"/>
       <c r="O32" s="112"/>
       <c r="P32" s="112"/>
-      <c r="Q32" s="112"/>
-    </row>
-    <row r="33" spans="1:17">
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="105">
         <v>29</v>
       </c>
       <c r="B33" s="106" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C33" s="107" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D33" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -10958,7 +11031,7 @@
         <v>3</v>
       </c>
       <c r="I33" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J33)=FALSE,OFFSET(I33,0,COUNTA(J33:P33)),"")</f>
         <v>0</v>
       </c>
       <c r="J33" s="112">
@@ -10976,17 +11049,16 @@
       <c r="N33" s="112"/>
       <c r="O33" s="112"/>
       <c r="P33" s="112"/>
-      <c r="Q33" s="112"/>
-    </row>
-    <row r="34" spans="1:17">
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="105">
         <v>30</v>
       </c>
       <c r="B34" s="106" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C34" s="107" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D34" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -11005,7 +11077,7 @@
         <v>6</v>
       </c>
       <c r="I34" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J34)=FALSE,OFFSET(I34,0,COUNTA(J34:P34)),"")</f>
         <v>0</v>
       </c>
       <c r="J34" s="112">
@@ -11023,17 +11095,16 @@
       <c r="N34" s="112"/>
       <c r="O34" s="112"/>
       <c r="P34" s="112"/>
-      <c r="Q34" s="112"/>
-    </row>
-    <row r="35" spans="1:17">
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="105">
         <v>31</v>
       </c>
       <c r="B35" s="106" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C35" s="107" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D35" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -11052,7 +11123,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J35)=FALSE,OFFSET(I35,0,COUNTA(J35:P35)),"")</f>
         <v>0</v>
       </c>
       <c r="J35" s="112">
@@ -11066,17 +11137,16 @@
       <c r="N35" s="112"/>
       <c r="O35" s="112"/>
       <c r="P35" s="112"/>
-      <c r="Q35" s="112"/>
-    </row>
-    <row r="36" spans="1:17">
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="105">
         <v>32</v>
       </c>
       <c r="B36" s="106" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C36" s="107" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D36" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -11095,7 +11165,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J36)=FALSE,OFFSET(I36,0,COUNTA(J36:P36)),"")</f>
         <v>0</v>
       </c>
       <c r="J36" s="112">
@@ -11109,17 +11179,16 @@
       <c r="N36" s="112"/>
       <c r="O36" s="112"/>
       <c r="P36" s="112"/>
-      <c r="Q36" s="112"/>
-    </row>
-    <row r="37" spans="1:17">
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="105">
         <v>33</v>
       </c>
       <c r="B37" s="106" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C37" s="107" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D37" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -11138,7 +11207,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J37)=FALSE,OFFSET(I37,0,COUNTA(J37:P37)),"")</f>
         <v>0</v>
       </c>
       <c r="J37" s="112">
@@ -11152,17 +11221,16 @@
       <c r="N37" s="112"/>
       <c r="O37" s="112"/>
       <c r="P37" s="112"/>
-      <c r="Q37" s="112"/>
-    </row>
-    <row r="38" spans="1:17">
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="105">
         <v>34</v>
       </c>
       <c r="B38" s="106" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C38" s="107" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D38" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -11181,7 +11249,7 @@
         <v>3</v>
       </c>
       <c r="I38" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J38)=FALSE,OFFSET(I38,0,COUNTA(J38:P38)),"")</f>
         <v>0</v>
       </c>
       <c r="J38" s="112">
@@ -11197,17 +11265,16 @@
       <c r="N38" s="112"/>
       <c r="O38" s="112"/>
       <c r="P38" s="112"/>
-      <c r="Q38" s="112"/>
-    </row>
-    <row r="39" spans="1:17">
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="105">
         <v>35</v>
       </c>
       <c r="B39" s="129" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C39" s="107" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D39" s="108" t="str">
         <f t="shared" si="1"/>
@@ -11222,7 +11289,7 @@
       </c>
       <c r="H39" s="110"/>
       <c r="I39" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J39)=FALSE,OFFSET(I39,0,COUNTA(J39:P39)),"")</f>
         <v>6</v>
       </c>
       <c r="J39" s="112">
@@ -11237,20 +11304,21 @@
       <c r="M39" s="112">
         <v>6</v>
       </c>
-      <c r="N39" s="112"/>
+      <c r="N39" s="112">
+        <v>6</v>
+      </c>
       <c r="O39" s="112"/>
       <c r="P39" s="112"/>
-      <c r="Q39" s="112"/>
-    </row>
-    <row r="40" spans="1:17">
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="105">
         <v>36</v>
       </c>
       <c r="B40" s="129" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C40" s="107" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D40" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -11267,7 +11335,7 @@
         <v>2</v>
       </c>
       <c r="I40" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J40)=FALSE,OFFSET(I40,0,COUNTA(J40:P40)),"")</f>
         <v>0</v>
       </c>
       <c r="J40" s="112">
@@ -11285,33 +11353,36 @@
       <c r="N40" s="112"/>
       <c r="O40" s="112"/>
       <c r="P40" s="112"/>
-      <c r="Q40" s="112"/>
-    </row>
-    <row r="41" spans="1:17">
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="105">
         <v>37</v>
       </c>
       <c r="B41" s="129" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C41" s="107" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D41" s="108" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
       </c>
       <c r="E41" s="109">
         <v>43039</v>
       </c>
-      <c r="F41" s="109"/>
+      <c r="F41" s="109">
+        <v>43037</v>
+      </c>
       <c r="G41" s="110">
         <v>3</v>
       </c>
-      <c r="H41" s="110"/>
+      <c r="H41" s="110">
+        <v>1</v>
+      </c>
       <c r="I41" s="111">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f ca="1">IF(ISBLANK(J41)=FALSE,OFFSET(I41,0,COUNTA(J41:P41)),"")</f>
+        <v>1</v>
       </c>
       <c r="J41" s="112">
         <v>3</v>
@@ -11325,36 +11396,41 @@
       <c r="M41" s="112">
         <v>3</v>
       </c>
-      <c r="N41" s="112"/>
+      <c r="N41" s="112">
+        <v>1</v>
+      </c>
       <c r="O41" s="112"/>
       <c r="P41" s="112"/>
-      <c r="Q41" s="112"/>
-    </row>
-    <row r="42" spans="1:17">
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="105">
         <v>38</v>
       </c>
       <c r="B42" s="129" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C42" s="107" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D42" s="108" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>完了</v>
       </c>
       <c r="E42" s="109">
         <v>43039</v>
       </c>
-      <c r="F42" s="109"/>
+      <c r="F42" s="109">
+        <v>43039</v>
+      </c>
       <c r="G42" s="110">
         <v>3</v>
       </c>
-      <c r="H42" s="110"/>
+      <c r="H42" s="110">
+        <v>1</v>
+      </c>
       <c r="I42" s="111">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f ca="1">IF(ISBLANK(J42)=FALSE,OFFSET(I42,0,COUNTA(J42:P42)),"")</f>
+        <v>0</v>
       </c>
       <c r="J42" s="112">
         <v>3</v>
@@ -11368,20 +11444,21 @@
       <c r="M42" s="112">
         <v>3</v>
       </c>
-      <c r="N42" s="112"/>
+      <c r="N42" s="112">
+        <v>0</v>
+      </c>
       <c r="O42" s="112"/>
       <c r="P42" s="112"/>
-      <c r="Q42" s="112"/>
-    </row>
-    <row r="43" spans="1:17">
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="105">
         <v>39</v>
       </c>
       <c r="B43" s="129" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C43" s="107" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D43" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -11400,7 +11477,7 @@
         <v>1</v>
       </c>
       <c r="I43" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J43)=FALSE,OFFSET(I43,0,COUNTA(J43:P43)),"")</f>
         <v>0</v>
       </c>
       <c r="J43" s="112">
@@ -11418,33 +11495,36 @@
       <c r="N43" s="112"/>
       <c r="O43" s="112"/>
       <c r="P43" s="112"/>
-      <c r="Q43" s="112"/>
-    </row>
-    <row r="44" spans="1:17">
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" s="105">
         <v>40</v>
       </c>
       <c r="B44" s="129" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C44" s="107" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D44" s="108" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>完了</v>
       </c>
       <c r="E44" s="109">
         <v>43039</v>
       </c>
-      <c r="F44" s="109"/>
+      <c r="F44" s="109">
+        <v>43038</v>
+      </c>
       <c r="G44" s="110">
         <v>4</v>
       </c>
-      <c r="H44" s="110"/>
+      <c r="H44" s="110">
+        <v>1</v>
+      </c>
       <c r="I44" s="111">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f ca="1">IF(ISBLANK(J44)=FALSE,OFFSET(I44,0,COUNTA(J44:P44)),"")</f>
+        <v>0</v>
       </c>
       <c r="J44" s="112">
         <v>4</v>
@@ -11458,18 +11538,19 @@
       <c r="M44" s="112">
         <v>4</v>
       </c>
-      <c r="N44" s="112"/>
+      <c r="N44" s="112">
+        <v>0</v>
+      </c>
       <c r="O44" s="112"/>
       <c r="P44" s="112"/>
-      <c r="Q44" s="112"/>
-    </row>
-    <row r="45" spans="1:17">
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" s="105">
         <v>41</v>
       </c>
       <c r="B45" s="106"/>
       <c r="C45" s="107" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D45" s="108" t="str">
         <f t="shared" si="1"/>
@@ -11480,7 +11561,7 @@
       <c r="G45" s="110"/>
       <c r="H45" s="110"/>
       <c r="I45" s="111" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J45)=FALSE,OFFSET(I45,0,COUNTA(J45:P45)),"")</f>
         <v/>
       </c>
       <c r="J45" s="112"/>
@@ -11490,15 +11571,14 @@
       <c r="N45" s="112"/>
       <c r="O45" s="112"/>
       <c r="P45" s="112"/>
-      <c r="Q45" s="112"/>
-    </row>
-    <row r="46" spans="1:17">
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" s="105">
         <v>42</v>
       </c>
       <c r="B46" s="106"/>
       <c r="C46" s="107" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D46" s="108" t="str">
         <f t="shared" si="1"/>
@@ -11509,7 +11589,7 @@
       <c r="G46" s="110"/>
       <c r="H46" s="110"/>
       <c r="I46" s="111" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J46)=FALSE,OFFSET(I46,0,COUNTA(J46:P46)),"")</f>
         <v/>
       </c>
       <c r="J46" s="112"/>
@@ -11519,15 +11599,14 @@
       <c r="N46" s="112"/>
       <c r="O46" s="112"/>
       <c r="P46" s="112"/>
-      <c r="Q46" s="112"/>
-    </row>
-    <row r="47" spans="1:17">
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" s="105">
         <v>43</v>
       </c>
       <c r="B47" s="106"/>
       <c r="C47" s="107" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D47" s="108" t="str">
         <f t="shared" si="1"/>
@@ -11538,7 +11617,7 @@
       <c r="G47" s="110"/>
       <c r="H47" s="110"/>
       <c r="I47" s="111" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J47)=FALSE,OFFSET(I47,0,COUNTA(J47:P47)),"")</f>
         <v/>
       </c>
       <c r="J47" s="112"/>
@@ -11548,15 +11627,14 @@
       <c r="N47" s="112"/>
       <c r="O47" s="112"/>
       <c r="P47" s="112"/>
-      <c r="Q47" s="112"/>
-    </row>
-    <row r="48" spans="1:17">
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" s="105">
         <v>44</v>
       </c>
       <c r="B48" s="106"/>
       <c r="C48" s="107" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D48" s="108" t="str">
         <f t="shared" si="1"/>
@@ -11567,7 +11645,7 @@
       <c r="G48" s="110"/>
       <c r="H48" s="110"/>
       <c r="I48" s="111" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J48)=FALSE,OFFSET(I48,0,COUNTA(J48:P48)),"")</f>
         <v/>
       </c>
       <c r="J48" s="112"/>
@@ -11577,15 +11655,14 @@
       <c r="N48" s="112"/>
       <c r="O48" s="112"/>
       <c r="P48" s="112"/>
-      <c r="Q48" s="112"/>
-    </row>
-    <row r="49" spans="1:17">
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" s="105">
         <v>45</v>
       </c>
       <c r="B49" s="106"/>
       <c r="C49" s="107" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D49" s="108" t="str">
         <f t="shared" si="1"/>
@@ -11596,7 +11673,7 @@
       <c r="G49" s="110"/>
       <c r="H49" s="110"/>
       <c r="I49" s="111" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J49)=FALSE,OFFSET(I49,0,COUNTA(J49:P49)),"")</f>
         <v/>
       </c>
       <c r="J49" s="112"/>
@@ -11606,15 +11683,14 @@
       <c r="N49" s="112"/>
       <c r="O49" s="112"/>
       <c r="P49" s="112"/>
-      <c r="Q49" s="112"/>
-    </row>
-    <row r="50" spans="1:17">
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" s="105">
         <v>46</v>
       </c>
       <c r="B50" s="106"/>
       <c r="C50" s="107" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D50" s="108" t="str">
         <f t="shared" si="1"/>
@@ -11625,7 +11701,7 @@
       <c r="G50" s="110"/>
       <c r="H50" s="110"/>
       <c r="I50" s="111" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J50)=FALSE,OFFSET(I50,0,COUNTA(J50:P50)),"")</f>
         <v/>
       </c>
       <c r="J50" s="112"/>
@@ -11635,17 +11711,16 @@
       <c r="N50" s="112"/>
       <c r="O50" s="112"/>
       <c r="P50" s="112"/>
-      <c r="Q50" s="112"/>
-    </row>
-    <row r="51" spans="1:17">
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" s="105">
         <v>47</v>
       </c>
       <c r="B51" s="106" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C51" s="107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D51" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -11664,7 +11739,7 @@
         <v>3</v>
       </c>
       <c r="I51" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J51)=FALSE,OFFSET(I51,0,COUNTA(J51:P51)),"")</f>
         <v>0</v>
       </c>
       <c r="J51" s="112">
@@ -11679,20 +11754,21 @@
       <c r="M51" s="112">
         <v>0</v>
       </c>
-      <c r="N51" s="112"/>
+      <c r="N51" s="112">
+        <v>0</v>
+      </c>
       <c r="O51" s="112"/>
       <c r="P51" s="112"/>
-      <c r="Q51" s="112"/>
-    </row>
-    <row r="52" spans="1:17">
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" s="105">
         <v>48</v>
       </c>
       <c r="B52" s="106" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C52" s="107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D52" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -11711,7 +11787,7 @@
         <v>2</v>
       </c>
       <c r="I52" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J52)=FALSE,OFFSET(I52,0,COUNTA(J52:P52)),"")</f>
         <v>0</v>
       </c>
       <c r="J52" s="112">
@@ -11726,24 +11802,25 @@
       <c r="M52" s="112">
         <v>0</v>
       </c>
-      <c r="N52" s="112"/>
+      <c r="N52" s="112">
+        <v>0</v>
+      </c>
       <c r="O52" s="112"/>
       <c r="P52" s="112"/>
-      <c r="Q52" s="112"/>
-    </row>
-    <row r="53" spans="1:17">
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" s="105">
         <v>49</v>
       </c>
       <c r="B53" s="106" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C53" s="107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D53" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="E53" s="109">
         <v>43028</v>
@@ -11755,11 +11832,11 @@
         <v>4</v>
       </c>
       <c r="H53" s="110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" s="111">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f ca="1">IF(ISBLANK(J53)=FALSE,OFFSET(I53,0,COUNTA(J53:P53)),"")</f>
+        <v>0</v>
       </c>
       <c r="J53" s="112">
         <v>4</v>
@@ -11773,24 +11850,25 @@
       <c r="M53" s="112">
         <v>1</v>
       </c>
-      <c r="N53" s="112"/>
+      <c r="N53" s="112">
+        <v>0</v>
+      </c>
       <c r="O53" s="112"/>
       <c r="P53" s="112"/>
-      <c r="Q53" s="112"/>
-    </row>
-    <row r="54" spans="1:17">
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" s="105">
         <v>50</v>
       </c>
       <c r="B54" s="106" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C54" s="107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D54" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="E54" s="109">
         <v>43032</v>
@@ -11802,11 +11880,11 @@
         <v>3</v>
       </c>
       <c r="H54" s="110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" s="111">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f ca="1">IF(ISBLANK(J54)=FALSE,OFFSET(I54,0,COUNTA(J54:P54)),"")</f>
+        <v>0</v>
       </c>
       <c r="J54" s="112">
         <v>1</v>
@@ -11820,20 +11898,21 @@
       <c r="M54" s="112">
         <v>1</v>
       </c>
-      <c r="N54" s="112"/>
+      <c r="N54" s="112">
+        <v>0</v>
+      </c>
       <c r="O54" s="112"/>
       <c r="P54" s="112"/>
-      <c r="Q54" s="112"/>
-    </row>
-    <row r="55" spans="1:17">
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" s="105">
         <v>51</v>
       </c>
       <c r="B55" s="106" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C55" s="107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D55" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -11852,7 +11931,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="111">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(J55)=FALSE,OFFSET(I55,0,COUNTA(J55:P55)),"")</f>
         <v>1</v>
       </c>
       <c r="J55" s="112">
@@ -11867,36 +11946,41 @@
       <c r="M55" s="112">
         <v>1</v>
       </c>
-      <c r="N55" s="112"/>
+      <c r="N55" s="112">
+        <v>1</v>
+      </c>
       <c r="O55" s="112"/>
       <c r="P55" s="112"/>
-      <c r="Q55" s="112"/>
-    </row>
-    <row r="56" spans="1:17">
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" s="105">
         <v>52</v>
       </c>
       <c r="B56" s="106" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C56" s="107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D56" s="108" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>完了</v>
       </c>
       <c r="E56" s="109">
         <v>43035</v>
       </c>
-      <c r="F56" s="109"/>
+      <c r="F56" s="109">
+        <v>43037</v>
+      </c>
       <c r="G56" s="110">
         <v>2</v>
       </c>
-      <c r="H56" s="110"/>
+      <c r="H56" s="110">
+        <v>2</v>
+      </c>
       <c r="I56" s="111">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f ca="1">IF(ISBLANK(J56)=FALSE,OFFSET(I56,0,COUNTA(J56:P56)),"")</f>
+        <v>0</v>
       </c>
       <c r="J56" s="112">
         <v>4</v>
@@ -11910,20 +11994,21 @@
       <c r="M56" s="112">
         <v>4</v>
       </c>
-      <c r="N56" s="112"/>
+      <c r="N56" s="112">
+        <v>0</v>
+      </c>
       <c r="O56" s="112"/>
       <c r="P56" s="112"/>
-      <c r="Q56" s="112"/>
-    </row>
-    <row r="57" spans="1:17">
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" s="105">
         <v>53</v>
       </c>
       <c r="B57" s="106" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C57" s="107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D57" s="108" t="str">
         <f t="shared" si="1"/>
@@ -11938,7 +12023,7 @@
       </c>
       <c r="H57" s="110"/>
       <c r="I57" s="111">
-        <f t="shared" ref="I57:I104" ca="1" si="3">IF(ISBLANK(J57)=FALSE,OFFSET(I57,0,COUNTA(J57:Q57)),"")</f>
+        <f ca="1">IF(ISBLANK(J57)=FALSE,OFFSET(I57,0,COUNTA(J57:P57)),"")</f>
         <v>6</v>
       </c>
       <c r="J57" s="112">
@@ -11953,20 +12038,21 @@
       <c r="M57" s="112">
         <v>6</v>
       </c>
-      <c r="N57" s="112"/>
+      <c r="N57" s="112">
+        <v>6</v>
+      </c>
       <c r="O57" s="112"/>
       <c r="P57" s="112"/>
-      <c r="Q57" s="112"/>
-    </row>
-    <row r="58" spans="1:17">
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" s="105">
         <v>54</v>
       </c>
       <c r="B58" s="106" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C58" s="107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D58" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -11985,7 +12071,7 @@
         <v>2</v>
       </c>
       <c r="I58" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J58)=FALSE,OFFSET(I58,0,COUNTA(J58:P58)),"")</f>
         <v>0</v>
       </c>
       <c r="J58" s="112">
@@ -12000,20 +12086,21 @@
       <c r="M58" s="112">
         <v>0</v>
       </c>
-      <c r="N58" s="112"/>
+      <c r="N58" s="112">
+        <v>0</v>
+      </c>
       <c r="O58" s="112"/>
       <c r="P58" s="112"/>
-      <c r="Q58" s="112"/>
-    </row>
-    <row r="59" spans="1:17">
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" s="105">
         <v>55</v>
       </c>
       <c r="B59" s="129" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C59" s="107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D59" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -12032,7 +12119,7 @@
         <v>3</v>
       </c>
       <c r="I59" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J59)=FALSE,OFFSET(I59,0,COUNTA(J59:P59)),"")</f>
         <v>0</v>
       </c>
       <c r="J59" s="112">
@@ -12047,20 +12134,21 @@
       <c r="M59" s="112">
         <v>0</v>
       </c>
-      <c r="N59" s="112"/>
+      <c r="N59" s="112">
+        <v>0</v>
+      </c>
       <c r="O59" s="112"/>
       <c r="P59" s="112"/>
-      <c r="Q59" s="112"/>
-    </row>
-    <row r="60" spans="1:17">
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" s="105">
         <v>56</v>
       </c>
       <c r="B60" s="129" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C60" s="107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D60" s="108" t="str">
         <f t="shared" si="1"/>
@@ -12075,7 +12163,7 @@
       </c>
       <c r="H60" s="110"/>
       <c r="I60" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J60)=FALSE,OFFSET(I60,0,COUNTA(J60:P60)),"")</f>
         <v>1</v>
       </c>
       <c r="J60" s="110">
@@ -12090,20 +12178,21 @@
       <c r="M60" s="110">
         <v>1</v>
       </c>
-      <c r="N60" s="112"/>
+      <c r="N60" s="110">
+        <v>1</v>
+      </c>
       <c r="O60" s="112"/>
       <c r="P60" s="112"/>
-      <c r="Q60" s="112"/>
-    </row>
-    <row r="61" spans="1:17">
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" s="105">
         <v>57</v>
       </c>
       <c r="B61" s="129" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C61" s="107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D61" s="108" t="str">
         <f t="shared" si="1"/>
@@ -12118,7 +12207,7 @@
       </c>
       <c r="H61" s="110"/>
       <c r="I61" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J61)=FALSE,OFFSET(I61,0,COUNTA(J61:P61)),"")</f>
         <v>2</v>
       </c>
       <c r="J61" s="110">
@@ -12133,20 +12222,21 @@
       <c r="M61" s="110">
         <v>2</v>
       </c>
-      <c r="N61" s="112"/>
+      <c r="N61" s="110">
+        <v>2</v>
+      </c>
       <c r="O61" s="112"/>
       <c r="P61" s="112"/>
-      <c r="Q61" s="112"/>
-    </row>
-    <row r="62" spans="1:17">
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" s="105">
         <v>58</v>
       </c>
       <c r="B62" s="129" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C62" s="107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D62" s="108" t="str">
         <f t="shared" si="1"/>
@@ -12161,7 +12251,7 @@
       </c>
       <c r="H62" s="110"/>
       <c r="I62" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J62)=FALSE,OFFSET(I62,0,COUNTA(J62:P62)),"")</f>
         <v>3</v>
       </c>
       <c r="J62" s="110">
@@ -12176,36 +12266,41 @@
       <c r="M62" s="110">
         <v>3</v>
       </c>
-      <c r="N62" s="112"/>
+      <c r="N62" s="110">
+        <v>3</v>
+      </c>
       <c r="O62" s="112"/>
       <c r="P62" s="112"/>
-      <c r="Q62" s="112"/>
-    </row>
-    <row r="63" spans="1:17">
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" s="105">
         <v>59</v>
       </c>
       <c r="B63" s="129" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C63" s="107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D63" s="108" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>完了</v>
       </c>
       <c r="E63" s="109">
         <v>43035</v>
       </c>
-      <c r="F63" s="109"/>
+      <c r="F63" s="109">
+        <v>43037</v>
+      </c>
       <c r="G63" s="110">
         <v>1</v>
       </c>
-      <c r="H63" s="110"/>
+      <c r="H63" s="110">
+        <v>3</v>
+      </c>
       <c r="I63" s="111">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f ca="1">IF(ISBLANK(J63)=FALSE,OFFSET(I63,0,COUNTA(J63:P63)),"")</f>
+        <v>0</v>
       </c>
       <c r="J63" s="110">
         <v>1</v>
@@ -12219,20 +12314,21 @@
       <c r="M63" s="110">
         <v>1</v>
       </c>
-      <c r="N63" s="112"/>
+      <c r="N63" s="110">
+        <v>0</v>
+      </c>
       <c r="O63" s="112"/>
       <c r="P63" s="112"/>
-      <c r="Q63" s="112"/>
-    </row>
-    <row r="64" spans="1:17">
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" s="105">
         <v>60</v>
       </c>
       <c r="B64" s="129" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C64" s="107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D64" s="108" t="str">
         <f t="shared" si="1"/>
@@ -12247,7 +12343,7 @@
       </c>
       <c r="H64" s="110"/>
       <c r="I64" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J64)=FALSE,OFFSET(I64,0,COUNTA(J64:P64)),"")</f>
         <v>6</v>
       </c>
       <c r="J64" s="112">
@@ -12262,20 +12358,21 @@
       <c r="M64" s="112">
         <v>6</v>
       </c>
-      <c r="N64" s="112"/>
+      <c r="N64" s="112">
+        <v>6</v>
+      </c>
       <c r="O64" s="112"/>
       <c r="P64" s="112"/>
-      <c r="Q64" s="112"/>
-    </row>
-    <row r="65" spans="1:17">
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" s="105">
         <v>61</v>
       </c>
       <c r="B65" s="129" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C65" s="107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D65" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -12294,7 +12391,7 @@
         <v>4</v>
       </c>
       <c r="I65" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J65)=FALSE,OFFSET(I65,0,COUNTA(J65:P65)),"")</f>
         <v>0</v>
       </c>
       <c r="J65" s="112">
@@ -12309,47 +12406,65 @@
       <c r="M65" s="112">
         <v>0</v>
       </c>
-      <c r="N65" s="112"/>
+      <c r="N65" s="112">
+        <v>0</v>
+      </c>
       <c r="O65" s="112"/>
       <c r="P65" s="112"/>
-      <c r="Q65" s="112"/>
-    </row>
-    <row r="66" spans="1:17">
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" s="105">
         <v>62</v>
       </c>
-      <c r="B66" s="106"/>
+      <c r="B66" s="129" t="s">
+        <v>151</v>
+      </c>
       <c r="C66" s="107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D66" s="108" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E66" s="109"/>
-      <c r="F66" s="109"/>
-      <c r="G66" s="110"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
+      </c>
+      <c r="E66" s="109">
+        <v>43039</v>
+      </c>
+      <c r="F66" s="109">
+        <v>43039</v>
+      </c>
+      <c r="G66" s="110">
+        <v>4</v>
+      </c>
       <c r="H66" s="110"/>
-      <c r="I66" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J66" s="112"/>
-      <c r="K66" s="112"/>
-      <c r="L66" s="112"/>
-      <c r="M66" s="112"/>
-      <c r="N66" s="112"/>
+      <c r="I66" s="111">
+        <f ca="1">IF(ISBLANK(J66)=FALSE,OFFSET(I66,0,COUNTA(J66:P66)),"")</f>
+        <v>4</v>
+      </c>
+      <c r="J66" s="112">
+        <v>4</v>
+      </c>
+      <c r="K66" s="112">
+        <v>4</v>
+      </c>
+      <c r="L66" s="112">
+        <v>4</v>
+      </c>
+      <c r="M66" s="112">
+        <v>4</v>
+      </c>
+      <c r="N66" s="112">
+        <v>4</v>
+      </c>
       <c r="O66" s="112"/>
       <c r="P66" s="112"/>
-      <c r="Q66" s="112"/>
-    </row>
-    <row r="67" spans="1:17">
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" s="105">
         <v>63</v>
       </c>
       <c r="B67" s="106"/>
       <c r="C67" s="107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D67" s="108" t="str">
         <f t="shared" si="1"/>
@@ -12360,7 +12475,7 @@
       <c r="G67" s="110"/>
       <c r="H67" s="110"/>
       <c r="I67" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J67)=FALSE,OFFSET(I67,0,COUNTA(J67:P67)),"")</f>
         <v/>
       </c>
       <c r="J67" s="112"/>
@@ -12370,15 +12485,14 @@
       <c r="N67" s="112"/>
       <c r="O67" s="112"/>
       <c r="P67" s="112"/>
-      <c r="Q67" s="112"/>
-    </row>
-    <row r="68" spans="1:17">
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" s="105">
         <v>64</v>
       </c>
       <c r="B68" s="106"/>
       <c r="C68" s="107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D68" s="108" t="str">
         <f t="shared" si="1"/>
@@ -12389,7 +12503,7 @@
       <c r="G68" s="110"/>
       <c r="H68" s="110"/>
       <c r="I68" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J68)=FALSE,OFFSET(I68,0,COUNTA(J68:P68)),"")</f>
         <v/>
       </c>
       <c r="J68" s="112"/>
@@ -12399,18 +12513,17 @@
       <c r="N68" s="112"/>
       <c r="O68" s="112"/>
       <c r="P68" s="112"/>
-      <c r="Q68" s="112"/>
-    </row>
-    <row r="69" spans="1:17">
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" s="105">
         <v>65</v>
       </c>
       <c r="B69" s="106"/>
       <c r="C69" s="107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D69" s="108" t="str">
-        <f t="shared" ref="D69:D91" si="4">IF(ISBLANK($B69),"",IF(ISBLANK($F69),"未着手",IF($I69=0,"完了","作業中")))</f>
+        <f t="shared" ref="D69:D91" si="2">IF(ISBLANK($B69),"",IF(ISBLANK($F69),"未着手",IF($I69=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="E69" s="109"/>
@@ -12418,7 +12531,7 @@
       <c r="G69" s="110"/>
       <c r="H69" s="110"/>
       <c r="I69" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J69)=FALSE,OFFSET(I69,0,COUNTA(J69:P69)),"")</f>
         <v/>
       </c>
       <c r="J69" s="112"/>
@@ -12428,18 +12541,17 @@
       <c r="N69" s="112"/>
       <c r="O69" s="112"/>
       <c r="P69" s="112"/>
-      <c r="Q69" s="112"/>
-    </row>
-    <row r="70" spans="1:17">
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" s="105">
         <v>66</v>
       </c>
       <c r="B70" s="106"/>
       <c r="C70" s="107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D70" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E70" s="109"/>
@@ -12447,7 +12559,7 @@
       <c r="G70" s="110"/>
       <c r="H70" s="110"/>
       <c r="I70" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J70)=FALSE,OFFSET(I70,0,COUNTA(J70:P70)),"")</f>
         <v/>
       </c>
       <c r="J70" s="112"/>
@@ -12457,18 +12569,17 @@
       <c r="N70" s="112"/>
       <c r="O70" s="112"/>
       <c r="P70" s="112"/>
-      <c r="Q70" s="112"/>
-    </row>
-    <row r="71" spans="1:17">
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" s="105">
         <v>67</v>
       </c>
       <c r="B71" s="106"/>
       <c r="C71" s="107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D71" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E71" s="109"/>
@@ -12476,7 +12587,7 @@
       <c r="G71" s="110"/>
       <c r="H71" s="110"/>
       <c r="I71" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J71)=FALSE,OFFSET(I71,0,COUNTA(J71:P71)),"")</f>
         <v/>
       </c>
       <c r="J71" s="112"/>
@@ -12486,18 +12597,17 @@
       <c r="N71" s="112"/>
       <c r="O71" s="112"/>
       <c r="P71" s="112"/>
-      <c r="Q71" s="112"/>
-    </row>
-    <row r="72" spans="1:17">
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" s="105">
         <v>68</v>
       </c>
       <c r="B72" s="106"/>
       <c r="C72" s="107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D72" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E72" s="109"/>
@@ -12505,7 +12615,7 @@
       <c r="G72" s="110"/>
       <c r="H72" s="110"/>
       <c r="I72" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J72)=FALSE,OFFSET(I72,0,COUNTA(J72:P72)),"")</f>
         <v/>
       </c>
       <c r="J72" s="112"/>
@@ -12515,18 +12625,17 @@
       <c r="N72" s="112"/>
       <c r="O72" s="112"/>
       <c r="P72" s="112"/>
-      <c r="Q72" s="112"/>
-    </row>
-    <row r="73" spans="1:17">
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" s="105">
         <v>69</v>
       </c>
       <c r="B73" s="106"/>
       <c r="C73" s="107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D73" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E73" s="109"/>
@@ -12534,7 +12643,7 @@
       <c r="G73" s="110"/>
       <c r="H73" s="110"/>
       <c r="I73" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J73)=FALSE,OFFSET(I73,0,COUNTA(J73:P73)),"")</f>
         <v/>
       </c>
       <c r="J73" s="112"/>
@@ -12544,18 +12653,17 @@
       <c r="N73" s="112"/>
       <c r="O73" s="112"/>
       <c r="P73" s="112"/>
-      <c r="Q73" s="112"/>
-    </row>
-    <row r="74" spans="1:17">
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" s="105">
         <v>70</v>
       </c>
       <c r="B74" s="106"/>
       <c r="C74" s="107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D74" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E74" s="109"/>
@@ -12563,7 +12671,7 @@
       <c r="G74" s="110"/>
       <c r="H74" s="110"/>
       <c r="I74" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J74)=FALSE,OFFSET(I74,0,COUNTA(J74:P74)),"")</f>
         <v/>
       </c>
       <c r="J74" s="112"/>
@@ -12573,18 +12681,17 @@
       <c r="N74" s="112"/>
       <c r="O74" s="112"/>
       <c r="P74" s="112"/>
-      <c r="Q74" s="112"/>
-    </row>
-    <row r="75" spans="1:17">
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75" s="105">
         <v>71</v>
       </c>
       <c r="B75" s="106"/>
       <c r="C75" s="107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D75" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E75" s="109"/>
@@ -12592,7 +12699,7 @@
       <c r="G75" s="110"/>
       <c r="H75" s="110"/>
       <c r="I75" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J75)=FALSE,OFFSET(I75,0,COUNTA(J75:P75)),"")</f>
         <v/>
       </c>
       <c r="J75" s="112"/>
@@ -12602,18 +12709,17 @@
       <c r="N75" s="112"/>
       <c r="O75" s="112"/>
       <c r="P75" s="112"/>
-      <c r="Q75" s="112"/>
-    </row>
-    <row r="76" spans="1:17">
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" s="105">
         <v>72</v>
       </c>
       <c r="B76" s="106"/>
       <c r="C76" s="107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D76" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E76" s="109"/>
@@ -12621,7 +12727,7 @@
       <c r="G76" s="110"/>
       <c r="H76" s="110"/>
       <c r="I76" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J76)=FALSE,OFFSET(I76,0,COUNTA(J76:P76)),"")</f>
         <v/>
       </c>
       <c r="J76" s="112"/>
@@ -12631,18 +12737,17 @@
       <c r="N76" s="112"/>
       <c r="O76" s="112"/>
       <c r="P76" s="112"/>
-      <c r="Q76" s="112"/>
-    </row>
-    <row r="77" spans="1:17">
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77" s="105">
         <v>73</v>
       </c>
       <c r="B77" s="106"/>
       <c r="C77" s="107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D77" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E77" s="109"/>
@@ -12650,7 +12755,7 @@
       <c r="G77" s="110"/>
       <c r="H77" s="110"/>
       <c r="I77" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J77)=FALSE,OFFSET(I77,0,COUNTA(J77:P77)),"")</f>
         <v/>
       </c>
       <c r="J77" s="112"/>
@@ -12660,18 +12765,17 @@
       <c r="N77" s="112"/>
       <c r="O77" s="112"/>
       <c r="P77" s="112"/>
-      <c r="Q77" s="112"/>
-    </row>
-    <row r="78" spans="1:17">
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" s="105">
         <v>74</v>
       </c>
       <c r="B78" s="106"/>
       <c r="C78" s="107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D78" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E78" s="109"/>
@@ -12679,7 +12783,7 @@
       <c r="G78" s="110"/>
       <c r="H78" s="110"/>
       <c r="I78" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J78)=FALSE,OFFSET(I78,0,COUNTA(J78:P78)),"")</f>
         <v/>
       </c>
       <c r="J78" s="112"/>
@@ -12689,18 +12793,17 @@
       <c r="N78" s="112"/>
       <c r="O78" s="112"/>
       <c r="P78" s="112"/>
-      <c r="Q78" s="112"/>
-    </row>
-    <row r="79" spans="1:17">
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79" s="105">
         <v>75</v>
       </c>
       <c r="B79" s="106"/>
       <c r="C79" s="107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D79" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E79" s="109"/>
@@ -12708,7 +12811,7 @@
       <c r="G79" s="110"/>
       <c r="H79" s="110"/>
       <c r="I79" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J79)=FALSE,OFFSET(I79,0,COUNTA(J79:P79)),"")</f>
         <v/>
       </c>
       <c r="J79" s="112"/>
@@ -12718,33 +12821,36 @@
       <c r="N79" s="112"/>
       <c r="O79" s="112"/>
       <c r="P79" s="112"/>
-      <c r="Q79" s="112"/>
-    </row>
-    <row r="80" spans="1:17">
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80" s="105">
         <v>76</v>
       </c>
-      <c r="B80" s="106" t="s">
-        <v>101</v>
+      <c r="B80" s="129" t="s">
+        <v>150</v>
       </c>
       <c r="C80" s="107" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D80" s="108" t="str">
-        <f t="shared" si="4"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
       </c>
       <c r="E80" s="109">
         <v>43039</v>
       </c>
-      <c r="F80" s="109"/>
+      <c r="F80" s="109">
+        <v>43037</v>
+      </c>
       <c r="G80" s="110">
         <v>4</v>
       </c>
-      <c r="H80" s="110"/>
+      <c r="H80" s="110">
+        <v>2</v>
+      </c>
       <c r="I80" s="111">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f ca="1">IF(ISBLANK(J80)=FALSE,OFFSET(I80,0,COUNTA(J80:P80)),"")</f>
+        <v>0</v>
       </c>
       <c r="J80" s="112">
         <v>4</v>
@@ -12758,23 +12864,24 @@
       <c r="M80" s="112">
         <v>3</v>
       </c>
-      <c r="N80" s="112"/>
+      <c r="N80" s="112">
+        <v>0</v>
+      </c>
       <c r="O80" s="112"/>
       <c r="P80" s="112"/>
-      <c r="Q80" s="112"/>
-    </row>
-    <row r="81" spans="1:17">
+    </row>
+    <row r="81" spans="1:16">
       <c r="A81" s="105">
         <v>77</v>
       </c>
       <c r="B81" s="106" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C81" s="107" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D81" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>完了</v>
       </c>
       <c r="E81" s="109">
@@ -12804,23 +12911,24 @@
       <c r="M81" s="112">
         <v>0</v>
       </c>
-      <c r="N81" s="112"/>
+      <c r="N81" s="112">
+        <v>0</v>
+      </c>
       <c r="O81" s="112"/>
       <c r="P81" s="112"/>
-      <c r="Q81" s="112"/>
-    </row>
-    <row r="82" spans="1:17">
+    </row>
+    <row r="82" spans="1:16">
       <c r="A82" s="105">
         <v>78</v>
       </c>
       <c r="B82" s="106" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C82" s="107" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D82" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>完了</v>
       </c>
       <c r="E82" s="109">
@@ -12850,23 +12958,24 @@
       <c r="M82" s="112">
         <v>0</v>
       </c>
-      <c r="N82" s="112"/>
+      <c r="N82" s="112">
+        <v>0</v>
+      </c>
       <c r="O82" s="112"/>
       <c r="P82" s="112"/>
-      <c r="Q82" s="112"/>
-    </row>
-    <row r="83" spans="1:17">
+    </row>
+    <row r="83" spans="1:16">
       <c r="A83" s="105">
         <v>79</v>
       </c>
       <c r="B83" s="106" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C83" s="107" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D83" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E83" s="4">
@@ -12878,7 +12987,7 @@
       </c>
       <c r="H83" s="110"/>
       <c r="I83" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J83)=FALSE,OFFSET(I83,0,COUNTA(J83:P83)),"")</f>
         <v>1</v>
       </c>
       <c r="J83" s="112">
@@ -12893,23 +13002,24 @@
       <c r="M83" s="112">
         <v>1</v>
       </c>
-      <c r="N83" s="112"/>
+      <c r="N83" s="112">
+        <v>1</v>
+      </c>
       <c r="O83" s="112"/>
       <c r="P83" s="112"/>
-      <c r="Q83" s="112"/>
-    </row>
-    <row r="84" spans="1:17">
+    </row>
+    <row r="84" spans="1:16">
       <c r="A84" s="105">
         <v>80</v>
       </c>
       <c r="B84" s="106" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C84" s="107" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D84" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E84" s="109">
@@ -12921,7 +13031,7 @@
       </c>
       <c r="H84" s="110"/>
       <c r="I84" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J84)=FALSE,OFFSET(I84,0,COUNTA(J84:P84)),"")</f>
         <v>1</v>
       </c>
       <c r="J84" s="112">
@@ -12936,23 +13046,24 @@
       <c r="M84" s="112">
         <v>1</v>
       </c>
-      <c r="N84" s="112"/>
+      <c r="N84" s="112">
+        <v>1</v>
+      </c>
       <c r="O84" s="112"/>
       <c r="P84" s="112"/>
-      <c r="Q84" s="112"/>
-    </row>
-    <row r="85" spans="1:17">
+    </row>
+    <row r="85" spans="1:16">
       <c r="A85" s="105">
         <v>81</v>
       </c>
       <c r="B85" s="106" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C85" s="107" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D85" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E85" s="109">
@@ -12964,7 +13075,7 @@
       </c>
       <c r="H85" s="110"/>
       <c r="I85" s="111">
-        <f ca="1">IF(ISBLANK(J85)=FALSE,OFFSET(I85,0,COUNTA(J85:Q85)),"")</f>
+        <f ca="1">IF(ISBLANK(J85)=FALSE,OFFSET(I85,0,COUNTA(J85:P85)),"")</f>
         <v>2</v>
       </c>
       <c r="J85" s="112">
@@ -12979,23 +13090,24 @@
       <c r="M85" s="112">
         <v>2</v>
       </c>
-      <c r="N85" s="112"/>
+      <c r="N85" s="112">
+        <v>2</v>
+      </c>
       <c r="O85" s="112"/>
       <c r="P85" s="112"/>
-      <c r="Q85" s="112"/>
-    </row>
-    <row r="86" spans="1:17">
+    </row>
+    <row r="86" spans="1:16">
       <c r="A86" s="105">
         <v>82</v>
       </c>
       <c r="B86" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="C86" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="C86" s="107" t="s">
-        <v>112</v>
-      </c>
       <c r="D86" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E86" s="109">
@@ -13007,7 +13119,7 @@
       </c>
       <c r="H86" s="110"/>
       <c r="I86" s="111">
-        <f ca="1">IF(ISBLANK(J86)=FALSE,OFFSET(I86,0,COUNTA(J86:Q86)),"")</f>
+        <f ca="1">IF(ISBLANK(J86)=FALSE,OFFSET(I86,0,COUNTA(J86:P86)),"")</f>
         <v>2</v>
       </c>
       <c r="J86" s="112">
@@ -13022,23 +13134,24 @@
       <c r="M86" s="112">
         <v>2</v>
       </c>
-      <c r="N86" s="112"/>
+      <c r="N86" s="112">
+        <v>2</v>
+      </c>
       <c r="O86" s="112"/>
       <c r="P86" s="112"/>
-      <c r="Q86" s="112"/>
-    </row>
-    <row r="87" spans="1:17">
+    </row>
+    <row r="87" spans="1:16">
       <c r="A87" s="105">
         <v>83</v>
       </c>
       <c r="B87" s="106" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C87" s="107" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D87" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E87" s="109">
@@ -13050,7 +13163,7 @@
       </c>
       <c r="H87" s="110"/>
       <c r="I87" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J87)=FALSE,OFFSET(I87,0,COUNTA(J87:P87)),"")</f>
         <v>1</v>
       </c>
       <c r="J87" s="112">
@@ -13065,23 +13178,24 @@
       <c r="M87" s="112">
         <v>1</v>
       </c>
-      <c r="N87" s="112"/>
+      <c r="N87" s="112">
+        <v>1</v>
+      </c>
       <c r="O87" s="112"/>
       <c r="P87" s="112"/>
-      <c r="Q87" s="112"/>
-    </row>
-    <row r="88" spans="1:17">
+    </row>
+    <row r="88" spans="1:16">
       <c r="A88" s="105">
         <v>84</v>
       </c>
       <c r="B88" s="129" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C88" s="107" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D88" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E88" s="109">
@@ -13093,7 +13207,7 @@
       </c>
       <c r="H88" s="110"/>
       <c r="I88" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J88)=FALSE,OFFSET(I88,0,COUNTA(J88:P88)),"")</f>
         <v>6</v>
       </c>
       <c r="J88" s="112">
@@ -13108,12 +13222,13 @@
       <c r="M88" s="112">
         <v>6</v>
       </c>
-      <c r="N88" s="112"/>
+      <c r="N88" s="112">
+        <v>6</v>
+      </c>
       <c r="O88" s="112"/>
       <c r="P88" s="112"/>
-      <c r="Q88" s="112"/>
-    </row>
-    <row r="89" spans="1:17">
+    </row>
+    <row r="89" spans="1:16">
       <c r="A89" s="105">
         <v>85</v>
       </c>
@@ -13121,10 +13236,10 @@
         <v>143</v>
       </c>
       <c r="C89" s="107" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D89" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E89" s="109">
@@ -13136,7 +13251,7 @@
       </c>
       <c r="H89" s="110"/>
       <c r="I89" s="111">
-        <f ca="1">IF(ISBLANK(J89)=FALSE,OFFSET(I89,0,COUNTA(J89:Q89)),"")</f>
+        <f ca="1">IF(ISBLANK(J89)=FALSE,OFFSET(I89,0,COUNTA(J89:P89)),"")</f>
         <v>2</v>
       </c>
       <c r="J89" s="112">
@@ -13151,12 +13266,13 @@
       <c r="M89" s="112">
         <v>2</v>
       </c>
-      <c r="N89" s="112"/>
+      <c r="N89" s="112">
+        <v>2</v>
+      </c>
       <c r="O89" s="112"/>
       <c r="P89" s="112"/>
-      <c r="Q89" s="112"/>
-    </row>
-    <row r="90" spans="1:17">
+    </row>
+    <row r="90" spans="1:16">
       <c r="A90" s="105">
         <v>86</v>
       </c>
@@ -13164,10 +13280,10 @@
         <v>144</v>
       </c>
       <c r="C90" s="107" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D90" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E90" s="109">
@@ -13179,7 +13295,7 @@
       </c>
       <c r="H90" s="110"/>
       <c r="I90" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J90)=FALSE,OFFSET(I90,0,COUNTA(J90:P90)),"")</f>
         <v>3</v>
       </c>
       <c r="J90" s="112">
@@ -13194,21 +13310,22 @@
       <c r="M90" s="112">
         <v>3</v>
       </c>
-      <c r="N90" s="112"/>
+      <c r="N90" s="112">
+        <v>3</v>
+      </c>
       <c r="O90" s="112"/>
       <c r="P90" s="112"/>
-      <c r="Q90" s="112"/>
-    </row>
-    <row r="91" spans="1:17">
+    </row>
+    <row r="91" spans="1:16">
       <c r="A91" s="105">
         <v>87</v>
       </c>
       <c r="B91" s="106"/>
       <c r="C91" s="107" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D91" s="108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E91" s="109"/>
@@ -13216,7 +13333,7 @@
       <c r="G91" s="110"/>
       <c r="H91" s="110"/>
       <c r="I91" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J91)=FALSE,OFFSET(I91,0,COUNTA(J91:P91)),"")</f>
         <v/>
       </c>
       <c r="J91" s="112"/>
@@ -13226,18 +13343,17 @@
       <c r="N91" s="112"/>
       <c r="O91" s="112"/>
       <c r="P91" s="112"/>
-      <c r="Q91" s="112"/>
-    </row>
-    <row r="92" spans="1:17">
+    </row>
+    <row r="92" spans="1:16">
       <c r="A92" s="105">
         <v>88</v>
       </c>
       <c r="B92" s="106"/>
       <c r="C92" s="107" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D92" s="111" t="str">
-        <f t="shared" ref="D92:D155" si="5">IF(ISBLANK($B92),"",IF(ISBLANK($F92),"未着手",IF($I92=0,"完了","作業中")))</f>
+        <f t="shared" ref="D92:D155" si="3">IF(ISBLANK($B92),"",IF(ISBLANK($F92),"未着手",IF($I92=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="E92" s="109"/>
@@ -13245,7 +13361,7 @@
       <c r="G92" s="110"/>
       <c r="H92" s="110"/>
       <c r="I92" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J92)=FALSE,OFFSET(I92,0,COUNTA(J92:P92)),"")</f>
         <v/>
       </c>
       <c r="J92" s="112"/>
@@ -13255,18 +13371,17 @@
       <c r="N92" s="112"/>
       <c r="O92" s="112"/>
       <c r="P92" s="112"/>
-      <c r="Q92" s="112"/>
-    </row>
-    <row r="93" spans="1:17">
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93" s="105">
         <v>89</v>
       </c>
       <c r="B93" s="106"/>
       <c r="C93" s="107" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D93" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E93" s="109"/>
@@ -13274,7 +13389,7 @@
       <c r="G93" s="110"/>
       <c r="H93" s="110"/>
       <c r="I93" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J93)=FALSE,OFFSET(I93,0,COUNTA(J93:P93)),"")</f>
         <v/>
       </c>
       <c r="J93" s="112"/>
@@ -13284,18 +13399,17 @@
       <c r="N93" s="112"/>
       <c r="O93" s="112"/>
       <c r="P93" s="112"/>
-      <c r="Q93" s="112"/>
-    </row>
-    <row r="94" spans="1:17">
+    </row>
+    <row r="94" spans="1:16">
       <c r="A94" s="105">
         <v>90</v>
       </c>
       <c r="B94" s="106"/>
       <c r="C94" s="107" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D94" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E94" s="109"/>
@@ -13303,7 +13417,7 @@
       <c r="G94" s="110"/>
       <c r="H94" s="110"/>
       <c r="I94" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J94)=FALSE,OFFSET(I94,0,COUNTA(J94:P94)),"")</f>
         <v/>
       </c>
       <c r="J94" s="112"/>
@@ -13313,18 +13427,17 @@
       <c r="N94" s="112"/>
       <c r="O94" s="112"/>
       <c r="P94" s="112"/>
-      <c r="Q94" s="112"/>
-    </row>
-    <row r="95" spans="1:17">
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95" s="105">
         <v>91</v>
       </c>
       <c r="B95" s="106"/>
       <c r="C95" s="107" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D95" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E95" s="109"/>
@@ -13332,7 +13445,7 @@
       <c r="G95" s="110"/>
       <c r="H95" s="110"/>
       <c r="I95" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J95)=FALSE,OFFSET(I95,0,COUNTA(J95:P95)),"")</f>
         <v/>
       </c>
       <c r="J95" s="112"/>
@@ -13342,18 +13455,17 @@
       <c r="N95" s="112"/>
       <c r="O95" s="112"/>
       <c r="P95" s="112"/>
-      <c r="Q95" s="112"/>
-    </row>
-    <row r="96" spans="1:17">
+    </row>
+    <row r="96" spans="1:16">
       <c r="A96" s="105">
         <v>92</v>
       </c>
       <c r="B96" s="106"/>
       <c r="C96" s="107" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D96" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E96" s="109"/>
@@ -13361,7 +13473,7 @@
       <c r="G96" s="110"/>
       <c r="H96" s="110"/>
       <c r="I96" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J96)=FALSE,OFFSET(I96,0,COUNTA(J96:P96)),"")</f>
         <v/>
       </c>
       <c r="J96" s="112"/>
@@ -13371,18 +13483,17 @@
       <c r="N96" s="112"/>
       <c r="O96" s="112"/>
       <c r="P96" s="112"/>
-      <c r="Q96" s="112"/>
-    </row>
-    <row r="97" spans="1:24">
+    </row>
+    <row r="97" spans="1:23">
       <c r="A97" s="105">
         <v>93</v>
       </c>
       <c r="B97" s="106"/>
       <c r="C97" s="107" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D97" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E97" s="109"/>
@@ -13390,7 +13501,7 @@
       <c r="G97" s="110"/>
       <c r="H97" s="110"/>
       <c r="I97" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J97)=FALSE,OFFSET(I97,0,COUNTA(J97:P97)),"")</f>
         <v/>
       </c>
       <c r="J97" s="112"/>
@@ -13400,18 +13511,17 @@
       <c r="N97" s="112"/>
       <c r="O97" s="112"/>
       <c r="P97" s="112"/>
-      <c r="Q97" s="112"/>
-    </row>
-    <row r="98" spans="1:24">
+    </row>
+    <row r="98" spans="1:23">
       <c r="A98" s="105">
         <v>94</v>
       </c>
       <c r="B98" s="106"/>
       <c r="C98" s="107" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D98" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E98" s="109"/>
@@ -13419,7 +13529,7 @@
       <c r="G98" s="110"/>
       <c r="H98" s="110"/>
       <c r="I98" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J98)=FALSE,OFFSET(I98,0,COUNTA(J98:P98)),"")</f>
         <v/>
       </c>
       <c r="J98" s="112"/>
@@ -13429,18 +13539,17 @@
       <c r="N98" s="112"/>
       <c r="O98" s="112"/>
       <c r="P98" s="112"/>
-      <c r="Q98" s="112"/>
-    </row>
-    <row r="99" spans="1:24">
+    </row>
+    <row r="99" spans="1:23">
       <c r="A99" s="105">
         <v>95</v>
       </c>
       <c r="B99" s="106"/>
       <c r="C99" s="107" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D99" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E99" s="109"/>
@@ -13448,7 +13557,7 @@
       <c r="G99" s="110"/>
       <c r="H99" s="110"/>
       <c r="I99" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J99)=FALSE,OFFSET(I99,0,COUNTA(J99:P99)),"")</f>
         <v/>
       </c>
       <c r="J99" s="112"/>
@@ -13458,18 +13567,17 @@
       <c r="N99" s="112"/>
       <c r="O99" s="112"/>
       <c r="P99" s="112"/>
-      <c r="Q99" s="112"/>
-    </row>
-    <row r="100" spans="1:24">
+    </row>
+    <row r="100" spans="1:23">
       <c r="A100" s="105">
         <v>96</v>
       </c>
       <c r="B100" s="106"/>
       <c r="C100" s="107" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D100" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E100" s="109"/>
@@ -13477,7 +13585,7 @@
       <c r="G100" s="110"/>
       <c r="H100" s="110"/>
       <c r="I100" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J100)=FALSE,OFFSET(I100,0,COUNTA(J100:P100)),"")</f>
         <v/>
       </c>
       <c r="J100" s="112"/>
@@ -13487,16 +13595,15 @@
       <c r="N100" s="112"/>
       <c r="O100" s="112"/>
       <c r="P100" s="112"/>
-      <c r="Q100" s="112"/>
-    </row>
-    <row r="101" spans="1:24">
+    </row>
+    <row r="101" spans="1:23">
       <c r="A101" s="105">
         <v>97</v>
       </c>
       <c r="B101" s="106"/>
       <c r="C101" s="115"/>
       <c r="D101" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E101" s="109"/>
@@ -13504,7 +13611,7 @@
       <c r="G101" s="110"/>
       <c r="H101" s="110"/>
       <c r="I101" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J101)=FALSE,OFFSET(I101,0,COUNTA(J101:P101)),"")</f>
         <v/>
       </c>
       <c r="J101" s="112"/>
@@ -13514,16 +13621,15 @@
       <c r="N101" s="112"/>
       <c r="O101" s="112"/>
       <c r="P101" s="112"/>
-      <c r="Q101" s="112"/>
-    </row>
-    <row r="102" spans="1:24">
+    </row>
+    <row r="102" spans="1:23">
       <c r="A102" s="105">
         <v>98</v>
       </c>
       <c r="B102" s="116"/>
       <c r="C102" s="115"/>
       <c r="D102" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E102" s="109"/>
@@ -13531,7 +13637,7 @@
       <c r="G102" s="110"/>
       <c r="H102" s="110"/>
       <c r="I102" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J102)=FALSE,OFFSET(I102,0,COUNTA(J102:P102)),"")</f>
         <v/>
       </c>
       <c r="J102" s="112"/>
@@ -13541,16 +13647,15 @@
       <c r="N102" s="112"/>
       <c r="O102" s="112"/>
       <c r="P102" s="112"/>
-      <c r="Q102" s="112"/>
-    </row>
-    <row r="103" spans="1:24">
+    </row>
+    <row r="103" spans="1:23">
       <c r="A103" s="105">
         <v>99</v>
       </c>
       <c r="B103" s="116"/>
       <c r="C103" s="115"/>
       <c r="D103" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E103" s="109"/>
@@ -13558,7 +13663,7 @@
       <c r="G103" s="110"/>
       <c r="H103" s="110"/>
       <c r="I103" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J103)=FALSE,OFFSET(I103,0,COUNTA(J103:P103)),"")</f>
         <v/>
       </c>
       <c r="J103" s="112"/>
@@ -13568,20 +13673,19 @@
       <c r="N103" s="112"/>
       <c r="O103" s="112"/>
       <c r="P103" s="112"/>
-      <c r="Q103" s="112"/>
-    </row>
-    <row r="104" spans="1:24">
+    </row>
+    <row r="104" spans="1:23">
       <c r="A104" s="105">
         <v>100</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D104" s="111" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="E104" s="109">
@@ -13597,7 +13701,7 @@
         <v>3</v>
       </c>
       <c r="I104" s="111">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK(J104)=FALSE,OFFSET(I104,0,COUNTA(J104:P104)),"")</f>
         <v>0</v>
       </c>
       <c r="J104" s="112">
@@ -13612,23 +13716,24 @@
       <c r="M104" s="112">
         <v>0</v>
       </c>
-      <c r="N104" s="112"/>
+      <c r="N104" s="112">
+        <v>0</v>
+      </c>
       <c r="O104" s="112"/>
       <c r="P104" s="112"/>
-      <c r="Q104" s="112"/>
-    </row>
-    <row r="105" spans="1:24" ht="10.5" customHeight="1">
+    </row>
+    <row r="105" spans="1:23" ht="10.5" customHeight="1">
       <c r="A105" s="105">
         <v>101</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D105" s="111" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="E105" s="109">
@@ -13644,7 +13749,7 @@
         <v>3</v>
       </c>
       <c r="I105" s="111">
-        <f t="shared" ref="I105:I157" ca="1" si="6">IF(ISBLANK(J105)=FALSE,OFFSET(I105,0,COUNTA(J105:Q105)),"")</f>
+        <f ca="1">IF(ISBLANK(J105)=FALSE,OFFSET(I105,0,COUNTA(J105:P105)),"")</f>
         <v>0</v>
       </c>
       <c r="J105" s="112">
@@ -13659,23 +13764,24 @@
       <c r="M105" s="112">
         <v>0</v>
       </c>
-      <c r="N105" s="112"/>
+      <c r="N105" s="112">
+        <v>0</v>
+      </c>
       <c r="O105" s="112"/>
       <c r="P105" s="112"/>
-      <c r="Q105" s="112"/>
-    </row>
-    <row r="106" spans="1:24">
+    </row>
+    <row r="106" spans="1:23">
       <c r="A106" s="105">
         <v>102</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D106" s="111" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="E106" s="109">
@@ -13691,7 +13797,7 @@
         <v>3</v>
       </c>
       <c r="I106" s="111">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J106)=FALSE,OFFSET(I106,0,COUNTA(J106:P106)),"")</f>
         <v>0</v>
       </c>
       <c r="J106" s="112">
@@ -13706,41 +13812,42 @@
       <c r="M106" s="112">
         <v>0</v>
       </c>
-      <c r="N106" s="112"/>
+      <c r="N106" s="112">
+        <v>0</v>
+      </c>
       <c r="O106" s="112"/>
       <c r="P106" s="112"/>
-      <c r="Q106" s="112"/>
+      <c r="R106" s="123" t="s">
+        <v>11</v>
+      </c>
       <c r="S106" s="123" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="T106" s="123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U106" s="123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V106" s="123" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="W106" s="123" t="s">
-        <v>12</v>
-      </c>
-      <c r="X106" s="123" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:24">
+    <row r="107" spans="1:23">
       <c r="A107" s="105">
         <v>103</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D107" s="111" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="E107" s="109">
@@ -13756,7 +13863,7 @@
         <v>3</v>
       </c>
       <c r="I107" s="111">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J107)=FALSE,OFFSET(I107,0,COUNTA(J107:P107)),"")</f>
         <v>0</v>
       </c>
       <c r="J107" s="112">
@@ -13771,46 +13878,47 @@
       <c r="M107" s="112">
         <v>0</v>
       </c>
-      <c r="N107" s="112"/>
+      <c r="N107" s="112">
+        <v>0</v>
+      </c>
       <c r="O107" s="112"/>
       <c r="P107" s="112"/>
-      <c r="Q107" s="112"/>
-      <c r="S107" s="124" t="s">
-        <v>114</v>
+      <c r="R107" s="124" t="s">
+        <v>109</v>
+      </c>
+      <c r="S107" s="125">
+        <f>SUMIF($C$5:$C$157,R107,$G$5:$G$157)</f>
+        <v>41</v>
       </c>
       <c r="T107" s="125">
-        <f>SUMIF($C$5:$C$157,S107,$G$5:$G$157)</f>
-        <v>39</v>
+        <f ca="1">SUMIF($C$5:$C$156,R107,$I$5:$I$157)</f>
+        <v>17</v>
       </c>
       <c r="U107" s="125">
-        <f ca="1">SUMIF($C$5:$C$156,S107,$I$5:$I$157)</f>
+        <f>SUMIF($C$5:$C$157,R107,$H$5:$H$157)</f>
         <v>18</v>
       </c>
-      <c r="V107" s="125">
-        <f>SUMIF($C$5:$C$157,S107,$H$5:$H$157)</f>
-        <v>17</v>
-      </c>
-      <c r="W107" s="126">
-        <f>COUNTA($J$2:$Q$2)*6-COUNTA($J$4:$Q$4)*6</f>
-        <v>24</v>
-      </c>
-      <c r="X107" s="127">
-        <f ca="1">IF(W107&gt;U107,0,U107-W107)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:24">
+      <c r="V107" s="126">
+        <f>COUNTA($J$2:$P$2)*6-COUNTA($J$4:$P$4)*6</f>
+        <v>12</v>
+      </c>
+      <c r="W107" s="127">
+        <f ca="1">IF(V107&gt;T107,0,T107-V107)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23">
       <c r="A108" s="105">
         <v>104</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D108" s="111" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="E108" s="109">
@@ -13826,7 +13934,7 @@
         <v>4</v>
       </c>
       <c r="I108" s="111">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J108)=FALSE,OFFSET(I108,0,COUNTA(J108:P108)),"")</f>
         <v>0</v>
       </c>
       <c r="J108" s="112">
@@ -13841,46 +13949,47 @@
       <c r="M108" s="112">
         <v>0</v>
       </c>
-      <c r="N108" s="112"/>
+      <c r="N108" s="112">
+        <v>0</v>
+      </c>
       <c r="O108" s="112"/>
       <c r="P108" s="112"/>
-      <c r="Q108" s="112"/>
-      <c r="S108" s="124" t="s">
-        <v>115</v>
+      <c r="R108" s="124" t="s">
+        <v>110</v>
+      </c>
+      <c r="S108" s="125">
+        <f t="shared" ref="S108:S116" si="4">SUMIF($C$5:$C$157,R108,$G$5:$G$157)</f>
+        <v>38</v>
       </c>
       <c r="T108" s="125">
-        <f t="shared" ref="T108:T116" si="7">SUMIF($C$5:$C$157,S108,$G$5:$G$157)</f>
-        <v>41</v>
+        <f t="shared" ref="T108:T116" ca="1" si="5">SUMIF($C$5:$C$156,R108,$I$5:$I$157)</f>
+        <v>10</v>
       </c>
       <c r="U108" s="125">
-        <f t="shared" ref="U108:U116" ca="1" si="8">SUMIF($C$5:$C$156,S108,$I$5:$I$157)</f>
-        <v>24</v>
-      </c>
-      <c r="V108" s="125">
-        <f t="shared" ref="V108:V116" si="9">SUMIF($C$5:$C$157,S108,$H$5:$H$157)</f>
-        <v>25</v>
-      </c>
-      <c r="W108" s="126">
-        <f t="shared" ref="W108:W116" si="10">COUNTA($J$2:$Q$2)*6-COUNTA($J$4:$Q$4)*6</f>
-        <v>24</v>
-      </c>
-      <c r="X108" s="127">
-        <f t="shared" ref="X108:X116" ca="1" si="11">IF(W108&gt;U108,0,U108-W108)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:24">
+        <f t="shared" ref="U108:U116" si="6">SUMIF($C$5:$C$157,R108,$H$5:$H$157)</f>
+        <v>30</v>
+      </c>
+      <c r="V108" s="126">
+        <f>COUNTA($J$2:$P$2)*6-COUNTA($J$4:$P$4)*6</f>
+        <v>12</v>
+      </c>
+      <c r="W108" s="127">
+        <f t="shared" ref="W108:W116" ca="1" si="7">IF(V108&gt;T108,0,T108-V108)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23">
       <c r="A109" s="105">
         <v>105</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D109" s="111" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="E109" s="109">
@@ -13896,7 +14005,7 @@
         <v>3</v>
       </c>
       <c r="I109" s="111">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J109)=FALSE,OFFSET(I109,0,COUNTA(J109:P109)),"")</f>
         <v>0</v>
       </c>
       <c r="J109" s="112">
@@ -13911,46 +14020,47 @@
       <c r="M109" s="112">
         <v>0</v>
       </c>
-      <c r="N109" s="112"/>
+      <c r="N109" s="112">
+        <v>0</v>
+      </c>
       <c r="O109" s="112"/>
       <c r="P109" s="112"/>
-      <c r="Q109" s="112"/>
-      <c r="S109" s="124" t="s">
-        <v>116</v>
+      <c r="R109" s="124" t="s">
+        <v>111</v>
+      </c>
+      <c r="S109" s="125">
+        <f t="shared" si="4"/>
+        <v>55</v>
       </c>
       <c r="T109" s="125">
-        <f t="shared" si="7"/>
-        <v>44</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>23</v>
       </c>
       <c r="U109" s="125">
-        <f t="shared" ca="1" si="8"/>
-        <v>28</v>
-      </c>
-      <c r="V109" s="125">
-        <f t="shared" si="9"/>
-        <v>18</v>
-      </c>
-      <c r="W109" s="126">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="X109" s="127">
-        <f t="shared" ca="1" si="11"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="V109" s="126">
+        <f>COUNTA($J$2:$P$2)*6-COUNTA($J$4:$P$4)*6</f>
+        <v>12</v>
+      </c>
+      <c r="W109" s="127">
+        <f t="shared" ca="1" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23">
       <c r="A110" s="105">
         <v>106</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D110" s="111" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="E110" s="4">
@@ -13966,7 +14076,7 @@
         <v>3</v>
       </c>
       <c r="I110" s="111">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J110)=FALSE,OFFSET(I110,0,COUNTA(J110:P110)),"")</f>
         <v>0</v>
       </c>
       <c r="J110" s="112">
@@ -13981,47 +14091,48 @@
       <c r="M110" s="112">
         <v>0</v>
       </c>
-      <c r="N110" s="112"/>
+      <c r="N110" s="112">
+        <v>0</v>
+      </c>
       <c r="O110" s="112"/>
       <c r="P110" s="112"/>
-      <c r="Q110" s="112"/>
-      <c r="S110" s="124" t="s">
-        <v>117</v>
+      <c r="R110" s="124" t="s">
+        <v>112</v>
+      </c>
+      <c r="S110" s="125">
+        <f t="shared" si="4"/>
+        <v>24</v>
       </c>
       <c r="T110" s="125">
-        <f t="shared" si="7"/>
-        <v>28</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>18</v>
       </c>
       <c r="U110" s="125">
-        <f t="shared" ca="1" si="8"/>
-        <v>21</v>
-      </c>
-      <c r="V110" s="125">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="W110" s="126">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="X110" s="127">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:24">
+      <c r="V110" s="126">
+        <f>COUNTA($J$2:$P$2)*6-COUNTA($J$4:$P$4)*6</f>
+        <v>12</v>
+      </c>
+      <c r="W110" s="127">
+        <f t="shared" ca="1" si="7"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23">
       <c r="A111" s="105">
         <v>107</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D111" s="111" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>完了</v>
       </c>
       <c r="E111" s="109">
         <v>43049</v>
@@ -14036,8 +14147,8 @@
         <v>4</v>
       </c>
       <c r="I111" s="111">
-        <f ca="1">IF(ISBLANK(J111)=FALSE,OFFSET(I111,0,COUNTA(J111:Q111)),"")</f>
-        <v>1</v>
+        <f ca="1">IF(ISBLANK(J111)=FALSE,OFFSET(I111,0,COUNTA(J111:P111)),"")</f>
+        <v>0</v>
       </c>
       <c r="J111" s="112">
         <v>4</v>
@@ -14051,46 +14162,47 @@
       <c r="M111" s="112">
         <v>1</v>
       </c>
-      <c r="N111" s="112"/>
+      <c r="N111" s="112">
+        <v>0</v>
+      </c>
       <c r="O111" s="112"/>
       <c r="P111" s="112"/>
-      <c r="Q111" s="112"/>
-      <c r="S111" s="124" t="s">
-        <v>118</v>
+      <c r="R111" s="124" t="s">
+        <v>113</v>
+      </c>
+      <c r="S111" s="125">
+        <f t="shared" si="4"/>
+        <v>36</v>
       </c>
       <c r="T111" s="125">
-        <f t="shared" si="7"/>
-        <v>36</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="U111" s="125">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="V111" s="125">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="W111" s="126">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="X111" s="127">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:24">
+      <c r="V111" s="126">
+        <f>COUNTA($J$2:$P$2)*6-COUNTA($J$4:$P$4)*6</f>
+        <v>12</v>
+      </c>
+      <c r="W111" s="127">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23">
       <c r="A112" s="105">
         <v>108</v>
       </c>
       <c r="B112" s="129" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D112" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="E112" s="109">
@@ -14102,7 +14214,7 @@
       </c>
       <c r="H112" s="110"/>
       <c r="I112" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J112)=FALSE,OFFSET(I112,0,COUNTA(J112:P112)),"")</f>
         <v/>
       </c>
       <c r="J112" s="112"/>
@@ -14112,37 +14224,36 @@
       <c r="N112" s="112"/>
       <c r="O112" s="112"/>
       <c r="P112" s="112"/>
-      <c r="Q112" s="112"/>
-      <c r="S112" s="124"/>
+      <c r="R112" s="124"/>
+      <c r="S112" s="125">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="T112" s="125">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U112" s="125">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V112" s="126">
+        <f>COUNTA($J$2:$P$2)*6-COUNTA($J$4:$P$4)*6</f>
+        <v>12</v>
+      </c>
+      <c r="W112" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U112" s="125">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V112" s="125">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W112" s="126">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="X112" s="127">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:24">
+    </row>
+    <row r="113" spans="1:23">
       <c r="A113" s="105">
         <v>109</v>
       </c>
       <c r="B113" s="116"/>
       <c r="C113" s="115"/>
       <c r="D113" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E113" s="109"/>
@@ -14150,7 +14261,7 @@
       <c r="G113" s="110"/>
       <c r="H113" s="110"/>
       <c r="I113" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J113)=FALSE,OFFSET(I113,0,COUNTA(J113:P113)),"")</f>
         <v/>
       </c>
       <c r="J113" s="112"/>
@@ -14160,37 +14271,36 @@
       <c r="N113" s="112"/>
       <c r="O113" s="112"/>
       <c r="P113" s="112"/>
-      <c r="Q113" s="112"/>
-      <c r="S113" s="124"/>
+      <c r="R113" s="124"/>
+      <c r="S113" s="125">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="T113" s="125">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U113" s="125">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V113" s="126">
+        <f>COUNTA($J$2:$P$2)*6-COUNTA($J$4:$P$4)*6</f>
+        <v>12</v>
+      </c>
+      <c r="W113" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U113" s="125">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V113" s="125">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W113" s="126">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="X113" s="127">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:24">
+    </row>
+    <row r="114" spans="1:23">
       <c r="A114" s="105">
         <v>110</v>
       </c>
       <c r="B114" s="116"/>
       <c r="C114" s="115"/>
       <c r="D114" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E114" s="109"/>
@@ -14198,7 +14308,7 @@
       <c r="G114" s="110"/>
       <c r="H114" s="110"/>
       <c r="I114" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J114)=FALSE,OFFSET(I114,0,COUNTA(J114:P114)),"")</f>
         <v/>
       </c>
       <c r="J114" s="112"/>
@@ -14208,37 +14318,36 @@
       <c r="N114" s="112"/>
       <c r="O114" s="112"/>
       <c r="P114" s="112"/>
-      <c r="Q114" s="112"/>
-      <c r="S114" s="124"/>
+      <c r="R114" s="124"/>
+      <c r="S114" s="125">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="T114" s="125">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U114" s="125">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V114" s="126">
+        <f>COUNTA($J$2:$P$2)*6-COUNTA($J$4:$P$4)*6</f>
+        <v>12</v>
+      </c>
+      <c r="W114" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U114" s="125">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V114" s="125">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W114" s="126">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="X114" s="127">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:24">
+    </row>
+    <row r="115" spans="1:23">
       <c r="A115" s="105">
         <v>111</v>
       </c>
       <c r="B115" s="116"/>
       <c r="C115" s="115"/>
       <c r="D115" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E115" s="109"/>
@@ -14246,7 +14355,7 @@
       <c r="G115" s="110"/>
       <c r="H115" s="110"/>
       <c r="I115" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J115)=FALSE,OFFSET(I115,0,COUNTA(J115:P115)),"")</f>
         <v/>
       </c>
       <c r="J115" s="112"/>
@@ -14256,37 +14365,36 @@
       <c r="N115" s="112"/>
       <c r="O115" s="112"/>
       <c r="P115" s="112"/>
-      <c r="Q115" s="112"/>
-      <c r="S115" s="124"/>
+      <c r="R115" s="124"/>
+      <c r="S115" s="125">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="T115" s="125">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U115" s="125">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V115" s="126">
+        <f>COUNTA($J$2:$P$2)*6-COUNTA($J$4:$P$4)*6</f>
+        <v>12</v>
+      </c>
+      <c r="W115" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U115" s="125">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V115" s="125">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W115" s="126">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="X115" s="127">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:24">
+    </row>
+    <row r="116" spans="1:23">
       <c r="A116" s="105">
         <v>112</v>
       </c>
       <c r="B116" s="116"/>
       <c r="C116" s="115"/>
       <c r="D116" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E116" s="109"/>
@@ -14294,7 +14402,7 @@
       <c r="G116" s="110"/>
       <c r="H116" s="110"/>
       <c r="I116" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J116)=FALSE,OFFSET(I116,0,COUNTA(J116:P116)),"")</f>
         <v/>
       </c>
       <c r="J116" s="112"/>
@@ -14304,37 +14412,36 @@
       <c r="N116" s="112"/>
       <c r="O116" s="112"/>
       <c r="P116" s="112"/>
-      <c r="Q116" s="112"/>
-      <c r="S116" s="124"/>
+      <c r="R116" s="124"/>
+      <c r="S116" s="125">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="T116" s="125">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U116" s="125">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V116" s="126">
+        <f>COUNTA($J$2:$P$2)*6-COUNTA($J$4:$P$4)*6</f>
+        <v>12</v>
+      </c>
+      <c r="W116" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U116" s="125">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V116" s="125">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W116" s="126">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="X116" s="127">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:24">
+    </row>
+    <row r="117" spans="1:23">
       <c r="A117" s="105">
         <v>113</v>
       </c>
       <c r="B117" s="116"/>
       <c r="C117" s="115"/>
       <c r="D117" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E117" s="109"/>
@@ -14342,7 +14449,7 @@
       <c r="G117" s="110"/>
       <c r="H117" s="110"/>
       <c r="I117" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J117)=FALSE,OFFSET(I117,0,COUNTA(J117:P117)),"")</f>
         <v/>
       </c>
       <c r="J117" s="112"/>
@@ -14352,16 +14459,15 @@
       <c r="N117" s="112"/>
       <c r="O117" s="112"/>
       <c r="P117" s="112"/>
-      <c r="Q117" s="112"/>
-    </row>
-    <row r="118" spans="1:24">
+    </row>
+    <row r="118" spans="1:23">
       <c r="A118" s="105">
         <v>114</v>
       </c>
       <c r="B118" s="116"/>
       <c r="C118" s="115"/>
       <c r="D118" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E118" s="109"/>
@@ -14369,7 +14475,7 @@
       <c r="G118" s="110"/>
       <c r="H118" s="110"/>
       <c r="I118" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J118)=FALSE,OFFSET(I118,0,COUNTA(J118:P118)),"")</f>
         <v/>
       </c>
       <c r="J118" s="112"/>
@@ -14379,16 +14485,15 @@
       <c r="N118" s="112"/>
       <c r="O118" s="112"/>
       <c r="P118" s="112"/>
-      <c r="Q118" s="112"/>
-    </row>
-    <row r="119" spans="1:24">
+    </row>
+    <row r="119" spans="1:23">
       <c r="A119" s="105">
         <v>115</v>
       </c>
       <c r="B119" s="116"/>
       <c r="C119" s="115"/>
       <c r="D119" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E119" s="109"/>
@@ -14396,7 +14501,7 @@
       <c r="G119" s="110"/>
       <c r="H119" s="110"/>
       <c r="I119" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J119)=FALSE,OFFSET(I119,0,COUNTA(J119:P119)),"")</f>
         <v/>
       </c>
       <c r="J119" s="112"/>
@@ -14406,16 +14511,15 @@
       <c r="N119" s="112"/>
       <c r="O119" s="112"/>
       <c r="P119" s="112"/>
-      <c r="Q119" s="112"/>
-    </row>
-    <row r="120" spans="1:24">
+    </row>
+    <row r="120" spans="1:23">
       <c r="A120" s="105">
         <v>116</v>
       </c>
       <c r="B120" s="116"/>
       <c r="C120" s="115"/>
       <c r="D120" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E120" s="109"/>
@@ -14423,7 +14527,7 @@
       <c r="G120" s="110"/>
       <c r="H120" s="110"/>
       <c r="I120" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J120)=FALSE,OFFSET(I120,0,COUNTA(J120:P120)),"")</f>
         <v/>
       </c>
       <c r="J120" s="112"/>
@@ -14433,16 +14537,15 @@
       <c r="N120" s="112"/>
       <c r="O120" s="112"/>
       <c r="P120" s="112"/>
-      <c r="Q120" s="112"/>
-    </row>
-    <row r="121" spans="1:24">
+    </row>
+    <row r="121" spans="1:23">
       <c r="A121" s="105">
         <v>117</v>
       </c>
       <c r="B121" s="116"/>
       <c r="C121" s="115"/>
       <c r="D121" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E121" s="109"/>
@@ -14450,7 +14553,7 @@
       <c r="G121" s="110"/>
       <c r="H121" s="110"/>
       <c r="I121" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J121)=FALSE,OFFSET(I121,0,COUNTA(J121:P121)),"")</f>
         <v/>
       </c>
       <c r="J121" s="112"/>
@@ -14460,16 +14563,15 @@
       <c r="N121" s="112"/>
       <c r="O121" s="112"/>
       <c r="P121" s="112"/>
-      <c r="Q121" s="112"/>
-    </row>
-    <row r="122" spans="1:24">
+    </row>
+    <row r="122" spans="1:23">
       <c r="A122" s="105">
         <v>118</v>
       </c>
       <c r="B122" s="116"/>
       <c r="C122" s="115"/>
       <c r="D122" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E122" s="109"/>
@@ -14477,7 +14579,7 @@
       <c r="G122" s="110"/>
       <c r="H122" s="110"/>
       <c r="I122" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J122)=FALSE,OFFSET(I122,0,COUNTA(J122:P122)),"")</f>
         <v/>
       </c>
       <c r="J122" s="112"/>
@@ -14487,16 +14589,15 @@
       <c r="N122" s="112"/>
       <c r="O122" s="112"/>
       <c r="P122" s="112"/>
-      <c r="Q122" s="112"/>
-    </row>
-    <row r="123" spans="1:24">
+    </row>
+    <row r="123" spans="1:23">
       <c r="A123" s="105">
         <v>119</v>
       </c>
       <c r="B123" s="116"/>
       <c r="C123" s="115"/>
       <c r="D123" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E123" s="109"/>
@@ -14504,7 +14605,7 @@
       <c r="G123" s="110"/>
       <c r="H123" s="110"/>
       <c r="I123" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J123)=FALSE,OFFSET(I123,0,COUNTA(J123:P123)),"")</f>
         <v/>
       </c>
       <c r="J123" s="112"/>
@@ -14514,16 +14615,15 @@
       <c r="N123" s="112"/>
       <c r="O123" s="112"/>
       <c r="P123" s="112"/>
-      <c r="Q123" s="112"/>
-    </row>
-    <row r="124" spans="1:24">
+    </row>
+    <row r="124" spans="1:23">
       <c r="A124" s="105">
         <v>120</v>
       </c>
       <c r="B124" s="116"/>
       <c r="C124" s="115"/>
       <c r="D124" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E124" s="109"/>
@@ -14531,7 +14631,7 @@
       <c r="G124" s="110"/>
       <c r="H124" s="110"/>
       <c r="I124" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J124)=FALSE,OFFSET(I124,0,COUNTA(J124:P124)),"")</f>
         <v/>
       </c>
       <c r="J124" s="112"/>
@@ -14541,16 +14641,15 @@
       <c r="N124" s="112"/>
       <c r="O124" s="112"/>
       <c r="P124" s="112"/>
-      <c r="Q124" s="112"/>
-    </row>
-    <row r="125" spans="1:24">
+    </row>
+    <row r="125" spans="1:23">
       <c r="A125" s="105">
         <v>121</v>
       </c>
       <c r="B125" s="116"/>
       <c r="C125" s="115"/>
       <c r="D125" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E125" s="109"/>
@@ -14558,7 +14657,7 @@
       <c r="G125" s="110"/>
       <c r="H125" s="110"/>
       <c r="I125" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J125)=FALSE,OFFSET(I125,0,COUNTA(J125:P125)),"")</f>
         <v/>
       </c>
       <c r="J125" s="112"/>
@@ -14568,16 +14667,15 @@
       <c r="N125" s="112"/>
       <c r="O125" s="112"/>
       <c r="P125" s="112"/>
-      <c r="Q125" s="112"/>
-    </row>
-    <row r="126" spans="1:24">
+    </row>
+    <row r="126" spans="1:23">
       <c r="A126" s="105">
         <v>122</v>
       </c>
       <c r="B126" s="116"/>
       <c r="C126" s="115"/>
       <c r="D126" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E126" s="109"/>
@@ -14585,7 +14683,7 @@
       <c r="G126" s="110"/>
       <c r="H126" s="110"/>
       <c r="I126" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J126)=FALSE,OFFSET(I126,0,COUNTA(J126:P126)),"")</f>
         <v/>
       </c>
       <c r="J126" s="112"/>
@@ -14595,16 +14693,15 @@
       <c r="N126" s="112"/>
       <c r="O126" s="112"/>
       <c r="P126" s="112"/>
-      <c r="Q126" s="112"/>
-    </row>
-    <row r="127" spans="1:24">
+    </row>
+    <row r="127" spans="1:23">
       <c r="A127" s="105">
         <v>123</v>
       </c>
       <c r="B127" s="116"/>
       <c r="C127" s="115"/>
       <c r="D127" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E127" s="109"/>
@@ -14612,7 +14709,7 @@
       <c r="G127" s="110"/>
       <c r="H127" s="110"/>
       <c r="I127" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J127)=FALSE,OFFSET(I127,0,COUNTA(J127:P127)),"")</f>
         <v/>
       </c>
       <c r="J127" s="112"/>
@@ -14622,16 +14719,15 @@
       <c r="N127" s="112"/>
       <c r="O127" s="112"/>
       <c r="P127" s="112"/>
-      <c r="Q127" s="112"/>
-    </row>
-    <row r="128" spans="1:24">
+    </row>
+    <row r="128" spans="1:23">
       <c r="A128" s="105">
         <v>124</v>
       </c>
       <c r="B128" s="116"/>
       <c r="C128" s="115"/>
       <c r="D128" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E128" s="109"/>
@@ -14639,7 +14735,7 @@
       <c r="G128" s="110"/>
       <c r="H128" s="110"/>
       <c r="I128" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J128)=FALSE,OFFSET(I128,0,COUNTA(J128:P128)),"")</f>
         <v/>
       </c>
       <c r="J128" s="112"/>
@@ -14649,16 +14745,15 @@
       <c r="N128" s="112"/>
       <c r="O128" s="112"/>
       <c r="P128" s="112"/>
-      <c r="Q128" s="112"/>
-    </row>
-    <row r="129" spans="1:17">
+    </row>
+    <row r="129" spans="1:16">
       <c r="A129" s="105">
         <v>125</v>
       </c>
       <c r="B129" s="116"/>
       <c r="C129" s="115"/>
       <c r="D129" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E129" s="109"/>
@@ -14666,7 +14761,7 @@
       <c r="G129" s="110"/>
       <c r="H129" s="110"/>
       <c r="I129" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J129)=FALSE,OFFSET(I129,0,COUNTA(J129:P129)),"")</f>
         <v/>
       </c>
       <c r="J129" s="112"/>
@@ -14676,16 +14771,15 @@
       <c r="N129" s="112"/>
       <c r="O129" s="112"/>
       <c r="P129" s="112"/>
-      <c r="Q129" s="112"/>
-    </row>
-    <row r="130" spans="1:17">
+    </row>
+    <row r="130" spans="1:16">
       <c r="A130" s="105">
         <v>126</v>
       </c>
       <c r="B130" s="116"/>
       <c r="C130" s="115"/>
       <c r="D130" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E130" s="109"/>
@@ -14693,7 +14787,7 @@
       <c r="G130" s="110"/>
       <c r="H130" s="110"/>
       <c r="I130" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J130)=FALSE,OFFSET(I130,0,COUNTA(J130:P130)),"")</f>
         <v/>
       </c>
       <c r="J130" s="112"/>
@@ -14703,16 +14797,15 @@
       <c r="N130" s="112"/>
       <c r="O130" s="112"/>
       <c r="P130" s="112"/>
-      <c r="Q130" s="112"/>
-    </row>
-    <row r="131" spans="1:17">
+    </row>
+    <row r="131" spans="1:16">
       <c r="A131" s="105">
         <v>127</v>
       </c>
       <c r="B131" s="116"/>
       <c r="C131" s="115"/>
       <c r="D131" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E131" s="109"/>
@@ -14720,7 +14813,7 @@
       <c r="G131" s="110"/>
       <c r="H131" s="110"/>
       <c r="I131" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J131)=FALSE,OFFSET(I131,0,COUNTA(J131:P131)),"")</f>
         <v/>
       </c>
       <c r="J131" s="112"/>
@@ -14730,16 +14823,15 @@
       <c r="N131" s="112"/>
       <c r="O131" s="112"/>
       <c r="P131" s="112"/>
-      <c r="Q131" s="112"/>
-    </row>
-    <row r="132" spans="1:17">
+    </row>
+    <row r="132" spans="1:16">
       <c r="A132" s="105">
         <v>128</v>
       </c>
       <c r="B132" s="116"/>
       <c r="C132" s="115"/>
       <c r="D132" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E132" s="109"/>
@@ -14747,7 +14839,7 @@
       <c r="G132" s="110"/>
       <c r="H132" s="110"/>
       <c r="I132" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J132)=FALSE,OFFSET(I132,0,COUNTA(J132:P132)),"")</f>
         <v/>
       </c>
       <c r="J132" s="112"/>
@@ -14757,16 +14849,15 @@
       <c r="N132" s="112"/>
       <c r="O132" s="112"/>
       <c r="P132" s="112"/>
-      <c r="Q132" s="112"/>
-    </row>
-    <row r="133" spans="1:17">
+    </row>
+    <row r="133" spans="1:16">
       <c r="A133" s="105">
         <v>129</v>
       </c>
       <c r="B133" s="116"/>
       <c r="C133" s="115"/>
       <c r="D133" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E133" s="109"/>
@@ -14774,7 +14865,7 @@
       <c r="G133" s="110"/>
       <c r="H133" s="110"/>
       <c r="I133" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J133)=FALSE,OFFSET(I133,0,COUNTA(J133:P133)),"")</f>
         <v/>
       </c>
       <c r="J133" s="112"/>
@@ -14784,16 +14875,15 @@
       <c r="N133" s="112"/>
       <c r="O133" s="112"/>
       <c r="P133" s="112"/>
-      <c r="Q133" s="112"/>
-    </row>
-    <row r="134" spans="1:17">
+    </row>
+    <row r="134" spans="1:16">
       <c r="A134" s="105">
         <v>130</v>
       </c>
       <c r="B134" s="116"/>
       <c r="C134" s="115"/>
       <c r="D134" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E134" s="109"/>
@@ -14801,7 +14891,7 @@
       <c r="G134" s="110"/>
       <c r="H134" s="110"/>
       <c r="I134" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J134)=FALSE,OFFSET(I134,0,COUNTA(J134:P134)),"")</f>
         <v/>
       </c>
       <c r="J134" s="112"/>
@@ -14811,16 +14901,15 @@
       <c r="N134" s="112"/>
       <c r="O134" s="112"/>
       <c r="P134" s="112"/>
-      <c r="Q134" s="112"/>
-    </row>
-    <row r="135" spans="1:17">
+    </row>
+    <row r="135" spans="1:16">
       <c r="A135" s="105">
         <v>131</v>
       </c>
       <c r="B135" s="116"/>
       <c r="C135" s="115"/>
       <c r="D135" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E135" s="109"/>
@@ -14828,7 +14917,7 @@
       <c r="G135" s="110"/>
       <c r="H135" s="110"/>
       <c r="I135" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J135)=FALSE,OFFSET(I135,0,COUNTA(J135:P135)),"")</f>
         <v/>
       </c>
       <c r="J135" s="112"/>
@@ -14838,16 +14927,15 @@
       <c r="N135" s="112"/>
       <c r="O135" s="112"/>
       <c r="P135" s="112"/>
-      <c r="Q135" s="112"/>
-    </row>
-    <row r="136" spans="1:17">
+    </row>
+    <row r="136" spans="1:16">
       <c r="A136" s="105">
         <v>132</v>
       </c>
       <c r="B136" s="116"/>
       <c r="C136" s="115"/>
       <c r="D136" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E136" s="109"/>
@@ -14855,7 +14943,7 @@
       <c r="G136" s="110"/>
       <c r="H136" s="110"/>
       <c r="I136" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J136)=FALSE,OFFSET(I136,0,COUNTA(J136:P136)),"")</f>
         <v/>
       </c>
       <c r="J136" s="112"/>
@@ -14865,16 +14953,15 @@
       <c r="N136" s="112"/>
       <c r="O136" s="112"/>
       <c r="P136" s="112"/>
-      <c r="Q136" s="112"/>
-    </row>
-    <row r="137" spans="1:17">
+    </row>
+    <row r="137" spans="1:16">
       <c r="A137" s="105">
         <v>133</v>
       </c>
       <c r="B137" s="116"/>
       <c r="C137" s="115"/>
       <c r="D137" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E137" s="109"/>
@@ -14882,7 +14969,7 @@
       <c r="G137" s="110"/>
       <c r="H137" s="110"/>
       <c r="I137" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J137)=FALSE,OFFSET(I137,0,COUNTA(J137:P137)),"")</f>
         <v/>
       </c>
       <c r="J137" s="112"/>
@@ -14892,16 +14979,15 @@
       <c r="N137" s="112"/>
       <c r="O137" s="112"/>
       <c r="P137" s="112"/>
-      <c r="Q137" s="112"/>
-    </row>
-    <row r="138" spans="1:17">
+    </row>
+    <row r="138" spans="1:16">
       <c r="A138" s="105">
         <v>134</v>
       </c>
       <c r="B138" s="116"/>
       <c r="C138" s="115"/>
       <c r="D138" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E138" s="109"/>
@@ -14909,7 +14995,7 @@
       <c r="G138" s="110"/>
       <c r="H138" s="110"/>
       <c r="I138" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J138)=FALSE,OFFSET(I138,0,COUNTA(J138:P138)),"")</f>
         <v/>
       </c>
       <c r="J138" s="112"/>
@@ -14919,16 +15005,15 @@
       <c r="N138" s="112"/>
       <c r="O138" s="112"/>
       <c r="P138" s="112"/>
-      <c r="Q138" s="112"/>
-    </row>
-    <row r="139" spans="1:17">
+    </row>
+    <row r="139" spans="1:16">
       <c r="A139" s="105">
         <v>135</v>
       </c>
       <c r="B139" s="116"/>
       <c r="C139" s="115"/>
       <c r="D139" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E139" s="109"/>
@@ -14936,7 +15021,7 @@
       <c r="G139" s="110"/>
       <c r="H139" s="110"/>
       <c r="I139" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J139)=FALSE,OFFSET(I139,0,COUNTA(J139:P139)),"")</f>
         <v/>
       </c>
       <c r="J139" s="112"/>
@@ -14946,16 +15031,15 @@
       <c r="N139" s="112"/>
       <c r="O139" s="112"/>
       <c r="P139" s="112"/>
-      <c r="Q139" s="112"/>
-    </row>
-    <row r="140" spans="1:17">
+    </row>
+    <row r="140" spans="1:16">
       <c r="A140" s="105">
         <v>136</v>
       </c>
       <c r="B140" s="116"/>
       <c r="C140" s="115"/>
       <c r="D140" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E140" s="109"/>
@@ -14963,7 +15047,7 @@
       <c r="G140" s="110"/>
       <c r="H140" s="110"/>
       <c r="I140" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J140)=FALSE,OFFSET(I140,0,COUNTA(J140:P140)),"")</f>
         <v/>
       </c>
       <c r="J140" s="112"/>
@@ -14973,16 +15057,15 @@
       <c r="N140" s="112"/>
       <c r="O140" s="112"/>
       <c r="P140" s="112"/>
-      <c r="Q140" s="112"/>
-    </row>
-    <row r="141" spans="1:17">
+    </row>
+    <row r="141" spans="1:16">
       <c r="A141" s="105">
         <v>137</v>
       </c>
       <c r="B141" s="116"/>
       <c r="C141" s="115"/>
       <c r="D141" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E141" s="109"/>
@@ -14990,7 +15073,7 @@
       <c r="G141" s="110"/>
       <c r="H141" s="110"/>
       <c r="I141" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J141)=FALSE,OFFSET(I141,0,COUNTA(J141:P141)),"")</f>
         <v/>
       </c>
       <c r="J141" s="112"/>
@@ -15000,16 +15083,15 @@
       <c r="N141" s="112"/>
       <c r="O141" s="112"/>
       <c r="P141" s="112"/>
-      <c r="Q141" s="112"/>
-    </row>
-    <row r="142" spans="1:17">
+    </row>
+    <row r="142" spans="1:16">
       <c r="A142" s="105">
         <v>138</v>
       </c>
       <c r="B142" s="116"/>
       <c r="C142" s="115"/>
       <c r="D142" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E142" s="109"/>
@@ -15017,7 +15099,7 @@
       <c r="G142" s="110"/>
       <c r="H142" s="110"/>
       <c r="I142" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J142)=FALSE,OFFSET(I142,0,COUNTA(J142:P142)),"")</f>
         <v/>
       </c>
       <c r="J142" s="112"/>
@@ -15027,16 +15109,15 @@
       <c r="N142" s="112"/>
       <c r="O142" s="112"/>
       <c r="P142" s="112"/>
-      <c r="Q142" s="112"/>
-    </row>
-    <row r="143" spans="1:17">
+    </row>
+    <row r="143" spans="1:16">
       <c r="A143" s="105">
         <v>139</v>
       </c>
       <c r="B143" s="116"/>
       <c r="C143" s="115"/>
       <c r="D143" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E143" s="109"/>
@@ -15044,7 +15125,7 @@
       <c r="G143" s="110"/>
       <c r="H143" s="110"/>
       <c r="I143" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J143)=FALSE,OFFSET(I143,0,COUNTA(J143:P143)),"")</f>
         <v/>
       </c>
       <c r="J143" s="112"/>
@@ -15054,16 +15135,15 @@
       <c r="N143" s="112"/>
       <c r="O143" s="112"/>
       <c r="P143" s="112"/>
-      <c r="Q143" s="112"/>
-    </row>
-    <row r="144" spans="1:17">
+    </row>
+    <row r="144" spans="1:16">
       <c r="A144" s="105">
         <v>140</v>
       </c>
       <c r="B144" s="116"/>
       <c r="C144" s="115"/>
       <c r="D144" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E144" s="109"/>
@@ -15071,7 +15151,7 @@
       <c r="G144" s="110"/>
       <c r="H144" s="110"/>
       <c r="I144" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J144)=FALSE,OFFSET(I144,0,COUNTA(J144:P144)),"")</f>
         <v/>
       </c>
       <c r="J144" s="112"/>
@@ -15081,16 +15161,15 @@
       <c r="N144" s="112"/>
       <c r="O144" s="112"/>
       <c r="P144" s="112"/>
-      <c r="Q144" s="112"/>
-    </row>
-    <row r="145" spans="1:17">
+    </row>
+    <row r="145" spans="1:16">
       <c r="A145" s="105">
         <v>141</v>
       </c>
       <c r="B145" s="116"/>
       <c r="C145" s="115"/>
       <c r="D145" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E145" s="109"/>
@@ -15098,7 +15177,7 @@
       <c r="G145" s="110"/>
       <c r="H145" s="110"/>
       <c r="I145" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J145)=FALSE,OFFSET(I145,0,COUNTA(J145:P145)),"")</f>
         <v/>
       </c>
       <c r="J145" s="112"/>
@@ -15108,16 +15187,15 @@
       <c r="N145" s="112"/>
       <c r="O145" s="112"/>
       <c r="P145" s="112"/>
-      <c r="Q145" s="112"/>
-    </row>
-    <row r="146" spans="1:17">
+    </row>
+    <row r="146" spans="1:16">
       <c r="A146" s="105">
         <v>142</v>
       </c>
       <c r="B146" s="116"/>
       <c r="C146" s="115"/>
       <c r="D146" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E146" s="109"/>
@@ -15125,7 +15203,7 @@
       <c r="G146" s="110"/>
       <c r="H146" s="110"/>
       <c r="I146" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J146)=FALSE,OFFSET(I146,0,COUNTA(J146:P146)),"")</f>
         <v/>
       </c>
       <c r="J146" s="112"/>
@@ -15135,16 +15213,15 @@
       <c r="N146" s="112"/>
       <c r="O146" s="112"/>
       <c r="P146" s="112"/>
-      <c r="Q146" s="112"/>
-    </row>
-    <row r="147" spans="1:17">
+    </row>
+    <row r="147" spans="1:16">
       <c r="A147" s="105">
         <v>143</v>
       </c>
       <c r="B147" s="116"/>
       <c r="C147" s="115"/>
       <c r="D147" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E147" s="109"/>
@@ -15152,7 +15229,7 @@
       <c r="G147" s="110"/>
       <c r="H147" s="110"/>
       <c r="I147" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J147)=FALSE,OFFSET(I147,0,COUNTA(J147:P147)),"")</f>
         <v/>
       </c>
       <c r="J147" s="112"/>
@@ -15162,16 +15239,15 @@
       <c r="N147" s="112"/>
       <c r="O147" s="112"/>
       <c r="P147" s="112"/>
-      <c r="Q147" s="112"/>
-    </row>
-    <row r="148" spans="1:17">
+    </row>
+    <row r="148" spans="1:16">
       <c r="A148" s="105">
         <v>144</v>
       </c>
       <c r="B148" s="116"/>
       <c r="C148" s="115"/>
       <c r="D148" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E148" s="109"/>
@@ -15179,7 +15255,7 @@
       <c r="G148" s="110"/>
       <c r="H148" s="110"/>
       <c r="I148" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J148)=FALSE,OFFSET(I148,0,COUNTA(J148:P148)),"")</f>
         <v/>
       </c>
       <c r="J148" s="112"/>
@@ -15189,16 +15265,15 @@
       <c r="N148" s="112"/>
       <c r="O148" s="112"/>
       <c r="P148" s="112"/>
-      <c r="Q148" s="112"/>
-    </row>
-    <row r="149" spans="1:17">
+    </row>
+    <row r="149" spans="1:16">
       <c r="A149" s="105">
         <v>145</v>
       </c>
       <c r="B149" s="116"/>
       <c r="C149" s="115"/>
       <c r="D149" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E149" s="109"/>
@@ -15206,7 +15281,7 @@
       <c r="G149" s="110"/>
       <c r="H149" s="110"/>
       <c r="I149" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J149)=FALSE,OFFSET(I149,0,COUNTA(J149:P149)),"")</f>
         <v/>
       </c>
       <c r="J149" s="112"/>
@@ -15216,16 +15291,15 @@
       <c r="N149" s="112"/>
       <c r="O149" s="112"/>
       <c r="P149" s="112"/>
-      <c r="Q149" s="112"/>
-    </row>
-    <row r="150" spans="1:17">
+    </row>
+    <row r="150" spans="1:16">
       <c r="A150" s="105">
         <v>146</v>
       </c>
       <c r="B150" s="116"/>
       <c r="C150" s="115"/>
       <c r="D150" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E150" s="109"/>
@@ -15233,7 +15307,7 @@
       <c r="G150" s="110"/>
       <c r="H150" s="110"/>
       <c r="I150" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J150)=FALSE,OFFSET(I150,0,COUNTA(J150:P150)),"")</f>
         <v/>
       </c>
       <c r="J150" s="112"/>
@@ -15243,16 +15317,15 @@
       <c r="N150" s="112"/>
       <c r="O150" s="112"/>
       <c r="P150" s="112"/>
-      <c r="Q150" s="112"/>
-    </row>
-    <row r="151" spans="1:17">
+    </row>
+    <row r="151" spans="1:16">
       <c r="A151" s="105">
         <v>147</v>
       </c>
       <c r="B151" s="116"/>
       <c r="C151" s="115"/>
       <c r="D151" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E151" s="109"/>
@@ -15260,7 +15333,7 @@
       <c r="G151" s="110"/>
       <c r="H151" s="110"/>
       <c r="I151" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J151)=FALSE,OFFSET(I151,0,COUNTA(J151:P151)),"")</f>
         <v/>
       </c>
       <c r="J151" s="112"/>
@@ -15270,16 +15343,15 @@
       <c r="N151" s="112"/>
       <c r="O151" s="112"/>
       <c r="P151" s="112"/>
-      <c r="Q151" s="112"/>
-    </row>
-    <row r="152" spans="1:17">
+    </row>
+    <row r="152" spans="1:16">
       <c r="A152" s="105">
         <v>148</v>
       </c>
       <c r="B152" s="116"/>
       <c r="C152" s="115"/>
       <c r="D152" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E152" s="109"/>
@@ -15287,7 +15359,7 @@
       <c r="G152" s="110"/>
       <c r="H152" s="110"/>
       <c r="I152" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J152)=FALSE,OFFSET(I152,0,COUNTA(J152:P152)),"")</f>
         <v/>
       </c>
       <c r="J152" s="112"/>
@@ -15297,16 +15369,15 @@
       <c r="N152" s="112"/>
       <c r="O152" s="112"/>
       <c r="P152" s="112"/>
-      <c r="Q152" s="112"/>
-    </row>
-    <row r="153" spans="1:17">
+    </row>
+    <row r="153" spans="1:16">
       <c r="A153" s="105">
         <v>149</v>
       </c>
       <c r="B153" s="116"/>
       <c r="C153" s="115"/>
       <c r="D153" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E153" s="109"/>
@@ -15314,7 +15385,7 @@
       <c r="G153" s="110"/>
       <c r="H153" s="110"/>
       <c r="I153" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J153)=FALSE,OFFSET(I153,0,COUNTA(J153:P153)),"")</f>
         <v/>
       </c>
       <c r="J153" s="112"/>
@@ -15324,16 +15395,15 @@
       <c r="N153" s="112"/>
       <c r="O153" s="112"/>
       <c r="P153" s="112"/>
-      <c r="Q153" s="112"/>
-    </row>
-    <row r="154" spans="1:17">
+    </row>
+    <row r="154" spans="1:16">
       <c r="A154" s="105">
         <v>150</v>
       </c>
       <c r="B154" s="116"/>
       <c r="C154" s="115"/>
       <c r="D154" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E154" s="109"/>
@@ -15341,7 +15411,7 @@
       <c r="G154" s="110"/>
       <c r="H154" s="110"/>
       <c r="I154" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J154)=FALSE,OFFSET(I154,0,COUNTA(J154:P154)),"")</f>
         <v/>
       </c>
       <c r="J154" s="112"/>
@@ -15351,16 +15421,15 @@
       <c r="N154" s="112"/>
       <c r="O154" s="112"/>
       <c r="P154" s="112"/>
-      <c r="Q154" s="112"/>
-    </row>
-    <row r="155" spans="1:17">
+    </row>
+    <row r="155" spans="1:16">
       <c r="A155" s="105">
         <v>151</v>
       </c>
       <c r="B155" s="116"/>
       <c r="C155" s="115"/>
       <c r="D155" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E155" s="109"/>
@@ -15368,7 +15437,7 @@
       <c r="G155" s="110"/>
       <c r="H155" s="110"/>
       <c r="I155" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J155)=FALSE,OFFSET(I155,0,COUNTA(J155:P155)),"")</f>
         <v/>
       </c>
       <c r="J155" s="112"/>
@@ -15378,16 +15447,15 @@
       <c r="N155" s="112"/>
       <c r="O155" s="112"/>
       <c r="P155" s="112"/>
-      <c r="Q155" s="112"/>
-    </row>
-    <row r="156" spans="1:17">
+    </row>
+    <row r="156" spans="1:16">
       <c r="A156" s="105">
         <v>152</v>
       </c>
       <c r="B156" s="116"/>
       <c r="C156" s="115"/>
       <c r="D156" s="111" t="str">
-        <f t="shared" ref="D156:D157" si="12">IF(ISBLANK($B156),"",IF(ISBLANK($F156),"未着手",IF($I156=0,"完了","作業中")))</f>
+        <f t="shared" ref="D156:D157" si="8">IF(ISBLANK($B156),"",IF(ISBLANK($F156),"未着手",IF($I156=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="E156" s="109"/>
@@ -15395,7 +15463,7 @@
       <c r="G156" s="110"/>
       <c r="H156" s="110"/>
       <c r="I156" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J156)=FALSE,OFFSET(I156,0,COUNTA(J156:P156)),"")</f>
         <v/>
       </c>
       <c r="J156" s="112"/>
@@ -15405,16 +15473,15 @@
       <c r="N156" s="112"/>
       <c r="O156" s="112"/>
       <c r="P156" s="112"/>
-      <c r="Q156" s="112"/>
-    </row>
-    <row r="157" spans="1:17">
+    </row>
+    <row r="157" spans="1:16">
       <c r="A157" s="105">
         <v>153</v>
       </c>
       <c r="B157" s="116"/>
       <c r="C157" s="115"/>
       <c r="D157" s="111" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E157" s="109"/>
@@ -15422,7 +15489,7 @@
       <c r="G157" s="110"/>
       <c r="H157" s="110"/>
       <c r="I157" s="111" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(J157)=FALSE,OFFSET(I157,0,COUNTA(J157:P157)),"")</f>
         <v/>
       </c>
       <c r="J157" s="112"/>
@@ -15432,9 +15499,8 @@
       <c r="N157" s="112"/>
       <c r="O157" s="112"/>
       <c r="P157" s="112"/>
-      <c r="Q157" s="112"/>
-    </row>
-    <row r="158" spans="1:17">
+    </row>
+    <row r="158" spans="1:16">
       <c r="J158" s="122"/>
       <c r="K158" s="122"/>
       <c r="L158" s="122"/>
@@ -15442,9 +15508,8 @@
       <c r="N158" s="122"/>
       <c r="O158" s="122"/>
       <c r="P158" s="122"/>
-      <c r="Q158" s="122"/>
-    </row>
-    <row r="159" spans="1:17">
+    </row>
+    <row r="159" spans="1:16">
       <c r="J159" s="122"/>
       <c r="K159" s="122"/>
       <c r="L159" s="122"/>
@@ -15452,9 +15517,8 @@
       <c r="N159" s="122"/>
       <c r="O159" s="122"/>
       <c r="P159" s="122"/>
-      <c r="Q159" s="122"/>
-    </row>
-    <row r="160" spans="1:17">
+    </row>
+    <row r="160" spans="1:16">
       <c r="J160" s="122"/>
       <c r="K160" s="122"/>
       <c r="L160" s="122"/>
@@ -15462,9 +15526,8 @@
       <c r="N160" s="122"/>
       <c r="O160" s="122"/>
       <c r="P160" s="122"/>
-      <c r="Q160" s="122"/>
-    </row>
-    <row r="161" spans="10:17">
+    </row>
+    <row r="161" spans="10:16">
       <c r="J161" s="122"/>
       <c r="K161" s="122"/>
       <c r="L161" s="122"/>
@@ -15472,9 +15535,8 @@
       <c r="N161" s="122"/>
       <c r="O161" s="122"/>
       <c r="P161" s="122"/>
-      <c r="Q161" s="122"/>
-    </row>
-    <row r="162" spans="10:17">
+    </row>
+    <row r="162" spans="10:16">
       <c r="J162" s="122"/>
       <c r="K162" s="122"/>
       <c r="L162" s="122"/>
@@ -15482,9 +15544,8 @@
       <c r="N162" s="122"/>
       <c r="O162" s="122"/>
       <c r="P162" s="122"/>
-      <c r="Q162" s="122"/>
-    </row>
-    <row r="163" spans="10:17">
+    </row>
+    <row r="163" spans="10:16">
       <c r="J163" s="122"/>
       <c r="K163" s="122"/>
       <c r="L163" s="122"/>
@@ -15492,9 +15553,8 @@
       <c r="N163" s="122"/>
       <c r="O163" s="122"/>
       <c r="P163" s="122"/>
-      <c r="Q163" s="122"/>
-    </row>
-    <row r="164" spans="10:17">
+    </row>
+    <row r="164" spans="10:16">
       <c r="J164" s="122"/>
       <c r="K164" s="122"/>
       <c r="L164" s="122"/>
@@ -15502,9 +15562,8 @@
       <c r="N164" s="122"/>
       <c r="O164" s="122"/>
       <c r="P164" s="122"/>
-      <c r="Q164" s="122"/>
-    </row>
-    <row r="165" spans="10:17">
+    </row>
+    <row r="165" spans="10:16">
       <c r="J165" s="122"/>
       <c r="K165" s="122"/>
       <c r="L165" s="122"/>
@@ -15512,9 +15571,8 @@
       <c r="N165" s="122"/>
       <c r="O165" s="122"/>
       <c r="P165" s="122"/>
-      <c r="Q165" s="122"/>
-    </row>
-    <row r="166" spans="10:17">
+    </row>
+    <row r="166" spans="10:16">
       <c r="J166" s="122"/>
       <c r="K166" s="122"/>
       <c r="L166" s="122"/>
@@ -15522,9 +15580,8 @@
       <c r="N166" s="122"/>
       <c r="O166" s="122"/>
       <c r="P166" s="122"/>
-      <c r="Q166" s="122"/>
-    </row>
-    <row r="167" spans="10:17">
+    </row>
+    <row r="167" spans="10:16">
       <c r="J167" s="122"/>
       <c r="K167" s="122"/>
       <c r="L167" s="122"/>
@@ -15532,9 +15589,8 @@
       <c r="N167" s="122"/>
       <c r="O167" s="122"/>
       <c r="P167" s="122"/>
-      <c r="Q167" s="122"/>
-    </row>
-    <row r="168" spans="10:17">
+    </row>
+    <row r="168" spans="10:16">
       <c r="J168" s="122"/>
       <c r="K168" s="122"/>
       <c r="L168" s="122"/>
@@ -15542,9 +15598,8 @@
       <c r="N168" s="122"/>
       <c r="O168" s="122"/>
       <c r="P168" s="122"/>
-      <c r="Q168" s="122"/>
-    </row>
-    <row r="169" spans="10:17">
+    </row>
+    <row r="169" spans="10:16">
       <c r="J169" s="122"/>
       <c r="K169" s="122"/>
       <c r="L169" s="122"/>
@@ -15552,9 +15607,8 @@
       <c r="N169" s="122"/>
       <c r="O169" s="122"/>
       <c r="P169" s="122"/>
-      <c r="Q169" s="122"/>
-    </row>
-    <row r="170" spans="10:17">
+    </row>
+    <row r="170" spans="10:16">
       <c r="J170" s="122"/>
       <c r="K170" s="122"/>
       <c r="L170" s="122"/>
@@ -15562,9 +15616,8 @@
       <c r="N170" s="122"/>
       <c r="O170" s="122"/>
       <c r="P170" s="122"/>
-      <c r="Q170" s="122"/>
-    </row>
-    <row r="171" spans="10:17">
+    </row>
+    <row r="171" spans="10:16">
       <c r="J171" s="122"/>
       <c r="K171" s="122"/>
       <c r="L171" s="122"/>
@@ -15572,9 +15625,8 @@
       <c r="N171" s="122"/>
       <c r="O171" s="122"/>
       <c r="P171" s="122"/>
-      <c r="Q171" s="122"/>
-    </row>
-    <row r="172" spans="10:17">
+    </row>
+    <row r="172" spans="10:16">
       <c r="J172" s="122"/>
       <c r="K172" s="122"/>
       <c r="L172" s="122"/>
@@ -15582,9 +15634,8 @@
       <c r="N172" s="122"/>
       <c r="O172" s="122"/>
       <c r="P172" s="122"/>
-      <c r="Q172" s="122"/>
-    </row>
-    <row r="173" spans="10:17">
+    </row>
+    <row r="173" spans="10:16">
       <c r="J173" s="122"/>
       <c r="K173" s="122"/>
       <c r="L173" s="122"/>
@@ -15592,9 +15643,8 @@
       <c r="N173" s="122"/>
       <c r="O173" s="122"/>
       <c r="P173" s="122"/>
-      <c r="Q173" s="122"/>
-    </row>
-    <row r="174" spans="10:17">
+    </row>
+    <row r="174" spans="10:16">
       <c r="J174" s="122"/>
       <c r="K174" s="122"/>
       <c r="L174" s="122"/>
@@ -15602,9 +15652,8 @@
       <c r="N174" s="122"/>
       <c r="O174" s="122"/>
       <c r="P174" s="122"/>
-      <c r="Q174" s="122"/>
-    </row>
-    <row r="175" spans="10:17">
+    </row>
+    <row r="175" spans="10:16">
       <c r="J175" s="122"/>
       <c r="K175" s="122"/>
       <c r="L175" s="122"/>
@@ -15612,9 +15661,8 @@
       <c r="N175" s="122"/>
       <c r="O175" s="122"/>
       <c r="P175" s="122"/>
-      <c r="Q175" s="122"/>
-    </row>
-    <row r="176" spans="10:17">
+    </row>
+    <row r="176" spans="10:16">
       <c r="J176" s="122"/>
       <c r="K176" s="122"/>
       <c r="L176" s="122"/>
@@ -15622,9 +15670,8 @@
       <c r="N176" s="122"/>
       <c r="O176" s="122"/>
       <c r="P176" s="122"/>
-      <c r="Q176" s="122"/>
-    </row>
-    <row r="177" spans="10:17">
+    </row>
+    <row r="177" spans="10:16">
       <c r="J177" s="122"/>
       <c r="K177" s="122"/>
       <c r="L177" s="122"/>
@@ -15632,9 +15679,8 @@
       <c r="N177" s="122"/>
       <c r="O177" s="122"/>
       <c r="P177" s="122"/>
-      <c r="Q177" s="122"/>
-    </row>
-    <row r="178" spans="10:17">
+    </row>
+    <row r="178" spans="10:16">
       <c r="J178" s="122"/>
       <c r="K178" s="122"/>
       <c r="L178" s="122"/>
@@ -15642,9 +15688,8 @@
       <c r="N178" s="122"/>
       <c r="O178" s="122"/>
       <c r="P178" s="122"/>
-      <c r="Q178" s="122"/>
-    </row>
-    <row r="179" spans="10:17">
+    </row>
+    <row r="179" spans="10:16">
       <c r="J179" s="122"/>
       <c r="K179" s="122"/>
       <c r="L179" s="122"/>
@@ -15652,9 +15697,8 @@
       <c r="N179" s="122"/>
       <c r="O179" s="122"/>
       <c r="P179" s="122"/>
-      <c r="Q179" s="122"/>
-    </row>
-    <row r="180" spans="10:17">
+    </row>
+    <row r="180" spans="10:16">
       <c r="J180" s="122"/>
       <c r="K180" s="122"/>
       <c r="L180" s="122"/>
@@ -15662,9 +15706,8 @@
       <c r="N180" s="122"/>
       <c r="O180" s="122"/>
       <c r="P180" s="122"/>
-      <c r="Q180" s="122"/>
-    </row>
-    <row r="181" spans="10:17">
+    </row>
+    <row r="181" spans="10:16">
       <c r="J181" s="122"/>
       <c r="K181" s="122"/>
       <c r="L181" s="122"/>
@@ -15672,9 +15715,8 @@
       <c r="N181" s="122"/>
       <c r="O181" s="122"/>
       <c r="P181" s="122"/>
-      <c r="Q181" s="122"/>
-    </row>
-    <row r="182" spans="10:17">
+    </row>
+    <row r="182" spans="10:16">
       <c r="J182" s="122"/>
       <c r="K182" s="122"/>
       <c r="L182" s="122"/>
@@ -15682,9 +15724,8 @@
       <c r="N182" s="122"/>
       <c r="O182" s="122"/>
       <c r="P182" s="122"/>
-      <c r="Q182" s="122"/>
-    </row>
-    <row r="183" spans="10:17">
+    </row>
+    <row r="183" spans="10:16">
       <c r="J183" s="122"/>
       <c r="K183" s="122"/>
       <c r="L183" s="122"/>
@@ -15692,9 +15733,8 @@
       <c r="N183" s="122"/>
       <c r="O183" s="122"/>
       <c r="P183" s="122"/>
-      <c r="Q183" s="122"/>
-    </row>
-    <row r="184" spans="10:17">
+    </row>
+    <row r="184" spans="10:16">
       <c r="J184" s="122"/>
       <c r="K184" s="122"/>
       <c r="L184" s="122"/>
@@ -15702,9 +15742,8 @@
       <c r="N184" s="122"/>
       <c r="O184" s="122"/>
       <c r="P184" s="122"/>
-      <c r="Q184" s="122"/>
-    </row>
-    <row r="185" spans="10:17">
+    </row>
+    <row r="185" spans="10:16">
       <c r="J185" s="122"/>
       <c r="K185" s="122"/>
       <c r="L185" s="122"/>
@@ -15712,9 +15751,8 @@
       <c r="N185" s="122"/>
       <c r="O185" s="122"/>
       <c r="P185" s="122"/>
-      <c r="Q185" s="122"/>
-    </row>
-    <row r="186" spans="10:17">
+    </row>
+    <row r="186" spans="10:16">
       <c r="J186" s="122"/>
       <c r="K186" s="122"/>
       <c r="L186" s="122"/>
@@ -15722,9 +15760,8 @@
       <c r="N186" s="122"/>
       <c r="O186" s="122"/>
       <c r="P186" s="122"/>
-      <c r="Q186" s="122"/>
-    </row>
-    <row r="187" spans="10:17">
+    </row>
+    <row r="187" spans="10:16">
       <c r="J187" s="122"/>
       <c r="K187" s="122"/>
       <c r="L187" s="122"/>
@@ -15732,9 +15769,8 @@
       <c r="N187" s="122"/>
       <c r="O187" s="122"/>
       <c r="P187" s="122"/>
-      <c r="Q187" s="122"/>
-    </row>
-    <row r="188" spans="10:17">
+    </row>
+    <row r="188" spans="10:16">
       <c r="J188" s="122"/>
       <c r="K188" s="122"/>
       <c r="L188" s="122"/>
@@ -15742,11 +15778,10 @@
       <c r="N188" s="122"/>
       <c r="O188" s="122"/>
       <c r="P188" s="122"/>
-      <c r="Q188" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="I1:I4"/>
@@ -15769,7 +15804,7 @@
       <formula>OR(D158="終了",D158="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C101:XFD101 D92:XFD100 A5:A157 B113:Q157 B102:XFD104 B105:B111 C105:Q112 E5:XFD91">
+  <conditionalFormatting sqref="A5:A157 B105:B111 C101:XFD101 D92:XFD100 B113:P157 B102:XFD103 C111:P112 C105:M110 O105:P110 B104:M104 O104:XFD104 N104:N110 E5:XFD91">
     <cfRule type="expression" dxfId="59" priority="19" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
@@ -15802,7 +15837,7 @@
       <formula>OR(D158="終了",D158="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E158:Q65536">
+  <conditionalFormatting sqref="E158:P65536">
     <cfRule type="expression" dxfId="50" priority="28" stopIfTrue="1">
       <formula>$D158="未着手"</formula>
     </cfRule>
@@ -15871,9 +15906,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="J4" formulaRange="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -15905,97 +15937,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="151" t="s">
+      <c r="C1" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="157" t="s">
+      <c r="E1" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="157" t="s">
+      <c r="F1" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="149" t="s">
+      <c r="G1" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="149" t="s">
+      <c r="H1" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="151" t="s">
+      <c r="I1" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="152" t="s">
+      <c r="J1" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="155"/>
+      <c r="P1" s="155"/>
+      <c r="Q1" s="155"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="155"/>
     </row>
     <row r="2" spans="1:19" s="8" customFormat="1">
-      <c r="A2" s="151"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="151"/>
+      <c r="A2" s="152"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="152"/>
       <c r="J2" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="L2" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="M2" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="N2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="O2" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="P2" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="Q2" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="R2" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="R2" s="99" t="s">
+      <c r="S2" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="99" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="3" spans="1:19" s="8" customFormat="1">
-      <c r="A3" s="151"/>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="151"/>
+      <c r="A3" s="152"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="152"/>
       <c r="J3" s="20">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$S$2))))</f>
         <v>0</v>
@@ -16011,15 +16043,15 @@
       <c r="S3" s="20"/>
     </row>
     <row r="4" spans="1:19" s="8" customFormat="1">
-      <c r="A4" s="151"/>
-      <c r="B4" s="155"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="151"/>
+      <c r="A4" s="152"/>
+      <c r="B4" s="156"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="152"/>
       <c r="J4" s="21">
         <f>SUM(J5:J104)</f>
         <v>0</v>
@@ -19761,85 +19793,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="151" t="s">
+      <c r="C1" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="157" t="s">
+      <c r="E1" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="157" t="s">
+      <c r="F1" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="149" t="s">
+      <c r="G1" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="149" t="s">
+      <c r="H1" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="151" t="s">
+      <c r="I1" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="152" t="s">
+      <c r="J1" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="155"/>
+      <c r="P1" s="155"/>
     </row>
     <row r="2" spans="1:16" s="8" customFormat="1">
-      <c r="A2" s="151"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="151"/>
+      <c r="A2" s="152"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="152"/>
       <c r="J2" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="L2" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="M2" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="N2" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="O2" s="99" t="s">
+      <c r="P2" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="99" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="3" spans="1:16" s="8" customFormat="1">
-      <c r="A3" s="151"/>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="151"/>
+      <c r="A3" s="152"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="152"/>
       <c r="J3" s="20">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
         <v>0</v>
@@ -19852,15 +19884,15 @@
       <c r="P3" s="20"/>
     </row>
     <row r="4" spans="1:16" s="8" customFormat="1">
-      <c r="A4" s="151"/>
-      <c r="B4" s="155"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="151"/>
+      <c r="A4" s="152"/>
+      <c r="B4" s="156"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="152"/>
       <c r="J4" s="21">
         <f>SUM(J5:J104)</f>
         <v>0</v>

--- a/タスク/07班スプリントバックログ.xlsx
+++ b/タスク/07班スプリントバックログ.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kousuke Nakagawa\Desktop\Team07\タスク\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\teke07\タスク\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="3045" windowWidth="19230" windowHeight="12120" tabRatio="658" activeTab="1"/>
+    <workbookView xWindow="4815" yWindow="3045" windowWidth="19230" windowHeight="12120" tabRatio="658" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="1" r:id="rId1"/>
-    <sheet name="スプリントバックログ(第１）" sheetId="2" r:id="rId2"/>
-    <sheet name="スプリントバックログ(第２）" sheetId="10" r:id="rId3"/>
-    <sheet name="スプリントバックログ(第３）" sheetId="11" r:id="rId4"/>
+    <sheet name="α版" sheetId="2" r:id="rId2"/>
+    <sheet name="β版" sheetId="10" r:id="rId3"/>
+    <sheet name="master版" sheetId="11" r:id="rId4"/>
     <sheet name="デバッグシート" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -33,18 +33,18 @@
     <definedName name="登録者" localSheetId="4">OFFSET(デバッグシート!$R$2,0,0,COUNTA(デバッグシート!$R$2:$R$10),1)</definedName>
     <definedName name="登録者">OFFSET(#REF!,0,0,COUNTA(#REF!),1)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ohzu</author>
     <author>Windows ユーザー</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -93,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -141,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="1" shapeId="0">
+    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="1" shapeId="0">
+    <comment ref="P2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -189,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -209,13 +209,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ohzu</author>
     <author>Windows ユーザー</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -232,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -248,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -264,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -280,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -296,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -312,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -329,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="1" shapeId="0">
+    <comment ref="R2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -344,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="1" shapeId="0">
+    <comment ref="S2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -359,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -379,13 +379,13 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ohzu</author>
     <author>Windows ユーザー</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -402,7 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -418,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -434,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -450,7 +450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -466,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -482,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -499,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="1" shapeId="0">
+    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -515,7 +515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="1" shapeId="0">
+    <comment ref="P2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -530,7 +530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="154">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -1258,16 +1258,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>カートの種類を増やす</t>
-    <rPh sb="4" eb="6">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>時間表示のカートをゲーム開始に合わせて進ませる</t>
     <rPh sb="0" eb="2">
       <t>ジカン</t>
@@ -1796,11 +1786,50 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>リザルトにスコアを出す</t>
+    <rPh sb="9" eb="10">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>はタスクの譲渡　またPC破損のため譲渡したタスクをβに移動</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハソン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウト</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>//カートの種類を増やす(仕様から削除)</t>
+    <rPh sb="6" eb="8">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
@@ -2670,7 +2699,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3089,15 +3118,50 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="4"/>
-    <cellStyle name="標準_2009卒業制作スケジュール表" xfId="1"/>
-    <cellStyle name="標準_チーム編成" xfId="2"/>
-    <cellStyle name="標準_バグシート" xfId="3"/>
+    <cellStyle name="標準 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_2009卒業制作スケジュール表" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_チーム編成" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準_バグシート" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="66">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -3684,7 +3748,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'スプリントバックログ(第１）'!$J$1</c:f>
+              <c:f>α版!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3718,7 +3782,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'スプリントバックログ(第１）'!$J$2:$P$2</c:f>
+              <c:f>α版!$J$2:$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -3747,7 +3811,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第１）'!$J$4:$P$4</c:f>
+              <c:f>α版!$J$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3764,7 +3828,7 @@
                   <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3807,7 +3871,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'スプリントバックログ(第１）'!$J$2:$P$2</c:f>
+              <c:f>α版!$J$2:$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -3836,7 +3900,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第１）'!$J$3:$P$3</c:f>
+              <c:f>α版!$J$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4226,7 +4290,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'スプリントバックログ(第１）'!$I$1</c:f>
+              <c:f>α版!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4282,14 +4346,13 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'スプリントバックログ(第１）'!$R$107:$R$116</c:f>
+              <c:f>α版!$R$107:$R$116</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4312,7 +4375,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第１）'!$T$107:$T$116</c:f>
+              <c:f>α版!$T$107:$T$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4320,13 +4383,13 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4360,7 +4423,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'スプリントバックログ(第１）'!$H$1</c:f>
+              <c:f>α版!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4416,14 +4479,13 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'スプリントバックログ(第１）'!$R$107:$R$116</c:f>
+              <c:f>α版!$R$107:$R$116</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4446,7 +4508,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第１）'!$U$107:$U$116</c:f>
+              <c:f>α版!$U$107:$U$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4494,7 +4556,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'スプリントバックログ(第１）'!$G$1</c:f>
+              <c:f>α版!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4550,14 +4612,13 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第１）'!$S$107:$S$116</c:f>
+              <c:f>α版!$S$107:$S$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4565,13 +4626,13 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>36</c:v>
@@ -4605,7 +4666,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'スプリントバックログ(第１）'!$W$106</c:f>
+              <c:f>α版!$W$106</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4663,14 +4724,13 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第１）'!$W$107:$W$116</c:f>
+              <c:f>α版!$W$107:$W$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4681,10 +4741,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4990,7 +5050,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'スプリントバックログ(第２）'!$J$1</c:f>
+              <c:f>β版!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5024,7 +5084,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'スプリントバックログ(第２）'!$J$2:$S$2</c:f>
+              <c:f>β版!$J$2:$S$2</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5062,7 +5122,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第２）'!$J$4:$S$4</c:f>
+              <c:f>β版!$J$4:$S$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5110,7 +5170,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'スプリントバックログ(第２）'!$J$2:$S$2</c:f>
+              <c:f>β版!$J$2:$S$2</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5148,7 +5208,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第２）'!$J$3:$S$3</c:f>
+              <c:f>β版!$J$3:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5520,7 +5580,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'スプリントバックログ(第２）'!$I$1</c:f>
+              <c:f>β版!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5582,7 +5642,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'スプリントバックログ(第２）'!$U$107:$U$116</c:f>
+              <c:f>β版!$U$107:$U$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5591,7 +5651,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第２）'!$W$107:$W$116</c:f>
+              <c:f>β版!$W$107:$W$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5639,7 +5699,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'スプリントバックログ(第２）'!$H$1</c:f>
+              <c:f>β版!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5701,7 +5761,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'スプリントバックログ(第２）'!$U$107:$U$116</c:f>
+              <c:f>β版!$U$107:$U$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5710,7 +5770,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第２）'!$X$107:$X$116</c:f>
+              <c:f>β版!$X$107:$X$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5758,7 +5818,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'スプリントバックログ(第２）'!$G$1</c:f>
+              <c:f>β版!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5820,7 +5880,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第２）'!$V$107:$V$116</c:f>
+              <c:f>β版!$V$107:$V$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5868,7 +5928,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'スプリントバックログ(第２）'!$Z$106</c:f>
+              <c:f>β版!$Z$106</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5932,7 +5992,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第２）'!$Z$107:$Z$116</c:f>
+              <c:f>β版!$Z$107:$Z$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6252,7 +6312,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'スプリントバックログ(第３）'!$J$1</c:f>
+              <c:f>master版!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6286,7 +6346,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'スプリントバックログ(第３）'!$J$2:$P$2</c:f>
+              <c:f>master版!$J$2:$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -6315,7 +6375,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第３）'!$J$4:$P$4</c:f>
+              <c:f>master版!$J$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -6363,7 +6423,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'スプリントバックログ(第３）'!$J$2:$P$2</c:f>
+              <c:f>master版!$J$2:$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -6392,7 +6452,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第３）'!$J$3:$P$3</c:f>
+              <c:f>master版!$J$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -6764,7 +6824,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'スプリントバックログ(第３）'!$I$1</c:f>
+              <c:f>master版!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6826,7 +6886,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'スプリントバックログ(第３）'!$R$107:$R$116</c:f>
+              <c:f>master版!$R$107:$R$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6835,7 +6895,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第３）'!$T$107:$T$116</c:f>
+              <c:f>master版!$T$107:$T$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6883,7 +6943,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'スプリントバックログ(第３）'!$H$1</c:f>
+              <c:f>master版!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6945,7 +7005,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'スプリントバックログ(第３）'!$R$107:$R$116</c:f>
+              <c:f>master版!$R$107:$R$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6954,7 +7014,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第３）'!$U$107:$U$116</c:f>
+              <c:f>master版!$U$107:$U$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7002,7 +7062,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'スプリントバックログ(第３）'!$G$1</c:f>
+              <c:f>master版!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7064,7 +7124,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第３）'!$S$107:$S$116</c:f>
+              <c:f>master版!$S$107:$S$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7112,7 +7172,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'スプリントバックログ(第３）'!$W$106</c:f>
+              <c:f>master版!$W$106</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7176,7 +7236,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第３）'!$W$107:$W$116</c:f>
+              <c:f>master版!$W$107:$W$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7739,6 +7799,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7774,6 +7851,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7949,10 +8043,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E222"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -9637,11 +9731,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9744,31 +9838,31 @@
       <c r="H3" s="149"/>
       <c r="I3" s="144"/>
       <c r="J3" s="103">
-        <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
+        <f t="shared" ref="J3:P3" si="0">INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
         <v>188</v>
       </c>
       <c r="K3" s="103">
-        <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
+        <f t="shared" si="0"/>
         <v>161</v>
       </c>
       <c r="L3" s="103">
-        <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
+        <f t="shared" si="0"/>
         <v>134</v>
       </c>
       <c r="M3" s="103">
-        <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
+        <f t="shared" si="0"/>
         <v>107</v>
       </c>
       <c r="N3" s="103">
-        <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="O3" s="103">
-        <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="P3" s="103">
-        <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
@@ -9787,20 +9881,20 @@
         <v>188</v>
       </c>
       <c r="K4" s="104">
-        <f t="shared" ref="K4:N4" si="0">SUM(K5:K157)</f>
+        <f t="shared" ref="K4:N4" si="1">SUM(K5:K157)</f>
         <v>157</v>
       </c>
       <c r="L4" s="104">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>118.5</v>
       </c>
       <c r="M4" s="104">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="N4" s="104">
-        <f t="shared" si="0"/>
-        <v>68</v>
+        <f t="shared" si="1"/>
+        <v>62</v>
       </c>
       <c r="O4" s="104"/>
       <c r="P4" s="104"/>
@@ -9813,10 +9907,10 @@
         <v>75</v>
       </c>
       <c r="C5" s="107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="108" t="str">
-        <f t="shared" ref="D5:D68" si="1">IF(ISBLANK($B5),"",IF(ISBLANK($F5),"未着手",IF($I5=0,"完了","作業中")))</f>
+        <f t="shared" ref="D5:D68" si="2">IF(ISBLANK($B5),"",IF(ISBLANK($F5),"未着手",IF($I5=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="E5" s="109">
@@ -9828,7 +9922,7 @@
       </c>
       <c r="H5" s="110"/>
       <c r="I5" s="111">
-        <f ca="1">IF(ISBLANK(J5)=FALSE,OFFSET(I5,0,COUNTA(J5:P5)),"")</f>
+        <f t="shared" ref="I5:I36" ca="1" si="3">IF(ISBLANK(J5)=FALSE,OFFSET(I5,0,COUNTA(J5:P5)),"")</f>
         <v>3</v>
       </c>
       <c r="J5" s="112">
@@ -9854,13 +9948,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="129" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" s="107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E6" s="109">
@@ -9872,7 +9966,7 @@
       </c>
       <c r="H6" s="110"/>
       <c r="I6" s="111">
-        <f ca="1">IF(ISBLANK(J6)=FALSE,OFFSET(I6,0,COUNTA(J6:P6)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="J6" s="112">
@@ -9901,10 +9995,10 @@
         <v>76</v>
       </c>
       <c r="C7" s="107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E7" s="109">
@@ -9920,7 +10014,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="111">
-        <f ca="1">IF(ISBLANK(J7)=FALSE,OFFSET(I7,0,COUNTA(J7:P7)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J7" s="112">
@@ -9949,10 +10043,10 @@
         <v>77</v>
       </c>
       <c r="C8" s="107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E8" s="109">
@@ -9968,7 +10062,7 @@
         <v>6</v>
       </c>
       <c r="I8" s="111">
-        <f ca="1">IF(ISBLANK(J8)=FALSE,OFFSET(I8,0,COUNTA(J8:P8)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J8" s="112">
@@ -9994,10 +10088,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" s="107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="108" t="str">
         <f ca="1">IF(ISBLANK($B9),"",IF(ISBLANK($F9),"未着手",IF($I9=0,"完了","作業中")))</f>
@@ -10016,7 +10110,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="111">
-        <f ca="1">IF(ISBLANK(J9)=FALSE,OFFSET(I9,0,COUNTA(J9:P9)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J9" s="112">
@@ -10042,13 +10136,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="106" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E10" s="109">
@@ -10064,7 +10158,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="111">
-        <f ca="1">IF(ISBLANK(J10)=FALSE,OFFSET(I10,0,COUNTA(J10:P10)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J10" s="112">
@@ -10090,13 +10184,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="114" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E11" s="109">
@@ -10112,7 +10206,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="111">
-        <f ca="1">IF(ISBLANK(J11)=FALSE,OFFSET(I11,0,COUNTA(J11:P11)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J11" s="112">
@@ -10138,13 +10232,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="106" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" s="107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E12" s="109">
@@ -10160,7 +10254,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="111">
-        <f ca="1">IF(ISBLANK(J12)=FALSE,OFFSET(I12,0,COUNTA(J12:P12)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J12" s="112">
@@ -10186,13 +10280,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="106" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E13" s="109">
@@ -10208,7 +10302,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="111">
-        <f ca="1">IF(ISBLANK(J13)=FALSE,OFFSET(I13,0,COUNTA(J13:P13)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J13" s="112">
@@ -10237,13 +10331,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="129" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C14" s="107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>作業中</v>
       </c>
       <c r="E14" s="109">
@@ -10257,7 +10351,7 @@
       </c>
       <c r="H14" s="110"/>
       <c r="I14" s="111">
-        <f ca="1">IF(ISBLANK(J14)=FALSE,OFFSET(I14,0,COUNTA(J14:P14)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="J14" s="112">
@@ -10283,13 +10377,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="129" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15" s="107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E15" s="109">
@@ -10305,7 +10399,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="111">
-        <f ca="1">IF(ISBLANK(J15)=FALSE,OFFSET(I15,0,COUNTA(J15:P15)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J15" s="112">
@@ -10331,13 +10425,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="129" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C16" s="107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E16" s="109">
@@ -10353,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="111">
-        <f ca="1">IF(ISBLANK(J16)=FALSE,OFFSET(I16,0,COUNTA(J16:P16)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J16" s="112">
@@ -10379,13 +10473,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="129" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C17" s="107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E17" s="109">
@@ -10397,7 +10491,7 @@
       </c>
       <c r="H17" s="110"/>
       <c r="I17" s="111">
-        <f ca="1">IF(ISBLANK(J17)=FALSE,OFFSET(I17,0,COUNTA(J17:P17)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
       <c r="J17" s="112">
@@ -10423,13 +10517,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="129" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C18" s="107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>作業中</v>
       </c>
       <c r="E18" s="109">
@@ -10443,7 +10537,7 @@
       </c>
       <c r="H18" s="110"/>
       <c r="I18" s="111">
-        <f ca="1">IF(ISBLANK(J18)=FALSE,OFFSET(I18,0,COUNTA(J18:P18)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="J18" s="112">
@@ -10470,10 +10564,10 @@
       </c>
       <c r="B19" s="106"/>
       <c r="C19" s="107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E19" s="109"/>
@@ -10481,7 +10575,7 @@
       <c r="G19" s="110"/>
       <c r="H19" s="110"/>
       <c r="I19" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J19)=FALSE,OFFSET(I19,0,COUNTA(J19:P19)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J19" s="112"/>
@@ -10498,10 +10592,10 @@
       </c>
       <c r="B20" s="106"/>
       <c r="C20" s="107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E20" s="109"/>
@@ -10509,7 +10603,7 @@
       <c r="G20" s="110"/>
       <c r="H20" s="110"/>
       <c r="I20" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J20)=FALSE,OFFSET(I20,0,COUNTA(J20:P20)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J20" s="112"/>
@@ -10526,10 +10620,10 @@
       </c>
       <c r="B21" s="106"/>
       <c r="C21" s="107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E21" s="109"/>
@@ -10537,7 +10631,7 @@
       <c r="G21" s="110"/>
       <c r="H21" s="110"/>
       <c r="I21" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J21)=FALSE,OFFSET(I21,0,COUNTA(J21:P21)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J21" s="112"/>
@@ -10554,10 +10648,10 @@
       </c>
       <c r="B22" s="106"/>
       <c r="C22" s="107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D22" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E22" s="109"/>
@@ -10565,7 +10659,7 @@
       <c r="G22" s="110"/>
       <c r="H22" s="110"/>
       <c r="I22" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J22)=FALSE,OFFSET(I22,0,COUNTA(J22:P22)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J22" s="112"/>
@@ -10582,10 +10676,10 @@
       </c>
       <c r="B23" s="106"/>
       <c r="C23" s="107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E23" s="109"/>
@@ -10593,7 +10687,7 @@
       <c r="G23" s="110"/>
       <c r="H23" s="110"/>
       <c r="I23" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J23)=FALSE,OFFSET(I23,0,COUNTA(J23:P23)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J23" s="112"/>
@@ -10610,10 +10704,10 @@
       </c>
       <c r="B24" s="106"/>
       <c r="C24" s="107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D24" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E24" s="109"/>
@@ -10621,7 +10715,7 @@
       <c r="G24" s="110"/>
       <c r="H24" s="110"/>
       <c r="I24" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J24)=FALSE,OFFSET(I24,0,COUNTA(J24:P24)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J24" s="112"/>
@@ -10640,10 +10734,10 @@
         <v>78</v>
       </c>
       <c r="C25" s="107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D25" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>作業中</v>
       </c>
       <c r="E25" s="109">
@@ -10659,7 +10753,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="111">
-        <f ca="1">IF(ISBLANK(J25)=FALSE,OFFSET(I25,0,COUNTA(J25:P25)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="J25" s="112">
@@ -10685,13 +10779,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="129" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C26" s="130" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D26" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E26" s="109">
@@ -10707,7 +10801,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="111">
-        <f ca="1">IF(ISBLANK(J26)=FALSE,OFFSET(I26,0,COUNTA(J26:P26)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J26" s="112">
@@ -10733,13 +10827,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="129" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C27" s="130" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D27" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E27" s="109">
@@ -10755,7 +10849,7 @@
         <v>2</v>
       </c>
       <c r="I27" s="111">
-        <f ca="1">IF(ISBLANK(J27)=FALSE,OFFSET(I27,0,COUNTA(J27:P27)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J27" s="112">
@@ -10784,10 +10878,10 @@
         <v>79</v>
       </c>
       <c r="C28" s="107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D28" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E28" s="109">
@@ -10803,7 +10897,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="111">
-        <f ca="1">IF(ISBLANK(J28)=FALSE,OFFSET(I28,0,COUNTA(J28:P28)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J28" s="112">
@@ -10832,10 +10926,10 @@
         <v>80</v>
       </c>
       <c r="C29" s="107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E29" s="109">
@@ -10851,7 +10945,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="111">
-        <f ca="1">IF(ISBLANK(J29)=FALSE,OFFSET(I29,0,COUNTA(J29:P29)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J29" s="112">
@@ -10880,10 +10974,10 @@
         <v>81</v>
       </c>
       <c r="C30" s="107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D30" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>作業中</v>
       </c>
       <c r="E30" s="109">
@@ -10897,7 +10991,7 @@
       </c>
       <c r="H30" s="110"/>
       <c r="I30" s="111">
-        <f ca="1">IF(ISBLANK(J30)=FALSE,OFFSET(I30,0,COUNTA(J30:P30)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="J30" s="112">
@@ -10926,10 +11020,10 @@
         <v>82</v>
       </c>
       <c r="C31" s="107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D31" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>作業中</v>
       </c>
       <c r="E31" s="109">
@@ -10943,7 +11037,7 @@
       </c>
       <c r="H31" s="110"/>
       <c r="I31" s="111">
-        <f ca="1">IF(ISBLANK(J31)=FALSE,OFFSET(I31,0,COUNTA(J31:P31)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="J31" s="112">
@@ -10972,10 +11066,10 @@
         <v>83</v>
       </c>
       <c r="C32" s="107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E32" s="109">
@@ -10991,7 +11085,7 @@
         <v>6</v>
       </c>
       <c r="I32" s="111">
-        <f ca="1">IF(ISBLANK(J32)=FALSE,OFFSET(I32,0,COUNTA(J32:P32)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J32" s="112">
@@ -11012,10 +11106,10 @@
         <v>84</v>
       </c>
       <c r="C33" s="107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E33" s="109">
@@ -11031,7 +11125,7 @@
         <v>3</v>
       </c>
       <c r="I33" s="111">
-        <f ca="1">IF(ISBLANK(J33)=FALSE,OFFSET(I33,0,COUNTA(J33:P33)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J33" s="112">
@@ -11058,10 +11152,10 @@
         <v>85</v>
       </c>
       <c r="C34" s="107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E34" s="109">
@@ -11077,7 +11171,7 @@
         <v>6</v>
       </c>
       <c r="I34" s="111">
-        <f ca="1">IF(ISBLANK(J34)=FALSE,OFFSET(I34,0,COUNTA(J34:P34)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J34" s="112">
@@ -11104,10 +11198,10 @@
         <v>86</v>
       </c>
       <c r="C35" s="107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E35" s="109">
@@ -11123,7 +11217,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="111">
-        <f ca="1">IF(ISBLANK(J35)=FALSE,OFFSET(I35,0,COUNTA(J35:P35)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J35" s="112">
@@ -11146,10 +11240,10 @@
         <v>87</v>
       </c>
       <c r="C36" s="107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D36" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E36" s="109">
@@ -11165,7 +11259,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="111">
-        <f ca="1">IF(ISBLANK(J36)=FALSE,OFFSET(I36,0,COUNTA(J36:P36)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J36" s="112">
@@ -11188,10 +11282,10 @@
         <v>88</v>
       </c>
       <c r="C37" s="107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D37" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E37" s="109">
@@ -11207,7 +11301,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="111">
-        <f ca="1">IF(ISBLANK(J37)=FALSE,OFFSET(I37,0,COUNTA(J37:P37)),"")</f>
+        <f t="shared" ref="I37:I68" ca="1" si="4">IF(ISBLANK(J37)=FALSE,OFFSET(I37,0,COUNTA(J37:P37)),"")</f>
         <v>0</v>
       </c>
       <c r="J37" s="112">
@@ -11230,10 +11324,10 @@
         <v>89</v>
       </c>
       <c r="C38" s="107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D38" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E38" s="109">
@@ -11249,7 +11343,7 @@
         <v>3</v>
       </c>
       <c r="I38" s="111">
-        <f ca="1">IF(ISBLANK(J38)=FALSE,OFFSET(I38,0,COUNTA(J38:P38)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J38" s="112">
@@ -11271,13 +11365,13 @@
         <v>35</v>
       </c>
       <c r="B39" s="129" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C39" s="107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D39" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E39" s="109">
@@ -11289,7 +11383,7 @@
       </c>
       <c r="H39" s="110"/>
       <c r="I39" s="111">
-        <f ca="1">IF(ISBLANK(J39)=FALSE,OFFSET(I39,0,COUNTA(J39:P39)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>6</v>
       </c>
       <c r="J39" s="112">
@@ -11315,13 +11409,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="129" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C40" s="107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D40" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E40" s="109">
@@ -11335,7 +11429,7 @@
         <v>2</v>
       </c>
       <c r="I40" s="111">
-        <f ca="1">IF(ISBLANK(J40)=FALSE,OFFSET(I40,0,COUNTA(J40:P40)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J40" s="112">
@@ -11359,13 +11453,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="129" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D41" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>作業中</v>
       </c>
       <c r="E41" s="109">
@@ -11381,7 +11475,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="111">
-        <f ca="1">IF(ISBLANK(J41)=FALSE,OFFSET(I41,0,COUNTA(J41:P41)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="J41" s="112">
@@ -11407,13 +11501,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="129" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D42" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E42" s="109">
@@ -11429,7 +11523,7 @@
         <v>1</v>
       </c>
       <c r="I42" s="111">
-        <f ca="1">IF(ISBLANK(J42)=FALSE,OFFSET(I42,0,COUNTA(J42:P42)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J42" s="112">
@@ -11455,13 +11549,13 @@
         <v>39</v>
       </c>
       <c r="B43" s="129" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C43" s="107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D43" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E43" s="109">
@@ -11477,7 +11571,7 @@
         <v>1</v>
       </c>
       <c r="I43" s="111">
-        <f ca="1">IF(ISBLANK(J43)=FALSE,OFFSET(I43,0,COUNTA(J43:P43)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J43" s="112">
@@ -11501,13 +11595,13 @@
         <v>40</v>
       </c>
       <c r="B44" s="129" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C44" s="107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D44" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E44" s="109">
@@ -11523,7 +11617,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="111">
-        <f ca="1">IF(ISBLANK(J44)=FALSE,OFFSET(I44,0,COUNTA(J44:P44)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J44" s="112">
@@ -11550,10 +11644,10 @@
       </c>
       <c r="B45" s="106"/>
       <c r="C45" s="107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D45" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E45" s="109"/>
@@ -11561,7 +11655,7 @@
       <c r="G45" s="110"/>
       <c r="H45" s="110"/>
       <c r="I45" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J45)=FALSE,OFFSET(I45,0,COUNTA(J45:P45)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J45" s="112"/>
@@ -11578,10 +11672,10 @@
       </c>
       <c r="B46" s="106"/>
       <c r="C46" s="107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D46" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E46" s="109"/>
@@ -11589,7 +11683,7 @@
       <c r="G46" s="110"/>
       <c r="H46" s="110"/>
       <c r="I46" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J46)=FALSE,OFFSET(I46,0,COUNTA(J46:P46)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J46" s="112"/>
@@ -11606,10 +11700,10 @@
       </c>
       <c r="B47" s="106"/>
       <c r="C47" s="107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D47" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E47" s="109"/>
@@ -11617,7 +11711,7 @@
       <c r="G47" s="110"/>
       <c r="H47" s="110"/>
       <c r="I47" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J47)=FALSE,OFFSET(I47,0,COUNTA(J47:P47)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J47" s="112"/>
@@ -11634,10 +11728,10 @@
       </c>
       <c r="B48" s="106"/>
       <c r="C48" s="107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D48" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E48" s="109"/>
@@ -11645,7 +11739,7 @@
       <c r="G48" s="110"/>
       <c r="H48" s="110"/>
       <c r="I48" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J48)=FALSE,OFFSET(I48,0,COUNTA(J48:P48)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J48" s="112"/>
@@ -11662,10 +11756,10 @@
       </c>
       <c r="B49" s="106"/>
       <c r="C49" s="107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D49" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E49" s="109"/>
@@ -11673,7 +11767,7 @@
       <c r="G49" s="110"/>
       <c r="H49" s="110"/>
       <c r="I49" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J49)=FALSE,OFFSET(I49,0,COUNTA(J49:P49)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J49" s="112"/>
@@ -11690,10 +11784,10 @@
       </c>
       <c r="B50" s="106"/>
       <c r="C50" s="107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D50" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E50" s="109"/>
@@ -11701,7 +11795,7 @@
       <c r="G50" s="110"/>
       <c r="H50" s="110"/>
       <c r="I50" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J50)=FALSE,OFFSET(I50,0,COUNTA(J50:P50)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J50" s="112"/>
@@ -11720,10 +11814,10 @@
         <v>90</v>
       </c>
       <c r="C51" s="107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D51" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E51" s="109">
@@ -11739,7 +11833,7 @@
         <v>3</v>
       </c>
       <c r="I51" s="111">
-        <f ca="1">IF(ISBLANK(J51)=FALSE,OFFSET(I51,0,COUNTA(J51:P51)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J51" s="112">
@@ -11768,10 +11862,10 @@
         <v>91</v>
       </c>
       <c r="C52" s="107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D52" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E52" s="109">
@@ -11787,7 +11881,7 @@
         <v>2</v>
       </c>
       <c r="I52" s="111">
-        <f ca="1">IF(ISBLANK(J52)=FALSE,OFFSET(I52,0,COUNTA(J52:P52)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J52" s="112">
@@ -11816,10 +11910,10 @@
         <v>92</v>
       </c>
       <c r="C53" s="107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D53" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E53" s="109">
@@ -11835,7 +11929,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="111">
-        <f ca="1">IF(ISBLANK(J53)=FALSE,OFFSET(I53,0,COUNTA(J53:P53)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J53" s="112">
@@ -11864,10 +11958,10 @@
         <v>93</v>
       </c>
       <c r="C54" s="107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D54" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E54" s="109">
@@ -11883,7 +11977,7 @@
         <v>2</v>
       </c>
       <c r="I54" s="111">
-        <f ca="1">IF(ISBLANK(J54)=FALSE,OFFSET(I54,0,COUNTA(J54:P54)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J54" s="112">
@@ -11912,10 +12006,10 @@
         <v>94</v>
       </c>
       <c r="C55" s="107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D55" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>作業中</v>
       </c>
       <c r="E55" s="109">
@@ -11931,7 +12025,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="111">
-        <f ca="1">IF(ISBLANK(J55)=FALSE,OFFSET(I55,0,COUNTA(J55:P55)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="J55" s="112">
@@ -11960,10 +12054,10 @@
         <v>95</v>
       </c>
       <c r="C56" s="107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D56" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E56" s="109">
@@ -11979,7 +12073,7 @@
         <v>2</v>
       </c>
       <c r="I56" s="111">
-        <f ca="1">IF(ISBLANK(J56)=FALSE,OFFSET(I56,0,COUNTA(J56:P56)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J56" s="112">
@@ -12004,27 +12098,29 @@
       <c r="A57" s="105">
         <v>53</v>
       </c>
-      <c r="B57" s="106" t="s">
-        <v>96</v>
+      <c r="B57" s="129" t="s">
+        <v>153</v>
       </c>
       <c r="C57" s="107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D57" s="108" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
       </c>
       <c r="E57" s="109">
         <v>43035</v>
       </c>
-      <c r="F57" s="109"/>
+      <c r="F57" s="109">
+        <v>43035</v>
+      </c>
       <c r="G57" s="110">
         <v>3</v>
       </c>
       <c r="H57" s="110"/>
       <c r="I57" s="111">
-        <f ca="1">IF(ISBLANK(J57)=FALSE,OFFSET(I57,0,COUNTA(J57:P57)),"")</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="J57" s="112">
         <v>6</v>
@@ -12039,7 +12135,7 @@
         <v>6</v>
       </c>
       <c r="N57" s="112">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O57" s="112"/>
       <c r="P57" s="112"/>
@@ -12049,13 +12145,13 @@
         <v>54</v>
       </c>
       <c r="B58" s="106" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C58" s="107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D58" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E58" s="109">
@@ -12071,7 +12167,7 @@
         <v>2</v>
       </c>
       <c r="I58" s="111">
-        <f ca="1">IF(ISBLANK(J58)=FALSE,OFFSET(I58,0,COUNTA(J58:P58)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J58" s="112">
@@ -12097,13 +12193,13 @@
         <v>55</v>
       </c>
       <c r="B59" s="129" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C59" s="107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D59" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E59" s="109">
@@ -12119,7 +12215,7 @@
         <v>3</v>
       </c>
       <c r="I59" s="111">
-        <f ca="1">IF(ISBLANK(J59)=FALSE,OFFSET(I59,0,COUNTA(J59:P59)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J59" s="112">
@@ -12145,13 +12241,13 @@
         <v>56</v>
       </c>
       <c r="B60" s="129" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C60" s="107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D60" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E60" s="4">
@@ -12163,7 +12259,7 @@
       </c>
       <c r="H60" s="110"/>
       <c r="I60" s="111">
-        <f ca="1">IF(ISBLANK(J60)=FALSE,OFFSET(I60,0,COUNTA(J60:P60)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="J60" s="110">
@@ -12189,13 +12285,13 @@
         <v>57</v>
       </c>
       <c r="B61" s="129" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C61" s="107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D61" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E61" s="109">
@@ -12207,7 +12303,7 @@
       </c>
       <c r="H61" s="110"/>
       <c r="I61" s="111">
-        <f ca="1">IF(ISBLANK(J61)=FALSE,OFFSET(I61,0,COUNTA(J61:P61)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="J61" s="110">
@@ -12233,13 +12329,13 @@
         <v>58</v>
       </c>
       <c r="B62" s="129" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C62" s="107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D62" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E62" s="109">
@@ -12251,7 +12347,7 @@
       </c>
       <c r="H62" s="110"/>
       <c r="I62" s="111">
-        <f ca="1">IF(ISBLANK(J62)=FALSE,OFFSET(I62,0,COUNTA(J62:P62)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
       <c r="J62" s="110">
@@ -12277,13 +12373,13 @@
         <v>59</v>
       </c>
       <c r="B63" s="129" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C63" s="107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D63" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E63" s="109">
@@ -12299,7 +12395,7 @@
         <v>3</v>
       </c>
       <c r="I63" s="111">
-        <f ca="1">IF(ISBLANK(J63)=FALSE,OFFSET(I63,0,COUNTA(J63:P63)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J63" s="110">
@@ -12325,13 +12421,13 @@
         <v>60</v>
       </c>
       <c r="B64" s="129" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C64" s="107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D64" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E64" s="109">
@@ -12343,7 +12439,7 @@
       </c>
       <c r="H64" s="110"/>
       <c r="I64" s="111">
-        <f ca="1">IF(ISBLANK(J64)=FALSE,OFFSET(I64,0,COUNTA(J64:P64)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>6</v>
       </c>
       <c r="J64" s="112">
@@ -12369,13 +12465,13 @@
         <v>61</v>
       </c>
       <c r="B65" s="129" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C65" s="107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D65" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E65" s="109">
@@ -12391,7 +12487,7 @@
         <v>4</v>
       </c>
       <c r="I65" s="111">
-        <f ca="1">IF(ISBLANK(J65)=FALSE,OFFSET(I65,0,COUNTA(J65:P65)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J65" s="112">
@@ -12417,13 +12513,13 @@
         <v>62</v>
       </c>
       <c r="B66" s="129" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C66" s="107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D66" s="108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>作業中</v>
       </c>
       <c r="E66" s="109">
@@ -12437,7 +12533,7 @@
       </c>
       <c r="H66" s="110"/>
       <c r="I66" s="111">
-        <f ca="1">IF(ISBLANK(J66)=FALSE,OFFSET(I66,0,COUNTA(J66:P66)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
       <c r="J66" s="112">
@@ -12464,10 +12560,10 @@
       </c>
       <c r="B67" s="106"/>
       <c r="C67" s="107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D67" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E67" s="109"/>
@@ -12475,7 +12571,7 @@
       <c r="G67" s="110"/>
       <c r="H67" s="110"/>
       <c r="I67" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J67)=FALSE,OFFSET(I67,0,COUNTA(J67:P67)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J67" s="112"/>
@@ -12492,10 +12588,10 @@
       </c>
       <c r="B68" s="106"/>
       <c r="C68" s="107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D68" s="108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E68" s="109"/>
@@ -12503,7 +12599,7 @@
       <c r="G68" s="110"/>
       <c r="H68" s="110"/>
       <c r="I68" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J68)=FALSE,OFFSET(I68,0,COUNTA(J68:P68)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J68" s="112"/>
@@ -12520,10 +12616,10 @@
       </c>
       <c r="B69" s="106"/>
       <c r="C69" s="107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D69" s="108" t="str">
-        <f t="shared" ref="D69:D91" si="2">IF(ISBLANK($B69),"",IF(ISBLANK($F69),"未着手",IF($I69=0,"完了","作業中")))</f>
+        <f t="shared" ref="D69:D91" si="5">IF(ISBLANK($B69),"",IF(ISBLANK($F69),"未着手",IF($I69=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="E69" s="109"/>
@@ -12531,7 +12627,7 @@
       <c r="G69" s="110"/>
       <c r="H69" s="110"/>
       <c r="I69" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J69)=FALSE,OFFSET(I69,0,COUNTA(J69:P69)),"")</f>
+        <f t="shared" ref="I69:I100" ca="1" si="6">IF(ISBLANK(J69)=FALSE,OFFSET(I69,0,COUNTA(J69:P69)),"")</f>
         <v/>
       </c>
       <c r="J69" s="112"/>
@@ -12548,10 +12644,10 @@
       </c>
       <c r="B70" s="106"/>
       <c r="C70" s="107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D70" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E70" s="109"/>
@@ -12559,7 +12655,7 @@
       <c r="G70" s="110"/>
       <c r="H70" s="110"/>
       <c r="I70" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J70)=FALSE,OFFSET(I70,0,COUNTA(J70:P70)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J70" s="112"/>
@@ -12576,10 +12672,10 @@
       </c>
       <c r="B71" s="106"/>
       <c r="C71" s="107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D71" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E71" s="109"/>
@@ -12587,7 +12683,7 @@
       <c r="G71" s="110"/>
       <c r="H71" s="110"/>
       <c r="I71" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J71)=FALSE,OFFSET(I71,0,COUNTA(J71:P71)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J71" s="112"/>
@@ -12604,10 +12700,10 @@
       </c>
       <c r="B72" s="106"/>
       <c r="C72" s="107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D72" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E72" s="109"/>
@@ -12615,7 +12711,7 @@
       <c r="G72" s="110"/>
       <c r="H72" s="110"/>
       <c r="I72" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J72)=FALSE,OFFSET(I72,0,COUNTA(J72:P72)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J72" s="112"/>
@@ -12632,10 +12728,10 @@
       </c>
       <c r="B73" s="106"/>
       <c r="C73" s="107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D73" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E73" s="109"/>
@@ -12643,7 +12739,7 @@
       <c r="G73" s="110"/>
       <c r="H73" s="110"/>
       <c r="I73" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J73)=FALSE,OFFSET(I73,0,COUNTA(J73:P73)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J73" s="112"/>
@@ -12660,10 +12756,10 @@
       </c>
       <c r="B74" s="106"/>
       <c r="C74" s="107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D74" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E74" s="109"/>
@@ -12671,7 +12767,7 @@
       <c r="G74" s="110"/>
       <c r="H74" s="110"/>
       <c r="I74" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J74)=FALSE,OFFSET(I74,0,COUNTA(J74:P74)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J74" s="112"/>
@@ -12688,10 +12784,10 @@
       </c>
       <c r="B75" s="106"/>
       <c r="C75" s="107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D75" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E75" s="109"/>
@@ -12699,7 +12795,7 @@
       <c r="G75" s="110"/>
       <c r="H75" s="110"/>
       <c r="I75" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J75)=FALSE,OFFSET(I75,0,COUNTA(J75:P75)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J75" s="112"/>
@@ -12716,10 +12812,10 @@
       </c>
       <c r="B76" s="106"/>
       <c r="C76" s="107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D76" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E76" s="109"/>
@@ -12727,7 +12823,7 @@
       <c r="G76" s="110"/>
       <c r="H76" s="110"/>
       <c r="I76" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J76)=FALSE,OFFSET(I76,0,COUNTA(J76:P76)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J76" s="112"/>
@@ -12744,10 +12840,10 @@
       </c>
       <c r="B77" s="106"/>
       <c r="C77" s="107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D77" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E77" s="109"/>
@@ -12755,7 +12851,7 @@
       <c r="G77" s="110"/>
       <c r="H77" s="110"/>
       <c r="I77" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J77)=FALSE,OFFSET(I77,0,COUNTA(J77:P77)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J77" s="112"/>
@@ -12772,10 +12868,10 @@
       </c>
       <c r="B78" s="106"/>
       <c r="C78" s="107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D78" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E78" s="109"/>
@@ -12783,7 +12879,7 @@
       <c r="G78" s="110"/>
       <c r="H78" s="110"/>
       <c r="I78" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J78)=FALSE,OFFSET(I78,0,COUNTA(J78:P78)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J78" s="112"/>
@@ -12800,10 +12896,10 @@
       </c>
       <c r="B79" s="106"/>
       <c r="C79" s="107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D79" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E79" s="109"/>
@@ -12811,7 +12907,7 @@
       <c r="G79" s="110"/>
       <c r="H79" s="110"/>
       <c r="I79" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J79)=FALSE,OFFSET(I79,0,COUNTA(J79:P79)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J79" s="112"/>
@@ -12827,13 +12923,13 @@
         <v>76</v>
       </c>
       <c r="B80" s="129" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C80" s="107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D80" s="108" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>完了</v>
       </c>
       <c r="E80" s="109">
@@ -12849,7 +12945,7 @@
         <v>2</v>
       </c>
       <c r="I80" s="111">
-        <f ca="1">IF(ISBLANK(J80)=FALSE,OFFSET(I80,0,COUNTA(J80:P80)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="J80" s="112">
@@ -12870,18 +12966,18 @@
       <c r="O80" s="112"/>
       <c r="P80" s="112"/>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:19">
       <c r="A81" s="105">
         <v>77</v>
       </c>
       <c r="B81" s="106" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C81" s="107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D81" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>完了</v>
       </c>
       <c r="E81" s="109">
@@ -12917,18 +13013,18 @@
       <c r="O81" s="112"/>
       <c r="P81" s="112"/>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:19">
       <c r="A82" s="105">
         <v>78</v>
       </c>
       <c r="B82" s="106" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C82" s="107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D82" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>完了</v>
       </c>
       <c r="E82" s="109">
@@ -12964,18 +13060,18 @@
       <c r="O82" s="112"/>
       <c r="P82" s="112"/>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:19">
       <c r="A83" s="105">
         <v>79</v>
       </c>
-      <c r="B83" s="106" t="s">
-        <v>99</v>
-      </c>
-      <c r="C83" s="107" t="s">
-        <v>107</v>
+      <c r="B83" s="160" t="s">
+        <v>98</v>
+      </c>
+      <c r="C83" s="130" t="s">
+        <v>104</v>
       </c>
       <c r="D83" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E83" s="4">
@@ -12987,7 +13083,7 @@
       </c>
       <c r="H83" s="110"/>
       <c r="I83" s="111">
-        <f ca="1">IF(ISBLANK(J83)=FALSE,OFFSET(I83,0,COUNTA(J83:P83)),"")</f>
+        <f t="shared" ref="I83:I114" ca="1" si="7">IF(ISBLANK(J83)=FALSE,OFFSET(I83,0,COUNTA(J83:P83)),"")</f>
         <v>1</v>
       </c>
       <c r="J83" s="112">
@@ -13008,18 +13104,18 @@
       <c r="O83" s="112"/>
       <c r="P83" s="112"/>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:19">
       <c r="A84" s="105">
         <v>80</v>
       </c>
-      <c r="B84" s="106" t="s">
-        <v>100</v>
-      </c>
-      <c r="C84" s="107" t="s">
-        <v>107</v>
+      <c r="B84" s="160" t="s">
+        <v>99</v>
+      </c>
+      <c r="C84" s="130" t="s">
+        <v>104</v>
       </c>
       <c r="D84" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E84" s="109">
@@ -13031,7 +13127,7 @@
       </c>
       <c r="H84" s="110"/>
       <c r="I84" s="111">
-        <f ca="1">IF(ISBLANK(J84)=FALSE,OFFSET(I84,0,COUNTA(J84:P84)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="J84" s="112">
@@ -13052,18 +13148,18 @@
       <c r="O84" s="112"/>
       <c r="P84" s="112"/>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:19">
       <c r="A85" s="105">
         <v>81</v>
       </c>
       <c r="B85" s="106" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C85" s="107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D85" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E85" s="109">
@@ -13075,7 +13171,7 @@
       </c>
       <c r="H85" s="110"/>
       <c r="I85" s="111">
-        <f ca="1">IF(ISBLANK(J85)=FALSE,OFFSET(I85,0,COUNTA(J85:P85)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
       <c r="J85" s="112">
@@ -13095,19 +13191,23 @@
       </c>
       <c r="O85" s="112"/>
       <c r="P85" s="112"/>
-    </row>
-    <row r="86" spans="1:16">
+      <c r="R85" s="161"/>
+      <c r="S85" s="162" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19">
       <c r="A86" s="105">
         <v>82</v>
       </c>
       <c r="B86" s="106" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C86" s="107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D86" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E86" s="109">
@@ -13119,7 +13219,7 @@
       </c>
       <c r="H86" s="110"/>
       <c r="I86" s="111">
-        <f ca="1">IF(ISBLANK(J86)=FALSE,OFFSET(I86,0,COUNTA(J86:P86)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
       <c r="J86" s="112">
@@ -13140,18 +13240,18 @@
       <c r="O86" s="112"/>
       <c r="P86" s="112"/>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:19">
       <c r="A87" s="105">
         <v>83</v>
       </c>
       <c r="B87" s="106" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C87" s="107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D87" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E87" s="109">
@@ -13163,7 +13263,7 @@
       </c>
       <c r="H87" s="110"/>
       <c r="I87" s="111">
-        <f ca="1">IF(ISBLANK(J87)=FALSE,OFFSET(I87,0,COUNTA(J87:P87)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="J87" s="112">
@@ -13184,18 +13284,18 @@
       <c r="O87" s="112"/>
       <c r="P87" s="112"/>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:19">
       <c r="A88" s="105">
         <v>84</v>
       </c>
       <c r="B88" s="129" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C88" s="107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D88" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E88" s="109">
@@ -13207,7 +13307,7 @@
       </c>
       <c r="H88" s="110"/>
       <c r="I88" s="111">
-        <f ca="1">IF(ISBLANK(J88)=FALSE,OFFSET(I88,0,COUNTA(J88:P88)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>6</v>
       </c>
       <c r="J88" s="112">
@@ -13228,18 +13328,18 @@
       <c r="O88" s="112"/>
       <c r="P88" s="112"/>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:19">
       <c r="A89" s="105">
         <v>85</v>
       </c>
-      <c r="B89" s="129" t="s">
-        <v>143</v>
-      </c>
-      <c r="C89" s="107" t="s">
-        <v>107</v>
+      <c r="B89" s="159" t="s">
+        <v>142</v>
+      </c>
+      <c r="C89" s="130" t="s">
+        <v>105</v>
       </c>
       <c r="D89" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E89" s="109">
@@ -13251,7 +13351,7 @@
       </c>
       <c r="H89" s="110"/>
       <c r="I89" s="111">
-        <f ca="1">IF(ISBLANK(J89)=FALSE,OFFSET(I89,0,COUNTA(J89:P89)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
       <c r="J89" s="112">
@@ -13272,18 +13372,18 @@
       <c r="O89" s="112"/>
       <c r="P89" s="112"/>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:19">
       <c r="A90" s="105">
         <v>86</v>
       </c>
-      <c r="B90" s="129" t="s">
-        <v>144</v>
-      </c>
-      <c r="C90" s="107" t="s">
-        <v>107</v>
+      <c r="B90" s="159" t="s">
+        <v>143</v>
+      </c>
+      <c r="C90" s="130" t="s">
+        <v>105</v>
       </c>
       <c r="D90" s="108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E90" s="109">
@@ -13295,7 +13395,7 @@
       </c>
       <c r="H90" s="110"/>
       <c r="I90" s="111">
-        <f ca="1">IF(ISBLANK(J90)=FALSE,OFFSET(I90,0,COUNTA(J90:P90)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
       <c r="J90" s="112">
@@ -13316,24 +13416,26 @@
       <c r="O90" s="112"/>
       <c r="P90" s="112"/>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:19">
       <c r="A91" s="105">
         <v>87</v>
       </c>
-      <c r="B91" s="106"/>
-      <c r="C91" s="107" t="s">
-        <v>107</v>
+      <c r="B91" s="159" t="s">
+        <v>151</v>
+      </c>
+      <c r="C91" s="130" t="s">
+        <v>105</v>
       </c>
       <c r="D91" s="108" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>未着手</v>
       </c>
       <c r="E91" s="109"/>
       <c r="F91" s="109"/>
       <c r="G91" s="110"/>
       <c r="H91" s="110"/>
       <c r="I91" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J91)=FALSE,OFFSET(I91,0,COUNTA(J91:P91)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J91" s="112"/>
@@ -13344,16 +13446,16 @@
       <c r="O91" s="112"/>
       <c r="P91" s="112"/>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:19">
       <c r="A92" s="105">
         <v>88</v>
       </c>
       <c r="B92" s="106"/>
       <c r="C92" s="107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D92" s="111" t="str">
-        <f t="shared" ref="D92:D155" si="3">IF(ISBLANK($B92),"",IF(ISBLANK($F92),"未着手",IF($I92=0,"完了","作業中")))</f>
+        <f t="shared" ref="D92:D155" si="8">IF(ISBLANK($B92),"",IF(ISBLANK($F92),"未着手",IF($I92=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="E92" s="109"/>
@@ -13361,7 +13463,7 @@
       <c r="G92" s="110"/>
       <c r="H92" s="110"/>
       <c r="I92" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J92)=FALSE,OFFSET(I92,0,COUNTA(J92:P92)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J92" s="112"/>
@@ -13372,16 +13474,16 @@
       <c r="O92" s="112"/>
       <c r="P92" s="112"/>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:19">
       <c r="A93" s="105">
         <v>89</v>
       </c>
       <c r="B93" s="106"/>
       <c r="C93" s="107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D93" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E93" s="109"/>
@@ -13389,7 +13491,7 @@
       <c r="G93" s="110"/>
       <c r="H93" s="110"/>
       <c r="I93" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J93)=FALSE,OFFSET(I93,0,COUNTA(J93:P93)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J93" s="112"/>
@@ -13400,16 +13502,16 @@
       <c r="O93" s="112"/>
       <c r="P93" s="112"/>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:19">
       <c r="A94" s="105">
         <v>90</v>
       </c>
       <c r="B94" s="106"/>
       <c r="C94" s="107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D94" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E94" s="109"/>
@@ -13417,7 +13519,7 @@
       <c r="G94" s="110"/>
       <c r="H94" s="110"/>
       <c r="I94" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J94)=FALSE,OFFSET(I94,0,COUNTA(J94:P94)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J94" s="112"/>
@@ -13428,16 +13530,16 @@
       <c r="O94" s="112"/>
       <c r="P94" s="112"/>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:19">
       <c r="A95" s="105">
         <v>91</v>
       </c>
       <c r="B95" s="106"/>
       <c r="C95" s="107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D95" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E95" s="109"/>
@@ -13445,7 +13547,7 @@
       <c r="G95" s="110"/>
       <c r="H95" s="110"/>
       <c r="I95" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J95)=FALSE,OFFSET(I95,0,COUNTA(J95:P95)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J95" s="112"/>
@@ -13456,16 +13558,16 @@
       <c r="O95" s="112"/>
       <c r="P95" s="112"/>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:19">
       <c r="A96" s="105">
         <v>92</v>
       </c>
       <c r="B96" s="106"/>
       <c r="C96" s="107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D96" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E96" s="109"/>
@@ -13473,7 +13575,7 @@
       <c r="G96" s="110"/>
       <c r="H96" s="110"/>
       <c r="I96" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J96)=FALSE,OFFSET(I96,0,COUNTA(J96:P96)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J96" s="112"/>
@@ -13490,10 +13592,10 @@
       </c>
       <c r="B97" s="106"/>
       <c r="C97" s="107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D97" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E97" s="109"/>
@@ -13501,7 +13603,7 @@
       <c r="G97" s="110"/>
       <c r="H97" s="110"/>
       <c r="I97" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J97)=FALSE,OFFSET(I97,0,COUNTA(J97:P97)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J97" s="112"/>
@@ -13518,10 +13620,10 @@
       </c>
       <c r="B98" s="106"/>
       <c r="C98" s="107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D98" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E98" s="109"/>
@@ -13529,7 +13631,7 @@
       <c r="G98" s="110"/>
       <c r="H98" s="110"/>
       <c r="I98" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J98)=FALSE,OFFSET(I98,0,COUNTA(J98:P98)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J98" s="112"/>
@@ -13546,10 +13648,10 @@
       </c>
       <c r="B99" s="106"/>
       <c r="C99" s="107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D99" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E99" s="109"/>
@@ -13557,7 +13659,7 @@
       <c r="G99" s="110"/>
       <c r="H99" s="110"/>
       <c r="I99" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J99)=FALSE,OFFSET(I99,0,COUNTA(J99:P99)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J99" s="112"/>
@@ -13574,10 +13676,10 @@
       </c>
       <c r="B100" s="106"/>
       <c r="C100" s="107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D100" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E100" s="109"/>
@@ -13585,7 +13687,7 @@
       <c r="G100" s="110"/>
       <c r="H100" s="110"/>
       <c r="I100" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J100)=FALSE,OFFSET(I100,0,COUNTA(J100:P100)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J100" s="112"/>
@@ -13603,7 +13705,7 @@
       <c r="B101" s="106"/>
       <c r="C101" s="115"/>
       <c r="D101" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E101" s="109"/>
@@ -13611,7 +13713,7 @@
       <c r="G101" s="110"/>
       <c r="H101" s="110"/>
       <c r="I101" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J101)=FALSE,OFFSET(I101,0,COUNTA(J101:P101)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J101" s="112"/>
@@ -13629,7 +13731,7 @@
       <c r="B102" s="116"/>
       <c r="C102" s="115"/>
       <c r="D102" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E102" s="109"/>
@@ -13637,7 +13739,7 @@
       <c r="G102" s="110"/>
       <c r="H102" s="110"/>
       <c r="I102" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J102)=FALSE,OFFSET(I102,0,COUNTA(J102:P102)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J102" s="112"/>
@@ -13655,7 +13757,7 @@
       <c r="B103" s="116"/>
       <c r="C103" s="115"/>
       <c r="D103" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E103" s="109"/>
@@ -13663,7 +13765,7 @@
       <c r="G103" s="110"/>
       <c r="H103" s="110"/>
       <c r="I103" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J103)=FALSE,OFFSET(I103,0,COUNTA(J103:P103)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J103" s="112"/>
@@ -13679,13 +13781,13 @@
         <v>100</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D104" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="8"/>
         <v>完了</v>
       </c>
       <c r="E104" s="109">
@@ -13701,7 +13803,7 @@
         <v>3</v>
       </c>
       <c r="I104" s="111">
-        <f ca="1">IF(ISBLANK(J104)=FALSE,OFFSET(I104,0,COUNTA(J104:P104)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="J104" s="112">
@@ -13727,13 +13829,13 @@
         <v>101</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D105" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="8"/>
         <v>完了</v>
       </c>
       <c r="E105" s="109">
@@ -13749,7 +13851,7 @@
         <v>3</v>
       </c>
       <c r="I105" s="111">
-        <f ca="1">IF(ISBLANK(J105)=FALSE,OFFSET(I105,0,COUNTA(J105:P105)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="J105" s="112">
@@ -13775,13 +13877,13 @@
         <v>102</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D106" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="8"/>
         <v>完了</v>
       </c>
       <c r="E106" s="109">
@@ -13797,7 +13899,7 @@
         <v>3</v>
       </c>
       <c r="I106" s="111">
-        <f ca="1">IF(ISBLANK(J106)=FALSE,OFFSET(I106,0,COUNTA(J106:P106)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="J106" s="112">
@@ -13841,13 +13943,13 @@
         <v>103</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D107" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="8"/>
         <v>完了</v>
       </c>
       <c r="E107" s="109">
@@ -13863,7 +13965,7 @@
         <v>3</v>
       </c>
       <c r="I107" s="111">
-        <f ca="1">IF(ISBLANK(J107)=FALSE,OFFSET(I107,0,COUNTA(J107:P107)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="J107" s="112">
@@ -13884,7 +13986,7 @@
       <c r="O107" s="112"/>
       <c r="P107" s="112"/>
       <c r="R107" s="124" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S107" s="125">
         <f>SUMIF($C$5:$C$157,R107,$G$5:$G$157)</f>
@@ -13899,7 +14001,7 @@
         <v>18</v>
       </c>
       <c r="V107" s="126">
-        <f>COUNTA($J$2:$P$2)*6-COUNTA($J$4:$P$4)*6</f>
+        <f t="shared" ref="V107:V116" si="9">COUNTA($J$2:$P$2)*6-COUNTA($J$4:$P$4)*6</f>
         <v>12</v>
       </c>
       <c r="W107" s="127">
@@ -13912,13 +14014,13 @@
         <v>104</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D108" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="8"/>
         <v>完了</v>
       </c>
       <c r="E108" s="109">
@@ -13934,7 +14036,7 @@
         <v>4</v>
       </c>
       <c r="I108" s="111">
-        <f ca="1">IF(ISBLANK(J108)=FALSE,OFFSET(I108,0,COUNTA(J108:P108)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="J108" s="112">
@@ -13955,26 +14057,26 @@
       <c r="O108" s="112"/>
       <c r="P108" s="112"/>
       <c r="R108" s="124" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S108" s="125">
-        <f t="shared" ref="S108:S116" si="4">SUMIF($C$5:$C$157,R108,$G$5:$G$157)</f>
-        <v>38</v>
+        <f t="shared" ref="S108:S116" si="10">SUMIF($C$5:$C$157,R108,$G$5:$G$157)</f>
+        <v>43</v>
       </c>
       <c r="T108" s="125">
-        <f t="shared" ref="T108:T116" ca="1" si="5">SUMIF($C$5:$C$156,R108,$I$5:$I$157)</f>
-        <v>10</v>
+        <f t="shared" ref="T108:T116" ca="1" si="11">SUMIF($C$5:$C$156,R108,$I$5:$I$157)</f>
+        <v>12</v>
       </c>
       <c r="U108" s="125">
-        <f t="shared" ref="U108:U116" si="6">SUMIF($C$5:$C$157,R108,$H$5:$H$157)</f>
+        <f t="shared" ref="U108:U116" si="12">SUMIF($C$5:$C$157,R108,$H$5:$H$157)</f>
         <v>30</v>
       </c>
       <c r="V108" s="126">
-        <f>COUNTA($J$2:$P$2)*6-COUNTA($J$4:$P$4)*6</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="W108" s="127">
-        <f t="shared" ref="W108:W116" ca="1" si="7">IF(V108&gt;T108,0,T108-V108)</f>
+        <f t="shared" ref="W108:W116" ca="1" si="13">IF(V108&gt;T108,0,T108-V108)</f>
         <v>0</v>
       </c>
     </row>
@@ -13983,13 +14085,13 @@
         <v>105</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D109" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="8"/>
         <v>完了</v>
       </c>
       <c r="E109" s="109">
@@ -14005,7 +14107,7 @@
         <v>3</v>
       </c>
       <c r="I109" s="111">
-        <f ca="1">IF(ISBLANK(J109)=FALSE,OFFSET(I109,0,COUNTA(J109:P109)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="J109" s="112">
@@ -14026,27 +14128,27 @@
       <c r="O109" s="112"/>
       <c r="P109" s="112"/>
       <c r="R109" s="124" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S109" s="125">
-        <f t="shared" si="4"/>
-        <v>55</v>
+        <f t="shared" si="10"/>
+        <v>60</v>
       </c>
       <c r="T109" s="125">
-        <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>22</v>
       </c>
       <c r="U109" s="125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>27</v>
       </c>
       <c r="V109" s="126">
-        <f>COUNTA($J$2:$P$2)*6-COUNTA($J$4:$P$4)*6</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="W109" s="127">
-        <f t="shared" ca="1" si="7"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -14054,13 +14156,13 @@
         <v>106</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D110" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="8"/>
         <v>完了</v>
       </c>
       <c r="E110" s="4">
@@ -14076,7 +14178,7 @@
         <v>3</v>
       </c>
       <c r="I110" s="111">
-        <f ca="1">IF(ISBLANK(J110)=FALSE,OFFSET(I110,0,COUNTA(J110:P110)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="J110" s="112">
@@ -14097,27 +14199,27 @@
       <c r="O110" s="112"/>
       <c r="P110" s="112"/>
       <c r="R110" s="124" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S110" s="125">
-        <f t="shared" si="4"/>
-        <v>24</v>
+        <f t="shared" si="10"/>
+        <v>14</v>
       </c>
       <c r="T110" s="125">
-        <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>11</v>
       </c>
       <c r="U110" s="125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="V110" s="126">
-        <f>COUNTA($J$2:$P$2)*6-COUNTA($J$4:$P$4)*6</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="W110" s="127">
-        <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -14125,13 +14227,13 @@
         <v>107</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D111" s="111" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="8"/>
         <v>完了</v>
       </c>
       <c r="E111" s="109">
@@ -14147,7 +14249,7 @@
         <v>4</v>
       </c>
       <c r="I111" s="111">
-        <f ca="1">IF(ISBLANK(J111)=FALSE,OFFSET(I111,0,COUNTA(J111:P111)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="J111" s="112">
@@ -14168,26 +14270,26 @@
       <c r="O111" s="112"/>
       <c r="P111" s="112"/>
       <c r="R111" s="124" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S111" s="125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="T111" s="125">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="U111" s="125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>26</v>
       </c>
       <c r="V111" s="126">
-        <f>COUNTA($J$2:$P$2)*6-COUNTA($J$4:$P$4)*6</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="W111" s="127">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14196,13 +14298,13 @@
         <v>108</v>
       </c>
       <c r="B112" s="129" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D112" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>未着手</v>
       </c>
       <c r="E112" s="109">
@@ -14214,7 +14316,7 @@
       </c>
       <c r="H112" s="110"/>
       <c r="I112" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J112)=FALSE,OFFSET(I112,0,COUNTA(J112:P112)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J112" s="112"/>
@@ -14226,23 +14328,23 @@
       <c r="P112" s="112"/>
       <c r="R112" s="124"/>
       <c r="S112" s="125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T112" s="125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U112" s="125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V112" s="126">
-        <f>COUNTA($J$2:$P$2)*6-COUNTA($J$4:$P$4)*6</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="W112" s="127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14253,7 +14355,7 @@
       <c r="B113" s="116"/>
       <c r="C113" s="115"/>
       <c r="D113" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E113" s="109"/>
@@ -14261,7 +14363,7 @@
       <c r="G113" s="110"/>
       <c r="H113" s="110"/>
       <c r="I113" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J113)=FALSE,OFFSET(I113,0,COUNTA(J113:P113)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J113" s="112"/>
@@ -14273,23 +14375,23 @@
       <c r="P113" s="112"/>
       <c r="R113" s="124"/>
       <c r="S113" s="125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T113" s="125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U113" s="125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V113" s="126">
-        <f>COUNTA($J$2:$P$2)*6-COUNTA($J$4:$P$4)*6</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="W113" s="127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14300,7 +14402,7 @@
       <c r="B114" s="116"/>
       <c r="C114" s="115"/>
       <c r="D114" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E114" s="109"/>
@@ -14308,7 +14410,7 @@
       <c r="G114" s="110"/>
       <c r="H114" s="110"/>
       <c r="I114" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J114)=FALSE,OFFSET(I114,0,COUNTA(J114:P114)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J114" s="112"/>
@@ -14320,23 +14422,23 @@
       <c r="P114" s="112"/>
       <c r="R114" s="124"/>
       <c r="S114" s="125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T114" s="125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U114" s="125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V114" s="126">
-        <f>COUNTA($J$2:$P$2)*6-COUNTA($J$4:$P$4)*6</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="W114" s="127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14347,7 +14449,7 @@
       <c r="B115" s="116"/>
       <c r="C115" s="115"/>
       <c r="D115" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E115" s="109"/>
@@ -14355,7 +14457,7 @@
       <c r="G115" s="110"/>
       <c r="H115" s="110"/>
       <c r="I115" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J115)=FALSE,OFFSET(I115,0,COUNTA(J115:P115)),"")</f>
+        <f t="shared" ref="I115:I146" ca="1" si="14">IF(ISBLANK(J115)=FALSE,OFFSET(I115,0,COUNTA(J115:P115)),"")</f>
         <v/>
       </c>
       <c r="J115" s="112"/>
@@ -14367,23 +14469,23 @@
       <c r="P115" s="112"/>
       <c r="R115" s="124"/>
       <c r="S115" s="125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T115" s="125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U115" s="125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V115" s="126">
-        <f>COUNTA($J$2:$P$2)*6-COUNTA($J$4:$P$4)*6</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="W115" s="127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14394,7 +14496,7 @@
       <c r="B116" s="116"/>
       <c r="C116" s="115"/>
       <c r="D116" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E116" s="109"/>
@@ -14402,7 +14504,7 @@
       <c r="G116" s="110"/>
       <c r="H116" s="110"/>
       <c r="I116" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J116)=FALSE,OFFSET(I116,0,COUNTA(J116:P116)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J116" s="112"/>
@@ -14414,23 +14516,23 @@
       <c r="P116" s="112"/>
       <c r="R116" s="124"/>
       <c r="S116" s="125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T116" s="125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U116" s="125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V116" s="126">
-        <f>COUNTA($J$2:$P$2)*6-COUNTA($J$4:$P$4)*6</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="W116" s="127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14441,7 +14543,7 @@
       <c r="B117" s="116"/>
       <c r="C117" s="115"/>
       <c r="D117" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E117" s="109"/>
@@ -14449,7 +14551,7 @@
       <c r="G117" s="110"/>
       <c r="H117" s="110"/>
       <c r="I117" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J117)=FALSE,OFFSET(I117,0,COUNTA(J117:P117)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J117" s="112"/>
@@ -14467,7 +14569,7 @@
       <c r="B118" s="116"/>
       <c r="C118" s="115"/>
       <c r="D118" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E118" s="109"/>
@@ -14475,7 +14577,7 @@
       <c r="G118" s="110"/>
       <c r="H118" s="110"/>
       <c r="I118" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J118)=FALSE,OFFSET(I118,0,COUNTA(J118:P118)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J118" s="112"/>
@@ -14493,7 +14595,7 @@
       <c r="B119" s="116"/>
       <c r="C119" s="115"/>
       <c r="D119" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E119" s="109"/>
@@ -14501,7 +14603,7 @@
       <c r="G119" s="110"/>
       <c r="H119" s="110"/>
       <c r="I119" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J119)=FALSE,OFFSET(I119,0,COUNTA(J119:P119)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J119" s="112"/>
@@ -14519,7 +14621,7 @@
       <c r="B120" s="116"/>
       <c r="C120" s="115"/>
       <c r="D120" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E120" s="109"/>
@@ -14527,7 +14629,7 @@
       <c r="G120" s="110"/>
       <c r="H120" s="110"/>
       <c r="I120" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J120)=FALSE,OFFSET(I120,0,COUNTA(J120:P120)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J120" s="112"/>
@@ -14545,7 +14647,7 @@
       <c r="B121" s="116"/>
       <c r="C121" s="115"/>
       <c r="D121" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E121" s="109"/>
@@ -14553,7 +14655,7 @@
       <c r="G121" s="110"/>
       <c r="H121" s="110"/>
       <c r="I121" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J121)=FALSE,OFFSET(I121,0,COUNTA(J121:P121)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J121" s="112"/>
@@ -14571,7 +14673,7 @@
       <c r="B122" s="116"/>
       <c r="C122" s="115"/>
       <c r="D122" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E122" s="109"/>
@@ -14579,7 +14681,7 @@
       <c r="G122" s="110"/>
       <c r="H122" s="110"/>
       <c r="I122" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J122)=FALSE,OFFSET(I122,0,COUNTA(J122:P122)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J122" s="112"/>
@@ -14597,7 +14699,7 @@
       <c r="B123" s="116"/>
       <c r="C123" s="115"/>
       <c r="D123" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E123" s="109"/>
@@ -14605,7 +14707,7 @@
       <c r="G123" s="110"/>
       <c r="H123" s="110"/>
       <c r="I123" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J123)=FALSE,OFFSET(I123,0,COUNTA(J123:P123)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J123" s="112"/>
@@ -14623,7 +14725,7 @@
       <c r="B124" s="116"/>
       <c r="C124" s="115"/>
       <c r="D124" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E124" s="109"/>
@@ -14631,7 +14733,7 @@
       <c r="G124" s="110"/>
       <c r="H124" s="110"/>
       <c r="I124" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J124)=FALSE,OFFSET(I124,0,COUNTA(J124:P124)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J124" s="112"/>
@@ -14649,7 +14751,7 @@
       <c r="B125" s="116"/>
       <c r="C125" s="115"/>
       <c r="D125" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E125" s="109"/>
@@ -14657,7 +14759,7 @@
       <c r="G125" s="110"/>
       <c r="H125" s="110"/>
       <c r="I125" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J125)=FALSE,OFFSET(I125,0,COUNTA(J125:P125)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J125" s="112"/>
@@ -14675,7 +14777,7 @@
       <c r="B126" s="116"/>
       <c r="C126" s="115"/>
       <c r="D126" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E126" s="109"/>
@@ -14683,7 +14785,7 @@
       <c r="G126" s="110"/>
       <c r="H126" s="110"/>
       <c r="I126" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J126)=FALSE,OFFSET(I126,0,COUNTA(J126:P126)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J126" s="112"/>
@@ -14701,7 +14803,7 @@
       <c r="B127" s="116"/>
       <c r="C127" s="115"/>
       <c r="D127" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E127" s="109"/>
@@ -14709,7 +14811,7 @@
       <c r="G127" s="110"/>
       <c r="H127" s="110"/>
       <c r="I127" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J127)=FALSE,OFFSET(I127,0,COUNTA(J127:P127)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J127" s="112"/>
@@ -14727,7 +14829,7 @@
       <c r="B128" s="116"/>
       <c r="C128" s="115"/>
       <c r="D128" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E128" s="109"/>
@@ -14735,7 +14837,7 @@
       <c r="G128" s="110"/>
       <c r="H128" s="110"/>
       <c r="I128" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J128)=FALSE,OFFSET(I128,0,COUNTA(J128:P128)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J128" s="112"/>
@@ -14753,7 +14855,7 @@
       <c r="B129" s="116"/>
       <c r="C129" s="115"/>
       <c r="D129" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E129" s="109"/>
@@ -14761,7 +14863,7 @@
       <c r="G129" s="110"/>
       <c r="H129" s="110"/>
       <c r="I129" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J129)=FALSE,OFFSET(I129,0,COUNTA(J129:P129)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J129" s="112"/>
@@ -14779,7 +14881,7 @@
       <c r="B130" s="116"/>
       <c r="C130" s="115"/>
       <c r="D130" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E130" s="109"/>
@@ -14787,7 +14889,7 @@
       <c r="G130" s="110"/>
       <c r="H130" s="110"/>
       <c r="I130" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J130)=FALSE,OFFSET(I130,0,COUNTA(J130:P130)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J130" s="112"/>
@@ -14805,7 +14907,7 @@
       <c r="B131" s="116"/>
       <c r="C131" s="115"/>
       <c r="D131" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E131" s="109"/>
@@ -14813,7 +14915,7 @@
       <c r="G131" s="110"/>
       <c r="H131" s="110"/>
       <c r="I131" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J131)=FALSE,OFFSET(I131,0,COUNTA(J131:P131)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J131" s="112"/>
@@ -14831,7 +14933,7 @@
       <c r="B132" s="116"/>
       <c r="C132" s="115"/>
       <c r="D132" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E132" s="109"/>
@@ -14839,7 +14941,7 @@
       <c r="G132" s="110"/>
       <c r="H132" s="110"/>
       <c r="I132" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J132)=FALSE,OFFSET(I132,0,COUNTA(J132:P132)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J132" s="112"/>
@@ -14857,7 +14959,7 @@
       <c r="B133" s="116"/>
       <c r="C133" s="115"/>
       <c r="D133" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E133" s="109"/>
@@ -14865,7 +14967,7 @@
       <c r="G133" s="110"/>
       <c r="H133" s="110"/>
       <c r="I133" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J133)=FALSE,OFFSET(I133,0,COUNTA(J133:P133)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J133" s="112"/>
@@ -14883,7 +14985,7 @@
       <c r="B134" s="116"/>
       <c r="C134" s="115"/>
       <c r="D134" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E134" s="109"/>
@@ -14891,7 +14993,7 @@
       <c r="G134" s="110"/>
       <c r="H134" s="110"/>
       <c r="I134" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J134)=FALSE,OFFSET(I134,0,COUNTA(J134:P134)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J134" s="112"/>
@@ -14909,7 +15011,7 @@
       <c r="B135" s="116"/>
       <c r="C135" s="115"/>
       <c r="D135" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E135" s="109"/>
@@ -14917,7 +15019,7 @@
       <c r="G135" s="110"/>
       <c r="H135" s="110"/>
       <c r="I135" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J135)=FALSE,OFFSET(I135,0,COUNTA(J135:P135)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J135" s="112"/>
@@ -14935,7 +15037,7 @@
       <c r="B136" s="116"/>
       <c r="C136" s="115"/>
       <c r="D136" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E136" s="109"/>
@@ -14943,7 +15045,7 @@
       <c r="G136" s="110"/>
       <c r="H136" s="110"/>
       <c r="I136" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J136)=FALSE,OFFSET(I136,0,COUNTA(J136:P136)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J136" s="112"/>
@@ -14961,7 +15063,7 @@
       <c r="B137" s="116"/>
       <c r="C137" s="115"/>
       <c r="D137" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E137" s="109"/>
@@ -14969,7 +15071,7 @@
       <c r="G137" s="110"/>
       <c r="H137" s="110"/>
       <c r="I137" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J137)=FALSE,OFFSET(I137,0,COUNTA(J137:P137)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J137" s="112"/>
@@ -14987,7 +15089,7 @@
       <c r="B138" s="116"/>
       <c r="C138" s="115"/>
       <c r="D138" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E138" s="109"/>
@@ -14995,7 +15097,7 @@
       <c r="G138" s="110"/>
       <c r="H138" s="110"/>
       <c r="I138" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J138)=FALSE,OFFSET(I138,0,COUNTA(J138:P138)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J138" s="112"/>
@@ -15013,7 +15115,7 @@
       <c r="B139" s="116"/>
       <c r="C139" s="115"/>
       <c r="D139" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E139" s="109"/>
@@ -15021,7 +15123,7 @@
       <c r="G139" s="110"/>
       <c r="H139" s="110"/>
       <c r="I139" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J139)=FALSE,OFFSET(I139,0,COUNTA(J139:P139)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J139" s="112"/>
@@ -15039,7 +15141,7 @@
       <c r="B140" s="116"/>
       <c r="C140" s="115"/>
       <c r="D140" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E140" s="109"/>
@@ -15047,7 +15149,7 @@
       <c r="G140" s="110"/>
       <c r="H140" s="110"/>
       <c r="I140" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J140)=FALSE,OFFSET(I140,0,COUNTA(J140:P140)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J140" s="112"/>
@@ -15065,7 +15167,7 @@
       <c r="B141" s="116"/>
       <c r="C141" s="115"/>
       <c r="D141" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E141" s="109"/>
@@ -15073,7 +15175,7 @@
       <c r="G141" s="110"/>
       <c r="H141" s="110"/>
       <c r="I141" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J141)=FALSE,OFFSET(I141,0,COUNTA(J141:P141)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J141" s="112"/>
@@ -15091,7 +15193,7 @@
       <c r="B142" s="116"/>
       <c r="C142" s="115"/>
       <c r="D142" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E142" s="109"/>
@@ -15099,7 +15201,7 @@
       <c r="G142" s="110"/>
       <c r="H142" s="110"/>
       <c r="I142" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J142)=FALSE,OFFSET(I142,0,COUNTA(J142:P142)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J142" s="112"/>
@@ -15117,7 +15219,7 @@
       <c r="B143" s="116"/>
       <c r="C143" s="115"/>
       <c r="D143" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E143" s="109"/>
@@ -15125,7 +15227,7 @@
       <c r="G143" s="110"/>
       <c r="H143" s="110"/>
       <c r="I143" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J143)=FALSE,OFFSET(I143,0,COUNTA(J143:P143)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J143" s="112"/>
@@ -15143,7 +15245,7 @@
       <c r="B144" s="116"/>
       <c r="C144" s="115"/>
       <c r="D144" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E144" s="109"/>
@@ -15151,7 +15253,7 @@
       <c r="G144" s="110"/>
       <c r="H144" s="110"/>
       <c r="I144" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J144)=FALSE,OFFSET(I144,0,COUNTA(J144:P144)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J144" s="112"/>
@@ -15169,7 +15271,7 @@
       <c r="B145" s="116"/>
       <c r="C145" s="115"/>
       <c r="D145" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E145" s="109"/>
@@ -15177,7 +15279,7 @@
       <c r="G145" s="110"/>
       <c r="H145" s="110"/>
       <c r="I145" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J145)=FALSE,OFFSET(I145,0,COUNTA(J145:P145)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J145" s="112"/>
@@ -15195,7 +15297,7 @@
       <c r="B146" s="116"/>
       <c r="C146" s="115"/>
       <c r="D146" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E146" s="109"/>
@@ -15203,7 +15305,7 @@
       <c r="G146" s="110"/>
       <c r="H146" s="110"/>
       <c r="I146" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J146)=FALSE,OFFSET(I146,0,COUNTA(J146:P146)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J146" s="112"/>
@@ -15221,7 +15323,7 @@
       <c r="B147" s="116"/>
       <c r="C147" s="115"/>
       <c r="D147" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E147" s="109"/>
@@ -15229,7 +15331,7 @@
       <c r="G147" s="110"/>
       <c r="H147" s="110"/>
       <c r="I147" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J147)=FALSE,OFFSET(I147,0,COUNTA(J147:P147)),"")</f>
+        <f t="shared" ref="I147:I178" ca="1" si="15">IF(ISBLANK(J147)=FALSE,OFFSET(I147,0,COUNTA(J147:P147)),"")</f>
         <v/>
       </c>
       <c r="J147" s="112"/>
@@ -15247,7 +15349,7 @@
       <c r="B148" s="116"/>
       <c r="C148" s="115"/>
       <c r="D148" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E148" s="109"/>
@@ -15255,7 +15357,7 @@
       <c r="G148" s="110"/>
       <c r="H148" s="110"/>
       <c r="I148" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J148)=FALSE,OFFSET(I148,0,COUNTA(J148:P148)),"")</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J148" s="112"/>
@@ -15273,7 +15375,7 @@
       <c r="B149" s="116"/>
       <c r="C149" s="115"/>
       <c r="D149" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E149" s="109"/>
@@ -15281,7 +15383,7 @@
       <c r="G149" s="110"/>
       <c r="H149" s="110"/>
       <c r="I149" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J149)=FALSE,OFFSET(I149,0,COUNTA(J149:P149)),"")</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J149" s="112"/>
@@ -15299,7 +15401,7 @@
       <c r="B150" s="116"/>
       <c r="C150" s="115"/>
       <c r="D150" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E150" s="109"/>
@@ -15307,7 +15409,7 @@
       <c r="G150" s="110"/>
       <c r="H150" s="110"/>
       <c r="I150" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J150)=FALSE,OFFSET(I150,0,COUNTA(J150:P150)),"")</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J150" s="112"/>
@@ -15325,7 +15427,7 @@
       <c r="B151" s="116"/>
       <c r="C151" s="115"/>
       <c r="D151" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E151" s="109"/>
@@ -15333,7 +15435,7 @@
       <c r="G151" s="110"/>
       <c r="H151" s="110"/>
       <c r="I151" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J151)=FALSE,OFFSET(I151,0,COUNTA(J151:P151)),"")</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J151" s="112"/>
@@ -15351,7 +15453,7 @@
       <c r="B152" s="116"/>
       <c r="C152" s="115"/>
       <c r="D152" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E152" s="109"/>
@@ -15359,7 +15461,7 @@
       <c r="G152" s="110"/>
       <c r="H152" s="110"/>
       <c r="I152" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J152)=FALSE,OFFSET(I152,0,COUNTA(J152:P152)),"")</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J152" s="112"/>
@@ -15377,7 +15479,7 @@
       <c r="B153" s="116"/>
       <c r="C153" s="115"/>
       <c r="D153" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E153" s="109"/>
@@ -15385,7 +15487,7 @@
       <c r="G153" s="110"/>
       <c r="H153" s="110"/>
       <c r="I153" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J153)=FALSE,OFFSET(I153,0,COUNTA(J153:P153)),"")</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J153" s="112"/>
@@ -15403,7 +15505,7 @@
       <c r="B154" s="116"/>
       <c r="C154" s="115"/>
       <c r="D154" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E154" s="109"/>
@@ -15411,7 +15513,7 @@
       <c r="G154" s="110"/>
       <c r="H154" s="110"/>
       <c r="I154" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J154)=FALSE,OFFSET(I154,0,COUNTA(J154:P154)),"")</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J154" s="112"/>
@@ -15429,7 +15531,7 @@
       <c r="B155" s="116"/>
       <c r="C155" s="115"/>
       <c r="D155" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E155" s="109"/>
@@ -15437,7 +15539,7 @@
       <c r="G155" s="110"/>
       <c r="H155" s="110"/>
       <c r="I155" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J155)=FALSE,OFFSET(I155,0,COUNTA(J155:P155)),"")</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J155" s="112"/>
@@ -15455,7 +15557,7 @@
       <c r="B156" s="116"/>
       <c r="C156" s="115"/>
       <c r="D156" s="111" t="str">
-        <f t="shared" ref="D156:D157" si="8">IF(ISBLANK($B156),"",IF(ISBLANK($F156),"未着手",IF($I156=0,"完了","作業中")))</f>
+        <f t="shared" ref="D156:D157" si="16">IF(ISBLANK($B156),"",IF(ISBLANK($F156),"未着手",IF($I156=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="E156" s="109"/>
@@ -15463,7 +15565,7 @@
       <c r="G156" s="110"/>
       <c r="H156" s="110"/>
       <c r="I156" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J156)=FALSE,OFFSET(I156,0,COUNTA(J156:P156)),"")</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J156" s="112"/>
@@ -15481,7 +15583,7 @@
       <c r="B157" s="116"/>
       <c r="C157" s="115"/>
       <c r="D157" s="111" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E157" s="109"/>
@@ -15489,7 +15591,7 @@
       <c r="G157" s="110"/>
       <c r="H157" s="110"/>
       <c r="I157" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J157)=FALSE,OFFSET(I157,0,COUNTA(J157:P157)),"")</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J157" s="112"/>
@@ -15794,113 +15896,124 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D158:D65536">
-    <cfRule type="expression" dxfId="62" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="16" stopIfTrue="1">
       <formula>D158="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="17" stopIfTrue="1">
       <formula>D158="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="18" stopIfTrue="1">
       <formula>OR(D158="終了",D158="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A157 B105:B111 C101:XFD101 D92:XFD100 B113:P157 B102:XFD103 C111:P112 C105:M110 O105:P110 B104:M104 O104:XFD104 N104:N110 E5:XFD91">
-    <cfRule type="expression" dxfId="59" priority="19" stopIfTrue="1">
+  <conditionalFormatting sqref="A5:A157 B105:B111 C101:XFD101 D92:XFD100 B113:P157 B102:XFD103 C111:P112 C105:M110 O105:P110 B104:M104 O104:XFD104 N104:N110 E5:XFD85 E88:XFD91 E86:R87 T86:XFD87">
+    <cfRule type="expression" dxfId="62" priority="19" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="20" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="21" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:B65536">
-    <cfRule type="expression" dxfId="56" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="22" stopIfTrue="1">
       <formula>D158="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="23" stopIfTrue="1">
       <formula>D158="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="24" stopIfTrue="1">
       <formula>OR(D158="終了",D158="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C158:C65536">
-    <cfRule type="expression" dxfId="53" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="25" stopIfTrue="1">
       <formula>D158="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="26" stopIfTrue="1">
       <formula>D158="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="27" stopIfTrue="1">
       <formula>OR(D158="終了",D158="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158:P65536">
-    <cfRule type="expression" dxfId="50" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="28" stopIfTrue="1">
       <formula>$D158="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="29" stopIfTrue="1">
       <formula>$D158="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="30" stopIfTrue="1">
       <formula>OR($D158="終了",$D158="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B8 B15:B101">
-    <cfRule type="expression" dxfId="47" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="13" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="14" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="15" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D91">
-    <cfRule type="expression" dxfId="44" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="10" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="11" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="12" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C100">
-    <cfRule type="expression" dxfId="41" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="7" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="8" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="9" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B14">
-    <cfRule type="expression" dxfId="38" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="4" stopIfTrue="1">
       <formula>$D9="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="5" stopIfTrue="1">
       <formula>$D9="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="6" stopIfTrue="1">
       <formula>OR($D9="終了",$D9="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112">
-    <cfRule type="expression" dxfId="35" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="1" stopIfTrue="1">
       <formula>$D112="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="2" stopIfTrue="1">
       <formula>$D112="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="3" stopIfTrue="1">
       <formula>OR($D112="終了",$D112="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S87">
+    <cfRule type="expression" dxfId="2" priority="34" stopIfTrue="1">
+      <formula>$D86="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="35" stopIfTrue="1">
+      <formula>$D86="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="36" stopIfTrue="1">
+      <formula>OR($D86="終了",$D86="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -15912,7 +16025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z188"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -19705,57 +19818,57 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="32" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="1" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="2" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="3" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD104">
-    <cfRule type="expression" dxfId="29" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="7" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="8" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="23" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="10" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="12" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:S65536">
-    <cfRule type="expression" dxfId="20" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="13" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="14" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="15" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19768,7 +19881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22991,57 +23104,57 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD104">
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:P65536">
-    <cfRule type="expression" dxfId="5" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="13" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="14" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="15" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23054,7 +23167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23852,33 +23965,33 @@
       <c r="K51" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:K51"/>
+  <autoFilter ref="B1:K51" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="A2:K51">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>$D2="要望"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>$D2="確認済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>$D2="対応"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I51" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>登録者</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B51" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>重要度</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>担当者</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D51" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>状況</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E51" xr:uid="{00000000-0002-0000-0400-000004000000}">
       <formula1>状況２</formula1>
     </dataValidation>
   </dataValidations>

--- a/タスク/07班スプリントバックログ.xlsx
+++ b/タスク/07班スプリントバックログ.xlsx
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="242">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -1856,13 +1856,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>チュートリアルステージの作成</t>
-    <rPh sb="12" eb="14">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>エフェクトの追加</t>
     <rPh sb="6" eb="8">
       <t>ツイカ</t>
@@ -2514,19 +2507,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>各動物のデンジャーのUIを追加</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ドウブツ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>アラートタスク</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -2659,13 +2639,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ステージオブジェクトの配置タスク</t>
-    <rPh sb="11" eb="13">
-      <t>ハイチ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>//カートを重ねて、ぐねぐね動かせるようにする</t>
     <rPh sb="6" eb="7">
       <t>カサ</t>
@@ -2682,6 +2655,33 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>各動物のデンジャーのUIを実装</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ドウブツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>チュートリアルステージのマップ制作</t>
+    <rPh sb="15" eb="17">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ステージのモデル配置タスク</t>
+    <rPh sb="8" eb="10">
+      <t>ハイチ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -3565,7 +3565,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3916,6 +3916,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3998,32 +4026,23 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -4039,53 +4058,13 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color indexed="22"/>
+        <color indexed="55"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
+        <b/>
+        <i val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="12"/>
@@ -4258,6 +4237,27 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="55"/>
       </font>
     </dxf>
@@ -4316,6 +4316,27 @@
       <font>
         <b/>
         <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="12"/>
@@ -5282,7 +5303,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -5416,7 +5436,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -5550,7 +5569,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -5663,7 +5681,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -8999,19 +9016,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1">
-      <c r="D2" s="136" t="s">
+      <c r="D2" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="136"/>
+      <c r="E2" s="143"/>
     </row>
     <row r="3" spans="1:5" ht="7.5" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:5" s="46" customFormat="1" ht="14.25" thickBot="1">
@@ -9030,7 +9047,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="137" t="s">
+      <c r="A5" s="144" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="76"/>
@@ -9039,21 +9056,21 @@
       <c r="E5" s="49"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="138"/>
+      <c r="A6" s="145"/>
       <c r="B6" s="70"/>
       <c r="C6" s="50"/>
       <c r="D6" s="51"/>
       <c r="E6" s="52"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="138"/>
+      <c r="A7" s="145"/>
       <c r="B7" s="70"/>
       <c r="C7" s="50"/>
       <c r="D7" s="51"/>
       <c r="E7" s="52"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="138"/>
+      <c r="A8" s="145"/>
       <c r="B8" s="71">
         <v>43025</v>
       </c>
@@ -9062,7 +9079,7 @@
       <c r="E8" s="52"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="138"/>
+      <c r="A9" s="145"/>
       <c r="B9" s="72">
         <f>B8</f>
         <v>43025</v>
@@ -9072,49 +9089,49 @@
       <c r="E9" s="52"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="138"/>
+      <c r="A10" s="145"/>
       <c r="B10" s="72"/>
       <c r="C10" s="50"/>
       <c r="D10" s="51"/>
       <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="138"/>
+      <c r="A11" s="145"/>
       <c r="B11" s="71"/>
       <c r="C11" s="50"/>
       <c r="D11" s="51"/>
       <c r="E11" s="52"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="138"/>
+      <c r="A12" s="145"/>
       <c r="B12" s="69"/>
       <c r="C12" s="55"/>
       <c r="D12" s="51"/>
       <c r="E12" s="52"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="138"/>
+      <c r="A13" s="145"/>
       <c r="B13" s="68"/>
       <c r="C13" s="53"/>
       <c r="D13" s="51"/>
       <c r="E13" s="52"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="138"/>
+      <c r="A14" s="145"/>
       <c r="B14" s="70"/>
       <c r="C14" s="50"/>
       <c r="D14" s="51"/>
       <c r="E14" s="52"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="138"/>
+      <c r="A15" s="145"/>
       <c r="B15" s="71"/>
       <c r="C15" s="50"/>
       <c r="D15" s="51"/>
       <c r="E15" s="52"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="138"/>
+      <c r="A16" s="145"/>
       <c r="B16" s="71">
         <v>43028</v>
       </c>
@@ -9123,7 +9140,7 @@
       <c r="E16" s="52"/>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="138"/>
+      <c r="A17" s="145"/>
       <c r="B17" s="72">
         <f>B16</f>
         <v>43028</v>
@@ -9133,49 +9150,49 @@
       <c r="E17" s="52"/>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="138"/>
+      <c r="A18" s="145"/>
       <c r="B18" s="72"/>
       <c r="C18" s="50"/>
       <c r="D18" s="51"/>
       <c r="E18" s="52"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="138"/>
+      <c r="A19" s="145"/>
       <c r="B19" s="71"/>
       <c r="C19" s="50"/>
       <c r="D19" s="51"/>
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="138"/>
+      <c r="A20" s="145"/>
       <c r="B20" s="69"/>
       <c r="C20" s="55"/>
       <c r="D20" s="51"/>
       <c r="E20" s="52"/>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="138"/>
+      <c r="A21" s="145"/>
       <c r="B21" s="68"/>
       <c r="C21" s="53"/>
       <c r="D21" s="51"/>
       <c r="E21" s="52"/>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="138"/>
+      <c r="A22" s="145"/>
       <c r="B22" s="70"/>
       <c r="C22" s="50"/>
       <c r="D22" s="51"/>
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="138"/>
+      <c r="A23" s="145"/>
       <c r="B23" s="70"/>
       <c r="C23" s="50"/>
       <c r="D23" s="51"/>
       <c r="E23" s="52"/>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="138"/>
+      <c r="A24" s="145"/>
       <c r="B24" s="71">
         <v>43032</v>
       </c>
@@ -9184,7 +9201,7 @@
       <c r="E24" s="52"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="138"/>
+      <c r="A25" s="145"/>
       <c r="B25" s="72">
         <f>B24</f>
         <v>43032</v>
@@ -9194,49 +9211,49 @@
       <c r="E25" s="52"/>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="138"/>
+      <c r="A26" s="145"/>
       <c r="B26" s="72"/>
       <c r="C26" s="50"/>
       <c r="D26" s="51"/>
       <c r="E26" s="52"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="138"/>
+      <c r="A27" s="145"/>
       <c r="B27" s="71"/>
       <c r="C27" s="50"/>
       <c r="D27" s="51"/>
       <c r="E27" s="52"/>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="138"/>
+      <c r="A28" s="145"/>
       <c r="B28" s="70"/>
       <c r="C28" s="55"/>
       <c r="D28" s="51"/>
       <c r="E28" s="52"/>
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="138"/>
+      <c r="A29" s="145"/>
       <c r="B29" s="68"/>
       <c r="C29" s="78"/>
       <c r="D29" s="51"/>
       <c r="E29" s="54"/>
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="138"/>
+      <c r="A30" s="145"/>
       <c r="B30" s="70"/>
       <c r="C30" s="75"/>
       <c r="D30" s="51"/>
       <c r="E30" s="54"/>
     </row>
     <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="138"/>
+      <c r="A31" s="145"/>
       <c r="B31" s="70"/>
       <c r="C31" s="50"/>
       <c r="D31" s="51"/>
       <c r="E31" s="54"/>
     </row>
     <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="138"/>
+      <c r="A32" s="145"/>
       <c r="B32" s="71">
         <v>43035</v>
       </c>
@@ -9245,7 +9262,7 @@
       <c r="E32" s="52"/>
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="138"/>
+      <c r="A33" s="145"/>
       <c r="B33" s="72">
         <f>B32</f>
         <v>43035</v>
@@ -9255,49 +9272,49 @@
       <c r="E33" s="52"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="138"/>
+      <c r="A34" s="145"/>
       <c r="B34" s="72"/>
       <c r="C34" s="50"/>
       <c r="D34" s="51"/>
       <c r="E34" s="52"/>
     </row>
     <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="138"/>
+      <c r="A35" s="145"/>
       <c r="B35" s="71"/>
       <c r="C35" s="50"/>
       <c r="D35" s="51"/>
       <c r="E35" s="52"/>
     </row>
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="138"/>
+      <c r="A36" s="145"/>
       <c r="B36" s="69"/>
       <c r="C36" s="55"/>
       <c r="D36" s="51"/>
       <c r="E36" s="52"/>
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="138"/>
+      <c r="A37" s="145"/>
       <c r="B37" s="68"/>
       <c r="C37" s="50"/>
       <c r="D37" s="51"/>
       <c r="E37" s="52"/>
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="138"/>
+      <c r="A38" s="145"/>
       <c r="B38" s="70"/>
       <c r="C38" s="50"/>
       <c r="D38" s="51"/>
       <c r="E38" s="52"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="138"/>
+      <c r="A39" s="145"/>
       <c r="B39" s="70"/>
       <c r="C39" s="50"/>
       <c r="D39" s="51"/>
       <c r="E39" s="52"/>
     </row>
     <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="138"/>
+      <c r="A40" s="145"/>
       <c r="B40" s="71">
         <v>43039</v>
       </c>
@@ -9306,7 +9323,7 @@
       <c r="E40" s="52"/>
     </row>
     <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="138"/>
+      <c r="A41" s="145"/>
       <c r="B41" s="72">
         <f>B40</f>
         <v>43039</v>
@@ -9316,28 +9333,28 @@
       <c r="E41" s="52"/>
     </row>
     <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="138"/>
+      <c r="A42" s="145"/>
       <c r="B42" s="72"/>
       <c r="C42" s="50"/>
       <c r="D42" s="51"/>
       <c r="E42" s="52"/>
     </row>
     <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="138"/>
+      <c r="A43" s="145"/>
       <c r="B43" s="71"/>
       <c r="C43" s="50"/>
       <c r="D43" s="51"/>
       <c r="E43" s="52"/>
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="138"/>
+      <c r="A44" s="145"/>
       <c r="B44" s="69"/>
       <c r="C44" s="50"/>
       <c r="D44" s="51"/>
       <c r="E44" s="52"/>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="138"/>
+      <c r="A45" s="145"/>
       <c r="B45" s="87" t="s">
         <v>43</v>
       </c>
@@ -9346,21 +9363,21 @@
       <c r="E45" s="52"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="138"/>
+      <c r="A46" s="145"/>
       <c r="B46" s="70"/>
       <c r="C46" s="50"/>
       <c r="D46" s="51"/>
       <c r="E46" s="54"/>
     </row>
     <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="138"/>
+      <c r="A47" s="145"/>
       <c r="B47" s="70"/>
       <c r="C47" s="50"/>
       <c r="D47" s="51"/>
       <c r="E47" s="54"/>
     </row>
     <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="138"/>
+      <c r="A48" s="145"/>
       <c r="B48" s="71">
         <v>43042</v>
       </c>
@@ -9369,7 +9386,7 @@
       <c r="E48" s="54"/>
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="138"/>
+      <c r="A49" s="145"/>
       <c r="B49" s="72">
         <f>B48</f>
         <v>43042</v>
@@ -9379,28 +9396,28 @@
       <c r="E49" s="52"/>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="138"/>
+      <c r="A50" s="145"/>
       <c r="B50" s="72"/>
       <c r="C50" s="50"/>
       <c r="D50" s="56"/>
       <c r="E50" s="52"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="138"/>
+      <c r="A51" s="145"/>
       <c r="B51" s="71"/>
       <c r="C51" s="50"/>
       <c r="D51" s="56"/>
       <c r="E51" s="63"/>
     </row>
     <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="138"/>
+      <c r="A52" s="145"/>
       <c r="B52" s="69"/>
       <c r="C52" s="55"/>
       <c r="D52" s="56"/>
       <c r="E52" s="57"/>
     </row>
     <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="138"/>
+      <c r="A53" s="145"/>
       <c r="B53" s="80"/>
       <c r="C53" s="78" t="s">
         <v>41</v>
@@ -9409,7 +9426,7 @@
       <c r="E53" s="57"/>
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="138"/>
+      <c r="A54" s="145"/>
       <c r="B54" s="81"/>
       <c r="C54" s="75" t="s">
         <v>40</v>
@@ -9418,14 +9435,14 @@
       <c r="E54" s="57"/>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="138"/>
+      <c r="A55" s="145"/>
       <c r="B55" s="81"/>
       <c r="C55" s="50"/>
       <c r="D55" s="56"/>
       <c r="E55" s="57"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="138"/>
+      <c r="A56" s="145"/>
       <c r="B56" s="82">
         <v>43046</v>
       </c>
@@ -9434,7 +9451,7 @@
       <c r="E56" s="57"/>
     </row>
     <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A57" s="138"/>
+      <c r="A57" s="145"/>
       <c r="B57" s="83">
         <f>B56</f>
         <v>43046</v>
@@ -9444,28 +9461,28 @@
       <c r="E57" s="57"/>
     </row>
     <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="138"/>
+      <c r="A58" s="145"/>
       <c r="B58" s="83"/>
       <c r="C58" s="50"/>
       <c r="D58" s="56"/>
       <c r="E58" s="57"/>
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="138"/>
+      <c r="A59" s="145"/>
       <c r="B59" s="82"/>
       <c r="C59" s="50"/>
       <c r="D59" s="56"/>
       <c r="E59" s="57"/>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="138"/>
+      <c r="A60" s="145"/>
       <c r="B60" s="84"/>
       <c r="C60" s="55"/>
       <c r="D60" s="56"/>
       <c r="E60" s="57"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="138"/>
+      <c r="A61" s="145"/>
       <c r="B61" s="80"/>
       <c r="C61" s="78" t="s">
         <v>41</v>
@@ -9474,7 +9491,7 @@
       <c r="E61" s="57"/>
     </row>
     <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="138"/>
+      <c r="A62" s="145"/>
       <c r="B62" s="81"/>
       <c r="C62" s="75" t="s">
         <v>40</v>
@@ -9483,14 +9500,14 @@
       <c r="E62" s="57"/>
     </row>
     <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="138"/>
+      <c r="A63" s="145"/>
       <c r="B63" s="81"/>
       <c r="C63" s="50"/>
       <c r="D63" s="56"/>
       <c r="E63" s="57"/>
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="138"/>
+      <c r="A64" s="145"/>
       <c r="B64" s="82">
         <v>43049</v>
       </c>
@@ -9499,7 +9516,7 @@
       <c r="E64" s="57"/>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="138"/>
+      <c r="A65" s="145"/>
       <c r="B65" s="83">
         <f>B64</f>
         <v>43049</v>
@@ -9509,28 +9526,28 @@
       <c r="E65" s="57"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="138"/>
+      <c r="A66" s="145"/>
       <c r="B66" s="83"/>
       <c r="C66" s="50"/>
       <c r="D66" s="56"/>
       <c r="E66" s="57"/>
     </row>
     <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="138"/>
+      <c r="A67" s="145"/>
       <c r="B67" s="82"/>
       <c r="C67" s="50"/>
       <c r="D67" s="56"/>
       <c r="E67" s="57"/>
     </row>
     <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A68" s="138"/>
+      <c r="A68" s="145"/>
       <c r="B68" s="84"/>
       <c r="C68" s="55"/>
       <c r="D68" s="56"/>
       <c r="E68" s="57"/>
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="139" t="s">
+      <c r="A69" s="146" t="s">
         <v>45</v>
       </c>
       <c r="B69" s="76"/>
@@ -9539,21 +9556,21 @@
       <c r="E69" s="49"/>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="140"/>
+      <c r="A70" s="147"/>
       <c r="B70" s="70"/>
       <c r="C70" s="50"/>
       <c r="D70" s="89"/>
       <c r="E70" s="52"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="140"/>
+      <c r="A71" s="147"/>
       <c r="B71" s="70"/>
       <c r="C71" s="50"/>
       <c r="D71" s="89"/>
       <c r="E71" s="52"/>
     </row>
     <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="140"/>
+      <c r="A72" s="147"/>
       <c r="B72" s="71">
         <v>43053</v>
       </c>
@@ -9562,7 +9579,7 @@
       <c r="E72" s="52"/>
     </row>
     <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="140"/>
+      <c r="A73" s="147"/>
       <c r="B73" s="72">
         <f>B72</f>
         <v>43053</v>
@@ -9572,49 +9589,49 @@
       <c r="E73" s="57"/>
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="140"/>
+      <c r="A74" s="147"/>
       <c r="B74" s="72"/>
       <c r="C74" s="50"/>
       <c r="D74" s="90"/>
       <c r="E74" s="57"/>
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="140"/>
+      <c r="A75" s="147"/>
       <c r="B75" s="71"/>
       <c r="C75" s="50"/>
       <c r="D75" s="90"/>
       <c r="E75" s="57"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="140"/>
+      <c r="A76" s="147"/>
       <c r="B76" s="69"/>
       <c r="C76" s="55"/>
       <c r="D76" s="90"/>
       <c r="E76" s="57"/>
     </row>
     <row r="77" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="140"/>
+      <c r="A77" s="147"/>
       <c r="B77" s="70"/>
       <c r="C77" s="78"/>
       <c r="D77" s="89"/>
       <c r="E77" s="52"/>
     </row>
     <row r="78" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="140"/>
+      <c r="A78" s="147"/>
       <c r="B78" s="70"/>
       <c r="C78" s="75"/>
       <c r="D78" s="91"/>
       <c r="E78" s="54"/>
     </row>
     <row r="79" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="140"/>
+      <c r="A79" s="147"/>
       <c r="B79" s="70"/>
       <c r="C79" s="73"/>
       <c r="D79" s="91"/>
       <c r="E79" s="54"/>
     </row>
     <row r="80" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="140"/>
+      <c r="A80" s="147"/>
       <c r="B80" s="71">
         <v>43056</v>
       </c>
@@ -9623,7 +9640,7 @@
       <c r="E80" s="52"/>
     </row>
     <row r="81" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="140"/>
+      <c r="A81" s="147"/>
       <c r="B81" s="72">
         <f>B80</f>
         <v>43056</v>
@@ -9633,49 +9650,49 @@
       <c r="E81" s="52"/>
     </row>
     <row r="82" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="140"/>
+      <c r="A82" s="147"/>
       <c r="B82" s="72"/>
       <c r="C82" s="50"/>
       <c r="D82" s="89"/>
       <c r="E82" s="52"/>
     </row>
     <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="140"/>
+      <c r="A83" s="147"/>
       <c r="B83" s="71"/>
       <c r="C83" s="50"/>
       <c r="D83" s="89"/>
       <c r="E83" s="52"/>
     </row>
     <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="140"/>
+      <c r="A84" s="147"/>
       <c r="B84" s="70"/>
       <c r="C84" s="55"/>
       <c r="D84" s="90"/>
       <c r="E84" s="57"/>
     </row>
     <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="140"/>
+      <c r="A85" s="147"/>
       <c r="B85" s="68"/>
       <c r="C85" s="73"/>
       <c r="D85" s="89"/>
       <c r="E85" s="52"/>
     </row>
     <row r="86" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="140"/>
+      <c r="A86" s="147"/>
       <c r="B86" s="70"/>
       <c r="C86" s="73"/>
       <c r="D86" s="91"/>
       <c r="E86" s="54"/>
     </row>
     <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A87" s="140"/>
+      <c r="A87" s="147"/>
       <c r="B87" s="70"/>
       <c r="C87" s="73"/>
       <c r="D87" s="91"/>
       <c r="E87" s="54"/>
     </row>
     <row r="88" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A88" s="140"/>
+      <c r="A88" s="147"/>
       <c r="B88" s="71">
         <v>43060</v>
       </c>
@@ -9684,7 +9701,7 @@
       <c r="E88" s="52"/>
     </row>
     <row r="89" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A89" s="140"/>
+      <c r="A89" s="147"/>
       <c r="B89" s="72">
         <f>B88</f>
         <v>43060</v>
@@ -9694,49 +9711,49 @@
       <c r="E89" s="52"/>
     </row>
     <row r="90" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A90" s="140"/>
+      <c r="A90" s="147"/>
       <c r="B90" s="72"/>
       <c r="C90" s="50"/>
       <c r="D90" s="89"/>
       <c r="E90" s="52"/>
     </row>
     <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="140"/>
+      <c r="A91" s="147"/>
       <c r="B91" s="71"/>
       <c r="C91" s="50"/>
       <c r="D91" s="89"/>
       <c r="E91" s="52"/>
     </row>
     <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A92" s="140"/>
+      <c r="A92" s="147"/>
       <c r="B92" s="69"/>
       <c r="C92" s="55"/>
       <c r="D92" s="89"/>
       <c r="E92" s="52"/>
     </row>
     <row r="93" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A93" s="140"/>
+      <c r="A93" s="147"/>
       <c r="B93" s="70"/>
       <c r="C93" s="73"/>
       <c r="D93" s="89"/>
       <c r="E93" s="54"/>
     </row>
     <row r="94" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A94" s="140"/>
+      <c r="A94" s="147"/>
       <c r="B94" s="70"/>
       <c r="C94" s="75"/>
       <c r="D94" s="89"/>
       <c r="E94" s="54"/>
     </row>
     <row r="95" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A95" s="140"/>
+      <c r="A95" s="147"/>
       <c r="B95" s="70"/>
       <c r="C95" s="75"/>
       <c r="D95" s="89"/>
       <c r="E95" s="54"/>
     </row>
     <row r="96" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A96" s="140"/>
+      <c r="A96" s="147"/>
       <c r="B96" s="71">
         <v>43063</v>
       </c>
@@ -9745,7 +9762,7 @@
       <c r="E96" s="52"/>
     </row>
     <row r="97" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A97" s="140"/>
+      <c r="A97" s="147"/>
       <c r="B97" s="72">
         <f>B96</f>
         <v>43063</v>
@@ -9755,49 +9772,49 @@
       <c r="E97" s="52"/>
     </row>
     <row r="98" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A98" s="140"/>
+      <c r="A98" s="147"/>
       <c r="B98" s="72"/>
       <c r="C98" s="50"/>
       <c r="D98" s="89"/>
       <c r="E98" s="52"/>
     </row>
     <row r="99" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A99" s="140"/>
+      <c r="A99" s="147"/>
       <c r="B99" s="71"/>
       <c r="C99" s="50"/>
       <c r="D99" s="89"/>
       <c r="E99" s="52"/>
     </row>
     <row r="100" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A100" s="140"/>
+      <c r="A100" s="147"/>
       <c r="B100" s="69"/>
       <c r="C100" s="55"/>
       <c r="D100" s="89"/>
       <c r="E100" s="52"/>
     </row>
     <row r="101" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A101" s="140"/>
+      <c r="A101" s="147"/>
       <c r="B101" s="70"/>
       <c r="C101" s="78"/>
       <c r="D101" s="89"/>
       <c r="E101" s="54"/>
     </row>
     <row r="102" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A102" s="140"/>
+      <c r="A102" s="147"/>
       <c r="B102" s="70"/>
       <c r="C102" s="75"/>
       <c r="D102" s="89"/>
       <c r="E102" s="52"/>
     </row>
     <row r="103" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A103" s="140"/>
+      <c r="A103" s="147"/>
       <c r="B103" s="70"/>
       <c r="C103" s="75"/>
       <c r="D103" s="89"/>
       <c r="E103" s="52"/>
     </row>
     <row r="104" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A104" s="140"/>
+      <c r="A104" s="147"/>
       <c r="B104" s="71">
         <v>43067</v>
       </c>
@@ -9806,7 +9823,7 @@
       <c r="E104" s="52"/>
     </row>
     <row r="105" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A105" s="140"/>
+      <c r="A105" s="147"/>
       <c r="B105" s="72">
         <f>B104</f>
         <v>43067</v>
@@ -9816,49 +9833,49 @@
       <c r="E105" s="52"/>
     </row>
     <row r="106" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A106" s="140"/>
+      <c r="A106" s="147"/>
       <c r="B106" s="72"/>
       <c r="C106" s="50"/>
       <c r="D106" s="89"/>
       <c r="E106" s="52"/>
     </row>
     <row r="107" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A107" s="140"/>
+      <c r="A107" s="147"/>
       <c r="B107" s="71"/>
       <c r="C107" s="50"/>
       <c r="D107" s="89"/>
       <c r="E107" s="52"/>
     </row>
     <row r="108" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A108" s="140"/>
+      <c r="A108" s="147"/>
       <c r="B108" s="69"/>
       <c r="C108" s="55"/>
       <c r="D108" s="51"/>
       <c r="E108" s="52"/>
     </row>
     <row r="109" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A109" s="140"/>
+      <c r="A109" s="147"/>
       <c r="B109" s="70"/>
       <c r="C109" s="73"/>
       <c r="D109" s="91"/>
       <c r="E109" s="54"/>
     </row>
     <row r="110" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A110" s="140"/>
+      <c r="A110" s="147"/>
       <c r="B110" s="70"/>
       <c r="C110" s="75"/>
       <c r="D110" s="89"/>
       <c r="E110" s="54"/>
     </row>
     <row r="111" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A111" s="140"/>
+      <c r="A111" s="147"/>
       <c r="B111" s="70"/>
       <c r="C111" s="75"/>
       <c r="D111" s="89"/>
       <c r="E111" s="54"/>
     </row>
     <row r="112" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A112" s="140"/>
+      <c r="A112" s="147"/>
       <c r="B112" s="71">
         <v>43070</v>
       </c>
@@ -9867,7 +9884,7 @@
       <c r="E112" s="52"/>
     </row>
     <row r="113" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A113" s="140"/>
+      <c r="A113" s="147"/>
       <c r="B113" s="72">
         <f>B112</f>
         <v>43070</v>
@@ -9877,49 +9894,49 @@
       <c r="E113" s="52"/>
     </row>
     <row r="114" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A114" s="140"/>
+      <c r="A114" s="147"/>
       <c r="B114" s="72"/>
       <c r="C114" s="50"/>
       <c r="D114" s="89"/>
       <c r="E114" s="52"/>
     </row>
     <row r="115" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A115" s="140"/>
+      <c r="A115" s="147"/>
       <c r="B115" s="71"/>
       <c r="C115" s="50"/>
       <c r="D115" s="89"/>
       <c r="E115" s="52"/>
     </row>
     <row r="116" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A116" s="140"/>
+      <c r="A116" s="147"/>
       <c r="B116" s="69"/>
       <c r="C116" s="55"/>
       <c r="D116" s="89"/>
       <c r="E116" s="52"/>
     </row>
     <row r="117" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A117" s="140"/>
+      <c r="A117" s="147"/>
       <c r="B117" s="70"/>
       <c r="C117" s="73"/>
       <c r="D117" s="89"/>
       <c r="E117" s="52"/>
     </row>
     <row r="118" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A118" s="140"/>
+      <c r="A118" s="147"/>
       <c r="B118" s="70"/>
       <c r="C118" s="75"/>
       <c r="D118" s="89"/>
       <c r="E118" s="52"/>
     </row>
     <row r="119" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A119" s="140"/>
+      <c r="A119" s="147"/>
       <c r="B119" s="70"/>
       <c r="C119" s="75"/>
       <c r="D119" s="89"/>
       <c r="E119" s="52"/>
     </row>
     <row r="120" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A120" s="140"/>
+      <c r="A120" s="147"/>
       <c r="B120" s="71">
         <v>43074</v>
       </c>
@@ -9928,7 +9945,7 @@
       <c r="E120" s="52"/>
     </row>
     <row r="121" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A121" s="140"/>
+      <c r="A121" s="147"/>
       <c r="B121" s="72">
         <f>B120</f>
         <v>43074</v>
@@ -9938,49 +9955,49 @@
       <c r="E121" s="52"/>
     </row>
     <row r="122" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A122" s="140"/>
+      <c r="A122" s="147"/>
       <c r="B122" s="72"/>
       <c r="C122" s="50"/>
       <c r="D122" s="89"/>
       <c r="E122" s="52"/>
     </row>
     <row r="123" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A123" s="140"/>
+      <c r="A123" s="147"/>
       <c r="B123" s="71"/>
       <c r="C123" s="50"/>
       <c r="D123" s="89"/>
       <c r="E123" s="52"/>
     </row>
     <row r="124" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A124" s="140"/>
+      <c r="A124" s="147"/>
       <c r="B124" s="69"/>
       <c r="C124" s="55"/>
       <c r="D124" s="89"/>
       <c r="E124" s="52"/>
     </row>
     <row r="125" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A125" s="140"/>
+      <c r="A125" s="147"/>
       <c r="B125" s="70"/>
       <c r="C125" s="73"/>
       <c r="D125" s="89"/>
       <c r="E125" s="52"/>
     </row>
     <row r="126" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A126" s="140"/>
+      <c r="A126" s="147"/>
       <c r="B126" s="70"/>
       <c r="C126" s="75"/>
       <c r="D126" s="89"/>
       <c r="E126" s="52"/>
     </row>
     <row r="127" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A127" s="140"/>
+      <c r="A127" s="147"/>
       <c r="B127" s="70"/>
       <c r="C127" s="75"/>
       <c r="D127" s="89"/>
       <c r="E127" s="52"/>
     </row>
     <row r="128" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A128" s="140"/>
+      <c r="A128" s="147"/>
       <c r="B128" s="71">
         <v>43077</v>
       </c>
@@ -9989,7 +10006,7 @@
       <c r="E128" s="52"/>
     </row>
     <row r="129" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A129" s="140"/>
+      <c r="A129" s="147"/>
       <c r="B129" s="72">
         <f>B128</f>
         <v>43077</v>
@@ -9999,28 +10016,28 @@
       <c r="E129" s="52"/>
     </row>
     <row r="130" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A130" s="140"/>
+      <c r="A130" s="147"/>
       <c r="B130" s="72"/>
       <c r="C130" s="50"/>
       <c r="D130" s="89"/>
       <c r="E130" s="52"/>
     </row>
     <row r="131" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A131" s="140"/>
+      <c r="A131" s="147"/>
       <c r="B131" s="71"/>
       <c r="C131" s="50"/>
       <c r="D131" s="89"/>
       <c r="E131" s="52"/>
     </row>
     <row r="132" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A132" s="140"/>
+      <c r="A132" s="147"/>
       <c r="B132" s="69"/>
       <c r="C132" s="55"/>
       <c r="D132" s="89"/>
       <c r="E132" s="52"/>
     </row>
     <row r="133" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A133" s="140"/>
+      <c r="A133" s="147"/>
       <c r="B133" s="81"/>
       <c r="C133" s="78" t="s">
         <v>42</v>
@@ -10029,7 +10046,7 @@
       <c r="E133" s="52"/>
     </row>
     <row r="134" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A134" s="140"/>
+      <c r="A134" s="147"/>
       <c r="B134" s="81"/>
       <c r="C134" s="75" t="s">
         <v>40</v>
@@ -10038,14 +10055,14 @@
       <c r="E134" s="52"/>
     </row>
     <row r="135" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A135" s="140"/>
+      <c r="A135" s="147"/>
       <c r="B135" s="81"/>
       <c r="C135" s="75"/>
       <c r="D135" s="89"/>
       <c r="E135" s="52"/>
     </row>
     <row r="136" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A136" s="140"/>
+      <c r="A136" s="147"/>
       <c r="B136" s="82">
         <v>43081</v>
       </c>
@@ -10054,7 +10071,7 @@
       <c r="E136" s="52"/>
     </row>
     <row r="137" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A137" s="140"/>
+      <c r="A137" s="147"/>
       <c r="B137" s="83">
         <f>B136</f>
         <v>43081</v>
@@ -10064,28 +10081,28 @@
       <c r="E137" s="52"/>
     </row>
     <row r="138" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A138" s="140"/>
+      <c r="A138" s="147"/>
       <c r="B138" s="83"/>
       <c r="C138" s="50"/>
       <c r="D138" s="89"/>
       <c r="E138" s="52"/>
     </row>
     <row r="139" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A139" s="140"/>
+      <c r="A139" s="147"/>
       <c r="B139" s="82"/>
       <c r="C139" s="50"/>
       <c r="D139" s="89"/>
       <c r="E139" s="52"/>
     </row>
     <row r="140" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A140" s="140"/>
+      <c r="A140" s="147"/>
       <c r="B140" s="84"/>
       <c r="C140" s="55"/>
       <c r="D140" s="89"/>
       <c r="E140" s="52"/>
     </row>
     <row r="141" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A141" s="140"/>
+      <c r="A141" s="147"/>
       <c r="B141" s="81"/>
       <c r="C141" s="78" t="s">
         <v>42</v>
@@ -10094,7 +10111,7 @@
       <c r="E141" s="52"/>
     </row>
     <row r="142" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A142" s="140"/>
+      <c r="A142" s="147"/>
       <c r="B142" s="81"/>
       <c r="C142" s="75" t="s">
         <v>40</v>
@@ -10103,14 +10120,14 @@
       <c r="E142" s="52"/>
     </row>
     <row r="143" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A143" s="140"/>
+      <c r="A143" s="147"/>
       <c r="B143" s="81"/>
       <c r="C143" s="75"/>
       <c r="D143" s="89"/>
       <c r="E143" s="52"/>
     </row>
     <row r="144" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A144" s="140"/>
+      <c r="A144" s="147"/>
       <c r="B144" s="82">
         <v>43084</v>
       </c>
@@ -10119,7 +10136,7 @@
       <c r="E144" s="52"/>
     </row>
     <row r="145" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A145" s="140"/>
+      <c r="A145" s="147"/>
       <c r="B145" s="83">
         <f>B144</f>
         <v>43084</v>
@@ -10129,28 +10146,28 @@
       <c r="E145" s="52"/>
     </row>
     <row r="146" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A146" s="140"/>
+      <c r="A146" s="147"/>
       <c r="B146" s="83"/>
       <c r="C146" s="50"/>
       <c r="D146" s="89"/>
       <c r="E146" s="52"/>
     </row>
     <row r="147" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A147" s="140"/>
+      <c r="A147" s="147"/>
       <c r="B147" s="82"/>
       <c r="C147" s="50"/>
       <c r="D147" s="89"/>
       <c r="E147" s="52"/>
     </row>
     <row r="148" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A148" s="141"/>
+      <c r="A148" s="148"/>
       <c r="B148" s="94"/>
       <c r="C148" s="58"/>
       <c r="D148" s="92"/>
       <c r="E148" s="59"/>
     </row>
     <row r="149" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A149" s="142" t="s">
+      <c r="A149" s="149" t="s">
         <v>47</v>
       </c>
       <c r="B149" s="76"/>
@@ -10159,21 +10176,21 @@
       <c r="E149" s="49"/>
     </row>
     <row r="150" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A150" s="143"/>
+      <c r="A150" s="150"/>
       <c r="B150" s="70"/>
       <c r="C150" s="75"/>
       <c r="D150" s="89"/>
       <c r="E150" s="52"/>
     </row>
     <row r="151" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A151" s="143"/>
+      <c r="A151" s="150"/>
       <c r="B151" s="70"/>
       <c r="C151" s="75"/>
       <c r="D151" s="89"/>
       <c r="E151" s="52"/>
     </row>
     <row r="152" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A152" s="143"/>
+      <c r="A152" s="150"/>
       <c r="B152" s="71">
         <v>43088</v>
       </c>
@@ -10182,7 +10199,7 @@
       <c r="E152" s="52"/>
     </row>
     <row r="153" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A153" s="143"/>
+      <c r="A153" s="150"/>
       <c r="B153" s="72">
         <f>B152</f>
         <v>43088</v>
@@ -10192,49 +10209,49 @@
       <c r="E153" s="52"/>
     </row>
     <row r="154" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A154" s="143"/>
+      <c r="A154" s="150"/>
       <c r="B154" s="72"/>
       <c r="C154" s="50"/>
       <c r="D154" s="89"/>
       <c r="E154" s="52"/>
     </row>
     <row r="155" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A155" s="143"/>
+      <c r="A155" s="150"/>
       <c r="B155" s="71"/>
       <c r="C155" s="50"/>
       <c r="D155" s="89"/>
       <c r="E155" s="52"/>
     </row>
     <row r="156" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A156" s="143"/>
+      <c r="A156" s="150"/>
       <c r="B156" s="69"/>
       <c r="C156" s="60"/>
       <c r="D156" s="89"/>
       <c r="E156" s="52"/>
     </row>
     <row r="157" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A157" s="143"/>
+      <c r="A157" s="150"/>
       <c r="B157" s="70"/>
       <c r="C157" s="75"/>
       <c r="D157" s="91"/>
       <c r="E157" s="54"/>
     </row>
     <row r="158" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A158" s="143"/>
+      <c r="A158" s="150"/>
       <c r="B158" s="65"/>
       <c r="C158" s="75"/>
       <c r="D158" s="91"/>
       <c r="E158" s="54"/>
     </row>
     <row r="159" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A159" s="143"/>
+      <c r="A159" s="150"/>
       <c r="B159" s="65"/>
       <c r="C159" s="50"/>
       <c r="D159" s="91"/>
       <c r="E159" s="54"/>
     </row>
     <row r="160" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A160" s="143"/>
+      <c r="A160" s="150"/>
       <c r="B160" s="71">
         <v>43091</v>
       </c>
@@ -10243,7 +10260,7 @@
       <c r="E160" s="52"/>
     </row>
     <row r="161" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A161" s="143"/>
+      <c r="A161" s="150"/>
       <c r="B161" s="77">
         <f>B160</f>
         <v>43091</v>
@@ -10253,49 +10270,49 @@
       <c r="E161" s="52"/>
     </row>
     <row r="162" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A162" s="143"/>
+      <c r="A162" s="150"/>
       <c r="B162" s="77"/>
       <c r="C162" s="50"/>
       <c r="D162" s="89"/>
       <c r="E162" s="52"/>
     </row>
     <row r="163" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A163" s="143"/>
+      <c r="A163" s="150"/>
       <c r="B163" s="66"/>
       <c r="C163" s="50"/>
       <c r="D163" s="89"/>
       <c r="E163" s="52"/>
     </row>
     <row r="164" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A164" s="143"/>
+      <c r="A164" s="150"/>
       <c r="B164" s="67"/>
       <c r="C164" s="55"/>
       <c r="D164" s="89"/>
       <c r="E164" s="52"/>
     </row>
     <row r="165" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A165" s="143"/>
+      <c r="A165" s="150"/>
       <c r="B165" s="70"/>
       <c r="C165" s="75"/>
       <c r="D165" s="89"/>
       <c r="E165" s="54"/>
     </row>
     <row r="166" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A166" s="143"/>
+      <c r="A166" s="150"/>
       <c r="B166" s="70"/>
       <c r="C166" s="75"/>
       <c r="D166" s="89"/>
       <c r="E166" s="54"/>
     </row>
     <row r="167" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A167" s="143"/>
+      <c r="A167" s="150"/>
       <c r="B167" s="70"/>
       <c r="C167" s="75"/>
       <c r="D167" s="89"/>
       <c r="E167" s="54"/>
     </row>
     <row r="168" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A168" s="143"/>
+      <c r="A168" s="150"/>
       <c r="B168" s="71">
         <v>43105</v>
       </c>
@@ -10304,7 +10321,7 @@
       <c r="E168" s="54"/>
     </row>
     <row r="169" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A169" s="143"/>
+      <c r="A169" s="150"/>
       <c r="B169" s="72">
         <f>B168</f>
         <v>43105</v>
@@ -10314,49 +10331,49 @@
       <c r="E169" s="54"/>
     </row>
     <row r="170" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A170" s="143"/>
+      <c r="A170" s="150"/>
       <c r="B170" s="72"/>
       <c r="C170" s="50"/>
       <c r="D170" s="89"/>
       <c r="E170" s="54"/>
     </row>
     <row r="171" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A171" s="143"/>
+      <c r="A171" s="150"/>
       <c r="B171" s="71"/>
       <c r="C171" s="50"/>
       <c r="D171" s="89"/>
       <c r="E171" s="54"/>
     </row>
     <row r="172" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A172" s="143"/>
+      <c r="A172" s="150"/>
       <c r="B172" s="69"/>
       <c r="C172" s="55"/>
       <c r="D172" s="89"/>
       <c r="E172" s="54"/>
     </row>
     <row r="173" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A173" s="143"/>
+      <c r="A173" s="150"/>
       <c r="B173" s="70"/>
       <c r="C173" s="73"/>
       <c r="D173" s="89"/>
       <c r="E173" s="54"/>
     </row>
     <row r="174" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A174" s="143"/>
+      <c r="A174" s="150"/>
       <c r="B174" s="70"/>
       <c r="C174" s="75"/>
       <c r="D174" s="89"/>
       <c r="E174" s="54"/>
     </row>
     <row r="175" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A175" s="143"/>
+      <c r="A175" s="150"/>
       <c r="B175" s="70"/>
       <c r="C175" s="75"/>
       <c r="D175" s="89"/>
       <c r="E175" s="54"/>
     </row>
     <row r="176" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A176" s="143"/>
+      <c r="A176" s="150"/>
       <c r="B176" s="71">
         <v>43109</v>
       </c>
@@ -10365,7 +10382,7 @@
       <c r="E176" s="54"/>
     </row>
     <row r="177" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A177" s="143"/>
+      <c r="A177" s="150"/>
       <c r="B177" s="72">
         <f>B176</f>
         <v>43109</v>
@@ -10375,49 +10392,49 @@
       <c r="E177" s="54"/>
     </row>
     <row r="178" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A178" s="143"/>
+      <c r="A178" s="150"/>
       <c r="B178" s="72"/>
       <c r="C178" s="50"/>
       <c r="D178" s="89"/>
       <c r="E178" s="54"/>
     </row>
     <row r="179" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A179" s="143"/>
+      <c r="A179" s="150"/>
       <c r="B179" s="71"/>
       <c r="C179" s="50"/>
       <c r="D179" s="89"/>
       <c r="E179" s="54"/>
     </row>
     <row r="180" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A180" s="143"/>
+      <c r="A180" s="150"/>
       <c r="B180" s="69"/>
       <c r="C180" s="55"/>
       <c r="D180" s="89"/>
       <c r="E180" s="54"/>
     </row>
     <row r="181" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A181" s="143"/>
+      <c r="A181" s="150"/>
       <c r="B181" s="70"/>
       <c r="C181" s="75"/>
       <c r="D181" s="89"/>
       <c r="E181" s="54"/>
     </row>
     <row r="182" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A182" s="143"/>
+      <c r="A182" s="150"/>
       <c r="B182" s="70"/>
       <c r="C182" s="75"/>
       <c r="D182" s="89"/>
       <c r="E182" s="54"/>
     </row>
     <row r="183" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A183" s="143"/>
+      <c r="A183" s="150"/>
       <c r="B183" s="70"/>
       <c r="C183" s="75"/>
       <c r="D183" s="89"/>
       <c r="E183" s="54"/>
     </row>
     <row r="184" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A184" s="143"/>
+      <c r="A184" s="150"/>
       <c r="B184" s="71">
         <v>43112</v>
       </c>
@@ -10426,7 +10443,7 @@
       <c r="E184" s="54"/>
     </row>
     <row r="185" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A185" s="143"/>
+      <c r="A185" s="150"/>
       <c r="B185" s="72">
         <f>B184</f>
         <v>43112</v>
@@ -10436,28 +10453,28 @@
       <c r="E185" s="54"/>
     </row>
     <row r="186" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A186" s="143"/>
+      <c r="A186" s="150"/>
       <c r="B186" s="72"/>
       <c r="C186" s="50"/>
       <c r="D186" s="89"/>
       <c r="E186" s="54"/>
     </row>
     <row r="187" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A187" s="143"/>
+      <c r="A187" s="150"/>
       <c r="B187" s="71"/>
       <c r="C187" s="50"/>
       <c r="D187" s="89"/>
       <c r="E187" s="54"/>
     </row>
     <row r="188" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A188" s="143"/>
+      <c r="A188" s="150"/>
       <c r="B188" s="69"/>
       <c r="C188" s="55"/>
       <c r="D188" s="89"/>
       <c r="E188" s="54"/>
     </row>
     <row r="189" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A189" s="143"/>
+      <c r="A189" s="150"/>
       <c r="B189" s="95"/>
       <c r="C189" s="75" t="s">
         <v>48</v>
@@ -10466,7 +10483,7 @@
       <c r="E189" s="54"/>
     </row>
     <row r="190" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A190" s="143"/>
+      <c r="A190" s="150"/>
       <c r="B190" s="96"/>
       <c r="C190" s="75" t="s">
         <v>40</v>
@@ -10475,14 +10492,14 @@
       <c r="E190" s="54"/>
     </row>
     <row r="191" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A191" s="143"/>
+      <c r="A191" s="150"/>
       <c r="B191" s="96"/>
       <c r="C191" s="75"/>
       <c r="D191" s="89"/>
       <c r="E191" s="54"/>
     </row>
     <row r="192" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A192" s="143"/>
+      <c r="A192" s="150"/>
       <c r="B192" s="82">
         <v>43116</v>
       </c>
@@ -10491,7 +10508,7 @@
       <c r="E192" s="52"/>
     </row>
     <row r="193" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A193" s="143"/>
+      <c r="A193" s="150"/>
       <c r="B193" s="97">
         <f>B192</f>
         <v>43116</v>
@@ -10501,28 +10518,28 @@
       <c r="E193" s="52"/>
     </row>
     <row r="194" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A194" s="143"/>
+      <c r="A194" s="150"/>
       <c r="B194" s="97"/>
       <c r="C194" s="50"/>
       <c r="D194" s="89"/>
       <c r="E194" s="52"/>
     </row>
     <row r="195" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A195" s="143"/>
+      <c r="A195" s="150"/>
       <c r="B195" s="98"/>
       <c r="C195" s="50"/>
       <c r="D195" s="89"/>
       <c r="E195" s="52"/>
     </row>
     <row r="196" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A196" s="143"/>
+      <c r="A196" s="150"/>
       <c r="B196" s="84"/>
       <c r="C196" s="55"/>
       <c r="D196" s="89"/>
       <c r="E196" s="52"/>
     </row>
     <row r="197" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A197" s="143"/>
+      <c r="A197" s="150"/>
       <c r="B197" s="95"/>
       <c r="C197" s="75" t="s">
         <v>48</v>
@@ -10531,7 +10548,7 @@
       <c r="E197" s="54"/>
     </row>
     <row r="198" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A198" s="143"/>
+      <c r="A198" s="150"/>
       <c r="B198" s="96"/>
       <c r="C198" s="75" t="s">
         <v>40</v>
@@ -10540,14 +10557,14 @@
       <c r="E198" s="54"/>
     </row>
     <row r="199" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A199" s="143"/>
+      <c r="A199" s="150"/>
       <c r="B199" s="96"/>
       <c r="C199" s="50"/>
       <c r="D199" s="89"/>
       <c r="E199" s="54"/>
     </row>
     <row r="200" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A200" s="143"/>
+      <c r="A200" s="150"/>
       <c r="B200" s="82">
         <v>43119</v>
       </c>
@@ -10556,7 +10573,7 @@
       <c r="E200" s="54"/>
     </row>
     <row r="201" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A201" s="143"/>
+      <c r="A201" s="150"/>
       <c r="B201" s="97">
         <f>B200</f>
         <v>43119</v>
@@ -10566,21 +10583,21 @@
       <c r="E201" s="54"/>
     </row>
     <row r="202" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A202" s="143"/>
+      <c r="A202" s="150"/>
       <c r="B202" s="97"/>
       <c r="C202" s="50"/>
       <c r="D202" s="89"/>
       <c r="E202" s="54"/>
     </row>
     <row r="203" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A203" s="143"/>
+      <c r="A203" s="150"/>
       <c r="B203" s="98"/>
       <c r="C203" s="50"/>
       <c r="D203" s="89"/>
       <c r="E203" s="54"/>
     </row>
     <row r="204" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A204" s="144"/>
+      <c r="A204" s="151"/>
       <c r="B204" s="94"/>
       <c r="C204" s="58"/>
       <c r="D204" s="92"/>
@@ -10672,7 +10689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE188"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O2" sqref="O1:P1048576"/>
     </sheetView>
   </sheetViews>
@@ -10696,53 +10713,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="100" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="148" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="148" t="s">
+      <c r="C1" s="155" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="151" t="s">
+      <c r="E1" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="151" t="s">
+      <c r="F1" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="152" t="s">
+      <c r="G1" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="152" t="s">
+      <c r="H1" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="148" t="s">
+      <c r="I1" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="145" t="s">
+      <c r="J1" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="147"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="154"/>
+      <c r="P1" s="154"/>
     </row>
     <row r="2" spans="1:31" s="100" customFormat="1">
-      <c r="A2" s="148"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="148"/>
+      <c r="A2" s="155"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="155"/>
       <c r="J2" s="101" t="s">
         <v>49</v>
       </c>
@@ -10766,15 +10783,15 @@
       </c>
     </row>
     <row r="3" spans="1:31" s="100" customFormat="1">
-      <c r="A3" s="148"/>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="148"/>
+      <c r="A3" s="155"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="155"/>
       <c r="J3" s="103">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
         <v>190</v>
@@ -10805,15 +10822,15 @@
       </c>
     </row>
     <row r="4" spans="1:31" s="100" customFormat="1">
-      <c r="A4" s="148"/>
-      <c r="B4" s="149"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="148"/>
+      <c r="A4" s="155"/>
+      <c r="B4" s="156"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="155"/>
       <c r="J4" s="104">
         <f>SUM(J5:J157)</f>
         <v>190</v>
@@ -10864,7 +10881,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="111">
-        <f ca="1">IF(ISBLANK(J5)=FALSE,OFFSET(I5,0,COUNTA(J5:P5)),"")</f>
+        <f t="shared" ref="I5:I36" ca="1" si="3">IF(ISBLANK(J5)=FALSE,OFFSET(I5,0,COUNTA(J5:P5)),"")</f>
         <v>0</v>
       </c>
       <c r="J5" s="112">
@@ -10914,7 +10931,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="111">
-        <f ca="1">IF(ISBLANK(J6)=FALSE,OFFSET(I6,0,COUNTA(J6:P6)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J6" s="112">
@@ -10964,7 +10981,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="111">
-        <f ca="1">IF(ISBLANK(J7)=FALSE,OFFSET(I7,0,COUNTA(J7:P7)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J7" s="112">
@@ -11012,7 +11029,7 @@
         <v>6</v>
       </c>
       <c r="I8" s="111">
-        <f ca="1">IF(ISBLANK(J8)=FALSE,OFFSET(I8,0,COUNTA(J8:P8)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J8" s="112">
@@ -11060,7 +11077,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="111">
-        <f ca="1">IF(ISBLANK(J9)=FALSE,OFFSET(I9,0,COUNTA(J9:P9)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J9" s="112">
@@ -11108,7 +11125,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="111">
-        <f ca="1">IF(ISBLANK(J10)=FALSE,OFFSET(I10,0,COUNTA(J10:P10)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J10" s="112">
@@ -11156,7 +11173,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="111">
-        <f ca="1">IF(ISBLANK(J11)=FALSE,OFFSET(I11,0,COUNTA(J11:P11)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J11" s="112">
@@ -11204,7 +11221,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="111">
-        <f ca="1">IF(ISBLANK(J12)=FALSE,OFFSET(I12,0,COUNTA(J12:P12)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J12" s="112">
@@ -11252,7 +11269,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="111">
-        <f ca="1">IF(ISBLANK(J13)=FALSE,OFFSET(I13,0,COUNTA(J13:P13)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J13" s="112">
@@ -11303,7 +11320,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="111">
-        <f ca="1">IF(ISBLANK(J14)=FALSE,OFFSET(I14,0,COUNTA(J14:P14)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J14" s="112">
@@ -11353,7 +11370,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="111">
-        <f ca="1">IF(ISBLANK(J15)=FALSE,OFFSET(I15,0,COUNTA(J15:P15)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J15" s="112">
@@ -11401,7 +11418,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="111">
-        <f ca="1">IF(ISBLANK(J16)=FALSE,OFFSET(I16,0,COUNTA(J16:P16)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J16" s="112">
@@ -11445,7 +11462,7 @@
       </c>
       <c r="H17" s="110"/>
       <c r="I17" s="111">
-        <f ca="1">IF(ISBLANK(J17)=FALSE,OFFSET(I17,0,COUNTA(J17:P17)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
       <c r="J17" s="112">
@@ -11493,7 +11510,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="111">
-        <f ca="1">IF(ISBLANK(J18)=FALSE,OFFSET(I18,0,COUNTA(J18:P18)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J18" s="112">
@@ -11533,7 +11550,7 @@
       <c r="G19" s="110"/>
       <c r="H19" s="110"/>
       <c r="I19" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J19)=FALSE,OFFSET(I19,0,COUNTA(J19:P19)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J19" s="112"/>
@@ -11561,7 +11578,7 @@
       <c r="G20" s="110"/>
       <c r="H20" s="110"/>
       <c r="I20" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J20)=FALSE,OFFSET(I20,0,COUNTA(J20:P20)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J20" s="112"/>
@@ -11589,7 +11606,7 @@
       <c r="G21" s="110"/>
       <c r="H21" s="110"/>
       <c r="I21" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J21)=FALSE,OFFSET(I21,0,COUNTA(J21:P21)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J21" s="112"/>
@@ -11617,7 +11634,7 @@
       <c r="G22" s="110"/>
       <c r="H22" s="110"/>
       <c r="I22" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J22)=FALSE,OFFSET(I22,0,COUNTA(J22:P22)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J22" s="112"/>
@@ -11645,7 +11662,7 @@
       <c r="G23" s="110"/>
       <c r="H23" s="110"/>
       <c r="I23" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J23)=FALSE,OFFSET(I23,0,COUNTA(J23:P23)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J23" s="112"/>
@@ -11673,7 +11690,7 @@
       <c r="G24" s="110"/>
       <c r="H24" s="110"/>
       <c r="I24" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J24)=FALSE,OFFSET(I24,0,COUNTA(J24:P24)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J24" s="112"/>
@@ -11711,7 +11728,7 @@
         <v>3</v>
       </c>
       <c r="I25" s="111">
-        <f ca="1">IF(ISBLANK(J25)=FALSE,OFFSET(I25,0,COUNTA(J25:P25)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="J25" s="112">
@@ -11759,7 +11776,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="111">
-        <f ca="1">IF(ISBLANK(J26)=FALSE,OFFSET(I26,0,COUNTA(J26:P26)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J26" s="112">
@@ -11807,7 +11824,7 @@
         <v>2</v>
       </c>
       <c r="I27" s="111">
-        <f ca="1">IF(ISBLANK(J27)=FALSE,OFFSET(I27,0,COUNTA(J27:P27)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J27" s="112">
@@ -11855,7 +11872,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="111">
-        <f ca="1">IF(ISBLANK(J28)=FALSE,OFFSET(I28,0,COUNTA(J28:P28)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J28" s="112">
@@ -11903,7 +11920,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="111">
-        <f ca="1">IF(ISBLANK(J29)=FALSE,OFFSET(I29,0,COUNTA(J29:P29)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J29" s="112">
@@ -11951,7 +11968,7 @@
         <v>6</v>
       </c>
       <c r="I30" s="111">
-        <f ca="1">IF(ISBLANK(J30)=FALSE,OFFSET(I30,0,COUNTA(J30:P30)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J30" s="112">
@@ -12001,7 +12018,7 @@
         <v>6</v>
       </c>
       <c r="I31" s="111">
-        <f ca="1">IF(ISBLANK(J31)=FALSE,OFFSET(I31,0,COUNTA(J31:P31)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J31" s="112">
@@ -12051,7 +12068,7 @@
         <v>6</v>
       </c>
       <c r="I32" s="111">
-        <f ca="1">IF(ISBLANK(J32)=FALSE,OFFSET(I32,0,COUNTA(J32:P32)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J32" s="112">
@@ -12091,7 +12108,7 @@
         <v>3</v>
       </c>
       <c r="I33" s="111">
-        <f ca="1">IF(ISBLANK(J33)=FALSE,OFFSET(I33,0,COUNTA(J33:P33)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J33" s="112">
@@ -12137,7 +12154,7 @@
         <v>6</v>
       </c>
       <c r="I34" s="111">
-        <f ca="1">IF(ISBLANK(J34)=FALSE,OFFSET(I34,0,COUNTA(J34:P34)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J34" s="112">
@@ -12183,7 +12200,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="111">
-        <f ca="1">IF(ISBLANK(J35)=FALSE,OFFSET(I35,0,COUNTA(J35:P35)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J35" s="112">
@@ -12225,7 +12242,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="111">
-        <f ca="1">IF(ISBLANK(J36)=FALSE,OFFSET(I36,0,COUNTA(J36:P36)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J36" s="112">
@@ -12267,7 +12284,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="111">
-        <f ca="1">IF(ISBLANK(J37)=FALSE,OFFSET(I37,0,COUNTA(J37:P37)),"")</f>
+        <f t="shared" ref="I37:I68" ca="1" si="4">IF(ISBLANK(J37)=FALSE,OFFSET(I37,0,COUNTA(J37:P37)),"")</f>
         <v>0</v>
       </c>
       <c r="J37" s="112">
@@ -12309,7 +12326,7 @@
         <v>3</v>
       </c>
       <c r="I38" s="111">
-        <f ca="1">IF(ISBLANK(J38)=FALSE,OFFSET(I38,0,COUNTA(J38:P38)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J38" s="112">
@@ -12349,7 +12366,7 @@
       </c>
       <c r="H39" s="110"/>
       <c r="I39" s="111">
-        <f ca="1">IF(ISBLANK(J39)=FALSE,OFFSET(I39,0,COUNTA(J39:P39)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>6</v>
       </c>
       <c r="J39" s="112">
@@ -12395,7 +12412,7 @@
         <v>2</v>
       </c>
       <c r="I40" s="111">
-        <f ca="1">IF(ISBLANK(J40)=FALSE,OFFSET(I40,0,COUNTA(J40:P40)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J40" s="112">
@@ -12441,7 +12458,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="111">
-        <f ca="1">IF(ISBLANK(J41)=FALSE,OFFSET(I41,0,COUNTA(J41:P41)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J41" s="112">
@@ -12491,7 +12508,7 @@
         <v>1</v>
       </c>
       <c r="I42" s="111">
-        <f ca="1">IF(ISBLANK(J42)=FALSE,OFFSET(I42,0,COUNTA(J42:P42)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J42" s="112">
@@ -12539,7 +12556,7 @@
         <v>1</v>
       </c>
       <c r="I43" s="111">
-        <f ca="1">IF(ISBLANK(J43)=FALSE,OFFSET(I43,0,COUNTA(J43:P43)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J43" s="112">
@@ -12585,7 +12602,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="111">
-        <f ca="1">IF(ISBLANK(J44)=FALSE,OFFSET(I44,0,COUNTA(J44:P44)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J44" s="112">
@@ -12623,7 +12640,7 @@
       <c r="G45" s="110"/>
       <c r="H45" s="110"/>
       <c r="I45" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J45)=FALSE,OFFSET(I45,0,COUNTA(J45:P45)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J45" s="112"/>
@@ -12651,7 +12668,7 @@
       <c r="G46" s="110"/>
       <c r="H46" s="110"/>
       <c r="I46" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J46)=FALSE,OFFSET(I46,0,COUNTA(J46:P46)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J46" s="112"/>
@@ -12679,7 +12696,7 @@
       <c r="G47" s="110"/>
       <c r="H47" s="110"/>
       <c r="I47" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J47)=FALSE,OFFSET(I47,0,COUNTA(J47:P47)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J47" s="112"/>
@@ -12707,7 +12724,7 @@
       <c r="G48" s="110"/>
       <c r="H48" s="110"/>
       <c r="I48" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J48)=FALSE,OFFSET(I48,0,COUNTA(J48:P48)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J48" s="112"/>
@@ -12735,7 +12752,7 @@
       <c r="G49" s="110"/>
       <c r="H49" s="110"/>
       <c r="I49" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J49)=FALSE,OFFSET(I49,0,COUNTA(J49:P49)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J49" s="112"/>
@@ -12763,7 +12780,7 @@
       <c r="G50" s="110"/>
       <c r="H50" s="110"/>
       <c r="I50" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J50)=FALSE,OFFSET(I50,0,COUNTA(J50:P50)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J50" s="112"/>
@@ -12801,7 +12818,7 @@
         <v>3</v>
       </c>
       <c r="I51" s="111">
-        <f ca="1">IF(ISBLANK(J51)=FALSE,OFFSET(I51,0,COUNTA(J51:P51)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J51" s="112">
@@ -12851,7 +12868,7 @@
         <v>2</v>
       </c>
       <c r="I52" s="111">
-        <f ca="1">IF(ISBLANK(J52)=FALSE,OFFSET(I52,0,COUNTA(J52:P52)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J52" s="112">
@@ -12901,7 +12918,7 @@
         <v>4</v>
       </c>
       <c r="I53" s="111">
-        <f ca="1">IF(ISBLANK(J53)=FALSE,OFFSET(I53,0,COUNTA(J53:P53)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J53" s="112">
@@ -12951,7 +12968,7 @@
         <v>2</v>
       </c>
       <c r="I54" s="111">
-        <f ca="1">IF(ISBLANK(J54)=FALSE,OFFSET(I54,0,COUNTA(J54:P54)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J54" s="112">
@@ -13001,7 +13018,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="111">
-        <f ca="1">IF(ISBLANK(J55)=FALSE,OFFSET(I55,0,COUNTA(J55:P55)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J55" s="112">
@@ -13051,7 +13068,7 @@
         <v>2</v>
       </c>
       <c r="I56" s="111">
-        <f ca="1">IF(ISBLANK(J56)=FALSE,OFFSET(I56,0,COUNTA(J56:P56)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J56" s="112">
@@ -13099,7 +13116,7 @@
       </c>
       <c r="H57" s="110"/>
       <c r="I57" s="111">
-        <f ca="1">IF(ISBLANK(J57)=FALSE,OFFSET(I57,0,COUNTA(J57:P57)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J57" s="112">
@@ -13149,7 +13166,7 @@
         <v>2</v>
       </c>
       <c r="I58" s="111">
-        <f ca="1">IF(ISBLANK(J58)=FALSE,OFFSET(I58,0,COUNTA(J58:P58)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J58" s="112">
@@ -13199,7 +13216,7 @@
         <v>3</v>
       </c>
       <c r="I59" s="111">
-        <f ca="1">IF(ISBLANK(J59)=FALSE,OFFSET(I59,0,COUNTA(J59:P59)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J59" s="112">
@@ -13249,7 +13266,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="111">
-        <f ca="1">IF(ISBLANK(J60)=FALSE,OFFSET(I60,0,COUNTA(J60:P60)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J60" s="110">
@@ -13299,7 +13316,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="111">
-        <f ca="1">IF(ISBLANK(J61)=FALSE,OFFSET(I61,0,COUNTA(J61:P61)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J61" s="110">
@@ -13349,7 +13366,7 @@
         <v>4</v>
       </c>
       <c r="I62" s="111">
-        <f ca="1">IF(ISBLANK(J62)=FALSE,OFFSET(I62,0,COUNTA(J62:P62)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J62" s="110">
@@ -13399,7 +13416,7 @@
         <v>3</v>
       </c>
       <c r="I63" s="111">
-        <f ca="1">IF(ISBLANK(J63)=FALSE,OFFSET(I63,0,COUNTA(J63:P63)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J63" s="110">
@@ -13445,7 +13462,7 @@
       </c>
       <c r="H64" s="110"/>
       <c r="I64" s="111">
-        <f ca="1">IF(ISBLANK(J64)=FALSE,OFFSET(I64,0,COUNTA(J64:P64)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>6</v>
       </c>
       <c r="J64" s="112">
@@ -13495,7 +13512,7 @@
         <v>4</v>
       </c>
       <c r="I65" s="111">
-        <f ca="1">IF(ISBLANK(J65)=FALSE,OFFSET(I65,0,COUNTA(J65:P65)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J65" s="112">
@@ -13545,7 +13562,7 @@
         <v>3</v>
       </c>
       <c r="I66" s="111">
-        <f ca="1">IF(ISBLANK(J66)=FALSE,OFFSET(I66,0,COUNTA(J66:P66)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J66" s="112">
@@ -13585,7 +13602,7 @@
       <c r="G67" s="110"/>
       <c r="H67" s="110"/>
       <c r="I67" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J67)=FALSE,OFFSET(I67,0,COUNTA(J67:P67)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J67" s="112"/>
@@ -13613,7 +13630,7 @@
       <c r="G68" s="110"/>
       <c r="H68" s="110"/>
       <c r="I68" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J68)=FALSE,OFFSET(I68,0,COUNTA(J68:P68)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J68" s="112"/>
@@ -13633,7 +13650,7 @@
         <v>105</v>
       </c>
       <c r="D69" s="108" t="str">
-        <f t="shared" ref="D69:D91" si="3">IF(ISBLANK($B69),"",IF(ISBLANK($F69),"未着手",IF($I69=0,"完了","作業中")))</f>
+        <f t="shared" ref="D69:D91" si="5">IF(ISBLANK($B69),"",IF(ISBLANK($F69),"未着手",IF($I69=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="E69" s="109"/>
@@ -13641,7 +13658,7 @@
       <c r="G69" s="110"/>
       <c r="H69" s="110"/>
       <c r="I69" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J69)=FALSE,OFFSET(I69,0,COUNTA(J69:P69)),"")</f>
+        <f t="shared" ref="I69:I100" ca="1" si="6">IF(ISBLANK(J69)=FALSE,OFFSET(I69,0,COUNTA(J69:P69)),"")</f>
         <v/>
       </c>
       <c r="J69" s="112"/>
@@ -13661,7 +13678,7 @@
         <v>105</v>
       </c>
       <c r="D70" s="108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E70" s="109"/>
@@ -13669,7 +13686,7 @@
       <c r="G70" s="110"/>
       <c r="H70" s="110"/>
       <c r="I70" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J70)=FALSE,OFFSET(I70,0,COUNTA(J70:P70)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J70" s="112"/>
@@ -13689,7 +13706,7 @@
         <v>105</v>
       </c>
       <c r="D71" s="108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E71" s="109"/>
@@ -13697,7 +13714,7 @@
       <c r="G71" s="110"/>
       <c r="H71" s="110"/>
       <c r="I71" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J71)=FALSE,OFFSET(I71,0,COUNTA(J71:P71)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J71" s="112"/>
@@ -13717,7 +13734,7 @@
         <v>105</v>
       </c>
       <c r="D72" s="108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E72" s="109"/>
@@ -13725,7 +13742,7 @@
       <c r="G72" s="110"/>
       <c r="H72" s="110"/>
       <c r="I72" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J72)=FALSE,OFFSET(I72,0,COUNTA(J72:P72)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J72" s="112"/>
@@ -13745,7 +13762,7 @@
         <v>105</v>
       </c>
       <c r="D73" s="108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E73" s="109"/>
@@ -13753,7 +13770,7 @@
       <c r="G73" s="110"/>
       <c r="H73" s="110"/>
       <c r="I73" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J73)=FALSE,OFFSET(I73,0,COUNTA(J73:P73)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J73" s="112"/>
@@ -13773,7 +13790,7 @@
         <v>105</v>
       </c>
       <c r="D74" s="108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E74" s="109"/>
@@ -13781,7 +13798,7 @@
       <c r="G74" s="110"/>
       <c r="H74" s="110"/>
       <c r="I74" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J74)=FALSE,OFFSET(I74,0,COUNTA(J74:P74)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J74" s="112"/>
@@ -13801,7 +13818,7 @@
         <v>105</v>
       </c>
       <c r="D75" s="108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E75" s="109"/>
@@ -13809,7 +13826,7 @@
       <c r="G75" s="110"/>
       <c r="H75" s="110"/>
       <c r="I75" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J75)=FALSE,OFFSET(I75,0,COUNTA(J75:P75)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J75" s="112"/>
@@ -13829,7 +13846,7 @@
         <v>105</v>
       </c>
       <c r="D76" s="108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E76" s="109"/>
@@ -13837,7 +13854,7 @@
       <c r="G76" s="110"/>
       <c r="H76" s="110"/>
       <c r="I76" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J76)=FALSE,OFFSET(I76,0,COUNTA(J76:P76)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J76" s="112"/>
@@ -13857,7 +13874,7 @@
         <v>105</v>
       </c>
       <c r="D77" s="108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E77" s="109"/>
@@ -13865,7 +13882,7 @@
       <c r="G77" s="110"/>
       <c r="H77" s="110"/>
       <c r="I77" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J77)=FALSE,OFFSET(I77,0,COUNTA(J77:P77)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J77" s="112"/>
@@ -13885,7 +13902,7 @@
         <v>105</v>
       </c>
       <c r="D78" s="108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E78" s="109"/>
@@ -13893,7 +13910,7 @@
       <c r="G78" s="110"/>
       <c r="H78" s="110"/>
       <c r="I78" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J78)=FALSE,OFFSET(I78,0,COUNTA(J78:P78)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J78" s="112"/>
@@ -13913,7 +13930,7 @@
         <v>105</v>
       </c>
       <c r="D79" s="108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E79" s="109"/>
@@ -13921,7 +13938,7 @@
       <c r="G79" s="110"/>
       <c r="H79" s="110"/>
       <c r="I79" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J79)=FALSE,OFFSET(I79,0,COUNTA(J79:P79)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J79" s="112"/>
@@ -13943,7 +13960,7 @@
         <v>105</v>
       </c>
       <c r="D80" s="108" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>完了</v>
       </c>
       <c r="E80" s="109">
@@ -13959,7 +13976,7 @@
         <v>2</v>
       </c>
       <c r="I80" s="111">
-        <f ca="1">IF(ISBLANK(J80)=FALSE,OFFSET(I80,0,COUNTA(J80:P80)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="J80" s="112">
@@ -13991,7 +14008,7 @@
         <v>106</v>
       </c>
       <c r="D81" s="108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>完了</v>
       </c>
       <c r="E81" s="109">
@@ -14038,7 +14055,7 @@
         <v>106</v>
       </c>
       <c r="D82" s="108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>完了</v>
       </c>
       <c r="E82" s="109">
@@ -14085,7 +14102,7 @@
         <v>104</v>
       </c>
       <c r="D83" s="108" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>完了</v>
       </c>
       <c r="E83" s="4">
@@ -14101,7 +14118,7 @@
         <v>1</v>
       </c>
       <c r="I83" s="111">
-        <f ca="1">IF(ISBLANK(J83)=FALSE,OFFSET(I83,0,COUNTA(J83:P83)),"")</f>
+        <f t="shared" ref="I83:I114" ca="1" si="7">IF(ISBLANK(J83)=FALSE,OFFSET(I83,0,COUNTA(J83:P83)),"")</f>
         <v>0</v>
       </c>
       <c r="J83" s="112">
@@ -14135,7 +14152,7 @@
         <v>104</v>
       </c>
       <c r="D84" s="108" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>完了</v>
       </c>
       <c r="E84" s="109">
@@ -14151,7 +14168,7 @@
         <v>1</v>
       </c>
       <c r="I84" s="111">
-        <f ca="1">IF(ISBLANK(J84)=FALSE,OFFSET(I84,0,COUNTA(J84:P84)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="J84" s="112">
@@ -14185,7 +14202,7 @@
         <v>106</v>
       </c>
       <c r="D85" s="108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E85" s="109">
@@ -14197,7 +14214,7 @@
       </c>
       <c r="H85" s="110"/>
       <c r="I85" s="111">
-        <f ca="1">IF(ISBLANK(J85)=FALSE,OFFSET(I85,0,COUNTA(J85:P85)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
       <c r="J85" s="112">
@@ -14233,7 +14250,7 @@
         <v>106</v>
       </c>
       <c r="D86" s="108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E86" s="109">
@@ -14245,7 +14262,7 @@
       </c>
       <c r="H86" s="110"/>
       <c r="I86" s="111">
-        <f ca="1">IF(ISBLANK(J86)=FALSE,OFFSET(I86,0,COUNTA(J86:P86)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
       <c r="J86" s="112">
@@ -14277,7 +14294,7 @@
         <v>106</v>
       </c>
       <c r="D87" s="108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E87" s="109">
@@ -14289,7 +14306,7 @@
       </c>
       <c r="H87" s="110"/>
       <c r="I87" s="111">
-        <f ca="1">IF(ISBLANK(J87)=FALSE,OFFSET(I87,0,COUNTA(J87:P87)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="J87" s="112">
@@ -14321,7 +14338,7 @@
         <v>106</v>
       </c>
       <c r="D88" s="108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E88" s="109">
@@ -14333,7 +14350,7 @@
       </c>
       <c r="H88" s="110"/>
       <c r="I88" s="111">
-        <f ca="1">IF(ISBLANK(J88)=FALSE,OFFSET(I88,0,COUNTA(J88:P88)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>6</v>
       </c>
       <c r="J88" s="112">
@@ -14365,7 +14382,7 @@
         <v>105</v>
       </c>
       <c r="D89" s="108" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>完了</v>
       </c>
       <c r="E89" s="109">
@@ -14381,7 +14398,7 @@
         <v>1</v>
       </c>
       <c r="I89" s="111">
-        <f ca="1">IF(ISBLANK(J89)=FALSE,OFFSET(I89,0,COUNTA(J89:P89)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="J89" s="112">
@@ -14415,7 +14432,7 @@
         <v>105</v>
       </c>
       <c r="D90" s="108" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>完了</v>
       </c>
       <c r="E90" s="109">
@@ -14431,7 +14448,7 @@
         <v>1</v>
       </c>
       <c r="I90" s="111">
-        <f ca="1">IF(ISBLANK(J90)=FALSE,OFFSET(I90,0,COUNTA(J90:P90)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="J90" s="112">
@@ -14465,7 +14482,7 @@
         <v>105</v>
       </c>
       <c r="D91" s="108" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>完了</v>
       </c>
       <c r="E91" s="109">
@@ -14481,7 +14498,7 @@
         <v>2</v>
       </c>
       <c r="I91" s="111">
-        <f ca="1">IF(ISBLANK(J91)=FALSE,OFFSET(I91,0,COUNTA(J91:P91)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="J91" s="112">
@@ -14513,7 +14530,7 @@
         <v>106</v>
       </c>
       <c r="D92" s="111" t="str">
-        <f t="shared" ref="D92:D155" si="4">IF(ISBLANK($B92),"",IF(ISBLANK($F92),"未着手",IF($I92=0,"完了","作業中")))</f>
+        <f t="shared" ref="D92:D155" si="8">IF(ISBLANK($B92),"",IF(ISBLANK($F92),"未着手",IF($I92=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="E92" s="109"/>
@@ -14521,7 +14538,7 @@
       <c r="G92" s="110"/>
       <c r="H92" s="110"/>
       <c r="I92" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J92)=FALSE,OFFSET(I92,0,COUNTA(J92:P92)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J92" s="112"/>
@@ -14541,7 +14558,7 @@
         <v>106</v>
       </c>
       <c r="D93" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E93" s="109"/>
@@ -14549,7 +14566,7 @@
       <c r="G93" s="110"/>
       <c r="H93" s="110"/>
       <c r="I93" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J93)=FALSE,OFFSET(I93,0,COUNTA(J93:P93)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J93" s="112"/>
@@ -14569,7 +14586,7 @@
         <v>106</v>
       </c>
       <c r="D94" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E94" s="109"/>
@@ -14577,7 +14594,7 @@
       <c r="G94" s="110"/>
       <c r="H94" s="110"/>
       <c r="I94" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J94)=FALSE,OFFSET(I94,0,COUNTA(J94:P94)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J94" s="112"/>
@@ -14597,7 +14614,7 @@
         <v>106</v>
       </c>
       <c r="D95" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E95" s="109"/>
@@ -14605,7 +14622,7 @@
       <c r="G95" s="110"/>
       <c r="H95" s="110"/>
       <c r="I95" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J95)=FALSE,OFFSET(I95,0,COUNTA(J95:P95)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J95" s="112"/>
@@ -14625,7 +14642,7 @@
         <v>106</v>
       </c>
       <c r="D96" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E96" s="109"/>
@@ -14633,7 +14650,7 @@
       <c r="G96" s="110"/>
       <c r="H96" s="110"/>
       <c r="I96" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J96)=FALSE,OFFSET(I96,0,COUNTA(J96:P96)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J96" s="112"/>
@@ -14653,7 +14670,7 @@
         <v>106</v>
       </c>
       <c r="D97" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E97" s="109"/>
@@ -14661,7 +14678,7 @@
       <c r="G97" s="110"/>
       <c r="H97" s="110"/>
       <c r="I97" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J97)=FALSE,OFFSET(I97,0,COUNTA(J97:P97)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J97" s="112"/>
@@ -14681,7 +14698,7 @@
         <v>106</v>
       </c>
       <c r="D98" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E98" s="109"/>
@@ -14689,7 +14706,7 @@
       <c r="G98" s="110"/>
       <c r="H98" s="110"/>
       <c r="I98" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J98)=FALSE,OFFSET(I98,0,COUNTA(J98:P98)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J98" s="112"/>
@@ -14709,7 +14726,7 @@
         <v>106</v>
       </c>
       <c r="D99" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E99" s="109"/>
@@ -14717,7 +14734,7 @@
       <c r="G99" s="110"/>
       <c r="H99" s="110"/>
       <c r="I99" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J99)=FALSE,OFFSET(I99,0,COUNTA(J99:P99)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J99" s="112"/>
@@ -14737,7 +14754,7 @@
         <v>106</v>
       </c>
       <c r="D100" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E100" s="109"/>
@@ -14745,7 +14762,7 @@
       <c r="G100" s="110"/>
       <c r="H100" s="110"/>
       <c r="I100" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J100)=FALSE,OFFSET(I100,0,COUNTA(J100:P100)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J100" s="112"/>
@@ -14763,7 +14780,7 @@
       <c r="B101" s="106"/>
       <c r="C101" s="115"/>
       <c r="D101" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E101" s="109"/>
@@ -14771,7 +14788,7 @@
       <c r="G101" s="110"/>
       <c r="H101" s="110"/>
       <c r="I101" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J101)=FALSE,OFFSET(I101,0,COUNTA(J101:P101)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J101" s="112"/>
@@ -14789,7 +14806,7 @@
       <c r="B102" s="116"/>
       <c r="C102" s="115"/>
       <c r="D102" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E102" s="109"/>
@@ -14797,7 +14814,7 @@
       <c r="G102" s="110"/>
       <c r="H102" s="110"/>
       <c r="I102" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J102)=FALSE,OFFSET(I102,0,COUNTA(J102:P102)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J102" s="112"/>
@@ -14815,7 +14832,7 @@
       <c r="B103" s="116"/>
       <c r="C103" s="115"/>
       <c r="D103" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E103" s="109"/>
@@ -14823,7 +14840,7 @@
       <c r="G103" s="110"/>
       <c r="H103" s="110"/>
       <c r="I103" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J103)=FALSE,OFFSET(I103,0,COUNTA(J103:P103)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J103" s="112"/>
@@ -14845,7 +14862,7 @@
         <v>120</v>
       </c>
       <c r="D104" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="8"/>
         <v>完了</v>
       </c>
       <c r="E104" s="109">
@@ -14861,7 +14878,7 @@
         <v>3</v>
       </c>
       <c r="I104" s="111">
-        <f ca="1">IF(ISBLANK(J104)=FALSE,OFFSET(I104,0,COUNTA(J104:P104)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="J104" s="112">
@@ -14893,7 +14910,7 @@
         <v>120</v>
       </c>
       <c r="D105" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="8"/>
         <v>完了</v>
       </c>
       <c r="E105" s="109">
@@ -14909,7 +14926,7 @@
         <v>3</v>
       </c>
       <c r="I105" s="111">
-        <f ca="1">IF(ISBLANK(J105)=FALSE,OFFSET(I105,0,COUNTA(J105:P105)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="J105" s="112">
@@ -14941,7 +14958,7 @@
         <v>120</v>
       </c>
       <c r="D106" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="8"/>
         <v>完了</v>
       </c>
       <c r="E106" s="109">
@@ -14957,7 +14974,7 @@
         <v>3</v>
       </c>
       <c r="I106" s="111">
-        <f ca="1">IF(ISBLANK(J106)=FALSE,OFFSET(I106,0,COUNTA(J106:P106)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="J106" s="112">
@@ -15007,7 +15024,7 @@
         <v>120</v>
       </c>
       <c r="D107" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="8"/>
         <v>完了</v>
       </c>
       <c r="E107" s="109">
@@ -15023,7 +15040,7 @@
         <v>3</v>
       </c>
       <c r="I107" s="111">
-        <f ca="1">IF(ISBLANK(J107)=FALSE,OFFSET(I107,0,COUNTA(J107:P107)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="J107" s="112">
@@ -15059,7 +15076,7 @@
         <v>29</v>
       </c>
       <c r="V107" s="126">
-        <f>COUNTA($J$2:$P$2)*6-COUNTA($J$4:$P$4)*6</f>
+        <f t="shared" ref="V107:V116" si="9">COUNTA($J$2:$P$2)*6-COUNTA($J$4:$P$4)*6</f>
         <v>12</v>
       </c>
       <c r="W107" s="127">
@@ -15078,7 +15095,7 @@
         <v>120</v>
       </c>
       <c r="D108" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="8"/>
         <v>完了</v>
       </c>
       <c r="E108" s="109">
@@ -15094,7 +15111,7 @@
         <v>4</v>
       </c>
       <c r="I108" s="111">
-        <f ca="1">IF(ISBLANK(J108)=FALSE,OFFSET(I108,0,COUNTA(J108:P108)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="J108" s="112">
@@ -15118,23 +15135,23 @@
         <v>109</v>
       </c>
       <c r="S108" s="125">
-        <f t="shared" ref="S108:S116" si="5">SUMIF($C$5:$C$157,R108,$G$5:$G$157)</f>
+        <f t="shared" ref="S108:S116" si="10">SUMIF($C$5:$C$157,R108,$G$5:$G$157)</f>
         <v>43</v>
       </c>
       <c r="T108" s="125">
-        <f t="shared" ref="T108:T116" ca="1" si="6">SUMIF($C$5:$C$156,R108,$I$5:$I$157)</f>
+        <f t="shared" ref="T108:T116" ca="1" si="11">SUMIF($C$5:$C$156,R108,$I$5:$I$157)</f>
         <v>7</v>
       </c>
       <c r="U108" s="125">
-        <f t="shared" ref="U108:U116" si="7">SUMIF($C$5:$C$157,R108,$H$5:$H$157)</f>
+        <f t="shared" ref="U108:U116" si="12">SUMIF($C$5:$C$157,R108,$H$5:$H$157)</f>
         <v>46</v>
       </c>
       <c r="V108" s="126">
-        <f>COUNTA($J$2:$P$2)*6-COUNTA($J$4:$P$4)*6</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="W108" s="127">
-        <f t="shared" ref="W108:W116" ca="1" si="8">IF(V108&gt;T108,0,T108-V108)</f>
+        <f t="shared" ref="W108:W116" ca="1" si="13">IF(V108&gt;T108,0,T108-V108)</f>
         <v>0</v>
       </c>
     </row>
@@ -15149,7 +15166,7 @@
         <v>120</v>
       </c>
       <c r="D109" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="8"/>
         <v>完了</v>
       </c>
       <c r="E109" s="109">
@@ -15165,7 +15182,7 @@
         <v>3</v>
       </c>
       <c r="I109" s="111">
-        <f ca="1">IF(ISBLANK(J109)=FALSE,OFFSET(I109,0,COUNTA(J109:P109)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="J109" s="112">
@@ -15189,23 +15206,23 @@
         <v>110</v>
       </c>
       <c r="S109" s="125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>62</v>
       </c>
       <c r="T109" s="125">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>6</v>
       </c>
       <c r="U109" s="125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
       <c r="V109" s="126">
-        <f>COUNTA($J$2:$P$2)*6-COUNTA($J$4:$P$4)*6</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="W109" s="127">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15220,7 +15237,7 @@
         <v>120</v>
       </c>
       <c r="D110" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="8"/>
         <v>完了</v>
       </c>
       <c r="E110" s="4">
@@ -15236,7 +15253,7 @@
         <v>3</v>
       </c>
       <c r="I110" s="111">
-        <f ca="1">IF(ISBLANK(J110)=FALSE,OFFSET(I110,0,COUNTA(J110:P110)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="J110" s="112">
@@ -15260,23 +15277,23 @@
         <v>111</v>
       </c>
       <c r="S110" s="125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="T110" s="125">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>11</v>
       </c>
       <c r="U110" s="125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="V110" s="126">
-        <f>COUNTA($J$2:$P$2)*6-COUNTA($J$4:$P$4)*6</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="W110" s="127">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15291,7 +15308,7 @@
         <v>120</v>
       </c>
       <c r="D111" s="111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="8"/>
         <v>完了</v>
       </c>
       <c r="E111" s="109">
@@ -15307,7 +15324,7 @@
         <v>4</v>
       </c>
       <c r="I111" s="111">
-        <f ca="1">IF(ISBLANK(J111)=FALSE,OFFSET(I111,0,COUNTA(J111:P111)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="J111" s="112">
@@ -15331,23 +15348,23 @@
         <v>112</v>
       </c>
       <c r="S111" s="125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="T111" s="125">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="U111" s="125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>26</v>
       </c>
       <c r="V111" s="126">
-        <f>COUNTA($J$2:$P$2)*6-COUNTA($J$4:$P$4)*6</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="W111" s="127">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15362,7 +15379,7 @@
         <v>120</v>
       </c>
       <c r="D112" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>未着手</v>
       </c>
       <c r="E112" s="109">
@@ -15374,7 +15391,7 @@
       </c>
       <c r="H112" s="110"/>
       <c r="I112" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J112)=FALSE,OFFSET(I112,0,COUNTA(J112:P112)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J112" s="112"/>
@@ -15386,23 +15403,23 @@
       <c r="P112" s="112"/>
       <c r="R112" s="124"/>
       <c r="S112" s="125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T112" s="125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U112" s="125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V112" s="126">
-        <f>COUNTA($J$2:$P$2)*6-COUNTA($J$4:$P$4)*6</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="W112" s="127">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15413,7 +15430,7 @@
       <c r="B113" s="116"/>
       <c r="C113" s="115"/>
       <c r="D113" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E113" s="109"/>
@@ -15421,7 +15438,7 @@
       <c r="G113" s="110"/>
       <c r="H113" s="110"/>
       <c r="I113" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J113)=FALSE,OFFSET(I113,0,COUNTA(J113:P113)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J113" s="112"/>
@@ -15433,23 +15450,23 @@
       <c r="P113" s="112"/>
       <c r="R113" s="124"/>
       <c r="S113" s="125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T113" s="125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U113" s="125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V113" s="126">
-        <f>COUNTA($J$2:$P$2)*6-COUNTA($J$4:$P$4)*6</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="W113" s="127">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15460,7 +15477,7 @@
       <c r="B114" s="116"/>
       <c r="C114" s="115"/>
       <c r="D114" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E114" s="109"/>
@@ -15468,7 +15485,7 @@
       <c r="G114" s="110"/>
       <c r="H114" s="110"/>
       <c r="I114" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J114)=FALSE,OFFSET(I114,0,COUNTA(J114:P114)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J114" s="112"/>
@@ -15480,23 +15497,23 @@
       <c r="P114" s="112"/>
       <c r="R114" s="124"/>
       <c r="S114" s="125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T114" s="125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U114" s="125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V114" s="126">
-        <f>COUNTA($J$2:$P$2)*6-COUNTA($J$4:$P$4)*6</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="W114" s="127">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15507,7 +15524,7 @@
       <c r="B115" s="116"/>
       <c r="C115" s="115"/>
       <c r="D115" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E115" s="109"/>
@@ -15515,7 +15532,7 @@
       <c r="G115" s="110"/>
       <c r="H115" s="110"/>
       <c r="I115" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J115)=FALSE,OFFSET(I115,0,COUNTA(J115:P115)),"")</f>
+        <f t="shared" ref="I115:I146" ca="1" si="14">IF(ISBLANK(J115)=FALSE,OFFSET(I115,0,COUNTA(J115:P115)),"")</f>
         <v/>
       </c>
       <c r="J115" s="112"/>
@@ -15527,23 +15544,23 @@
       <c r="P115" s="112"/>
       <c r="R115" s="124"/>
       <c r="S115" s="125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T115" s="125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U115" s="125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V115" s="126">
-        <f>COUNTA($J$2:$P$2)*6-COUNTA($J$4:$P$4)*6</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="W115" s="127">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15554,7 +15571,7 @@
       <c r="B116" s="116"/>
       <c r="C116" s="115"/>
       <c r="D116" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E116" s="109"/>
@@ -15562,7 +15579,7 @@
       <c r="G116" s="110"/>
       <c r="H116" s="110"/>
       <c r="I116" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J116)=FALSE,OFFSET(I116,0,COUNTA(J116:P116)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J116" s="112"/>
@@ -15574,23 +15591,23 @@
       <c r="P116" s="112"/>
       <c r="R116" s="124"/>
       <c r="S116" s="125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T116" s="125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U116" s="125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V116" s="126">
-        <f>COUNTA($J$2:$P$2)*6-COUNTA($J$4:$P$4)*6</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="W116" s="127">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15601,7 +15618,7 @@
       <c r="B117" s="116"/>
       <c r="C117" s="115"/>
       <c r="D117" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E117" s="109"/>
@@ -15609,7 +15626,7 @@
       <c r="G117" s="110"/>
       <c r="H117" s="110"/>
       <c r="I117" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J117)=FALSE,OFFSET(I117,0,COUNTA(J117:P117)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J117" s="112"/>
@@ -15627,7 +15644,7 @@
       <c r="B118" s="116"/>
       <c r="C118" s="115"/>
       <c r="D118" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E118" s="109"/>
@@ -15635,7 +15652,7 @@
       <c r="G118" s="110"/>
       <c r="H118" s="110"/>
       <c r="I118" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J118)=FALSE,OFFSET(I118,0,COUNTA(J118:P118)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J118" s="112"/>
@@ -15653,7 +15670,7 @@
       <c r="B119" s="116"/>
       <c r="C119" s="115"/>
       <c r="D119" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E119" s="109"/>
@@ -15661,7 +15678,7 @@
       <c r="G119" s="110"/>
       <c r="H119" s="110"/>
       <c r="I119" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J119)=FALSE,OFFSET(I119,0,COUNTA(J119:P119)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J119" s="112"/>
@@ -15679,7 +15696,7 @@
       <c r="B120" s="116"/>
       <c r="C120" s="115"/>
       <c r="D120" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E120" s="109"/>
@@ -15687,7 +15704,7 @@
       <c r="G120" s="110"/>
       <c r="H120" s="110"/>
       <c r="I120" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J120)=FALSE,OFFSET(I120,0,COUNTA(J120:P120)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J120" s="112"/>
@@ -15705,7 +15722,7 @@
       <c r="B121" s="116"/>
       <c r="C121" s="115"/>
       <c r="D121" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E121" s="109"/>
@@ -15713,7 +15730,7 @@
       <c r="G121" s="110"/>
       <c r="H121" s="110"/>
       <c r="I121" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J121)=FALSE,OFFSET(I121,0,COUNTA(J121:P121)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J121" s="112"/>
@@ -15731,7 +15748,7 @@
       <c r="B122" s="116"/>
       <c r="C122" s="115"/>
       <c r="D122" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E122" s="109"/>
@@ -15739,7 +15756,7 @@
       <c r="G122" s="110"/>
       <c r="H122" s="110"/>
       <c r="I122" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J122)=FALSE,OFFSET(I122,0,COUNTA(J122:P122)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J122" s="112"/>
@@ -15757,7 +15774,7 @@
       <c r="B123" s="116"/>
       <c r="C123" s="115"/>
       <c r="D123" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E123" s="109"/>
@@ -15765,7 +15782,7 @@
       <c r="G123" s="110"/>
       <c r="H123" s="110"/>
       <c r="I123" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J123)=FALSE,OFFSET(I123,0,COUNTA(J123:P123)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J123" s="112"/>
@@ -15783,7 +15800,7 @@
       <c r="B124" s="116"/>
       <c r="C124" s="115"/>
       <c r="D124" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E124" s="109"/>
@@ -15791,7 +15808,7 @@
       <c r="G124" s="110"/>
       <c r="H124" s="110"/>
       <c r="I124" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J124)=FALSE,OFFSET(I124,0,COUNTA(J124:P124)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J124" s="112"/>
@@ -15809,7 +15826,7 @@
       <c r="B125" s="116"/>
       <c r="C125" s="115"/>
       <c r="D125" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E125" s="109"/>
@@ -15817,7 +15834,7 @@
       <c r="G125" s="110"/>
       <c r="H125" s="110"/>
       <c r="I125" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J125)=FALSE,OFFSET(I125,0,COUNTA(J125:P125)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J125" s="112"/>
@@ -15835,7 +15852,7 @@
       <c r="B126" s="116"/>
       <c r="C126" s="115"/>
       <c r="D126" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E126" s="109"/>
@@ -15843,7 +15860,7 @@
       <c r="G126" s="110"/>
       <c r="H126" s="110"/>
       <c r="I126" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J126)=FALSE,OFFSET(I126,0,COUNTA(J126:P126)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J126" s="112"/>
@@ -15861,7 +15878,7 @@
       <c r="B127" s="116"/>
       <c r="C127" s="115"/>
       <c r="D127" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E127" s="109"/>
@@ -15869,7 +15886,7 @@
       <c r="G127" s="110"/>
       <c r="H127" s="110"/>
       <c r="I127" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J127)=FALSE,OFFSET(I127,0,COUNTA(J127:P127)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J127" s="112"/>
@@ -15887,7 +15904,7 @@
       <c r="B128" s="116"/>
       <c r="C128" s="115"/>
       <c r="D128" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E128" s="109"/>
@@ -15895,7 +15912,7 @@
       <c r="G128" s="110"/>
       <c r="H128" s="110"/>
       <c r="I128" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J128)=FALSE,OFFSET(I128,0,COUNTA(J128:P128)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J128" s="112"/>
@@ -15913,7 +15930,7 @@
       <c r="B129" s="116"/>
       <c r="C129" s="115"/>
       <c r="D129" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E129" s="109"/>
@@ -15921,7 +15938,7 @@
       <c r="G129" s="110"/>
       <c r="H129" s="110"/>
       <c r="I129" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J129)=FALSE,OFFSET(I129,0,COUNTA(J129:P129)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J129" s="112"/>
@@ -15939,7 +15956,7 @@
       <c r="B130" s="116"/>
       <c r="C130" s="115"/>
       <c r="D130" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E130" s="109"/>
@@ -15947,7 +15964,7 @@
       <c r="G130" s="110"/>
       <c r="H130" s="110"/>
       <c r="I130" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J130)=FALSE,OFFSET(I130,0,COUNTA(J130:P130)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J130" s="112"/>
@@ -15965,7 +15982,7 @@
       <c r="B131" s="116"/>
       <c r="C131" s="115"/>
       <c r="D131" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E131" s="109"/>
@@ -15973,7 +15990,7 @@
       <c r="G131" s="110"/>
       <c r="H131" s="110"/>
       <c r="I131" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J131)=FALSE,OFFSET(I131,0,COUNTA(J131:P131)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J131" s="112"/>
@@ -15991,7 +16008,7 @@
       <c r="B132" s="116"/>
       <c r="C132" s="115"/>
       <c r="D132" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E132" s="109"/>
@@ -15999,7 +16016,7 @@
       <c r="G132" s="110"/>
       <c r="H132" s="110"/>
       <c r="I132" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J132)=FALSE,OFFSET(I132,0,COUNTA(J132:P132)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J132" s="112"/>
@@ -16017,7 +16034,7 @@
       <c r="B133" s="116"/>
       <c r="C133" s="115"/>
       <c r="D133" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E133" s="109"/>
@@ -16025,7 +16042,7 @@
       <c r="G133" s="110"/>
       <c r="H133" s="110"/>
       <c r="I133" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J133)=FALSE,OFFSET(I133,0,COUNTA(J133:P133)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J133" s="112"/>
@@ -16043,7 +16060,7 @@
       <c r="B134" s="116"/>
       <c r="C134" s="115"/>
       <c r="D134" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E134" s="109"/>
@@ -16051,7 +16068,7 @@
       <c r="G134" s="110"/>
       <c r="H134" s="110"/>
       <c r="I134" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J134)=FALSE,OFFSET(I134,0,COUNTA(J134:P134)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J134" s="112"/>
@@ -16069,7 +16086,7 @@
       <c r="B135" s="116"/>
       <c r="C135" s="115"/>
       <c r="D135" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E135" s="109"/>
@@ -16077,7 +16094,7 @@
       <c r="G135" s="110"/>
       <c r="H135" s="110"/>
       <c r="I135" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J135)=FALSE,OFFSET(I135,0,COUNTA(J135:P135)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J135" s="112"/>
@@ -16095,7 +16112,7 @@
       <c r="B136" s="116"/>
       <c r="C136" s="115"/>
       <c r="D136" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E136" s="109"/>
@@ -16103,7 +16120,7 @@
       <c r="G136" s="110"/>
       <c r="H136" s="110"/>
       <c r="I136" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J136)=FALSE,OFFSET(I136,0,COUNTA(J136:P136)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J136" s="112"/>
@@ -16121,7 +16138,7 @@
       <c r="B137" s="116"/>
       <c r="C137" s="115"/>
       <c r="D137" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E137" s="109"/>
@@ -16129,7 +16146,7 @@
       <c r="G137" s="110"/>
       <c r="H137" s="110"/>
       <c r="I137" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J137)=FALSE,OFFSET(I137,0,COUNTA(J137:P137)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J137" s="112"/>
@@ -16147,7 +16164,7 @@
       <c r="B138" s="116"/>
       <c r="C138" s="115"/>
       <c r="D138" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E138" s="109"/>
@@ -16155,7 +16172,7 @@
       <c r="G138" s="110"/>
       <c r="H138" s="110"/>
       <c r="I138" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J138)=FALSE,OFFSET(I138,0,COUNTA(J138:P138)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J138" s="112"/>
@@ -16173,7 +16190,7 @@
       <c r="B139" s="116"/>
       <c r="C139" s="115"/>
       <c r="D139" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E139" s="109"/>
@@ -16181,7 +16198,7 @@
       <c r="G139" s="110"/>
       <c r="H139" s="110"/>
       <c r="I139" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J139)=FALSE,OFFSET(I139,0,COUNTA(J139:P139)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J139" s="112"/>
@@ -16199,7 +16216,7 @@
       <c r="B140" s="116"/>
       <c r="C140" s="115"/>
       <c r="D140" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E140" s="109"/>
@@ -16207,7 +16224,7 @@
       <c r="G140" s="110"/>
       <c r="H140" s="110"/>
       <c r="I140" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J140)=FALSE,OFFSET(I140,0,COUNTA(J140:P140)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J140" s="112"/>
@@ -16225,7 +16242,7 @@
       <c r="B141" s="116"/>
       <c r="C141" s="115"/>
       <c r="D141" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E141" s="109"/>
@@ -16233,7 +16250,7 @@
       <c r="G141" s="110"/>
       <c r="H141" s="110"/>
       <c r="I141" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J141)=FALSE,OFFSET(I141,0,COUNTA(J141:P141)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J141" s="112"/>
@@ -16251,7 +16268,7 @@
       <c r="B142" s="116"/>
       <c r="C142" s="115"/>
       <c r="D142" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E142" s="109"/>
@@ -16259,7 +16276,7 @@
       <c r="G142" s="110"/>
       <c r="H142" s="110"/>
       <c r="I142" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J142)=FALSE,OFFSET(I142,0,COUNTA(J142:P142)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J142" s="112"/>
@@ -16277,7 +16294,7 @@
       <c r="B143" s="116"/>
       <c r="C143" s="115"/>
       <c r="D143" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E143" s="109"/>
@@ -16285,7 +16302,7 @@
       <c r="G143" s="110"/>
       <c r="H143" s="110"/>
       <c r="I143" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J143)=FALSE,OFFSET(I143,0,COUNTA(J143:P143)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J143" s="112"/>
@@ -16303,7 +16320,7 @@
       <c r="B144" s="116"/>
       <c r="C144" s="115"/>
       <c r="D144" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E144" s="109"/>
@@ -16311,7 +16328,7 @@
       <c r="G144" s="110"/>
       <c r="H144" s="110"/>
       <c r="I144" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J144)=FALSE,OFFSET(I144,0,COUNTA(J144:P144)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J144" s="112"/>
@@ -16329,7 +16346,7 @@
       <c r="B145" s="116"/>
       <c r="C145" s="115"/>
       <c r="D145" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E145" s="109"/>
@@ -16337,7 +16354,7 @@
       <c r="G145" s="110"/>
       <c r="H145" s="110"/>
       <c r="I145" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J145)=FALSE,OFFSET(I145,0,COUNTA(J145:P145)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J145" s="112"/>
@@ -16355,7 +16372,7 @@
       <c r="B146" s="116"/>
       <c r="C146" s="115"/>
       <c r="D146" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E146" s="109"/>
@@ -16363,7 +16380,7 @@
       <c r="G146" s="110"/>
       <c r="H146" s="110"/>
       <c r="I146" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J146)=FALSE,OFFSET(I146,0,COUNTA(J146:P146)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J146" s="112"/>
@@ -16381,7 +16398,7 @@
       <c r="B147" s="116"/>
       <c r="C147" s="115"/>
       <c r="D147" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E147" s="109"/>
@@ -16389,7 +16406,7 @@
       <c r="G147" s="110"/>
       <c r="H147" s="110"/>
       <c r="I147" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J147)=FALSE,OFFSET(I147,0,COUNTA(J147:P147)),"")</f>
+        <f t="shared" ref="I147:I178" ca="1" si="15">IF(ISBLANK(J147)=FALSE,OFFSET(I147,0,COUNTA(J147:P147)),"")</f>
         <v/>
       </c>
       <c r="J147" s="112"/>
@@ -16407,7 +16424,7 @@
       <c r="B148" s="116"/>
       <c r="C148" s="115"/>
       <c r="D148" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E148" s="109"/>
@@ -16415,7 +16432,7 @@
       <c r="G148" s="110"/>
       <c r="H148" s="110"/>
       <c r="I148" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J148)=FALSE,OFFSET(I148,0,COUNTA(J148:P148)),"")</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J148" s="112"/>
@@ -16433,7 +16450,7 @@
       <c r="B149" s="116"/>
       <c r="C149" s="115"/>
       <c r="D149" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E149" s="109"/>
@@ -16441,7 +16458,7 @@
       <c r="G149" s="110"/>
       <c r="H149" s="110"/>
       <c r="I149" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J149)=FALSE,OFFSET(I149,0,COUNTA(J149:P149)),"")</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J149" s="112"/>
@@ -16459,7 +16476,7 @@
       <c r="B150" s="116"/>
       <c r="C150" s="115"/>
       <c r="D150" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E150" s="109"/>
@@ -16467,7 +16484,7 @@
       <c r="G150" s="110"/>
       <c r="H150" s="110"/>
       <c r="I150" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J150)=FALSE,OFFSET(I150,0,COUNTA(J150:P150)),"")</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J150" s="112"/>
@@ -16485,7 +16502,7 @@
       <c r="B151" s="116"/>
       <c r="C151" s="115"/>
       <c r="D151" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E151" s="109"/>
@@ -16493,7 +16510,7 @@
       <c r="G151" s="110"/>
       <c r="H151" s="110"/>
       <c r="I151" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J151)=FALSE,OFFSET(I151,0,COUNTA(J151:P151)),"")</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J151" s="112"/>
@@ -16511,7 +16528,7 @@
       <c r="B152" s="116"/>
       <c r="C152" s="115"/>
       <c r="D152" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E152" s="109"/>
@@ -16519,7 +16536,7 @@
       <c r="G152" s="110"/>
       <c r="H152" s="110"/>
       <c r="I152" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J152)=FALSE,OFFSET(I152,0,COUNTA(J152:P152)),"")</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J152" s="112"/>
@@ -16537,7 +16554,7 @@
       <c r="B153" s="116"/>
       <c r="C153" s="115"/>
       <c r="D153" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E153" s="109"/>
@@ -16545,7 +16562,7 @@
       <c r="G153" s="110"/>
       <c r="H153" s="110"/>
       <c r="I153" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J153)=FALSE,OFFSET(I153,0,COUNTA(J153:P153)),"")</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J153" s="112"/>
@@ -16563,7 +16580,7 @@
       <c r="B154" s="116"/>
       <c r="C154" s="115"/>
       <c r="D154" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E154" s="109"/>
@@ -16571,7 +16588,7 @@
       <c r="G154" s="110"/>
       <c r="H154" s="110"/>
       <c r="I154" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J154)=FALSE,OFFSET(I154,0,COUNTA(J154:P154)),"")</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J154" s="112"/>
@@ -16589,7 +16606,7 @@
       <c r="B155" s="116"/>
       <c r="C155" s="115"/>
       <c r="D155" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E155" s="109"/>
@@ -16597,7 +16614,7 @@
       <c r="G155" s="110"/>
       <c r="H155" s="110"/>
       <c r="I155" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J155)=FALSE,OFFSET(I155,0,COUNTA(J155:P155)),"")</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J155" s="112"/>
@@ -16615,7 +16632,7 @@
       <c r="B156" s="116"/>
       <c r="C156" s="115"/>
       <c r="D156" s="111" t="str">
-        <f t="shared" ref="D156:D157" si="9">IF(ISBLANK($B156),"",IF(ISBLANK($F156),"未着手",IF($I156=0,"完了","作業中")))</f>
+        <f t="shared" ref="D156:D157" si="16">IF(ISBLANK($B156),"",IF(ISBLANK($F156),"未着手",IF($I156=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="E156" s="109"/>
@@ -16623,7 +16640,7 @@
       <c r="G156" s="110"/>
       <c r="H156" s="110"/>
       <c r="I156" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J156)=FALSE,OFFSET(I156,0,COUNTA(J156:P156)),"")</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J156" s="112"/>
@@ -16641,7 +16658,7 @@
       <c r="B157" s="116"/>
       <c r="C157" s="115"/>
       <c r="D157" s="111" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E157" s="109"/>
@@ -16649,7 +16666,7 @@
       <c r="G157" s="110"/>
       <c r="H157" s="110"/>
       <c r="I157" s="111" t="str">
-        <f ca="1">IF(ISBLANK(J157)=FALSE,OFFSET(I157,0,COUNTA(J157:P157)),"")</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J157" s="112"/>
@@ -17086,8 +17103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J67" sqref="J67"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B115" sqref="B113:B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17108,56 +17125,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="156" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="156" t="s">
+      <c r="C1" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="162" t="s">
+      <c r="E1" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="162" t="s">
+      <c r="F1" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="154" t="s">
+      <c r="G1" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="154" t="s">
+      <c r="H1" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="156" t="s">
+      <c r="I1" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="157" t="s">
+      <c r="J1" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="159"/>
-      <c r="O1" s="159"/>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="159"/>
-      <c r="S1" s="159"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="166"/>
+      <c r="O1" s="166"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="166"/>
     </row>
     <row r="2" spans="1:19" s="8" customFormat="1">
-      <c r="A2" s="156"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="156"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="163"/>
       <c r="J2" s="23" t="s">
         <v>56</v>
       </c>
@@ -17190,15 +17207,15 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="8" customFormat="1">
-      <c r="A3" s="156"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="156"/>
+      <c r="A3" s="163"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="163"/>
       <c r="J3" s="20">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$S$2))))</f>
         <v>0</v>
@@ -17214,15 +17231,15 @@
       <c r="S3" s="20"/>
     </row>
     <row r="4" spans="1:19" s="8" customFormat="1">
-      <c r="A4" s="156"/>
-      <c r="B4" s="160"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="156"/>
+      <c r="A4" s="163"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="162"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="163"/>
       <c r="J4" s="21">
         <f>SUM(J5:J111)</f>
         <v>0</v>
@@ -17241,34 +17258,34 @@
       <c r="A5" s="16">
         <v>1</v>
       </c>
-      <c r="B5" s="166" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="138" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="170" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="12" t="str">
+      <c r="D5" s="171" t="str">
         <f t="shared" ref="D5:D50" si="0">IF(ISBLANK($B5),"",IF(ISBLANK($F5),"未着手",IF($I5=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="12" t="str">
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="171" t="str">
         <f t="shared" ref="I5:I57" ca="1" si="1">IF(ISBLANK(J5)=FALSE,OFFSET(I5,0,COUNTA(J5:S5)),"")</f>
         <v/>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
+      <c r="J5" s="174"/>
+      <c r="K5" s="174"/>
+      <c r="L5" s="174"/>
+      <c r="M5" s="174"/>
+      <c r="N5" s="174"/>
+      <c r="O5" s="174"/>
+      <c r="P5" s="174"/>
+      <c r="Q5" s="174"/>
+      <c r="R5" s="174"/>
+      <c r="S5" s="174"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="16">
@@ -17307,34 +17324,34 @@
       <c r="A7" s="16">
         <v>3</v>
       </c>
-      <c r="B7" s="166" t="s">
-        <v>231</v>
-      </c>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="170" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="12" t="str">
+      <c r="D7" s="171" t="str">
         <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="12" t="str">
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="171" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
+      <c r="J7" s="174"/>
+      <c r="K7" s="174"/>
+      <c r="L7" s="174"/>
+      <c r="M7" s="174"/>
+      <c r="N7" s="174"/>
+      <c r="O7" s="174"/>
+      <c r="P7" s="174"/>
+      <c r="Q7" s="174"/>
+      <c r="R7" s="174"/>
+      <c r="S7" s="174"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="16">
@@ -17373,34 +17390,34 @@
       <c r="A9" s="16">
         <v>5</v>
       </c>
-      <c r="B9" s="166" t="s">
-        <v>216</v>
-      </c>
-      <c r="C9" s="18" t="s">
+      <c r="B9" s="138" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="170" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="12" t="str">
+      <c r="D9" s="171" t="str">
         <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="12" t="str">
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="171" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
+      <c r="J9" s="174"/>
+      <c r="K9" s="174"/>
+      <c r="L9" s="174"/>
+      <c r="M9" s="174"/>
+      <c r="N9" s="174"/>
+      <c r="O9" s="174"/>
+      <c r="P9" s="174"/>
+      <c r="Q9" s="174"/>
+      <c r="R9" s="174"/>
+      <c r="S9" s="174"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="16">
@@ -17440,7 +17457,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="85" t="s">
-        <v>157</v>
+        <v>240</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>108</v>
@@ -17472,41 +17489,41 @@
       <c r="A12" s="16">
         <v>8</v>
       </c>
-      <c r="B12" s="168" t="s">
-        <v>232</v>
-      </c>
-      <c r="C12" s="18" t="s">
+      <c r="B12" s="140" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="170" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="12" t="str">
+      <c r="D12" s="171" t="str">
         <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="12" t="str">
+      <c r="E12" s="172"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="171" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="174"/>
+      <c r="M12" s="174"/>
+      <c r="N12" s="174"/>
+      <c r="O12" s="174"/>
+      <c r="P12" s="174"/>
+      <c r="Q12" s="174"/>
+      <c r="R12" s="174"/>
+      <c r="S12" s="174"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="16">
         <v>9</v>
       </c>
-      <c r="B13" s="169" t="s">
-        <v>158</v>
+      <c r="B13" s="141" t="s">
+        <v>157</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>108</v>
@@ -17539,7 +17556,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="85" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>108</v>
@@ -17664,41 +17681,41 @@
       <c r="A18" s="16">
         <v>14</v>
       </c>
-      <c r="B18" s="166" t="s">
-        <v>209</v>
-      </c>
-      <c r="C18" s="18" t="s">
+      <c r="B18" s="138" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="170" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="12" t="str">
+      <c r="D18" s="171" t="str">
         <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="12" t="str">
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="173"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="171" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="174"/>
+      <c r="L18" s="174"/>
+      <c r="M18" s="174"/>
+      <c r="N18" s="174"/>
+      <c r="O18" s="174"/>
+      <c r="P18" s="174"/>
+      <c r="Q18" s="174"/>
+      <c r="R18" s="174"/>
+      <c r="S18" s="174"/>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="16">
         <v>15</v>
       </c>
       <c r="B19" s="85" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>110</v>
@@ -17737,7 +17754,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>110</v>
@@ -17774,7 +17791,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="85" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>110</v>
@@ -17811,7 +17828,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="85" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>110</v>
@@ -17848,7 +17865,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>110</v>
@@ -17885,7 +17902,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="85" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>110</v>
@@ -17918,7 +17935,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="85" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>110</v>
@@ -17951,7 +17968,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="85" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>110</v>
@@ -17987,41 +18004,41 @@
       <c r="A27" s="16">
         <v>23</v>
       </c>
-      <c r="B27" s="166" t="s">
-        <v>211</v>
-      </c>
-      <c r="C27" s="18" t="s">
+      <c r="B27" s="138" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="170" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="12" t="str">
+      <c r="D27" s="171" t="str">
         <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="12" t="str">
+      <c r="E27" s="172"/>
+      <c r="F27" s="172"/>
+      <c r="G27" s="173"/>
+      <c r="H27" s="173"/>
+      <c r="I27" s="171" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
+      <c r="J27" s="174"/>
+      <c r="K27" s="174"/>
+      <c r="L27" s="174"/>
+      <c r="M27" s="174"/>
+      <c r="N27" s="174"/>
+      <c r="O27" s="174"/>
+      <c r="P27" s="174"/>
+      <c r="Q27" s="174"/>
+      <c r="R27" s="174"/>
+      <c r="S27" s="174"/>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="16">
         <v>24</v>
       </c>
       <c r="B28" s="85" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>110</v>
@@ -18058,7 +18075,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="85" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>110</v>
@@ -18095,7 +18112,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="85" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>110</v>
@@ -18131,41 +18148,41 @@
       <c r="A31" s="16">
         <v>27</v>
       </c>
-      <c r="B31" s="166" t="s">
-        <v>214</v>
-      </c>
-      <c r="C31" s="18" t="s">
+      <c r="B31" s="138" t="s">
+        <v>213</v>
+      </c>
+      <c r="C31" s="170" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="12" t="str">
+      <c r="D31" s="171" t="str">
         <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="12" t="str">
+      <c r="E31" s="172"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="173"/>
+      <c r="H31" s="173"/>
+      <c r="I31" s="171" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
+      <c r="J31" s="174"/>
+      <c r="K31" s="174"/>
+      <c r="L31" s="174"/>
+      <c r="M31" s="174"/>
+      <c r="N31" s="174"/>
+      <c r="O31" s="174"/>
+      <c r="P31" s="174"/>
+      <c r="Q31" s="174"/>
+      <c r="R31" s="174"/>
+      <c r="S31" s="174"/>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="16">
         <v>28</v>
       </c>
       <c r="B32" s="85" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>110</v>
@@ -18202,7 +18219,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="85" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>110</v>
@@ -18238,41 +18255,41 @@
       <c r="A34" s="16">
         <v>30</v>
       </c>
-      <c r="B34" s="166" t="s">
-        <v>215</v>
-      </c>
-      <c r="C34" s="18" t="s">
+      <c r="B34" s="138" t="s">
+        <v>214</v>
+      </c>
+      <c r="C34" s="170" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="12" t="str">
+      <c r="D34" s="171" t="str">
         <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="12" t="str">
+      <c r="E34" s="172"/>
+      <c r="F34" s="172"/>
+      <c r="G34" s="173"/>
+      <c r="H34" s="173"/>
+      <c r="I34" s="171" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
+      <c r="J34" s="174"/>
+      <c r="K34" s="174"/>
+      <c r="L34" s="174"/>
+      <c r="M34" s="174"/>
+      <c r="N34" s="174"/>
+      <c r="O34" s="174"/>
+      <c r="P34" s="174"/>
+      <c r="Q34" s="174"/>
+      <c r="R34" s="174"/>
+      <c r="S34" s="174"/>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="16">
         <v>31</v>
       </c>
       <c r="B35" s="85" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>110</v>
@@ -18308,41 +18325,41 @@
       <c r="A36" s="16">
         <v>32</v>
       </c>
-      <c r="B36" s="166" t="s">
-        <v>216</v>
-      </c>
-      <c r="C36" s="18" t="s">
+      <c r="B36" s="138" t="s">
+        <v>215</v>
+      </c>
+      <c r="C36" s="170" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="12" t="str">
+      <c r="D36" s="171" t="str">
         <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="12" t="str">
+      <c r="E36" s="172"/>
+      <c r="F36" s="172"/>
+      <c r="G36" s="173"/>
+      <c r="H36" s="173"/>
+      <c r="I36" s="171" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
+      <c r="J36" s="174"/>
+      <c r="K36" s="174"/>
+      <c r="L36" s="174"/>
+      <c r="M36" s="174"/>
+      <c r="N36" s="174"/>
+      <c r="O36" s="174"/>
+      <c r="P36" s="174"/>
+      <c r="Q36" s="174"/>
+      <c r="R36" s="174"/>
+      <c r="S36" s="174"/>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="16">
         <v>33</v>
       </c>
       <c r="B37" s="85" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>110</v>
@@ -18379,7 +18396,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="85" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>110</v>
@@ -18416,7 +18433,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="85" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>110</v>
@@ -18453,7 +18470,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="85" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>110</v>
@@ -18490,7 +18507,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="85" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>110</v>
@@ -18743,41 +18760,41 @@
       <c r="A49" s="16">
         <v>45</v>
       </c>
-      <c r="B49" s="166" t="s">
-        <v>197</v>
-      </c>
-      <c r="C49" s="18" t="s">
+      <c r="B49" s="138" t="s">
+        <v>196</v>
+      </c>
+      <c r="C49" s="170" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="12" t="str">
+      <c r="D49" s="171" t="str">
         <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="12" t="str">
+      <c r="E49" s="172"/>
+      <c r="F49" s="172"/>
+      <c r="G49" s="173"/>
+      <c r="H49" s="173"/>
+      <c r="I49" s="171" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="22"/>
-      <c r="S49" s="22"/>
+      <c r="J49" s="174"/>
+      <c r="K49" s="174"/>
+      <c r="L49" s="174"/>
+      <c r="M49" s="174"/>
+      <c r="N49" s="174"/>
+      <c r="O49" s="174"/>
+      <c r="P49" s="174"/>
+      <c r="Q49" s="174"/>
+      <c r="R49" s="174"/>
+      <c r="S49" s="174"/>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="16">
         <v>46</v>
       </c>
       <c r="B50" s="85" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>109</v>
@@ -18814,13 +18831,13 @@
         <v>47</v>
       </c>
       <c r="B51" s="85" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D51" s="12" t="str">
-        <f>IF(ISBLANK($B51),"",IF(ISBLANK($F51),"未着手",IF($I51=0,"完了","作業中")))</f>
+        <f t="shared" ref="D51:D63" si="2">IF(ISBLANK($B51),"",IF(ISBLANK($F51),"未着手",IF($I51=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="E51" s="4">
@@ -18851,13 +18868,13 @@
         <v>48</v>
       </c>
       <c r="B52" s="85" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D52" s="12" t="str">
-        <f>IF(ISBLANK($B52),"",IF(ISBLANK($F52),"未着手",IF($I52=0,"完了","作業中")))</f>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E52" s="4">
@@ -18887,47 +18904,47 @@
       <c r="A53" s="16">
         <v>49</v>
       </c>
-      <c r="B53" s="166" t="s">
-        <v>198</v>
-      </c>
-      <c r="C53" s="18" t="s">
+      <c r="B53" s="138" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" s="170" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="12" t="str">
-        <f>IF(ISBLANK($B53),"",IF(ISBLANK($F53),"未着手",IF($I53=0,"完了","作業中")))</f>
+      <c r="D53" s="171" t="str">
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="12" t="str">
+      <c r="E53" s="172"/>
+      <c r="F53" s="172"/>
+      <c r="G53" s="173"/>
+      <c r="H53" s="173"/>
+      <c r="I53" s="171" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="22"/>
-      <c r="S53" s="22"/>
+      <c r="J53" s="174"/>
+      <c r="K53" s="174"/>
+      <c r="L53" s="174"/>
+      <c r="M53" s="174"/>
+      <c r="N53" s="174"/>
+      <c r="O53" s="174"/>
+      <c r="P53" s="174"/>
+      <c r="Q53" s="174"/>
+      <c r="R53" s="174"/>
+      <c r="S53" s="174"/>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="16">
         <v>50</v>
       </c>
       <c r="B54" s="85" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D54" s="12" t="str">
-        <f ca="1">IF(ISBLANK($B54),"",IF(ISBLANK($F54),"未着手",IF($I54=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>作業中</v>
       </c>
       <c r="E54" s="4">
@@ -18959,14 +18976,14 @@
       <c r="A55" s="16">
         <v>51</v>
       </c>
-      <c r="B55" s="167" t="s">
-        <v>200</v>
+      <c r="B55" s="139" t="s">
+        <v>199</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D55" s="12" t="str">
-        <f ca="1">IF(ISBLANK($B55),"",IF(ISBLANK($F55),"未着手",IF($I55=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>作業中</v>
       </c>
       <c r="E55" s="4">
@@ -18999,13 +19016,13 @@
         <v>52</v>
       </c>
       <c r="B56" s="85" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D56" s="12" t="str">
-        <f>IF(ISBLANK($B56),"",IF(ISBLANK($F56),"未着手",IF($I56=0,"完了","作業中")))</f>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E56" s="4">
@@ -19036,13 +19053,13 @@
         <v>53</v>
       </c>
       <c r="B57" s="85" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D57" s="12" t="str">
-        <f>IF(ISBLANK($B57),"",IF(ISBLANK($F57),"未着手",IF($I57=0,"完了","作業中")))</f>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E57" s="4">
@@ -19072,47 +19089,47 @@
       <c r="A58" s="16">
         <v>54</v>
       </c>
-      <c r="B58" s="166" t="s">
-        <v>202</v>
-      </c>
-      <c r="C58" s="18" t="s">
+      <c r="B58" s="138" t="s">
+        <v>201</v>
+      </c>
+      <c r="C58" s="170" t="s">
         <v>109</v>
       </c>
-      <c r="D58" s="12" t="str">
-        <f>IF(ISBLANK($B58),"",IF(ISBLANK($F58),"未着手",IF($I58=0,"完了","作業中")))</f>
+      <c r="D58" s="171" t="str">
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="12" t="str">
-        <f t="shared" ref="I58:I111" ca="1" si="2">IF(ISBLANK(J58)=FALSE,OFFSET(I58,0,COUNTA(J58:S58)),"")</f>
-        <v/>
-      </c>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="22"/>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="22"/>
-      <c r="R58" s="22"/>
-      <c r="S58" s="22"/>
+      <c r="E58" s="172"/>
+      <c r="F58" s="172"/>
+      <c r="G58" s="173"/>
+      <c r="H58" s="173"/>
+      <c r="I58" s="171" t="str">
+        <f t="shared" ref="I58:I111" ca="1" si="3">IF(ISBLANK(J58)=FALSE,OFFSET(I58,0,COUNTA(J58:S58)),"")</f>
+        <v/>
+      </c>
+      <c r="J58" s="174"/>
+      <c r="K58" s="174"/>
+      <c r="L58" s="174"/>
+      <c r="M58" s="174"/>
+      <c r="N58" s="174"/>
+      <c r="O58" s="174"/>
+      <c r="P58" s="174"/>
+      <c r="Q58" s="174"/>
+      <c r="R58" s="174"/>
+      <c r="S58" s="174"/>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="16">
         <v>55</v>
       </c>
       <c r="B59" s="85" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D59" s="12" t="str">
-        <f>IF(ISBLANK($B59),"",IF(ISBLANK($F59),"未着手",IF($I59=0,"完了","作業中")))</f>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E59" s="4">
@@ -19124,7 +19141,7 @@
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J59" s="22"/>
@@ -19143,13 +19160,13 @@
         <v>56</v>
       </c>
       <c r="B60" s="85" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="12" t="str">
-        <f>IF(ISBLANK($B60),"",IF(ISBLANK($F60),"未着手",IF($I60=0,"完了","作業中")))</f>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E60" s="4">
@@ -19161,7 +19178,7 @@
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J60" s="22"/>
@@ -19180,13 +19197,13 @@
         <v>57</v>
       </c>
       <c r="B61" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D61" s="12" t="str">
-        <f>IF(ISBLANK($B61),"",IF(ISBLANK($F61),"未着手",IF($I61=0,"完了","作業中")))</f>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E61" s="4">
@@ -19198,7 +19215,7 @@
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J61" s="22"/>
@@ -19217,13 +19234,13 @@
         <v>58</v>
       </c>
       <c r="B62" s="85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D62" s="12" t="str">
-        <f>IF(ISBLANK($B62),"",IF(ISBLANK($F62),"未着手",IF($I62=0,"完了","作業中")))</f>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E62" s="4">
@@ -19235,7 +19252,7 @@
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J62" s="22"/>
@@ -19254,13 +19271,13 @@
         <v>59</v>
       </c>
       <c r="B63" s="85" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D63" s="12" t="str">
-        <f ca="1">IF(ISBLANK($B63),"",IF(ISBLANK($F63),"未着手",IF($I63=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E63" s="4">
@@ -19276,7 +19293,7 @@
         <v>1</v>
       </c>
       <c r="I63" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J63" s="22">
@@ -19297,13 +19314,13 @@
         <v>60</v>
       </c>
       <c r="B64" s="85" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D64" s="12" t="str">
-        <f t="shared" ref="D64:D111" ca="1" si="3">IF(ISBLANK($B64),"",IF(ISBLANK($F64),"未着手",IF($I64=0,"完了","作業中")))</f>
+        <f t="shared" ref="D64:D111" ca="1" si="4">IF(ISBLANK($B64),"",IF(ISBLANK($F64),"未着手",IF($I64=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="E64" s="4">
@@ -19319,7 +19336,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J64" s="22">
@@ -19339,47 +19356,47 @@
       <c r="A65" s="16">
         <v>61</v>
       </c>
-      <c r="B65" s="166" t="s">
-        <v>205</v>
-      </c>
-      <c r="C65" s="18" t="s">
+      <c r="B65" s="138" t="s">
+        <v>204</v>
+      </c>
+      <c r="C65" s="170" t="s">
         <v>109</v>
       </c>
-      <c r="D65" s="12" t="str">
-        <f t="shared" si="3"/>
+      <c r="D65" s="171" t="str">
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="22"/>
-      <c r="O65" s="22"/>
-      <c r="P65" s="22"/>
-      <c r="Q65" s="22"/>
-      <c r="R65" s="22"/>
-      <c r="S65" s="22"/>
+      <c r="E65" s="172"/>
+      <c r="F65" s="172"/>
+      <c r="G65" s="173"/>
+      <c r="H65" s="173"/>
+      <c r="I65" s="171" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="J65" s="174"/>
+      <c r="K65" s="174"/>
+      <c r="L65" s="174"/>
+      <c r="M65" s="174"/>
+      <c r="N65" s="174"/>
+      <c r="O65" s="174"/>
+      <c r="P65" s="174"/>
+      <c r="Q65" s="174"/>
+      <c r="R65" s="174"/>
+      <c r="S65" s="174"/>
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="16">
         <v>62</v>
       </c>
       <c r="B66" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D66" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="E66" s="4">
@@ -19395,7 +19412,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J66" s="22">
@@ -19416,13 +19433,13 @@
         <v>63</v>
       </c>
       <c r="B67" s="85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D67" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E67" s="4">
@@ -19434,7 +19451,7 @@
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J67" s="22"/>
@@ -19453,13 +19470,13 @@
         <v>64</v>
       </c>
       <c r="B68" s="85" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D68" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E68" s="4">
@@ -19471,7 +19488,7 @@
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J68" s="22"/>
@@ -19490,13 +19507,13 @@
         <v>65</v>
       </c>
       <c r="B69" s="85" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D69" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E69" s="4">
@@ -19508,7 +19525,7 @@
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J69" s="22"/>
@@ -19526,47 +19543,47 @@
       <c r="A70" s="16">
         <v>66</v>
       </c>
-      <c r="B70" s="166" t="s">
-        <v>222</v>
-      </c>
-      <c r="C70" s="18" t="s">
+      <c r="B70" s="138" t="s">
+        <v>221</v>
+      </c>
+      <c r="C70" s="170" t="s">
         <v>109</v>
       </c>
-      <c r="D70" s="12" t="str">
-        <f t="shared" si="3"/>
+      <c r="D70" s="171" t="str">
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="22"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="22"/>
-      <c r="O70" s="22"/>
-      <c r="P70" s="22"/>
-      <c r="Q70" s="22"/>
-      <c r="R70" s="22"/>
-      <c r="S70" s="22"/>
+      <c r="E70" s="172"/>
+      <c r="F70" s="172"/>
+      <c r="G70" s="173"/>
+      <c r="H70" s="173"/>
+      <c r="I70" s="171" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="J70" s="174"/>
+      <c r="K70" s="174"/>
+      <c r="L70" s="174"/>
+      <c r="M70" s="174"/>
+      <c r="N70" s="174"/>
+      <c r="O70" s="174"/>
+      <c r="P70" s="174"/>
+      <c r="Q70" s="174"/>
+      <c r="R70" s="174"/>
+      <c r="S70" s="174"/>
     </row>
     <row r="71" spans="1:19">
       <c r="A71" s="16">
         <v>67</v>
       </c>
       <c r="B71" s="85" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C71" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D71" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E71" s="4">
@@ -19578,7 +19595,7 @@
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J71" s="22"/>
@@ -19597,13 +19614,13 @@
         <v>68</v>
       </c>
       <c r="B72" s="85" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D72" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E72" s="4">
@@ -19615,7 +19632,7 @@
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J72" s="22"/>
@@ -19633,47 +19650,47 @@
       <c r="A73" s="16">
         <v>69</v>
       </c>
-      <c r="B73" s="166" t="s">
-        <v>224</v>
-      </c>
-      <c r="C73" s="18" t="s">
+      <c r="B73" s="138" t="s">
+        <v>223</v>
+      </c>
+      <c r="C73" s="170" t="s">
         <v>109</v>
       </c>
-      <c r="D73" s="12" t="str">
-        <f t="shared" si="3"/>
+      <c r="D73" s="171" t="str">
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="22"/>
-      <c r="O73" s="22"/>
-      <c r="P73" s="22"/>
-      <c r="Q73" s="22"/>
-      <c r="R73" s="22"/>
-      <c r="S73" s="22"/>
+      <c r="E73" s="172"/>
+      <c r="F73" s="172"/>
+      <c r="G73" s="173"/>
+      <c r="H73" s="173"/>
+      <c r="I73" s="171" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="J73" s="174"/>
+      <c r="K73" s="174"/>
+      <c r="L73" s="174"/>
+      <c r="M73" s="174"/>
+      <c r="N73" s="174"/>
+      <c r="O73" s="174"/>
+      <c r="P73" s="174"/>
+      <c r="Q73" s="174"/>
+      <c r="R73" s="174"/>
+      <c r="S73" s="174"/>
     </row>
     <row r="74" spans="1:19">
       <c r="A74" s="16">
         <v>70</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D74" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E74" s="4">
@@ -19685,7 +19702,7 @@
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J74" s="22"/>
@@ -19703,47 +19720,47 @@
       <c r="A75" s="16">
         <v>71</v>
       </c>
-      <c r="B75" s="166" t="s">
-        <v>225</v>
-      </c>
-      <c r="C75" s="18" t="s">
+      <c r="B75" s="138" t="s">
+        <v>224</v>
+      </c>
+      <c r="C75" s="170" t="s">
         <v>109</v>
       </c>
-      <c r="D75" s="12" t="str">
-        <f t="shared" si="3"/>
+      <c r="D75" s="171" t="str">
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J75" s="22"/>
-      <c r="K75" s="22"/>
-      <c r="L75" s="22"/>
-      <c r="M75" s="22"/>
-      <c r="N75" s="22"/>
-      <c r="O75" s="22"/>
-      <c r="P75" s="22"/>
-      <c r="Q75" s="22"/>
-      <c r="R75" s="22"/>
-      <c r="S75" s="22"/>
+      <c r="E75" s="172"/>
+      <c r="F75" s="172"/>
+      <c r="G75" s="173"/>
+      <c r="H75" s="173"/>
+      <c r="I75" s="171" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="J75" s="174"/>
+      <c r="K75" s="174"/>
+      <c r="L75" s="174"/>
+      <c r="M75" s="174"/>
+      <c r="N75" s="174"/>
+      <c r="O75" s="174"/>
+      <c r="P75" s="174"/>
+      <c r="Q75" s="174"/>
+      <c r="R75" s="174"/>
+      <c r="S75" s="174"/>
     </row>
     <row r="76" spans="1:19">
       <c r="A76" s="16">
         <v>72</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D76" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E76" s="4">
@@ -19755,7 +19772,7 @@
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J76" s="22"/>
@@ -19773,47 +19790,47 @@
       <c r="A77" s="16">
         <v>73</v>
       </c>
-      <c r="B77" s="166" t="s">
-        <v>208</v>
-      </c>
-      <c r="C77" s="18" t="s">
+      <c r="B77" s="138" t="s">
+        <v>207</v>
+      </c>
+      <c r="C77" s="170" t="s">
         <v>109</v>
       </c>
-      <c r="D77" s="12" t="str">
-        <f t="shared" si="3"/>
+      <c r="D77" s="171" t="str">
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J77" s="22"/>
-      <c r="K77" s="22"/>
-      <c r="L77" s="22"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="22"/>
-      <c r="O77" s="22"/>
-      <c r="P77" s="22"/>
-      <c r="Q77" s="22"/>
-      <c r="R77" s="22"/>
-      <c r="S77" s="22"/>
+      <c r="E77" s="172"/>
+      <c r="F77" s="172"/>
+      <c r="G77" s="173"/>
+      <c r="H77" s="173"/>
+      <c r="I77" s="171" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="J77" s="174"/>
+      <c r="K77" s="174"/>
+      <c r="L77" s="174"/>
+      <c r="M77" s="174"/>
+      <c r="N77" s="174"/>
+      <c r="O77" s="174"/>
+      <c r="P77" s="174"/>
+      <c r="Q77" s="174"/>
+      <c r="R77" s="174"/>
+      <c r="S77" s="174"/>
     </row>
     <row r="78" spans="1:19">
       <c r="A78" s="16">
         <v>74</v>
       </c>
       <c r="B78" s="85" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C78" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D78" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E78" s="4">
@@ -19825,7 +19842,7 @@
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J78" s="22"/>
@@ -19844,13 +19861,13 @@
         <v>75</v>
       </c>
       <c r="B79" s="85" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D79" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E79" s="4">
@@ -19862,7 +19879,7 @@
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J79" s="22"/>
@@ -19885,7 +19902,7 @@
         <v>109</v>
       </c>
       <c r="D80" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E80" s="4"/>
@@ -19893,7 +19910,7 @@
       <c r="G80" s="19"/>
       <c r="H80" s="19"/>
       <c r="I80" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J80" s="22"/>
@@ -19916,7 +19933,7 @@
         <v>109</v>
       </c>
       <c r="D81" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E81" s="4"/>
@@ -19924,7 +19941,7 @@
       <c r="G81" s="19"/>
       <c r="H81" s="19"/>
       <c r="I81" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J81" s="22"/>
@@ -19947,7 +19964,7 @@
         <v>109</v>
       </c>
       <c r="D82" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E82" s="4"/>
@@ -19955,7 +19972,7 @@
       <c r="G82" s="19"/>
       <c r="H82" s="19"/>
       <c r="I82" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J82" s="22"/>
@@ -19978,7 +19995,7 @@
         <v>109</v>
       </c>
       <c r="D83" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E83" s="4"/>
@@ -19986,7 +20003,7 @@
       <c r="G83" s="19"/>
       <c r="H83" s="19"/>
       <c r="I83" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J83" s="22"/>
@@ -20004,47 +20021,47 @@
       <c r="A84" s="16">
         <v>80</v>
       </c>
-      <c r="B84" s="166" t="s">
-        <v>227</v>
-      </c>
-      <c r="C84" s="18" t="s">
+      <c r="B84" s="138" t="s">
+        <v>225</v>
+      </c>
+      <c r="C84" s="170" t="s">
         <v>111</v>
       </c>
-      <c r="D84" s="12" t="str">
-        <f t="shared" si="3"/>
+      <c r="D84" s="171" t="str">
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J84" s="22"/>
-      <c r="K84" s="22"/>
-      <c r="L84" s="22"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="22"/>
-      <c r="O84" s="22"/>
-      <c r="P84" s="22"/>
-      <c r="Q84" s="22"/>
-      <c r="R84" s="22"/>
-      <c r="S84" s="22"/>
+      <c r="E84" s="172"/>
+      <c r="F84" s="172"/>
+      <c r="G84" s="173"/>
+      <c r="H84" s="173"/>
+      <c r="I84" s="171" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="J84" s="174"/>
+      <c r="K84" s="174"/>
+      <c r="L84" s="174"/>
+      <c r="M84" s="174"/>
+      <c r="N84" s="174"/>
+      <c r="O84" s="174"/>
+      <c r="P84" s="174"/>
+      <c r="Q84" s="174"/>
+      <c r="R84" s="174"/>
+      <c r="S84" s="174"/>
     </row>
     <row r="85" spans="1:19">
       <c r="A85" s="16">
         <v>81</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>111</v>
       </c>
       <c r="D85" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E85" s="4">
@@ -20056,7 +20073,7 @@
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J85" s="22"/>
@@ -20075,13 +20092,13 @@
         <v>82</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C86" s="18" t="s">
         <v>111</v>
       </c>
       <c r="D86" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E86" s="4">
@@ -20093,7 +20110,7 @@
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J86" s="22"/>
@@ -20112,13 +20129,13 @@
         <v>83</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>111</v>
       </c>
       <c r="D87" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E87" s="4">
@@ -20130,7 +20147,7 @@
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J87" s="22"/>
@@ -20148,14 +20165,14 @@
       <c r="A88" s="16">
         <v>84</v>
       </c>
-      <c r="B88" s="166" t="s">
-        <v>228</v>
+      <c r="B88" s="17" t="s">
+        <v>176</v>
       </c>
       <c r="C88" s="18" t="s">
         <v>111</v>
       </c>
       <c r="D88" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E88" s="4"/>
@@ -20163,7 +20180,7 @@
       <c r="G88" s="19"/>
       <c r="H88" s="19"/>
       <c r="I88" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J88" s="22"/>
@@ -20181,55 +20198,51 @@
       <c r="A89" s="16">
         <v>85</v>
       </c>
-      <c r="B89" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="C89" s="18" t="s">
+      <c r="B89" s="138" t="s">
+        <v>226</v>
+      </c>
+      <c r="C89" s="170" t="s">
         <v>111</v>
       </c>
-      <c r="D89" s="12" t="str">
-        <f t="shared" si="3"/>
+      <c r="D89" s="171" t="str">
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E89" s="4">
-        <v>43060</v>
-      </c>
-      <c r="F89" s="4"/>
-      <c r="G89" s="19">
-        <v>3</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J89" s="22"/>
-      <c r="K89" s="22"/>
-      <c r="L89" s="22"/>
-      <c r="M89" s="22"/>
-      <c r="N89" s="22"/>
-      <c r="O89" s="22"/>
-      <c r="P89" s="22"/>
-      <c r="Q89" s="22"/>
-      <c r="R89" s="22"/>
-      <c r="S89" s="22"/>
+      <c r="E89" s="172"/>
+      <c r="F89" s="172"/>
+      <c r="G89" s="173"/>
+      <c r="H89" s="173"/>
+      <c r="I89" s="171" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="J89" s="174"/>
+      <c r="K89" s="174"/>
+      <c r="L89" s="174"/>
+      <c r="M89" s="174"/>
+      <c r="N89" s="174"/>
+      <c r="O89" s="174"/>
+      <c r="P89" s="174"/>
+      <c r="Q89" s="174"/>
+      <c r="R89" s="174"/>
+      <c r="S89" s="174"/>
     </row>
     <row r="90" spans="1:19">
       <c r="A90" s="16">
         <v>86</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C90" s="18" t="s">
         <v>111</v>
       </c>
       <c r="D90" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E90" s="4">
-        <v>43063</v>
+        <v>43060</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="19">
@@ -20237,7 +20250,7 @@
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J90" s="22"/>
@@ -20256,25 +20269,25 @@
         <v>87</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>111</v>
       </c>
       <c r="D91" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E91" s="4">
-        <v>43056</v>
+        <v>43063</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J91" s="22"/>
@@ -20293,25 +20306,25 @@
         <v>88</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C92" s="18" t="s">
         <v>111</v>
       </c>
       <c r="D92" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E92" s="4">
-        <v>43063</v>
+        <v>43056</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J92" s="22"/>
@@ -20330,25 +20343,25 @@
         <v>89</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C93" s="18" t="s">
         <v>111</v>
       </c>
       <c r="D93" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E93" s="4">
-        <v>43067</v>
+        <v>43063</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J93" s="22"/>
@@ -20366,22 +20379,26 @@
       <c r="A94" s="16">
         <v>90</v>
       </c>
-      <c r="B94" s="166" t="s">
-        <v>229</v>
+      <c r="B94" s="17" t="s">
+        <v>181</v>
       </c>
       <c r="C94" s="18" t="s">
         <v>111</v>
       </c>
       <c r="D94" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E94" s="4"/>
+      <c r="E94" s="4">
+        <v>43067</v>
+      </c>
       <c r="F94" s="4"/>
-      <c r="G94" s="19"/>
+      <c r="G94" s="19">
+        <v>2</v>
+      </c>
       <c r="H94" s="19"/>
       <c r="I94" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J94" s="22"/>
@@ -20399,57 +20416,59 @@
       <c r="A95" s="16">
         <v>91</v>
       </c>
-      <c r="B95" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="C95" s="18" t="s">
+      <c r="B95" s="138" t="s">
+        <v>227</v>
+      </c>
+      <c r="C95" s="170" t="s">
         <v>111</v>
       </c>
-      <c r="D95" s="12" t="str">
-        <f t="shared" si="3"/>
+      <c r="D95" s="171" t="str">
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E95" s="4">
-        <v>43070</v>
-      </c>
-      <c r="F95" s="4"/>
-      <c r="G95" s="19">
-        <v>3</v>
-      </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J95" s="22"/>
-      <c r="K95" s="22"/>
-      <c r="L95" s="22"/>
-      <c r="M95" s="22"/>
-      <c r="N95" s="22"/>
-      <c r="O95" s="22"/>
-      <c r="P95" s="22"/>
-      <c r="Q95" s="22"/>
-      <c r="R95" s="22"/>
-      <c r="S95" s="22"/>
+      <c r="E95" s="172"/>
+      <c r="F95" s="172"/>
+      <c r="G95" s="173"/>
+      <c r="H95" s="173"/>
+      <c r="I95" s="171" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="J95" s="174"/>
+      <c r="K95" s="174"/>
+      <c r="L95" s="174"/>
+      <c r="M95" s="174"/>
+      <c r="N95" s="174"/>
+      <c r="O95" s="174"/>
+      <c r="P95" s="174"/>
+      <c r="Q95" s="174"/>
+      <c r="R95" s="174"/>
+      <c r="S95" s="174"/>
     </row>
     <row r="96" spans="1:19">
       <c r="A96" s="16">
         <v>92</v>
       </c>
-      <c r="B96" s="17"/>
+      <c r="B96" s="17" t="s">
+        <v>182</v>
+      </c>
       <c r="C96" s="18" t="s">
         <v>111</v>
       </c>
       <c r="D96" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E96" s="4"/>
+        <f t="shared" si="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="E96" s="4">
+        <v>43070</v>
+      </c>
       <c r="F96" s="4"/>
-      <c r="G96" s="19"/>
+      <c r="G96" s="19">
+        <v>3</v>
+      </c>
       <c r="H96" s="19"/>
       <c r="I96" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J96" s="22"/>
@@ -20472,7 +20491,7 @@
         <v>111</v>
       </c>
       <c r="D97" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E97" s="4"/>
@@ -20480,7 +20499,7 @@
       <c r="G97" s="19"/>
       <c r="H97" s="19"/>
       <c r="I97" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J97" s="22"/>
@@ -20503,7 +20522,7 @@
         <v>111</v>
       </c>
       <c r="D98" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E98" s="4"/>
@@ -20511,7 +20530,7 @@
       <c r="G98" s="19"/>
       <c r="H98" s="19"/>
       <c r="I98" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J98" s="22"/>
@@ -20534,7 +20553,7 @@
         <v>111</v>
       </c>
       <c r="D99" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E99" s="4"/>
@@ -20542,7 +20561,7 @@
       <c r="G99" s="19"/>
       <c r="H99" s="19"/>
       <c r="I99" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J99" s="22"/>
@@ -20565,7 +20584,7 @@
         <v>111</v>
       </c>
       <c r="D100" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E100" s="4"/>
@@ -20573,7 +20592,7 @@
       <c r="G100" s="19"/>
       <c r="H100" s="19"/>
       <c r="I100" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J100" s="22"/>
@@ -20596,7 +20615,7 @@
         <v>111</v>
       </c>
       <c r="D101" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E101" s="4"/>
@@ -20604,7 +20623,7 @@
       <c r="G101" s="19"/>
       <c r="H101" s="19"/>
       <c r="I101" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J101" s="22"/>
@@ -20627,7 +20646,7 @@
         <v>111</v>
       </c>
       <c r="D102" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E102" s="4"/>
@@ -20635,7 +20654,7 @@
       <c r="G102" s="19"/>
       <c r="H102" s="19"/>
       <c r="I102" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J102" s="22"/>
@@ -20653,47 +20672,47 @@
       <c r="A103" s="16">
         <v>99</v>
       </c>
-      <c r="B103" s="166" t="s">
-        <v>239</v>
-      </c>
-      <c r="C103" s="18" t="s">
+      <c r="B103" s="138" t="s">
+        <v>241</v>
+      </c>
+      <c r="C103" s="170" t="s">
         <v>112</v>
       </c>
-      <c r="D103" s="12" t="str">
-        <f t="shared" si="3"/>
+      <c r="D103" s="171" t="str">
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="19"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J103" s="22"/>
-      <c r="K103" s="22"/>
-      <c r="L103" s="22"/>
-      <c r="M103" s="22"/>
-      <c r="N103" s="22"/>
-      <c r="O103" s="22"/>
-      <c r="P103" s="22"/>
-      <c r="Q103" s="22"/>
-      <c r="R103" s="22"/>
-      <c r="S103" s="22"/>
+      <c r="E103" s="172"/>
+      <c r="F103" s="172"/>
+      <c r="G103" s="173"/>
+      <c r="H103" s="173"/>
+      <c r="I103" s="171" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="J103" s="174"/>
+      <c r="K103" s="174"/>
+      <c r="L103" s="174"/>
+      <c r="M103" s="174"/>
+      <c r="N103" s="174"/>
+      <c r="O103" s="174"/>
+      <c r="P103" s="174"/>
+      <c r="Q103" s="174"/>
+      <c r="R103" s="174"/>
+      <c r="S103" s="174"/>
     </row>
     <row r="104" spans="1:26">
       <c r="A104" s="16">
         <v>100</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C104" s="18" t="s">
         <v>112</v>
       </c>
       <c r="D104" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E104" s="4">
@@ -20705,7 +20724,7 @@
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J104" s="22"/>
@@ -20724,74 +20743,74 @@
         <v>101</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C105" s="18" t="s">
         <v>112</v>
       </c>
       <c r="D105" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E105" s="163">
+      <c r="E105" s="135">
         <v>43053</v>
       </c>
-      <c r="F105" s="163"/>
-      <c r="G105" s="164">
+      <c r="F105" s="135"/>
+      <c r="G105" s="136">
         <v>4</v>
       </c>
-      <c r="H105" s="164"/>
+      <c r="H105" s="136"/>
       <c r="I105" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J105" s="165"/>
-      <c r="K105" s="165"/>
-      <c r="L105" s="165"/>
-      <c r="M105" s="165"/>
-      <c r="N105" s="165"/>
-      <c r="O105" s="165"/>
-      <c r="P105" s="165"/>
-      <c r="Q105" s="165"/>
-      <c r="R105" s="165"/>
-      <c r="S105" s="165"/>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="J105" s="137"/>
+      <c r="K105" s="137"/>
+      <c r="L105" s="137"/>
+      <c r="M105" s="137"/>
+      <c r="N105" s="137"/>
+      <c r="O105" s="137"/>
+      <c r="P105" s="137"/>
+      <c r="Q105" s="137"/>
+      <c r="R105" s="137"/>
+      <c r="S105" s="137"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1">
       <c r="A106" s="16">
         <v>102</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C106" s="18" t="s">
         <v>112</v>
       </c>
       <c r="D106" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E106" s="163">
+      <c r="E106" s="135">
         <v>43056</v>
       </c>
-      <c r="F106" s="163"/>
-      <c r="G106" s="164">
+      <c r="F106" s="135"/>
+      <c r="G106" s="136">
         <v>5</v>
       </c>
-      <c r="H106" s="164"/>
+      <c r="H106" s="136"/>
       <c r="I106" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J106" s="165"/>
-      <c r="K106" s="165"/>
-      <c r="L106" s="165"/>
-      <c r="M106" s="165"/>
-      <c r="N106" s="165"/>
-      <c r="O106" s="165"/>
-      <c r="P106" s="165"/>
-      <c r="Q106" s="165"/>
-      <c r="R106" s="165"/>
-      <c r="S106" s="165"/>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="J106" s="137"/>
+      <c r="K106" s="137"/>
+      <c r="L106" s="137"/>
+      <c r="M106" s="137"/>
+      <c r="N106" s="137"/>
+      <c r="O106" s="137"/>
+      <c r="P106" s="137"/>
+      <c r="Q106" s="137"/>
+      <c r="R106" s="137"/>
+      <c r="S106" s="137"/>
       <c r="U106" s="13" t="s">
         <v>11</v>
       </c>
@@ -20816,54 +20835,54 @@
         <v>103</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C107" s="18" t="s">
         <v>112</v>
       </c>
       <c r="D107" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E107" s="163">
+      <c r="E107" s="135">
         <v>43060</v>
       </c>
-      <c r="F107" s="163"/>
-      <c r="G107" s="164">
+      <c r="F107" s="135"/>
+      <c r="G107" s="136">
         <v>4</v>
       </c>
-      <c r="H107" s="164"/>
+      <c r="H107" s="136"/>
       <c r="I107" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J107" s="165"/>
-      <c r="K107" s="165"/>
-      <c r="L107" s="165"/>
-      <c r="M107" s="165"/>
-      <c r="N107" s="165"/>
-      <c r="O107" s="165"/>
-      <c r="P107" s="165"/>
-      <c r="Q107" s="165"/>
-      <c r="R107" s="165"/>
-      <c r="S107" s="165"/>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="J107" s="137"/>
+      <c r="K107" s="137"/>
+      <c r="L107" s="137"/>
+      <c r="M107" s="137"/>
+      <c r="N107" s="137"/>
+      <c r="O107" s="137"/>
+      <c r="P107" s="137"/>
+      <c r="Q107" s="137"/>
+      <c r="R107" s="137"/>
+      <c r="S107" s="137"/>
       <c r="U107" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V107" s="10">
-        <f t="shared" ref="V107:V116" si="4">SUMIF($C$5:$C$104,U107,$G$5:$G$104)</f>
+        <f t="shared" ref="V107:V116" si="5">SUMIF($C$5:$C$104,U107,$G$5:$G$104)</f>
         <v>0</v>
       </c>
       <c r="W107" s="10">
-        <f t="shared" ref="W107:W116" ca="1" si="5">SUMIF($C$5:$C$104,U107,$I$5:$I$104)</f>
+        <f t="shared" ref="W107:W116" ca="1" si="6">SUMIF($C$5:$C$104,U107,$I$5:$I$104)</f>
         <v>0</v>
       </c>
       <c r="X107" s="10">
-        <f t="shared" ref="X107:X116" si="6">SUMIF($C$5:$C$104,U107,$H$5:$H$104)</f>
+        <f t="shared" ref="X107:X116" si="7">SUMIF($C$5:$C$104,U107,$H$5:$H$104)</f>
         <v>0</v>
       </c>
       <c r="Y107" s="14">
-        <f t="shared" ref="Y107:Y116" si="7">COUNTA($J$2:$S$2)*6-COUNTA($J$4:$S$4)*6</f>
+        <f t="shared" ref="Y107:Y116" si="8">COUNTA($J$2:$S$2)*6-COUNTA($J$4:$S$4)*6</f>
         <v>54</v>
       </c>
       <c r="Z107" s="15">
@@ -20876,58 +20895,58 @@
         <v>104</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C108" s="18" t="s">
         <v>112</v>
       </c>
       <c r="D108" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E108" s="163">
+      <c r="E108" s="135">
         <v>43063</v>
       </c>
-      <c r="F108" s="163"/>
-      <c r="G108" s="164">
+      <c r="F108" s="135"/>
+      <c r="G108" s="136">
         <v>5</v>
       </c>
-      <c r="H108" s="164"/>
+      <c r="H108" s="136"/>
       <c r="I108" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J108" s="165"/>
-      <c r="K108" s="165"/>
-      <c r="L108" s="165"/>
-      <c r="M108" s="165"/>
-      <c r="N108" s="165"/>
-      <c r="O108" s="165"/>
-      <c r="P108" s="165"/>
-      <c r="Q108" s="165"/>
-      <c r="R108" s="165"/>
-      <c r="S108" s="165"/>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="J108" s="137"/>
+      <c r="K108" s="137"/>
+      <c r="L108" s="137"/>
+      <c r="M108" s="137"/>
+      <c r="N108" s="137"/>
+      <c r="O108" s="137"/>
+      <c r="P108" s="137"/>
+      <c r="Q108" s="137"/>
+      <c r="R108" s="137"/>
+      <c r="S108" s="137"/>
       <c r="U108" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V108" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="W108" s="10">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="X108" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="Y108" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="Z108" s="15">
-        <f t="shared" ref="Z108:Z116" ca="1" si="8">IF(Y108&gt;W108,0,W108-Y108)</f>
+        <f t="shared" ref="Z108:Z116" ca="1" si="9">IF(Y108&gt;W108,0,W108-Y108)</f>
         <v>0</v>
       </c>
     </row>
@@ -20936,58 +20955,58 @@
         <v>105</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C109" s="18" t="s">
         <v>112</v>
       </c>
       <c r="D109" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E109" s="163">
+      <c r="E109" s="135">
         <v>43067</v>
       </c>
-      <c r="F109" s="163"/>
-      <c r="G109" s="164">
+      <c r="F109" s="135"/>
+      <c r="G109" s="136">
         <v>3</v>
       </c>
-      <c r="H109" s="164"/>
+      <c r="H109" s="136"/>
       <c r="I109" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J109" s="165"/>
-      <c r="K109" s="165"/>
-      <c r="L109" s="165"/>
-      <c r="M109" s="165"/>
-      <c r="N109" s="165"/>
-      <c r="O109" s="165"/>
-      <c r="P109" s="165"/>
-      <c r="Q109" s="165"/>
-      <c r="R109" s="165"/>
-      <c r="S109" s="165"/>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="J109" s="137"/>
+      <c r="K109" s="137"/>
+      <c r="L109" s="137"/>
+      <c r="M109" s="137"/>
+      <c r="N109" s="137"/>
+      <c r="O109" s="137"/>
+      <c r="P109" s="137"/>
+      <c r="Q109" s="137"/>
+      <c r="R109" s="137"/>
+      <c r="S109" s="137"/>
       <c r="U109" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V109" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="W109" s="10">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="X109" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y109" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="Z109" s="15">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -20996,58 +21015,58 @@
         <v>106</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C110" s="18" t="s">
         <v>112</v>
       </c>
       <c r="D110" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E110" s="163">
+      <c r="E110" s="135">
         <v>43070</v>
       </c>
-      <c r="F110" s="163"/>
-      <c r="G110" s="164">
+      <c r="F110" s="135"/>
+      <c r="G110" s="136">
         <v>4</v>
       </c>
-      <c r="H110" s="164"/>
+      <c r="H110" s="136"/>
       <c r="I110" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J110" s="165"/>
-      <c r="K110" s="165"/>
-      <c r="L110" s="165"/>
-      <c r="M110" s="165"/>
-      <c r="N110" s="165"/>
-      <c r="O110" s="165"/>
-      <c r="P110" s="165"/>
-      <c r="Q110" s="165"/>
-      <c r="R110" s="165"/>
-      <c r="S110" s="165"/>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="J110" s="137"/>
+      <c r="K110" s="137"/>
+      <c r="L110" s="137"/>
+      <c r="M110" s="137"/>
+      <c r="N110" s="137"/>
+      <c r="O110" s="137"/>
+      <c r="P110" s="137"/>
+      <c r="Q110" s="137"/>
+      <c r="R110" s="137"/>
+      <c r="S110" s="137"/>
       <c r="U110" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="V110" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="W110" s="10">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="X110" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y110" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="Z110" s="15">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21056,62 +21075,63 @@
         <v>107</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C111" s="18" t="s">
         <v>112</v>
       </c>
       <c r="D111" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E111" s="163">
+      <c r="E111" s="135">
         <v>43077</v>
       </c>
-      <c r="F111" s="163"/>
-      <c r="G111" s="164">
+      <c r="F111" s="135"/>
+      <c r="G111" s="136">
         <v>5</v>
       </c>
-      <c r="H111" s="164"/>
+      <c r="H111" s="136"/>
       <c r="I111" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J111" s="165"/>
-      <c r="K111" s="165"/>
-      <c r="L111" s="165"/>
-      <c r="M111" s="165"/>
-      <c r="N111" s="165"/>
-      <c r="O111" s="165"/>
-      <c r="P111" s="165"/>
-      <c r="Q111" s="165"/>
-      <c r="R111" s="165"/>
-      <c r="S111" s="165"/>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="J111" s="137"/>
+      <c r="K111" s="137"/>
+      <c r="L111" s="137"/>
+      <c r="M111" s="137"/>
+      <c r="N111" s="137"/>
+      <c r="O111" s="137"/>
+      <c r="P111" s="137"/>
+      <c r="Q111" s="137"/>
+      <c r="R111" s="137"/>
+      <c r="S111" s="137"/>
       <c r="U111" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V111" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="W111" s="10">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="X111" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y111" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="Z111" s="15">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:26">
+      <c r="B112" s="17"/>
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
@@ -21124,27 +21144,28 @@
       <c r="S112" s="6"/>
       <c r="U112" s="11"/>
       <c r="V112" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W112" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X112" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y112" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="Z112" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="10:26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:26">
+      <c r="B113" s="17"/>
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
       <c r="L113" s="6"/>
@@ -21157,27 +21178,27 @@
       <c r="S113" s="6"/>
       <c r="U113" s="11"/>
       <c r="V113" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W113" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X113" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y113" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="Z113" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="10:26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:26">
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
       <c r="L114" s="6"/>
@@ -21190,27 +21211,27 @@
       <c r="S114" s="6"/>
       <c r="U114" s="11"/>
       <c r="V114" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W114" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X114" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y114" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="Z114" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="10:26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:26">
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
       <c r="L115" s="6"/>
@@ -21223,27 +21244,27 @@
       <c r="S115" s="6"/>
       <c r="U115" s="11"/>
       <c r="V115" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W115" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X115" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y115" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="Z115" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="10:26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:26">
       <c r="J116" s="6"/>
       <c r="K116" s="6"/>
       <c r="L116" s="6"/>
@@ -21256,27 +21277,27 @@
       <c r="S116" s="6"/>
       <c r="U116" s="11"/>
       <c r="V116" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W116" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X116" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y116" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="Z116" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="10:26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:26">
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
@@ -21288,7 +21309,7 @@
       <c r="R117" s="6"/>
       <c r="S117" s="6"/>
     </row>
-    <row r="118" spans="10:26">
+    <row r="118" spans="2:26">
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
       <c r="L118" s="6"/>
@@ -21300,7 +21321,7 @@
       <c r="R118" s="6"/>
       <c r="S118" s="6"/>
     </row>
-    <row r="119" spans="10:26">
+    <row r="119" spans="2:26">
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
       <c r="L119" s="6"/>
@@ -21312,7 +21333,7 @@
       <c r="R119" s="6"/>
       <c r="S119" s="6"/>
     </row>
-    <row r="120" spans="10:26">
+    <row r="120" spans="2:26">
       <c r="J120" s="6"/>
       <c r="K120" s="6"/>
       <c r="L120" s="6"/>
@@ -21324,7 +21345,7 @@
       <c r="R120" s="6"/>
       <c r="S120" s="6"/>
     </row>
-    <row r="121" spans="10:26">
+    <row r="121" spans="2:26">
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
       <c r="L121" s="6"/>
@@ -21336,7 +21357,7 @@
       <c r="R121" s="6"/>
       <c r="S121" s="6"/>
     </row>
-    <row r="122" spans="10:26">
+    <row r="122" spans="2:26">
       <c r="J122" s="6"/>
       <c r="K122" s="6"/>
       <c r="L122" s="6"/>
@@ -21348,7 +21369,7 @@
       <c r="R122" s="6"/>
       <c r="S122" s="6"/>
     </row>
-    <row r="123" spans="10:26">
+    <row r="123" spans="2:26">
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
       <c r="L123" s="6"/>
@@ -21360,7 +21381,7 @@
       <c r="R123" s="6"/>
       <c r="S123" s="6"/>
     </row>
-    <row r="124" spans="10:26">
+    <row r="124" spans="2:26">
       <c r="J124" s="6"/>
       <c r="K124" s="6"/>
       <c r="L124" s="6"/>
@@ -21372,7 +21393,7 @@
       <c r="R124" s="6"/>
       <c r="S124" s="6"/>
     </row>
-    <row r="125" spans="10:26">
+    <row r="125" spans="2:26">
       <c r="J125" s="6"/>
       <c r="K125" s="6"/>
       <c r="L125" s="6"/>
@@ -21384,7 +21405,7 @@
       <c r="R125" s="6"/>
       <c r="S125" s="6"/>
     </row>
-    <row r="126" spans="10:26">
+    <row r="126" spans="2:26">
       <c r="J126" s="6"/>
       <c r="K126" s="6"/>
       <c r="L126" s="6"/>
@@ -21396,7 +21417,7 @@
       <c r="R126" s="6"/>
       <c r="S126" s="6"/>
     </row>
-    <row r="127" spans="10:26">
+    <row r="127" spans="2:26">
       <c r="J127" s="6"/>
       <c r="K127" s="6"/>
       <c r="L127" s="6"/>
@@ -21408,7 +21429,7 @@
       <c r="R127" s="6"/>
       <c r="S127" s="6"/>
     </row>
-    <row r="128" spans="10:26">
+    <row r="128" spans="2:26">
       <c r="J128" s="6"/>
       <c r="K128" s="6"/>
       <c r="L128" s="6"/>
@@ -22155,39 +22176,28 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D112:D65536">
-    <cfRule type="expression" dxfId="38" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="7" stopIfTrue="1">
       <formula>D112="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="8" stopIfTrue="1">
       <formula>D112="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="9" stopIfTrue="1">
       <formula>OR(D112="終了",D112="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E101:H104 D101:D111 D5:XFD58 D59:H100 J59:XFD104 I59:I111 A5:A111">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="E101:H104 D101:D111 D5:XFD58 J59:XFD104 I59:I111 A5:A111 D59:H100">
+    <cfRule type="expression" dxfId="35" priority="10" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="11" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="12" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B65536">
-    <cfRule type="expression" dxfId="35" priority="10" stopIfTrue="1">
-      <formula>D112="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="11" stopIfTrue="1">
-      <formula>D112="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="12" stopIfTrue="1">
-      <formula>OR(D112="終了",D112="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C112:C65536">
     <cfRule type="expression" dxfId="32" priority="13" stopIfTrue="1">
       <formula>D112="未着手"</formula>
     </cfRule>
@@ -22198,26 +22208,48 @@
       <formula>OR(D112="終了",D112="完了")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C112:C65536">
+    <cfRule type="expression" dxfId="29" priority="16" stopIfTrue="1">
+      <formula>D112="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="17" stopIfTrue="1">
+      <formula>D112="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="18" stopIfTrue="1">
+      <formula>OR(D112="終了",D112="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E112:S65536 E105:H111 J105:S111">
-    <cfRule type="expression" dxfId="29" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="19" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="20" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="21" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:C111">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="B5:C111 B104:B113">
+    <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="21" priority="6" stopIfTrue="1">
+      <formula>OR($D5="終了",$D5="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B110:B111">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+      <formula>D110="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>D110="作業中"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>OR($D5="終了",$D5="完了")</formula>
+      <formula>OR(D110="終了",D110="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -22254,53 +22286,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="156" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="156" t="s">
+      <c r="C1" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="162" t="s">
+      <c r="E1" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="162" t="s">
+      <c r="F1" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="154" t="s">
+      <c r="G1" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="154" t="s">
+      <c r="H1" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="156" t="s">
+      <c r="I1" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="157" t="s">
+      <c r="J1" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="159"/>
-      <c r="O1" s="159"/>
-      <c r="P1" s="159"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="166"/>
+      <c r="O1" s="166"/>
+      <c r="P1" s="166"/>
     </row>
     <row r="2" spans="1:16" s="8" customFormat="1">
-      <c r="A2" s="156"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="156"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="163"/>
       <c r="J2" s="23" t="s">
         <v>66</v>
       </c>
@@ -22324,15 +22356,15 @@
       </c>
     </row>
     <row r="3" spans="1:16" s="8" customFormat="1">
-      <c r="A3" s="156"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="156"/>
+      <c r="A3" s="163"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="163"/>
       <c r="J3" s="20">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
         <v>0</v>
@@ -22345,15 +22377,15 @@
       <c r="P3" s="20"/>
     </row>
     <row r="4" spans="1:16" s="8" customFormat="1">
-      <c r="A4" s="156"/>
-      <c r="B4" s="160"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="156"/>
+      <c r="A4" s="163"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="162"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="163"/>
       <c r="J4" s="21">
         <f>SUM(J5:J104)</f>
         <v>0</v>
@@ -25452,57 +25484,57 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="26" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD104">
-    <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="20" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="17" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:P65536">
-    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="13" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="14" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="15" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26316,13 +26348,13 @@
   <autoFilter ref="B1:K51"/>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="A2:K51">
-    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>$D2="要望"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>$D2="確認済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>$D2="対応"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/タスク/07班スプリントバックログ.xlsx
+++ b/タスク/07班スプリントバックログ.xlsx
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="245">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -2685,6 +2685,30 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>ボスおばちゃんタスク</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>モデルタスク実装</t>
+    <rPh sb="6" eb="8">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>プレイヤーの挙動模倣(カゴを投げる以外)</t>
+    <rPh sb="6" eb="10">
+      <t>キョドウモホウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -2695,7 +2719,7 @@
     <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="\(aaa\)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2864,6 +2888,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -3565,7 +3596,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3944,6 +3975,25 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4026,24 +4076,130 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4053,7 +4209,53 @@
     <cellStyle name="標準_チーム編成" xfId="2"/>
     <cellStyle name="標準_バグシート" xfId="3"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="81">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="55"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="55"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -4198,6 +4400,29 @@
     </dxf>
     <dxf>
       <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="55"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="12"/>
@@ -5303,6 +5528,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -5436,6 +5662,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -5569,6 +5796,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -5681,6 +5909,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -6765,7 +6994,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6876,7 +7105,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>45</c:v>
@@ -6885,7 +7114,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -9016,19 +9245,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="147" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1">
-      <c r="D2" s="143" t="s">
+      <c r="D2" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="143"/>
+      <c r="E2" s="148"/>
     </row>
     <row r="3" spans="1:5" ht="7.5" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:5" s="46" customFormat="1" ht="14.25" thickBot="1">
@@ -9047,7 +9276,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="144" t="s">
+      <c r="A5" s="149" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="76"/>
@@ -9056,21 +9285,21 @@
       <c r="E5" s="49"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="145"/>
+      <c r="A6" s="150"/>
       <c r="B6" s="70"/>
       <c r="C6" s="50"/>
       <c r="D6" s="51"/>
       <c r="E6" s="52"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="145"/>
+      <c r="A7" s="150"/>
       <c r="B7" s="70"/>
       <c r="C7" s="50"/>
       <c r="D7" s="51"/>
       <c r="E7" s="52"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="145"/>
+      <c r="A8" s="150"/>
       <c r="B8" s="71">
         <v>43025</v>
       </c>
@@ -9079,7 +9308,7 @@
       <c r="E8" s="52"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="145"/>
+      <c r="A9" s="150"/>
       <c r="B9" s="72">
         <f>B8</f>
         <v>43025</v>
@@ -9089,49 +9318,49 @@
       <c r="E9" s="52"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="145"/>
+      <c r="A10" s="150"/>
       <c r="B10" s="72"/>
       <c r="C10" s="50"/>
       <c r="D10" s="51"/>
       <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="145"/>
+      <c r="A11" s="150"/>
       <c r="B11" s="71"/>
       <c r="C11" s="50"/>
       <c r="D11" s="51"/>
       <c r="E11" s="52"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="145"/>
+      <c r="A12" s="150"/>
       <c r="B12" s="69"/>
       <c r="C12" s="55"/>
       <c r="D12" s="51"/>
       <c r="E12" s="52"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="145"/>
+      <c r="A13" s="150"/>
       <c r="B13" s="68"/>
       <c r="C13" s="53"/>
       <c r="D13" s="51"/>
       <c r="E13" s="52"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="145"/>
+      <c r="A14" s="150"/>
       <c r="B14" s="70"/>
       <c r="C14" s="50"/>
       <c r="D14" s="51"/>
       <c r="E14" s="52"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="145"/>
+      <c r="A15" s="150"/>
       <c r="B15" s="71"/>
       <c r="C15" s="50"/>
       <c r="D15" s="51"/>
       <c r="E15" s="52"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="145"/>
+      <c r="A16" s="150"/>
       <c r="B16" s="71">
         <v>43028</v>
       </c>
@@ -9140,7 +9369,7 @@
       <c r="E16" s="52"/>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="145"/>
+      <c r="A17" s="150"/>
       <c r="B17" s="72">
         <f>B16</f>
         <v>43028</v>
@@ -9150,49 +9379,49 @@
       <c r="E17" s="52"/>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="145"/>
+      <c r="A18" s="150"/>
       <c r="B18" s="72"/>
       <c r="C18" s="50"/>
       <c r="D18" s="51"/>
       <c r="E18" s="52"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="145"/>
+      <c r="A19" s="150"/>
       <c r="B19" s="71"/>
       <c r="C19" s="50"/>
       <c r="D19" s="51"/>
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="145"/>
+      <c r="A20" s="150"/>
       <c r="B20" s="69"/>
       <c r="C20" s="55"/>
       <c r="D20" s="51"/>
       <c r="E20" s="52"/>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="145"/>
+      <c r="A21" s="150"/>
       <c r="B21" s="68"/>
       <c r="C21" s="53"/>
       <c r="D21" s="51"/>
       <c r="E21" s="52"/>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="145"/>
+      <c r="A22" s="150"/>
       <c r="B22" s="70"/>
       <c r="C22" s="50"/>
       <c r="D22" s="51"/>
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="145"/>
+      <c r="A23" s="150"/>
       <c r="B23" s="70"/>
       <c r="C23" s="50"/>
       <c r="D23" s="51"/>
       <c r="E23" s="52"/>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="145"/>
+      <c r="A24" s="150"/>
       <c r="B24" s="71">
         <v>43032</v>
       </c>
@@ -9201,7 +9430,7 @@
       <c r="E24" s="52"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="145"/>
+      <c r="A25" s="150"/>
       <c r="B25" s="72">
         <f>B24</f>
         <v>43032</v>
@@ -9211,49 +9440,49 @@
       <c r="E25" s="52"/>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="145"/>
+      <c r="A26" s="150"/>
       <c r="B26" s="72"/>
       <c r="C26" s="50"/>
       <c r="D26" s="51"/>
       <c r="E26" s="52"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="145"/>
+      <c r="A27" s="150"/>
       <c r="B27" s="71"/>
       <c r="C27" s="50"/>
       <c r="D27" s="51"/>
       <c r="E27" s="52"/>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="145"/>
+      <c r="A28" s="150"/>
       <c r="B28" s="70"/>
       <c r="C28" s="55"/>
       <c r="D28" s="51"/>
       <c r="E28" s="52"/>
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="145"/>
+      <c r="A29" s="150"/>
       <c r="B29" s="68"/>
       <c r="C29" s="78"/>
       <c r="D29" s="51"/>
       <c r="E29" s="54"/>
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="145"/>
+      <c r="A30" s="150"/>
       <c r="B30" s="70"/>
       <c r="C30" s="75"/>
       <c r="D30" s="51"/>
       <c r="E30" s="54"/>
     </row>
     <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="145"/>
+      <c r="A31" s="150"/>
       <c r="B31" s="70"/>
       <c r="C31" s="50"/>
       <c r="D31" s="51"/>
       <c r="E31" s="54"/>
     </row>
     <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="145"/>
+      <c r="A32" s="150"/>
       <c r="B32" s="71">
         <v>43035</v>
       </c>
@@ -9262,7 +9491,7 @@
       <c r="E32" s="52"/>
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="145"/>
+      <c r="A33" s="150"/>
       <c r="B33" s="72">
         <f>B32</f>
         <v>43035</v>
@@ -9272,49 +9501,49 @@
       <c r="E33" s="52"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="145"/>
+      <c r="A34" s="150"/>
       <c r="B34" s="72"/>
       <c r="C34" s="50"/>
       <c r="D34" s="51"/>
       <c r="E34" s="52"/>
     </row>
     <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="145"/>
+      <c r="A35" s="150"/>
       <c r="B35" s="71"/>
       <c r="C35" s="50"/>
       <c r="D35" s="51"/>
       <c r="E35" s="52"/>
     </row>
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="145"/>
+      <c r="A36" s="150"/>
       <c r="B36" s="69"/>
       <c r="C36" s="55"/>
       <c r="D36" s="51"/>
       <c r="E36" s="52"/>
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="145"/>
+      <c r="A37" s="150"/>
       <c r="B37" s="68"/>
       <c r="C37" s="50"/>
       <c r="D37" s="51"/>
       <c r="E37" s="52"/>
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="145"/>
+      <c r="A38" s="150"/>
       <c r="B38" s="70"/>
       <c r="C38" s="50"/>
       <c r="D38" s="51"/>
       <c r="E38" s="52"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="145"/>
+      <c r="A39" s="150"/>
       <c r="B39" s="70"/>
       <c r="C39" s="50"/>
       <c r="D39" s="51"/>
       <c r="E39" s="52"/>
     </row>
     <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="145"/>
+      <c r="A40" s="150"/>
       <c r="B40" s="71">
         <v>43039</v>
       </c>
@@ -9323,7 +9552,7 @@
       <c r="E40" s="52"/>
     </row>
     <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="145"/>
+      <c r="A41" s="150"/>
       <c r="B41" s="72">
         <f>B40</f>
         <v>43039</v>
@@ -9333,28 +9562,28 @@
       <c r="E41" s="52"/>
     </row>
     <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="145"/>
+      <c r="A42" s="150"/>
       <c r="B42" s="72"/>
       <c r="C42" s="50"/>
       <c r="D42" s="51"/>
       <c r="E42" s="52"/>
     </row>
     <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="145"/>
+      <c r="A43" s="150"/>
       <c r="B43" s="71"/>
       <c r="C43" s="50"/>
       <c r="D43" s="51"/>
       <c r="E43" s="52"/>
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="145"/>
+      <c r="A44" s="150"/>
       <c r="B44" s="69"/>
       <c r="C44" s="50"/>
       <c r="D44" s="51"/>
       <c r="E44" s="52"/>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="145"/>
+      <c r="A45" s="150"/>
       <c r="B45" s="87" t="s">
         <v>43</v>
       </c>
@@ -9363,21 +9592,21 @@
       <c r="E45" s="52"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="145"/>
+      <c r="A46" s="150"/>
       <c r="B46" s="70"/>
       <c r="C46" s="50"/>
       <c r="D46" s="51"/>
       <c r="E46" s="54"/>
     </row>
     <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="145"/>
+      <c r="A47" s="150"/>
       <c r="B47" s="70"/>
       <c r="C47" s="50"/>
       <c r="D47" s="51"/>
       <c r="E47" s="54"/>
     </row>
     <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="145"/>
+      <c r="A48" s="150"/>
       <c r="B48" s="71">
         <v>43042</v>
       </c>
@@ -9386,7 +9615,7 @@
       <c r="E48" s="54"/>
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="145"/>
+      <c r="A49" s="150"/>
       <c r="B49" s="72">
         <f>B48</f>
         <v>43042</v>
@@ -9396,28 +9625,28 @@
       <c r="E49" s="52"/>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="145"/>
+      <c r="A50" s="150"/>
       <c r="B50" s="72"/>
       <c r="C50" s="50"/>
       <c r="D50" s="56"/>
       <c r="E50" s="52"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="145"/>
+      <c r="A51" s="150"/>
       <c r="B51" s="71"/>
       <c r="C51" s="50"/>
       <c r="D51" s="56"/>
       <c r="E51" s="63"/>
     </row>
     <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="145"/>
+      <c r="A52" s="150"/>
       <c r="B52" s="69"/>
       <c r="C52" s="55"/>
       <c r="D52" s="56"/>
       <c r="E52" s="57"/>
     </row>
     <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="145"/>
+      <c r="A53" s="150"/>
       <c r="B53" s="80"/>
       <c r="C53" s="78" t="s">
         <v>41</v>
@@ -9426,7 +9655,7 @@
       <c r="E53" s="57"/>
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="145"/>
+      <c r="A54" s="150"/>
       <c r="B54" s="81"/>
       <c r="C54" s="75" t="s">
         <v>40</v>
@@ -9435,14 +9664,14 @@
       <c r="E54" s="57"/>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="145"/>
+      <c r="A55" s="150"/>
       <c r="B55" s="81"/>
       <c r="C55" s="50"/>
       <c r="D55" s="56"/>
       <c r="E55" s="57"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="145"/>
+      <c r="A56" s="150"/>
       <c r="B56" s="82">
         <v>43046</v>
       </c>
@@ -9451,7 +9680,7 @@
       <c r="E56" s="57"/>
     </row>
     <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A57" s="145"/>
+      <c r="A57" s="150"/>
       <c r="B57" s="83">
         <f>B56</f>
         <v>43046</v>
@@ -9461,28 +9690,28 @@
       <c r="E57" s="57"/>
     </row>
     <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="145"/>
+      <c r="A58" s="150"/>
       <c r="B58" s="83"/>
       <c r="C58" s="50"/>
       <c r="D58" s="56"/>
       <c r="E58" s="57"/>
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="145"/>
+      <c r="A59" s="150"/>
       <c r="B59" s="82"/>
       <c r="C59" s="50"/>
       <c r="D59" s="56"/>
       <c r="E59" s="57"/>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="145"/>
+      <c r="A60" s="150"/>
       <c r="B60" s="84"/>
       <c r="C60" s="55"/>
       <c r="D60" s="56"/>
       <c r="E60" s="57"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="145"/>
+      <c r="A61" s="150"/>
       <c r="B61" s="80"/>
       <c r="C61" s="78" t="s">
         <v>41</v>
@@ -9491,7 +9720,7 @@
       <c r="E61" s="57"/>
     </row>
     <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="145"/>
+      <c r="A62" s="150"/>
       <c r="B62" s="81"/>
       <c r="C62" s="75" t="s">
         <v>40</v>
@@ -9500,14 +9729,14 @@
       <c r="E62" s="57"/>
     </row>
     <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="145"/>
+      <c r="A63" s="150"/>
       <c r="B63" s="81"/>
       <c r="C63" s="50"/>
       <c r="D63" s="56"/>
       <c r="E63" s="57"/>
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="145"/>
+      <c r="A64" s="150"/>
       <c r="B64" s="82">
         <v>43049</v>
       </c>
@@ -9516,7 +9745,7 @@
       <c r="E64" s="57"/>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="145"/>
+      <c r="A65" s="150"/>
       <c r="B65" s="83">
         <f>B64</f>
         <v>43049</v>
@@ -9526,28 +9755,28 @@
       <c r="E65" s="57"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="145"/>
+      <c r="A66" s="150"/>
       <c r="B66" s="83"/>
       <c r="C66" s="50"/>
       <c r="D66" s="56"/>
       <c r="E66" s="57"/>
     </row>
     <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="145"/>
+      <c r="A67" s="150"/>
       <c r="B67" s="82"/>
       <c r="C67" s="50"/>
       <c r="D67" s="56"/>
       <c r="E67" s="57"/>
     </row>
     <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A68" s="145"/>
+      <c r="A68" s="150"/>
       <c r="B68" s="84"/>
       <c r="C68" s="55"/>
       <c r="D68" s="56"/>
       <c r="E68" s="57"/>
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="146" t="s">
+      <c r="A69" s="151" t="s">
         <v>45</v>
       </c>
       <c r="B69" s="76"/>
@@ -9556,21 +9785,21 @@
       <c r="E69" s="49"/>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="147"/>
+      <c r="A70" s="152"/>
       <c r="B70" s="70"/>
       <c r="C70" s="50"/>
       <c r="D70" s="89"/>
       <c r="E70" s="52"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="147"/>
+      <c r="A71" s="152"/>
       <c r="B71" s="70"/>
       <c r="C71" s="50"/>
       <c r="D71" s="89"/>
       <c r="E71" s="52"/>
     </row>
     <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="147"/>
+      <c r="A72" s="152"/>
       <c r="B72" s="71">
         <v>43053</v>
       </c>
@@ -9579,7 +9808,7 @@
       <c r="E72" s="52"/>
     </row>
     <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="147"/>
+      <c r="A73" s="152"/>
       <c r="B73" s="72">
         <f>B72</f>
         <v>43053</v>
@@ -9589,49 +9818,49 @@
       <c r="E73" s="57"/>
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="147"/>
+      <c r="A74" s="152"/>
       <c r="B74" s="72"/>
       <c r="C74" s="50"/>
       <c r="D74" s="90"/>
       <c r="E74" s="57"/>
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="147"/>
+      <c r="A75" s="152"/>
       <c r="B75" s="71"/>
       <c r="C75" s="50"/>
       <c r="D75" s="90"/>
       <c r="E75" s="57"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="147"/>
+      <c r="A76" s="152"/>
       <c r="B76" s="69"/>
       <c r="C76" s="55"/>
       <c r="D76" s="90"/>
       <c r="E76" s="57"/>
     </row>
     <row r="77" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="147"/>
+      <c r="A77" s="152"/>
       <c r="B77" s="70"/>
       <c r="C77" s="78"/>
       <c r="D77" s="89"/>
       <c r="E77" s="52"/>
     </row>
     <row r="78" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="147"/>
+      <c r="A78" s="152"/>
       <c r="B78" s="70"/>
       <c r="C78" s="75"/>
       <c r="D78" s="91"/>
       <c r="E78" s="54"/>
     </row>
     <row r="79" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="147"/>
+      <c r="A79" s="152"/>
       <c r="B79" s="70"/>
       <c r="C79" s="73"/>
       <c r="D79" s="91"/>
       <c r="E79" s="54"/>
     </row>
     <row r="80" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="147"/>
+      <c r="A80" s="152"/>
       <c r="B80" s="71">
         <v>43056</v>
       </c>
@@ -9640,7 +9869,7 @@
       <c r="E80" s="52"/>
     </row>
     <row r="81" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="147"/>
+      <c r="A81" s="152"/>
       <c r="B81" s="72">
         <f>B80</f>
         <v>43056</v>
@@ -9650,49 +9879,49 @@
       <c r="E81" s="52"/>
     </row>
     <row r="82" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="147"/>
+      <c r="A82" s="152"/>
       <c r="B82" s="72"/>
       <c r="C82" s="50"/>
       <c r="D82" s="89"/>
       <c r="E82" s="52"/>
     </row>
     <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="147"/>
+      <c r="A83" s="152"/>
       <c r="B83" s="71"/>
       <c r="C83" s="50"/>
       <c r="D83" s="89"/>
       <c r="E83" s="52"/>
     </row>
     <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="147"/>
+      <c r="A84" s="152"/>
       <c r="B84" s="70"/>
       <c r="C84" s="55"/>
       <c r="D84" s="90"/>
       <c r="E84" s="57"/>
     </row>
     <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="147"/>
+      <c r="A85" s="152"/>
       <c r="B85" s="68"/>
       <c r="C85" s="73"/>
       <c r="D85" s="89"/>
       <c r="E85" s="52"/>
     </row>
     <row r="86" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="147"/>
+      <c r="A86" s="152"/>
       <c r="B86" s="70"/>
       <c r="C86" s="73"/>
       <c r="D86" s="91"/>
       <c r="E86" s="54"/>
     </row>
     <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A87" s="147"/>
+      <c r="A87" s="152"/>
       <c r="B87" s="70"/>
       <c r="C87" s="73"/>
       <c r="D87" s="91"/>
       <c r="E87" s="54"/>
     </row>
     <row r="88" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A88" s="147"/>
+      <c r="A88" s="152"/>
       <c r="B88" s="71">
         <v>43060</v>
       </c>
@@ -9701,7 +9930,7 @@
       <c r="E88" s="52"/>
     </row>
     <row r="89" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A89" s="147"/>
+      <c r="A89" s="152"/>
       <c r="B89" s="72">
         <f>B88</f>
         <v>43060</v>
@@ -9711,49 +9940,49 @@
       <c r="E89" s="52"/>
     </row>
     <row r="90" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A90" s="147"/>
+      <c r="A90" s="152"/>
       <c r="B90" s="72"/>
       <c r="C90" s="50"/>
       <c r="D90" s="89"/>
       <c r="E90" s="52"/>
     </row>
     <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="147"/>
+      <c r="A91" s="152"/>
       <c r="B91" s="71"/>
       <c r="C91" s="50"/>
       <c r="D91" s="89"/>
       <c r="E91" s="52"/>
     </row>
     <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A92" s="147"/>
+      <c r="A92" s="152"/>
       <c r="B92" s="69"/>
       <c r="C92" s="55"/>
       <c r="D92" s="89"/>
       <c r="E92" s="52"/>
     </row>
     <row r="93" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A93" s="147"/>
+      <c r="A93" s="152"/>
       <c r="B93" s="70"/>
       <c r="C93" s="73"/>
       <c r="D93" s="89"/>
       <c r="E93" s="54"/>
     </row>
     <row r="94" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A94" s="147"/>
+      <c r="A94" s="152"/>
       <c r="B94" s="70"/>
       <c r="C94" s="75"/>
       <c r="D94" s="89"/>
       <c r="E94" s="54"/>
     </row>
     <row r="95" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A95" s="147"/>
+      <c r="A95" s="152"/>
       <c r="B95" s="70"/>
       <c r="C95" s="75"/>
       <c r="D95" s="89"/>
       <c r="E95" s="54"/>
     </row>
     <row r="96" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A96" s="147"/>
+      <c r="A96" s="152"/>
       <c r="B96" s="71">
         <v>43063</v>
       </c>
@@ -9762,7 +9991,7 @@
       <c r="E96" s="52"/>
     </row>
     <row r="97" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A97" s="147"/>
+      <c r="A97" s="152"/>
       <c r="B97" s="72">
         <f>B96</f>
         <v>43063</v>
@@ -9772,49 +10001,49 @@
       <c r="E97" s="52"/>
     </row>
     <row r="98" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A98" s="147"/>
+      <c r="A98" s="152"/>
       <c r="B98" s="72"/>
       <c r="C98" s="50"/>
       <c r="D98" s="89"/>
       <c r="E98" s="52"/>
     </row>
     <row r="99" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A99" s="147"/>
+      <c r="A99" s="152"/>
       <c r="B99" s="71"/>
       <c r="C99" s="50"/>
       <c r="D99" s="89"/>
       <c r="E99" s="52"/>
     </row>
     <row r="100" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A100" s="147"/>
+      <c r="A100" s="152"/>
       <c r="B100" s="69"/>
       <c r="C100" s="55"/>
       <c r="D100" s="89"/>
       <c r="E100" s="52"/>
     </row>
     <row r="101" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A101" s="147"/>
+      <c r="A101" s="152"/>
       <c r="B101" s="70"/>
       <c r="C101" s="78"/>
       <c r="D101" s="89"/>
       <c r="E101" s="54"/>
     </row>
     <row r="102" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A102" s="147"/>
+      <c r="A102" s="152"/>
       <c r="B102" s="70"/>
       <c r="C102" s="75"/>
       <c r="D102" s="89"/>
       <c r="E102" s="52"/>
     </row>
     <row r="103" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A103" s="147"/>
+      <c r="A103" s="152"/>
       <c r="B103" s="70"/>
       <c r="C103" s="75"/>
       <c r="D103" s="89"/>
       <c r="E103" s="52"/>
     </row>
     <row r="104" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A104" s="147"/>
+      <c r="A104" s="152"/>
       <c r="B104" s="71">
         <v>43067</v>
       </c>
@@ -9823,7 +10052,7 @@
       <c r="E104" s="52"/>
     </row>
     <row r="105" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A105" s="147"/>
+      <c r="A105" s="152"/>
       <c r="B105" s="72">
         <f>B104</f>
         <v>43067</v>
@@ -9833,49 +10062,49 @@
       <c r="E105" s="52"/>
     </row>
     <row r="106" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A106" s="147"/>
+      <c r="A106" s="152"/>
       <c r="B106" s="72"/>
       <c r="C106" s="50"/>
       <c r="D106" s="89"/>
       <c r="E106" s="52"/>
     </row>
     <row r="107" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A107" s="147"/>
+      <c r="A107" s="152"/>
       <c r="B107" s="71"/>
       <c r="C107" s="50"/>
       <c r="D107" s="89"/>
       <c r="E107" s="52"/>
     </row>
     <row r="108" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A108" s="147"/>
+      <c r="A108" s="152"/>
       <c r="B108" s="69"/>
       <c r="C108" s="55"/>
       <c r="D108" s="51"/>
       <c r="E108" s="52"/>
     </row>
     <row r="109" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A109" s="147"/>
+      <c r="A109" s="152"/>
       <c r="B109" s="70"/>
       <c r="C109" s="73"/>
       <c r="D109" s="91"/>
       <c r="E109" s="54"/>
     </row>
     <row r="110" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A110" s="147"/>
+      <c r="A110" s="152"/>
       <c r="B110" s="70"/>
       <c r="C110" s="75"/>
       <c r="D110" s="89"/>
       <c r="E110" s="54"/>
     </row>
     <row r="111" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A111" s="147"/>
+      <c r="A111" s="152"/>
       <c r="B111" s="70"/>
       <c r="C111" s="75"/>
       <c r="D111" s="89"/>
       <c r="E111" s="54"/>
     </row>
     <row r="112" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A112" s="147"/>
+      <c r="A112" s="152"/>
       <c r="B112" s="71">
         <v>43070</v>
       </c>
@@ -9884,7 +10113,7 @@
       <c r="E112" s="52"/>
     </row>
     <row r="113" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A113" s="147"/>
+      <c r="A113" s="152"/>
       <c r="B113" s="72">
         <f>B112</f>
         <v>43070</v>
@@ -9894,49 +10123,49 @@
       <c r="E113" s="52"/>
     </row>
     <row r="114" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A114" s="147"/>
+      <c r="A114" s="152"/>
       <c r="B114" s="72"/>
       <c r="C114" s="50"/>
       <c r="D114" s="89"/>
       <c r="E114" s="52"/>
     </row>
     <row r="115" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A115" s="147"/>
+      <c r="A115" s="152"/>
       <c r="B115" s="71"/>
       <c r="C115" s="50"/>
       <c r="D115" s="89"/>
       <c r="E115" s="52"/>
     </row>
     <row r="116" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A116" s="147"/>
+      <c r="A116" s="152"/>
       <c r="B116" s="69"/>
       <c r="C116" s="55"/>
       <c r="D116" s="89"/>
       <c r="E116" s="52"/>
     </row>
     <row r="117" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A117" s="147"/>
+      <c r="A117" s="152"/>
       <c r="B117" s="70"/>
       <c r="C117" s="73"/>
       <c r="D117" s="89"/>
       <c r="E117" s="52"/>
     </row>
     <row r="118" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A118" s="147"/>
+      <c r="A118" s="152"/>
       <c r="B118" s="70"/>
       <c r="C118" s="75"/>
       <c r="D118" s="89"/>
       <c r="E118" s="52"/>
     </row>
     <row r="119" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A119" s="147"/>
+      <c r="A119" s="152"/>
       <c r="B119" s="70"/>
       <c r="C119" s="75"/>
       <c r="D119" s="89"/>
       <c r="E119" s="52"/>
     </row>
     <row r="120" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A120" s="147"/>
+      <c r="A120" s="152"/>
       <c r="B120" s="71">
         <v>43074</v>
       </c>
@@ -9945,7 +10174,7 @@
       <c r="E120" s="52"/>
     </row>
     <row r="121" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A121" s="147"/>
+      <c r="A121" s="152"/>
       <c r="B121" s="72">
         <f>B120</f>
         <v>43074</v>
@@ -9955,49 +10184,49 @@
       <c r="E121" s="52"/>
     </row>
     <row r="122" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A122" s="147"/>
+      <c r="A122" s="152"/>
       <c r="B122" s="72"/>
       <c r="C122" s="50"/>
       <c r="D122" s="89"/>
       <c r="E122" s="52"/>
     </row>
     <row r="123" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A123" s="147"/>
+      <c r="A123" s="152"/>
       <c r="B123" s="71"/>
       <c r="C123" s="50"/>
       <c r="D123" s="89"/>
       <c r="E123" s="52"/>
     </row>
     <row r="124" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A124" s="147"/>
+      <c r="A124" s="152"/>
       <c r="B124" s="69"/>
       <c r="C124" s="55"/>
       <c r="D124" s="89"/>
       <c r="E124" s="52"/>
     </row>
     <row r="125" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A125" s="147"/>
+      <c r="A125" s="152"/>
       <c r="B125" s="70"/>
       <c r="C125" s="73"/>
       <c r="D125" s="89"/>
       <c r="E125" s="52"/>
     </row>
     <row r="126" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A126" s="147"/>
+      <c r="A126" s="152"/>
       <c r="B126" s="70"/>
       <c r="C126" s="75"/>
       <c r="D126" s="89"/>
       <c r="E126" s="52"/>
     </row>
     <row r="127" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A127" s="147"/>
+      <c r="A127" s="152"/>
       <c r="B127" s="70"/>
       <c r="C127" s="75"/>
       <c r="D127" s="89"/>
       <c r="E127" s="52"/>
     </row>
     <row r="128" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A128" s="147"/>
+      <c r="A128" s="152"/>
       <c r="B128" s="71">
         <v>43077</v>
       </c>
@@ -10006,7 +10235,7 @@
       <c r="E128" s="52"/>
     </row>
     <row r="129" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A129" s="147"/>
+      <c r="A129" s="152"/>
       <c r="B129" s="72">
         <f>B128</f>
         <v>43077</v>
@@ -10016,28 +10245,28 @@
       <c r="E129" s="52"/>
     </row>
     <row r="130" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A130" s="147"/>
+      <c r="A130" s="152"/>
       <c r="B130" s="72"/>
       <c r="C130" s="50"/>
       <c r="D130" s="89"/>
       <c r="E130" s="52"/>
     </row>
     <row r="131" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A131" s="147"/>
+      <c r="A131" s="152"/>
       <c r="B131" s="71"/>
       <c r="C131" s="50"/>
       <c r="D131" s="89"/>
       <c r="E131" s="52"/>
     </row>
     <row r="132" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A132" s="147"/>
+      <c r="A132" s="152"/>
       <c r="B132" s="69"/>
       <c r="C132" s="55"/>
       <c r="D132" s="89"/>
       <c r="E132" s="52"/>
     </row>
     <row r="133" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A133" s="147"/>
+      <c r="A133" s="152"/>
       <c r="B133" s="81"/>
       <c r="C133" s="78" t="s">
         <v>42</v>
@@ -10046,7 +10275,7 @@
       <c r="E133" s="52"/>
     </row>
     <row r="134" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A134" s="147"/>
+      <c r="A134" s="152"/>
       <c r="B134" s="81"/>
       <c r="C134" s="75" t="s">
         <v>40</v>
@@ -10055,14 +10284,14 @@
       <c r="E134" s="52"/>
     </row>
     <row r="135" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A135" s="147"/>
+      <c r="A135" s="152"/>
       <c r="B135" s="81"/>
       <c r="C135" s="75"/>
       <c r="D135" s="89"/>
       <c r="E135" s="52"/>
     </row>
     <row r="136" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A136" s="147"/>
+      <c r="A136" s="152"/>
       <c r="B136" s="82">
         <v>43081</v>
       </c>
@@ -10071,7 +10300,7 @@
       <c r="E136" s="52"/>
     </row>
     <row r="137" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A137" s="147"/>
+      <c r="A137" s="152"/>
       <c r="B137" s="83">
         <f>B136</f>
         <v>43081</v>
@@ -10081,28 +10310,28 @@
       <c r="E137" s="52"/>
     </row>
     <row r="138" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A138" s="147"/>
+      <c r="A138" s="152"/>
       <c r="B138" s="83"/>
       <c r="C138" s="50"/>
       <c r="D138" s="89"/>
       <c r="E138" s="52"/>
     </row>
     <row r="139" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A139" s="147"/>
+      <c r="A139" s="152"/>
       <c r="B139" s="82"/>
       <c r="C139" s="50"/>
       <c r="D139" s="89"/>
       <c r="E139" s="52"/>
     </row>
     <row r="140" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A140" s="147"/>
+      <c r="A140" s="152"/>
       <c r="B140" s="84"/>
       <c r="C140" s="55"/>
       <c r="D140" s="89"/>
       <c r="E140" s="52"/>
     </row>
     <row r="141" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A141" s="147"/>
+      <c r="A141" s="152"/>
       <c r="B141" s="81"/>
       <c r="C141" s="78" t="s">
         <v>42</v>
@@ -10111,7 +10340,7 @@
       <c r="E141" s="52"/>
     </row>
     <row r="142" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A142" s="147"/>
+      <c r="A142" s="152"/>
       <c r="B142" s="81"/>
       <c r="C142" s="75" t="s">
         <v>40</v>
@@ -10120,14 +10349,14 @@
       <c r="E142" s="52"/>
     </row>
     <row r="143" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A143" s="147"/>
+      <c r="A143" s="152"/>
       <c r="B143" s="81"/>
       <c r="C143" s="75"/>
       <c r="D143" s="89"/>
       <c r="E143" s="52"/>
     </row>
     <row r="144" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A144" s="147"/>
+      <c r="A144" s="152"/>
       <c r="B144" s="82">
         <v>43084</v>
       </c>
@@ -10136,7 +10365,7 @@
       <c r="E144" s="52"/>
     </row>
     <row r="145" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A145" s="147"/>
+      <c r="A145" s="152"/>
       <c r="B145" s="83">
         <f>B144</f>
         <v>43084</v>
@@ -10146,28 +10375,28 @@
       <c r="E145" s="52"/>
     </row>
     <row r="146" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A146" s="147"/>
+      <c r="A146" s="152"/>
       <c r="B146" s="83"/>
       <c r="C146" s="50"/>
       <c r="D146" s="89"/>
       <c r="E146" s="52"/>
     </row>
     <row r="147" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A147" s="147"/>
+      <c r="A147" s="152"/>
       <c r="B147" s="82"/>
       <c r="C147" s="50"/>
       <c r="D147" s="89"/>
       <c r="E147" s="52"/>
     </row>
     <row r="148" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A148" s="148"/>
+      <c r="A148" s="153"/>
       <c r="B148" s="94"/>
       <c r="C148" s="58"/>
       <c r="D148" s="92"/>
       <c r="E148" s="59"/>
     </row>
     <row r="149" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A149" s="149" t="s">
+      <c r="A149" s="154" t="s">
         <v>47</v>
       </c>
       <c r="B149" s="76"/>
@@ -10176,21 +10405,21 @@
       <c r="E149" s="49"/>
     </row>
     <row r="150" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A150" s="150"/>
+      <c r="A150" s="155"/>
       <c r="B150" s="70"/>
       <c r="C150" s="75"/>
       <c r="D150" s="89"/>
       <c r="E150" s="52"/>
     </row>
     <row r="151" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A151" s="150"/>
+      <c r="A151" s="155"/>
       <c r="B151" s="70"/>
       <c r="C151" s="75"/>
       <c r="D151" s="89"/>
       <c r="E151" s="52"/>
     </row>
     <row r="152" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A152" s="150"/>
+      <c r="A152" s="155"/>
       <c r="B152" s="71">
         <v>43088</v>
       </c>
@@ -10199,7 +10428,7 @@
       <c r="E152" s="52"/>
     </row>
     <row r="153" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A153" s="150"/>
+      <c r="A153" s="155"/>
       <c r="B153" s="72">
         <f>B152</f>
         <v>43088</v>
@@ -10209,49 +10438,49 @@
       <c r="E153" s="52"/>
     </row>
     <row r="154" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A154" s="150"/>
+      <c r="A154" s="155"/>
       <c r="B154" s="72"/>
       <c r="C154" s="50"/>
       <c r="D154" s="89"/>
       <c r="E154" s="52"/>
     </row>
     <row r="155" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A155" s="150"/>
+      <c r="A155" s="155"/>
       <c r="B155" s="71"/>
       <c r="C155" s="50"/>
       <c r="D155" s="89"/>
       <c r="E155" s="52"/>
     </row>
     <row r="156" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A156" s="150"/>
+      <c r="A156" s="155"/>
       <c r="B156" s="69"/>
       <c r="C156" s="60"/>
       <c r="D156" s="89"/>
       <c r="E156" s="52"/>
     </row>
     <row r="157" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A157" s="150"/>
+      <c r="A157" s="155"/>
       <c r="B157" s="70"/>
       <c r="C157" s="75"/>
       <c r="D157" s="91"/>
       <c r="E157" s="54"/>
     </row>
     <row r="158" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A158" s="150"/>
+      <c r="A158" s="155"/>
       <c r="B158" s="65"/>
       <c r="C158" s="75"/>
       <c r="D158" s="91"/>
       <c r="E158" s="54"/>
     </row>
     <row r="159" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A159" s="150"/>
+      <c r="A159" s="155"/>
       <c r="B159" s="65"/>
       <c r="C159" s="50"/>
       <c r="D159" s="91"/>
       <c r="E159" s="54"/>
     </row>
     <row r="160" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A160" s="150"/>
+      <c r="A160" s="155"/>
       <c r="B160" s="71">
         <v>43091</v>
       </c>
@@ -10260,7 +10489,7 @@
       <c r="E160" s="52"/>
     </row>
     <row r="161" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A161" s="150"/>
+      <c r="A161" s="155"/>
       <c r="B161" s="77">
         <f>B160</f>
         <v>43091</v>
@@ -10270,49 +10499,49 @@
       <c r="E161" s="52"/>
     </row>
     <row r="162" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A162" s="150"/>
+      <c r="A162" s="155"/>
       <c r="B162" s="77"/>
       <c r="C162" s="50"/>
       <c r="D162" s="89"/>
       <c r="E162" s="52"/>
     </row>
     <row r="163" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A163" s="150"/>
+      <c r="A163" s="155"/>
       <c r="B163" s="66"/>
       <c r="C163" s="50"/>
       <c r="D163" s="89"/>
       <c r="E163" s="52"/>
     </row>
     <row r="164" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A164" s="150"/>
+      <c r="A164" s="155"/>
       <c r="B164" s="67"/>
       <c r="C164" s="55"/>
       <c r="D164" s="89"/>
       <c r="E164" s="52"/>
     </row>
     <row r="165" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A165" s="150"/>
+      <c r="A165" s="155"/>
       <c r="B165" s="70"/>
       <c r="C165" s="75"/>
       <c r="D165" s="89"/>
       <c r="E165" s="54"/>
     </row>
     <row r="166" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A166" s="150"/>
+      <c r="A166" s="155"/>
       <c r="B166" s="70"/>
       <c r="C166" s="75"/>
       <c r="D166" s="89"/>
       <c r="E166" s="54"/>
     </row>
     <row r="167" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A167" s="150"/>
+      <c r="A167" s="155"/>
       <c r="B167" s="70"/>
       <c r="C167" s="75"/>
       <c r="D167" s="89"/>
       <c r="E167" s="54"/>
     </row>
     <row r="168" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A168" s="150"/>
+      <c r="A168" s="155"/>
       <c r="B168" s="71">
         <v>43105</v>
       </c>
@@ -10321,7 +10550,7 @@
       <c r="E168" s="54"/>
     </row>
     <row r="169" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A169" s="150"/>
+      <c r="A169" s="155"/>
       <c r="B169" s="72">
         <f>B168</f>
         <v>43105</v>
@@ -10331,49 +10560,49 @@
       <c r="E169" s="54"/>
     </row>
     <row r="170" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A170" s="150"/>
+      <c r="A170" s="155"/>
       <c r="B170" s="72"/>
       <c r="C170" s="50"/>
       <c r="D170" s="89"/>
       <c r="E170" s="54"/>
     </row>
     <row r="171" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A171" s="150"/>
+      <c r="A171" s="155"/>
       <c r="B171" s="71"/>
       <c r="C171" s="50"/>
       <c r="D171" s="89"/>
       <c r="E171" s="54"/>
     </row>
     <row r="172" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A172" s="150"/>
+      <c r="A172" s="155"/>
       <c r="B172" s="69"/>
       <c r="C172" s="55"/>
       <c r="D172" s="89"/>
       <c r="E172" s="54"/>
     </row>
     <row r="173" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A173" s="150"/>
+      <c r="A173" s="155"/>
       <c r="B173" s="70"/>
       <c r="C173" s="73"/>
       <c r="D173" s="89"/>
       <c r="E173" s="54"/>
     </row>
     <row r="174" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A174" s="150"/>
+      <c r="A174" s="155"/>
       <c r="B174" s="70"/>
       <c r="C174" s="75"/>
       <c r="D174" s="89"/>
       <c r="E174" s="54"/>
     </row>
     <row r="175" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A175" s="150"/>
+      <c r="A175" s="155"/>
       <c r="B175" s="70"/>
       <c r="C175" s="75"/>
       <c r="D175" s="89"/>
       <c r="E175" s="54"/>
     </row>
     <row r="176" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A176" s="150"/>
+      <c r="A176" s="155"/>
       <c r="B176" s="71">
         <v>43109</v>
       </c>
@@ -10382,7 +10611,7 @@
       <c r="E176" s="54"/>
     </row>
     <row r="177" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A177" s="150"/>
+      <c r="A177" s="155"/>
       <c r="B177" s="72">
         <f>B176</f>
         <v>43109</v>
@@ -10392,49 +10621,49 @@
       <c r="E177" s="54"/>
     </row>
     <row r="178" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A178" s="150"/>
+      <c r="A178" s="155"/>
       <c r="B178" s="72"/>
       <c r="C178" s="50"/>
       <c r="D178" s="89"/>
       <c r="E178" s="54"/>
     </row>
     <row r="179" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A179" s="150"/>
+      <c r="A179" s="155"/>
       <c r="B179" s="71"/>
       <c r="C179" s="50"/>
       <c r="D179" s="89"/>
       <c r="E179" s="54"/>
     </row>
     <row r="180" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A180" s="150"/>
+      <c r="A180" s="155"/>
       <c r="B180" s="69"/>
       <c r="C180" s="55"/>
       <c r="D180" s="89"/>
       <c r="E180" s="54"/>
     </row>
     <row r="181" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A181" s="150"/>
+      <c r="A181" s="155"/>
       <c r="B181" s="70"/>
       <c r="C181" s="75"/>
       <c r="D181" s="89"/>
       <c r="E181" s="54"/>
     </row>
     <row r="182" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A182" s="150"/>
+      <c r="A182" s="155"/>
       <c r="B182" s="70"/>
       <c r="C182" s="75"/>
       <c r="D182" s="89"/>
       <c r="E182" s="54"/>
     </row>
     <row r="183" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A183" s="150"/>
+      <c r="A183" s="155"/>
       <c r="B183" s="70"/>
       <c r="C183" s="75"/>
       <c r="D183" s="89"/>
       <c r="E183" s="54"/>
     </row>
     <row r="184" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A184" s="150"/>
+      <c r="A184" s="155"/>
       <c r="B184" s="71">
         <v>43112</v>
       </c>
@@ -10443,7 +10672,7 @@
       <c r="E184" s="54"/>
     </row>
     <row r="185" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A185" s="150"/>
+      <c r="A185" s="155"/>
       <c r="B185" s="72">
         <f>B184</f>
         <v>43112</v>
@@ -10453,28 +10682,28 @@
       <c r="E185" s="54"/>
     </row>
     <row r="186" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A186" s="150"/>
+      <c r="A186" s="155"/>
       <c r="B186" s="72"/>
       <c r="C186" s="50"/>
       <c r="D186" s="89"/>
       <c r="E186" s="54"/>
     </row>
     <row r="187" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A187" s="150"/>
+      <c r="A187" s="155"/>
       <c r="B187" s="71"/>
       <c r="C187" s="50"/>
       <c r="D187" s="89"/>
       <c r="E187" s="54"/>
     </row>
     <row r="188" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A188" s="150"/>
+      <c r="A188" s="155"/>
       <c r="B188" s="69"/>
       <c r="C188" s="55"/>
       <c r="D188" s="89"/>
       <c r="E188" s="54"/>
     </row>
     <row r="189" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A189" s="150"/>
+      <c r="A189" s="155"/>
       <c r="B189" s="95"/>
       <c r="C189" s="75" t="s">
         <v>48</v>
@@ -10483,7 +10712,7 @@
       <c r="E189" s="54"/>
     </row>
     <row r="190" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A190" s="150"/>
+      <c r="A190" s="155"/>
       <c r="B190" s="96"/>
       <c r="C190" s="75" t="s">
         <v>40</v>
@@ -10492,14 +10721,14 @@
       <c r="E190" s="54"/>
     </row>
     <row r="191" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A191" s="150"/>
+      <c r="A191" s="155"/>
       <c r="B191" s="96"/>
       <c r="C191" s="75"/>
       <c r="D191" s="89"/>
       <c r="E191" s="54"/>
     </row>
     <row r="192" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A192" s="150"/>
+      <c r="A192" s="155"/>
       <c r="B192" s="82">
         <v>43116</v>
       </c>
@@ -10508,7 +10737,7 @@
       <c r="E192" s="52"/>
     </row>
     <row r="193" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A193" s="150"/>
+      <c r="A193" s="155"/>
       <c r="B193" s="97">
         <f>B192</f>
         <v>43116</v>
@@ -10518,28 +10747,28 @@
       <c r="E193" s="52"/>
     </row>
     <row r="194" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A194" s="150"/>
+      <c r="A194" s="155"/>
       <c r="B194" s="97"/>
       <c r="C194" s="50"/>
       <c r="D194" s="89"/>
       <c r="E194" s="52"/>
     </row>
     <row r="195" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A195" s="150"/>
+      <c r="A195" s="155"/>
       <c r="B195" s="98"/>
       <c r="C195" s="50"/>
       <c r="D195" s="89"/>
       <c r="E195" s="52"/>
     </row>
     <row r="196" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A196" s="150"/>
+      <c r="A196" s="155"/>
       <c r="B196" s="84"/>
       <c r="C196" s="55"/>
       <c r="D196" s="89"/>
       <c r="E196" s="52"/>
     </row>
     <row r="197" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A197" s="150"/>
+      <c r="A197" s="155"/>
       <c r="B197" s="95"/>
       <c r="C197" s="75" t="s">
         <v>48</v>
@@ -10548,7 +10777,7 @@
       <c r="E197" s="54"/>
     </row>
     <row r="198" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A198" s="150"/>
+      <c r="A198" s="155"/>
       <c r="B198" s="96"/>
       <c r="C198" s="75" t="s">
         <v>40</v>
@@ -10557,14 +10786,14 @@
       <c r="E198" s="54"/>
     </row>
     <row r="199" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A199" s="150"/>
+      <c r="A199" s="155"/>
       <c r="B199" s="96"/>
       <c r="C199" s="50"/>
       <c r="D199" s="89"/>
       <c r="E199" s="54"/>
     </row>
     <row r="200" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A200" s="150"/>
+      <c r="A200" s="155"/>
       <c r="B200" s="82">
         <v>43119</v>
       </c>
@@ -10573,7 +10802,7 @@
       <c r="E200" s="54"/>
     </row>
     <row r="201" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A201" s="150"/>
+      <c r="A201" s="155"/>
       <c r="B201" s="97">
         <f>B200</f>
         <v>43119</v>
@@ -10583,21 +10812,21 @@
       <c r="E201" s="54"/>
     </row>
     <row r="202" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A202" s="150"/>
+      <c r="A202" s="155"/>
       <c r="B202" s="97"/>
       <c r="C202" s="50"/>
       <c r="D202" s="89"/>
       <c r="E202" s="54"/>
     </row>
     <row r="203" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A203" s="150"/>
+      <c r="A203" s="155"/>
       <c r="B203" s="98"/>
       <c r="C203" s="50"/>
       <c r="D203" s="89"/>
       <c r="E203" s="54"/>
     </row>
     <row r="204" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A204" s="151"/>
+      <c r="A204" s="156"/>
       <c r="B204" s="94"/>
       <c r="C204" s="58"/>
       <c r="D204" s="92"/>
@@ -10689,8 +10918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE188"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O2" sqref="O1:P1048576"/>
+    <sheetView topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10713,53 +10942,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="100" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="155" t="s">
+      <c r="B1" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="155" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="155" t="s">
+      <c r="C1" s="160" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="158" t="s">
+      <c r="E1" s="163" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="158" t="s">
+      <c r="F1" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="159" t="s">
+      <c r="G1" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="159" t="s">
+      <c r="H1" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="155" t="s">
+      <c r="I1" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="152" t="s">
+      <c r="J1" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="159"/>
+      <c r="O1" s="159"/>
+      <c r="P1" s="159"/>
     </row>
     <row r="2" spans="1:31" s="100" customFormat="1">
-      <c r="A2" s="155"/>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="155"/>
+      <c r="A2" s="160"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="160"/>
       <c r="J2" s="101" t="s">
         <v>49</v>
       </c>
@@ -10783,15 +11012,15 @@
       </c>
     </row>
     <row r="3" spans="1:31" s="100" customFormat="1">
-      <c r="A3" s="155"/>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="155"/>
+      <c r="A3" s="160"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="160"/>
       <c r="J3" s="103">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
         <v>190</v>
@@ -10822,15 +11051,15 @@
       </c>
     </row>
     <row r="4" spans="1:31" s="100" customFormat="1">
-      <c r="A4" s="155"/>
-      <c r="B4" s="156"/>
-      <c r="C4" s="157"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="155"/>
+      <c r="A4" s="160"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="160"/>
       <c r="J4" s="104">
         <f>SUM(J5:J157)</f>
         <v>190</v>
@@ -13658,7 +13887,7 @@
       <c r="G69" s="110"/>
       <c r="H69" s="110"/>
       <c r="I69" s="111" t="str">
-        <f t="shared" ref="I69:I100" ca="1" si="6">IF(ISBLANK(J69)=FALSE,OFFSET(I69,0,COUNTA(J69:P69)),"")</f>
+        <f t="shared" ref="I69:I80" ca="1" si="6">IF(ISBLANK(J69)=FALSE,OFFSET(I69,0,COUNTA(J69:P69)),"")</f>
         <v/>
       </c>
       <c r="J69" s="112"/>
@@ -16406,7 +16635,7 @@
       <c r="G147" s="110"/>
       <c r="H147" s="110"/>
       <c r="I147" s="111" t="str">
-        <f t="shared" ref="I147:I178" ca="1" si="15">IF(ISBLANK(J147)=FALSE,OFFSET(I147,0,COUNTA(J147:P147)),"")</f>
+        <f t="shared" ref="I147:I157" ca="1" si="15">IF(ISBLANK(J147)=FALSE,OFFSET(I147,0,COUNTA(J147:P147)),"")</f>
         <v/>
       </c>
       <c r="J147" s="112"/>
@@ -16971,123 +17200,123 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D158:D65536">
-    <cfRule type="expression" dxfId="71" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="16" stopIfTrue="1">
       <formula>D158="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="17" stopIfTrue="1">
       <formula>D158="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="18" stopIfTrue="1">
       <formula>OR(D158="終了",D158="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A157 B105:B111 C101:XFD101 D92:XFD100 B113:P157 B102:XFD103 C111:P112 C105:M110 O105:P110 B104:M104 O104:XFD104 N104:N110 E86:R87 T86:XFD87 E88:XFD91 E5:XFD85">
-    <cfRule type="expression" dxfId="68" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="19" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="20" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="21" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:B65536">
-    <cfRule type="expression" dxfId="65" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="22" stopIfTrue="1">
       <formula>D158="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="23" stopIfTrue="1">
       <formula>D158="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="24" stopIfTrue="1">
       <formula>OR(D158="終了",D158="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C158:C65536">
-    <cfRule type="expression" dxfId="62" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="25" stopIfTrue="1">
       <formula>D158="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="26" stopIfTrue="1">
       <formula>D158="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="27" stopIfTrue="1">
       <formula>OR(D158="終了",D158="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158:P65536">
-    <cfRule type="expression" dxfId="59" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="28" stopIfTrue="1">
       <formula>$D158="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="29" stopIfTrue="1">
       <formula>$D158="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="30" stopIfTrue="1">
       <formula>OR($D158="終了",$D158="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B8 B15:B101">
-    <cfRule type="expression" dxfId="56" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="13" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="14" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="15" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D91">
-    <cfRule type="expression" dxfId="53" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="10" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="11" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="12" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C100">
-    <cfRule type="expression" dxfId="50" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="7" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="8" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="9" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B14">
-    <cfRule type="expression" dxfId="47" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="4" stopIfTrue="1">
       <formula>$D9="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="5" stopIfTrue="1">
       <formula>$D9="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="6" stopIfTrue="1">
       <formula>OR($D9="終了",$D9="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112">
-    <cfRule type="expression" dxfId="44" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="1" stopIfTrue="1">
       <formula>$D112="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="2" stopIfTrue="1">
       <formula>$D112="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="3" stopIfTrue="1">
       <formula>OR($D112="終了",$D112="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S87">
-    <cfRule type="expression" dxfId="41" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="34" stopIfTrue="1">
       <formula>$D86="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="35" stopIfTrue="1">
       <formula>$D86="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="36" stopIfTrue="1">
       <formula>OR($D86="終了",$D86="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17103,8 +17332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B115" sqref="B113:B115"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L111" sqref="L111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17125,56 +17354,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="163" t="s">
+      <c r="B1" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="163" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="163" t="s">
+      <c r="C1" s="168" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="169" t="s">
+      <c r="E1" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="169" t="s">
+      <c r="F1" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="161" t="s">
+      <c r="G1" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="161" t="s">
+      <c r="H1" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="163" t="s">
+      <c r="I1" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="164" t="s">
+      <c r="J1" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="166"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="170"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
     </row>
     <row r="2" spans="1:19" s="8" customFormat="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="163"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="168"/>
       <c r="J2" s="23" t="s">
         <v>56</v>
       </c>
@@ -17207,15 +17436,15 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="8" customFormat="1">
-      <c r="A3" s="163"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="163"/>
+      <c r="A3" s="168"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="20">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$S$2))))</f>
         <v>0</v>
@@ -17231,15 +17460,15 @@
       <c r="S3" s="20"/>
     </row>
     <row r="4" spans="1:19" s="8" customFormat="1">
-      <c r="A4" s="163"/>
-      <c r="B4" s="167"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="163"/>
+      <c r="A4" s="168"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="168"/>
       <c r="J4" s="21">
         <f>SUM(J5:J111)</f>
         <v>0</v>
@@ -17261,31 +17490,31 @@
       <c r="B5" s="138" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="170" t="s">
+      <c r="C5" s="142" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="171" t="str">
+      <c r="D5" s="143" t="str">
         <f t="shared" ref="D5:D50" si="0">IF(ISBLANK($B5),"",IF(ISBLANK($F5),"未着手",IF($I5=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="171" t="str">
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="143" t="str">
         <f t="shared" ref="I5:I57" ca="1" si="1">IF(ISBLANK(J5)=FALSE,OFFSET(I5,0,COUNTA(J5:S5)),"")</f>
         <v/>
       </c>
-      <c r="J5" s="174"/>
-      <c r="K5" s="174"/>
-      <c r="L5" s="174"/>
-      <c r="M5" s="174"/>
-      <c r="N5" s="174"/>
-      <c r="O5" s="174"/>
-      <c r="P5" s="174"/>
-      <c r="Q5" s="174"/>
-      <c r="R5" s="174"/>
-      <c r="S5" s="174"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="146"/>
+      <c r="N5" s="146"/>
+      <c r="O5" s="146"/>
+      <c r="P5" s="146"/>
+      <c r="Q5" s="146"/>
+      <c r="R5" s="146"/>
+      <c r="S5" s="146"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="16">
@@ -17327,31 +17556,31 @@
       <c r="B7" s="138" t="s">
         <v>229</v>
       </c>
-      <c r="C7" s="170" t="s">
+      <c r="C7" s="142" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="171" t="str">
+      <c r="D7" s="143" t="str">
         <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
-      <c r="E7" s="172"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="171" t="str">
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="143" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="174"/>
-      <c r="K7" s="174"/>
-      <c r="L7" s="174"/>
-      <c r="M7" s="174"/>
-      <c r="N7" s="174"/>
-      <c r="O7" s="174"/>
-      <c r="P7" s="174"/>
-      <c r="Q7" s="174"/>
-      <c r="R7" s="174"/>
-      <c r="S7" s="174"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="146"/>
+      <c r="N7" s="146"/>
+      <c r="O7" s="146"/>
+      <c r="P7" s="146"/>
+      <c r="Q7" s="146"/>
+      <c r="R7" s="146"/>
+      <c r="S7" s="146"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="16">
@@ -17393,31 +17622,31 @@
       <c r="B9" s="138" t="s">
         <v>215</v>
       </c>
-      <c r="C9" s="170" t="s">
+      <c r="C9" s="142" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="171" t="str">
+      <c r="D9" s="143" t="str">
         <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="173"/>
-      <c r="H9" s="173"/>
-      <c r="I9" s="171" t="str">
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="143" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="J9" s="174"/>
-      <c r="K9" s="174"/>
-      <c r="L9" s="174"/>
-      <c r="M9" s="174"/>
-      <c r="N9" s="174"/>
-      <c r="O9" s="174"/>
-      <c r="P9" s="174"/>
-      <c r="Q9" s="174"/>
-      <c r="R9" s="174"/>
-      <c r="S9" s="174"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="146"/>
+      <c r="N9" s="146"/>
+      <c r="O9" s="146"/>
+      <c r="P9" s="146"/>
+      <c r="Q9" s="146"/>
+      <c r="R9" s="146"/>
+      <c r="S9" s="146"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="16">
@@ -17492,31 +17721,31 @@
       <c r="B12" s="140" t="s">
         <v>230</v>
       </c>
-      <c r="C12" s="170" t="s">
+      <c r="C12" s="142" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="171" t="str">
+      <c r="D12" s="143" t="str">
         <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
-      <c r="E12" s="172"/>
-      <c r="F12" s="172"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="173"/>
-      <c r="I12" s="171" t="str">
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="143" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="J12" s="174"/>
-      <c r="K12" s="174"/>
-      <c r="L12" s="174"/>
-      <c r="M12" s="174"/>
-      <c r="N12" s="174"/>
-      <c r="O12" s="174"/>
-      <c r="P12" s="174"/>
-      <c r="Q12" s="174"/>
-      <c r="R12" s="174"/>
-      <c r="S12" s="174"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="146"/>
+      <c r="M12" s="146"/>
+      <c r="N12" s="146"/>
+      <c r="O12" s="146"/>
+      <c r="P12" s="146"/>
+      <c r="Q12" s="146"/>
+      <c r="R12" s="146"/>
+      <c r="S12" s="146"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="16">
@@ -17684,31 +17913,31 @@
       <c r="B18" s="138" t="s">
         <v>208</v>
       </c>
-      <c r="C18" s="170" t="s">
+      <c r="C18" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="171" t="str">
+      <c r="D18" s="143" t="str">
         <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="173"/>
-      <c r="I18" s="171" t="str">
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="143" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="J18" s="174"/>
-      <c r="K18" s="174"/>
-      <c r="L18" s="174"/>
-      <c r="M18" s="174"/>
-      <c r="N18" s="174"/>
-      <c r="O18" s="174"/>
-      <c r="P18" s="174"/>
-      <c r="Q18" s="174"/>
-      <c r="R18" s="174"/>
-      <c r="S18" s="174"/>
+      <c r="J18" s="146"/>
+      <c r="K18" s="146"/>
+      <c r="L18" s="146"/>
+      <c r="M18" s="146"/>
+      <c r="N18" s="146"/>
+      <c r="O18" s="146"/>
+      <c r="P18" s="146"/>
+      <c r="Q18" s="146"/>
+      <c r="R18" s="146"/>
+      <c r="S18" s="146"/>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="16">
@@ -18007,31 +18236,31 @@
       <c r="B27" s="138" t="s">
         <v>210</v>
       </c>
-      <c r="C27" s="170" t="s">
+      <c r="C27" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="171" t="str">
+      <c r="D27" s="143" t="str">
         <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
-      <c r="E27" s="172"/>
-      <c r="F27" s="172"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="173"/>
-      <c r="I27" s="171" t="str">
+      <c r="E27" s="144"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="143" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="J27" s="174"/>
-      <c r="K27" s="174"/>
-      <c r="L27" s="174"/>
-      <c r="M27" s="174"/>
-      <c r="N27" s="174"/>
-      <c r="O27" s="174"/>
-      <c r="P27" s="174"/>
-      <c r="Q27" s="174"/>
-      <c r="R27" s="174"/>
-      <c r="S27" s="174"/>
+      <c r="J27" s="146"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="146"/>
+      <c r="M27" s="146"/>
+      <c r="N27" s="146"/>
+      <c r="O27" s="146"/>
+      <c r="P27" s="146"/>
+      <c r="Q27" s="146"/>
+      <c r="R27" s="146"/>
+      <c r="S27" s="146"/>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="16">
@@ -18151,31 +18380,31 @@
       <c r="B31" s="138" t="s">
         <v>213</v>
       </c>
-      <c r="C31" s="170" t="s">
+      <c r="C31" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="171" t="str">
+      <c r="D31" s="143" t="str">
         <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
-      <c r="E31" s="172"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="173"/>
-      <c r="H31" s="173"/>
-      <c r="I31" s="171" t="str">
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="143" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="J31" s="174"/>
-      <c r="K31" s="174"/>
-      <c r="L31" s="174"/>
-      <c r="M31" s="174"/>
-      <c r="N31" s="174"/>
-      <c r="O31" s="174"/>
-      <c r="P31" s="174"/>
-      <c r="Q31" s="174"/>
-      <c r="R31" s="174"/>
-      <c r="S31" s="174"/>
+      <c r="J31" s="146"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="146"/>
+      <c r="M31" s="146"/>
+      <c r="N31" s="146"/>
+      <c r="O31" s="146"/>
+      <c r="P31" s="146"/>
+      <c r="Q31" s="146"/>
+      <c r="R31" s="146"/>
+      <c r="S31" s="146"/>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="16">
@@ -18258,31 +18487,31 @@
       <c r="B34" s="138" t="s">
         <v>214</v>
       </c>
-      <c r="C34" s="170" t="s">
+      <c r="C34" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="171" t="str">
+      <c r="D34" s="143" t="str">
         <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
-      <c r="E34" s="172"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="173"/>
-      <c r="H34" s="173"/>
-      <c r="I34" s="171" t="str">
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="143" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="J34" s="174"/>
-      <c r="K34" s="174"/>
-      <c r="L34" s="174"/>
-      <c r="M34" s="174"/>
-      <c r="N34" s="174"/>
-      <c r="O34" s="174"/>
-      <c r="P34" s="174"/>
-      <c r="Q34" s="174"/>
-      <c r="R34" s="174"/>
-      <c r="S34" s="174"/>
+      <c r="J34" s="146"/>
+      <c r="K34" s="146"/>
+      <c r="L34" s="146"/>
+      <c r="M34" s="146"/>
+      <c r="N34" s="146"/>
+      <c r="O34" s="146"/>
+      <c r="P34" s="146"/>
+      <c r="Q34" s="146"/>
+      <c r="R34" s="146"/>
+      <c r="S34" s="146"/>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="16">
@@ -18328,31 +18557,31 @@
       <c r="B36" s="138" t="s">
         <v>215</v>
       </c>
-      <c r="C36" s="170" t="s">
+      <c r="C36" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="171" t="str">
+      <c r="D36" s="143" t="str">
         <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
-      <c r="E36" s="172"/>
-      <c r="F36" s="172"/>
-      <c r="G36" s="173"/>
-      <c r="H36" s="173"/>
-      <c r="I36" s="171" t="str">
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="145"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="143" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="J36" s="174"/>
-      <c r="K36" s="174"/>
-      <c r="L36" s="174"/>
-      <c r="M36" s="174"/>
-      <c r="N36" s="174"/>
-      <c r="O36" s="174"/>
-      <c r="P36" s="174"/>
-      <c r="Q36" s="174"/>
-      <c r="R36" s="174"/>
-      <c r="S36" s="174"/>
+      <c r="J36" s="146"/>
+      <c r="K36" s="146"/>
+      <c r="L36" s="146"/>
+      <c r="M36" s="146"/>
+      <c r="N36" s="146"/>
+      <c r="O36" s="146"/>
+      <c r="P36" s="146"/>
+      <c r="Q36" s="146"/>
+      <c r="R36" s="146"/>
+      <c r="S36" s="146"/>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="16">
@@ -18763,31 +18992,31 @@
       <c r="B49" s="138" t="s">
         <v>196</v>
       </c>
-      <c r="C49" s="170" t="s">
+      <c r="C49" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="171" t="str">
+      <c r="D49" s="143" t="str">
         <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
-      <c r="E49" s="172"/>
-      <c r="F49" s="172"/>
-      <c r="G49" s="173"/>
-      <c r="H49" s="173"/>
-      <c r="I49" s="171" t="str">
+      <c r="E49" s="144"/>
+      <c r="F49" s="144"/>
+      <c r="G49" s="145"/>
+      <c r="H49" s="145"/>
+      <c r="I49" s="143" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="J49" s="174"/>
-      <c r="K49" s="174"/>
-      <c r="L49" s="174"/>
-      <c r="M49" s="174"/>
-      <c r="N49" s="174"/>
-      <c r="O49" s="174"/>
-      <c r="P49" s="174"/>
-      <c r="Q49" s="174"/>
-      <c r="R49" s="174"/>
-      <c r="S49" s="174"/>
+      <c r="J49" s="146"/>
+      <c r="K49" s="146"/>
+      <c r="L49" s="146"/>
+      <c r="M49" s="146"/>
+      <c r="N49" s="146"/>
+      <c r="O49" s="146"/>
+      <c r="P49" s="146"/>
+      <c r="Q49" s="146"/>
+      <c r="R49" s="146"/>
+      <c r="S49" s="146"/>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="16">
@@ -18907,31 +19136,31 @@
       <c r="B53" s="138" t="s">
         <v>197</v>
       </c>
-      <c r="C53" s="170" t="s">
+      <c r="C53" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="171" t="str">
+      <c r="D53" s="143" t="str">
         <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
-      <c r="E53" s="172"/>
-      <c r="F53" s="172"/>
-      <c r="G53" s="173"/>
-      <c r="H53" s="173"/>
-      <c r="I53" s="171" t="str">
+      <c r="E53" s="144"/>
+      <c r="F53" s="144"/>
+      <c r="G53" s="145"/>
+      <c r="H53" s="145"/>
+      <c r="I53" s="143" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="J53" s="174"/>
-      <c r="K53" s="174"/>
-      <c r="L53" s="174"/>
-      <c r="M53" s="174"/>
-      <c r="N53" s="174"/>
-      <c r="O53" s="174"/>
-      <c r="P53" s="174"/>
-      <c r="Q53" s="174"/>
-      <c r="R53" s="174"/>
-      <c r="S53" s="174"/>
+      <c r="J53" s="146"/>
+      <c r="K53" s="146"/>
+      <c r="L53" s="146"/>
+      <c r="M53" s="146"/>
+      <c r="N53" s="146"/>
+      <c r="O53" s="146"/>
+      <c r="P53" s="146"/>
+      <c r="Q53" s="146"/>
+      <c r="R53" s="146"/>
+      <c r="S53" s="146"/>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="16">
@@ -18984,7 +19213,7 @@
       </c>
       <c r="D55" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="E55" s="4">
         <v>43053</v>
@@ -18995,12 +19224,16 @@
       <c r="G55" s="19">
         <v>4</v>
       </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="12" t="str">
+      <c r="H55" s="19">
+        <v>6</v>
+      </c>
+      <c r="I55" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J55" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="22">
+        <v>0</v>
+      </c>
       <c r="K55" s="22"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
@@ -19092,31 +19325,31 @@
       <c r="B58" s="138" t="s">
         <v>201</v>
       </c>
-      <c r="C58" s="170" t="s">
+      <c r="C58" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="D58" s="171" t="str">
+      <c r="D58" s="143" t="str">
         <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
-      <c r="E58" s="172"/>
-      <c r="F58" s="172"/>
-      <c r="G58" s="173"/>
-      <c r="H58" s="173"/>
-      <c r="I58" s="171" t="str">
-        <f t="shared" ref="I58:I111" ca="1" si="3">IF(ISBLANK(J58)=FALSE,OFFSET(I58,0,COUNTA(J58:S58)),"")</f>
-        <v/>
-      </c>
-      <c r="J58" s="174"/>
-      <c r="K58" s="174"/>
-      <c r="L58" s="174"/>
-      <c r="M58" s="174"/>
-      <c r="N58" s="174"/>
-      <c r="O58" s="174"/>
-      <c r="P58" s="174"/>
-      <c r="Q58" s="174"/>
-      <c r="R58" s="174"/>
-      <c r="S58" s="174"/>
+      <c r="E58" s="144"/>
+      <c r="F58" s="144"/>
+      <c r="G58" s="145"/>
+      <c r="H58" s="145"/>
+      <c r="I58" s="143" t="str">
+        <f t="shared" ref="I58:J121" ca="1" si="3">IF(ISBLANK(J58)=FALSE,OFFSET(I58,0,COUNTA(J58:S58)),"")</f>
+        <v/>
+      </c>
+      <c r="J58" s="146"/>
+      <c r="K58" s="146"/>
+      <c r="L58" s="146"/>
+      <c r="M58" s="146"/>
+      <c r="N58" s="146"/>
+      <c r="O58" s="146"/>
+      <c r="P58" s="146"/>
+      <c r="Q58" s="146"/>
+      <c r="R58" s="146"/>
+      <c r="S58" s="146"/>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="16">
@@ -19320,7 +19553,7 @@
         <v>109</v>
       </c>
       <c r="D64" s="12" t="str">
-        <f t="shared" ref="D64:D111" ca="1" si="4">IF(ISBLANK($B64),"",IF(ISBLANK($F64),"未着手",IF($I64=0,"完了","作業中")))</f>
+        <f t="shared" ref="D64:D116" ca="1" si="4">IF(ISBLANK($B64),"",IF(ISBLANK($F64),"未着手",IF($I64=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="E64" s="4">
@@ -19359,31 +19592,31 @@
       <c r="B65" s="138" t="s">
         <v>204</v>
       </c>
-      <c r="C65" s="170" t="s">
+      <c r="C65" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="D65" s="171" t="str">
+      <c r="D65" s="143" t="str">
         <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E65" s="172"/>
-      <c r="F65" s="172"/>
-      <c r="G65" s="173"/>
-      <c r="H65" s="173"/>
-      <c r="I65" s="171" t="str">
+      <c r="E65" s="144"/>
+      <c r="F65" s="144"/>
+      <c r="G65" s="145"/>
+      <c r="H65" s="145"/>
+      <c r="I65" s="143" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J65" s="174"/>
-      <c r="K65" s="174"/>
-      <c r="L65" s="174"/>
-      <c r="M65" s="174"/>
-      <c r="N65" s="174"/>
-      <c r="O65" s="174"/>
-      <c r="P65" s="174"/>
-      <c r="Q65" s="174"/>
-      <c r="R65" s="174"/>
-      <c r="S65" s="174"/>
+      <c r="J65" s="146"/>
+      <c r="K65" s="146"/>
+      <c r="L65" s="146"/>
+      <c r="M65" s="146"/>
+      <c r="N65" s="146"/>
+      <c r="O65" s="146"/>
+      <c r="P65" s="146"/>
+      <c r="Q65" s="146"/>
+      <c r="R65" s="146"/>
+      <c r="S65" s="146"/>
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="16">
@@ -19480,7 +19713,7 @@
         <v>未着手</v>
       </c>
       <c r="E68" s="4">
-        <v>43063</v>
+        <v>43070</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="19">
@@ -19517,7 +19750,7 @@
         <v>未着手</v>
       </c>
       <c r="E69" s="4">
-        <v>43063</v>
+        <v>43070</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="19">
@@ -19546,31 +19779,31 @@
       <c r="B70" s="138" t="s">
         <v>221</v>
       </c>
-      <c r="C70" s="170" t="s">
+      <c r="C70" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="D70" s="171" t="str">
+      <c r="D70" s="143" t="str">
         <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E70" s="172"/>
-      <c r="F70" s="172"/>
-      <c r="G70" s="173"/>
-      <c r="H70" s="173"/>
-      <c r="I70" s="171" t="str">
+      <c r="E70" s="144"/>
+      <c r="F70" s="144"/>
+      <c r="G70" s="145"/>
+      <c r="H70" s="145"/>
+      <c r="I70" s="143" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J70" s="174"/>
-      <c r="K70" s="174"/>
-      <c r="L70" s="174"/>
-      <c r="M70" s="174"/>
-      <c r="N70" s="174"/>
-      <c r="O70" s="174"/>
-      <c r="P70" s="174"/>
-      <c r="Q70" s="174"/>
-      <c r="R70" s="174"/>
-      <c r="S70" s="174"/>
+      <c r="J70" s="146"/>
+      <c r="K70" s="146"/>
+      <c r="L70" s="146"/>
+      <c r="M70" s="146"/>
+      <c r="N70" s="146"/>
+      <c r="O70" s="146"/>
+      <c r="P70" s="146"/>
+      <c r="Q70" s="146"/>
+      <c r="R70" s="146"/>
+      <c r="S70" s="146"/>
     </row>
     <row r="71" spans="1:19">
       <c r="A71" s="16">
@@ -19587,7 +19820,7 @@
         <v>未着手</v>
       </c>
       <c r="E71" s="4">
-        <v>43070</v>
+        <v>43074</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="19">
@@ -19624,7 +19857,7 @@
         <v>未着手</v>
       </c>
       <c r="E72" s="4">
-        <v>43063</v>
+        <v>43070</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="19">
@@ -19653,31 +19886,31 @@
       <c r="B73" s="138" t="s">
         <v>223</v>
       </c>
-      <c r="C73" s="170" t="s">
+      <c r="C73" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="D73" s="171" t="str">
+      <c r="D73" s="143" t="str">
         <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E73" s="172"/>
-      <c r="F73" s="172"/>
-      <c r="G73" s="173"/>
-      <c r="H73" s="173"/>
-      <c r="I73" s="171" t="str">
+      <c r="E73" s="144"/>
+      <c r="F73" s="144"/>
+      <c r="G73" s="145"/>
+      <c r="H73" s="145"/>
+      <c r="I73" s="143" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J73" s="174"/>
-      <c r="K73" s="174"/>
-      <c r="L73" s="174"/>
-      <c r="M73" s="174"/>
-      <c r="N73" s="174"/>
-      <c r="O73" s="174"/>
-      <c r="P73" s="174"/>
-      <c r="Q73" s="174"/>
-      <c r="R73" s="174"/>
-      <c r="S73" s="174"/>
+      <c r="J73" s="146"/>
+      <c r="K73" s="146"/>
+      <c r="L73" s="146"/>
+      <c r="M73" s="146"/>
+      <c r="N73" s="146"/>
+      <c r="O73" s="146"/>
+      <c r="P73" s="146"/>
+      <c r="Q73" s="146"/>
+      <c r="R73" s="146"/>
+      <c r="S73" s="146"/>
     </row>
     <row r="74" spans="1:19">
       <c r="A74" s="16">
@@ -19694,7 +19927,7 @@
         <v>未着手</v>
       </c>
       <c r="E74" s="4">
-        <v>43070</v>
+        <v>43074</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="19">
@@ -19723,31 +19956,31 @@
       <c r="B75" s="138" t="s">
         <v>224</v>
       </c>
-      <c r="C75" s="170" t="s">
+      <c r="C75" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="D75" s="171" t="str">
+      <c r="D75" s="143" t="str">
         <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E75" s="172"/>
-      <c r="F75" s="172"/>
-      <c r="G75" s="173"/>
-      <c r="H75" s="173"/>
-      <c r="I75" s="171" t="str">
+      <c r="E75" s="144"/>
+      <c r="F75" s="144"/>
+      <c r="G75" s="145"/>
+      <c r="H75" s="145"/>
+      <c r="I75" s="143" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J75" s="174"/>
-      <c r="K75" s="174"/>
-      <c r="L75" s="174"/>
-      <c r="M75" s="174"/>
-      <c r="N75" s="174"/>
-      <c r="O75" s="174"/>
-      <c r="P75" s="174"/>
-      <c r="Q75" s="174"/>
-      <c r="R75" s="174"/>
-      <c r="S75" s="174"/>
+      <c r="J75" s="146"/>
+      <c r="K75" s="146"/>
+      <c r="L75" s="146"/>
+      <c r="M75" s="146"/>
+      <c r="N75" s="146"/>
+      <c r="O75" s="146"/>
+      <c r="P75" s="146"/>
+      <c r="Q75" s="146"/>
+      <c r="R75" s="146"/>
+      <c r="S75" s="146"/>
     </row>
     <row r="76" spans="1:19">
       <c r="A76" s="16">
@@ -19764,7 +19997,7 @@
         <v>未着手</v>
       </c>
       <c r="E76" s="4">
-        <v>43074</v>
+        <v>43077</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="19">
@@ -19793,31 +20026,31 @@
       <c r="B77" s="138" t="s">
         <v>207</v>
       </c>
-      <c r="C77" s="170" t="s">
+      <c r="C77" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="D77" s="171" t="str">
+      <c r="D77" s="143" t="str">
         <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E77" s="172"/>
-      <c r="F77" s="172"/>
-      <c r="G77" s="173"/>
-      <c r="H77" s="173"/>
-      <c r="I77" s="171" t="str">
+      <c r="E77" s="144"/>
+      <c r="F77" s="144"/>
+      <c r="G77" s="145"/>
+      <c r="H77" s="145"/>
+      <c r="I77" s="143" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J77" s="174"/>
-      <c r="K77" s="174"/>
-      <c r="L77" s="174"/>
-      <c r="M77" s="174"/>
-      <c r="N77" s="174"/>
-      <c r="O77" s="174"/>
-      <c r="P77" s="174"/>
-      <c r="Q77" s="174"/>
-      <c r="R77" s="174"/>
-      <c r="S77" s="174"/>
+      <c r="J77" s="146"/>
+      <c r="K77" s="146"/>
+      <c r="L77" s="146"/>
+      <c r="M77" s="146"/>
+      <c r="N77" s="146"/>
+      <c r="O77" s="146"/>
+      <c r="P77" s="146"/>
+      <c r="Q77" s="146"/>
+      <c r="R77" s="146"/>
+      <c r="S77" s="146"/>
     </row>
     <row r="78" spans="1:19">
       <c r="A78" s="16">
@@ -19834,11 +20067,11 @@
         <v>未着手</v>
       </c>
       <c r="E78" s="4">
-        <v>43074</v>
+        <v>43077</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="19">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="12" t="str">
@@ -19871,11 +20104,11 @@
         <v>未着手</v>
       </c>
       <c r="E79" s="4">
-        <v>43074</v>
+        <v>43077</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="19">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="12" t="str">
@@ -19897,48 +20130,56 @@
       <c r="A80" s="16">
         <v>76</v>
       </c>
-      <c r="B80" s="85"/>
-      <c r="C80" s="18" t="s">
+      <c r="B80" s="138" t="s">
+        <v>242</v>
+      </c>
+      <c r="C80" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="D80" s="12" t="str">
+      <c r="D80" s="143" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="12" t="str">
+        <v>未着手</v>
+      </c>
+      <c r="E80" s="144"/>
+      <c r="F80" s="144"/>
+      <c r="G80" s="145"/>
+      <c r="H80" s="145"/>
+      <c r="I80" s="143" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J80" s="22"/>
-      <c r="K80" s="22"/>
-      <c r="L80" s="22"/>
-      <c r="M80" s="22"/>
-      <c r="N80" s="22"/>
-      <c r="O80" s="22"/>
-      <c r="P80" s="22"/>
-      <c r="Q80" s="22"/>
-      <c r="R80" s="22"/>
-      <c r="S80" s="22"/>
+      <c r="J80" s="146"/>
+      <c r="K80" s="146"/>
+      <c r="L80" s="146"/>
+      <c r="M80" s="146"/>
+      <c r="N80" s="146"/>
+      <c r="O80" s="146"/>
+      <c r="P80" s="146"/>
+      <c r="Q80" s="146"/>
+      <c r="R80" s="146"/>
+      <c r="S80" s="146"/>
     </row>
     <row r="81" spans="1:19">
       <c r="A81" s="16">
         <v>77</v>
       </c>
-      <c r="B81" s="17"/>
+      <c r="B81" s="17" t="s">
+        <v>243</v>
+      </c>
       <c r="C81" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D81" s="12" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E81" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="E81" s="4">
+        <v>43077</v>
+      </c>
       <c r="F81" s="4"/>
-      <c r="G81" s="19"/>
+      <c r="G81" s="19">
+        <v>1</v>
+      </c>
       <c r="H81" s="19"/>
       <c r="I81" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19959,17 +20200,23 @@
       <c r="A82" s="16">
         <v>78</v>
       </c>
-      <c r="B82" s="17"/>
+      <c r="B82" s="17" t="s">
+        <v>244</v>
+      </c>
       <c r="C82" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D82" s="12" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E82" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="E82" s="4">
+        <v>43066</v>
+      </c>
       <c r="F82" s="4"/>
-      <c r="G82" s="19"/>
+      <c r="G82" s="19">
+        <v>6</v>
+      </c>
       <c r="H82" s="19"/>
       <c r="I82" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19990,827 +20237,807 @@
       <c r="A83" s="16">
         <v>79</v>
       </c>
-      <c r="B83" s="17"/>
-      <c r="C83" s="18" t="s">
+      <c r="B83" s="181"/>
+      <c r="C83" s="182" t="s">
         <v>109</v>
       </c>
       <c r="D83" s="12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="12" t="str">
+      <c r="E83" s="184"/>
+      <c r="F83" s="184"/>
+      <c r="G83" s="185"/>
+      <c r="H83" s="185"/>
+      <c r="I83" s="183" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J83" s="22"/>
-      <c r="K83" s="22"/>
-      <c r="L83" s="22"/>
-      <c r="M83" s="22"/>
-      <c r="N83" s="22"/>
-      <c r="O83" s="22"/>
-      <c r="P83" s="22"/>
-      <c r="Q83" s="22"/>
-      <c r="R83" s="22"/>
-      <c r="S83" s="22"/>
+      <c r="J83" s="186"/>
+      <c r="K83" s="186"/>
+      <c r="L83" s="186"/>
+      <c r="M83" s="186"/>
+      <c r="N83" s="186"/>
+      <c r="O83" s="186"/>
+      <c r="P83" s="186"/>
+      <c r="Q83" s="186"/>
+      <c r="R83" s="186"/>
+      <c r="S83" s="186"/>
     </row>
     <row r="84" spans="1:19">
       <c r="A84" s="16">
         <v>80</v>
       </c>
-      <c r="B84" s="138" t="s">
-        <v>225</v>
-      </c>
-      <c r="C84" s="170" t="s">
-        <v>111</v>
-      </c>
-      <c r="D84" s="171" t="str">
+      <c r="B84" s="187"/>
+      <c r="C84" s="188" t="s">
+        <v>109</v>
+      </c>
+      <c r="D84" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>未着手</v>
-      </c>
-      <c r="E84" s="172"/>
-      <c r="F84" s="172"/>
-      <c r="G84" s="173"/>
-      <c r="H84" s="173"/>
-      <c r="I84" s="171" t="str">
+        <v/>
+      </c>
+      <c r="E84" s="190"/>
+      <c r="F84" s="190"/>
+      <c r="G84" s="191"/>
+      <c r="H84" s="191"/>
+      <c r="I84" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J84" s="174"/>
-      <c r="K84" s="174"/>
-      <c r="L84" s="174"/>
-      <c r="M84" s="174"/>
-      <c r="N84" s="174"/>
-      <c r="O84" s="174"/>
-      <c r="P84" s="174"/>
-      <c r="Q84" s="174"/>
-      <c r="R84" s="174"/>
-      <c r="S84" s="174"/>
+      <c r="J84" s="192"/>
+      <c r="K84" s="192"/>
+      <c r="L84" s="192"/>
+      <c r="M84" s="192"/>
+      <c r="N84" s="192"/>
+      <c r="O84" s="192"/>
+      <c r="P84" s="192"/>
+      <c r="Q84" s="192"/>
+      <c r="R84" s="192"/>
+      <c r="S84" s="192"/>
     </row>
     <row r="85" spans="1:19">
       <c r="A85" s="16">
         <v>81</v>
       </c>
-      <c r="B85" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>111</v>
+      <c r="B85" s="187"/>
+      <c r="C85" s="188" t="s">
+        <v>109</v>
       </c>
       <c r="D85" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>未着手</v>
-      </c>
-      <c r="E85" s="4">
-        <v>43053</v>
-      </c>
-      <c r="F85" s="4"/>
-      <c r="G85" s="19">
-        <v>2</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="12" t="str">
+        <v/>
+      </c>
+      <c r="E85" s="190"/>
+      <c r="F85" s="190"/>
+      <c r="G85" s="191"/>
+      <c r="H85" s="191"/>
+      <c r="I85" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J85" s="22"/>
-      <c r="K85" s="22"/>
-      <c r="L85" s="22"/>
-      <c r="M85" s="22"/>
-      <c r="N85" s="22"/>
-      <c r="O85" s="22"/>
-      <c r="P85" s="22"/>
-      <c r="Q85" s="22"/>
-      <c r="R85" s="22"/>
-      <c r="S85" s="22"/>
+      <c r="J85" s="192"/>
+      <c r="K85" s="192"/>
+      <c r="L85" s="192"/>
+      <c r="M85" s="192"/>
+      <c r="N85" s="192"/>
+      <c r="O85" s="192"/>
+      <c r="P85" s="192"/>
+      <c r="Q85" s="192"/>
+      <c r="R85" s="192"/>
+      <c r="S85" s="192"/>
     </row>
     <row r="86" spans="1:19">
       <c r="A86" s="16">
         <v>82</v>
       </c>
-      <c r="B86" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>111</v>
+      <c r="B86" s="187"/>
+      <c r="C86" s="188" t="s">
+        <v>109</v>
       </c>
       <c r="D86" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>未着手</v>
-      </c>
-      <c r="E86" s="4">
-        <v>43053</v>
-      </c>
-      <c r="F86" s="4"/>
-      <c r="G86" s="19">
-        <v>2</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="12" t="str">
+        <v/>
+      </c>
+      <c r="E86" s="190"/>
+      <c r="F86" s="190"/>
+      <c r="G86" s="191"/>
+      <c r="H86" s="191"/>
+      <c r="I86" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J86" s="22"/>
-      <c r="K86" s="22"/>
-      <c r="L86" s="22"/>
-      <c r="M86" s="22"/>
-      <c r="N86" s="22"/>
-      <c r="O86" s="22"/>
-      <c r="P86" s="22"/>
-      <c r="Q86" s="22"/>
-      <c r="R86" s="22"/>
-      <c r="S86" s="22"/>
+      <c r="J86" s="192"/>
+      <c r="K86" s="192"/>
+      <c r="L86" s="192"/>
+      <c r="M86" s="192"/>
+      <c r="N86" s="192"/>
+      <c r="O86" s="192"/>
+      <c r="P86" s="192"/>
+      <c r="Q86" s="192"/>
+      <c r="R86" s="192"/>
+      <c r="S86" s="192"/>
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="16">
         <v>83</v>
       </c>
-      <c r="B87" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C87" s="18" t="s">
-        <v>111</v>
+      <c r="B87" s="187"/>
+      <c r="C87" s="188" t="s">
+        <v>109</v>
       </c>
       <c r="D87" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>未着手</v>
-      </c>
-      <c r="E87" s="4">
-        <v>43053</v>
-      </c>
-      <c r="F87" s="4"/>
-      <c r="G87" s="19">
-        <v>2</v>
-      </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="12" t="str">
+        <v/>
+      </c>
+      <c r="E87" s="190"/>
+      <c r="F87" s="190"/>
+      <c r="G87" s="191"/>
+      <c r="H87" s="191"/>
+      <c r="I87" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J87" s="22"/>
-      <c r="K87" s="22"/>
-      <c r="L87" s="22"/>
-      <c r="M87" s="22"/>
-      <c r="N87" s="22"/>
-      <c r="O87" s="22"/>
-      <c r="P87" s="22"/>
-      <c r="Q87" s="22"/>
-      <c r="R87" s="22"/>
-      <c r="S87" s="22"/>
+      <c r="J87" s="192"/>
+      <c r="K87" s="192"/>
+      <c r="L87" s="192"/>
+      <c r="M87" s="192"/>
+      <c r="N87" s="192"/>
+      <c r="O87" s="192"/>
+      <c r="P87" s="192"/>
+      <c r="Q87" s="192"/>
+      <c r="R87" s="192"/>
+      <c r="S87" s="192"/>
     </row>
     <row r="88" spans="1:19">
       <c r="A88" s="16">
         <v>84</v>
       </c>
-      <c r="B88" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C88" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D88" s="12" t="str">
+      <c r="B88" s="187"/>
+      <c r="C88" s="188" t="s">
+        <v>109</v>
+      </c>
+      <c r="D88" s="177" t="str">
         <f t="shared" si="4"/>
-        <v>未着手</v>
-      </c>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="12" t="str">
+        <v/>
+      </c>
+      <c r="E88" s="190"/>
+      <c r="F88" s="190"/>
+      <c r="G88" s="191"/>
+      <c r="H88" s="191"/>
+      <c r="I88" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J88" s="22"/>
-      <c r="K88" s="22"/>
-      <c r="L88" s="22"/>
-      <c r="M88" s="22"/>
-      <c r="N88" s="22"/>
-      <c r="O88" s="22"/>
-      <c r="P88" s="22"/>
-      <c r="Q88" s="22"/>
-      <c r="R88" s="22"/>
-      <c r="S88" s="22"/>
+      <c r="J88" s="192"/>
+      <c r="K88" s="192"/>
+      <c r="L88" s="192"/>
+      <c r="M88" s="192"/>
+      <c r="N88" s="192"/>
+      <c r="O88" s="192"/>
+      <c r="P88" s="192"/>
+      <c r="Q88" s="192"/>
+      <c r="R88" s="192"/>
+      <c r="S88" s="192"/>
     </row>
     <row r="89" spans="1:19">
       <c r="A89" s="16">
         <v>85</v>
       </c>
       <c r="B89" s="138" t="s">
-        <v>226</v>
-      </c>
-      <c r="C89" s="170" t="s">
+        <v>225</v>
+      </c>
+      <c r="C89" s="142" t="s">
         <v>111</v>
       </c>
-      <c r="D89" s="171" t="str">
+      <c r="D89" s="143" t="str">
         <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E89" s="172"/>
-      <c r="F89" s="172"/>
-      <c r="G89" s="173"/>
-      <c r="H89" s="173"/>
-      <c r="I89" s="171" t="str">
+      <c r="E89" s="144"/>
+      <c r="F89" s="144"/>
+      <c r="G89" s="145"/>
+      <c r="H89" s="196"/>
+      <c r="I89" s="197" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J89" s="174"/>
-      <c r="K89" s="174"/>
-      <c r="L89" s="174"/>
-      <c r="M89" s="174"/>
-      <c r="N89" s="174"/>
-      <c r="O89" s="174"/>
-      <c r="P89" s="174"/>
-      <c r="Q89" s="174"/>
-      <c r="R89" s="174"/>
-      <c r="S89" s="174"/>
+      <c r="J89" s="198"/>
+      <c r="K89" s="198"/>
+      <c r="L89" s="198"/>
+      <c r="M89" s="198"/>
+      <c r="N89" s="198"/>
+      <c r="O89" s="198"/>
+      <c r="P89" s="198"/>
+      <c r="Q89" s="198"/>
+      <c r="R89" s="198"/>
+      <c r="S89" s="198"/>
     </row>
     <row r="90" spans="1:19">
       <c r="A90" s="16">
         <v>86</v>
       </c>
-      <c r="B90" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="C90" s="18" t="s">
+      <c r="B90" s="175" t="s">
+        <v>239</v>
+      </c>
+      <c r="C90" s="176" t="s">
         <v>111</v>
       </c>
-      <c r="D90" s="12" t="str">
+      <c r="D90" s="177" t="str">
         <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E90" s="4">
-        <v>43060</v>
-      </c>
-      <c r="F90" s="4"/>
-      <c r="G90" s="19">
-        <v>3</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="12" t="str">
+      <c r="E90" s="178">
+        <v>43053</v>
+      </c>
+      <c r="F90" s="178"/>
+      <c r="G90" s="179">
+        <v>2</v>
+      </c>
+      <c r="H90" s="179"/>
+      <c r="I90" s="177" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J90" s="22"/>
-      <c r="K90" s="22"/>
-      <c r="L90" s="22"/>
-      <c r="M90" s="22"/>
-      <c r="N90" s="22"/>
-      <c r="O90" s="22"/>
-      <c r="P90" s="22"/>
-      <c r="Q90" s="22"/>
-      <c r="R90" s="22"/>
-      <c r="S90" s="22"/>
+      <c r="J90" s="180"/>
+      <c r="K90" s="180"/>
+      <c r="L90" s="180"/>
+      <c r="M90" s="180"/>
+      <c r="N90" s="180"/>
+      <c r="O90" s="180"/>
+      <c r="P90" s="180"/>
+      <c r="Q90" s="180"/>
+      <c r="R90" s="180"/>
+      <c r="S90" s="180"/>
     </row>
     <row r="91" spans="1:19">
       <c r="A91" s="16">
         <v>87</v>
       </c>
-      <c r="B91" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="C91" s="18" t="s">
+      <c r="B91" s="175" t="s">
+        <v>175</v>
+      </c>
+      <c r="C91" s="176" t="s">
         <v>111</v>
       </c>
-      <c r="D91" s="12" t="str">
+      <c r="D91" s="177" t="str">
         <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E91" s="4">
-        <v>43063</v>
-      </c>
-      <c r="F91" s="4"/>
-      <c r="G91" s="19">
-        <v>3</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="12" t="str">
+      <c r="E91" s="178">
+        <v>43053</v>
+      </c>
+      <c r="F91" s="178"/>
+      <c r="G91" s="179">
+        <v>2</v>
+      </c>
+      <c r="H91" s="179"/>
+      <c r="I91" s="177" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J91" s="22"/>
-      <c r="K91" s="22"/>
-      <c r="L91" s="22"/>
-      <c r="M91" s="22"/>
-      <c r="N91" s="22"/>
-      <c r="O91" s="22"/>
-      <c r="P91" s="22"/>
-      <c r="Q91" s="22"/>
-      <c r="R91" s="22"/>
-      <c r="S91" s="22"/>
+      <c r="J91" s="180"/>
+      <c r="K91" s="180"/>
+      <c r="L91" s="180"/>
+      <c r="M91" s="180"/>
+      <c r="N91" s="180"/>
+      <c r="O91" s="180"/>
+      <c r="P91" s="180"/>
+      <c r="Q91" s="180"/>
+      <c r="R91" s="180"/>
+      <c r="S91" s="180"/>
     </row>
     <row r="92" spans="1:19">
       <c r="A92" s="16">
         <v>88</v>
       </c>
-      <c r="B92" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="C92" s="18" t="s">
+      <c r="B92" s="175" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" s="176" t="s">
         <v>111</v>
       </c>
-      <c r="D92" s="12" t="str">
+      <c r="D92" s="177" t="str">
         <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E92" s="4">
-        <v>43056</v>
-      </c>
-      <c r="F92" s="4"/>
-      <c r="G92" s="19">
+      <c r="E92" s="178">
+        <v>43053</v>
+      </c>
+      <c r="F92" s="178"/>
+      <c r="G92" s="179">
         <v>2</v>
       </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="12" t="str">
+      <c r="H92" s="179"/>
+      <c r="I92" s="177" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J92" s="22"/>
-      <c r="K92" s="22"/>
-      <c r="L92" s="22"/>
-      <c r="M92" s="22"/>
-      <c r="N92" s="22"/>
-      <c r="O92" s="22"/>
-      <c r="P92" s="22"/>
-      <c r="Q92" s="22"/>
-      <c r="R92" s="22"/>
-      <c r="S92" s="22"/>
+      <c r="J92" s="180"/>
+      <c r="K92" s="180"/>
+      <c r="L92" s="180"/>
+      <c r="M92" s="180"/>
+      <c r="N92" s="180"/>
+      <c r="O92" s="180"/>
+      <c r="P92" s="180"/>
+      <c r="Q92" s="180"/>
+      <c r="R92" s="180"/>
+      <c r="S92" s="180"/>
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="16">
         <v>89</v>
       </c>
-      <c r="B93" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C93" s="18" t="s">
+      <c r="B93" s="175" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93" s="176" t="s">
         <v>111</v>
       </c>
-      <c r="D93" s="12" t="str">
+      <c r="D93" s="177" t="str">
         <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E93" s="4">
-        <v>43063</v>
-      </c>
-      <c r="F93" s="4"/>
-      <c r="G93" s="19">
-        <v>4</v>
-      </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="12" t="str">
+      <c r="E93" s="178"/>
+      <c r="F93" s="178"/>
+      <c r="G93" s="179"/>
+      <c r="H93" s="179"/>
+      <c r="I93" s="177" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J93" s="22"/>
-      <c r="K93" s="22"/>
-      <c r="L93" s="22"/>
-      <c r="M93" s="22"/>
-      <c r="N93" s="22"/>
-      <c r="O93" s="22"/>
-      <c r="P93" s="22"/>
-      <c r="Q93" s="22"/>
-      <c r="R93" s="22"/>
-      <c r="S93" s="22"/>
+      <c r="J93" s="180"/>
+      <c r="K93" s="180"/>
+      <c r="L93" s="180"/>
+      <c r="M93" s="180"/>
+      <c r="N93" s="180"/>
+      <c r="O93" s="180"/>
+      <c r="P93" s="180"/>
+      <c r="Q93" s="180"/>
+      <c r="R93" s="180"/>
+      <c r="S93" s="180"/>
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="16">
         <v>90</v>
       </c>
-      <c r="B94" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="C94" s="18" t="s">
+      <c r="B94" s="138" t="s">
+        <v>226</v>
+      </c>
+      <c r="C94" s="142" t="s">
         <v>111</v>
       </c>
-      <c r="D94" s="12" t="str">
+      <c r="D94" s="143" t="str">
         <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E94" s="4">
-        <v>43067</v>
-      </c>
-      <c r="F94" s="4"/>
-      <c r="G94" s="19">
-        <v>2</v>
-      </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="12" t="str">
+      <c r="E94" s="144"/>
+      <c r="F94" s="144"/>
+      <c r="G94" s="145"/>
+      <c r="H94" s="145"/>
+      <c r="I94" s="143" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J94" s="22"/>
-      <c r="K94" s="22"/>
-      <c r="L94" s="22"/>
-      <c r="M94" s="22"/>
-      <c r="N94" s="22"/>
-      <c r="O94" s="22"/>
-      <c r="P94" s="22"/>
-      <c r="Q94" s="22"/>
-      <c r="R94" s="22"/>
-      <c r="S94" s="22"/>
+      <c r="J94" s="146"/>
+      <c r="K94" s="146"/>
+      <c r="L94" s="146"/>
+      <c r="M94" s="146"/>
+      <c r="N94" s="146"/>
+      <c r="O94" s="146"/>
+      <c r="P94" s="146"/>
+      <c r="Q94" s="146"/>
+      <c r="R94" s="146"/>
+      <c r="S94" s="146"/>
     </row>
     <row r="95" spans="1:19">
       <c r="A95" s="16">
         <v>91</v>
       </c>
-      <c r="B95" s="138" t="s">
-        <v>227</v>
-      </c>
-      <c r="C95" s="170" t="s">
+      <c r="B95" s="175" t="s">
+        <v>177</v>
+      </c>
+      <c r="C95" s="176" t="s">
         <v>111</v>
       </c>
-      <c r="D95" s="171" t="str">
+      <c r="D95" s="177" t="str">
         <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E95" s="172"/>
-      <c r="F95" s="172"/>
-      <c r="G95" s="173"/>
-      <c r="H95" s="173"/>
-      <c r="I95" s="171" t="str">
+      <c r="E95" s="178">
+        <v>43060</v>
+      </c>
+      <c r="F95" s="178"/>
+      <c r="G95" s="179">
+        <v>3</v>
+      </c>
+      <c r="H95" s="179"/>
+      <c r="I95" s="177" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J95" s="174"/>
-      <c r="K95" s="174"/>
-      <c r="L95" s="174"/>
-      <c r="M95" s="174"/>
-      <c r="N95" s="174"/>
-      <c r="O95" s="174"/>
-      <c r="P95" s="174"/>
-      <c r="Q95" s="174"/>
-      <c r="R95" s="174"/>
-      <c r="S95" s="174"/>
+      <c r="J95" s="180"/>
+      <c r="K95" s="180"/>
+      <c r="L95" s="180"/>
+      <c r="M95" s="180"/>
+      <c r="N95" s="180"/>
+      <c r="O95" s="180"/>
+      <c r="P95" s="180"/>
+      <c r="Q95" s="180"/>
+      <c r="R95" s="180"/>
+      <c r="S95" s="180"/>
     </row>
     <row r="96" spans="1:19">
       <c r="A96" s="16">
         <v>92</v>
       </c>
-      <c r="B96" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="C96" s="18" t="s">
+      <c r="B96" s="175" t="s">
+        <v>178</v>
+      </c>
+      <c r="C96" s="176" t="s">
         <v>111</v>
       </c>
-      <c r="D96" s="12" t="str">
+      <c r="D96" s="177" t="str">
         <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E96" s="4">
-        <v>43070</v>
-      </c>
-      <c r="F96" s="4"/>
-      <c r="G96" s="19">
+      <c r="E96" s="178">
+        <v>43063</v>
+      </c>
+      <c r="F96" s="178"/>
+      <c r="G96" s="179">
         <v>3</v>
       </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="12" t="str">
+      <c r="H96" s="179"/>
+      <c r="I96" s="177" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J96" s="22"/>
-      <c r="K96" s="22"/>
-      <c r="L96" s="22"/>
-      <c r="M96" s="22"/>
-      <c r="N96" s="22"/>
-      <c r="O96" s="22"/>
-      <c r="P96" s="22"/>
-      <c r="Q96" s="22"/>
-      <c r="R96" s="22"/>
-      <c r="S96" s="22"/>
+      <c r="J96" s="180"/>
+      <c r="K96" s="180"/>
+      <c r="L96" s="180"/>
+      <c r="M96" s="180"/>
+      <c r="N96" s="180"/>
+      <c r="O96" s="180"/>
+      <c r="P96" s="180"/>
+      <c r="Q96" s="180"/>
+      <c r="R96" s="180"/>
+      <c r="S96" s="180"/>
     </row>
     <row r="97" spans="1:26">
       <c r="A97" s="16">
         <v>93</v>
       </c>
-      <c r="B97" s="17"/>
-      <c r="C97" s="18" t="s">
+      <c r="B97" s="175" t="s">
+        <v>179</v>
+      </c>
+      <c r="C97" s="176" t="s">
         <v>111</v>
       </c>
-      <c r="D97" s="12" t="str">
+      <c r="D97" s="177" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="19"/>
-      <c r="I97" s="12" t="str">
+        <v>未着手</v>
+      </c>
+      <c r="E97" s="178">
+        <v>43056</v>
+      </c>
+      <c r="F97" s="178"/>
+      <c r="G97" s="179">
+        <v>2</v>
+      </c>
+      <c r="H97" s="179"/>
+      <c r="I97" s="177" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J97" s="22"/>
-      <c r="K97" s="22"/>
-      <c r="L97" s="22"/>
-      <c r="M97" s="22"/>
-      <c r="N97" s="22"/>
-      <c r="O97" s="22"/>
-      <c r="P97" s="22"/>
-      <c r="Q97" s="22"/>
-      <c r="R97" s="22"/>
-      <c r="S97" s="22"/>
+      <c r="J97" s="180"/>
+      <c r="K97" s="180"/>
+      <c r="L97" s="180"/>
+      <c r="M97" s="180"/>
+      <c r="N97" s="180"/>
+      <c r="O97" s="180"/>
+      <c r="P97" s="180"/>
+      <c r="Q97" s="180"/>
+      <c r="R97" s="180"/>
+      <c r="S97" s="180"/>
     </row>
     <row r="98" spans="1:26">
       <c r="A98" s="16">
         <v>94</v>
       </c>
-      <c r="B98" s="17"/>
-      <c r="C98" s="18" t="s">
+      <c r="B98" s="175" t="s">
+        <v>180</v>
+      </c>
+      <c r="C98" s="176" t="s">
         <v>111</v>
       </c>
-      <c r="D98" s="12" t="str">
+      <c r="D98" s="177" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="19"/>
-      <c r="H98" s="19"/>
-      <c r="I98" s="12" t="str">
+        <v>未着手</v>
+      </c>
+      <c r="E98" s="178">
+        <v>43063</v>
+      </c>
+      <c r="F98" s="178"/>
+      <c r="G98" s="179">
+        <v>4</v>
+      </c>
+      <c r="H98" s="179"/>
+      <c r="I98" s="177" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J98" s="22"/>
-      <c r="K98" s="22"/>
-      <c r="L98" s="22"/>
-      <c r="M98" s="22"/>
-      <c r="N98" s="22"/>
-      <c r="O98" s="22"/>
-      <c r="P98" s="22"/>
-      <c r="Q98" s="22"/>
-      <c r="R98" s="22"/>
-      <c r="S98" s="22"/>
+      <c r="J98" s="180"/>
+      <c r="K98" s="180"/>
+      <c r="L98" s="180"/>
+      <c r="M98" s="180"/>
+      <c r="N98" s="180"/>
+      <c r="O98" s="180"/>
+      <c r="P98" s="180"/>
+      <c r="Q98" s="180"/>
+      <c r="R98" s="180"/>
+      <c r="S98" s="180"/>
     </row>
     <row r="99" spans="1:26">
       <c r="A99" s="16">
         <v>95</v>
       </c>
-      <c r="B99" s="17"/>
-      <c r="C99" s="18" t="s">
+      <c r="B99" s="175" t="s">
+        <v>181</v>
+      </c>
+      <c r="C99" s="176" t="s">
         <v>111</v>
       </c>
-      <c r="D99" s="12" t="str">
+      <c r="D99" s="177" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="12" t="str">
+        <v>未着手</v>
+      </c>
+      <c r="E99" s="178">
+        <v>43067</v>
+      </c>
+      <c r="F99" s="193"/>
+      <c r="G99" s="179">
+        <v>2</v>
+      </c>
+      <c r="H99" s="179"/>
+      <c r="I99" s="177" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J99" s="22"/>
-      <c r="K99" s="22"/>
-      <c r="L99" s="22"/>
-      <c r="M99" s="22"/>
-      <c r="N99" s="22"/>
-      <c r="O99" s="22"/>
-      <c r="P99" s="22"/>
-      <c r="Q99" s="22"/>
-      <c r="R99" s="22"/>
-      <c r="S99" s="22"/>
+      <c r="J99" s="180"/>
+      <c r="K99" s="180"/>
+      <c r="L99" s="180"/>
+      <c r="M99" s="180"/>
+      <c r="N99" s="180"/>
+      <c r="O99" s="180"/>
+      <c r="P99" s="180"/>
+      <c r="Q99" s="180"/>
+      <c r="R99" s="180"/>
+      <c r="S99" s="180"/>
     </row>
     <row r="100" spans="1:26">
       <c r="A100" s="16">
         <v>96</v>
       </c>
-      <c r="B100" s="17"/>
-      <c r="C100" s="18" t="s">
+      <c r="B100" s="138" t="s">
+        <v>227</v>
+      </c>
+      <c r="C100" s="142" t="s">
         <v>111</v>
       </c>
-      <c r="D100" s="12" t="str">
+      <c r="D100" s="143" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="19"/>
-      <c r="I100" s="12" t="str">
+        <v>未着手</v>
+      </c>
+      <c r="E100" s="144"/>
+      <c r="F100" s="199"/>
+      <c r="G100" s="145"/>
+      <c r="H100" s="145"/>
+      <c r="I100" s="143" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J100" s="22"/>
-      <c r="K100" s="22"/>
-      <c r="L100" s="22"/>
-      <c r="M100" s="22"/>
-      <c r="N100" s="22"/>
-      <c r="O100" s="22"/>
-      <c r="P100" s="22"/>
-      <c r="Q100" s="22"/>
-      <c r="R100" s="22"/>
-      <c r="S100" s="22"/>
+      <c r="J100" s="146"/>
+      <c r="K100" s="146"/>
+      <c r="L100" s="146"/>
+      <c r="M100" s="146"/>
+      <c r="N100" s="146"/>
+      <c r="O100" s="146"/>
+      <c r="P100" s="146"/>
+      <c r="Q100" s="146"/>
+      <c r="R100" s="146"/>
+      <c r="S100" s="146"/>
     </row>
     <row r="101" spans="1:26">
       <c r="A101" s="16">
         <v>97</v>
       </c>
-      <c r="B101" s="17"/>
-      <c r="C101" s="18" t="s">
+      <c r="B101" s="175" t="s">
+        <v>182</v>
+      </c>
+      <c r="C101" s="176" t="s">
         <v>111</v>
       </c>
-      <c r="D101" s="12" t="str">
+      <c r="D101" s="177" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="19"/>
-      <c r="I101" s="12" t="str">
+        <v>未着手</v>
+      </c>
+      <c r="E101" s="178">
+        <v>43070</v>
+      </c>
+      <c r="F101" s="193"/>
+      <c r="G101" s="179">
+        <v>3</v>
+      </c>
+      <c r="H101" s="179"/>
+      <c r="I101" s="177" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J101" s="22"/>
-      <c r="K101" s="22"/>
-      <c r="L101" s="22"/>
-      <c r="M101" s="22"/>
-      <c r="N101" s="22"/>
-      <c r="O101" s="22"/>
-      <c r="P101" s="22"/>
-      <c r="Q101" s="22"/>
-      <c r="R101" s="22"/>
-      <c r="S101" s="22"/>
+      <c r="J101" s="180"/>
+      <c r="K101" s="180"/>
+      <c r="L101" s="180"/>
+      <c r="M101" s="180"/>
+      <c r="N101" s="180"/>
+      <c r="O101" s="180"/>
+      <c r="P101" s="180"/>
+      <c r="Q101" s="180"/>
+      <c r="R101" s="180"/>
+      <c r="S101" s="180"/>
     </row>
     <row r="102" spans="1:26">
       <c r="A102" s="16">
         <v>98</v>
       </c>
-      <c r="B102" s="17"/>
-      <c r="C102" s="18" t="s">
+      <c r="B102" s="175"/>
+      <c r="C102" s="176" t="s">
         <v>111</v>
       </c>
-      <c r="D102" s="12" t="str">
+      <c r="D102" s="177" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="19"/>
-      <c r="I102" s="12" t="str">
+      <c r="E102" s="178"/>
+      <c r="F102" s="193"/>
+      <c r="G102" s="179"/>
+      <c r="H102" s="179"/>
+      <c r="I102" s="177" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J102" s="22"/>
-      <c r="K102" s="22"/>
-      <c r="L102" s="22"/>
-      <c r="M102" s="22"/>
-      <c r="N102" s="22"/>
-      <c r="O102" s="22"/>
-      <c r="P102" s="22"/>
-      <c r="Q102" s="22"/>
-      <c r="R102" s="22"/>
-      <c r="S102" s="22"/>
+      <c r="J102" s="180"/>
+      <c r="K102" s="180"/>
+      <c r="L102" s="180"/>
+      <c r="M102" s="180"/>
+      <c r="N102" s="180"/>
+      <c r="O102" s="180"/>
+      <c r="P102" s="180"/>
+      <c r="Q102" s="180"/>
+      <c r="R102" s="180"/>
+      <c r="S102" s="180"/>
     </row>
     <row r="103" spans="1:26">
       <c r="A103" s="16">
         <v>99</v>
       </c>
-      <c r="B103" s="138" t="s">
-        <v>241</v>
-      </c>
-      <c r="C103" s="170" t="s">
-        <v>112</v>
-      </c>
-      <c r="D103" s="171" t="str">
+      <c r="B103" s="175"/>
+      <c r="C103" s="176" t="s">
+        <v>111</v>
+      </c>
+      <c r="D103" s="177" t="str">
         <f t="shared" si="4"/>
-        <v>未着手</v>
-      </c>
-      <c r="E103" s="172"/>
-      <c r="F103" s="172"/>
-      <c r="G103" s="173"/>
-      <c r="H103" s="173"/>
-      <c r="I103" s="171" t="str">
+        <v/>
+      </c>
+      <c r="E103" s="178"/>
+      <c r="F103" s="193"/>
+      <c r="G103" s="179"/>
+      <c r="H103" s="179"/>
+      <c r="I103" s="177" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J103" s="174"/>
-      <c r="K103" s="174"/>
-      <c r="L103" s="174"/>
-      <c r="M103" s="174"/>
-      <c r="N103" s="174"/>
-      <c r="O103" s="174"/>
-      <c r="P103" s="174"/>
-      <c r="Q103" s="174"/>
-      <c r="R103" s="174"/>
-      <c r="S103" s="174"/>
+      <c r="J103" s="180"/>
+      <c r="K103" s="180"/>
+      <c r="L103" s="180"/>
+      <c r="M103" s="180"/>
+      <c r="N103" s="180"/>
+      <c r="O103" s="180"/>
+      <c r="P103" s="180"/>
+      <c r="Q103" s="180"/>
+      <c r="R103" s="180"/>
+      <c r="S103" s="180"/>
     </row>
     <row r="104" spans="1:26">
       <c r="A104" s="16">
         <v>100</v>
       </c>
-      <c r="B104" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D104" s="12" t="str">
+      <c r="B104" s="175"/>
+      <c r="C104" s="176" t="s">
+        <v>111</v>
+      </c>
+      <c r="D104" s="177" t="str">
         <f t="shared" si="4"/>
-        <v>未着手</v>
-      </c>
-      <c r="E104" s="4">
-        <v>43049</v>
-      </c>
-      <c r="F104" s="4"/>
-      <c r="G104" s="19">
-        <v>4</v>
-      </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="12" t="str">
+        <v/>
+      </c>
+      <c r="E104" s="178"/>
+      <c r="F104" s="193"/>
+      <c r="G104" s="179"/>
+      <c r="H104" s="179"/>
+      <c r="I104" s="177" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J104" s="22"/>
-      <c r="K104" s="22"/>
-      <c r="L104" s="22"/>
-      <c r="M104" s="22"/>
-      <c r="N104" s="22"/>
-      <c r="O104" s="22"/>
-      <c r="P104" s="22"/>
-      <c r="Q104" s="22"/>
-      <c r="R104" s="22"/>
-      <c r="S104" s="22"/>
+      <c r="J104" s="180"/>
+      <c r="K104" s="180"/>
+      <c r="L104" s="180"/>
+      <c r="M104" s="180"/>
+      <c r="N104" s="180"/>
+      <c r="O104" s="180"/>
+      <c r="P104" s="180"/>
+      <c r="Q104" s="180"/>
+      <c r="R104" s="180"/>
+      <c r="S104" s="180"/>
     </row>
     <row r="105" spans="1:26" ht="13.5" customHeight="1">
       <c r="A105" s="16">
         <v>101</v>
       </c>
-      <c r="B105" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="C105" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D105" s="12" t="str">
+      <c r="B105" s="175"/>
+      <c r="C105" s="176" t="s">
+        <v>111</v>
+      </c>
+      <c r="D105" s="177" t="str">
         <f t="shared" si="4"/>
-        <v>未着手</v>
-      </c>
-      <c r="E105" s="135">
-        <v>43053</v>
-      </c>
-      <c r="F105" s="135"/>
-      <c r="G105" s="136">
-        <v>4</v>
-      </c>
-      <c r="H105" s="136"/>
-      <c r="I105" s="12" t="str">
+        <v/>
+      </c>
+      <c r="E105" s="178"/>
+      <c r="F105" s="193"/>
+      <c r="G105" s="179"/>
+      <c r="H105" s="194"/>
+      <c r="I105" s="177" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J105" s="137"/>
-      <c r="K105" s="137"/>
-      <c r="L105" s="137"/>
-      <c r="M105" s="137"/>
-      <c r="N105" s="137"/>
-      <c r="O105" s="137"/>
-      <c r="P105" s="137"/>
-      <c r="Q105" s="137"/>
-      <c r="R105" s="137"/>
-      <c r="S105" s="137"/>
+      <c r="J105" s="195"/>
+      <c r="K105" s="195"/>
+      <c r="L105" s="195"/>
+      <c r="M105" s="195"/>
+      <c r="N105" s="195"/>
+      <c r="O105" s="195"/>
+      <c r="P105" s="195"/>
+      <c r="Q105" s="195"/>
+      <c r="R105" s="195"/>
+      <c r="S105" s="195"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1">
       <c r="A106" s="16">
         <v>102</v>
       </c>
-      <c r="B106" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D106" s="12" t="str">
+      <c r="B106" s="175"/>
+      <c r="C106" s="176" t="s">
+        <v>111</v>
+      </c>
+      <c r="D106" s="177" t="str">
         <f t="shared" si="4"/>
-        <v>未着手</v>
-      </c>
-      <c r="E106" s="135">
-        <v>43056</v>
-      </c>
-      <c r="F106" s="135"/>
-      <c r="G106" s="136">
-        <v>5</v>
-      </c>
-      <c r="H106" s="136"/>
-      <c r="I106" s="12" t="str">
+        <v/>
+      </c>
+      <c r="E106" s="178"/>
+      <c r="F106" s="193"/>
+      <c r="G106" s="179"/>
+      <c r="H106" s="194"/>
+      <c r="I106" s="177" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J106" s="137"/>
-      <c r="K106" s="137"/>
-      <c r="L106" s="137"/>
-      <c r="M106" s="137"/>
-      <c r="N106" s="137"/>
-      <c r="O106" s="137"/>
-      <c r="P106" s="137"/>
-      <c r="Q106" s="137"/>
-      <c r="R106" s="137"/>
-      <c r="S106" s="137"/>
+      <c r="J106" s="195"/>
+      <c r="K106" s="195"/>
+      <c r="L106" s="195"/>
+      <c r="M106" s="195"/>
+      <c r="N106" s="195"/>
+      <c r="O106" s="195"/>
+      <c r="P106" s="195"/>
+      <c r="Q106" s="195"/>
+      <c r="R106" s="195"/>
+      <c r="S106" s="195"/>
       <c r="U106" s="13" t="s">
         <v>11</v>
       </c>
@@ -20834,38 +21061,32 @@
       <c r="A107" s="16">
         <v>103</v>
       </c>
-      <c r="B107" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="C107" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D107" s="12" t="str">
+      <c r="B107" s="175"/>
+      <c r="C107" s="176" t="s">
+        <v>111</v>
+      </c>
+      <c r="D107" s="177" t="str">
         <f t="shared" si="4"/>
-        <v>未着手</v>
-      </c>
-      <c r="E107" s="135">
-        <v>43060</v>
-      </c>
-      <c r="F107" s="135"/>
-      <c r="G107" s="136">
-        <v>4</v>
-      </c>
-      <c r="H107" s="136"/>
-      <c r="I107" s="12" t="str">
+        <v/>
+      </c>
+      <c r="E107" s="178"/>
+      <c r="F107" s="193"/>
+      <c r="G107" s="179"/>
+      <c r="H107" s="194"/>
+      <c r="I107" s="177" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J107" s="137"/>
-      <c r="K107" s="137"/>
-      <c r="L107" s="137"/>
-      <c r="M107" s="137"/>
-      <c r="N107" s="137"/>
-      <c r="O107" s="137"/>
-      <c r="P107" s="137"/>
-      <c r="Q107" s="137"/>
-      <c r="R107" s="137"/>
-      <c r="S107" s="137"/>
+      <c r="J107" s="195"/>
+      <c r="K107" s="195"/>
+      <c r="L107" s="195"/>
+      <c r="M107" s="195"/>
+      <c r="N107" s="195"/>
+      <c r="O107" s="195"/>
+      <c r="P107" s="195"/>
+      <c r="Q107" s="195"/>
+      <c r="R107" s="195"/>
+      <c r="S107" s="195"/>
       <c r="U107" s="11" t="s">
         <v>191</v>
       </c>
@@ -20894,44 +21115,40 @@
       <c r="A108" s="16">
         <v>104</v>
       </c>
-      <c r="B108" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="C108" s="18" t="s">
+      <c r="B108" s="138" t="s">
+        <v>241</v>
+      </c>
+      <c r="C108" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="D108" s="12" t="str">
+      <c r="D108" s="143" t="str">
         <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E108" s="135">
-        <v>43063</v>
-      </c>
-      <c r="F108" s="135"/>
-      <c r="G108" s="136">
-        <v>5</v>
-      </c>
-      <c r="H108" s="136"/>
-      <c r="I108" s="12" t="str">
+      <c r="E108" s="144"/>
+      <c r="F108" s="144"/>
+      <c r="G108" s="145"/>
+      <c r="H108" s="145"/>
+      <c r="I108" s="143" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J108" s="137"/>
-      <c r="K108" s="137"/>
-      <c r="L108" s="137"/>
-      <c r="M108" s="137"/>
-      <c r="N108" s="137"/>
-      <c r="O108" s="137"/>
-      <c r="P108" s="137"/>
-      <c r="Q108" s="137"/>
-      <c r="R108" s="137"/>
-      <c r="S108" s="137"/>
+      <c r="J108" s="143"/>
+      <c r="K108" s="143"/>
+      <c r="L108" s="143"/>
+      <c r="M108" s="143"/>
+      <c r="N108" s="143"/>
+      <c r="O108" s="143"/>
+      <c r="P108" s="143"/>
+      <c r="Q108" s="143"/>
+      <c r="R108" s="143"/>
+      <c r="S108" s="143"/>
       <c r="U108" s="11" t="s">
         <v>192</v>
       </c>
       <c r="V108" s="10">
         <f t="shared" si="5"/>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="W108" s="10">
         <f t="shared" ca="1" si="6"/>
@@ -20939,7 +21156,7 @@
       </c>
       <c r="X108" s="10">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Y108" s="14">
         <f t="shared" si="8"/>
@@ -20954,38 +21171,38 @@
       <c r="A109" s="16">
         <v>105</v>
       </c>
-      <c r="B109" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C109" s="18" t="s">
+      <c r="B109" s="175" t="s">
+        <v>183</v>
+      </c>
+      <c r="C109" s="176" t="s">
         <v>112</v>
       </c>
-      <c r="D109" s="12" t="str">
+      <c r="D109" s="177" t="str">
         <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E109" s="135">
-        <v>43067</v>
-      </c>
-      <c r="F109" s="135"/>
-      <c r="G109" s="136">
-        <v>3</v>
-      </c>
-      <c r="H109" s="136"/>
-      <c r="I109" s="12" t="str">
+      <c r="E109" s="178">
+        <v>43049</v>
+      </c>
+      <c r="F109" s="193"/>
+      <c r="G109" s="179">
+        <v>4</v>
+      </c>
+      <c r="H109" s="194"/>
+      <c r="I109" s="177" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J109" s="137"/>
-      <c r="K109" s="137"/>
-      <c r="L109" s="137"/>
-      <c r="M109" s="137"/>
-      <c r="N109" s="137"/>
-      <c r="O109" s="137"/>
-      <c r="P109" s="137"/>
-      <c r="Q109" s="137"/>
-      <c r="R109" s="137"/>
-      <c r="S109" s="137"/>
+      <c r="J109" s="195"/>
+      <c r="K109" s="195"/>
+      <c r="L109" s="195"/>
+      <c r="M109" s="195"/>
+      <c r="N109" s="195"/>
+      <c r="O109" s="195"/>
+      <c r="P109" s="195"/>
+      <c r="Q109" s="195"/>
+      <c r="R109" s="195"/>
+      <c r="S109" s="195"/>
       <c r="U109" s="11" t="s">
         <v>193</v>
       </c>
@@ -21014,38 +21231,38 @@
       <c r="A110" s="16">
         <v>106</v>
       </c>
-      <c r="B110" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="C110" s="18" t="s">
+      <c r="B110" s="175" t="s">
+        <v>184</v>
+      </c>
+      <c r="C110" s="176" t="s">
         <v>112</v>
       </c>
-      <c r="D110" s="12" t="str">
+      <c r="D110" s="177" t="str">
         <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E110" s="135">
-        <v>43070</v>
-      </c>
-      <c r="F110" s="135"/>
-      <c r="G110" s="136">
+      <c r="E110" s="193">
+        <v>43053</v>
+      </c>
+      <c r="F110" s="193"/>
+      <c r="G110" s="194">
         <v>4</v>
       </c>
-      <c r="H110" s="136"/>
-      <c r="I110" s="12" t="str">
+      <c r="H110" s="194"/>
+      <c r="I110" s="177" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J110" s="137"/>
-      <c r="K110" s="137"/>
-      <c r="L110" s="137"/>
-      <c r="M110" s="137"/>
-      <c r="N110" s="137"/>
-      <c r="O110" s="137"/>
-      <c r="P110" s="137"/>
-      <c r="Q110" s="137"/>
-      <c r="R110" s="137"/>
-      <c r="S110" s="137"/>
+      <c r="J110" s="195"/>
+      <c r="K110" s="195"/>
+      <c r="L110" s="195"/>
+      <c r="M110" s="195"/>
+      <c r="N110" s="195"/>
+      <c r="O110" s="195"/>
+      <c r="P110" s="195"/>
+      <c r="Q110" s="195"/>
+      <c r="R110" s="195"/>
+      <c r="S110" s="195"/>
       <c r="U110" s="11" t="s">
         <v>194</v>
       </c>
@@ -21071,50 +21288,50 @@
       </c>
     </row>
     <row r="111" spans="1:26">
-      <c r="A111" s="16">
+      <c r="A111" s="200">
         <v>107</v>
       </c>
-      <c r="B111" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="C111" s="18" t="s">
+      <c r="B111" s="201" t="s">
+        <v>185</v>
+      </c>
+      <c r="C111" s="202" t="s">
         <v>112</v>
       </c>
-      <c r="D111" s="12" t="str">
+      <c r="D111" s="203" t="str">
         <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E111" s="135">
-        <v>43077</v>
-      </c>
-      <c r="F111" s="135"/>
-      <c r="G111" s="136">
+      <c r="E111" s="204">
+        <v>43056</v>
+      </c>
+      <c r="F111" s="193"/>
+      <c r="G111" s="205">
         <v>5</v>
       </c>
-      <c r="H111" s="136"/>
-      <c r="I111" s="12" t="str">
+      <c r="H111" s="205"/>
+      <c r="I111" s="203" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J111" s="137"/>
-      <c r="K111" s="137"/>
-      <c r="L111" s="137"/>
-      <c r="M111" s="137"/>
-      <c r="N111" s="137"/>
-      <c r="O111" s="137"/>
-      <c r="P111" s="137"/>
-      <c r="Q111" s="137"/>
-      <c r="R111" s="137"/>
-      <c r="S111" s="137"/>
+      <c r="J111" s="206"/>
+      <c r="K111" s="206"/>
+      <c r="L111" s="206"/>
+      <c r="M111" s="206"/>
+      <c r="N111" s="206"/>
+      <c r="O111" s="206"/>
+      <c r="P111" s="206"/>
+      <c r="Q111" s="206"/>
+      <c r="R111" s="206"/>
+      <c r="S111" s="206"/>
       <c r="U111" s="11" t="s">
         <v>195</v>
       </c>
       <c r="V111" s="10">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W111" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X111" s="10">
@@ -21126,22 +21343,46 @@
         <v>54</v>
       </c>
       <c r="Z111" s="15">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:26">
-      <c r="B112" s="17"/>
-      <c r="J112" s="6"/>
-      <c r="K112" s="6"/>
-      <c r="L112" s="6"/>
-      <c r="M112" s="6"/>
-      <c r="N112" s="6"/>
-      <c r="O112" s="6"/>
-      <c r="P112" s="6"/>
-      <c r="Q112" s="6"/>
-      <c r="R112" s="6"/>
-      <c r="S112" s="6"/>
+      <c r="A112" s="16">
+        <v>108</v>
+      </c>
+      <c r="B112" s="175" t="s">
+        <v>186</v>
+      </c>
+      <c r="C112" s="176" t="s">
+        <v>112</v>
+      </c>
+      <c r="D112" s="177" t="str">
+        <f t="shared" si="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="E112" s="193">
+        <v>43060</v>
+      </c>
+      <c r="F112" s="193"/>
+      <c r="G112" s="194">
+        <v>4</v>
+      </c>
+      <c r="H112" s="194"/>
+      <c r="I112" s="203" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="J112" s="195"/>
+      <c r="K112" s="195"/>
+      <c r="L112" s="195"/>
+      <c r="M112" s="195"/>
+      <c r="N112" s="195"/>
+      <c r="O112" s="195"/>
+      <c r="P112" s="195"/>
+      <c r="Q112" s="195"/>
+      <c r="R112" s="195"/>
+      <c r="S112" s="195"/>
       <c r="U112" s="11"/>
       <c r="V112" s="10">
         <f t="shared" si="5"/>
@@ -21164,18 +21405,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:26">
-      <c r="B113" s="17"/>
-      <c r="J113" s="6"/>
-      <c r="K113" s="6"/>
-      <c r="L113" s="6"/>
-      <c r="M113" s="6"/>
-      <c r="N113" s="6"/>
-      <c r="O113" s="6"/>
-      <c r="P113" s="6"/>
-      <c r="Q113" s="6"/>
-      <c r="R113" s="6"/>
-      <c r="S113" s="6"/>
+    <row r="113" spans="1:26">
+      <c r="A113" s="200">
+        <v>109</v>
+      </c>
+      <c r="B113" s="175" t="s">
+        <v>187</v>
+      </c>
+      <c r="C113" s="176" t="s">
+        <v>112</v>
+      </c>
+      <c r="D113" s="177" t="str">
+        <f t="shared" si="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="E113" s="193">
+        <v>43063</v>
+      </c>
+      <c r="F113" s="193"/>
+      <c r="G113" s="194">
+        <v>5</v>
+      </c>
+      <c r="H113" s="194"/>
+      <c r="I113" s="203" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="J113" s="195"/>
+      <c r="K113" s="195"/>
+      <c r="L113" s="195"/>
+      <c r="M113" s="195"/>
+      <c r="N113" s="195"/>
+      <c r="O113" s="195"/>
+      <c r="P113" s="195"/>
+      <c r="Q113" s="195"/>
+      <c r="R113" s="195"/>
+      <c r="S113" s="195"/>
       <c r="U113" s="11"/>
       <c r="V113" s="10">
         <f t="shared" si="5"/>
@@ -21198,17 +21463,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:26">
-      <c r="J114" s="6"/>
-      <c r="K114" s="6"/>
-      <c r="L114" s="6"/>
-      <c r="M114" s="6"/>
-      <c r="N114" s="6"/>
-      <c r="O114" s="6"/>
-      <c r="P114" s="6"/>
-      <c r="Q114" s="6"/>
-      <c r="R114" s="6"/>
-      <c r="S114" s="6"/>
+    <row r="114" spans="1:26">
+      <c r="A114" s="16">
+        <v>110</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D114" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="E114" s="135">
+        <v>43067</v>
+      </c>
+      <c r="F114" s="135"/>
+      <c r="G114" s="136">
+        <v>3</v>
+      </c>
+      <c r="H114" s="136"/>
+      <c r="I114" s="203" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="J114" s="137"/>
+      <c r="K114" s="137"/>
+      <c r="L114" s="137"/>
+      <c r="M114" s="137"/>
+      <c r="N114" s="137"/>
+      <c r="O114" s="137"/>
+      <c r="P114" s="137"/>
+      <c r="Q114" s="137"/>
+      <c r="R114" s="137"/>
+      <c r="S114" s="137"/>
       <c r="U114" s="11"/>
       <c r="V114" s="10">
         <f t="shared" si="5"/>
@@ -21231,17 +21521,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:26">
-      <c r="J115" s="6"/>
-      <c r="K115" s="6"/>
-      <c r="L115" s="6"/>
-      <c r="M115" s="6"/>
-      <c r="N115" s="6"/>
-      <c r="O115" s="6"/>
-      <c r="P115" s="6"/>
-      <c r="Q115" s="6"/>
-      <c r="R115" s="6"/>
-      <c r="S115" s="6"/>
+    <row r="115" spans="1:26">
+      <c r="A115" s="200">
+        <v>111</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D115" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="E115" s="135">
+        <v>43070</v>
+      </c>
+      <c r="F115" s="135"/>
+      <c r="G115" s="136">
+        <v>4</v>
+      </c>
+      <c r="H115" s="136"/>
+      <c r="I115" s="203" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="J115" s="137"/>
+      <c r="K115" s="137"/>
+      <c r="L115" s="137"/>
+      <c r="M115" s="137"/>
+      <c r="N115" s="137"/>
+      <c r="O115" s="137"/>
+      <c r="P115" s="137"/>
+      <c r="Q115" s="137"/>
+      <c r="R115" s="137"/>
+      <c r="S115" s="137"/>
       <c r="U115" s="11"/>
       <c r="V115" s="10">
         <f t="shared" si="5"/>
@@ -21264,17 +21579,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:26">
-      <c r="J116" s="6"/>
-      <c r="K116" s="6"/>
-      <c r="L116" s="6"/>
-      <c r="M116" s="6"/>
-      <c r="N116" s="6"/>
-      <c r="O116" s="6"/>
-      <c r="P116" s="6"/>
-      <c r="Q116" s="6"/>
-      <c r="R116" s="6"/>
-      <c r="S116" s="6"/>
+    <row r="116" spans="1:26">
+      <c r="A116" s="16">
+        <v>112</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D116" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="E116" s="135">
+        <v>43077</v>
+      </c>
+      <c r="F116" s="135"/>
+      <c r="G116" s="136">
+        <v>5</v>
+      </c>
+      <c r="H116" s="136"/>
+      <c r="I116" s="203" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="J116" s="137"/>
+      <c r="K116" s="137"/>
+      <c r="L116" s="137"/>
+      <c r="M116" s="137"/>
+      <c r="N116" s="137"/>
+      <c r="O116" s="137"/>
+      <c r="P116" s="137"/>
+      <c r="Q116" s="137"/>
+      <c r="R116" s="137"/>
+      <c r="S116" s="137"/>
       <c r="U116" s="11"/>
       <c r="V116" s="10">
         <f t="shared" si="5"/>
@@ -21297,79 +21637,175 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:26">
-      <c r="J117" s="6"/>
-      <c r="K117" s="6"/>
-      <c r="L117" s="6"/>
-      <c r="M117" s="6"/>
-      <c r="N117" s="6"/>
-      <c r="O117" s="6"/>
-      <c r="P117" s="6"/>
-      <c r="Q117" s="6"/>
-      <c r="R117" s="6"/>
-      <c r="S117" s="6"/>
-    </row>
-    <row r="118" spans="2:26">
-      <c r="J118" s="6"/>
-      <c r="K118" s="6"/>
-      <c r="L118" s="6"/>
-      <c r="M118" s="6"/>
-      <c r="N118" s="6"/>
-      <c r="O118" s="6"/>
-      <c r="P118" s="6"/>
-      <c r="Q118" s="6"/>
-      <c r="R118" s="6"/>
-      <c r="S118" s="6"/>
-    </row>
-    <row r="119" spans="2:26">
-      <c r="J119" s="6"/>
-      <c r="K119" s="6"/>
-      <c r="L119" s="6"/>
-      <c r="M119" s="6"/>
-      <c r="N119" s="6"/>
-      <c r="O119" s="6"/>
-      <c r="P119" s="6"/>
-      <c r="Q119" s="6"/>
-      <c r="R119" s="6"/>
-      <c r="S119" s="6"/>
-    </row>
-    <row r="120" spans="2:26">
-      <c r="J120" s="6"/>
-      <c r="K120" s="6"/>
-      <c r="L120" s="6"/>
-      <c r="M120" s="6"/>
-      <c r="N120" s="6"/>
-      <c r="O120" s="6"/>
-      <c r="P120" s="6"/>
-      <c r="Q120" s="6"/>
-      <c r="R120" s="6"/>
-      <c r="S120" s="6"/>
-    </row>
-    <row r="121" spans="2:26">
-      <c r="J121" s="6"/>
-      <c r="K121" s="6"/>
-      <c r="L121" s="6"/>
-      <c r="M121" s="6"/>
-      <c r="N121" s="6"/>
-      <c r="O121" s="6"/>
-      <c r="P121" s="6"/>
-      <c r="Q121" s="6"/>
-      <c r="R121" s="6"/>
-      <c r="S121" s="6"/>
-    </row>
-    <row r="122" spans="2:26">
-      <c r="J122" s="6"/>
-      <c r="K122" s="6"/>
-      <c r="L122" s="6"/>
-      <c r="M122" s="6"/>
-      <c r="N122" s="6"/>
-      <c r="O122" s="6"/>
-      <c r="P122" s="6"/>
-      <c r="Q122" s="6"/>
-      <c r="R122" s="6"/>
-      <c r="S122" s="6"/>
-    </row>
-    <row r="123" spans="2:26">
+    <row r="117" spans="1:26">
+      <c r="A117" s="200">
+        <v>113</v>
+      </c>
+      <c r="B117" s="17"/>
+      <c r="C117" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D117" s="207"/>
+      <c r="E117" s="135"/>
+      <c r="F117" s="135"/>
+      <c r="G117" s="136"/>
+      <c r="H117" s="136"/>
+      <c r="I117" s="203" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="J117" s="137"/>
+      <c r="K117" s="137"/>
+      <c r="L117" s="137"/>
+      <c r="M117" s="137"/>
+      <c r="N117" s="137"/>
+      <c r="O117" s="137"/>
+      <c r="P117" s="137"/>
+      <c r="Q117" s="137"/>
+      <c r="R117" s="137"/>
+      <c r="S117" s="137"/>
+    </row>
+    <row r="118" spans="1:26">
+      <c r="A118" s="16">
+        <v>114</v>
+      </c>
+      <c r="B118" s="17"/>
+      <c r="C118" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D118" s="207"/>
+      <c r="E118" s="135"/>
+      <c r="F118" s="135"/>
+      <c r="G118" s="136"/>
+      <c r="H118" s="136"/>
+      <c r="I118" s="203" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="J118" s="137"/>
+      <c r="K118" s="137"/>
+      <c r="L118" s="137"/>
+      <c r="M118" s="137"/>
+      <c r="N118" s="137"/>
+      <c r="O118" s="137"/>
+      <c r="P118" s="137"/>
+      <c r="Q118" s="137"/>
+      <c r="R118" s="137"/>
+      <c r="S118" s="137"/>
+    </row>
+    <row r="119" spans="1:26">
+      <c r="A119" s="200">
+        <v>115</v>
+      </c>
+      <c r="B119" s="17"/>
+      <c r="C119" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D119" s="207"/>
+      <c r="E119" s="135"/>
+      <c r="F119" s="135"/>
+      <c r="G119" s="136"/>
+      <c r="H119" s="136"/>
+      <c r="I119" s="203" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="J119" s="137"/>
+      <c r="K119" s="137"/>
+      <c r="L119" s="137"/>
+      <c r="M119" s="137"/>
+      <c r="N119" s="137"/>
+      <c r="O119" s="137"/>
+      <c r="P119" s="137"/>
+      <c r="Q119" s="137"/>
+      <c r="R119" s="137"/>
+      <c r="S119" s="137"/>
+    </row>
+    <row r="120" spans="1:26">
+      <c r="A120" s="16">
+        <v>116</v>
+      </c>
+      <c r="B120" s="17"/>
+      <c r="C120" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D120" s="207"/>
+      <c r="E120" s="135"/>
+      <c r="F120" s="135"/>
+      <c r="G120" s="136"/>
+      <c r="H120" s="136"/>
+      <c r="I120" s="203" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="J120" s="137"/>
+      <c r="K120" s="137"/>
+      <c r="L120" s="137"/>
+      <c r="M120" s="137"/>
+      <c r="N120" s="137"/>
+      <c r="O120" s="137"/>
+      <c r="P120" s="137"/>
+      <c r="Q120" s="137"/>
+      <c r="R120" s="137"/>
+      <c r="S120" s="137"/>
+    </row>
+    <row r="121" spans="1:26">
+      <c r="A121" s="200">
+        <v>117</v>
+      </c>
+      <c r="B121" s="17"/>
+      <c r="C121" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D121" s="207"/>
+      <c r="E121" s="135"/>
+      <c r="F121" s="135"/>
+      <c r="G121" s="136"/>
+      <c r="H121" s="136"/>
+      <c r="I121" s="203" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="J121" s="137"/>
+      <c r="K121" s="137"/>
+      <c r="L121" s="137"/>
+      <c r="M121" s="137"/>
+      <c r="N121" s="137"/>
+      <c r="O121" s="137"/>
+      <c r="P121" s="137"/>
+      <c r="Q121" s="137"/>
+      <c r="R121" s="137"/>
+      <c r="S121" s="137"/>
+    </row>
+    <row r="122" spans="1:26">
+      <c r="A122" s="16">
+        <v>118</v>
+      </c>
+      <c r="B122" s="17"/>
+      <c r="C122" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D122" s="207"/>
+      <c r="E122" s="135"/>
+      <c r="F122" s="135"/>
+      <c r="G122" s="136"/>
+      <c r="H122" s="136"/>
+      <c r="I122" s="203" t="str">
+        <f t="shared" ref="I122" ca="1" si="10">IF(ISBLANK(J122)=FALSE,OFFSET(I122,0,COUNTA(J122:S122)),"")</f>
+        <v/>
+      </c>
+      <c r="J122" s="137"/>
+      <c r="K122" s="137"/>
+      <c r="L122" s="137"/>
+      <c r="M122" s="137"/>
+      <c r="N122" s="137"/>
+      <c r="O122" s="137"/>
+      <c r="P122" s="137"/>
+      <c r="Q122" s="137"/>
+      <c r="R122" s="137"/>
+      <c r="S122" s="137"/>
+    </row>
+    <row r="123" spans="1:26">
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
       <c r="L123" s="6"/>
@@ -21381,7 +21817,7 @@
       <c r="R123" s="6"/>
       <c r="S123" s="6"/>
     </row>
-    <row r="124" spans="2:26">
+    <row r="124" spans="1:26">
       <c r="J124" s="6"/>
       <c r="K124" s="6"/>
       <c r="L124" s="6"/>
@@ -21393,7 +21829,7 @@
       <c r="R124" s="6"/>
       <c r="S124" s="6"/>
     </row>
-    <row r="125" spans="2:26">
+    <row r="125" spans="1:26">
       <c r="J125" s="6"/>
       <c r="K125" s="6"/>
       <c r="L125" s="6"/>
@@ -21405,7 +21841,7 @@
       <c r="R125" s="6"/>
       <c r="S125" s="6"/>
     </row>
-    <row r="126" spans="2:26">
+    <row r="126" spans="1:26">
       <c r="J126" s="6"/>
       <c r="K126" s="6"/>
       <c r="L126" s="6"/>
@@ -21417,7 +21853,7 @@
       <c r="R126" s="6"/>
       <c r="S126" s="6"/>
     </row>
-    <row r="127" spans="2:26">
+    <row r="127" spans="1:26">
       <c r="J127" s="6"/>
       <c r="K127" s="6"/>
       <c r="L127" s="6"/>
@@ -21429,7 +21865,7 @@
       <c r="R127" s="6"/>
       <c r="S127" s="6"/>
     </row>
-    <row r="128" spans="2:26">
+    <row r="128" spans="1:26">
       <c r="J128" s="6"/>
       <c r="K128" s="6"/>
       <c r="L128" s="6"/>
@@ -22175,81 +22611,114 @@
     <mergeCell ref="F1:F4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <conditionalFormatting sqref="D112:D65536">
-    <cfRule type="expression" dxfId="38" priority="7" stopIfTrue="1">
-      <formula>D112="未着手"</formula>
+  <conditionalFormatting sqref="D117:D65536">
+    <cfRule type="expression" dxfId="47" priority="16" stopIfTrue="1">
+      <formula>D117="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="8" stopIfTrue="1">
-      <formula>D112="作業中"</formula>
+    <cfRule type="expression" dxfId="46" priority="17" stopIfTrue="1">
+      <formula>D117="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="9" stopIfTrue="1">
-      <formula>OR(D112="終了",D112="完了")</formula>
+    <cfRule type="expression" dxfId="45" priority="18" stopIfTrue="1">
+      <formula>OR(D117="終了",D117="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E101:H104 D101:D111 D5:XFD58 J59:XFD104 I59:I111 A5:A111 D59:H100">
-    <cfRule type="expression" dxfId="35" priority="10" stopIfTrue="1">
+  <conditionalFormatting sqref="D5:XFD58 J59:XFD104 D59:H82 E89:E115 E83:H104 D83:D116 A5:A122 I59:I122 G90:G115 F108 H108 J108:S108">
+    <cfRule type="expression" dxfId="44" priority="19" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="20" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="21" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B112:B65536">
+  <conditionalFormatting sqref="B106:B65536">
+    <cfRule type="expression" dxfId="41" priority="22" stopIfTrue="1">
+      <formula>D106="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="23" stopIfTrue="1">
+      <formula>D106="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="24" stopIfTrue="1">
+      <formula>OR(D106="終了",D106="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C123:C65536">
+    <cfRule type="expression" dxfId="38" priority="25" stopIfTrue="1">
+      <formula>D123="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="26" stopIfTrue="1">
+      <formula>D123="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="27" stopIfTrue="1">
+      <formula>OR(D123="終了",D123="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123:S65536 E99:G116 E100:E122 J105:S107 E105:H122 J109:S122">
+    <cfRule type="expression" dxfId="35" priority="28" stopIfTrue="1">
+      <formula>$D99="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="29" stopIfTrue="1">
+      <formula>$D99="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="30" stopIfTrue="1">
+      <formula>OR($D99="終了",$D99="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:C102 B89:B122 C97:C122">
     <cfRule type="expression" dxfId="32" priority="13" stopIfTrue="1">
-      <formula>D112="未着手"</formula>
+      <formula>$D5="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="31" priority="14" stopIfTrue="1">
-      <formula>D112="作業中"</formula>
+      <formula>$D5="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="30" priority="15" stopIfTrue="1">
-      <formula>OR(D112="終了",D112="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C112:C65536">
-    <cfRule type="expression" dxfId="29" priority="16" stopIfTrue="1">
-      <formula>D112="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="17" stopIfTrue="1">
-      <formula>D112="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="18" stopIfTrue="1">
-      <formula>OR(D112="終了",D112="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112:S65536 E105:H111 J105:S111">
-    <cfRule type="expression" dxfId="26" priority="19" stopIfTrue="1">
-      <formula>$D105="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="20" stopIfTrue="1">
-      <formula>$D105="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="21" stopIfTrue="1">
-      <formula>OR($D105="終了",$D105="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:C111 B104:B113">
-    <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
-      <formula>$D5="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="5" stopIfTrue="1">
-      <formula>$D5="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B111">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="10" stopIfTrue="1">
       <formula>D110="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="11" stopIfTrue="1">
       <formula>D110="作業中"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="27" priority="12" stopIfTrue="1">
+      <formula>OR(D110="終了",D110="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B121:B122">
+    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+      <formula>D121="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+      <formula>D121="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+      <formula>OR(D121="終了",D121="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B104:B105">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+      <formula>D104="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>D104="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+      <formula>OR(D104="終了",D104="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B115:B116">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+      <formula>D115="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>D115="作業中"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>OR(D110="終了",D110="完了")</formula>
+      <formula>OR(D115="終了",D115="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -22286,53 +22755,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="163" t="s">
+      <c r="B1" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="163" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="163" t="s">
+      <c r="C1" s="168" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="169" t="s">
+      <c r="E1" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="169" t="s">
+      <c r="F1" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="161" t="s">
+      <c r="G1" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="161" t="s">
+      <c r="H1" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="163" t="s">
+      <c r="I1" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="164" t="s">
+      <c r="J1" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="170"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
     </row>
     <row r="2" spans="1:16" s="8" customFormat="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="163"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="168"/>
       <c r="J2" s="23" t="s">
         <v>66</v>
       </c>
@@ -22356,15 +22825,15 @@
       </c>
     </row>
     <row r="3" spans="1:16" s="8" customFormat="1">
-      <c r="A3" s="163"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="163"/>
+      <c r="A3" s="168"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="20">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
         <v>0</v>
@@ -22377,15 +22846,15 @@
       <c r="P3" s="20"/>
     </row>
     <row r="4" spans="1:16" s="8" customFormat="1">
-      <c r="A4" s="163"/>
-      <c r="B4" s="167"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="163"/>
+      <c r="A4" s="168"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="168"/>
       <c r="J4" s="21">
         <f>SUM(J5:J104)</f>
         <v>0</v>
@@ -25484,57 +25953,57 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="1" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="2" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="3" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD104">
-    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="7" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="8" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="9" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="10" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="11" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="12" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:P65536">
-    <cfRule type="expression" dxfId="8" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26348,13 +26817,13 @@
   <autoFilter ref="B1:K51"/>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="A2:K51">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
       <formula>$D2="要望"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
       <formula>$D2="確認済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
       <formula>$D2="対応"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/タスク/07班スプリントバックログ.xlsx
+++ b/タスク/07班スプリントバックログ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="3045" windowWidth="19230" windowHeight="12120" tabRatio="658" activeTab="2"/>
+    <workbookView minimized="1" xWindow="4815" yWindow="3045" windowWidth="19230" windowHeight="12120" tabRatio="658" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="1" r:id="rId1"/>
@@ -3994,88 +3994,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -4201,6 +4119,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4210,75 +4210,6 @@
     <cellStyle name="標準_バグシート" xfId="3"/>
   </cellStyles>
   <dxfs count="81">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="55"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="55"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="55"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -4400,6 +4331,75 @@
     </dxf>
     <dxf>
       <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="55"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="55"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="55"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="12"/>
@@ -5528,7 +5528,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -5662,7 +5661,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -5796,7 +5794,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -5909,7 +5906,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -6822,7 +6818,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -6956,7 +6951,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -7090,7 +7084,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -7203,7 +7196,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -9245,19 +9237,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="180" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1">
-      <c r="D2" s="148" t="s">
+      <c r="D2" s="181" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="148"/>
+      <c r="E2" s="181"/>
     </row>
     <row r="3" spans="1:5" ht="7.5" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:5" s="46" customFormat="1" ht="14.25" thickBot="1">
@@ -9276,7 +9268,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="182" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="76"/>
@@ -9285,21 +9277,21 @@
       <c r="E5" s="49"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="150"/>
+      <c r="A6" s="183"/>
       <c r="B6" s="70"/>
       <c r="C6" s="50"/>
       <c r="D6" s="51"/>
       <c r="E6" s="52"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="150"/>
+      <c r="A7" s="183"/>
       <c r="B7" s="70"/>
       <c r="C7" s="50"/>
       <c r="D7" s="51"/>
       <c r="E7" s="52"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="150"/>
+      <c r="A8" s="183"/>
       <c r="B8" s="71">
         <v>43025</v>
       </c>
@@ -9308,7 +9300,7 @@
       <c r="E8" s="52"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="150"/>
+      <c r="A9" s="183"/>
       <c r="B9" s="72">
         <f>B8</f>
         <v>43025</v>
@@ -9318,49 +9310,49 @@
       <c r="E9" s="52"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="150"/>
+      <c r="A10" s="183"/>
       <c r="B10" s="72"/>
       <c r="C10" s="50"/>
       <c r="D10" s="51"/>
       <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="150"/>
+      <c r="A11" s="183"/>
       <c r="B11" s="71"/>
       <c r="C11" s="50"/>
       <c r="D11" s="51"/>
       <c r="E11" s="52"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="150"/>
+      <c r="A12" s="183"/>
       <c r="B12" s="69"/>
       <c r="C12" s="55"/>
       <c r="D12" s="51"/>
       <c r="E12" s="52"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="150"/>
+      <c r="A13" s="183"/>
       <c r="B13" s="68"/>
       <c r="C13" s="53"/>
       <c r="D13" s="51"/>
       <c r="E13" s="52"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="150"/>
+      <c r="A14" s="183"/>
       <c r="B14" s="70"/>
       <c r="C14" s="50"/>
       <c r="D14" s="51"/>
       <c r="E14" s="52"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="150"/>
+      <c r="A15" s="183"/>
       <c r="B15" s="71"/>
       <c r="C15" s="50"/>
       <c r="D15" s="51"/>
       <c r="E15" s="52"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="150"/>
+      <c r="A16" s="183"/>
       <c r="B16" s="71">
         <v>43028</v>
       </c>
@@ -9369,7 +9361,7 @@
       <c r="E16" s="52"/>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="150"/>
+      <c r="A17" s="183"/>
       <c r="B17" s="72">
         <f>B16</f>
         <v>43028</v>
@@ -9379,49 +9371,49 @@
       <c r="E17" s="52"/>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="150"/>
+      <c r="A18" s="183"/>
       <c r="B18" s="72"/>
       <c r="C18" s="50"/>
       <c r="D18" s="51"/>
       <c r="E18" s="52"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="150"/>
+      <c r="A19" s="183"/>
       <c r="B19" s="71"/>
       <c r="C19" s="50"/>
       <c r="D19" s="51"/>
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="150"/>
+      <c r="A20" s="183"/>
       <c r="B20" s="69"/>
       <c r="C20" s="55"/>
       <c r="D20" s="51"/>
       <c r="E20" s="52"/>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="150"/>
+      <c r="A21" s="183"/>
       <c r="B21" s="68"/>
       <c r="C21" s="53"/>
       <c r="D21" s="51"/>
       <c r="E21" s="52"/>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="150"/>
+      <c r="A22" s="183"/>
       <c r="B22" s="70"/>
       <c r="C22" s="50"/>
       <c r="D22" s="51"/>
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="150"/>
+      <c r="A23" s="183"/>
       <c r="B23" s="70"/>
       <c r="C23" s="50"/>
       <c r="D23" s="51"/>
       <c r="E23" s="52"/>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="150"/>
+      <c r="A24" s="183"/>
       <c r="B24" s="71">
         <v>43032</v>
       </c>
@@ -9430,7 +9422,7 @@
       <c r="E24" s="52"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="150"/>
+      <c r="A25" s="183"/>
       <c r="B25" s="72">
         <f>B24</f>
         <v>43032</v>
@@ -9440,49 +9432,49 @@
       <c r="E25" s="52"/>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="150"/>
+      <c r="A26" s="183"/>
       <c r="B26" s="72"/>
       <c r="C26" s="50"/>
       <c r="D26" s="51"/>
       <c r="E26" s="52"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="150"/>
+      <c r="A27" s="183"/>
       <c r="B27" s="71"/>
       <c r="C27" s="50"/>
       <c r="D27" s="51"/>
       <c r="E27" s="52"/>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="150"/>
+      <c r="A28" s="183"/>
       <c r="B28" s="70"/>
       <c r="C28" s="55"/>
       <c r="D28" s="51"/>
       <c r="E28" s="52"/>
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="150"/>
+      <c r="A29" s="183"/>
       <c r="B29" s="68"/>
       <c r="C29" s="78"/>
       <c r="D29" s="51"/>
       <c r="E29" s="54"/>
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="150"/>
+      <c r="A30" s="183"/>
       <c r="B30" s="70"/>
       <c r="C30" s="75"/>
       <c r="D30" s="51"/>
       <c r="E30" s="54"/>
     </row>
     <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="150"/>
+      <c r="A31" s="183"/>
       <c r="B31" s="70"/>
       <c r="C31" s="50"/>
       <c r="D31" s="51"/>
       <c r="E31" s="54"/>
     </row>
     <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="150"/>
+      <c r="A32" s="183"/>
       <c r="B32" s="71">
         <v>43035</v>
       </c>
@@ -9491,7 +9483,7 @@
       <c r="E32" s="52"/>
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="150"/>
+      <c r="A33" s="183"/>
       <c r="B33" s="72">
         <f>B32</f>
         <v>43035</v>
@@ -9501,49 +9493,49 @@
       <c r="E33" s="52"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="150"/>
+      <c r="A34" s="183"/>
       <c r="B34" s="72"/>
       <c r="C34" s="50"/>
       <c r="D34" s="51"/>
       <c r="E34" s="52"/>
     </row>
     <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="150"/>
+      <c r="A35" s="183"/>
       <c r="B35" s="71"/>
       <c r="C35" s="50"/>
       <c r="D35" s="51"/>
       <c r="E35" s="52"/>
     </row>
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="150"/>
+      <c r="A36" s="183"/>
       <c r="B36" s="69"/>
       <c r="C36" s="55"/>
       <c r="D36" s="51"/>
       <c r="E36" s="52"/>
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="150"/>
+      <c r="A37" s="183"/>
       <c r="B37" s="68"/>
       <c r="C37" s="50"/>
       <c r="D37" s="51"/>
       <c r="E37" s="52"/>
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="150"/>
+      <c r="A38" s="183"/>
       <c r="B38" s="70"/>
       <c r="C38" s="50"/>
       <c r="D38" s="51"/>
       <c r="E38" s="52"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="150"/>
+      <c r="A39" s="183"/>
       <c r="B39" s="70"/>
       <c r="C39" s="50"/>
       <c r="D39" s="51"/>
       <c r="E39" s="52"/>
     </row>
     <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="150"/>
+      <c r="A40" s="183"/>
       <c r="B40" s="71">
         <v>43039</v>
       </c>
@@ -9552,7 +9544,7 @@
       <c r="E40" s="52"/>
     </row>
     <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="150"/>
+      <c r="A41" s="183"/>
       <c r="B41" s="72">
         <f>B40</f>
         <v>43039</v>
@@ -9562,28 +9554,28 @@
       <c r="E41" s="52"/>
     </row>
     <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="150"/>
+      <c r="A42" s="183"/>
       <c r="B42" s="72"/>
       <c r="C42" s="50"/>
       <c r="D42" s="51"/>
       <c r="E42" s="52"/>
     </row>
     <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="150"/>
+      <c r="A43" s="183"/>
       <c r="B43" s="71"/>
       <c r="C43" s="50"/>
       <c r="D43" s="51"/>
       <c r="E43" s="52"/>
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="150"/>
+      <c r="A44" s="183"/>
       <c r="B44" s="69"/>
       <c r="C44" s="50"/>
       <c r="D44" s="51"/>
       <c r="E44" s="52"/>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="150"/>
+      <c r="A45" s="183"/>
       <c r="B45" s="87" t="s">
         <v>43</v>
       </c>
@@ -9592,21 +9584,21 @@
       <c r="E45" s="52"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="150"/>
+      <c r="A46" s="183"/>
       <c r="B46" s="70"/>
       <c r="C46" s="50"/>
       <c r="D46" s="51"/>
       <c r="E46" s="54"/>
     </row>
     <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="150"/>
+      <c r="A47" s="183"/>
       <c r="B47" s="70"/>
       <c r="C47" s="50"/>
       <c r="D47" s="51"/>
       <c r="E47" s="54"/>
     </row>
     <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="150"/>
+      <c r="A48" s="183"/>
       <c r="B48" s="71">
         <v>43042</v>
       </c>
@@ -9615,7 +9607,7 @@
       <c r="E48" s="54"/>
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="150"/>
+      <c r="A49" s="183"/>
       <c r="B49" s="72">
         <f>B48</f>
         <v>43042</v>
@@ -9625,28 +9617,28 @@
       <c r="E49" s="52"/>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="150"/>
+      <c r="A50" s="183"/>
       <c r="B50" s="72"/>
       <c r="C50" s="50"/>
       <c r="D50" s="56"/>
       <c r="E50" s="52"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="150"/>
+      <c r="A51" s="183"/>
       <c r="B51" s="71"/>
       <c r="C51" s="50"/>
       <c r="D51" s="56"/>
       <c r="E51" s="63"/>
     </row>
     <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="150"/>
+      <c r="A52" s="183"/>
       <c r="B52" s="69"/>
       <c r="C52" s="55"/>
       <c r="D52" s="56"/>
       <c r="E52" s="57"/>
     </row>
     <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="150"/>
+      <c r="A53" s="183"/>
       <c r="B53" s="80"/>
       <c r="C53" s="78" t="s">
         <v>41</v>
@@ -9655,7 +9647,7 @@
       <c r="E53" s="57"/>
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="150"/>
+      <c r="A54" s="183"/>
       <c r="B54" s="81"/>
       <c r="C54" s="75" t="s">
         <v>40</v>
@@ -9664,14 +9656,14 @@
       <c r="E54" s="57"/>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="150"/>
+      <c r="A55" s="183"/>
       <c r="B55" s="81"/>
       <c r="C55" s="50"/>
       <c r="D55" s="56"/>
       <c r="E55" s="57"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="150"/>
+      <c r="A56" s="183"/>
       <c r="B56" s="82">
         <v>43046</v>
       </c>
@@ -9680,7 +9672,7 @@
       <c r="E56" s="57"/>
     </row>
     <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A57" s="150"/>
+      <c r="A57" s="183"/>
       <c r="B57" s="83">
         <f>B56</f>
         <v>43046</v>
@@ -9690,28 +9682,28 @@
       <c r="E57" s="57"/>
     </row>
     <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="150"/>
+      <c r="A58" s="183"/>
       <c r="B58" s="83"/>
       <c r="C58" s="50"/>
       <c r="D58" s="56"/>
       <c r="E58" s="57"/>
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="150"/>
+      <c r="A59" s="183"/>
       <c r="B59" s="82"/>
       <c r="C59" s="50"/>
       <c r="D59" s="56"/>
       <c r="E59" s="57"/>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="150"/>
+      <c r="A60" s="183"/>
       <c r="B60" s="84"/>
       <c r="C60" s="55"/>
       <c r="D60" s="56"/>
       <c r="E60" s="57"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="150"/>
+      <c r="A61" s="183"/>
       <c r="B61" s="80"/>
       <c r="C61" s="78" t="s">
         <v>41</v>
@@ -9720,7 +9712,7 @@
       <c r="E61" s="57"/>
     </row>
     <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="150"/>
+      <c r="A62" s="183"/>
       <c r="B62" s="81"/>
       <c r="C62" s="75" t="s">
         <v>40</v>
@@ -9729,14 +9721,14 @@
       <c r="E62" s="57"/>
     </row>
     <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="150"/>
+      <c r="A63" s="183"/>
       <c r="B63" s="81"/>
       <c r="C63" s="50"/>
       <c r="D63" s="56"/>
       <c r="E63" s="57"/>
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="150"/>
+      <c r="A64" s="183"/>
       <c r="B64" s="82">
         <v>43049</v>
       </c>
@@ -9745,7 +9737,7 @@
       <c r="E64" s="57"/>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="150"/>
+      <c r="A65" s="183"/>
       <c r="B65" s="83">
         <f>B64</f>
         <v>43049</v>
@@ -9755,28 +9747,28 @@
       <c r="E65" s="57"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="150"/>
+      <c r="A66" s="183"/>
       <c r="B66" s="83"/>
       <c r="C66" s="50"/>
       <c r="D66" s="56"/>
       <c r="E66" s="57"/>
     </row>
     <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="150"/>
+      <c r="A67" s="183"/>
       <c r="B67" s="82"/>
       <c r="C67" s="50"/>
       <c r="D67" s="56"/>
       <c r="E67" s="57"/>
     </row>
     <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A68" s="150"/>
+      <c r="A68" s="183"/>
       <c r="B68" s="84"/>
       <c r="C68" s="55"/>
       <c r="D68" s="56"/>
       <c r="E68" s="57"/>
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="151" t="s">
+      <c r="A69" s="184" t="s">
         <v>45</v>
       </c>
       <c r="B69" s="76"/>
@@ -9785,21 +9777,21 @@
       <c r="E69" s="49"/>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="152"/>
+      <c r="A70" s="185"/>
       <c r="B70" s="70"/>
       <c r="C70" s="50"/>
       <c r="D70" s="89"/>
       <c r="E70" s="52"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="152"/>
+      <c r="A71" s="185"/>
       <c r="B71" s="70"/>
       <c r="C71" s="50"/>
       <c r="D71" s="89"/>
       <c r="E71" s="52"/>
     </row>
     <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="152"/>
+      <c r="A72" s="185"/>
       <c r="B72" s="71">
         <v>43053</v>
       </c>
@@ -9808,7 +9800,7 @@
       <c r="E72" s="52"/>
     </row>
     <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="152"/>
+      <c r="A73" s="185"/>
       <c r="B73" s="72">
         <f>B72</f>
         <v>43053</v>
@@ -9818,49 +9810,49 @@
       <c r="E73" s="57"/>
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="152"/>
+      <c r="A74" s="185"/>
       <c r="B74" s="72"/>
       <c r="C74" s="50"/>
       <c r="D74" s="90"/>
       <c r="E74" s="57"/>
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="152"/>
+      <c r="A75" s="185"/>
       <c r="B75" s="71"/>
       <c r="C75" s="50"/>
       <c r="D75" s="90"/>
       <c r="E75" s="57"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="152"/>
+      <c r="A76" s="185"/>
       <c r="B76" s="69"/>
       <c r="C76" s="55"/>
       <c r="D76" s="90"/>
       <c r="E76" s="57"/>
     </row>
     <row r="77" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="152"/>
+      <c r="A77" s="185"/>
       <c r="B77" s="70"/>
       <c r="C77" s="78"/>
       <c r="D77" s="89"/>
       <c r="E77" s="52"/>
     </row>
     <row r="78" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="152"/>
+      <c r="A78" s="185"/>
       <c r="B78" s="70"/>
       <c r="C78" s="75"/>
       <c r="D78" s="91"/>
       <c r="E78" s="54"/>
     </row>
     <row r="79" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="152"/>
+      <c r="A79" s="185"/>
       <c r="B79" s="70"/>
       <c r="C79" s="73"/>
       <c r="D79" s="91"/>
       <c r="E79" s="54"/>
     </row>
     <row r="80" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="152"/>
+      <c r="A80" s="185"/>
       <c r="B80" s="71">
         <v>43056</v>
       </c>
@@ -9869,7 +9861,7 @@
       <c r="E80" s="52"/>
     </row>
     <row r="81" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="152"/>
+      <c r="A81" s="185"/>
       <c r="B81" s="72">
         <f>B80</f>
         <v>43056</v>
@@ -9879,49 +9871,49 @@
       <c r="E81" s="52"/>
     </row>
     <row r="82" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="152"/>
+      <c r="A82" s="185"/>
       <c r="B82" s="72"/>
       <c r="C82" s="50"/>
       <c r="D82" s="89"/>
       <c r="E82" s="52"/>
     </row>
     <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="152"/>
+      <c r="A83" s="185"/>
       <c r="B83" s="71"/>
       <c r="C83" s="50"/>
       <c r="D83" s="89"/>
       <c r="E83" s="52"/>
     </row>
     <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="152"/>
+      <c r="A84" s="185"/>
       <c r="B84" s="70"/>
       <c r="C84" s="55"/>
       <c r="D84" s="90"/>
       <c r="E84" s="57"/>
     </row>
     <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="152"/>
+      <c r="A85" s="185"/>
       <c r="B85" s="68"/>
       <c r="C85" s="73"/>
       <c r="D85" s="89"/>
       <c r="E85" s="52"/>
     </row>
     <row r="86" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="152"/>
+      <c r="A86" s="185"/>
       <c r="B86" s="70"/>
       <c r="C86" s="73"/>
       <c r="D86" s="91"/>
       <c r="E86" s="54"/>
     </row>
     <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A87" s="152"/>
+      <c r="A87" s="185"/>
       <c r="B87" s="70"/>
       <c r="C87" s="73"/>
       <c r="D87" s="91"/>
       <c r="E87" s="54"/>
     </row>
     <row r="88" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A88" s="152"/>
+      <c r="A88" s="185"/>
       <c r="B88" s="71">
         <v>43060</v>
       </c>
@@ -9930,7 +9922,7 @@
       <c r="E88" s="52"/>
     </row>
     <row r="89" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A89" s="152"/>
+      <c r="A89" s="185"/>
       <c r="B89" s="72">
         <f>B88</f>
         <v>43060</v>
@@ -9940,49 +9932,49 @@
       <c r="E89" s="52"/>
     </row>
     <row r="90" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A90" s="152"/>
+      <c r="A90" s="185"/>
       <c r="B90" s="72"/>
       <c r="C90" s="50"/>
       <c r="D90" s="89"/>
       <c r="E90" s="52"/>
     </row>
     <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="152"/>
+      <c r="A91" s="185"/>
       <c r="B91" s="71"/>
       <c r="C91" s="50"/>
       <c r="D91" s="89"/>
       <c r="E91" s="52"/>
     </row>
     <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A92" s="152"/>
+      <c r="A92" s="185"/>
       <c r="B92" s="69"/>
       <c r="C92" s="55"/>
       <c r="D92" s="89"/>
       <c r="E92" s="52"/>
     </row>
     <row r="93" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A93" s="152"/>
+      <c r="A93" s="185"/>
       <c r="B93" s="70"/>
       <c r="C93" s="73"/>
       <c r="D93" s="89"/>
       <c r="E93" s="54"/>
     </row>
     <row r="94" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A94" s="152"/>
+      <c r="A94" s="185"/>
       <c r="B94" s="70"/>
       <c r="C94" s="75"/>
       <c r="D94" s="89"/>
       <c r="E94" s="54"/>
     </row>
     <row r="95" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A95" s="152"/>
+      <c r="A95" s="185"/>
       <c r="B95" s="70"/>
       <c r="C95" s="75"/>
       <c r="D95" s="89"/>
       <c r="E95" s="54"/>
     </row>
     <row r="96" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A96" s="152"/>
+      <c r="A96" s="185"/>
       <c r="B96" s="71">
         <v>43063</v>
       </c>
@@ -9991,7 +9983,7 @@
       <c r="E96" s="52"/>
     </row>
     <row r="97" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A97" s="152"/>
+      <c r="A97" s="185"/>
       <c r="B97" s="72">
         <f>B96</f>
         <v>43063</v>
@@ -10001,49 +9993,49 @@
       <c r="E97" s="52"/>
     </row>
     <row r="98" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A98" s="152"/>
+      <c r="A98" s="185"/>
       <c r="B98" s="72"/>
       <c r="C98" s="50"/>
       <c r="D98" s="89"/>
       <c r="E98" s="52"/>
     </row>
     <row r="99" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A99" s="152"/>
+      <c r="A99" s="185"/>
       <c r="B99" s="71"/>
       <c r="C99" s="50"/>
       <c r="D99" s="89"/>
       <c r="E99" s="52"/>
     </row>
     <row r="100" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A100" s="152"/>
+      <c r="A100" s="185"/>
       <c r="B100" s="69"/>
       <c r="C100" s="55"/>
       <c r="D100" s="89"/>
       <c r="E100" s="52"/>
     </row>
     <row r="101" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A101" s="152"/>
+      <c r="A101" s="185"/>
       <c r="B101" s="70"/>
       <c r="C101" s="78"/>
       <c r="D101" s="89"/>
       <c r="E101" s="54"/>
     </row>
     <row r="102" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A102" s="152"/>
+      <c r="A102" s="185"/>
       <c r="B102" s="70"/>
       <c r="C102" s="75"/>
       <c r="D102" s="89"/>
       <c r="E102" s="52"/>
     </row>
     <row r="103" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A103" s="152"/>
+      <c r="A103" s="185"/>
       <c r="B103" s="70"/>
       <c r="C103" s="75"/>
       <c r="D103" s="89"/>
       <c r="E103" s="52"/>
     </row>
     <row r="104" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A104" s="152"/>
+      <c r="A104" s="185"/>
       <c r="B104" s="71">
         <v>43067</v>
       </c>
@@ -10052,7 +10044,7 @@
       <c r="E104" s="52"/>
     </row>
     <row r="105" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A105" s="152"/>
+      <c r="A105" s="185"/>
       <c r="B105" s="72">
         <f>B104</f>
         <v>43067</v>
@@ -10062,49 +10054,49 @@
       <c r="E105" s="52"/>
     </row>
     <row r="106" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A106" s="152"/>
+      <c r="A106" s="185"/>
       <c r="B106" s="72"/>
       <c r="C106" s="50"/>
       <c r="D106" s="89"/>
       <c r="E106" s="52"/>
     </row>
     <row r="107" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A107" s="152"/>
+      <c r="A107" s="185"/>
       <c r="B107" s="71"/>
       <c r="C107" s="50"/>
       <c r="D107" s="89"/>
       <c r="E107" s="52"/>
     </row>
     <row r="108" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A108" s="152"/>
+      <c r="A108" s="185"/>
       <c r="B108" s="69"/>
       <c r="C108" s="55"/>
       <c r="D108" s="51"/>
       <c r="E108" s="52"/>
     </row>
     <row r="109" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A109" s="152"/>
+      <c r="A109" s="185"/>
       <c r="B109" s="70"/>
       <c r="C109" s="73"/>
       <c r="D109" s="91"/>
       <c r="E109" s="54"/>
     </row>
     <row r="110" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A110" s="152"/>
+      <c r="A110" s="185"/>
       <c r="B110" s="70"/>
       <c r="C110" s="75"/>
       <c r="D110" s="89"/>
       <c r="E110" s="54"/>
     </row>
     <row r="111" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A111" s="152"/>
+      <c r="A111" s="185"/>
       <c r="B111" s="70"/>
       <c r="C111" s="75"/>
       <c r="D111" s="89"/>
       <c r="E111" s="54"/>
     </row>
     <row r="112" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A112" s="152"/>
+      <c r="A112" s="185"/>
       <c r="B112" s="71">
         <v>43070</v>
       </c>
@@ -10113,7 +10105,7 @@
       <c r="E112" s="52"/>
     </row>
     <row r="113" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A113" s="152"/>
+      <c r="A113" s="185"/>
       <c r="B113" s="72">
         <f>B112</f>
         <v>43070</v>
@@ -10123,49 +10115,49 @@
       <c r="E113" s="52"/>
     </row>
     <row r="114" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A114" s="152"/>
+      <c r="A114" s="185"/>
       <c r="B114" s="72"/>
       <c r="C114" s="50"/>
       <c r="D114" s="89"/>
       <c r="E114" s="52"/>
     </row>
     <row r="115" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A115" s="152"/>
+      <c r="A115" s="185"/>
       <c r="B115" s="71"/>
       <c r="C115" s="50"/>
       <c r="D115" s="89"/>
       <c r="E115" s="52"/>
     </row>
     <row r="116" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A116" s="152"/>
+      <c r="A116" s="185"/>
       <c r="B116" s="69"/>
       <c r="C116" s="55"/>
       <c r="D116" s="89"/>
       <c r="E116" s="52"/>
     </row>
     <row r="117" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A117" s="152"/>
+      <c r="A117" s="185"/>
       <c r="B117" s="70"/>
       <c r="C117" s="73"/>
       <c r="D117" s="89"/>
       <c r="E117" s="52"/>
     </row>
     <row r="118" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A118" s="152"/>
+      <c r="A118" s="185"/>
       <c r="B118" s="70"/>
       <c r="C118" s="75"/>
       <c r="D118" s="89"/>
       <c r="E118" s="52"/>
     </row>
     <row r="119" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A119" s="152"/>
+      <c r="A119" s="185"/>
       <c r="B119" s="70"/>
       <c r="C119" s="75"/>
       <c r="D119" s="89"/>
       <c r="E119" s="52"/>
     </row>
     <row r="120" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A120" s="152"/>
+      <c r="A120" s="185"/>
       <c r="B120" s="71">
         <v>43074</v>
       </c>
@@ -10174,7 +10166,7 @@
       <c r="E120" s="52"/>
     </row>
     <row r="121" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A121" s="152"/>
+      <c r="A121" s="185"/>
       <c r="B121" s="72">
         <f>B120</f>
         <v>43074</v>
@@ -10184,49 +10176,49 @@
       <c r="E121" s="52"/>
     </row>
     <row r="122" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A122" s="152"/>
+      <c r="A122" s="185"/>
       <c r="B122" s="72"/>
       <c r="C122" s="50"/>
       <c r="D122" s="89"/>
       <c r="E122" s="52"/>
     </row>
     <row r="123" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A123" s="152"/>
+      <c r="A123" s="185"/>
       <c r="B123" s="71"/>
       <c r="C123" s="50"/>
       <c r="D123" s="89"/>
       <c r="E123" s="52"/>
     </row>
     <row r="124" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A124" s="152"/>
+      <c r="A124" s="185"/>
       <c r="B124" s="69"/>
       <c r="C124" s="55"/>
       <c r="D124" s="89"/>
       <c r="E124" s="52"/>
     </row>
     <row r="125" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A125" s="152"/>
+      <c r="A125" s="185"/>
       <c r="B125" s="70"/>
       <c r="C125" s="73"/>
       <c r="D125" s="89"/>
       <c r="E125" s="52"/>
     </row>
     <row r="126" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A126" s="152"/>
+      <c r="A126" s="185"/>
       <c r="B126" s="70"/>
       <c r="C126" s="75"/>
       <c r="D126" s="89"/>
       <c r="E126" s="52"/>
     </row>
     <row r="127" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A127" s="152"/>
+      <c r="A127" s="185"/>
       <c r="B127" s="70"/>
       <c r="C127" s="75"/>
       <c r="D127" s="89"/>
       <c r="E127" s="52"/>
     </row>
     <row r="128" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A128" s="152"/>
+      <c r="A128" s="185"/>
       <c r="B128" s="71">
         <v>43077</v>
       </c>
@@ -10235,7 +10227,7 @@
       <c r="E128" s="52"/>
     </row>
     <row r="129" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A129" s="152"/>
+      <c r="A129" s="185"/>
       <c r="B129" s="72">
         <f>B128</f>
         <v>43077</v>
@@ -10245,28 +10237,28 @@
       <c r="E129" s="52"/>
     </row>
     <row r="130" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A130" s="152"/>
+      <c r="A130" s="185"/>
       <c r="B130" s="72"/>
       <c r="C130" s="50"/>
       <c r="D130" s="89"/>
       <c r="E130" s="52"/>
     </row>
     <row r="131" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A131" s="152"/>
+      <c r="A131" s="185"/>
       <c r="B131" s="71"/>
       <c r="C131" s="50"/>
       <c r="D131" s="89"/>
       <c r="E131" s="52"/>
     </row>
     <row r="132" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A132" s="152"/>
+      <c r="A132" s="185"/>
       <c r="B132" s="69"/>
       <c r="C132" s="55"/>
       <c r="D132" s="89"/>
       <c r="E132" s="52"/>
     </row>
     <row r="133" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A133" s="152"/>
+      <c r="A133" s="185"/>
       <c r="B133" s="81"/>
       <c r="C133" s="78" t="s">
         <v>42</v>
@@ -10275,7 +10267,7 @@
       <c r="E133" s="52"/>
     </row>
     <row r="134" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A134" s="152"/>
+      <c r="A134" s="185"/>
       <c r="B134" s="81"/>
       <c r="C134" s="75" t="s">
         <v>40</v>
@@ -10284,14 +10276,14 @@
       <c r="E134" s="52"/>
     </row>
     <row r="135" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A135" s="152"/>
+      <c r="A135" s="185"/>
       <c r="B135" s="81"/>
       <c r="C135" s="75"/>
       <c r="D135" s="89"/>
       <c r="E135" s="52"/>
     </row>
     <row r="136" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A136" s="152"/>
+      <c r="A136" s="185"/>
       <c r="B136" s="82">
         <v>43081</v>
       </c>
@@ -10300,7 +10292,7 @@
       <c r="E136" s="52"/>
     </row>
     <row r="137" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A137" s="152"/>
+      <c r="A137" s="185"/>
       <c r="B137" s="83">
         <f>B136</f>
         <v>43081</v>
@@ -10310,28 +10302,28 @@
       <c r="E137" s="52"/>
     </row>
     <row r="138" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A138" s="152"/>
+      <c r="A138" s="185"/>
       <c r="B138" s="83"/>
       <c r="C138" s="50"/>
       <c r="D138" s="89"/>
       <c r="E138" s="52"/>
     </row>
     <row r="139" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A139" s="152"/>
+      <c r="A139" s="185"/>
       <c r="B139" s="82"/>
       <c r="C139" s="50"/>
       <c r="D139" s="89"/>
       <c r="E139" s="52"/>
     </row>
     <row r="140" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A140" s="152"/>
+      <c r="A140" s="185"/>
       <c r="B140" s="84"/>
       <c r="C140" s="55"/>
       <c r="D140" s="89"/>
       <c r="E140" s="52"/>
     </row>
     <row r="141" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A141" s="152"/>
+      <c r="A141" s="185"/>
       <c r="B141" s="81"/>
       <c r="C141" s="78" t="s">
         <v>42</v>
@@ -10340,7 +10332,7 @@
       <c r="E141" s="52"/>
     </row>
     <row r="142" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A142" s="152"/>
+      <c r="A142" s="185"/>
       <c r="B142" s="81"/>
       <c r="C142" s="75" t="s">
         <v>40</v>
@@ -10349,14 +10341,14 @@
       <c r="E142" s="52"/>
     </row>
     <row r="143" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A143" s="152"/>
+      <c r="A143" s="185"/>
       <c r="B143" s="81"/>
       <c r="C143" s="75"/>
       <c r="D143" s="89"/>
       <c r="E143" s="52"/>
     </row>
     <row r="144" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A144" s="152"/>
+      <c r="A144" s="185"/>
       <c r="B144" s="82">
         <v>43084</v>
       </c>
@@ -10365,7 +10357,7 @@
       <c r="E144" s="52"/>
     </row>
     <row r="145" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A145" s="152"/>
+      <c r="A145" s="185"/>
       <c r="B145" s="83">
         <f>B144</f>
         <v>43084</v>
@@ -10375,28 +10367,28 @@
       <c r="E145" s="52"/>
     </row>
     <row r="146" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A146" s="152"/>
+      <c r="A146" s="185"/>
       <c r="B146" s="83"/>
       <c r="C146" s="50"/>
       <c r="D146" s="89"/>
       <c r="E146" s="52"/>
     </row>
     <row r="147" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A147" s="152"/>
+      <c r="A147" s="185"/>
       <c r="B147" s="82"/>
       <c r="C147" s="50"/>
       <c r="D147" s="89"/>
       <c r="E147" s="52"/>
     </row>
     <row r="148" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A148" s="153"/>
+      <c r="A148" s="186"/>
       <c r="B148" s="94"/>
       <c r="C148" s="58"/>
       <c r="D148" s="92"/>
       <c r="E148" s="59"/>
     </row>
     <row r="149" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A149" s="154" t="s">
+      <c r="A149" s="187" t="s">
         <v>47</v>
       </c>
       <c r="B149" s="76"/>
@@ -10405,21 +10397,21 @@
       <c r="E149" s="49"/>
     </row>
     <row r="150" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A150" s="155"/>
+      <c r="A150" s="188"/>
       <c r="B150" s="70"/>
       <c r="C150" s="75"/>
       <c r="D150" s="89"/>
       <c r="E150" s="52"/>
     </row>
     <row r="151" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A151" s="155"/>
+      <c r="A151" s="188"/>
       <c r="B151" s="70"/>
       <c r="C151" s="75"/>
       <c r="D151" s="89"/>
       <c r="E151" s="52"/>
     </row>
     <row r="152" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A152" s="155"/>
+      <c r="A152" s="188"/>
       <c r="B152" s="71">
         <v>43088</v>
       </c>
@@ -10428,7 +10420,7 @@
       <c r="E152" s="52"/>
     </row>
     <row r="153" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A153" s="155"/>
+      <c r="A153" s="188"/>
       <c r="B153" s="72">
         <f>B152</f>
         <v>43088</v>
@@ -10438,49 +10430,49 @@
       <c r="E153" s="52"/>
     </row>
     <row r="154" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A154" s="155"/>
+      <c r="A154" s="188"/>
       <c r="B154" s="72"/>
       <c r="C154" s="50"/>
       <c r="D154" s="89"/>
       <c r="E154" s="52"/>
     </row>
     <row r="155" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A155" s="155"/>
+      <c r="A155" s="188"/>
       <c r="B155" s="71"/>
       <c r="C155" s="50"/>
       <c r="D155" s="89"/>
       <c r="E155" s="52"/>
     </row>
     <row r="156" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A156" s="155"/>
+      <c r="A156" s="188"/>
       <c r="B156" s="69"/>
       <c r="C156" s="60"/>
       <c r="D156" s="89"/>
       <c r="E156" s="52"/>
     </row>
     <row r="157" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A157" s="155"/>
+      <c r="A157" s="188"/>
       <c r="B157" s="70"/>
       <c r="C157" s="75"/>
       <c r="D157" s="91"/>
       <c r="E157" s="54"/>
     </row>
     <row r="158" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A158" s="155"/>
+      <c r="A158" s="188"/>
       <c r="B158" s="65"/>
       <c r="C158" s="75"/>
       <c r="D158" s="91"/>
       <c r="E158" s="54"/>
     </row>
     <row r="159" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A159" s="155"/>
+      <c r="A159" s="188"/>
       <c r="B159" s="65"/>
       <c r="C159" s="50"/>
       <c r="D159" s="91"/>
       <c r="E159" s="54"/>
     </row>
     <row r="160" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A160" s="155"/>
+      <c r="A160" s="188"/>
       <c r="B160" s="71">
         <v>43091</v>
       </c>
@@ -10489,7 +10481,7 @@
       <c r="E160" s="52"/>
     </row>
     <row r="161" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A161" s="155"/>
+      <c r="A161" s="188"/>
       <c r="B161" s="77">
         <f>B160</f>
         <v>43091</v>
@@ -10499,49 +10491,49 @@
       <c r="E161" s="52"/>
     </row>
     <row r="162" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A162" s="155"/>
+      <c r="A162" s="188"/>
       <c r="B162" s="77"/>
       <c r="C162" s="50"/>
       <c r="D162" s="89"/>
       <c r="E162" s="52"/>
     </row>
     <row r="163" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A163" s="155"/>
+      <c r="A163" s="188"/>
       <c r="B163" s="66"/>
       <c r="C163" s="50"/>
       <c r="D163" s="89"/>
       <c r="E163" s="52"/>
     </row>
     <row r="164" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A164" s="155"/>
+      <c r="A164" s="188"/>
       <c r="B164" s="67"/>
       <c r="C164" s="55"/>
       <c r="D164" s="89"/>
       <c r="E164" s="52"/>
     </row>
     <row r="165" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A165" s="155"/>
+      <c r="A165" s="188"/>
       <c r="B165" s="70"/>
       <c r="C165" s="75"/>
       <c r="D165" s="89"/>
       <c r="E165" s="54"/>
     </row>
     <row r="166" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A166" s="155"/>
+      <c r="A166" s="188"/>
       <c r="B166" s="70"/>
       <c r="C166" s="75"/>
       <c r="D166" s="89"/>
       <c r="E166" s="54"/>
     </row>
     <row r="167" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A167" s="155"/>
+      <c r="A167" s="188"/>
       <c r="B167" s="70"/>
       <c r="C167" s="75"/>
       <c r="D167" s="89"/>
       <c r="E167" s="54"/>
     </row>
     <row r="168" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A168" s="155"/>
+      <c r="A168" s="188"/>
       <c r="B168" s="71">
         <v>43105</v>
       </c>
@@ -10550,7 +10542,7 @@
       <c r="E168" s="54"/>
     </row>
     <row r="169" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A169" s="155"/>
+      <c r="A169" s="188"/>
       <c r="B169" s="72">
         <f>B168</f>
         <v>43105</v>
@@ -10560,49 +10552,49 @@
       <c r="E169" s="54"/>
     </row>
     <row r="170" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A170" s="155"/>
+      <c r="A170" s="188"/>
       <c r="B170" s="72"/>
       <c r="C170" s="50"/>
       <c r="D170" s="89"/>
       <c r="E170" s="54"/>
     </row>
     <row r="171" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A171" s="155"/>
+      <c r="A171" s="188"/>
       <c r="B171" s="71"/>
       <c r="C171" s="50"/>
       <c r="D171" s="89"/>
       <c r="E171" s="54"/>
     </row>
     <row r="172" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A172" s="155"/>
+      <c r="A172" s="188"/>
       <c r="B172" s="69"/>
       <c r="C172" s="55"/>
       <c r="D172" s="89"/>
       <c r="E172" s="54"/>
     </row>
     <row r="173" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A173" s="155"/>
+      <c r="A173" s="188"/>
       <c r="B173" s="70"/>
       <c r="C173" s="73"/>
       <c r="D173" s="89"/>
       <c r="E173" s="54"/>
     </row>
     <row r="174" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A174" s="155"/>
+      <c r="A174" s="188"/>
       <c r="B174" s="70"/>
       <c r="C174" s="75"/>
       <c r="D174" s="89"/>
       <c r="E174" s="54"/>
     </row>
     <row r="175" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A175" s="155"/>
+      <c r="A175" s="188"/>
       <c r="B175" s="70"/>
       <c r="C175" s="75"/>
       <c r="D175" s="89"/>
       <c r="E175" s="54"/>
     </row>
     <row r="176" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A176" s="155"/>
+      <c r="A176" s="188"/>
       <c r="B176" s="71">
         <v>43109</v>
       </c>
@@ -10611,7 +10603,7 @@
       <c r="E176" s="54"/>
     </row>
     <row r="177" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A177" s="155"/>
+      <c r="A177" s="188"/>
       <c r="B177" s="72">
         <f>B176</f>
         <v>43109</v>
@@ -10621,49 +10613,49 @@
       <c r="E177" s="54"/>
     </row>
     <row r="178" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A178" s="155"/>
+      <c r="A178" s="188"/>
       <c r="B178" s="72"/>
       <c r="C178" s="50"/>
       <c r="D178" s="89"/>
       <c r="E178" s="54"/>
     </row>
     <row r="179" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A179" s="155"/>
+      <c r="A179" s="188"/>
       <c r="B179" s="71"/>
       <c r="C179" s="50"/>
       <c r="D179" s="89"/>
       <c r="E179" s="54"/>
     </row>
     <row r="180" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A180" s="155"/>
+      <c r="A180" s="188"/>
       <c r="B180" s="69"/>
       <c r="C180" s="55"/>
       <c r="D180" s="89"/>
       <c r="E180" s="54"/>
     </row>
     <row r="181" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A181" s="155"/>
+      <c r="A181" s="188"/>
       <c r="B181" s="70"/>
       <c r="C181" s="75"/>
       <c r="D181" s="89"/>
       <c r="E181" s="54"/>
     </row>
     <row r="182" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A182" s="155"/>
+      <c r="A182" s="188"/>
       <c r="B182" s="70"/>
       <c r="C182" s="75"/>
       <c r="D182" s="89"/>
       <c r="E182" s="54"/>
     </row>
     <row r="183" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A183" s="155"/>
+      <c r="A183" s="188"/>
       <c r="B183" s="70"/>
       <c r="C183" s="75"/>
       <c r="D183" s="89"/>
       <c r="E183" s="54"/>
     </row>
     <row r="184" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A184" s="155"/>
+      <c r="A184" s="188"/>
       <c r="B184" s="71">
         <v>43112</v>
       </c>
@@ -10672,7 +10664,7 @@
       <c r="E184" s="54"/>
     </row>
     <row r="185" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A185" s="155"/>
+      <c r="A185" s="188"/>
       <c r="B185" s="72">
         <f>B184</f>
         <v>43112</v>
@@ -10682,28 +10674,28 @@
       <c r="E185" s="54"/>
     </row>
     <row r="186" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A186" s="155"/>
+      <c r="A186" s="188"/>
       <c r="B186" s="72"/>
       <c r="C186" s="50"/>
       <c r="D186" s="89"/>
       <c r="E186" s="54"/>
     </row>
     <row r="187" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A187" s="155"/>
+      <c r="A187" s="188"/>
       <c r="B187" s="71"/>
       <c r="C187" s="50"/>
       <c r="D187" s="89"/>
       <c r="E187" s="54"/>
     </row>
     <row r="188" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A188" s="155"/>
+      <c r="A188" s="188"/>
       <c r="B188" s="69"/>
       <c r="C188" s="55"/>
       <c r="D188" s="89"/>
       <c r="E188" s="54"/>
     </row>
     <row r="189" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A189" s="155"/>
+      <c r="A189" s="188"/>
       <c r="B189" s="95"/>
       <c r="C189" s="75" t="s">
         <v>48</v>
@@ -10712,7 +10704,7 @@
       <c r="E189" s="54"/>
     </row>
     <row r="190" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A190" s="155"/>
+      <c r="A190" s="188"/>
       <c r="B190" s="96"/>
       <c r="C190" s="75" t="s">
         <v>40</v>
@@ -10721,14 +10713,14 @@
       <c r="E190" s="54"/>
     </row>
     <row r="191" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A191" s="155"/>
+      <c r="A191" s="188"/>
       <c r="B191" s="96"/>
       <c r="C191" s="75"/>
       <c r="D191" s="89"/>
       <c r="E191" s="54"/>
     </row>
     <row r="192" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A192" s="155"/>
+      <c r="A192" s="188"/>
       <c r="B192" s="82">
         <v>43116</v>
       </c>
@@ -10737,7 +10729,7 @@
       <c r="E192" s="52"/>
     </row>
     <row r="193" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A193" s="155"/>
+      <c r="A193" s="188"/>
       <c r="B193" s="97">
         <f>B192</f>
         <v>43116</v>
@@ -10747,28 +10739,28 @@
       <c r="E193" s="52"/>
     </row>
     <row r="194" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A194" s="155"/>
+      <c r="A194" s="188"/>
       <c r="B194" s="97"/>
       <c r="C194" s="50"/>
       <c r="D194" s="89"/>
       <c r="E194" s="52"/>
     </row>
     <row r="195" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A195" s="155"/>
+      <c r="A195" s="188"/>
       <c r="B195" s="98"/>
       <c r="C195" s="50"/>
       <c r="D195" s="89"/>
       <c r="E195" s="52"/>
     </row>
     <row r="196" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A196" s="155"/>
+      <c r="A196" s="188"/>
       <c r="B196" s="84"/>
       <c r="C196" s="55"/>
       <c r="D196" s="89"/>
       <c r="E196" s="52"/>
     </row>
     <row r="197" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A197" s="155"/>
+      <c r="A197" s="188"/>
       <c r="B197" s="95"/>
       <c r="C197" s="75" t="s">
         <v>48</v>
@@ -10777,7 +10769,7 @@
       <c r="E197" s="54"/>
     </row>
     <row r="198" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A198" s="155"/>
+      <c r="A198" s="188"/>
       <c r="B198" s="96"/>
       <c r="C198" s="75" t="s">
         <v>40</v>
@@ -10786,14 +10778,14 @@
       <c r="E198" s="54"/>
     </row>
     <row r="199" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A199" s="155"/>
+      <c r="A199" s="188"/>
       <c r="B199" s="96"/>
       <c r="C199" s="50"/>
       <c r="D199" s="89"/>
       <c r="E199" s="54"/>
     </row>
     <row r="200" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A200" s="155"/>
+      <c r="A200" s="188"/>
       <c r="B200" s="82">
         <v>43119</v>
       </c>
@@ -10802,7 +10794,7 @@
       <c r="E200" s="54"/>
     </row>
     <row r="201" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A201" s="155"/>
+      <c r="A201" s="188"/>
       <c r="B201" s="97">
         <f>B200</f>
         <v>43119</v>
@@ -10812,21 +10804,21 @@
       <c r="E201" s="54"/>
     </row>
     <row r="202" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A202" s="155"/>
+      <c r="A202" s="188"/>
       <c r="B202" s="97"/>
       <c r="C202" s="50"/>
       <c r="D202" s="89"/>
       <c r="E202" s="54"/>
     </row>
     <row r="203" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A203" s="155"/>
+      <c r="A203" s="188"/>
       <c r="B203" s="98"/>
       <c r="C203" s="50"/>
       <c r="D203" s="89"/>
       <c r="E203" s="54"/>
     </row>
     <row r="204" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A204" s="156"/>
+      <c r="A204" s="189"/>
       <c r="B204" s="94"/>
       <c r="C204" s="58"/>
       <c r="D204" s="92"/>
@@ -10942,53 +10934,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="100" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="193" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="160" t="s">
+      <c r="C1" s="193" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="163" t="s">
+      <c r="E1" s="196" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="163" t="s">
+      <c r="F1" s="196" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="164" t="s">
+      <c r="G1" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="164" t="s">
+      <c r="H1" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="160" t="s">
+      <c r="I1" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="157" t="s">
+      <c r="J1" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="159"/>
-      <c r="O1" s="159"/>
-      <c r="P1" s="159"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="192"/>
+      <c r="P1" s="192"/>
     </row>
     <row r="2" spans="1:31" s="100" customFormat="1">
-      <c r="A2" s="160"/>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="160"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="193"/>
       <c r="J2" s="101" t="s">
         <v>49</v>
       </c>
@@ -11012,15 +11004,15 @@
       </c>
     </row>
     <row r="3" spans="1:31" s="100" customFormat="1">
-      <c r="A3" s="160"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="160"/>
+      <c r="A3" s="193"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="198"/>
+      <c r="I3" s="193"/>
       <c r="J3" s="103">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
         <v>190</v>
@@ -11051,15 +11043,15 @@
       </c>
     </row>
     <row r="4" spans="1:31" s="100" customFormat="1">
-      <c r="A4" s="160"/>
-      <c r="B4" s="161"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="160"/>
+      <c r="A4" s="193"/>
+      <c r="B4" s="194"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="196"/>
+      <c r="F4" s="196"/>
+      <c r="G4" s="198"/>
+      <c r="H4" s="198"/>
+      <c r="I4" s="193"/>
       <c r="J4" s="104">
         <f>SUM(J5:J157)</f>
         <v>190</v>
@@ -17354,56 +17346,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="201" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="168" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="168" t="s">
+      <c r="C1" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="174" t="s">
+      <c r="E1" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="174" t="s">
+      <c r="F1" s="207" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="166" t="s">
+      <c r="G1" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="166" t="s">
+      <c r="H1" s="199" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="168" t="s">
+      <c r="I1" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="169" t="s">
+      <c r="J1" s="202" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="171"/>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="171"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="204"/>
+      <c r="P1" s="204"/>
+      <c r="Q1" s="204"/>
+      <c r="R1" s="204"/>
+      <c r="S1" s="204"/>
     </row>
     <row r="2" spans="1:19" s="8" customFormat="1">
-      <c r="A2" s="168"/>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="168"/>
+      <c r="A2" s="201"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="201"/>
       <c r="J2" s="23" t="s">
         <v>56</v>
       </c>
@@ -17436,15 +17428,15 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="8" customFormat="1">
-      <c r="A3" s="168"/>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="168"/>
+      <c r="A3" s="201"/>
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="201"/>
       <c r="J3" s="20">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$S$2))))</f>
         <v>0</v>
@@ -17460,15 +17452,15 @@
       <c r="S3" s="20"/>
     </row>
     <row r="4" spans="1:19" s="8" customFormat="1">
-      <c r="A4" s="168"/>
-      <c r="B4" s="172"/>
-      <c r="C4" s="173"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="174"/>
-      <c r="F4" s="174"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="168"/>
+      <c r="A4" s="201"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="200"/>
+      <c r="I4" s="201"/>
       <c r="J4" s="21">
         <f>SUM(J5:J111)</f>
         <v>0</v>
@@ -19337,7 +19329,7 @@
       <c r="G58" s="145"/>
       <c r="H58" s="145"/>
       <c r="I58" s="143" t="str">
-        <f t="shared" ref="I58:J121" ca="1" si="3">IF(ISBLANK(J58)=FALSE,OFFSET(I58,0,COUNTA(J58:S58)),"")</f>
+        <f t="shared" ref="I58:I121" ca="1" si="3">IF(ISBLANK(J58)=FALSE,OFFSET(I58,0,COUNTA(J58:S58)),"")</f>
         <v/>
       </c>
       <c r="J58" s="146"/>
@@ -20237,187 +20229,187 @@
       <c r="A83" s="16">
         <v>79</v>
       </c>
-      <c r="B83" s="181"/>
-      <c r="C83" s="182" t="s">
+      <c r="B83" s="153"/>
+      <c r="C83" s="154" t="s">
         <v>109</v>
       </c>
       <c r="D83" s="12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E83" s="184"/>
-      <c r="F83" s="184"/>
-      <c r="G83" s="185"/>
-      <c r="H83" s="185"/>
-      <c r="I83" s="183" t="str">
+      <c r="E83" s="156"/>
+      <c r="F83" s="156"/>
+      <c r="G83" s="157"/>
+      <c r="H83" s="157"/>
+      <c r="I83" s="155" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J83" s="186"/>
-      <c r="K83" s="186"/>
-      <c r="L83" s="186"/>
-      <c r="M83" s="186"/>
-      <c r="N83" s="186"/>
-      <c r="O83" s="186"/>
-      <c r="P83" s="186"/>
-      <c r="Q83" s="186"/>
-      <c r="R83" s="186"/>
-      <c r="S83" s="186"/>
+      <c r="J83" s="158"/>
+      <c r="K83" s="158"/>
+      <c r="L83" s="158"/>
+      <c r="M83" s="158"/>
+      <c r="N83" s="158"/>
+      <c r="O83" s="158"/>
+      <c r="P83" s="158"/>
+      <c r="Q83" s="158"/>
+      <c r="R83" s="158"/>
+      <c r="S83" s="158"/>
     </row>
     <row r="84" spans="1:19">
       <c r="A84" s="16">
         <v>80</v>
       </c>
-      <c r="B84" s="187"/>
-      <c r="C84" s="188" t="s">
+      <c r="B84" s="159"/>
+      <c r="C84" s="160" t="s">
         <v>109</v>
       </c>
       <c r="D84" s="12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E84" s="190"/>
-      <c r="F84" s="190"/>
-      <c r="G84" s="191"/>
-      <c r="H84" s="191"/>
-      <c r="I84" s="189" t="str">
+      <c r="E84" s="162"/>
+      <c r="F84" s="162"/>
+      <c r="G84" s="163"/>
+      <c r="H84" s="163"/>
+      <c r="I84" s="161" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J84" s="192"/>
-      <c r="K84" s="192"/>
-      <c r="L84" s="192"/>
-      <c r="M84" s="192"/>
-      <c r="N84" s="192"/>
-      <c r="O84" s="192"/>
-      <c r="P84" s="192"/>
-      <c r="Q84" s="192"/>
-      <c r="R84" s="192"/>
-      <c r="S84" s="192"/>
+      <c r="J84" s="164"/>
+      <c r="K84" s="164"/>
+      <c r="L84" s="164"/>
+      <c r="M84" s="164"/>
+      <c r="N84" s="164"/>
+      <c r="O84" s="164"/>
+      <c r="P84" s="164"/>
+      <c r="Q84" s="164"/>
+      <c r="R84" s="164"/>
+      <c r="S84" s="164"/>
     </row>
     <row r="85" spans="1:19">
       <c r="A85" s="16">
         <v>81</v>
       </c>
-      <c r="B85" s="187"/>
-      <c r="C85" s="188" t="s">
+      <c r="B85" s="159"/>
+      <c r="C85" s="160" t="s">
         <v>109</v>
       </c>
       <c r="D85" s="12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E85" s="190"/>
-      <c r="F85" s="190"/>
-      <c r="G85" s="191"/>
-      <c r="H85" s="191"/>
-      <c r="I85" s="189" t="str">
+      <c r="E85" s="162"/>
+      <c r="F85" s="162"/>
+      <c r="G85" s="163"/>
+      <c r="H85" s="163"/>
+      <c r="I85" s="161" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J85" s="192"/>
-      <c r="K85" s="192"/>
-      <c r="L85" s="192"/>
-      <c r="M85" s="192"/>
-      <c r="N85" s="192"/>
-      <c r="O85" s="192"/>
-      <c r="P85" s="192"/>
-      <c r="Q85" s="192"/>
-      <c r="R85" s="192"/>
-      <c r="S85" s="192"/>
+      <c r="J85" s="164"/>
+      <c r="K85" s="164"/>
+      <c r="L85" s="164"/>
+      <c r="M85" s="164"/>
+      <c r="N85" s="164"/>
+      <c r="O85" s="164"/>
+      <c r="P85" s="164"/>
+      <c r="Q85" s="164"/>
+      <c r="R85" s="164"/>
+      <c r="S85" s="164"/>
     </row>
     <row r="86" spans="1:19">
       <c r="A86" s="16">
         <v>82</v>
       </c>
-      <c r="B86" s="187"/>
-      <c r="C86" s="188" t="s">
+      <c r="B86" s="159"/>
+      <c r="C86" s="160" t="s">
         <v>109</v>
       </c>
       <c r="D86" s="12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E86" s="190"/>
-      <c r="F86" s="190"/>
-      <c r="G86" s="191"/>
-      <c r="H86" s="191"/>
-      <c r="I86" s="189" t="str">
+      <c r="E86" s="162"/>
+      <c r="F86" s="162"/>
+      <c r="G86" s="163"/>
+      <c r="H86" s="163"/>
+      <c r="I86" s="161" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J86" s="192"/>
-      <c r="K86" s="192"/>
-      <c r="L86" s="192"/>
-      <c r="M86" s="192"/>
-      <c r="N86" s="192"/>
-      <c r="O86" s="192"/>
-      <c r="P86" s="192"/>
-      <c r="Q86" s="192"/>
-      <c r="R86" s="192"/>
-      <c r="S86" s="192"/>
+      <c r="J86" s="164"/>
+      <c r="K86" s="164"/>
+      <c r="L86" s="164"/>
+      <c r="M86" s="164"/>
+      <c r="N86" s="164"/>
+      <c r="O86" s="164"/>
+      <c r="P86" s="164"/>
+      <c r="Q86" s="164"/>
+      <c r="R86" s="164"/>
+      <c r="S86" s="164"/>
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="16">
         <v>83</v>
       </c>
-      <c r="B87" s="187"/>
-      <c r="C87" s="188" t="s">
+      <c r="B87" s="159"/>
+      <c r="C87" s="160" t="s">
         <v>109</v>
       </c>
       <c r="D87" s="12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E87" s="190"/>
-      <c r="F87" s="190"/>
-      <c r="G87" s="191"/>
-      <c r="H87" s="191"/>
-      <c r="I87" s="189" t="str">
+      <c r="E87" s="162"/>
+      <c r="F87" s="162"/>
+      <c r="G87" s="163"/>
+      <c r="H87" s="163"/>
+      <c r="I87" s="161" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J87" s="192"/>
-      <c r="K87" s="192"/>
-      <c r="L87" s="192"/>
-      <c r="M87" s="192"/>
-      <c r="N87" s="192"/>
-      <c r="O87" s="192"/>
-      <c r="P87" s="192"/>
-      <c r="Q87" s="192"/>
-      <c r="R87" s="192"/>
-      <c r="S87" s="192"/>
+      <c r="J87" s="164"/>
+      <c r="K87" s="164"/>
+      <c r="L87" s="164"/>
+      <c r="M87" s="164"/>
+      <c r="N87" s="164"/>
+      <c r="O87" s="164"/>
+      <c r="P87" s="164"/>
+      <c r="Q87" s="164"/>
+      <c r="R87" s="164"/>
+      <c r="S87" s="164"/>
     </row>
     <row r="88" spans="1:19">
       <c r="A88" s="16">
         <v>84</v>
       </c>
-      <c r="B88" s="187"/>
-      <c r="C88" s="188" t="s">
+      <c r="B88" s="159"/>
+      <c r="C88" s="160" t="s">
         <v>109</v>
       </c>
-      <c r="D88" s="177" t="str">
+      <c r="D88" s="149" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E88" s="190"/>
-      <c r="F88" s="190"/>
-      <c r="G88" s="191"/>
-      <c r="H88" s="191"/>
-      <c r="I88" s="189" t="str">
+      <c r="E88" s="162"/>
+      <c r="F88" s="162"/>
+      <c r="G88" s="163"/>
+      <c r="H88" s="163"/>
+      <c r="I88" s="161" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J88" s="192"/>
-      <c r="K88" s="192"/>
-      <c r="L88" s="192"/>
-      <c r="M88" s="192"/>
-      <c r="N88" s="192"/>
-      <c r="O88" s="192"/>
-      <c r="P88" s="192"/>
-      <c r="Q88" s="192"/>
-      <c r="R88" s="192"/>
-      <c r="S88" s="192"/>
+      <c r="J88" s="164"/>
+      <c r="K88" s="164"/>
+      <c r="L88" s="164"/>
+      <c r="M88" s="164"/>
+      <c r="N88" s="164"/>
+      <c r="O88" s="164"/>
+      <c r="P88" s="164"/>
+      <c r="Q88" s="164"/>
+      <c r="R88" s="164"/>
+      <c r="S88" s="164"/>
     </row>
     <row r="89" spans="1:19">
       <c r="A89" s="16">
@@ -20436,165 +20428,165 @@
       <c r="E89" s="144"/>
       <c r="F89" s="144"/>
       <c r="G89" s="145"/>
-      <c r="H89" s="196"/>
-      <c r="I89" s="197" t="str">
+      <c r="H89" s="168"/>
+      <c r="I89" s="169" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J89" s="198"/>
-      <c r="K89" s="198"/>
-      <c r="L89" s="198"/>
-      <c r="M89" s="198"/>
-      <c r="N89" s="198"/>
-      <c r="O89" s="198"/>
-      <c r="P89" s="198"/>
-      <c r="Q89" s="198"/>
-      <c r="R89" s="198"/>
-      <c r="S89" s="198"/>
+      <c r="J89" s="170"/>
+      <c r="K89" s="170"/>
+      <c r="L89" s="170"/>
+      <c r="M89" s="170"/>
+      <c r="N89" s="170"/>
+      <c r="O89" s="170"/>
+      <c r="P89" s="170"/>
+      <c r="Q89" s="170"/>
+      <c r="R89" s="170"/>
+      <c r="S89" s="170"/>
     </row>
     <row r="90" spans="1:19">
       <c r="A90" s="16">
         <v>86</v>
       </c>
-      <c r="B90" s="175" t="s">
+      <c r="B90" s="147" t="s">
         <v>239</v>
       </c>
-      <c r="C90" s="176" t="s">
+      <c r="C90" s="148" t="s">
         <v>111</v>
       </c>
-      <c r="D90" s="177" t="str">
+      <c r="D90" s="149" t="str">
         <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E90" s="178">
+      <c r="E90" s="150">
         <v>43053</v>
       </c>
-      <c r="F90" s="178"/>
-      <c r="G90" s="179">
+      <c r="F90" s="150"/>
+      <c r="G90" s="151">
         <v>2</v>
       </c>
-      <c r="H90" s="179"/>
-      <c r="I90" s="177" t="str">
+      <c r="H90" s="151"/>
+      <c r="I90" s="149" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J90" s="180"/>
-      <c r="K90" s="180"/>
-      <c r="L90" s="180"/>
-      <c r="M90" s="180"/>
-      <c r="N90" s="180"/>
-      <c r="O90" s="180"/>
-      <c r="P90" s="180"/>
-      <c r="Q90" s="180"/>
-      <c r="R90" s="180"/>
-      <c r="S90" s="180"/>
+      <c r="J90" s="152"/>
+      <c r="K90" s="152"/>
+      <c r="L90" s="152"/>
+      <c r="M90" s="152"/>
+      <c r="N90" s="152"/>
+      <c r="O90" s="152"/>
+      <c r="P90" s="152"/>
+      <c r="Q90" s="152"/>
+      <c r="R90" s="152"/>
+      <c r="S90" s="152"/>
     </row>
     <row r="91" spans="1:19">
       <c r="A91" s="16">
         <v>87</v>
       </c>
-      <c r="B91" s="175" t="s">
+      <c r="B91" s="147" t="s">
         <v>175</v>
       </c>
-      <c r="C91" s="176" t="s">
+      <c r="C91" s="148" t="s">
         <v>111</v>
       </c>
-      <c r="D91" s="177" t="str">
+      <c r="D91" s="149" t="str">
         <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E91" s="178">
+      <c r="E91" s="150">
         <v>43053</v>
       </c>
-      <c r="F91" s="178"/>
-      <c r="G91" s="179">
+      <c r="F91" s="150"/>
+      <c r="G91" s="151">
         <v>2</v>
       </c>
-      <c r="H91" s="179"/>
-      <c r="I91" s="177" t="str">
+      <c r="H91" s="151"/>
+      <c r="I91" s="149" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J91" s="180"/>
-      <c r="K91" s="180"/>
-      <c r="L91" s="180"/>
-      <c r="M91" s="180"/>
-      <c r="N91" s="180"/>
-      <c r="O91" s="180"/>
-      <c r="P91" s="180"/>
-      <c r="Q91" s="180"/>
-      <c r="R91" s="180"/>
-      <c r="S91" s="180"/>
+      <c r="J91" s="152"/>
+      <c r="K91" s="152"/>
+      <c r="L91" s="152"/>
+      <c r="M91" s="152"/>
+      <c r="N91" s="152"/>
+      <c r="O91" s="152"/>
+      <c r="P91" s="152"/>
+      <c r="Q91" s="152"/>
+      <c r="R91" s="152"/>
+      <c r="S91" s="152"/>
     </row>
     <row r="92" spans="1:19">
       <c r="A92" s="16">
         <v>88</v>
       </c>
-      <c r="B92" s="175" t="s">
+      <c r="B92" s="147" t="s">
         <v>176</v>
       </c>
-      <c r="C92" s="176" t="s">
+      <c r="C92" s="148" t="s">
         <v>111</v>
       </c>
-      <c r="D92" s="177" t="str">
+      <c r="D92" s="149" t="str">
         <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E92" s="178">
+      <c r="E92" s="150">
         <v>43053</v>
       </c>
-      <c r="F92" s="178"/>
-      <c r="G92" s="179">
+      <c r="F92" s="150"/>
+      <c r="G92" s="151">
         <v>2</v>
       </c>
-      <c r="H92" s="179"/>
-      <c r="I92" s="177" t="str">
+      <c r="H92" s="151"/>
+      <c r="I92" s="149" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J92" s="180"/>
-      <c r="K92" s="180"/>
-      <c r="L92" s="180"/>
-      <c r="M92" s="180"/>
-      <c r="N92" s="180"/>
-      <c r="O92" s="180"/>
-      <c r="P92" s="180"/>
-      <c r="Q92" s="180"/>
-      <c r="R92" s="180"/>
-      <c r="S92" s="180"/>
+      <c r="J92" s="152"/>
+      <c r="K92" s="152"/>
+      <c r="L92" s="152"/>
+      <c r="M92" s="152"/>
+      <c r="N92" s="152"/>
+      <c r="O92" s="152"/>
+      <c r="P92" s="152"/>
+      <c r="Q92" s="152"/>
+      <c r="R92" s="152"/>
+      <c r="S92" s="152"/>
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="16">
         <v>89</v>
       </c>
-      <c r="B93" s="175" t="s">
+      <c r="B93" s="147" t="s">
         <v>176</v>
       </c>
-      <c r="C93" s="176" t="s">
+      <c r="C93" s="148" t="s">
         <v>111</v>
       </c>
-      <c r="D93" s="177" t="str">
+      <c r="D93" s="149" t="str">
         <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E93" s="178"/>
-      <c r="F93" s="178"/>
-      <c r="G93" s="179"/>
-      <c r="H93" s="179"/>
-      <c r="I93" s="177" t="str">
+      <c r="E93" s="150"/>
+      <c r="F93" s="150"/>
+      <c r="G93" s="151"/>
+      <c r="H93" s="151"/>
+      <c r="I93" s="149" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J93" s="180"/>
-      <c r="K93" s="180"/>
-      <c r="L93" s="180"/>
-      <c r="M93" s="180"/>
-      <c r="N93" s="180"/>
-      <c r="O93" s="180"/>
-      <c r="P93" s="180"/>
-      <c r="Q93" s="180"/>
-      <c r="R93" s="180"/>
-      <c r="S93" s="180"/>
+      <c r="J93" s="152"/>
+      <c r="K93" s="152"/>
+      <c r="L93" s="152"/>
+      <c r="M93" s="152"/>
+      <c r="N93" s="152"/>
+      <c r="O93" s="152"/>
+      <c r="P93" s="152"/>
+      <c r="Q93" s="152"/>
+      <c r="R93" s="152"/>
+      <c r="S93" s="152"/>
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="16">
@@ -20633,186 +20625,186 @@
       <c r="A95" s="16">
         <v>91</v>
       </c>
-      <c r="B95" s="175" t="s">
+      <c r="B95" s="147" t="s">
         <v>177</v>
       </c>
-      <c r="C95" s="176" t="s">
+      <c r="C95" s="148" t="s">
         <v>111</v>
       </c>
-      <c r="D95" s="177" t="str">
+      <c r="D95" s="149" t="str">
         <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E95" s="178">
+      <c r="E95" s="150">
         <v>43060</v>
       </c>
-      <c r="F95" s="178"/>
-      <c r="G95" s="179">
+      <c r="F95" s="150"/>
+      <c r="G95" s="151">
         <v>3</v>
       </c>
-      <c r="H95" s="179"/>
-      <c r="I95" s="177" t="str">
+      <c r="H95" s="151"/>
+      <c r="I95" s="149" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J95" s="180"/>
-      <c r="K95" s="180"/>
-      <c r="L95" s="180"/>
-      <c r="M95" s="180"/>
-      <c r="N95" s="180"/>
-      <c r="O95" s="180"/>
-      <c r="P95" s="180"/>
-      <c r="Q95" s="180"/>
-      <c r="R95" s="180"/>
-      <c r="S95" s="180"/>
+      <c r="J95" s="152"/>
+      <c r="K95" s="152"/>
+      <c r="L95" s="152"/>
+      <c r="M95" s="152"/>
+      <c r="N95" s="152"/>
+      <c r="O95" s="152"/>
+      <c r="P95" s="152"/>
+      <c r="Q95" s="152"/>
+      <c r="R95" s="152"/>
+      <c r="S95" s="152"/>
     </row>
     <row r="96" spans="1:19">
       <c r="A96" s="16">
         <v>92</v>
       </c>
-      <c r="B96" s="175" t="s">
+      <c r="B96" s="147" t="s">
         <v>178</v>
       </c>
-      <c r="C96" s="176" t="s">
+      <c r="C96" s="148" t="s">
         <v>111</v>
       </c>
-      <c r="D96" s="177" t="str">
+      <c r="D96" s="149" t="str">
         <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E96" s="178">
+      <c r="E96" s="150">
         <v>43063</v>
       </c>
-      <c r="F96" s="178"/>
-      <c r="G96" s="179">
+      <c r="F96" s="150"/>
+      <c r="G96" s="151">
         <v>3</v>
       </c>
-      <c r="H96" s="179"/>
-      <c r="I96" s="177" t="str">
+      <c r="H96" s="151"/>
+      <c r="I96" s="149" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J96" s="180"/>
-      <c r="K96" s="180"/>
-      <c r="L96" s="180"/>
-      <c r="M96" s="180"/>
-      <c r="N96" s="180"/>
-      <c r="O96" s="180"/>
-      <c r="P96" s="180"/>
-      <c r="Q96" s="180"/>
-      <c r="R96" s="180"/>
-      <c r="S96" s="180"/>
+      <c r="J96" s="152"/>
+      <c r="K96" s="152"/>
+      <c r="L96" s="152"/>
+      <c r="M96" s="152"/>
+      <c r="N96" s="152"/>
+      <c r="O96" s="152"/>
+      <c r="P96" s="152"/>
+      <c r="Q96" s="152"/>
+      <c r="R96" s="152"/>
+      <c r="S96" s="152"/>
     </row>
     <row r="97" spans="1:26">
       <c r="A97" s="16">
         <v>93</v>
       </c>
-      <c r="B97" s="175" t="s">
+      <c r="B97" s="147" t="s">
         <v>179</v>
       </c>
-      <c r="C97" s="176" t="s">
+      <c r="C97" s="148" t="s">
         <v>111</v>
       </c>
-      <c r="D97" s="177" t="str">
+      <c r="D97" s="149" t="str">
         <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E97" s="178">
+      <c r="E97" s="150">
         <v>43056</v>
       </c>
-      <c r="F97" s="178"/>
-      <c r="G97" s="179">
+      <c r="F97" s="150"/>
+      <c r="G97" s="151">
         <v>2</v>
       </c>
-      <c r="H97" s="179"/>
-      <c r="I97" s="177" t="str">
+      <c r="H97" s="151"/>
+      <c r="I97" s="149" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J97" s="180"/>
-      <c r="K97" s="180"/>
-      <c r="L97" s="180"/>
-      <c r="M97" s="180"/>
-      <c r="N97" s="180"/>
-      <c r="O97" s="180"/>
-      <c r="P97" s="180"/>
-      <c r="Q97" s="180"/>
-      <c r="R97" s="180"/>
-      <c r="S97" s="180"/>
+      <c r="J97" s="152"/>
+      <c r="K97" s="152"/>
+      <c r="L97" s="152"/>
+      <c r="M97" s="152"/>
+      <c r="N97" s="152"/>
+      <c r="O97" s="152"/>
+      <c r="P97" s="152"/>
+      <c r="Q97" s="152"/>
+      <c r="R97" s="152"/>
+      <c r="S97" s="152"/>
     </row>
     <row r="98" spans="1:26">
       <c r="A98" s="16">
         <v>94</v>
       </c>
-      <c r="B98" s="175" t="s">
+      <c r="B98" s="147" t="s">
         <v>180</v>
       </c>
-      <c r="C98" s="176" t="s">
+      <c r="C98" s="148" t="s">
         <v>111</v>
       </c>
-      <c r="D98" s="177" t="str">
+      <c r="D98" s="149" t="str">
         <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E98" s="178">
+      <c r="E98" s="150">
         <v>43063</v>
       </c>
-      <c r="F98" s="178"/>
-      <c r="G98" s="179">
+      <c r="F98" s="150"/>
+      <c r="G98" s="151">
         <v>4</v>
       </c>
-      <c r="H98" s="179"/>
-      <c r="I98" s="177" t="str">
+      <c r="H98" s="151"/>
+      <c r="I98" s="149" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J98" s="180"/>
-      <c r="K98" s="180"/>
-      <c r="L98" s="180"/>
-      <c r="M98" s="180"/>
-      <c r="N98" s="180"/>
-      <c r="O98" s="180"/>
-      <c r="P98" s="180"/>
-      <c r="Q98" s="180"/>
-      <c r="R98" s="180"/>
-      <c r="S98" s="180"/>
+      <c r="J98" s="152"/>
+      <c r="K98" s="152"/>
+      <c r="L98" s="152"/>
+      <c r="M98" s="152"/>
+      <c r="N98" s="152"/>
+      <c r="O98" s="152"/>
+      <c r="P98" s="152"/>
+      <c r="Q98" s="152"/>
+      <c r="R98" s="152"/>
+      <c r="S98" s="152"/>
     </row>
     <row r="99" spans="1:26">
       <c r="A99" s="16">
         <v>95</v>
       </c>
-      <c r="B99" s="175" t="s">
+      <c r="B99" s="147" t="s">
         <v>181</v>
       </c>
-      <c r="C99" s="176" t="s">
+      <c r="C99" s="148" t="s">
         <v>111</v>
       </c>
-      <c r="D99" s="177" t="str">
+      <c r="D99" s="149" t="str">
         <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E99" s="178">
+      <c r="E99" s="150">
         <v>43067</v>
       </c>
-      <c r="F99" s="193"/>
-      <c r="G99" s="179">
+      <c r="F99" s="165"/>
+      <c r="G99" s="151">
         <v>2</v>
       </c>
-      <c r="H99" s="179"/>
-      <c r="I99" s="177" t="str">
+      <c r="H99" s="151"/>
+      <c r="I99" s="149" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J99" s="180"/>
-      <c r="K99" s="180"/>
-      <c r="L99" s="180"/>
-      <c r="M99" s="180"/>
-      <c r="N99" s="180"/>
-      <c r="O99" s="180"/>
-      <c r="P99" s="180"/>
-      <c r="Q99" s="180"/>
-      <c r="R99" s="180"/>
-      <c r="S99" s="180"/>
+      <c r="J99" s="152"/>
+      <c r="K99" s="152"/>
+      <c r="L99" s="152"/>
+      <c r="M99" s="152"/>
+      <c r="N99" s="152"/>
+      <c r="O99" s="152"/>
+      <c r="P99" s="152"/>
+      <c r="Q99" s="152"/>
+      <c r="R99" s="152"/>
+      <c r="S99" s="152"/>
     </row>
     <row r="100" spans="1:26">
       <c r="A100" s="16">
@@ -20829,7 +20821,7 @@
         <v>未着手</v>
       </c>
       <c r="E100" s="144"/>
-      <c r="F100" s="199"/>
+      <c r="F100" s="171"/>
       <c r="G100" s="145"/>
       <c r="H100" s="145"/>
       <c r="I100" s="143" t="str">
@@ -20851,193 +20843,193 @@
       <c r="A101" s="16">
         <v>97</v>
       </c>
-      <c r="B101" s="175" t="s">
+      <c r="B101" s="147" t="s">
         <v>182</v>
       </c>
-      <c r="C101" s="176" t="s">
+      <c r="C101" s="148" t="s">
         <v>111</v>
       </c>
-      <c r="D101" s="177" t="str">
+      <c r="D101" s="149" t="str">
         <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E101" s="178">
+      <c r="E101" s="150">
         <v>43070</v>
       </c>
-      <c r="F101" s="193"/>
-      <c r="G101" s="179">
+      <c r="F101" s="165"/>
+      <c r="G101" s="151">
         <v>3</v>
       </c>
-      <c r="H101" s="179"/>
-      <c r="I101" s="177" t="str">
+      <c r="H101" s="151"/>
+      <c r="I101" s="149" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J101" s="180"/>
-      <c r="K101" s="180"/>
-      <c r="L101" s="180"/>
-      <c r="M101" s="180"/>
-      <c r="N101" s="180"/>
-      <c r="O101" s="180"/>
-      <c r="P101" s="180"/>
-      <c r="Q101" s="180"/>
-      <c r="R101" s="180"/>
-      <c r="S101" s="180"/>
+      <c r="J101" s="152"/>
+      <c r="K101" s="152"/>
+      <c r="L101" s="152"/>
+      <c r="M101" s="152"/>
+      <c r="N101" s="152"/>
+      <c r="O101" s="152"/>
+      <c r="P101" s="152"/>
+      <c r="Q101" s="152"/>
+      <c r="R101" s="152"/>
+      <c r="S101" s="152"/>
     </row>
     <row r="102" spans="1:26">
       <c r="A102" s="16">
         <v>98</v>
       </c>
-      <c r="B102" s="175"/>
-      <c r="C102" s="176" t="s">
+      <c r="B102" s="147"/>
+      <c r="C102" s="148" t="s">
         <v>111</v>
       </c>
-      <c r="D102" s="177" t="str">
+      <c r="D102" s="149" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E102" s="178"/>
-      <c r="F102" s="193"/>
-      <c r="G102" s="179"/>
-      <c r="H102" s="179"/>
-      <c r="I102" s="177" t="str">
+      <c r="E102" s="150"/>
+      <c r="F102" s="165"/>
+      <c r="G102" s="151"/>
+      <c r="H102" s="151"/>
+      <c r="I102" s="149" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J102" s="180"/>
-      <c r="K102" s="180"/>
-      <c r="L102" s="180"/>
-      <c r="M102" s="180"/>
-      <c r="N102" s="180"/>
-      <c r="O102" s="180"/>
-      <c r="P102" s="180"/>
-      <c r="Q102" s="180"/>
-      <c r="R102" s="180"/>
-      <c r="S102" s="180"/>
+      <c r="J102" s="152"/>
+      <c r="K102" s="152"/>
+      <c r="L102" s="152"/>
+      <c r="M102" s="152"/>
+      <c r="N102" s="152"/>
+      <c r="O102" s="152"/>
+      <c r="P102" s="152"/>
+      <c r="Q102" s="152"/>
+      <c r="R102" s="152"/>
+      <c r="S102" s="152"/>
     </row>
     <row r="103" spans="1:26">
       <c r="A103" s="16">
         <v>99</v>
       </c>
-      <c r="B103" s="175"/>
-      <c r="C103" s="176" t="s">
+      <c r="B103" s="147"/>
+      <c r="C103" s="148" t="s">
         <v>111</v>
       </c>
-      <c r="D103" s="177" t="str">
+      <c r="D103" s="149" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E103" s="178"/>
-      <c r="F103" s="193"/>
-      <c r="G103" s="179"/>
-      <c r="H103" s="179"/>
-      <c r="I103" s="177" t="str">
+      <c r="E103" s="150"/>
+      <c r="F103" s="165"/>
+      <c r="G103" s="151"/>
+      <c r="H103" s="151"/>
+      <c r="I103" s="149" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J103" s="180"/>
-      <c r="K103" s="180"/>
-      <c r="L103" s="180"/>
-      <c r="M103" s="180"/>
-      <c r="N103" s="180"/>
-      <c r="O103" s="180"/>
-      <c r="P103" s="180"/>
-      <c r="Q103" s="180"/>
-      <c r="R103" s="180"/>
-      <c r="S103" s="180"/>
+      <c r="J103" s="152"/>
+      <c r="K103" s="152"/>
+      <c r="L103" s="152"/>
+      <c r="M103" s="152"/>
+      <c r="N103" s="152"/>
+      <c r="O103" s="152"/>
+      <c r="P103" s="152"/>
+      <c r="Q103" s="152"/>
+      <c r="R103" s="152"/>
+      <c r="S103" s="152"/>
     </row>
     <row r="104" spans="1:26">
       <c r="A104" s="16">
         <v>100</v>
       </c>
-      <c r="B104" s="175"/>
-      <c r="C104" s="176" t="s">
+      <c r="B104" s="147"/>
+      <c r="C104" s="148" t="s">
         <v>111</v>
       </c>
-      <c r="D104" s="177" t="str">
+      <c r="D104" s="149" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E104" s="178"/>
-      <c r="F104" s="193"/>
-      <c r="G104" s="179"/>
-      <c r="H104" s="179"/>
-      <c r="I104" s="177" t="str">
+      <c r="E104" s="150"/>
+      <c r="F104" s="165"/>
+      <c r="G104" s="151"/>
+      <c r="H104" s="151"/>
+      <c r="I104" s="149" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J104" s="180"/>
-      <c r="K104" s="180"/>
-      <c r="L104" s="180"/>
-      <c r="M104" s="180"/>
-      <c r="N104" s="180"/>
-      <c r="O104" s="180"/>
-      <c r="P104" s="180"/>
-      <c r="Q104" s="180"/>
-      <c r="R104" s="180"/>
-      <c r="S104" s="180"/>
+      <c r="J104" s="152"/>
+      <c r="K104" s="152"/>
+      <c r="L104" s="152"/>
+      <c r="M104" s="152"/>
+      <c r="N104" s="152"/>
+      <c r="O104" s="152"/>
+      <c r="P104" s="152"/>
+      <c r="Q104" s="152"/>
+      <c r="R104" s="152"/>
+      <c r="S104" s="152"/>
     </row>
     <row r="105" spans="1:26" ht="13.5" customHeight="1">
       <c r="A105" s="16">
         <v>101</v>
       </c>
-      <c r="B105" s="175"/>
-      <c r="C105" s="176" t="s">
+      <c r="B105" s="147"/>
+      <c r="C105" s="148" t="s">
         <v>111</v>
       </c>
-      <c r="D105" s="177" t="str">
+      <c r="D105" s="149" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E105" s="178"/>
-      <c r="F105" s="193"/>
-      <c r="G105" s="179"/>
-      <c r="H105" s="194"/>
-      <c r="I105" s="177" t="str">
+      <c r="E105" s="150"/>
+      <c r="F105" s="165"/>
+      <c r="G105" s="151"/>
+      <c r="H105" s="166"/>
+      <c r="I105" s="149" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J105" s="195"/>
-      <c r="K105" s="195"/>
-      <c r="L105" s="195"/>
-      <c r="M105" s="195"/>
-      <c r="N105" s="195"/>
-      <c r="O105" s="195"/>
-      <c r="P105" s="195"/>
-      <c r="Q105" s="195"/>
-      <c r="R105" s="195"/>
-      <c r="S105" s="195"/>
+      <c r="J105" s="167"/>
+      <c r="K105" s="167"/>
+      <c r="L105" s="167"/>
+      <c r="M105" s="167"/>
+      <c r="N105" s="167"/>
+      <c r="O105" s="167"/>
+      <c r="P105" s="167"/>
+      <c r="Q105" s="167"/>
+      <c r="R105" s="167"/>
+      <c r="S105" s="167"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1">
       <c r="A106" s="16">
         <v>102</v>
       </c>
-      <c r="B106" s="175"/>
-      <c r="C106" s="176" t="s">
+      <c r="B106" s="147"/>
+      <c r="C106" s="148" t="s">
         <v>111</v>
       </c>
-      <c r="D106" s="177" t="str">
+      <c r="D106" s="149" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E106" s="178"/>
-      <c r="F106" s="193"/>
-      <c r="G106" s="179"/>
-      <c r="H106" s="194"/>
-      <c r="I106" s="177" t="str">
+      <c r="E106" s="150"/>
+      <c r="F106" s="165"/>
+      <c r="G106" s="151"/>
+      <c r="H106" s="166"/>
+      <c r="I106" s="149" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J106" s="195"/>
-      <c r="K106" s="195"/>
-      <c r="L106" s="195"/>
-      <c r="M106" s="195"/>
-      <c r="N106" s="195"/>
-      <c r="O106" s="195"/>
-      <c r="P106" s="195"/>
-      <c r="Q106" s="195"/>
-      <c r="R106" s="195"/>
-      <c r="S106" s="195"/>
+      <c r="J106" s="167"/>
+      <c r="K106" s="167"/>
+      <c r="L106" s="167"/>
+      <c r="M106" s="167"/>
+      <c r="N106" s="167"/>
+      <c r="O106" s="167"/>
+      <c r="P106" s="167"/>
+      <c r="Q106" s="167"/>
+      <c r="R106" s="167"/>
+      <c r="S106" s="167"/>
       <c r="U106" s="13" t="s">
         <v>11</v>
       </c>
@@ -21061,32 +21053,32 @@
       <c r="A107" s="16">
         <v>103</v>
       </c>
-      <c r="B107" s="175"/>
-      <c r="C107" s="176" t="s">
+      <c r="B107" s="147"/>
+      <c r="C107" s="148" t="s">
         <v>111</v>
       </c>
-      <c r="D107" s="177" t="str">
+      <c r="D107" s="149" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E107" s="178"/>
-      <c r="F107" s="193"/>
-      <c r="G107" s="179"/>
-      <c r="H107" s="194"/>
-      <c r="I107" s="177" t="str">
+      <c r="E107" s="150"/>
+      <c r="F107" s="165"/>
+      <c r="G107" s="151"/>
+      <c r="H107" s="166"/>
+      <c r="I107" s="149" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J107" s="195"/>
-      <c r="K107" s="195"/>
-      <c r="L107" s="195"/>
-      <c r="M107" s="195"/>
-      <c r="N107" s="195"/>
-      <c r="O107" s="195"/>
-      <c r="P107" s="195"/>
-      <c r="Q107" s="195"/>
-      <c r="R107" s="195"/>
-      <c r="S107" s="195"/>
+      <c r="J107" s="167"/>
+      <c r="K107" s="167"/>
+      <c r="L107" s="167"/>
+      <c r="M107" s="167"/>
+      <c r="N107" s="167"/>
+      <c r="O107" s="167"/>
+      <c r="P107" s="167"/>
+      <c r="Q107" s="167"/>
+      <c r="R107" s="167"/>
+      <c r="S107" s="167"/>
       <c r="U107" s="11" t="s">
         <v>191</v>
       </c>
@@ -21171,38 +21163,38 @@
       <c r="A109" s="16">
         <v>105</v>
       </c>
-      <c r="B109" s="175" t="s">
+      <c r="B109" s="147" t="s">
         <v>183</v>
       </c>
-      <c r="C109" s="176" t="s">
+      <c r="C109" s="148" t="s">
         <v>112</v>
       </c>
-      <c r="D109" s="177" t="str">
+      <c r="D109" s="149" t="str">
         <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E109" s="178">
+      <c r="E109" s="150">
         <v>43049</v>
       </c>
-      <c r="F109" s="193"/>
-      <c r="G109" s="179">
+      <c r="F109" s="165"/>
+      <c r="G109" s="151">
         <v>4</v>
       </c>
-      <c r="H109" s="194"/>
-      <c r="I109" s="177" t="str">
+      <c r="H109" s="166"/>
+      <c r="I109" s="149" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J109" s="195"/>
-      <c r="K109" s="195"/>
-      <c r="L109" s="195"/>
-      <c r="M109" s="195"/>
-      <c r="N109" s="195"/>
-      <c r="O109" s="195"/>
-      <c r="P109" s="195"/>
-      <c r="Q109" s="195"/>
-      <c r="R109" s="195"/>
-      <c r="S109" s="195"/>
+      <c r="J109" s="167"/>
+      <c r="K109" s="167"/>
+      <c r="L109" s="167"/>
+      <c r="M109" s="167"/>
+      <c r="N109" s="167"/>
+      <c r="O109" s="167"/>
+      <c r="P109" s="167"/>
+      <c r="Q109" s="167"/>
+      <c r="R109" s="167"/>
+      <c r="S109" s="167"/>
       <c r="U109" s="11" t="s">
         <v>193</v>
       </c>
@@ -21231,38 +21223,38 @@
       <c r="A110" s="16">
         <v>106</v>
       </c>
-      <c r="B110" s="175" t="s">
+      <c r="B110" s="147" t="s">
         <v>184</v>
       </c>
-      <c r="C110" s="176" t="s">
+      <c r="C110" s="148" t="s">
         <v>112</v>
       </c>
-      <c r="D110" s="177" t="str">
+      <c r="D110" s="149" t="str">
         <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E110" s="193">
+      <c r="E110" s="165">
         <v>43053</v>
       </c>
-      <c r="F110" s="193"/>
-      <c r="G110" s="194">
+      <c r="F110" s="165"/>
+      <c r="G110" s="166">
         <v>4</v>
       </c>
-      <c r="H110" s="194"/>
-      <c r="I110" s="177" t="str">
+      <c r="H110" s="166"/>
+      <c r="I110" s="149" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J110" s="195"/>
-      <c r="K110" s="195"/>
-      <c r="L110" s="195"/>
-      <c r="M110" s="195"/>
-      <c r="N110" s="195"/>
-      <c r="O110" s="195"/>
-      <c r="P110" s="195"/>
-      <c r="Q110" s="195"/>
-      <c r="R110" s="195"/>
-      <c r="S110" s="195"/>
+      <c r="J110" s="167"/>
+      <c r="K110" s="167"/>
+      <c r="L110" s="167"/>
+      <c r="M110" s="167"/>
+      <c r="N110" s="167"/>
+      <c r="O110" s="167"/>
+      <c r="P110" s="167"/>
+      <c r="Q110" s="167"/>
+      <c r="R110" s="167"/>
+      <c r="S110" s="167"/>
       <c r="U110" s="11" t="s">
         <v>194</v>
       </c>
@@ -21288,41 +21280,41 @@
       </c>
     </row>
     <row r="111" spans="1:26">
-      <c r="A111" s="200">
+      <c r="A111" s="172">
         <v>107</v>
       </c>
-      <c r="B111" s="201" t="s">
+      <c r="B111" s="173" t="s">
         <v>185</v>
       </c>
-      <c r="C111" s="202" t="s">
+      <c r="C111" s="174" t="s">
         <v>112</v>
       </c>
-      <c r="D111" s="203" t="str">
+      <c r="D111" s="175" t="str">
         <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E111" s="204">
+      <c r="E111" s="176">
         <v>43056</v>
       </c>
-      <c r="F111" s="193"/>
-      <c r="G111" s="205">
+      <c r="F111" s="165"/>
+      <c r="G111" s="177">
         <v>5</v>
       </c>
-      <c r="H111" s="205"/>
-      <c r="I111" s="203" t="str">
+      <c r="H111" s="177"/>
+      <c r="I111" s="175" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J111" s="206"/>
-      <c r="K111" s="206"/>
-      <c r="L111" s="206"/>
-      <c r="M111" s="206"/>
-      <c r="N111" s="206"/>
-      <c r="O111" s="206"/>
-      <c r="P111" s="206"/>
-      <c r="Q111" s="206"/>
-      <c r="R111" s="206"/>
-      <c r="S111" s="206"/>
+      <c r="J111" s="178"/>
+      <c r="K111" s="178"/>
+      <c r="L111" s="178"/>
+      <c r="M111" s="178"/>
+      <c r="N111" s="178"/>
+      <c r="O111" s="178"/>
+      <c r="P111" s="178"/>
+      <c r="Q111" s="178"/>
+      <c r="R111" s="178"/>
+      <c r="S111" s="178"/>
       <c r="U111" s="11" t="s">
         <v>195</v>
       </c>
@@ -21351,38 +21343,38 @@
       <c r="A112" s="16">
         <v>108</v>
       </c>
-      <c r="B112" s="175" t="s">
+      <c r="B112" s="147" t="s">
         <v>186</v>
       </c>
-      <c r="C112" s="176" t="s">
+      <c r="C112" s="148" t="s">
         <v>112</v>
       </c>
-      <c r="D112" s="177" t="str">
+      <c r="D112" s="149" t="str">
         <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E112" s="193">
+      <c r="E112" s="165">
         <v>43060</v>
       </c>
-      <c r="F112" s="193"/>
-      <c r="G112" s="194">
+      <c r="F112" s="165"/>
+      <c r="G112" s="166">
         <v>4</v>
       </c>
-      <c r="H112" s="194"/>
-      <c r="I112" s="203" t="str">
+      <c r="H112" s="166"/>
+      <c r="I112" s="175" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J112" s="195"/>
-      <c r="K112" s="195"/>
-      <c r="L112" s="195"/>
-      <c r="M112" s="195"/>
-      <c r="N112" s="195"/>
-      <c r="O112" s="195"/>
-      <c r="P112" s="195"/>
-      <c r="Q112" s="195"/>
-      <c r="R112" s="195"/>
-      <c r="S112" s="195"/>
+      <c r="J112" s="167"/>
+      <c r="K112" s="167"/>
+      <c r="L112" s="167"/>
+      <c r="M112" s="167"/>
+      <c r="N112" s="167"/>
+      <c r="O112" s="167"/>
+      <c r="P112" s="167"/>
+      <c r="Q112" s="167"/>
+      <c r="R112" s="167"/>
+      <c r="S112" s="167"/>
       <c r="U112" s="11"/>
       <c r="V112" s="10">
         <f t="shared" si="5"/>
@@ -21406,41 +21398,41 @@
       </c>
     </row>
     <row r="113" spans="1:26">
-      <c r="A113" s="200">
+      <c r="A113" s="172">
         <v>109</v>
       </c>
-      <c r="B113" s="175" t="s">
+      <c r="B113" s="147" t="s">
         <v>187</v>
       </c>
-      <c r="C113" s="176" t="s">
+      <c r="C113" s="148" t="s">
         <v>112</v>
       </c>
-      <c r="D113" s="177" t="str">
+      <c r="D113" s="149" t="str">
         <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
-      <c r="E113" s="193">
+      <c r="E113" s="165">
         <v>43063</v>
       </c>
-      <c r="F113" s="193"/>
-      <c r="G113" s="194">
+      <c r="F113" s="165"/>
+      <c r="G113" s="166">
         <v>5</v>
       </c>
-      <c r="H113" s="194"/>
-      <c r="I113" s="203" t="str">
+      <c r="H113" s="166"/>
+      <c r="I113" s="175" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J113" s="195"/>
-      <c r="K113" s="195"/>
-      <c r="L113" s="195"/>
-      <c r="M113" s="195"/>
-      <c r="N113" s="195"/>
-      <c r="O113" s="195"/>
-      <c r="P113" s="195"/>
-      <c r="Q113" s="195"/>
-      <c r="R113" s="195"/>
-      <c r="S113" s="195"/>
+      <c r="J113" s="167"/>
+      <c r="K113" s="167"/>
+      <c r="L113" s="167"/>
+      <c r="M113" s="167"/>
+      <c r="N113" s="167"/>
+      <c r="O113" s="167"/>
+      <c r="P113" s="167"/>
+      <c r="Q113" s="167"/>
+      <c r="R113" s="167"/>
+      <c r="S113" s="167"/>
       <c r="U113" s="11"/>
       <c r="V113" s="10">
         <f t="shared" si="5"/>
@@ -21485,7 +21477,7 @@
         <v>3</v>
       </c>
       <c r="H114" s="136"/>
-      <c r="I114" s="203" t="str">
+      <c r="I114" s="175" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -21522,7 +21514,7 @@
       </c>
     </row>
     <row r="115" spans="1:26">
-      <c r="A115" s="200">
+      <c r="A115" s="172">
         <v>111</v>
       </c>
       <c r="B115" s="17" t="s">
@@ -21543,7 +21535,7 @@
         <v>4</v>
       </c>
       <c r="H115" s="136"/>
-      <c r="I115" s="203" t="str">
+      <c r="I115" s="175" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -21601,7 +21593,7 @@
         <v>5</v>
       </c>
       <c r="H116" s="136"/>
-      <c r="I116" s="203" t="str">
+      <c r="I116" s="175" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -21638,19 +21630,19 @@
       </c>
     </row>
     <row r="117" spans="1:26">
-      <c r="A117" s="200">
+      <c r="A117" s="172">
         <v>113</v>
       </c>
       <c r="B117" s="17"/>
       <c r="C117" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D117" s="207"/>
+      <c r="D117" s="179"/>
       <c r="E117" s="135"/>
       <c r="F117" s="135"/>
       <c r="G117" s="136"/>
       <c r="H117" s="136"/>
-      <c r="I117" s="203" t="str">
+      <c r="I117" s="175" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -21673,12 +21665,12 @@
       <c r="C118" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D118" s="207"/>
+      <c r="D118" s="179"/>
       <c r="E118" s="135"/>
       <c r="F118" s="135"/>
       <c r="G118" s="136"/>
       <c r="H118" s="136"/>
-      <c r="I118" s="203" t="str">
+      <c r="I118" s="175" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -21694,19 +21686,19 @@
       <c r="S118" s="137"/>
     </row>
     <row r="119" spans="1:26">
-      <c r="A119" s="200">
+      <c r="A119" s="172">
         <v>115</v>
       </c>
       <c r="B119" s="17"/>
       <c r="C119" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D119" s="207"/>
+      <c r="D119" s="179"/>
       <c r="E119" s="135"/>
       <c r="F119" s="135"/>
       <c r="G119" s="136"/>
       <c r="H119" s="136"/>
-      <c r="I119" s="203" t="str">
+      <c r="I119" s="175" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -21729,12 +21721,12 @@
       <c r="C120" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D120" s="207"/>
+      <c r="D120" s="179"/>
       <c r="E120" s="135"/>
       <c r="F120" s="135"/>
       <c r="G120" s="136"/>
       <c r="H120" s="136"/>
-      <c r="I120" s="203" t="str">
+      <c r="I120" s="175" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -21750,19 +21742,19 @@
       <c r="S120" s="137"/>
     </row>
     <row r="121" spans="1:26">
-      <c r="A121" s="200">
+      <c r="A121" s="172">
         <v>117</v>
       </c>
       <c r="B121" s="17"/>
       <c r="C121" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D121" s="207"/>
+      <c r="D121" s="179"/>
       <c r="E121" s="135"/>
       <c r="F121" s="135"/>
       <c r="G121" s="136"/>
       <c r="H121" s="136"/>
-      <c r="I121" s="203" t="str">
+      <c r="I121" s="175" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -21785,12 +21777,12 @@
       <c r="C122" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D122" s="207"/>
+      <c r="D122" s="179"/>
       <c r="E122" s="135"/>
       <c r="F122" s="135"/>
       <c r="G122" s="136"/>
       <c r="H122" s="136"/>
-      <c r="I122" s="203" t="str">
+      <c r="I122" s="175" t="str">
         <f t="shared" ref="I122" ca="1" si="10">IF(ISBLANK(J122)=FALSE,OFFSET(I122,0,COUNTA(J122:S122)),"")</f>
         <v/>
       </c>
@@ -22689,35 +22681,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:B122">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
       <formula>D121="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
       <formula>D121="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="9" stopIfTrue="1">
       <formula>OR(D121="終了",D121="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B105">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
       <formula>D104="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="5" stopIfTrue="1">
       <formula>D104="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="6" stopIfTrue="1">
       <formula>OR(D104="終了",D104="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115:B116">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
       <formula>D115="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
       <formula>D115="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
       <formula>OR(D115="終了",D115="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22755,53 +22747,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="201" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="168" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="168" t="s">
+      <c r="C1" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="174" t="s">
+      <c r="E1" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="174" t="s">
+      <c r="F1" s="207" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="166" t="s">
+      <c r="G1" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="166" t="s">
+      <c r="H1" s="199" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="168" t="s">
+      <c r="I1" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="169" t="s">
+      <c r="J1" s="202" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="171"/>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="204"/>
+      <c r="P1" s="204"/>
     </row>
     <row r="2" spans="1:16" s="8" customFormat="1">
-      <c r="A2" s="168"/>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="168"/>
+      <c r="A2" s="201"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="201"/>
       <c r="J2" s="23" t="s">
         <v>66</v>
       </c>
@@ -22825,15 +22817,15 @@
       </c>
     </row>
     <row r="3" spans="1:16" s="8" customFormat="1">
-      <c r="A3" s="168"/>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="168"/>
+      <c r="A3" s="201"/>
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="201"/>
       <c r="J3" s="20">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
         <v>0</v>
@@ -22846,15 +22838,15 @@
       <c r="P3" s="20"/>
     </row>
     <row r="4" spans="1:16" s="8" customFormat="1">
-      <c r="A4" s="168"/>
-      <c r="B4" s="172"/>
-      <c r="C4" s="173"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="174"/>
-      <c r="F4" s="174"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="168"/>
+      <c r="A4" s="201"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="200"/>
+      <c r="I4" s="201"/>
       <c r="J4" s="21">
         <f>SUM(J5:J104)</f>
         <v>0</v>
@@ -25953,57 +25945,57 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="26" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD104">
-    <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="20" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="17" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:P65536">
-    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="13" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="14" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26817,13 +26809,13 @@
   <autoFilter ref="B1:K51"/>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="A2:K51">
-    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>$D2="要望"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$D2="確認済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$D2="対応"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/タスク/07班スプリントバックログ.xlsx
+++ b/タスク/07班スプリントバックログ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="4815" yWindow="3045" windowWidth="19230" windowHeight="12120" tabRatio="658" activeTab="2"/>
+    <workbookView xWindow="4815" yWindow="3045" windowWidth="19230" windowHeight="12120" tabRatio="658" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="1" r:id="rId1"/>
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="246">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -2690,22 +2690,32 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>モデルタスク実装</t>
-    <rPh sb="6" eb="8">
-      <t>ジッソウ</t>
+    <t>プレイヤーの挙動模倣(カゴを投げる以外)</t>
+    <rPh sb="6" eb="10">
+      <t>キョドウモホウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イガイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>プレイヤーの挙動模倣(カゴを投げる以外)</t>
-    <rPh sb="6" eb="10">
-      <t>キョドウモホウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イガイ</t>
+    <t>モデル実装</t>
+    <rPh sb="3" eb="5">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ステージ結成の修正</t>
+    <rPh sb="4" eb="6">
+      <t>ケッセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -6309,7 +6319,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6395,7 +6405,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6818,6 +6828,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -6861,7 +6872,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -6951,6 +6962,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -6985,16 +6997,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -7084,6 +7096,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -7095,7 +7108,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>49</c:v>
@@ -7196,6 +7209,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -17324,8 +17338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L111" sqref="L111"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K116" sqref="K116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17439,7 +17453,7 @@
       <c r="I3" s="201"/>
       <c r="J3" s="20">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$S$2))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
@@ -17463,7 +17477,7 @@
       <c r="I4" s="201"/>
       <c r="J4" s="21">
         <f>SUM(J5:J111)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
@@ -17522,9 +17536,13 @@
         <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4">
+        <v>43067</v>
+      </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="19"/>
+      <c r="G6" s="19">
+        <v>6</v>
+      </c>
       <c r="H6" s="19"/>
       <c r="I6" s="12" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -17588,9 +17606,13 @@
         <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4">
+        <v>43063</v>
+      </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="19"/>
+      <c r="G8" s="19">
+        <v>6</v>
+      </c>
       <c r="H8" s="19"/>
       <c r="I8" s="12" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -17654,9 +17676,13 @@
         <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4">
+        <v>43056</v>
+      </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="19"/>
+      <c r="G10" s="19">
+        <v>6</v>
+      </c>
       <c r="H10" s="19"/>
       <c r="I10" s="12" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -17687,9 +17713,13 @@
         <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4">
+        <v>43060</v>
+      </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="19"/>
+      <c r="G11" s="19">
+        <v>6</v>
+      </c>
       <c r="H11" s="19"/>
       <c r="I11" s="12" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -17750,18 +17780,28 @@
         <v>108</v>
       </c>
       <c r="D13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>未着手</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>完了</v>
+      </c>
+      <c r="E13" s="4">
+        <v>43053</v>
+      </c>
+      <c r="F13" s="4">
+        <v>43053</v>
+      </c>
+      <c r="G13" s="19">
+        <v>3</v>
+      </c>
+      <c r="H13" s="19">
+        <v>3</v>
+      </c>
+      <c r="I13" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J13" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="22">
+        <v>0</v>
+      </c>
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
@@ -17783,18 +17823,28 @@
         <v>108</v>
       </c>
       <c r="D14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>未着手</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>完了</v>
+      </c>
+      <c r="E14" s="4">
+        <v>43053</v>
+      </c>
+      <c r="F14" s="4">
+        <v>43053</v>
+      </c>
+      <c r="G14" s="19">
+        <v>3</v>
+      </c>
+      <c r="H14" s="19">
+        <v>3</v>
+      </c>
+      <c r="I14" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J14" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="22">
+        <v>0</v>
+      </c>
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
@@ -17943,7 +17993,7 @@
       </c>
       <c r="D19" s="12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="E19" s="4">
         <v>43053</v>
@@ -17954,12 +18004,16 @@
       <c r="G19" s="19">
         <v>2</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="12" t="str">
+      <c r="H19" s="19">
+        <v>3</v>
+      </c>
+      <c r="I19" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J19" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="22">
+        <v>0</v>
+      </c>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
@@ -19545,7 +19599,7 @@
         <v>109</v>
       </c>
       <c r="D64" s="12" t="str">
-        <f t="shared" ref="D64:D116" ca="1" si="4">IF(ISBLANK($B64),"",IF(ISBLANK($F64),"未着手",IF($I64=0,"完了","作業中")))</f>
+        <f t="shared" ref="D64:D117" ca="1" si="4">IF(ISBLANK($B64),"",IF(ISBLANK($F64),"未着手",IF($I64=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="E64" s="4">
@@ -20156,7 +20210,7 @@
         <v>77</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>109</v>
@@ -20193,7 +20247,7 @@
         <v>78</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>109</v>
@@ -20455,22 +20509,26 @@
         <v>111</v>
       </c>
       <c r="D90" s="149" t="str">
-        <f t="shared" si="4"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>作業中</v>
       </c>
       <c r="E90" s="150">
         <v>43053</v>
       </c>
-      <c r="F90" s="150"/>
+      <c r="F90" s="150">
+        <v>43049</v>
+      </c>
       <c r="G90" s="151">
         <v>2</v>
       </c>
       <c r="H90" s="151"/>
-      <c r="I90" s="149" t="str">
+      <c r="I90" s="149">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J90" s="152"/>
+        <v>1</v>
+      </c>
+      <c r="J90" s="152">
+        <v>1</v>
+      </c>
       <c r="K90" s="152"/>
       <c r="L90" s="152"/>
       <c r="M90" s="152"/>
@@ -20492,22 +20550,28 @@
         <v>111</v>
       </c>
       <c r="D91" s="149" t="str">
-        <f t="shared" si="4"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>完了</v>
       </c>
       <c r="E91" s="150">
         <v>43053</v>
       </c>
-      <c r="F91" s="150"/>
+      <c r="F91" s="150">
+        <v>43049</v>
+      </c>
       <c r="G91" s="151">
         <v>2</v>
       </c>
-      <c r="H91" s="151"/>
-      <c r="I91" s="149" t="str">
+      <c r="H91" s="151">
+        <v>2</v>
+      </c>
+      <c r="I91" s="149">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J91" s="152"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="152">
+        <v>0</v>
+      </c>
       <c r="K91" s="152"/>
       <c r="L91" s="152"/>
       <c r="M91" s="152"/>
@@ -20529,22 +20593,26 @@
         <v>111</v>
       </c>
       <c r="D92" s="149" t="str">
-        <f t="shared" si="4"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>作業中</v>
       </c>
       <c r="E92" s="150">
         <v>43053</v>
       </c>
-      <c r="F92" s="150"/>
+      <c r="F92" s="150">
+        <v>43049</v>
+      </c>
       <c r="G92" s="151">
         <v>2</v>
       </c>
       <c r="H92" s="151"/>
-      <c r="I92" s="149" t="str">
+      <c r="I92" s="149">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J92" s="152"/>
+        <v>1</v>
+      </c>
+      <c r="J92" s="152">
+        <v>1</v>
+      </c>
       <c r="K92" s="152"/>
       <c r="L92" s="152"/>
       <c r="M92" s="152"/>
@@ -21084,7 +21152,7 @@
       </c>
       <c r="V107" s="10">
         <f t="shared" ref="V107:V116" si="5">SUMIF($C$5:$C$104,U107,$G$5:$G$104)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="W107" s="10">
         <f t="shared" ref="W107:W116" ca="1" si="6">SUMIF($C$5:$C$104,U107,$I$5:$I$104)</f>
@@ -21092,7 +21160,7 @@
       </c>
       <c r="X107" s="10">
         <f t="shared" ref="X107:X116" si="7">SUMIF($C$5:$C$104,U107,$H$5:$H$104)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y107" s="14">
         <f t="shared" ref="Y107:Y116" si="8">COUNTA($J$2:$S$2)*6-COUNTA($J$4:$S$4)*6</f>
@@ -21208,7 +21276,7 @@
       </c>
       <c r="X109" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y109" s="14">
         <f t="shared" si="8"/>
@@ -21264,11 +21332,11 @@
       </c>
       <c r="W110" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X110" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y110" s="14">
         <f t="shared" si="8"/>
@@ -21633,20 +21701,33 @@
       <c r="A117" s="172">
         <v>113</v>
       </c>
-      <c r="B117" s="17"/>
+      <c r="B117" s="17" t="s">
+        <v>245</v>
+      </c>
       <c r="C117" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D117" s="179"/>
-      <c r="E117" s="135"/>
+      <c r="D117" s="179" t="str">
+        <f t="shared" si="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="E117" s="135">
+        <v>43056</v>
+      </c>
       <c r="F117" s="135"/>
-      <c r="G117" s="136"/>
-      <c r="H117" s="136"/>
-      <c r="I117" s="175" t="str">
+      <c r="G117" s="136">
+        <v>6</v>
+      </c>
+      <c r="H117" s="136">
+        <v>1</v>
+      </c>
+      <c r="I117" s="175">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J117" s="137"/>
+        <v>5</v>
+      </c>
+      <c r="J117" s="137">
+        <v>5</v>
+      </c>
       <c r="K117" s="137"/>
       <c r="L117" s="137"/>
       <c r="M117" s="137"/>
@@ -22614,7 +22695,7 @@
       <formula>OR(D117="終了",D117="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:XFD58 J59:XFD104 D59:H82 E89:E115 E83:H104 D83:D116 A5:A122 I59:I122 G90:G115 F108 H108 J108:S108">
+  <conditionalFormatting sqref="J59:XFD104 D59:H82 E89:E115 E83:H104 D83:D116 A5:A122 I59:I122 G90:G115 F108 H108 J108:S108 D5:XFD58">
     <cfRule type="expression" dxfId="44" priority="19" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>

--- a/タスク/07班スプリントバックログ.xlsx
+++ b/タスク/07班スプリントバックログ.xlsx
@@ -2391,13 +2391,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>闘牛をカート二台で引けないようにする（プレイヤー側）</t>
-    <rPh sb="24" eb="25">
-      <t>ガワ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>滑走中にものを引いたときの処理を追加</t>
     <rPh sb="0" eb="2">
       <t>カッソウ</t>
@@ -2690,19 +2683,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>プレイヤーの挙動模倣(カゴを投げる以外)</t>
-    <rPh sb="6" eb="10">
-      <t>キョドウモホウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イガイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>モデル実装</t>
     <rPh sb="3" eb="5">
       <t>ジッソウ</t>
@@ -2716,6 +2696,20 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>闘牛をカート二台でしか引けないようにする（プレイヤー側）</t>
+    <rPh sb="26" eb="27">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>プレイヤーの挙動模倣</t>
+    <rPh sb="6" eb="10">
+      <t>キョドウモホウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -4219,7 +4213,77 @@
     <cellStyle name="標準_チーム編成" xfId="2"/>
     <cellStyle name="標準_バグシート" xfId="3"/>
   </cellStyles>
-  <dxfs count="81">
+  <dxfs count="87">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="55"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -4551,27 +4615,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="12"/>
@@ -6319,7 +6362,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>163.19999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6405,7 +6448,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6863,19 +6933,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>40.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -7000,16 +7070,16 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>7.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -7120,7 +7190,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -17206,123 +17276,123 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D158:D65536">
-    <cfRule type="expression" dxfId="80" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="16" stopIfTrue="1">
       <formula>D158="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="17" stopIfTrue="1">
       <formula>D158="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="18" stopIfTrue="1">
       <formula>OR(D158="終了",D158="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A157 B105:B111 C101:XFD101 D92:XFD100 B113:P157 B102:XFD103 C111:P112 C105:M110 O105:P110 B104:M104 O104:XFD104 N104:N110 E86:R87 T86:XFD87 E88:XFD91 E5:XFD85">
-    <cfRule type="expression" dxfId="77" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="19" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="20" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="21" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:B65536">
-    <cfRule type="expression" dxfId="74" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="22" stopIfTrue="1">
       <formula>D158="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="23" stopIfTrue="1">
       <formula>D158="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="24" stopIfTrue="1">
       <formula>OR(D158="終了",D158="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C158:C65536">
-    <cfRule type="expression" dxfId="71" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="25" stopIfTrue="1">
       <formula>D158="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="26" stopIfTrue="1">
       <formula>D158="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="27" stopIfTrue="1">
       <formula>OR(D158="終了",D158="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158:P65536">
-    <cfRule type="expression" dxfId="68" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="28" stopIfTrue="1">
       <formula>$D158="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="29" stopIfTrue="1">
       <formula>$D158="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="30" stopIfTrue="1">
       <formula>OR($D158="終了",$D158="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B8 B15:B101">
-    <cfRule type="expression" dxfId="65" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="13" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="14" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="15" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D91">
-    <cfRule type="expression" dxfId="62" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="10" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="11" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="12" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C100">
-    <cfRule type="expression" dxfId="59" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="7" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="8" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="9" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B14">
-    <cfRule type="expression" dxfId="56" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="4" stopIfTrue="1">
       <formula>$D9="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="5" stopIfTrue="1">
       <formula>$D9="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="6" stopIfTrue="1">
       <formula>OR($D9="終了",$D9="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112">
-    <cfRule type="expression" dxfId="53" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="1" stopIfTrue="1">
       <formula>$D112="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="2" stopIfTrue="1">
       <formula>$D112="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="3" stopIfTrue="1">
       <formula>OR($D112="終了",$D112="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S87">
-    <cfRule type="expression" dxfId="50" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="34" stopIfTrue="1">
       <formula>$D86="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="35" stopIfTrue="1">
       <formula>$D86="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="36" stopIfTrue="1">
       <formula>OR($D86="終了",$D86="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17338,8 +17408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K116" sqref="K116"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L118" sqref="L118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17453,17 +17523,44 @@
       <c r="I3" s="201"/>
       <c r="J3" s="20">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$S$2))))</f>
-        <v>2</v>
-      </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
+        <v>163</v>
+      </c>
+      <c r="K3" s="20">
+        <f t="shared" ref="K3:S3" si="0">INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$S$2))))</f>
+        <v>146</v>
+      </c>
+      <c r="L3" s="20">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="M3" s="20">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="N3" s="20">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="O3" s="20">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="P3" s="20">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="Q3" s="20">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="R3" s="20">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="S3" s="20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:19" s="8" customFormat="1">
       <c r="A4" s="201"/>
@@ -17476,8 +17573,8 @@
       <c r="H4" s="200"/>
       <c r="I4" s="201"/>
       <c r="J4" s="21">
-        <f>SUM(J5:J111)</f>
-        <v>2</v>
+        <f>SUM(J5:J122)</f>
+        <v>163.19999999999999</v>
       </c>
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
@@ -17494,13 +17591,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="138" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C5" s="142" t="s">
         <v>108</v>
       </c>
       <c r="D5" s="143" t="str">
-        <f t="shared" ref="D5:D50" si="0">IF(ISBLANK($B5),"",IF(ISBLANK($F5),"未着手",IF($I5=0,"完了","作業中")))</f>
+        <f t="shared" ref="D5:D50" si="1">IF(ISBLANK($B5),"",IF(ISBLANK($F5),"未着手",IF($I5=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="E5" s="144"/>
@@ -17508,7 +17605,7 @@
       <c r="G5" s="145"/>
       <c r="H5" s="145"/>
       <c r="I5" s="143" t="str">
-        <f t="shared" ref="I5:I57" ca="1" si="1">IF(ISBLANK(J5)=FALSE,OFFSET(I5,0,COUNTA(J5:S5)),"")</f>
+        <f t="shared" ref="I5:I57" ca="1" si="2">IF(ISBLANK(J5)=FALSE,OFFSET(I5,0,COUNTA(J5:S5)),"")</f>
         <v/>
       </c>
       <c r="J5" s="146"/>
@@ -17533,7 +17630,7 @@
         <v>108</v>
       </c>
       <c r="D6" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E6" s="4">
@@ -17544,11 +17641,13 @@
         <v>6</v>
       </c>
       <c r="H6" s="19"/>
-      <c r="I6" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J6" s="22"/>
+      <c r="I6" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J6" s="19">
+        <v>6</v>
+      </c>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
       <c r="M6" s="22"/>
@@ -17564,13 +17663,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="138" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C7" s="142" t="s">
         <v>108</v>
       </c>
       <c r="D7" s="143" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E7" s="144"/>
@@ -17578,10 +17677,10 @@
       <c r="G7" s="145"/>
       <c r="H7" s="145"/>
       <c r="I7" s="143" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J7" s="146"/>
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J7" s="145"/>
       <c r="K7" s="146"/>
       <c r="L7" s="146"/>
       <c r="M7" s="146"/>
@@ -17603,7 +17702,7 @@
         <v>108</v>
       </c>
       <c r="D8" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E8" s="4">
@@ -17614,11 +17713,13 @@
         <v>6</v>
       </c>
       <c r="H8" s="19"/>
-      <c r="I8" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J8" s="22"/>
+      <c r="I8" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J8" s="19">
+        <v>6</v>
+      </c>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
@@ -17634,13 +17735,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="138" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C9" s="142" t="s">
         <v>108</v>
       </c>
       <c r="D9" s="143" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E9" s="144"/>
@@ -17648,10 +17749,10 @@
       <c r="G9" s="145"/>
       <c r="H9" s="145"/>
       <c r="I9" s="143" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J9" s="146"/>
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J9" s="145"/>
       <c r="K9" s="146"/>
       <c r="L9" s="146"/>
       <c r="M9" s="146"/>
@@ -17673,7 +17774,7 @@
         <v>108</v>
       </c>
       <c r="D10" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E10" s="4">
@@ -17684,11 +17785,13 @@
         <v>6</v>
       </c>
       <c r="H10" s="19"/>
-      <c r="I10" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J10" s="22"/>
+      <c r="I10" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J10" s="19">
+        <v>6</v>
+      </c>
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
@@ -17704,13 +17807,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="85" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>108</v>
       </c>
       <c r="D11" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E11" s="4">
@@ -17721,11 +17824,13 @@
         <v>6</v>
       </c>
       <c r="H11" s="19"/>
-      <c r="I11" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J11" s="22"/>
+      <c r="I11" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J11" s="19">
+        <v>6</v>
+      </c>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
@@ -17741,13 +17846,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="140" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C12" s="142" t="s">
         <v>108</v>
       </c>
       <c r="D12" s="143" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E12" s="144"/>
@@ -17755,10 +17860,10 @@
       <c r="G12" s="145"/>
       <c r="H12" s="145"/>
       <c r="I12" s="143" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J12" s="146"/>
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J12" s="145"/>
       <c r="K12" s="146"/>
       <c r="L12" s="146"/>
       <c r="M12" s="146"/>
@@ -17780,8 +17885,8 @@
         <v>108</v>
       </c>
       <c r="D13" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>完了</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
       </c>
       <c r="E13" s="4">
         <v>43053</v>
@@ -17796,11 +17901,11 @@
         <v>3</v>
       </c>
       <c r="I13" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="22">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J13" s="19">
+        <v>3</v>
       </c>
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
@@ -17823,8 +17928,8 @@
         <v>108</v>
       </c>
       <c r="D14" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>完了</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
       </c>
       <c r="E14" s="4">
         <v>43053</v>
@@ -17839,11 +17944,11 @@
         <v>3</v>
       </c>
       <c r="I14" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="22">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J14" s="19">
+        <v>3</v>
       </c>
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
@@ -17864,7 +17969,7 @@
         <v>108</v>
       </c>
       <c r="D15" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E15" s="4"/>
@@ -17872,10 +17977,10 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J15" s="22"/>
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J15" s="19"/>
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
       <c r="M15" s="22"/>
@@ -17895,7 +18000,7 @@
         <v>108</v>
       </c>
       <c r="D16" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E16" s="4"/>
@@ -17903,10 +18008,10 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J16" s="22"/>
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J16" s="19"/>
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
@@ -17926,7 +18031,7 @@
         <v>108</v>
       </c>
       <c r="D17" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E17" s="4"/>
@@ -17934,10 +18039,10 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J17" s="22"/>
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J17" s="19"/>
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
       <c r="M17" s="22"/>
@@ -17959,7 +18064,7 @@
         <v>110</v>
       </c>
       <c r="D18" s="143" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E18" s="144"/>
@@ -17967,10 +18072,10 @@
       <c r="G18" s="145"/>
       <c r="H18" s="145"/>
       <c r="I18" s="143" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J18" s="146"/>
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J18" s="145"/>
       <c r="K18" s="146"/>
       <c r="L18" s="146"/>
       <c r="M18" s="146"/>
@@ -17992,7 +18097,7 @@
         <v>110</v>
       </c>
       <c r="D19" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>完了</v>
       </c>
       <c r="E19" s="4">
@@ -18008,10 +18113,10 @@
         <v>3</v>
       </c>
       <c r="I19" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="22">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="19">
         <v>0</v>
       </c>
       <c r="K19" s="22"/>
@@ -18035,22 +18140,28 @@
         <v>110</v>
       </c>
       <c r="D20" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
       </c>
       <c r="E20" s="4">
         <v>43053</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="4">
+        <v>43053</v>
+      </c>
       <c r="G20" s="19">
         <v>5</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J20" s="22"/>
+      <c r="H20" s="19">
+        <v>1</v>
+      </c>
+      <c r="I20" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J20" s="19">
+        <v>4</v>
+      </c>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
@@ -18072,22 +18183,28 @@
         <v>110</v>
       </c>
       <c r="D21" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
       </c>
       <c r="E21" s="4">
         <v>43053</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="4">
+        <v>43053</v>
+      </c>
       <c r="G21" s="19">
         <v>2</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J21" s="22"/>
+      <c r="H21" s="19">
+        <v>3.8</v>
+      </c>
+      <c r="I21" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="J21" s="19">
+        <v>0.2</v>
+      </c>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
@@ -18109,7 +18226,7 @@
         <v>110</v>
       </c>
       <c r="D22" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E22" s="4">
@@ -18120,11 +18237,13 @@
         <v>2</v>
       </c>
       <c r="H22" s="19"/>
-      <c r="I22" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J22" s="22"/>
+      <c r="I22" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J22" s="19">
+        <v>2</v>
+      </c>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
@@ -18146,7 +18265,7 @@
         <v>110</v>
       </c>
       <c r="D23" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E23" s="4">
@@ -18157,11 +18276,13 @@
         <v>4</v>
       </c>
       <c r="H23" s="19"/>
-      <c r="I23" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J23" s="22"/>
+      <c r="I23" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J23" s="19">
+        <v>4</v>
+      </c>
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
       <c r="M23" s="22"/>
@@ -18177,13 +18298,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="85" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>110</v>
       </c>
       <c r="D24" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E24" s="4"/>
@@ -18191,10 +18312,10 @@
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
       <c r="I24" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J24" s="22"/>
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J24" s="19"/>
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
       <c r="M24" s="22"/>
@@ -18210,13 +18331,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="85" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>110</v>
       </c>
       <c r="D25" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E25" s="4"/>
@@ -18224,10 +18345,10 @@
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
       <c r="I25" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J25" s="22"/>
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J25" s="19"/>
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
@@ -18249,7 +18370,7 @@
         <v>110</v>
       </c>
       <c r="D26" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E26" s="4">
@@ -18260,11 +18381,13 @@
         <v>4</v>
       </c>
       <c r="H26" s="19"/>
-      <c r="I26" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J26" s="22"/>
+      <c r="I26" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J26" s="19">
+        <v>4</v>
+      </c>
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
@@ -18286,7 +18409,7 @@
         <v>110</v>
       </c>
       <c r="D27" s="143" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E27" s="144"/>
@@ -18294,10 +18417,10 @@
       <c r="G27" s="145"/>
       <c r="H27" s="145"/>
       <c r="I27" s="143" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J27" s="146"/>
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J27" s="145"/>
       <c r="K27" s="146"/>
       <c r="L27" s="146"/>
       <c r="M27" s="146"/>
@@ -18319,7 +18442,7 @@
         <v>110</v>
       </c>
       <c r="D28" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E28" s="4">
@@ -18330,11 +18453,13 @@
         <v>3</v>
       </c>
       <c r="H28" s="19"/>
-      <c r="I28" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J28" s="22"/>
+      <c r="I28" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J28" s="19">
+        <v>3</v>
+      </c>
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
       <c r="M28" s="22"/>
@@ -18350,13 +18475,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="85" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>110</v>
       </c>
       <c r="D29" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E29" s="4">
@@ -18367,11 +18492,13 @@
         <v>2</v>
       </c>
       <c r="H29" s="19"/>
-      <c r="I29" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J29" s="22"/>
+      <c r="I29" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J29" s="19">
+        <v>2</v>
+      </c>
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
       <c r="M29" s="22"/>
@@ -18387,13 +18514,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="85" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>110</v>
       </c>
       <c r="D30" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E30" s="4">
@@ -18404,11 +18531,13 @@
         <v>4</v>
       </c>
       <c r="H30" s="19"/>
-      <c r="I30" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J30" s="22"/>
+      <c r="I30" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J30" s="19">
+        <v>4</v>
+      </c>
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
       <c r="M30" s="22"/>
@@ -18424,13 +18553,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="138" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C31" s="142" t="s">
         <v>110</v>
       </c>
       <c r="D31" s="143" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E31" s="144"/>
@@ -18438,10 +18567,10 @@
       <c r="G31" s="145"/>
       <c r="H31" s="145"/>
       <c r="I31" s="143" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J31" s="146"/>
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J31" s="145"/>
       <c r="K31" s="146"/>
       <c r="L31" s="146"/>
       <c r="M31" s="146"/>
@@ -18463,7 +18592,7 @@
         <v>110</v>
       </c>
       <c r="D32" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E32" s="4">
@@ -18474,11 +18603,13 @@
         <v>1</v>
       </c>
       <c r="H32" s="19"/>
-      <c r="I32" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J32" s="22"/>
+      <c r="I32" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J32" s="19">
+        <v>1</v>
+      </c>
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
@@ -18500,7 +18631,7 @@
         <v>110</v>
       </c>
       <c r="D33" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E33" s="4">
@@ -18511,11 +18642,13 @@
         <v>3</v>
       </c>
       <c r="H33" s="19"/>
-      <c r="I33" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J33" s="22"/>
+      <c r="I33" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J33" s="19">
+        <v>3</v>
+      </c>
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
@@ -18531,13 +18664,13 @@
         <v>30</v>
       </c>
       <c r="B34" s="138" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C34" s="142" t="s">
         <v>110</v>
       </c>
       <c r="D34" s="143" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E34" s="144"/>
@@ -18545,10 +18678,10 @@
       <c r="G34" s="145"/>
       <c r="H34" s="145"/>
       <c r="I34" s="143" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J34" s="146"/>
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J34" s="145"/>
       <c r="K34" s="146"/>
       <c r="L34" s="146"/>
       <c r="M34" s="146"/>
@@ -18570,7 +18703,7 @@
         <v>110</v>
       </c>
       <c r="D35" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E35" s="4">
@@ -18581,11 +18714,13 @@
         <v>1</v>
       </c>
       <c r="H35" s="19"/>
-      <c r="I35" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J35" s="22"/>
+      <c r="I35" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J35" s="19">
+        <v>1</v>
+      </c>
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
@@ -18601,13 +18736,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="138" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C36" s="142" t="s">
         <v>110</v>
       </c>
       <c r="D36" s="143" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E36" s="144"/>
@@ -18615,10 +18750,10 @@
       <c r="G36" s="145"/>
       <c r="H36" s="145"/>
       <c r="I36" s="143" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J36" s="146"/>
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J36" s="145"/>
       <c r="K36" s="146"/>
       <c r="L36" s="146"/>
       <c r="M36" s="146"/>
@@ -18634,13 +18769,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>110</v>
       </c>
       <c r="D37" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E37" s="4">
@@ -18651,11 +18786,13 @@
         <v>3</v>
       </c>
       <c r="H37" s="19"/>
-      <c r="I37" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J37" s="22"/>
+      <c r="I37" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J37" s="19">
+        <v>3</v>
+      </c>
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
@@ -18671,13 +18808,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="85" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>110</v>
       </c>
       <c r="D38" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E38" s="4">
@@ -18688,11 +18825,13 @@
         <v>2</v>
       </c>
       <c r="H38" s="19"/>
-      <c r="I38" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J38" s="22"/>
+      <c r="I38" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J38" s="19">
+        <v>2</v>
+      </c>
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
@@ -18708,13 +18847,13 @@
         <v>35</v>
       </c>
       <c r="B39" s="85" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>110</v>
       </c>
       <c r="D39" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E39" s="4">
@@ -18725,11 +18864,13 @@
         <v>2</v>
       </c>
       <c r="H39" s="19"/>
-      <c r="I39" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J39" s="22"/>
+      <c r="I39" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J39" s="19">
+        <v>2</v>
+      </c>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
@@ -18745,13 +18886,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="85" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>110</v>
       </c>
       <c r="D40" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E40" s="4">
@@ -18762,11 +18903,13 @@
         <v>1</v>
       </c>
       <c r="H40" s="19"/>
-      <c r="I40" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J40" s="22"/>
+      <c r="I40" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J40" s="19">
+        <v>1</v>
+      </c>
       <c r="K40" s="22"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
@@ -18782,13 +18925,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="85" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>110</v>
       </c>
       <c r="D41" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E41" s="4">
@@ -18799,11 +18942,13 @@
         <v>4</v>
       </c>
       <c r="H41" s="19"/>
-      <c r="I41" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J41" s="22"/>
+      <c r="I41" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J41" s="19">
+        <v>4</v>
+      </c>
       <c r="K41" s="22"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
@@ -18823,7 +18968,7 @@
         <v>110</v>
       </c>
       <c r="D42" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E42" s="4"/>
@@ -18831,10 +18976,10 @@
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
       <c r="I42" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J42" s="22"/>
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J42" s="19"/>
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
@@ -18854,7 +18999,7 @@
         <v>110</v>
       </c>
       <c r="D43" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E43" s="4"/>
@@ -18862,10 +19007,10 @@
       <c r="G43" s="19"/>
       <c r="H43" s="19"/>
       <c r="I43" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J43" s="22"/>
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J43" s="19"/>
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
@@ -18885,7 +19030,7 @@
         <v>110</v>
       </c>
       <c r="D44" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E44" s="4"/>
@@ -18893,10 +19038,10 @@
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
       <c r="I44" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J44" s="22"/>
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J44" s="19"/>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
@@ -18916,7 +19061,7 @@
         <v>110</v>
       </c>
       <c r="D45" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E45" s="4"/>
@@ -18924,10 +19069,10 @@
       <c r="G45" s="19"/>
       <c r="H45" s="19"/>
       <c r="I45" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J45" s="22"/>
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J45" s="19"/>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
@@ -18947,7 +19092,7 @@
         <v>110</v>
       </c>
       <c r="D46" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E46" s="4"/>
@@ -18955,10 +19100,10 @@
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
       <c r="I46" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J46" s="22"/>
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J46" s="19"/>
       <c r="K46" s="22"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
@@ -18978,7 +19123,7 @@
         <v>110</v>
       </c>
       <c r="D47" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E47" s="4"/>
@@ -18986,10 +19131,10 @@
       <c r="G47" s="19"/>
       <c r="H47" s="19"/>
       <c r="I47" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J47" s="22"/>
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J47" s="19"/>
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
@@ -19009,7 +19154,7 @@
         <v>110</v>
       </c>
       <c r="D48" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E48" s="4"/>
@@ -19017,10 +19162,10 @@
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
       <c r="I48" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J48" s="22"/>
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J48" s="19"/>
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
@@ -19042,7 +19187,7 @@
         <v>109</v>
       </c>
       <c r="D49" s="143" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E49" s="144"/>
@@ -19050,10 +19195,10 @@
       <c r="G49" s="145"/>
       <c r="H49" s="145"/>
       <c r="I49" s="143" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J49" s="146"/>
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J49" s="145"/>
       <c r="K49" s="146"/>
       <c r="L49" s="146"/>
       <c r="M49" s="146"/>
@@ -19069,13 +19214,13 @@
         <v>46</v>
       </c>
       <c r="B50" s="85" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D50" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E50" s="4">
@@ -19086,11 +19231,13 @@
         <v>2</v>
       </c>
       <c r="H50" s="19"/>
-      <c r="I50" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J50" s="22"/>
+      <c r="I50" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J50" s="19">
+        <v>2</v>
+      </c>
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
@@ -19106,13 +19253,13 @@
         <v>47</v>
       </c>
       <c r="B51" s="85" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D51" s="12" t="str">
-        <f t="shared" ref="D51:D63" si="2">IF(ISBLANK($B51),"",IF(ISBLANK($F51),"未着手",IF($I51=0,"完了","作業中")))</f>
+        <f t="shared" ref="D51:D63" si="3">IF(ISBLANK($B51),"",IF(ISBLANK($F51),"未着手",IF($I51=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="E51" s="4">
@@ -19123,11 +19270,13 @@
         <v>3</v>
       </c>
       <c r="H51" s="19"/>
-      <c r="I51" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J51" s="22"/>
+      <c r="I51" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J51" s="19">
+        <v>3</v>
+      </c>
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
@@ -19143,13 +19292,13 @@
         <v>48</v>
       </c>
       <c r="B52" s="85" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D52" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="E52" s="4">
@@ -19160,11 +19309,13 @@
         <v>1</v>
       </c>
       <c r="H52" s="19"/>
-      <c r="I52" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J52" s="22"/>
+      <c r="I52" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J52" s="19">
+        <v>1</v>
+      </c>
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
@@ -19186,7 +19337,7 @@
         <v>109</v>
       </c>
       <c r="D53" s="143" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="E53" s="144"/>
@@ -19194,10 +19345,10 @@
       <c r="G53" s="145"/>
       <c r="H53" s="145"/>
       <c r="I53" s="143" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J53" s="146"/>
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J53" s="145"/>
       <c r="K53" s="146"/>
       <c r="L53" s="146"/>
       <c r="M53" s="146"/>
@@ -19219,8 +19370,8 @@
         <v>109</v>
       </c>
       <c r="D54" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>完了</v>
       </c>
       <c r="E54" s="4">
         <v>43053</v>
@@ -19231,12 +19382,16 @@
       <c r="G54" s="19">
         <v>2</v>
       </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J54" s="22"/>
+      <c r="H54" s="19">
+        <v>4</v>
+      </c>
+      <c r="I54" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="19">
+        <v>0</v>
+      </c>
       <c r="K54" s="22"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
@@ -19258,7 +19413,7 @@
         <v>109</v>
       </c>
       <c r="D55" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="E55" s="4">
@@ -19274,10 +19429,10 @@
         <v>6</v>
       </c>
       <c r="I55" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J55" s="22">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="19">
         <v>0</v>
       </c>
       <c r="K55" s="22"/>
@@ -19301,22 +19456,28 @@
         <v>109</v>
       </c>
       <c r="D56" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>完了</v>
       </c>
       <c r="E56" s="4">
         <v>43056</v>
       </c>
-      <c r="F56" s="4"/>
+      <c r="F56" s="4">
+        <v>43053</v>
+      </c>
       <c r="G56" s="19">
         <v>2</v>
       </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J56" s="22"/>
+      <c r="H56" s="19">
+        <v>1</v>
+      </c>
+      <c r="I56" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="19">
+        <v>0</v>
+      </c>
       <c r="K56" s="22"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
@@ -19332,13 +19493,13 @@
         <v>53</v>
       </c>
       <c r="B57" s="85" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D57" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="E57" s="4">
@@ -19349,11 +19510,13 @@
         <v>1</v>
       </c>
       <c r="H57" s="19"/>
-      <c r="I57" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J57" s="22"/>
+      <c r="I57" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J57" s="19">
+        <v>1</v>
+      </c>
       <c r="K57" s="22"/>
       <c r="L57" s="22"/>
       <c r="M57" s="22"/>
@@ -19375,7 +19538,7 @@
         <v>109</v>
       </c>
       <c r="D58" s="143" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="E58" s="144"/>
@@ -19383,10 +19546,10 @@
       <c r="G58" s="145"/>
       <c r="H58" s="145"/>
       <c r="I58" s="143" t="str">
-        <f t="shared" ref="I58:I121" ca="1" si="3">IF(ISBLANK(J58)=FALSE,OFFSET(I58,0,COUNTA(J58:S58)),"")</f>
-        <v/>
-      </c>
-      <c r="J58" s="146"/>
+        <f t="shared" ref="I58:I121" ca="1" si="4">IF(ISBLANK(J58)=FALSE,OFFSET(I58,0,COUNTA(J58:S58)),"")</f>
+        <v/>
+      </c>
+      <c r="J58" s="145"/>
       <c r="K58" s="146"/>
       <c r="L58" s="146"/>
       <c r="M58" s="146"/>
@@ -19408,22 +19571,26 @@
         <v>109</v>
       </c>
       <c r="D59" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>作業中</v>
       </c>
       <c r="E59" s="4">
         <v>43060</v>
       </c>
-      <c r="F59" s="4"/>
+      <c r="F59" s="4">
+        <v>43053</v>
+      </c>
       <c r="G59" s="19">
         <v>3</v>
       </c>
       <c r="H59" s="19"/>
-      <c r="I59" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J59" s="22"/>
+      <c r="I59" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J59" s="19">
+        <v>3</v>
+      </c>
       <c r="K59" s="22"/>
       <c r="L59" s="22"/>
       <c r="M59" s="22"/>
@@ -19445,22 +19612,28 @@
         <v>109</v>
       </c>
       <c r="D60" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>完了</v>
       </c>
       <c r="E60" s="4">
         <v>43060</v>
       </c>
-      <c r="F60" s="4"/>
+      <c r="F60" s="4">
+        <v>43053</v>
+      </c>
       <c r="G60" s="19">
         <v>1</v>
       </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J60" s="22"/>
+      <c r="H60" s="19">
+        <v>1</v>
+      </c>
+      <c r="I60" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="19">
+        <v>0</v>
+      </c>
       <c r="K60" s="22"/>
       <c r="L60" s="22"/>
       <c r="M60" s="22"/>
@@ -19482,22 +19655,28 @@
         <v>109</v>
       </c>
       <c r="D61" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>完了</v>
       </c>
       <c r="E61" s="4">
         <v>43060</v>
       </c>
-      <c r="F61" s="4"/>
+      <c r="F61" s="4">
+        <v>43053</v>
+      </c>
       <c r="G61" s="19">
         <v>1</v>
       </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J61" s="22"/>
+      <c r="H61" s="19">
+        <v>1</v>
+      </c>
+      <c r="I61" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="19">
+        <v>0</v>
+      </c>
       <c r="K61" s="22"/>
       <c r="L61" s="22"/>
       <c r="M61" s="22"/>
@@ -19519,7 +19698,7 @@
         <v>109</v>
       </c>
       <c r="D62" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="E62" s="4">
@@ -19530,11 +19709,13 @@
         <v>1</v>
       </c>
       <c r="H62" s="19"/>
-      <c r="I62" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J62" s="22"/>
+      <c r="I62" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J62" s="19">
+        <v>1</v>
+      </c>
       <c r="K62" s="22"/>
       <c r="L62" s="22"/>
       <c r="M62" s="22"/>
@@ -19556,7 +19737,7 @@
         <v>109</v>
       </c>
       <c r="D63" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="E63" s="4">
@@ -19572,10 +19753,10 @@
         <v>1</v>
       </c>
       <c r="I63" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="22">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="19">
         <v>0</v>
       </c>
       <c r="K63" s="22"/>
@@ -19599,7 +19780,7 @@
         <v>109</v>
       </c>
       <c r="D64" s="12" t="str">
-        <f t="shared" ref="D64:D117" ca="1" si="4">IF(ISBLANK($B64),"",IF(ISBLANK($F64),"未着手",IF($I64=0,"完了","作業中")))</f>
+        <f t="shared" ref="D64:D117" ca="1" si="5">IF(ISBLANK($B64),"",IF(ISBLANK($F64),"未着手",IF($I64=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="E64" s="4">
@@ -19615,10 +19796,10 @@
         <v>1</v>
       </c>
       <c r="I64" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="22">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="19">
         <v>0</v>
       </c>
       <c r="K64" s="22"/>
@@ -19642,7 +19823,7 @@
         <v>109</v>
       </c>
       <c r="D65" s="143" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E65" s="144"/>
@@ -19650,10 +19831,10 @@
       <c r="G65" s="145"/>
       <c r="H65" s="145"/>
       <c r="I65" s="143" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J65" s="146"/>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J65" s="145"/>
       <c r="K65" s="146"/>
       <c r="L65" s="146"/>
       <c r="M65" s="146"/>
@@ -19675,7 +19856,7 @@
         <v>109</v>
       </c>
       <c r="D66" s="12" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>完了</v>
       </c>
       <c r="E66" s="4">
@@ -19691,10 +19872,10 @@
         <v>1</v>
       </c>
       <c r="I66" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="22">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="19">
         <v>0</v>
       </c>
       <c r="K66" s="22"/>
@@ -19718,22 +19899,28 @@
         <v>109</v>
       </c>
       <c r="D67" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>完了</v>
       </c>
       <c r="E67" s="4">
         <v>43056</v>
       </c>
-      <c r="F67" s="4"/>
+      <c r="F67" s="4">
+        <v>43053</v>
+      </c>
       <c r="G67" s="19">
         <v>1</v>
       </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J67" s="22"/>
+      <c r="H67" s="19">
+        <v>1</v>
+      </c>
+      <c r="I67" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="19">
+        <v>0</v>
+      </c>
       <c r="K67" s="22"/>
       <c r="L67" s="22"/>
       <c r="M67" s="22"/>
@@ -19755,7 +19942,7 @@
         <v>109</v>
       </c>
       <c r="D68" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E68" s="4">
@@ -19766,11 +19953,13 @@
         <v>1</v>
       </c>
       <c r="H68" s="19"/>
-      <c r="I68" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J68" s="22"/>
+      <c r="I68" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J68" s="19">
+        <v>1</v>
+      </c>
       <c r="K68" s="22"/>
       <c r="L68" s="22"/>
       <c r="M68" s="22"/>
@@ -19786,13 +19975,13 @@
         <v>65</v>
       </c>
       <c r="B69" s="85" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D69" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E69" s="4">
@@ -19803,11 +19992,13 @@
         <v>2</v>
       </c>
       <c r="H69" s="19"/>
-      <c r="I69" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J69" s="22"/>
+      <c r="I69" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J69" s="19">
+        <v>2</v>
+      </c>
       <c r="K69" s="22"/>
       <c r="L69" s="22"/>
       <c r="M69" s="22"/>
@@ -19823,13 +20014,13 @@
         <v>66</v>
       </c>
       <c r="B70" s="138" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C70" s="142" t="s">
         <v>109</v>
       </c>
       <c r="D70" s="143" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E70" s="144"/>
@@ -19837,10 +20028,10 @@
       <c r="G70" s="145"/>
       <c r="H70" s="145"/>
       <c r="I70" s="143" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J70" s="146"/>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J70" s="145"/>
       <c r="K70" s="146"/>
       <c r="L70" s="146"/>
       <c r="M70" s="146"/>
@@ -19856,13 +20047,13 @@
         <v>67</v>
       </c>
       <c r="B71" s="85" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C71" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D71" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E71" s="4">
@@ -19873,11 +20064,13 @@
         <v>3</v>
       </c>
       <c r="H71" s="19"/>
-      <c r="I71" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J71" s="22"/>
+      <c r="I71" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J71" s="19">
+        <v>3</v>
+      </c>
       <c r="K71" s="22"/>
       <c r="L71" s="22"/>
       <c r="M71" s="22"/>
@@ -19893,13 +20086,13 @@
         <v>68</v>
       </c>
       <c r="B72" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D72" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E72" s="4">
@@ -19910,11 +20103,13 @@
         <v>3</v>
       </c>
       <c r="H72" s="19"/>
-      <c r="I72" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J72" s="22"/>
+      <c r="I72" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J72" s="19">
+        <v>3</v>
+      </c>
       <c r="K72" s="22"/>
       <c r="L72" s="22"/>
       <c r="M72" s="22"/>
@@ -19930,13 +20125,13 @@
         <v>69</v>
       </c>
       <c r="B73" s="138" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C73" s="142" t="s">
         <v>109</v>
       </c>
       <c r="D73" s="143" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E73" s="144"/>
@@ -19944,10 +20139,10 @@
       <c r="G73" s="145"/>
       <c r="H73" s="145"/>
       <c r="I73" s="143" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J73" s="146"/>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J73" s="145"/>
       <c r="K73" s="146"/>
       <c r="L73" s="146"/>
       <c r="M73" s="146"/>
@@ -19963,13 +20158,13 @@
         <v>70</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D74" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E74" s="4">
@@ -19980,11 +20175,13 @@
         <v>3</v>
       </c>
       <c r="H74" s="19"/>
-      <c r="I74" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J74" s="22"/>
+      <c r="I74" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J74" s="19">
+        <v>3</v>
+      </c>
       <c r="K74" s="22"/>
       <c r="L74" s="22"/>
       <c r="M74" s="22"/>
@@ -20000,13 +20197,13 @@
         <v>71</v>
       </c>
       <c r="B75" s="138" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C75" s="142" t="s">
         <v>109</v>
       </c>
       <c r="D75" s="143" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E75" s="144"/>
@@ -20014,10 +20211,10 @@
       <c r="G75" s="145"/>
       <c r="H75" s="145"/>
       <c r="I75" s="143" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J75" s="146"/>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J75" s="145"/>
       <c r="K75" s="146"/>
       <c r="L75" s="146"/>
       <c r="M75" s="146"/>
@@ -20033,13 +20230,13 @@
         <v>72</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D76" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E76" s="4">
@@ -20050,11 +20247,13 @@
         <v>3</v>
       </c>
       <c r="H76" s="19"/>
-      <c r="I76" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J76" s="22"/>
+      <c r="I76" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J76" s="19">
+        <v>3</v>
+      </c>
       <c r="K76" s="22"/>
       <c r="L76" s="22"/>
       <c r="M76" s="22"/>
@@ -20076,7 +20275,7 @@
         <v>109</v>
       </c>
       <c r="D77" s="143" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E77" s="144"/>
@@ -20084,10 +20283,10 @@
       <c r="G77" s="145"/>
       <c r="H77" s="145"/>
       <c r="I77" s="143" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J77" s="146"/>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J77" s="145"/>
       <c r="K77" s="146"/>
       <c r="L77" s="146"/>
       <c r="M77" s="146"/>
@@ -20109,7 +20308,7 @@
         <v>109</v>
       </c>
       <c r="D78" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E78" s="4">
@@ -20120,11 +20319,13 @@
         <v>1</v>
       </c>
       <c r="H78" s="19"/>
-      <c r="I78" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J78" s="22"/>
+      <c r="I78" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J78" s="19">
+        <v>1</v>
+      </c>
       <c r="K78" s="22"/>
       <c r="L78" s="22"/>
       <c r="M78" s="22"/>
@@ -20146,7 +20347,7 @@
         <v>109</v>
       </c>
       <c r="D79" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E79" s="4">
@@ -20157,11 +20358,13 @@
         <v>1</v>
       </c>
       <c r="H79" s="19"/>
-      <c r="I79" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J79" s="22"/>
+      <c r="I79" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J79" s="19">
+        <v>1</v>
+      </c>
       <c r="K79" s="22"/>
       <c r="L79" s="22"/>
       <c r="M79" s="22"/>
@@ -20177,13 +20380,13 @@
         <v>76</v>
       </c>
       <c r="B80" s="138" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C80" s="142" t="s">
         <v>109</v>
       </c>
       <c r="D80" s="143" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E80" s="144"/>
@@ -20191,10 +20394,10 @@
       <c r="G80" s="145"/>
       <c r="H80" s="145"/>
       <c r="I80" s="143" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J80" s="146"/>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J80" s="145"/>
       <c r="K80" s="146"/>
       <c r="L80" s="146"/>
       <c r="M80" s="146"/>
@@ -20210,13 +20413,13 @@
         <v>77</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D81" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E81" s="4">
@@ -20227,11 +20430,13 @@
         <v>1</v>
       </c>
       <c r="H81" s="19"/>
-      <c r="I81" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J81" s="22"/>
+      <c r="I81" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J81" s="19">
+        <v>1</v>
+      </c>
       <c r="K81" s="22"/>
       <c r="L81" s="22"/>
       <c r="M81" s="22"/>
@@ -20247,13 +20452,13 @@
         <v>78</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D82" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E82" s="4">
@@ -20264,11 +20469,13 @@
         <v>6</v>
       </c>
       <c r="H82" s="19"/>
-      <c r="I82" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J82" s="22"/>
+      <c r="I82" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="J82" s="19">
+        <v>6</v>
+      </c>
       <c r="K82" s="22"/>
       <c r="L82" s="22"/>
       <c r="M82" s="22"/>
@@ -20288,7 +20495,7 @@
         <v>109</v>
       </c>
       <c r="D83" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E83" s="156"/>
@@ -20296,10 +20503,10 @@
       <c r="G83" s="157"/>
       <c r="H83" s="157"/>
       <c r="I83" s="155" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J83" s="158"/>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J83" s="157"/>
       <c r="K83" s="158"/>
       <c r="L83" s="158"/>
       <c r="M83" s="158"/>
@@ -20319,7 +20526,7 @@
         <v>109</v>
       </c>
       <c r="D84" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E84" s="162"/>
@@ -20327,10 +20534,10 @@
       <c r="G84" s="163"/>
       <c r="H84" s="163"/>
       <c r="I84" s="161" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J84" s="164"/>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J84" s="163"/>
       <c r="K84" s="164"/>
       <c r="L84" s="164"/>
       <c r="M84" s="164"/>
@@ -20350,7 +20557,7 @@
         <v>109</v>
       </c>
       <c r="D85" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E85" s="162"/>
@@ -20358,10 +20565,10 @@
       <c r="G85" s="163"/>
       <c r="H85" s="163"/>
       <c r="I85" s="161" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J85" s="164"/>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J85" s="163"/>
       <c r="K85" s="164"/>
       <c r="L85" s="164"/>
       <c r="M85" s="164"/>
@@ -20381,7 +20588,7 @@
         <v>109</v>
       </c>
       <c r="D86" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E86" s="162"/>
@@ -20389,10 +20596,10 @@
       <c r="G86" s="163"/>
       <c r="H86" s="163"/>
       <c r="I86" s="161" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J86" s="164"/>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J86" s="163"/>
       <c r="K86" s="164"/>
       <c r="L86" s="164"/>
       <c r="M86" s="164"/>
@@ -20412,7 +20619,7 @@
         <v>109</v>
       </c>
       <c r="D87" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E87" s="162"/>
@@ -20420,10 +20627,10 @@
       <c r="G87" s="163"/>
       <c r="H87" s="163"/>
       <c r="I87" s="161" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J87" s="164"/>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J87" s="163"/>
       <c r="K87" s="164"/>
       <c r="L87" s="164"/>
       <c r="M87" s="164"/>
@@ -20443,7 +20650,7 @@
         <v>109</v>
       </c>
       <c r="D88" s="149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E88" s="162"/>
@@ -20451,10 +20658,10 @@
       <c r="G88" s="163"/>
       <c r="H88" s="163"/>
       <c r="I88" s="161" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J88" s="164"/>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J88" s="163"/>
       <c r="K88" s="164"/>
       <c r="L88" s="164"/>
       <c r="M88" s="164"/>
@@ -20470,13 +20677,13 @@
         <v>85</v>
       </c>
       <c r="B89" s="138" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C89" s="142" t="s">
         <v>111</v>
       </c>
       <c r="D89" s="143" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E89" s="144"/>
@@ -20484,10 +20691,10 @@
       <c r="G89" s="145"/>
       <c r="H89" s="168"/>
       <c r="I89" s="169" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J89" s="170"/>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J89" s="145"/>
       <c r="K89" s="170"/>
       <c r="L89" s="170"/>
       <c r="M89" s="170"/>
@@ -20503,13 +20710,13 @@
         <v>86</v>
       </c>
       <c r="B90" s="147" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C90" s="148" t="s">
         <v>111</v>
       </c>
       <c r="D90" s="149" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>作業中</v>
       </c>
       <c r="E90" s="150">
@@ -20523,10 +20730,10 @@
       </c>
       <c r="H90" s="151"/>
       <c r="I90" s="149">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="J90" s="152">
+      <c r="J90" s="151">
         <v>1</v>
       </c>
       <c r="K90" s="152"/>
@@ -20550,7 +20757,7 @@
         <v>111</v>
       </c>
       <c r="D91" s="149" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>完了</v>
       </c>
       <c r="E91" s="150">
@@ -20566,10 +20773,10 @@
         <v>2</v>
       </c>
       <c r="I91" s="149">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J91" s="152">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="151">
         <v>0</v>
       </c>
       <c r="K91" s="152"/>
@@ -20593,7 +20800,7 @@
         <v>111</v>
       </c>
       <c r="D92" s="149" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>作業中</v>
       </c>
       <c r="E92" s="150">
@@ -20607,10 +20814,10 @@
       </c>
       <c r="H92" s="151"/>
       <c r="I92" s="149">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="J92" s="152">
+      <c r="J92" s="151">
         <v>1</v>
       </c>
       <c r="K92" s="152"/>
@@ -20634,7 +20841,7 @@
         <v>111</v>
       </c>
       <c r="D93" s="149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E93" s="150"/>
@@ -20642,10 +20849,10 @@
       <c r="G93" s="151"/>
       <c r="H93" s="151"/>
       <c r="I93" s="149" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J93" s="152"/>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J93" s="151"/>
       <c r="K93" s="152"/>
       <c r="L93" s="152"/>
       <c r="M93" s="152"/>
@@ -20661,13 +20868,13 @@
         <v>90</v>
       </c>
       <c r="B94" s="138" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C94" s="142" t="s">
         <v>111</v>
       </c>
       <c r="D94" s="143" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E94" s="144"/>
@@ -20675,10 +20882,10 @@
       <c r="G94" s="145"/>
       <c r="H94" s="145"/>
       <c r="I94" s="143" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J94" s="146"/>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J94" s="145"/>
       <c r="K94" s="146"/>
       <c r="L94" s="146"/>
       <c r="M94" s="146"/>
@@ -20700,7 +20907,7 @@
         <v>111</v>
       </c>
       <c r="D95" s="149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E95" s="150">
@@ -20711,11 +20918,13 @@
         <v>3</v>
       </c>
       <c r="H95" s="151"/>
-      <c r="I95" s="149" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J95" s="152"/>
+      <c r="I95" s="149">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J95" s="151">
+        <v>3</v>
+      </c>
       <c r="K95" s="152"/>
       <c r="L95" s="152"/>
       <c r="M95" s="152"/>
@@ -20737,7 +20946,7 @@
         <v>111</v>
       </c>
       <c r="D96" s="149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E96" s="150">
@@ -20748,11 +20957,13 @@
         <v>3</v>
       </c>
       <c r="H96" s="151"/>
-      <c r="I96" s="149" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J96" s="152"/>
+      <c r="I96" s="149">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J96" s="151">
+        <v>3</v>
+      </c>
       <c r="K96" s="152"/>
       <c r="L96" s="152"/>
       <c r="M96" s="152"/>
@@ -20774,7 +20985,7 @@
         <v>111</v>
       </c>
       <c r="D97" s="149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E97" s="150">
@@ -20785,11 +20996,13 @@
         <v>2</v>
       </c>
       <c r="H97" s="151"/>
-      <c r="I97" s="149" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J97" s="152"/>
+      <c r="I97" s="149">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J97" s="151">
+        <v>2</v>
+      </c>
       <c r="K97" s="152"/>
       <c r="L97" s="152"/>
       <c r="M97" s="152"/>
@@ -20811,7 +21024,7 @@
         <v>111</v>
       </c>
       <c r="D98" s="149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E98" s="150">
@@ -20822,11 +21035,13 @@
         <v>4</v>
       </c>
       <c r="H98" s="151"/>
-      <c r="I98" s="149" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J98" s="152"/>
+      <c r="I98" s="149">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J98" s="151">
+        <v>4</v>
+      </c>
       <c r="K98" s="152"/>
       <c r="L98" s="152"/>
       <c r="M98" s="152"/>
@@ -20848,7 +21063,7 @@
         <v>111</v>
       </c>
       <c r="D99" s="149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E99" s="150">
@@ -20859,11 +21074,13 @@
         <v>2</v>
       </c>
       <c r="H99" s="151"/>
-      <c r="I99" s="149" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J99" s="152"/>
+      <c r="I99" s="149">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J99" s="151">
+        <v>2</v>
+      </c>
       <c r="K99" s="152"/>
       <c r="L99" s="152"/>
       <c r="M99" s="152"/>
@@ -20879,13 +21096,13 @@
         <v>96</v>
       </c>
       <c r="B100" s="138" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C100" s="142" t="s">
         <v>111</v>
       </c>
       <c r="D100" s="143" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E100" s="144"/>
@@ -20893,10 +21110,10 @@
       <c r="G100" s="145"/>
       <c r="H100" s="145"/>
       <c r="I100" s="143" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J100" s="146"/>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J100" s="145"/>
       <c r="K100" s="146"/>
       <c r="L100" s="146"/>
       <c r="M100" s="146"/>
@@ -20918,7 +21135,7 @@
         <v>111</v>
       </c>
       <c r="D101" s="149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E101" s="150">
@@ -20929,11 +21146,13 @@
         <v>3</v>
       </c>
       <c r="H101" s="151"/>
-      <c r="I101" s="149" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J101" s="152"/>
+      <c r="I101" s="149">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J101" s="151">
+        <v>3</v>
+      </c>
       <c r="K101" s="152"/>
       <c r="L101" s="152"/>
       <c r="M101" s="152"/>
@@ -20953,7 +21172,7 @@
         <v>111</v>
       </c>
       <c r="D102" s="149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E102" s="150"/>
@@ -20961,10 +21180,10 @@
       <c r="G102" s="151"/>
       <c r="H102" s="151"/>
       <c r="I102" s="149" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J102" s="152"/>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J102" s="151"/>
       <c r="K102" s="152"/>
       <c r="L102" s="152"/>
       <c r="M102" s="152"/>
@@ -20984,7 +21203,7 @@
         <v>111</v>
       </c>
       <c r="D103" s="149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E103" s="150"/>
@@ -20992,10 +21211,10 @@
       <c r="G103" s="151"/>
       <c r="H103" s="151"/>
       <c r="I103" s="149" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J103" s="152"/>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J103" s="151"/>
       <c r="K103" s="152"/>
       <c r="L103" s="152"/>
       <c r="M103" s="152"/>
@@ -21015,7 +21234,7 @@
         <v>111</v>
       </c>
       <c r="D104" s="149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E104" s="150"/>
@@ -21023,10 +21242,10 @@
       <c r="G104" s="151"/>
       <c r="H104" s="151"/>
       <c r="I104" s="149" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J104" s="152"/>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J104" s="151"/>
       <c r="K104" s="152"/>
       <c r="L104" s="152"/>
       <c r="M104" s="152"/>
@@ -21046,7 +21265,7 @@
         <v>111</v>
       </c>
       <c r="D105" s="149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E105" s="150"/>
@@ -21054,10 +21273,10 @@
       <c r="G105" s="151"/>
       <c r="H105" s="166"/>
       <c r="I105" s="149" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J105" s="167"/>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J105" s="151"/>
       <c r="K105" s="167"/>
       <c r="L105" s="167"/>
       <c r="M105" s="167"/>
@@ -21077,7 +21296,7 @@
         <v>111</v>
       </c>
       <c r="D106" s="149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E106" s="150"/>
@@ -21085,10 +21304,10 @@
       <c r="G106" s="151"/>
       <c r="H106" s="166"/>
       <c r="I106" s="149" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J106" s="167"/>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J106" s="151"/>
       <c r="K106" s="167"/>
       <c r="L106" s="167"/>
       <c r="M106" s="167"/>
@@ -21126,7 +21345,7 @@
         <v>111</v>
       </c>
       <c r="D107" s="149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E107" s="150"/>
@@ -21134,10 +21353,10 @@
       <c r="G107" s="151"/>
       <c r="H107" s="166"/>
       <c r="I107" s="149" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J107" s="167"/>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J107" s="151"/>
       <c r="K107" s="167"/>
       <c r="L107" s="167"/>
       <c r="M107" s="167"/>
@@ -21151,19 +21370,19 @@
         <v>191</v>
       </c>
       <c r="V107" s="10">
-        <f t="shared" ref="V107:V116" si="5">SUMIF($C$5:$C$104,U107,$G$5:$G$104)</f>
+        <f t="shared" ref="V107:V116" si="6">SUMIF($C$5:$C$104,U107,$G$5:$G$104)</f>
         <v>30</v>
       </c>
       <c r="W107" s="10">
-        <f t="shared" ref="W107:W116" ca="1" si="6">SUMIF($C$5:$C$104,U107,$I$5:$I$104)</f>
-        <v>0</v>
+        <f t="shared" ref="W107:W116" ca="1" si="7">SUMIF($C$5:$C$104,U107,$I$5:$I$104)</f>
+        <v>30</v>
       </c>
       <c r="X107" s="10">
-        <f t="shared" ref="X107:X116" si="7">SUMIF($C$5:$C$104,U107,$H$5:$H$104)</f>
+        <f t="shared" ref="X107:X116" si="8">SUMIF($C$5:$C$104,U107,$H$5:$H$104)</f>
         <v>6</v>
       </c>
       <c r="Y107" s="14">
-        <f t="shared" ref="Y107:Y116" si="8">COUNTA($J$2:$S$2)*6-COUNTA($J$4:$S$4)*6</f>
+        <f t="shared" ref="Y107:Y116" si="9">COUNTA($J$2:$S$2)*6-COUNTA($J$4:$S$4)*6</f>
         <v>54</v>
       </c>
       <c r="Z107" s="15">
@@ -21176,13 +21395,13 @@
         <v>104</v>
       </c>
       <c r="B108" s="138" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C108" s="142" t="s">
         <v>112</v>
       </c>
       <c r="D108" s="143" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E108" s="144"/>
@@ -21190,10 +21409,10 @@
       <c r="G108" s="145"/>
       <c r="H108" s="145"/>
       <c r="I108" s="143" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J108" s="143"/>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J108" s="145"/>
       <c r="K108" s="143"/>
       <c r="L108" s="143"/>
       <c r="M108" s="143"/>
@@ -21207,23 +21426,23 @@
         <v>192</v>
       </c>
       <c r="V108" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
       <c r="W108" s="10">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>35</v>
       </c>
       <c r="X108" s="10">
-        <f t="shared" si="7"/>
-        <v>9</v>
+        <f t="shared" si="8"/>
+        <v>17</v>
       </c>
       <c r="Y108" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="Z108" s="15">
-        <f t="shared" ref="Z108:Z116" ca="1" si="9">IF(Y108&gt;W108,0,W108-Y108)</f>
+        <f t="shared" ref="Z108:Z116" ca="1" si="10">IF(Y108&gt;W108,0,W108-Y108)</f>
         <v>0</v>
       </c>
     </row>
@@ -21238,7 +21457,7 @@
         <v>112</v>
       </c>
       <c r="D109" s="149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E109" s="150">
@@ -21249,11 +21468,13 @@
         <v>4</v>
       </c>
       <c r="H109" s="166"/>
-      <c r="I109" s="149" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J109" s="167"/>
+      <c r="I109" s="149">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J109" s="151">
+        <v>4</v>
+      </c>
       <c r="K109" s="167"/>
       <c r="L109" s="167"/>
       <c r="M109" s="167"/>
@@ -21267,23 +21488,23 @@
         <v>193</v>
       </c>
       <c r="V109" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="W109" s="10">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>40.200000000000003</v>
       </c>
       <c r="X109" s="10">
-        <f t="shared" si="7"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>7.8</v>
       </c>
       <c r="Y109" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="Z109" s="15">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21298,7 +21519,7 @@
         <v>112</v>
       </c>
       <c r="D110" s="149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E110" s="165">
@@ -21309,11 +21530,13 @@
         <v>4</v>
       </c>
       <c r="H110" s="166"/>
-      <c r="I110" s="149" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J110" s="167"/>
+      <c r="I110" s="149">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J110" s="166">
+        <v>4</v>
+      </c>
       <c r="K110" s="167"/>
       <c r="L110" s="167"/>
       <c r="M110" s="167"/>
@@ -21327,23 +21550,23 @@
         <v>194</v>
       </c>
       <c r="V110" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="W110" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="X110" s="10">
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="X110" s="10">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
       <c r="Y110" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="Z110" s="15">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21358,7 +21581,7 @@
         <v>112</v>
       </c>
       <c r="D111" s="175" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E111" s="176">
@@ -21369,11 +21592,13 @@
         <v>5</v>
       </c>
       <c r="H111" s="177"/>
-      <c r="I111" s="175" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J111" s="178"/>
+      <c r="I111" s="175">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J111" s="177">
+        <v>5</v>
+      </c>
       <c r="K111" s="178"/>
       <c r="L111" s="178"/>
       <c r="M111" s="178"/>
@@ -21387,23 +21612,23 @@
         <v>195</v>
       </c>
       <c r="V111" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>SUMIF($C$5:$C$122,U111,$G$5:$G$122)</f>
+        <v>40</v>
       </c>
       <c r="W111" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f ca="1">SUMIF($C$5:$C$122,U111,$I$5:$I$122)</f>
+        <v>37</v>
       </c>
       <c r="X111" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>SUMIF($C$5:$C$122,U111,$H$5:$H$122)</f>
+        <v>3</v>
       </c>
       <c r="Y111" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="Z111" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21418,7 +21643,7 @@
         <v>112</v>
       </c>
       <c r="D112" s="149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E112" s="165">
@@ -21429,11 +21654,13 @@
         <v>4</v>
       </c>
       <c r="H112" s="166"/>
-      <c r="I112" s="175" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J112" s="167"/>
+      <c r="I112" s="175">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J112" s="166">
+        <v>4</v>
+      </c>
       <c r="K112" s="167"/>
       <c r="L112" s="167"/>
       <c r="M112" s="167"/>
@@ -21445,23 +21672,23 @@
       <c r="S112" s="167"/>
       <c r="U112" s="11"/>
       <c r="V112" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W112" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X112" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y112" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="Z112" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21476,7 +21703,7 @@
         <v>112</v>
       </c>
       <c r="D113" s="149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E113" s="165">
@@ -21487,11 +21714,13 @@
         <v>5</v>
       </c>
       <c r="H113" s="166"/>
-      <c r="I113" s="175" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J113" s="167"/>
+      <c r="I113" s="175">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J113" s="166">
+        <v>5</v>
+      </c>
       <c r="K113" s="167"/>
       <c r="L113" s="167"/>
       <c r="M113" s="167"/>
@@ -21503,23 +21732,23 @@
       <c r="S113" s="167"/>
       <c r="U113" s="11"/>
       <c r="V113" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W113" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X113" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y113" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="Z113" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21534,7 +21763,7 @@
         <v>112</v>
       </c>
       <c r="D114" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E114" s="135">
@@ -21545,11 +21774,13 @@
         <v>3</v>
       </c>
       <c r="H114" s="136"/>
-      <c r="I114" s="175" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J114" s="137"/>
+      <c r="I114" s="175">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J114" s="136">
+        <v>3</v>
+      </c>
       <c r="K114" s="137"/>
       <c r="L114" s="137"/>
       <c r="M114" s="137"/>
@@ -21561,23 +21792,23 @@
       <c r="S114" s="137"/>
       <c r="U114" s="11"/>
       <c r="V114" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W114" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X114" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y114" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="Z114" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21592,7 +21823,7 @@
         <v>112</v>
       </c>
       <c r="D115" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E115" s="135">
@@ -21603,11 +21834,13 @@
         <v>4</v>
       </c>
       <c r="H115" s="136"/>
-      <c r="I115" s="175" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J115" s="137"/>
+      <c r="I115" s="175">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J115" s="136">
+        <v>4</v>
+      </c>
       <c r="K115" s="137"/>
       <c r="L115" s="137"/>
       <c r="M115" s="137"/>
@@ -21619,23 +21852,23 @@
       <c r="S115" s="137"/>
       <c r="U115" s="11"/>
       <c r="V115" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W115" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X115" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y115" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="Z115" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21650,7 +21883,7 @@
         <v>112</v>
       </c>
       <c r="D116" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E116" s="135">
@@ -21661,11 +21894,13 @@
         <v>5</v>
       </c>
       <c r="H116" s="136"/>
-      <c r="I116" s="175" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J116" s="137"/>
+      <c r="I116" s="175">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J116" s="136">
+        <v>5</v>
+      </c>
       <c r="K116" s="137"/>
       <c r="L116" s="137"/>
       <c r="M116" s="137"/>
@@ -21677,23 +21912,23 @@
       <c r="S116" s="137"/>
       <c r="U116" s="11"/>
       <c r="V116" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W116" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X116" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y116" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="Z116" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21702,13 +21937,13 @@
         <v>113</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C117" s="18" t="s">
         <v>112</v>
       </c>
       <c r="D117" s="179" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="E117" s="135">
@@ -21719,16 +21954,18 @@
         <v>6</v>
       </c>
       <c r="H117" s="136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I117" s="175">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J117" s="136">
         <v>5</v>
       </c>
-      <c r="J117" s="137">
-        <v>5</v>
-      </c>
-      <c r="K117" s="137"/>
+      <c r="K117" s="137">
+        <v>3</v>
+      </c>
       <c r="L117" s="137"/>
       <c r="M117" s="137"/>
       <c r="N117" s="137"/>
@@ -21752,7 +21989,7 @@
       <c r="G118" s="136"/>
       <c r="H118" s="136"/>
       <c r="I118" s="175" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J118" s="137"/>
@@ -21780,7 +22017,7 @@
       <c r="G119" s="136"/>
       <c r="H119" s="136"/>
       <c r="I119" s="175" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J119" s="137"/>
@@ -21808,7 +22045,7 @@
       <c r="G120" s="136"/>
       <c r="H120" s="136"/>
       <c r="I120" s="175" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J120" s="137"/>
@@ -21836,7 +22073,7 @@
       <c r="G121" s="136"/>
       <c r="H121" s="136"/>
       <c r="I121" s="175" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J121" s="137"/>
@@ -21864,7 +22101,7 @@
       <c r="G122" s="136"/>
       <c r="H122" s="136"/>
       <c r="I122" s="175" t="str">
-        <f t="shared" ref="I122" ca="1" si="10">IF(ISBLANK(J122)=FALSE,OFFSET(I122,0,COUNTA(J122:S122)),"")</f>
+        <f t="shared" ref="I122" ca="1" si="11">IF(ISBLANK(J122)=FALSE,OFFSET(I122,0,COUNTA(J122:S122)),"")</f>
         <v/>
       </c>
       <c r="J122" s="137"/>
@@ -22685,113 +22922,135 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D117:D65536">
-    <cfRule type="expression" dxfId="47" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="22" stopIfTrue="1">
       <formula>D117="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="23" stopIfTrue="1">
       <formula>D117="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="24" stopIfTrue="1">
       <formula>OR(D117="終了",D117="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J59:XFD104 D59:H82 E89:E115 E83:H104 D83:D116 A5:A122 I59:I122 G90:G115 F108 H108 J108:S108 D5:XFD58">
-    <cfRule type="expression" dxfId="44" priority="19" stopIfTrue="1">
+  <conditionalFormatting sqref="D59:H82 E89:E115 E83:H104 D83:D116 A5:A122 I59:I122 G90:G115 F108 H108 K108:S108 D5:XFD5 K6:XFD104 D6:I58">
+    <cfRule type="expression" dxfId="5" priority="25" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="26" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="27" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B106:B65536">
-    <cfRule type="expression" dxfId="41" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="28" stopIfTrue="1">
       <formula>D106="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="29" stopIfTrue="1">
       <formula>D106="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="30" stopIfTrue="1">
       <formula>OR(D106="終了",D106="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C123:C65536">
-    <cfRule type="expression" dxfId="38" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="31" stopIfTrue="1">
       <formula>D123="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="32" stopIfTrue="1">
       <formula>D123="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="33" stopIfTrue="1">
       <formula>OR(D123="終了",D123="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E123:S65536 E99:G116 E100:E122 J105:S107 E105:H122 J109:S122">
-    <cfRule type="expression" dxfId="35" priority="28" stopIfTrue="1">
+  <conditionalFormatting sqref="E123:S65536 E99:G116 E100:E122 K105:S107 E105:H122 J118:S122 K109:S117">
+    <cfRule type="expression" dxfId="44" priority="34" stopIfTrue="1">
       <formula>$D99="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="35" stopIfTrue="1">
       <formula>$D99="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="36" stopIfTrue="1">
       <formula>OR($D99="終了",$D99="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C102 B89:B122 C97:C122">
-    <cfRule type="expression" dxfId="32" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="19" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="20" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="21" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B111">
-    <cfRule type="expression" dxfId="29" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="16" stopIfTrue="1">
       <formula>D110="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="17" stopIfTrue="1">
       <formula>D110="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="18" stopIfTrue="1">
       <formula>OR(D110="終了",D110="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:B122">
-    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="13" stopIfTrue="1">
       <formula>D121="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="14" stopIfTrue="1">
       <formula>D121="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="15" stopIfTrue="1">
       <formula>OR(D121="終了",D121="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B105">
-    <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="10" stopIfTrue="1">
       <formula>D104="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="11" stopIfTrue="1">
       <formula>D104="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="12" stopIfTrue="1">
       <formula>OR(D104="終了",D104="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115:B116">
-    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="7" stopIfTrue="1">
       <formula>D115="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="8" stopIfTrue="1">
       <formula>D115="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
       <formula>OR(D115="終了",D115="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:J115">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+      <formula>$D6="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$D6="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>OR($D6="終了",$D6="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J99:J117 K99:K101">
+    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+      <formula>$D99="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+      <formula>$D99="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+      <formula>OR($D99="終了",$D99="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -26026,57 +26285,57 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="1" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="2" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="3" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD104">
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="7" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="8" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="9" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="10" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="11" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="12" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:P65536">
-    <cfRule type="expression" dxfId="5" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26890,13 +27149,13 @@
   <autoFilter ref="B1:K51"/>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="A2:K51">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
       <formula>$D2="要望"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
       <formula>$D2="確認済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
       <formula>$D2="対応"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/タスク/07班スプリントバックログ.xlsx
+++ b/タスク/07班スプリントバックログ.xlsx
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="244">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -911,14 +911,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>12/12</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>12/15</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>12/19</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -2632,26 +2624,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>//カートを重ねて、ぐねぐね動かせるようにする</t>
-    <rPh sb="6" eb="7">
-      <t>カサ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>//カートを重ねて持てるようにする</t>
-    <rPh sb="6" eb="7">
-      <t>カサ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>各動物のデンジャーのUIを実装</t>
     <rPh sb="0" eb="1">
       <t>カク</t>
@@ -2710,6 +2682,20 @@
     <t>プレイヤーの挙動模倣</t>
     <rPh sb="6" eb="10">
       <t>キョドウモホウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カートにぶつかると持つ</t>
+    <rPh sb="9" eb="10">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>動物のアニメーション</t>
+    <rPh sb="0" eb="2">
+      <t>ドウブツ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -3600,7 +3586,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4205,6 +4191,10 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4234,55 +4224,6 @@
         <extend val="0"/>
         <color indexed="10"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="55"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4462,6 +4403,34 @@
         <extend val="0"/>
         <color indexed="10"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="55"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -4615,6 +4584,27 @@
       <font>
         <b/>
         <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="12"/>
@@ -6321,7 +6311,7 @@
             <c:strRef>
               <c:f>β版!$J$2:$S$2</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>11/14</c:v>
                 </c:pt>
@@ -6346,12 +6336,6 @@
                 <c:pt idx="7">
                   <c:v>12/8</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>12/12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12/15</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -6362,7 +6346,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>163.19999999999999</c:v>
+                  <c:v>181.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>156.19999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6407,7 +6394,7 @@
             <c:strRef>
               <c:f>β版!$J$2:$S$2</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>11/14</c:v>
                 </c:pt>
@@ -6432,12 +6419,6 @@
                 <c:pt idx="7">
                   <c:v>12/8</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>12/12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12/15</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -6448,34 +6429,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>163</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>146</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>130</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>114</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6933,19 +6908,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.200000000000003</c:v>
+                  <c:v>38.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -7070,16 +7045,16 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8</c:v>
+                  <c:v>12.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -7178,16 +7153,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>40</c:v>
@@ -7297,7 +7272,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.2000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -9322,7 +9297,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="180" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="180"/>
       <c r="C1" s="180"/>
@@ -10921,7 +10896,7 @@
     <row r="207" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A207" s="64"/>
       <c r="B207" s="61" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C207" s="62"/>
     </row>
@@ -11164,10 +11139,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D5" s="108" t="str">
         <f t="shared" ref="D5:D68" ca="1" si="2">IF(ISBLANK($B5),"",IF(ISBLANK($F5),"未着手",IF($I5=0,"完了","作業中")))</f>
@@ -11214,10 +11189,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="129" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C6" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D6" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11264,10 +11239,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="106" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11312,10 +11287,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="106" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D8" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11360,10 +11335,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="114" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C9" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9" s="108" t="str">
         <f ca="1">IF(ISBLANK($B9),"",IF(ISBLANK($F9),"未着手",IF($I9=0,"完了","作業中")))</f>
@@ -11408,10 +11383,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="106" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C10" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11456,10 +11431,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="114" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C11" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D11" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11504,10 +11479,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="106" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C12" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D12" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11552,10 +11527,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="106" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C13" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D13" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11603,10 +11578,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="129" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C14" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11653,10 +11628,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="129" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C15" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D15" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11701,10 +11676,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="129" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C16" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D16" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11749,10 +11724,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="129" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C17" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" s="108" t="str">
         <f t="shared" si="2"/>
@@ -11793,10 +11768,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="129" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C18" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D18" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11844,7 +11819,7 @@
       </c>
       <c r="B19" s="106"/>
       <c r="C19" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D19" s="108" t="str">
         <f t="shared" si="2"/>
@@ -11872,7 +11847,7 @@
       </c>
       <c r="B20" s="106"/>
       <c r="C20" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D20" s="108" t="str">
         <f t="shared" si="2"/>
@@ -11900,7 +11875,7 @@
       </c>
       <c r="B21" s="106"/>
       <c r="C21" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D21" s="108" t="str">
         <f t="shared" si="2"/>
@@ -11928,7 +11903,7 @@
       </c>
       <c r="B22" s="106"/>
       <c r="C22" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D22" s="108" t="str">
         <f t="shared" si="2"/>
@@ -11956,7 +11931,7 @@
       </c>
       <c r="B23" s="106"/>
       <c r="C23" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D23" s="108" t="str">
         <f t="shared" si="2"/>
@@ -11984,7 +11959,7 @@
       </c>
       <c r="B24" s="106"/>
       <c r="C24" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D24" s="108" t="str">
         <f t="shared" si="2"/>
@@ -12011,10 +11986,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="106" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C25" s="107" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D25" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12059,10 +12034,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="129" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C26" s="130" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D26" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12107,10 +12082,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="129" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C27" s="130" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D27" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12155,10 +12130,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="106" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C28" s="107" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D28" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12203,10 +12178,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="106" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C29" s="107" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D29" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12251,10 +12226,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="106" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C30" s="107" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D30" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12301,10 +12276,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="106" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C31" s="107" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D31" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12351,10 +12326,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="106" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C32" s="107" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D32" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12391,10 +12366,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="106" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C33" s="107" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12437,10 +12412,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="106" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C34" s="107" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12483,10 +12458,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="106" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C35" s="107" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D35" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12525,10 +12500,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="106" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C36" s="107" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D36" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12567,10 +12542,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="106" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C37" s="107" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D37" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12609,10 +12584,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="106" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C38" s="107" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D38" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12653,10 +12628,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="129" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C39" s="107" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D39" s="108" t="str">
         <f t="shared" si="2"/>
@@ -12697,10 +12672,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="129" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C40" s="107" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D40" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12741,10 +12716,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="129" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C41" s="107" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D41" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12791,10 +12766,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="129" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C42" s="107" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D42" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12839,10 +12814,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="129" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C43" s="107" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D43" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12885,10 +12860,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="129" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C44" s="107" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D44" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12934,7 +12909,7 @@
       </c>
       <c r="B45" s="106"/>
       <c r="C45" s="107" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D45" s="108" t="str">
         <f t="shared" si="2"/>
@@ -12962,7 +12937,7 @@
       </c>
       <c r="B46" s="106"/>
       <c r="C46" s="107" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D46" s="108" t="str">
         <f t="shared" si="2"/>
@@ -12990,7 +12965,7 @@
       </c>
       <c r="B47" s="106"/>
       <c r="C47" s="107" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D47" s="108" t="str">
         <f t="shared" si="2"/>
@@ -13018,7 +12993,7 @@
       </c>
       <c r="B48" s="106"/>
       <c r="C48" s="107" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D48" s="108" t="str">
         <f t="shared" si="2"/>
@@ -13046,7 +13021,7 @@
       </c>
       <c r="B49" s="106"/>
       <c r="C49" s="107" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D49" s="108" t="str">
         <f t="shared" si="2"/>
@@ -13074,7 +13049,7 @@
       </c>
       <c r="B50" s="106"/>
       <c r="C50" s="107" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D50" s="108" t="str">
         <f t="shared" si="2"/>
@@ -13101,10 +13076,10 @@
         <v>47</v>
       </c>
       <c r="B51" s="106" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C51" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D51" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -13151,10 +13126,10 @@
         <v>48</v>
       </c>
       <c r="B52" s="106" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C52" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D52" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -13201,10 +13176,10 @@
         <v>49</v>
       </c>
       <c r="B53" s="106" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C53" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D53" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -13251,10 +13226,10 @@
         <v>50</v>
       </c>
       <c r="B54" s="106" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C54" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D54" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -13301,10 +13276,10 @@
         <v>51</v>
       </c>
       <c r="B55" s="106" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C55" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D55" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -13351,10 +13326,10 @@
         <v>52</v>
       </c>
       <c r="B56" s="106" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C56" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D56" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -13401,10 +13376,10 @@
         <v>53</v>
       </c>
       <c r="B57" s="129" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C57" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D57" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -13449,10 +13424,10 @@
         <v>54</v>
       </c>
       <c r="B58" s="106" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C58" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D58" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -13499,10 +13474,10 @@
         <v>55</v>
       </c>
       <c r="B59" s="129" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C59" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D59" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -13549,10 +13524,10 @@
         <v>56</v>
       </c>
       <c r="B60" s="129" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C60" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D60" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -13599,10 +13574,10 @@
         <v>57</v>
       </c>
       <c r="B61" s="129" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C61" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D61" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -13649,10 +13624,10 @@
         <v>58</v>
       </c>
       <c r="B62" s="129" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C62" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D62" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -13699,10 +13674,10 @@
         <v>59</v>
       </c>
       <c r="B63" s="129" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C63" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D63" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -13749,10 +13724,10 @@
         <v>60</v>
       </c>
       <c r="B64" s="129" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C64" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D64" s="108" t="str">
         <f t="shared" si="2"/>
@@ -13795,10 +13770,10 @@
         <v>61</v>
       </c>
       <c r="B65" s="129" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C65" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D65" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -13845,10 +13820,10 @@
         <v>62</v>
       </c>
       <c r="B66" s="129" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C66" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D66" s="108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -13896,7 +13871,7 @@
       </c>
       <c r="B67" s="106"/>
       <c r="C67" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D67" s="108" t="str">
         <f t="shared" si="2"/>
@@ -13924,7 +13899,7 @@
       </c>
       <c r="B68" s="106"/>
       <c r="C68" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D68" s="108" t="str">
         <f t="shared" si="2"/>
@@ -13952,7 +13927,7 @@
       </c>
       <c r="B69" s="106"/>
       <c r="C69" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D69" s="108" t="str">
         <f t="shared" ref="D69:D91" si="5">IF(ISBLANK($B69),"",IF(ISBLANK($F69),"未着手",IF($I69=0,"完了","作業中")))</f>
@@ -13980,7 +13955,7 @@
       </c>
       <c r="B70" s="106"/>
       <c r="C70" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D70" s="108" t="str">
         <f t="shared" si="5"/>
@@ -14008,7 +13983,7 @@
       </c>
       <c r="B71" s="106"/>
       <c r="C71" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D71" s="108" t="str">
         <f t="shared" si="5"/>
@@ -14036,7 +14011,7 @@
       </c>
       <c r="B72" s="106"/>
       <c r="C72" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D72" s="108" t="str">
         <f t="shared" si="5"/>
@@ -14064,7 +14039,7 @@
       </c>
       <c r="B73" s="106"/>
       <c r="C73" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D73" s="108" t="str">
         <f t="shared" si="5"/>
@@ -14092,7 +14067,7 @@
       </c>
       <c r="B74" s="106"/>
       <c r="C74" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D74" s="108" t="str">
         <f t="shared" si="5"/>
@@ -14120,7 +14095,7 @@
       </c>
       <c r="B75" s="106"/>
       <c r="C75" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D75" s="108" t="str">
         <f t="shared" si="5"/>
@@ -14148,7 +14123,7 @@
       </c>
       <c r="B76" s="106"/>
       <c r="C76" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D76" s="108" t="str">
         <f t="shared" si="5"/>
@@ -14176,7 +14151,7 @@
       </c>
       <c r="B77" s="106"/>
       <c r="C77" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D77" s="108" t="str">
         <f t="shared" si="5"/>
@@ -14204,7 +14179,7 @@
       </c>
       <c r="B78" s="106"/>
       <c r="C78" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D78" s="108" t="str">
         <f t="shared" si="5"/>
@@ -14232,7 +14207,7 @@
       </c>
       <c r="B79" s="106"/>
       <c r="C79" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D79" s="108" t="str">
         <f t="shared" si="5"/>
@@ -14259,10 +14234,10 @@
         <v>76</v>
       </c>
       <c r="B80" s="129" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C80" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D80" s="108" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -14307,10 +14282,10 @@
         <v>77</v>
       </c>
       <c r="B81" s="106" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C81" s="107" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D81" s="108" t="str">
         <f t="shared" si="5"/>
@@ -14354,10 +14329,10 @@
         <v>78</v>
       </c>
       <c r="B82" s="106" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C82" s="107" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D82" s="108" t="str">
         <f t="shared" si="5"/>
@@ -14401,10 +14376,10 @@
         <v>79</v>
       </c>
       <c r="B83" s="132" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C83" s="130" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D83" s="108" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -14451,10 +14426,10 @@
         <v>80</v>
       </c>
       <c r="B84" s="132" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C84" s="130" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D84" s="108" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -14501,10 +14476,10 @@
         <v>81</v>
       </c>
       <c r="B85" s="106" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C85" s="107" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D85" s="108" t="str">
         <f t="shared" si="5"/>
@@ -14541,7 +14516,7 @@
       <c r="P85" s="112"/>
       <c r="R85" s="133"/>
       <c r="S85" s="134" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -14549,10 +14524,10 @@
         <v>82</v>
       </c>
       <c r="B86" s="106" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C86" s="107" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D86" s="108" t="str">
         <f t="shared" si="5"/>
@@ -14593,10 +14568,10 @@
         <v>83</v>
       </c>
       <c r="B87" s="106" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C87" s="107" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D87" s="108" t="str">
         <f t="shared" si="5"/>
@@ -14637,10 +14612,10 @@
         <v>84</v>
       </c>
       <c r="B88" s="129" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C88" s="107" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D88" s="108" t="str">
         <f t="shared" si="5"/>
@@ -14681,10 +14656,10 @@
         <v>85</v>
       </c>
       <c r="B89" s="131" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C89" s="130" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D89" s="108" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -14731,10 +14706,10 @@
         <v>86</v>
       </c>
       <c r="B90" s="131" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C90" s="130" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D90" s="108" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -14781,10 +14756,10 @@
         <v>87</v>
       </c>
       <c r="B91" s="131" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C91" s="130" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D91" s="108" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -14832,7 +14807,7 @@
       </c>
       <c r="B92" s="106"/>
       <c r="C92" s="107" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D92" s="111" t="str">
         <f t="shared" ref="D92:D155" si="8">IF(ISBLANK($B92),"",IF(ISBLANK($F92),"未着手",IF($I92=0,"完了","作業中")))</f>
@@ -14860,7 +14835,7 @@
       </c>
       <c r="B93" s="106"/>
       <c r="C93" s="107" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D93" s="111" t="str">
         <f t="shared" si="8"/>
@@ -14888,7 +14863,7 @@
       </c>
       <c r="B94" s="106"/>
       <c r="C94" s="107" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D94" s="111" t="str">
         <f t="shared" si="8"/>
@@ -14916,7 +14891,7 @@
       </c>
       <c r="B95" s="106"/>
       <c r="C95" s="107" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D95" s="111" t="str">
         <f t="shared" si="8"/>
@@ -14944,7 +14919,7 @@
       </c>
       <c r="B96" s="106"/>
       <c r="C96" s="107" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D96" s="111" t="str">
         <f t="shared" si="8"/>
@@ -14972,7 +14947,7 @@
       </c>
       <c r="B97" s="106"/>
       <c r="C97" s="107" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D97" s="111" t="str">
         <f t="shared" si="8"/>
@@ -15000,7 +14975,7 @@
       </c>
       <c r="B98" s="106"/>
       <c r="C98" s="107" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D98" s="111" t="str">
         <f t="shared" si="8"/>
@@ -15028,7 +15003,7 @@
       </c>
       <c r="B99" s="106"/>
       <c r="C99" s="107" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D99" s="111" t="str">
         <f t="shared" si="8"/>
@@ -15056,7 +15031,7 @@
       </c>
       <c r="B100" s="106"/>
       <c r="C100" s="107" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D100" s="111" t="str">
         <f t="shared" si="8"/>
@@ -15161,10 +15136,10 @@
         <v>100</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D104" s="111" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -15209,10 +15184,10 @@
         <v>101</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D105" s="111" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -15257,10 +15232,10 @@
         <v>102</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D106" s="111" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -15323,10 +15298,10 @@
         <v>103</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D107" s="111" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -15366,7 +15341,7 @@
       <c r="O107" s="112"/>
       <c r="P107" s="112"/>
       <c r="R107" s="124" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="S107" s="125">
         <f>SUMIF($C$5:$C$157,R107,$G$5:$G$157)</f>
@@ -15394,10 +15369,10 @@
         <v>104</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D108" s="111" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -15437,7 +15412,7 @@
       <c r="O108" s="112"/>
       <c r="P108" s="112"/>
       <c r="R108" s="124" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="S108" s="125">
         <f t="shared" ref="S108:S116" si="10">SUMIF($C$5:$C$157,R108,$G$5:$G$157)</f>
@@ -15465,10 +15440,10 @@
         <v>105</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D109" s="111" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -15508,7 +15483,7 @@
       <c r="O109" s="112"/>
       <c r="P109" s="112"/>
       <c r="R109" s="124" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="S109" s="125">
         <f t="shared" si="10"/>
@@ -15536,10 +15511,10 @@
         <v>106</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D110" s="111" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -15579,7 +15554,7 @@
       <c r="O110" s="112"/>
       <c r="P110" s="112"/>
       <c r="R110" s="124" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S110" s="125">
         <f t="shared" si="10"/>
@@ -15607,10 +15582,10 @@
         <v>107</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D111" s="111" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -15650,7 +15625,7 @@
       <c r="O111" s="112"/>
       <c r="P111" s="112"/>
       <c r="R111" s="124" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="S111" s="125">
         <f t="shared" si="10"/>
@@ -15678,10 +15653,10 @@
         <v>108</v>
       </c>
       <c r="B112" s="129" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D112" s="111" t="str">
         <f t="shared" si="8"/>
@@ -17408,8 +17383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L118" sqref="L118"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16:S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17504,12 +17479,8 @@
       <c r="Q2" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="R2" s="99" t="s">
-        <v>64</v>
-      </c>
-      <c r="S2" s="99" t="s">
-        <v>65</v>
-      </c>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
     </row>
     <row r="3" spans="1:19" s="8" customFormat="1">
       <c r="A3" s="201"/>
@@ -17523,44 +17494,38 @@
       <c r="I3" s="201"/>
       <c r="J3" s="20">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$S$2))))</f>
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="K3" s="20">
         <f t="shared" ref="K3:S3" si="0">INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$S$2))))</f>
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="L3" s="20">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M3" s="20">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N3" s="20">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="O3" s="20">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="P3" s="20">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="20">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="R3" s="20">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="S3" s="20">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
     </row>
     <row r="4" spans="1:19" s="8" customFormat="1">
       <c r="A4" s="201"/>
@@ -17574,9 +17539,12 @@
       <c r="I4" s="201"/>
       <c r="J4" s="21">
         <f>SUM(J5:J122)</f>
-        <v>163.19999999999999</v>
-      </c>
-      <c r="K4" s="21"/>
+        <v>181.2</v>
+      </c>
+      <c r="K4" s="21">
+        <f>SUM(K5:K122)</f>
+        <v>156.19999999999999</v>
+      </c>
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
       <c r="N4" s="21"/>
@@ -17591,10 +17559,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="138" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C5" s="142" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" s="143" t="str">
         <f t="shared" ref="D5:D50" si="1">IF(ISBLANK($B5),"",IF(ISBLANK($F5),"未着手",IF($I5=0,"完了","作業中")))</f>
@@ -17624,10 +17592,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="85" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D6" s="12" t="str">
         <f t="shared" si="1"/>
@@ -17648,7 +17616,9 @@
       <c r="J6" s="19">
         <v>6</v>
       </c>
-      <c r="K6" s="22"/>
+      <c r="K6" s="19">
+        <v>6</v>
+      </c>
       <c r="L6" s="22"/>
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
@@ -17663,10 +17633,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="138" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C7" s="142" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D7" s="143" t="str">
         <f t="shared" si="1"/>
@@ -17681,7 +17651,7 @@
         <v/>
       </c>
       <c r="J7" s="145"/>
-      <c r="K7" s="146"/>
+      <c r="K7" s="145"/>
       <c r="L7" s="146"/>
       <c r="M7" s="146"/>
       <c r="N7" s="146"/>
@@ -17696,10 +17666,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="85" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D8" s="12" t="str">
         <f t="shared" si="1"/>
@@ -17720,7 +17690,9 @@
       <c r="J8" s="19">
         <v>6</v>
       </c>
-      <c r="K8" s="22"/>
+      <c r="K8" s="19">
+        <v>6</v>
+      </c>
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
@@ -17735,10 +17707,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="138" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C9" s="142" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D9" s="143" t="str">
         <f t="shared" si="1"/>
@@ -17753,7 +17725,7 @@
         <v/>
       </c>
       <c r="J9" s="145"/>
-      <c r="K9" s="146"/>
+      <c r="K9" s="145"/>
       <c r="L9" s="146"/>
       <c r="M9" s="146"/>
       <c r="N9" s="146"/>
@@ -17768,31 +17740,35 @@
         <v>6</v>
       </c>
       <c r="B10" s="85" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D10" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>完了</v>
       </c>
       <c r="E10" s="4">
         <v>43056</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4">
+        <v>43056</v>
+      </c>
       <c r="G10" s="19">
         <v>6</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J10" s="19">
         <v>6</v>
       </c>
-      <c r="K10" s="22"/>
+      <c r="K10" s="19">
+        <v>0</v>
+      </c>
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
@@ -17807,10 +17783,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="85" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D11" s="12" t="str">
         <f t="shared" si="1"/>
@@ -17831,7 +17807,9 @@
       <c r="J11" s="19">
         <v>6</v>
       </c>
-      <c r="K11" s="22"/>
+      <c r="K11" s="19">
+        <v>6</v>
+      </c>
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
@@ -17846,10 +17824,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="140" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C12" s="142" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D12" s="143" t="str">
         <f t="shared" si="1"/>
@@ -17864,7 +17842,7 @@
         <v/>
       </c>
       <c r="J12" s="145"/>
-      <c r="K12" s="146"/>
+      <c r="K12" s="145"/>
       <c r="L12" s="146"/>
       <c r="M12" s="146"/>
       <c r="N12" s="146"/>
@@ -17879,14 +17857,14 @@
         <v>9</v>
       </c>
       <c r="B13" s="141" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D13" s="12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="E13" s="4">
         <v>43053</v>
@@ -17902,12 +17880,14 @@
       </c>
       <c r="I13" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" s="19">
         <v>3</v>
       </c>
-      <c r="K13" s="22"/>
+      <c r="K13" s="22">
+        <v>0</v>
+      </c>
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
@@ -17922,14 +17902,14 @@
         <v>10</v>
       </c>
       <c r="B14" s="85" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D14" s="12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="E14" s="4">
         <v>43053</v>
@@ -17945,12 +17925,14 @@
       </c>
       <c r="I14" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14" s="19">
         <v>3</v>
       </c>
-      <c r="K14" s="22"/>
+      <c r="K14" s="22">
+        <v>0</v>
+      </c>
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
@@ -17964,24 +17946,36 @@
       <c r="A15" s="16">
         <v>11</v>
       </c>
-      <c r="B15" s="86"/>
+      <c r="B15" s="86" t="s">
+        <v>243</v>
+      </c>
       <c r="C15" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D15" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="19"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
+      </c>
+      <c r="E15" s="4">
+        <v>43056</v>
+      </c>
+      <c r="F15" s="4">
+        <v>43056</v>
+      </c>
+      <c r="G15" s="19">
+        <v>15</v>
+      </c>
       <c r="H15" s="19"/>
-      <c r="I15" s="12" t="str">
+      <c r="I15" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="J15" s="19">
+        <v>15</v>
+      </c>
+      <c r="K15" s="22">
+        <v>15</v>
+      </c>
       <c r="L15" s="22"/>
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
@@ -17997,7 +17991,7 @@
       </c>
       <c r="B16" s="85"/>
       <c r="C16" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D16" s="12" t="str">
         <f t="shared" si="1"/>
@@ -18028,7 +18022,7 @@
       </c>
       <c r="B17" s="85"/>
       <c r="C17" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D17" s="12" t="str">
         <f t="shared" si="1"/>
@@ -18058,10 +18052,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="138" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C18" s="142" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D18" s="143" t="str">
         <f t="shared" si="1"/>
@@ -18091,10 +18085,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="85" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D19" s="12" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -18119,7 +18113,9 @@
       <c r="J19" s="19">
         <v>0</v>
       </c>
-      <c r="K19" s="22"/>
+      <c r="K19" s="19">
+        <v>0</v>
+      </c>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
@@ -18134,10 +18130,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="85" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D20" s="12" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -18153,16 +18149,18 @@
         <v>5</v>
       </c>
       <c r="H20" s="19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I20" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J20" s="19">
         <v>4</v>
       </c>
-      <c r="K20" s="22"/>
+      <c r="K20" s="19">
+        <v>2</v>
+      </c>
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
@@ -18177,10 +18175,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="85" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D21" s="12" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -18205,7 +18203,9 @@
       <c r="J21" s="19">
         <v>0.2</v>
       </c>
-      <c r="K21" s="22"/>
+      <c r="K21" s="19">
+        <v>0.2</v>
+      </c>
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
@@ -18220,10 +18220,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="85" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D22" s="12" t="str">
         <f t="shared" si="1"/>
@@ -18244,7 +18244,9 @@
       <c r="J22" s="19">
         <v>2</v>
       </c>
-      <c r="K22" s="22"/>
+      <c r="K22" s="19">
+        <v>2</v>
+      </c>
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
       <c r="N22" s="22"/>
@@ -18259,10 +18261,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D23" s="12" t="str">
         <f t="shared" si="1"/>
@@ -18283,7 +18285,9 @@
       <c r="J23" s="19">
         <v>4</v>
       </c>
-      <c r="K23" s="22"/>
+      <c r="K23" s="19">
+        <v>4</v>
+      </c>
       <c r="L23" s="22"/>
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
@@ -18298,25 +18302,37 @@
         <v>20</v>
       </c>
       <c r="B24" s="85" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D24" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>完了</v>
+      </c>
+      <c r="E24" s="4">
+        <v>43056</v>
+      </c>
+      <c r="F24" s="4">
+        <v>43056</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1</v>
+      </c>
+      <c r="H24" s="19">
+        <v>1</v>
+      </c>
+      <c r="I24" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J24" s="19"/>
-      <c r="K24" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="19">
+        <v>1</v>
+      </c>
+      <c r="K24" s="19">
+        <v>0</v>
+      </c>
       <c r="L24" s="22"/>
       <c r="M24" s="22"/>
       <c r="N24" s="22"/>
@@ -18330,15 +18346,13 @@
       <c r="A25" s="16">
         <v>21</v>
       </c>
-      <c r="B25" s="85" t="s">
-        <v>236</v>
-      </c>
+      <c r="B25" s="85"/>
       <c r="C25" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D25" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>未着手</v>
+        <v/>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -18349,7 +18363,7 @@
         <v/>
       </c>
       <c r="J25" s="19"/>
-      <c r="K25" s="22"/>
+      <c r="K25" s="19"/>
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
       <c r="N25" s="22"/>
@@ -18364,10 +18378,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="85" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D26" s="12" t="str">
         <f t="shared" si="1"/>
@@ -18388,7 +18402,9 @@
       <c r="J26" s="19">
         <v>4</v>
       </c>
-      <c r="K26" s="22"/>
+      <c r="K26" s="19">
+        <v>4</v>
+      </c>
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
       <c r="N26" s="22"/>
@@ -18403,10 +18419,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="138" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C27" s="142" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D27" s="143" t="str">
         <f t="shared" si="1"/>
@@ -18421,7 +18437,7 @@
         <v/>
       </c>
       <c r="J27" s="145"/>
-      <c r="K27" s="146"/>
+      <c r="K27" s="145"/>
       <c r="L27" s="146"/>
       <c r="M27" s="146"/>
       <c r="N27" s="146"/>
@@ -18436,10 +18452,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D28" s="12" t="str">
         <f t="shared" si="1"/>
@@ -18460,7 +18476,9 @@
       <c r="J28" s="19">
         <v>3</v>
       </c>
-      <c r="K28" s="22"/>
+      <c r="K28" s="19">
+        <v>3</v>
+      </c>
       <c r="L28" s="22"/>
       <c r="M28" s="22"/>
       <c r="N28" s="22"/>
@@ -18475,10 +18493,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="85" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D29" s="12" t="str">
         <f t="shared" si="1"/>
@@ -18499,7 +18517,9 @@
       <c r="J29" s="19">
         <v>2</v>
       </c>
-      <c r="K29" s="22"/>
+      <c r="K29" s="19">
+        <v>2</v>
+      </c>
       <c r="L29" s="22"/>
       <c r="M29" s="22"/>
       <c r="N29" s="22"/>
@@ -18514,10 +18534,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="85" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D30" s="12" t="str">
         <f t="shared" si="1"/>
@@ -18538,7 +18558,9 @@
       <c r="J30" s="19">
         <v>4</v>
       </c>
-      <c r="K30" s="22"/>
+      <c r="K30" s="19">
+        <v>4</v>
+      </c>
       <c r="L30" s="22"/>
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
@@ -18553,10 +18575,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="138" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C31" s="142" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D31" s="143" t="str">
         <f t="shared" si="1"/>
@@ -18571,7 +18593,7 @@
         <v/>
       </c>
       <c r="J31" s="145"/>
-      <c r="K31" s="146"/>
+      <c r="K31" s="145"/>
       <c r="L31" s="146"/>
       <c r="M31" s="146"/>
       <c r="N31" s="146"/>
@@ -18586,10 +18608,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D32" s="12" t="str">
         <f t="shared" si="1"/>
@@ -18610,7 +18632,9 @@
       <c r="J32" s="19">
         <v>1</v>
       </c>
-      <c r="K32" s="22"/>
+      <c r="K32" s="19">
+        <v>1</v>
+      </c>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -18625,10 +18649,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D33" s="12" t="str">
         <f t="shared" si="1"/>
@@ -18649,7 +18673,9 @@
       <c r="J33" s="19">
         <v>3</v>
       </c>
-      <c r="K33" s="22"/>
+      <c r="K33" s="19">
+        <v>3</v>
+      </c>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -18664,10 +18690,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="138" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C34" s="142" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D34" s="143" t="str">
         <f t="shared" si="1"/>
@@ -18682,7 +18708,7 @@
         <v/>
       </c>
       <c r="J34" s="145"/>
-      <c r="K34" s="146"/>
+      <c r="K34" s="145"/>
       <c r="L34" s="146"/>
       <c r="M34" s="146"/>
       <c r="N34" s="146"/>
@@ -18697,23 +18723,27 @@
         <v>31</v>
       </c>
       <c r="B35" s="85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
       </c>
       <c r="E35" s="4">
         <v>43063</v>
       </c>
-      <c r="F35" s="4"/>
+      <c r="F35" s="4">
+        <v>43056</v>
+      </c>
       <c r="G35" s="19">
         <v>1</v>
       </c>
-      <c r="H35" s="19"/>
+      <c r="H35" s="19">
+        <v>1</v>
+      </c>
       <c r="I35" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
@@ -18721,7 +18751,9 @@
       <c r="J35" s="19">
         <v>1</v>
       </c>
-      <c r="K35" s="22"/>
+      <c r="K35" s="19">
+        <v>1</v>
+      </c>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -18736,10 +18768,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="138" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C36" s="142" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D36" s="143" t="str">
         <f t="shared" si="1"/>
@@ -18754,7 +18786,7 @@
         <v/>
       </c>
       <c r="J36" s="145"/>
-      <c r="K36" s="146"/>
+      <c r="K36" s="145"/>
       <c r="L36" s="146"/>
       <c r="M36" s="146"/>
       <c r="N36" s="146"/>
@@ -18769,10 +18801,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="85" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D37" s="12" t="str">
         <f t="shared" si="1"/>
@@ -18793,7 +18825,9 @@
       <c r="J37" s="19">
         <v>3</v>
       </c>
-      <c r="K37" s="22"/>
+      <c r="K37" s="19">
+        <v>3</v>
+      </c>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -18808,10 +18842,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="85" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D38" s="12" t="str">
         <f t="shared" si="1"/>
@@ -18832,7 +18866,9 @@
       <c r="J38" s="19">
         <v>2</v>
       </c>
-      <c r="K38" s="22"/>
+      <c r="K38" s="19">
+        <v>2</v>
+      </c>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -18847,10 +18883,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="85" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D39" s="12" t="str">
         <f t="shared" si="1"/>
@@ -18871,7 +18907,9 @@
       <c r="J39" s="19">
         <v>2</v>
       </c>
-      <c r="K39" s="22"/>
+      <c r="K39" s="19">
+        <v>2</v>
+      </c>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -18886,10 +18924,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="85" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D40" s="12" t="str">
         <f t="shared" si="1"/>
@@ -18910,7 +18948,9 @@
       <c r="J40" s="19">
         <v>1</v>
       </c>
-      <c r="K40" s="22"/>
+      <c r="K40" s="19">
+        <v>1</v>
+      </c>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -18925,10 +18965,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="85" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D41" s="12" t="str">
         <f t="shared" si="1"/>
@@ -18949,7 +18989,9 @@
       <c r="J41" s="19">
         <v>4</v>
       </c>
-      <c r="K41" s="22"/>
+      <c r="K41" s="19">
+        <v>4</v>
+      </c>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -18965,7 +19007,7 @@
       </c>
       <c r="B42" s="85"/>
       <c r="C42" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D42" s="12" t="str">
         <f t="shared" si="1"/>
@@ -18996,7 +19038,7 @@
       </c>
       <c r="B43" s="85"/>
       <c r="C43" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D43" s="12" t="str">
         <f t="shared" si="1"/>
@@ -19027,7 +19069,7 @@
       </c>
       <c r="B44" s="85"/>
       <c r="C44" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D44" s="12" t="str">
         <f t="shared" si="1"/>
@@ -19058,7 +19100,7 @@
       </c>
       <c r="B45" s="85"/>
       <c r="C45" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D45" s="12" t="str">
         <f t="shared" si="1"/>
@@ -19089,7 +19131,7 @@
       </c>
       <c r="B46" s="85"/>
       <c r="C46" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D46" s="12" t="str">
         <f t="shared" si="1"/>
@@ -19120,7 +19162,7 @@
       </c>
       <c r="B47" s="85"/>
       <c r="C47" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D47" s="12" t="str">
         <f t="shared" si="1"/>
@@ -19151,7 +19193,7 @@
       </c>
       <c r="B48" s="85"/>
       <c r="C48" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D48" s="12" t="str">
         <f t="shared" si="1"/>
@@ -19181,10 +19223,10 @@
         <v>45</v>
       </c>
       <c r="B49" s="138" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C49" s="142" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D49" s="143" t="str">
         <f t="shared" si="1"/>
@@ -19214,10 +19256,10 @@
         <v>46</v>
       </c>
       <c r="B50" s="85" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D50" s="12" t="str">
         <f t="shared" si="1"/>
@@ -19238,7 +19280,9 @@
       <c r="J50" s="19">
         <v>2</v>
       </c>
-      <c r="K50" s="22"/>
+      <c r="K50" s="19">
+        <v>2</v>
+      </c>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -19253,10 +19297,10 @@
         <v>47</v>
       </c>
       <c r="B51" s="85" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D51" s="12" t="str">
         <f t="shared" ref="D51:D63" si="3">IF(ISBLANK($B51),"",IF(ISBLANK($F51),"未着手",IF($I51=0,"完了","作業中")))</f>
@@ -19277,7 +19321,9 @@
       <c r="J51" s="19">
         <v>3</v>
       </c>
-      <c r="K51" s="22"/>
+      <c r="K51" s="19">
+        <v>3</v>
+      </c>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -19292,10 +19338,10 @@
         <v>48</v>
       </c>
       <c r="B52" s="85" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D52" s="12" t="str">
         <f t="shared" si="3"/>
@@ -19316,7 +19362,9 @@
       <c r="J52" s="19">
         <v>1</v>
       </c>
-      <c r="K52" s="22"/>
+      <c r="K52" s="19">
+        <v>1</v>
+      </c>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -19331,10 +19379,10 @@
         <v>49</v>
       </c>
       <c r="B53" s="138" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C53" s="142" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D53" s="143" t="str">
         <f t="shared" si="3"/>
@@ -19364,10 +19412,10 @@
         <v>50</v>
       </c>
       <c r="B54" s="85" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D54" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19392,7 +19440,9 @@
       <c r="J54" s="19">
         <v>0</v>
       </c>
-      <c r="K54" s="22"/>
+      <c r="K54" s="22">
+        <v>0</v>
+      </c>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -19407,10 +19457,10 @@
         <v>51</v>
       </c>
       <c r="B55" s="139" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D55" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19435,7 +19485,9 @@
       <c r="J55" s="19">
         <v>0</v>
       </c>
-      <c r="K55" s="22"/>
+      <c r="K55" s="22">
+        <v>0</v>
+      </c>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -19450,10 +19502,10 @@
         <v>52</v>
       </c>
       <c r="B56" s="85" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D56" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19478,7 +19530,9 @@
       <c r="J56" s="19">
         <v>0</v>
       </c>
-      <c r="K56" s="22"/>
+      <c r="K56" s="22">
+        <v>0</v>
+      </c>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
@@ -19493,10 +19547,10 @@
         <v>53</v>
       </c>
       <c r="B57" s="85" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D57" s="12" t="str">
         <f t="shared" si="3"/>
@@ -19517,7 +19571,9 @@
       <c r="J57" s="19">
         <v>1</v>
       </c>
-      <c r="K57" s="22"/>
+      <c r="K57" s="19">
+        <v>1</v>
+      </c>
       <c r="L57" s="22"/>
       <c r="M57" s="22"/>
       <c r="N57" s="22"/>
@@ -19532,10 +19588,10 @@
         <v>54</v>
       </c>
       <c r="B58" s="138" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C58" s="142" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D58" s="143" t="str">
         <f t="shared" si="3"/>
@@ -19565,10 +19621,10 @@
         <v>55</v>
       </c>
       <c r="B59" s="85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D59" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19583,15 +19639,19 @@
       <c r="G59" s="19">
         <v>3</v>
       </c>
-      <c r="H59" s="19"/>
+      <c r="H59" s="19">
+        <v>2</v>
+      </c>
       <c r="I59" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J59" s="19">
         <v>3</v>
       </c>
-      <c r="K59" s="22"/>
+      <c r="K59" s="22">
+        <v>1</v>
+      </c>
       <c r="L59" s="22"/>
       <c r="M59" s="22"/>
       <c r="N59" s="22"/>
@@ -19606,10 +19666,10 @@
         <v>56</v>
       </c>
       <c r="B60" s="85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D60" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19634,7 +19694,9 @@
       <c r="J60" s="19">
         <v>0</v>
       </c>
-      <c r="K60" s="22"/>
+      <c r="K60" s="22">
+        <v>0</v>
+      </c>
       <c r="L60" s="22"/>
       <c r="M60" s="22"/>
       <c r="N60" s="22"/>
@@ -19649,10 +19711,10 @@
         <v>57</v>
       </c>
       <c r="B61" s="85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D61" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19677,7 +19739,9 @@
       <c r="J61" s="19">
         <v>0</v>
       </c>
-      <c r="K61" s="22"/>
+      <c r="K61" s="22">
+        <v>0</v>
+      </c>
       <c r="L61" s="22"/>
       <c r="M61" s="22"/>
       <c r="N61" s="22"/>
@@ -19692,10 +19756,10 @@
         <v>58</v>
       </c>
       <c r="B62" s="85" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D62" s="12" t="str">
         <f t="shared" si="3"/>
@@ -19716,7 +19780,9 @@
       <c r="J62" s="19">
         <v>1</v>
       </c>
-      <c r="K62" s="22"/>
+      <c r="K62" s="19">
+        <v>1</v>
+      </c>
       <c r="L62" s="22"/>
       <c r="M62" s="22"/>
       <c r="N62" s="22"/>
@@ -19731,10 +19797,10 @@
         <v>59</v>
       </c>
       <c r="B63" s="85" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D63" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19759,7 +19825,9 @@
       <c r="J63" s="19">
         <v>0</v>
       </c>
-      <c r="K63" s="22"/>
+      <c r="K63" s="22">
+        <v>0</v>
+      </c>
       <c r="L63" s="22"/>
       <c r="M63" s="22"/>
       <c r="N63" s="22"/>
@@ -19774,10 +19842,10 @@
         <v>60</v>
       </c>
       <c r="B64" s="85" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D64" s="12" t="str">
         <f t="shared" ref="D64:D117" ca="1" si="5">IF(ISBLANK($B64),"",IF(ISBLANK($F64),"未着手",IF($I64=0,"完了","作業中")))</f>
@@ -19802,7 +19870,9 @@
       <c r="J64" s="19">
         <v>0</v>
       </c>
-      <c r="K64" s="22"/>
+      <c r="K64" s="22">
+        <v>0</v>
+      </c>
       <c r="L64" s="22"/>
       <c r="M64" s="22"/>
       <c r="N64" s="22"/>
@@ -19817,10 +19887,10 @@
         <v>61</v>
       </c>
       <c r="B65" s="138" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C65" s="142" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D65" s="143" t="str">
         <f t="shared" si="5"/>
@@ -19850,10 +19920,10 @@
         <v>62</v>
       </c>
       <c r="B66" s="85" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D66" s="12" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -19878,7 +19948,9 @@
       <c r="J66" s="19">
         <v>0</v>
       </c>
-      <c r="K66" s="22"/>
+      <c r="K66" s="22">
+        <v>0</v>
+      </c>
       <c r="L66" s="22"/>
       <c r="M66" s="22"/>
       <c r="N66" s="22"/>
@@ -19893,10 +19965,10 @@
         <v>63</v>
       </c>
       <c r="B67" s="85" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D67" s="12" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -19921,7 +19993,9 @@
       <c r="J67" s="19">
         <v>0</v>
       </c>
-      <c r="K67" s="22"/>
+      <c r="K67" s="22">
+        <v>0</v>
+      </c>
       <c r="L67" s="22"/>
       <c r="M67" s="22"/>
       <c r="N67" s="22"/>
@@ -19936,10 +20010,10 @@
         <v>64</v>
       </c>
       <c r="B68" s="85" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D68" s="12" t="str">
         <f t="shared" si="5"/>
@@ -19960,7 +20034,9 @@
       <c r="J68" s="19">
         <v>1</v>
       </c>
-      <c r="K68" s="22"/>
+      <c r="K68" s="19">
+        <v>1</v>
+      </c>
       <c r="L68" s="22"/>
       <c r="M68" s="22"/>
       <c r="N68" s="22"/>
@@ -19975,10 +20051,10 @@
         <v>65</v>
       </c>
       <c r="B69" s="85" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D69" s="12" t="str">
         <f t="shared" si="5"/>
@@ -19999,7 +20075,9 @@
       <c r="J69" s="19">
         <v>2</v>
       </c>
-      <c r="K69" s="22"/>
+      <c r="K69" s="19">
+        <v>2</v>
+      </c>
       <c r="L69" s="22"/>
       <c r="M69" s="22"/>
       <c r="N69" s="22"/>
@@ -20014,10 +20092,10 @@
         <v>66</v>
       </c>
       <c r="B70" s="138" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C70" s="142" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D70" s="143" t="str">
         <f t="shared" si="5"/>
@@ -20032,7 +20110,7 @@
         <v/>
       </c>
       <c r="J70" s="145"/>
-      <c r="K70" s="146"/>
+      <c r="K70" s="145"/>
       <c r="L70" s="146"/>
       <c r="M70" s="146"/>
       <c r="N70" s="146"/>
@@ -20047,10 +20125,10 @@
         <v>67</v>
       </c>
       <c r="B71" s="85" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D71" s="12" t="str">
         <f t="shared" si="5"/>
@@ -20071,7 +20149,9 @@
       <c r="J71" s="19">
         <v>3</v>
       </c>
-      <c r="K71" s="22"/>
+      <c r="K71" s="19">
+        <v>3</v>
+      </c>
       <c r="L71" s="22"/>
       <c r="M71" s="22"/>
       <c r="N71" s="22"/>
@@ -20086,10 +20166,10 @@
         <v>68</v>
       </c>
       <c r="B72" s="85" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D72" s="12" t="str">
         <f t="shared" si="5"/>
@@ -20110,7 +20190,9 @@
       <c r="J72" s="19">
         <v>3</v>
       </c>
-      <c r="K72" s="22"/>
+      <c r="K72" s="19">
+        <v>3</v>
+      </c>
       <c r="L72" s="22"/>
       <c r="M72" s="22"/>
       <c r="N72" s="22"/>
@@ -20125,10 +20207,10 @@
         <v>69</v>
       </c>
       <c r="B73" s="138" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C73" s="142" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D73" s="143" t="str">
         <f t="shared" si="5"/>
@@ -20143,7 +20225,7 @@
         <v/>
       </c>
       <c r="J73" s="145"/>
-      <c r="K73" s="146"/>
+      <c r="K73" s="145"/>
       <c r="L73" s="146"/>
       <c r="M73" s="146"/>
       <c r="N73" s="146"/>
@@ -20158,10 +20240,10 @@
         <v>70</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D74" s="12" t="str">
         <f t="shared" si="5"/>
@@ -20182,7 +20264,9 @@
       <c r="J74" s="19">
         <v>3</v>
       </c>
-      <c r="K74" s="22"/>
+      <c r="K74" s="19">
+        <v>3</v>
+      </c>
       <c r="L74" s="22"/>
       <c r="M74" s="22"/>
       <c r="N74" s="22"/>
@@ -20197,10 +20281,10 @@
         <v>71</v>
       </c>
       <c r="B75" s="138" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C75" s="142" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D75" s="143" t="str">
         <f t="shared" si="5"/>
@@ -20215,7 +20299,7 @@
         <v/>
       </c>
       <c r="J75" s="145"/>
-      <c r="K75" s="146"/>
+      <c r="K75" s="145"/>
       <c r="L75" s="146"/>
       <c r="M75" s="146"/>
       <c r="N75" s="146"/>
@@ -20230,10 +20314,10 @@
         <v>72</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D76" s="12" t="str">
         <f t="shared" si="5"/>
@@ -20254,7 +20338,9 @@
       <c r="J76" s="19">
         <v>3</v>
       </c>
-      <c r="K76" s="22"/>
+      <c r="K76" s="19">
+        <v>3</v>
+      </c>
       <c r="L76" s="22"/>
       <c r="M76" s="22"/>
       <c r="N76" s="22"/>
@@ -20269,10 +20355,10 @@
         <v>73</v>
       </c>
       <c r="B77" s="138" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C77" s="142" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D77" s="143" t="str">
         <f t="shared" si="5"/>
@@ -20287,7 +20373,7 @@
         <v/>
       </c>
       <c r="J77" s="145"/>
-      <c r="K77" s="146"/>
+      <c r="K77" s="145"/>
       <c r="L77" s="146"/>
       <c r="M77" s="146"/>
       <c r="N77" s="146"/>
@@ -20302,10 +20388,10 @@
         <v>74</v>
       </c>
       <c r="B78" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D78" s="12" t="str">
         <f t="shared" si="5"/>
@@ -20326,7 +20412,9 @@
       <c r="J78" s="19">
         <v>1</v>
       </c>
-      <c r="K78" s="22"/>
+      <c r="K78" s="19">
+        <v>1</v>
+      </c>
       <c r="L78" s="22"/>
       <c r="M78" s="22"/>
       <c r="N78" s="22"/>
@@ -20341,10 +20429,10 @@
         <v>75</v>
       </c>
       <c r="B79" s="85" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D79" s="12" t="str">
         <f t="shared" si="5"/>
@@ -20365,7 +20453,9 @@
       <c r="J79" s="19">
         <v>1</v>
       </c>
-      <c r="K79" s="22"/>
+      <c r="K79" s="19">
+        <v>1</v>
+      </c>
       <c r="L79" s="22"/>
       <c r="M79" s="22"/>
       <c r="N79" s="22"/>
@@ -20380,10 +20470,10 @@
         <v>76</v>
       </c>
       <c r="B80" s="138" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C80" s="142" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D80" s="143" t="str">
         <f t="shared" si="5"/>
@@ -20398,7 +20488,7 @@
         <v/>
       </c>
       <c r="J80" s="145"/>
-      <c r="K80" s="146"/>
+      <c r="K80" s="145"/>
       <c r="L80" s="146"/>
       <c r="M80" s="146"/>
       <c r="N80" s="146"/>
@@ -20413,10 +20503,10 @@
         <v>77</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D81" s="12" t="str">
         <f t="shared" si="5"/>
@@ -20437,7 +20527,9 @@
       <c r="J81" s="19">
         <v>1</v>
       </c>
-      <c r="K81" s="22"/>
+      <c r="K81" s="19">
+        <v>1</v>
+      </c>
       <c r="L81" s="22"/>
       <c r="M81" s="22"/>
       <c r="N81" s="22"/>
@@ -20452,10 +20544,10 @@
         <v>78</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D82" s="12" t="str">
         <f t="shared" si="5"/>
@@ -20476,7 +20568,9 @@
       <c r="J82" s="19">
         <v>6</v>
       </c>
-      <c r="K82" s="22"/>
+      <c r="K82" s="19">
+        <v>6</v>
+      </c>
       <c r="L82" s="22"/>
       <c r="M82" s="22"/>
       <c r="N82" s="22"/>
@@ -20492,7 +20586,7 @@
       </c>
       <c r="B83" s="153"/>
       <c r="C83" s="154" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D83" s="12" t="str">
         <f t="shared" si="5"/>
@@ -20523,7 +20617,7 @@
       </c>
       <c r="B84" s="159"/>
       <c r="C84" s="160" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D84" s="12" t="str">
         <f t="shared" si="5"/>
@@ -20554,7 +20648,7 @@
       </c>
       <c r="B85" s="159"/>
       <c r="C85" s="160" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D85" s="12" t="str">
         <f t="shared" si="5"/>
@@ -20585,7 +20679,7 @@
       </c>
       <c r="B86" s="159"/>
       <c r="C86" s="160" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D86" s="12" t="str">
         <f t="shared" si="5"/>
@@ -20616,7 +20710,7 @@
       </c>
       <c r="B87" s="159"/>
       <c r="C87" s="160" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D87" s="12" t="str">
         <f t="shared" si="5"/>
@@ -20647,7 +20741,7 @@
       </c>
       <c r="B88" s="159"/>
       <c r="C88" s="160" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D88" s="149" t="str">
         <f t="shared" si="5"/>
@@ -20677,10 +20771,10 @@
         <v>85</v>
       </c>
       <c r="B89" s="138" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C89" s="142" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D89" s="143" t="str">
         <f t="shared" si="5"/>
@@ -20695,7 +20789,7 @@
         <v/>
       </c>
       <c r="J89" s="145"/>
-      <c r="K89" s="170"/>
+      <c r="K89" s="145"/>
       <c r="L89" s="170"/>
       <c r="M89" s="170"/>
       <c r="N89" s="170"/>
@@ -20710,10 +20804,10 @@
         <v>86</v>
       </c>
       <c r="B90" s="147" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C90" s="148" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D90" s="149" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -20736,7 +20830,9 @@
       <c r="J90" s="151">
         <v>1</v>
       </c>
-      <c r="K90" s="152"/>
+      <c r="K90" s="151">
+        <v>1</v>
+      </c>
       <c r="L90" s="152"/>
       <c r="M90" s="152"/>
       <c r="N90" s="152"/>
@@ -20751,10 +20847,10 @@
         <v>87</v>
       </c>
       <c r="B91" s="147" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C91" s="148" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D91" s="149" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -20779,7 +20875,9 @@
       <c r="J91" s="151">
         <v>0</v>
       </c>
-      <c r="K91" s="152"/>
+      <c r="K91" s="151">
+        <v>0</v>
+      </c>
       <c r="L91" s="152"/>
       <c r="M91" s="152"/>
       <c r="N91" s="152"/>
@@ -20794,10 +20892,10 @@
         <v>88</v>
       </c>
       <c r="B92" s="147" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C92" s="148" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D92" s="149" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -20820,7 +20918,9 @@
       <c r="J92" s="151">
         <v>1</v>
       </c>
-      <c r="K92" s="152"/>
+      <c r="K92" s="151">
+        <v>1</v>
+      </c>
       <c r="L92" s="152"/>
       <c r="M92" s="152"/>
       <c r="N92" s="152"/>
@@ -20835,25 +20935,35 @@
         <v>89</v>
       </c>
       <c r="B93" s="147" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C93" s="148" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D93" s="149" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
-      </c>
-      <c r="E93" s="150"/>
-      <c r="F93" s="150"/>
-      <c r="G93" s="151"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>作業中</v>
+      </c>
+      <c r="E93" s="150">
+        <v>43056</v>
+      </c>
+      <c r="F93" s="150">
+        <v>43056</v>
+      </c>
+      <c r="G93" s="151">
+        <v>2</v>
+      </c>
       <c r="H93" s="151"/>
-      <c r="I93" s="149" t="str">
+      <c r="I93" s="149">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="J93" s="151"/>
-      <c r="K93" s="152"/>
+        <v>2</v>
+      </c>
+      <c r="J93" s="151">
+        <v>2</v>
+      </c>
+      <c r="K93" s="151">
+        <v>2</v>
+      </c>
       <c r="L93" s="152"/>
       <c r="M93" s="152"/>
       <c r="N93" s="152"/>
@@ -20868,10 +20978,10 @@
         <v>90</v>
       </c>
       <c r="B94" s="138" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C94" s="142" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D94" s="143" t="str">
         <f t="shared" si="5"/>
@@ -20886,7 +20996,7 @@
         <v/>
       </c>
       <c r="J94" s="145"/>
-      <c r="K94" s="146"/>
+      <c r="K94" s="145"/>
       <c r="L94" s="146"/>
       <c r="M94" s="146"/>
       <c r="N94" s="146"/>
@@ -20901,31 +21011,35 @@
         <v>91</v>
       </c>
       <c r="B95" s="147" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C95" s="148" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D95" s="149" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>作業中</v>
       </c>
       <c r="E95" s="150">
         <v>43060</v>
       </c>
-      <c r="F95" s="150"/>
+      <c r="F95" s="150">
+        <v>43056</v>
+      </c>
       <c r="G95" s="151">
         <v>3</v>
       </c>
       <c r="H95" s="151"/>
       <c r="I95" s="149">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J95" s="151">
         <v>3</v>
       </c>
-      <c r="K95" s="152"/>
+      <c r="K95" s="151">
+        <v>2</v>
+      </c>
       <c r="L95" s="152"/>
       <c r="M95" s="152"/>
       <c r="N95" s="152"/>
@@ -20940,10 +21054,10 @@
         <v>92</v>
       </c>
       <c r="B96" s="147" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C96" s="148" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D96" s="149" t="str">
         <f t="shared" si="5"/>
@@ -20964,7 +21078,9 @@
       <c r="J96" s="151">
         <v>3</v>
       </c>
-      <c r="K96" s="152"/>
+      <c r="K96" s="151">
+        <v>3</v>
+      </c>
       <c r="L96" s="152"/>
       <c r="M96" s="152"/>
       <c r="N96" s="152"/>
@@ -20979,31 +21095,35 @@
         <v>93</v>
       </c>
       <c r="B97" s="147" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C97" s="148" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D97" s="149" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>完了</v>
       </c>
       <c r="E97" s="150">
         <v>43056</v>
       </c>
-      <c r="F97" s="150"/>
+      <c r="F97" s="150">
+        <v>43056</v>
+      </c>
       <c r="G97" s="151">
         <v>2</v>
       </c>
       <c r="H97" s="151"/>
       <c r="I97" s="149">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J97" s="151">
         <v>2</v>
       </c>
-      <c r="K97" s="152"/>
+      <c r="K97" s="151">
+        <v>0</v>
+      </c>
       <c r="L97" s="152"/>
       <c r="M97" s="152"/>
       <c r="N97" s="152"/>
@@ -21018,10 +21138,10 @@
         <v>94</v>
       </c>
       <c r="B98" s="147" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C98" s="148" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D98" s="149" t="str">
         <f t="shared" si="5"/>
@@ -21042,7 +21162,9 @@
       <c r="J98" s="151">
         <v>4</v>
       </c>
-      <c r="K98" s="152"/>
+      <c r="K98" s="151">
+        <v>4</v>
+      </c>
       <c r="L98" s="152"/>
       <c r="M98" s="152"/>
       <c r="N98" s="152"/>
@@ -21057,10 +21179,10 @@
         <v>95</v>
       </c>
       <c r="B99" s="147" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C99" s="148" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D99" s="149" t="str">
         <f t="shared" si="5"/>
@@ -21081,7 +21203,9 @@
       <c r="J99" s="151">
         <v>2</v>
       </c>
-      <c r="K99" s="152"/>
+      <c r="K99" s="151">
+        <v>2</v>
+      </c>
       <c r="L99" s="152"/>
       <c r="M99" s="152"/>
       <c r="N99" s="152"/>
@@ -21096,10 +21220,10 @@
         <v>96</v>
       </c>
       <c r="B100" s="138" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C100" s="142" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D100" s="143" t="str">
         <f t="shared" si="5"/>
@@ -21114,7 +21238,7 @@
         <v/>
       </c>
       <c r="J100" s="145"/>
-      <c r="K100" s="146"/>
+      <c r="K100" s="145"/>
       <c r="L100" s="146"/>
       <c r="M100" s="146"/>
       <c r="N100" s="146"/>
@@ -21129,10 +21253,10 @@
         <v>97</v>
       </c>
       <c r="B101" s="147" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C101" s="148" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D101" s="149" t="str">
         <f t="shared" si="5"/>
@@ -21153,7 +21277,9 @@
       <c r="J101" s="151">
         <v>3</v>
       </c>
-      <c r="K101" s="152"/>
+      <c r="K101" s="151">
+        <v>3</v>
+      </c>
       <c r="L101" s="152"/>
       <c r="M101" s="152"/>
       <c r="N101" s="152"/>
@@ -21169,7 +21295,7 @@
       </c>
       <c r="B102" s="147"/>
       <c r="C102" s="148" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D102" s="149" t="str">
         <f t="shared" si="5"/>
@@ -21200,7 +21326,7 @@
       </c>
       <c r="B103" s="147"/>
       <c r="C103" s="148" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D103" s="149" t="str">
         <f t="shared" si="5"/>
@@ -21231,7 +21357,7 @@
       </c>
       <c r="B104" s="147"/>
       <c r="C104" s="148" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D104" s="149" t="str">
         <f t="shared" si="5"/>
@@ -21262,7 +21388,7 @@
       </c>
       <c r="B105" s="147"/>
       <c r="C105" s="148" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D105" s="149" t="str">
         <f t="shared" si="5"/>
@@ -21293,7 +21419,7 @@
       </c>
       <c r="B106" s="147"/>
       <c r="C106" s="148" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D106" s="149" t="str">
         <f t="shared" si="5"/>
@@ -21342,7 +21468,7 @@
       </c>
       <c r="B107" s="147"/>
       <c r="C107" s="148" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D107" s="149" t="str">
         <f t="shared" si="5"/>
@@ -21367,23 +21493,23 @@
       <c r="R107" s="167"/>
       <c r="S107" s="167"/>
       <c r="U107" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="V107" s="10">
-        <f t="shared" ref="V107:V116" si="6">SUMIF($C$5:$C$104,U107,$G$5:$G$104)</f>
-        <v>30</v>
+        <f t="shared" ref="V107:V110" si="6">SUMIF($C$5:$C$122,U107,$G$5:$G$122)</f>
+        <v>45</v>
       </c>
       <c r="W107" s="10">
-        <f t="shared" ref="W107:W116" ca="1" si="7">SUMIF($C$5:$C$104,U107,$I$5:$I$104)</f>
-        <v>30</v>
+        <f ca="1">SUMIF($C$5:$C$122,U107,$I$5:$I$122)</f>
+        <v>33</v>
       </c>
       <c r="X107" s="10">
-        <f t="shared" ref="X107:X116" si="8">SUMIF($C$5:$C$104,U107,$H$5:$H$104)</f>
+        <f>SUMIF($C$5:$C$122,U107,$H$5:$H$122)</f>
         <v>6</v>
       </c>
       <c r="Y107" s="14">
-        <f t="shared" ref="Y107:Y116" si="9">COUNTA($J$2:$S$2)*6-COUNTA($J$4:$S$4)*6</f>
-        <v>54</v>
+        <f>COUNTA($J$2:$S$2)*6-COUNTA($J$4:$S$4)*6</f>
+        <v>36</v>
       </c>
       <c r="Z107" s="15">
         <f ca="1">IF(Y107&gt;W107,0,W107-Y107)</f>
@@ -21395,10 +21521,10 @@
         <v>104</v>
       </c>
       <c r="B108" s="138" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C108" s="142" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D108" s="143" t="str">
         <f t="shared" si="5"/>
@@ -21423,26 +21549,26 @@
       <c r="R108" s="143"/>
       <c r="S108" s="143"/>
       <c r="U108" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="V108" s="10">
         <f t="shared" si="6"/>
         <v>49</v>
       </c>
       <c r="W108" s="10">
-        <f t="shared" ca="1" si="7"/>
-        <v>35</v>
+        <f t="shared" ref="W108:W116" ca="1" si="7">SUMIF($C$5:$C$122,U108,$I$5:$I$122)</f>
+        <v>33</v>
       </c>
       <c r="X108" s="10">
-        <f t="shared" si="8"/>
-        <v>17</v>
+        <f t="shared" ref="X108:X116" si="8">SUMIF($C$5:$C$122,U108,$H$5:$H$122)</f>
+        <v>19</v>
       </c>
       <c r="Y108" s="14">
-        <f t="shared" si="9"/>
-        <v>54</v>
+        <f t="shared" ref="Y108:Y116" si="9">COUNTA($J$2:$S$2)*6-COUNTA($J$4:$S$4)*6</f>
+        <v>36</v>
       </c>
       <c r="Z108" s="15">
-        <f t="shared" ref="Z108:Z116" ca="1" si="10">IF(Y108&gt;W108,0,W108-Y108)</f>
+        <f ca="1">IF(Y108&gt;W108,0,W108-Y108)</f>
         <v>0</v>
       </c>
     </row>
@@ -21451,31 +21577,35 @@
         <v>105</v>
       </c>
       <c r="B109" s="147" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C109" s="148" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D109" s="149" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>作業中</v>
       </c>
       <c r="E109" s="150">
         <v>43049</v>
       </c>
-      <c r="F109" s="165"/>
+      <c r="F109" s="165">
+        <v>43049</v>
+      </c>
       <c r="G109" s="151">
         <v>4</v>
       </c>
       <c r="H109" s="166"/>
       <c r="I109" s="149">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J109" s="151">
         <v>4</v>
       </c>
-      <c r="K109" s="167"/>
+      <c r="K109" s="152">
+        <v>2</v>
+      </c>
       <c r="L109" s="167"/>
       <c r="M109" s="167"/>
       <c r="N109" s="167"/>
@@ -21485,27 +21615,27 @@
       <c r="R109" s="167"/>
       <c r="S109" s="167"/>
       <c r="U109" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="V109" s="10">
         <f t="shared" si="6"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W109" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>40.200000000000003</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="X109" s="10">
         <f t="shared" si="8"/>
-        <v>7.8</v>
+        <v>12.8</v>
       </c>
       <c r="Y109" s="14">
         <f t="shared" si="9"/>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="Z109" s="15">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f ca="1">IF(Y109&gt;W109,0,W109-Y109)</f>
+        <v>2.2000000000000028</v>
       </c>
     </row>
     <row r="110" spans="1:26">
@@ -21513,10 +21643,10 @@
         <v>106</v>
       </c>
       <c r="B110" s="147" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C110" s="148" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D110" s="149" t="str">
         <f t="shared" si="5"/>
@@ -21537,7 +21667,9 @@
       <c r="J110" s="166">
         <v>4</v>
       </c>
-      <c r="K110" s="167"/>
+      <c r="K110" s="166">
+        <v>4</v>
+      </c>
       <c r="L110" s="167"/>
       <c r="M110" s="167"/>
       <c r="N110" s="167"/>
@@ -21547,15 +21679,15 @@
       <c r="R110" s="167"/>
       <c r="S110" s="167"/>
       <c r="U110" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="V110" s="10">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="W110" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X110" s="10">
         <f t="shared" si="8"/>
@@ -21563,10 +21695,10 @@
       </c>
       <c r="Y110" s="14">
         <f t="shared" si="9"/>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="Z110" s="15">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ref="Z108:Z116" ca="1" si="10">IF(Y110&gt;W110,0,W110-Y110)</f>
         <v>0</v>
       </c>
     </row>
@@ -21575,10 +21707,10 @@
         <v>107</v>
       </c>
       <c r="B111" s="173" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C111" s="174" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D111" s="175" t="str">
         <f t="shared" si="5"/>
@@ -21599,7 +21731,9 @@
       <c r="J111" s="177">
         <v>5</v>
       </c>
-      <c r="K111" s="178"/>
+      <c r="K111" s="177">
+        <v>5</v>
+      </c>
       <c r="L111" s="178"/>
       <c r="M111" s="178"/>
       <c r="N111" s="178"/>
@@ -21609,23 +21743,23 @@
       <c r="R111" s="178"/>
       <c r="S111" s="178"/>
       <c r="U111" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V111" s="10">
         <f>SUMIF($C$5:$C$122,U111,$G$5:$G$122)</f>
         <v>40</v>
       </c>
       <c r="W111" s="10">
-        <f ca="1">SUMIF($C$5:$C$122,U111,$I$5:$I$122)</f>
-        <v>37</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>34</v>
       </c>
       <c r="X111" s="10">
-        <f>SUMIF($C$5:$C$122,U111,$H$5:$H$122)</f>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="Y111" s="14">
         <f t="shared" si="9"/>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="Z111" s="15">
         <f t="shared" ca="1" si="10"/>
@@ -21637,10 +21771,10 @@
         <v>108</v>
       </c>
       <c r="B112" s="147" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C112" s="148" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D112" s="149" t="str">
         <f t="shared" si="5"/>
@@ -21661,7 +21795,9 @@
       <c r="J112" s="166">
         <v>4</v>
       </c>
-      <c r="K112" s="167"/>
+      <c r="K112" s="166">
+        <v>4</v>
+      </c>
       <c r="L112" s="167"/>
       <c r="M112" s="167"/>
       <c r="N112" s="167"/>
@@ -21672,7 +21808,7 @@
       <c r="S112" s="167"/>
       <c r="U112" s="11"/>
       <c r="V112" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="V108:V116" si="11">SUMIF($C$5:$C$104,U112,$G$5:$G$104)</f>
         <v>0</v>
       </c>
       <c r="W112" s="10">
@@ -21685,7 +21821,7 @@
       </c>
       <c r="Y112" s="14">
         <f t="shared" si="9"/>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="Z112" s="15">
         <f t="shared" si="10"/>
@@ -21697,10 +21833,10 @@
         <v>109</v>
       </c>
       <c r="B113" s="147" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C113" s="148" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D113" s="149" t="str">
         <f t="shared" si="5"/>
@@ -21721,7 +21857,9 @@
       <c r="J113" s="166">
         <v>5</v>
       </c>
-      <c r="K113" s="167"/>
+      <c r="K113" s="166">
+        <v>5</v>
+      </c>
       <c r="L113" s="167"/>
       <c r="M113" s="167"/>
       <c r="N113" s="167"/>
@@ -21732,7 +21870,7 @@
       <c r="S113" s="167"/>
       <c r="U113" s="11"/>
       <c r="V113" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W113" s="10">
@@ -21745,7 +21883,7 @@
       </c>
       <c r="Y113" s="14">
         <f t="shared" si="9"/>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="Z113" s="15">
         <f t="shared" si="10"/>
@@ -21757,10 +21895,10 @@
         <v>110</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D114" s="12" t="str">
         <f t="shared" si="5"/>
@@ -21781,7 +21919,9 @@
       <c r="J114" s="136">
         <v>3</v>
       </c>
-      <c r="K114" s="137"/>
+      <c r="K114" s="136">
+        <v>3</v>
+      </c>
       <c r="L114" s="137"/>
       <c r="M114" s="137"/>
       <c r="N114" s="137"/>
@@ -21792,7 +21932,7 @@
       <c r="S114" s="137"/>
       <c r="U114" s="11"/>
       <c r="V114" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W114" s="10">
@@ -21805,7 +21945,7 @@
       </c>
       <c r="Y114" s="14">
         <f t="shared" si="9"/>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="Z114" s="15">
         <f t="shared" si="10"/>
@@ -21817,10 +21957,10 @@
         <v>111</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D115" s="12" t="str">
         <f t="shared" si="5"/>
@@ -21841,7 +21981,9 @@
       <c r="J115" s="136">
         <v>4</v>
       </c>
-      <c r="K115" s="137"/>
+      <c r="K115" s="136">
+        <v>4</v>
+      </c>
       <c r="L115" s="137"/>
       <c r="M115" s="137"/>
       <c r="N115" s="137"/>
@@ -21852,7 +21994,7 @@
       <c r="S115" s="137"/>
       <c r="U115" s="11"/>
       <c r="V115" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W115" s="10">
@@ -21865,7 +22007,7 @@
       </c>
       <c r="Y115" s="14">
         <f t="shared" si="9"/>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="Z115" s="15">
         <f t="shared" si="10"/>
@@ -21877,10 +22019,10 @@
         <v>112</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D116" s="12" t="str">
         <f t="shared" si="5"/>
@@ -21901,7 +22043,9 @@
       <c r="J116" s="136">
         <v>5</v>
       </c>
-      <c r="K116" s="137"/>
+      <c r="K116" s="136">
+        <v>5</v>
+      </c>
       <c r="L116" s="137"/>
       <c r="M116" s="137"/>
       <c r="N116" s="137"/>
@@ -21912,7 +22056,7 @@
       <c r="S116" s="137"/>
       <c r="U116" s="11"/>
       <c r="V116" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W116" s="10">
@@ -21925,7 +22069,7 @@
       </c>
       <c r="Y116" s="14">
         <f t="shared" si="9"/>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="Z116" s="15">
         <f t="shared" si="10"/>
@@ -21937,34 +22081,34 @@
         <v>113</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D117" s="179" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>作業中</v>
       </c>
       <c r="E117" s="135">
         <v>43056</v>
       </c>
-      <c r="F117" s="135"/>
+      <c r="F117" s="135">
+        <v>43056</v>
+      </c>
       <c r="G117" s="136">
         <v>6</v>
       </c>
-      <c r="H117" s="136">
-        <v>3</v>
-      </c>
+      <c r="H117" s="136"/>
       <c r="I117" s="175">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J117" s="136">
         <v>5</v>
       </c>
-      <c r="K117" s="137">
-        <v>3</v>
+      <c r="K117" s="208">
+        <v>2</v>
       </c>
       <c r="L117" s="137"/>
       <c r="M117" s="137"/>
@@ -21981,7 +22125,7 @@
       </c>
       <c r="B118" s="17"/>
       <c r="C118" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D118" s="179"/>
       <c r="E118" s="135"/>
@@ -22009,7 +22153,7 @@
       </c>
       <c r="B119" s="17"/>
       <c r="C119" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D119" s="179"/>
       <c r="E119" s="135"/>
@@ -22037,7 +22181,7 @@
       </c>
       <c r="B120" s="17"/>
       <c r="C120" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D120" s="179"/>
       <c r="E120" s="135"/>
@@ -22065,7 +22209,7 @@
       </c>
       <c r="B121" s="17"/>
       <c r="C121" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D121" s="179"/>
       <c r="E121" s="135"/>
@@ -22093,7 +22237,7 @@
       </c>
       <c r="B122" s="17"/>
       <c r="C122" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D122" s="179"/>
       <c r="E122" s="135"/>
@@ -22101,7 +22245,7 @@
       <c r="G122" s="136"/>
       <c r="H122" s="136"/>
       <c r="I122" s="175" t="str">
-        <f t="shared" ref="I122" ca="1" si="11">IF(ISBLANK(J122)=FALSE,OFFSET(I122,0,COUNTA(J122:S122)),"")</f>
+        <f t="shared" ref="I122" ca="1" si="12">IF(ISBLANK(J122)=FALSE,OFFSET(I122,0,COUNTA(J122:S122)),"")</f>
         <v/>
       </c>
       <c r="J122" s="137"/>
@@ -22932,106 +23076,106 @@
       <formula>OR(D117="終了",D117="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59:H82 E89:E115 E83:H104 D83:D116 A5:A122 I59:I122 G90:G115 F108 H108 K108:S108 D5:XFD5 K6:XFD104 D6:I58">
-    <cfRule type="expression" dxfId="5" priority="25" stopIfTrue="1">
+  <conditionalFormatting sqref="D59:H82 E89:E115 E83:H104 D83:D116 A5:A122 I59:I122 G90:G115 F108 H108 K108:S108 K13:XFD18 D6:I58 K53:XFD56 L50:XFD52 K58:XFD61 L57:XFD57 K63:XFD67 L62:XFD62 K83:XFD88 L68:XFD82 K42:XFD49 L19:XFD41 K102:XFD104 L89:XFD101 L5:XFD12 D5:K5">
+    <cfRule type="expression" dxfId="50" priority="25" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="26" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="27" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B106:B65536">
-    <cfRule type="expression" dxfId="50" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="28" stopIfTrue="1">
       <formula>D106="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="29" stopIfTrue="1">
       <formula>D106="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="30" stopIfTrue="1">
       <formula>OR(D106="終了",D106="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C123:C65536">
-    <cfRule type="expression" dxfId="47" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="31" stopIfTrue="1">
       <formula>D123="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="32" stopIfTrue="1">
       <formula>D123="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="33" stopIfTrue="1">
       <formula>OR(D123="終了",D123="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123:S65536 E99:G116 E100:E122 K105:S107 E105:H122 J118:S122 K109:S117">
-    <cfRule type="expression" dxfId="44" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="34" stopIfTrue="1">
       <formula>$D99="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="35" stopIfTrue="1">
       <formula>$D99="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="36" stopIfTrue="1">
       <formula>OR($D99="終了",$D99="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C102 B89:B122 C97:C122">
-    <cfRule type="expression" dxfId="41" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="19" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="20" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="21" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B111">
-    <cfRule type="expression" dxfId="38" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="16" stopIfTrue="1">
       <formula>D110="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="17" stopIfTrue="1">
       <formula>D110="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="18" stopIfTrue="1">
       <formula>OR(D110="終了",D110="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:B122">
-    <cfRule type="expression" dxfId="35" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="13" stopIfTrue="1">
       <formula>D121="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="14" stopIfTrue="1">
       <formula>D121="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="15" stopIfTrue="1">
       <formula>OR(D121="終了",D121="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B105">
-    <cfRule type="expression" dxfId="32" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="10" stopIfTrue="1">
       <formula>D104="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="11" stopIfTrue="1">
       <formula>D104="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="12" stopIfTrue="1">
       <formula>OR(D104="終了",D104="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115:B116">
-    <cfRule type="expression" dxfId="29" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
       <formula>D115="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
       <formula>D115="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="9" stopIfTrue="1">
       <formula>OR(D115="終了",D115="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:J115">
+  <conditionalFormatting sqref="J6:J115 K50:K52 K57 K62 K68:K82 K19:K41 K89:K101 K6:K12 K110:K115">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>$D6="未着手"</formula>
     </cfRule>
@@ -23042,14 +23186,14 @@
       <formula>OR($D6="終了",$D6="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J99:J117 K99:K101">
-    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="J99:J117 K99:K101 K110:L116">
+    <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
       <formula>$D99="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="5" stopIfTrue="1">
       <formula>$D99="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="6" stopIfTrue="1">
       <formula>OR($D99="終了",$D99="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23135,25 +23279,25 @@
       <c r="H2" s="200"/>
       <c r="I2" s="201"/>
       <c r="J2" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="M2" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="N2" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="P2" s="99" t="s">
         <v>69</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="O2" s="99" t="s">
-        <v>70</v>
-      </c>
-      <c r="P2" s="99" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="8" customFormat="1">
@@ -26285,57 +26429,57 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="26" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD104">
-    <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="20" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="17" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:P65536">
-    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="13" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="14" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="15" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27149,13 +27293,13 @@
   <autoFilter ref="B1:K51"/>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="A2:K51">
-    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>$D2="要望"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>$D2="確認済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>$D2="対応"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/タスク/07班スプリントバックログ.xlsx
+++ b/タスク/07班スプリントバックログ.xlsx
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="252">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -2693,9 +2693,77 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>動物のアニメーション</t>
+    <t>追加タスク</t>
     <rPh sb="0" eb="2">
-      <t>ドウブツ</t>
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アニメーションタスク</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>牛のアニメーション作成</t>
+    <rPh sb="0" eb="1">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>豚のアニメーション作成</t>
+    <rPh sb="0" eb="1">
+      <t>ブタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>魚のアニメーション作成</t>
+    <rPh sb="0" eb="1">
+      <t>サカナ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>闘牛のアニメーション作成</t>
+    <rPh sb="0" eb="2">
+      <t>トウギュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>齋藤</t>
+    <rPh sb="0" eb="2">
+      <t>サイトウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仮BGMと仮SE</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>志村</t>
+    <rPh sb="0" eb="2">
+      <t>シムラ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -2890,7 +2958,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2948,6 +3016,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3586,7 +3660,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4106,8 +4180,9 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4191,9 +4266,38 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4203,28 +4307,7 @@
     <cellStyle name="標準_チーム編成" xfId="2"/>
     <cellStyle name="標準_バグシート" xfId="3"/>
   </cellStyles>
-  <dxfs count="87">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
+  <dxfs count="90">
     <dxf>
       <font>
         <condense val="0"/>
@@ -4385,6 +4468,27 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="55"/>
       </font>
     </dxf>
@@ -4408,6 +4512,27 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -6346,10 +6471,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>181.2</c:v>
+                  <c:v>180.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>156.19999999999999</c:v>
+                  <c:v>153.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6429,16 +6557,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>181</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>158</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>113</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>90</c:v>
@@ -6880,7 +7008,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>β版!$U$107:$U$116</c:f>
+              <c:f>β版!$U$106:$U$115</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -6903,24 +7031,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>β版!$W$107:$W$116</c:f>
+              <c:f>β版!$W$106:$W$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.200000000000003</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -7014,7 +7142,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>β版!$U$107:$U$116</c:f>
+              <c:f>β版!$U$106:$U$115</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -7037,7 +7165,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>β版!$X$107:$X$116</c:f>
+              <c:f>β版!$X$106:$X$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7045,13 +7173,13 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.8</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -7148,12 +7276,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>β版!$V$107:$V$116</c:f>
+              <c:f>β版!$V$106:$V$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>49</c:v>
@@ -7162,7 +7290,7 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>40</c:v>
@@ -7196,7 +7324,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>β版!$Z$106</c:f>
+              <c:f>β版!$Z$105</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7261,7 +7389,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>β版!$Z$107:$Z$116</c:f>
+              <c:f>β版!$Z$106:$Z$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7272,13 +7400,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2000000000000028</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -17251,123 +17379,123 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D158:D65536">
-    <cfRule type="expression" dxfId="86" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="16" stopIfTrue="1">
       <formula>D158="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="17" stopIfTrue="1">
       <formula>D158="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="18" stopIfTrue="1">
       <formula>OR(D158="終了",D158="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A157 B105:B111 C101:XFD101 D92:XFD100 B113:P157 B102:XFD103 C111:P112 C105:M110 O105:P110 B104:M104 O104:XFD104 N104:N110 E86:R87 T86:XFD87 E88:XFD91 E5:XFD85">
-    <cfRule type="expression" dxfId="83" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="19" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="20" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="21" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:B65536">
-    <cfRule type="expression" dxfId="80" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="22" stopIfTrue="1">
       <formula>D158="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="23" stopIfTrue="1">
       <formula>D158="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="24" stopIfTrue="1">
       <formula>OR(D158="終了",D158="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C158:C65536">
-    <cfRule type="expression" dxfId="77" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="25" stopIfTrue="1">
       <formula>D158="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="26" stopIfTrue="1">
       <formula>D158="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="27" stopIfTrue="1">
       <formula>OR(D158="終了",D158="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158:P65536">
-    <cfRule type="expression" dxfId="74" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="28" stopIfTrue="1">
       <formula>$D158="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="29" stopIfTrue="1">
       <formula>$D158="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="30" stopIfTrue="1">
       <formula>OR($D158="終了",$D158="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B8 B15:B101">
-    <cfRule type="expression" dxfId="71" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="13" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="14" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="15" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D91">
-    <cfRule type="expression" dxfId="68" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="10" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="11" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="12" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C100">
-    <cfRule type="expression" dxfId="65" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="7" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="8" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="9" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B14">
-    <cfRule type="expression" dxfId="62" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="4" stopIfTrue="1">
       <formula>$D9="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="5" stopIfTrue="1">
       <formula>$D9="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="6" stopIfTrue="1">
       <formula>OR($D9="終了",$D9="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112">
-    <cfRule type="expression" dxfId="59" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="1" stopIfTrue="1">
       <formula>$D112="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="2" stopIfTrue="1">
       <formula>$D112="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="3" stopIfTrue="1">
       <formula>OR($D112="終了",$D112="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S87">
-    <cfRule type="expression" dxfId="56" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="34" stopIfTrue="1">
       <formula>$D86="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="35" stopIfTrue="1">
       <formula>$D86="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="36" stopIfTrue="1">
       <formula>OR($D86="終了",$D86="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17381,10 +17509,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z188"/>
+  <dimension ref="A1:Z187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16:S28"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17494,11 +17622,11 @@
       <c r="I3" s="201"/>
       <c r="J3" s="20">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$S$2))))</f>
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K3" s="20">
-        <f t="shared" ref="K3:S3" si="0">INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$S$2))))</f>
-        <v>158</v>
+        <f t="shared" ref="K3:Q3" si="0">INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$S$2))))</f>
+        <v>157</v>
       </c>
       <c r="L3" s="20">
         <f t="shared" si="0"/>
@@ -17506,7 +17634,7 @@
       </c>
       <c r="M3" s="20">
         <f t="shared" si="0"/>
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N3" s="20">
         <f t="shared" si="0"/>
@@ -17538,14 +17666,17 @@
       <c r="H4" s="200"/>
       <c r="I4" s="201"/>
       <c r="J4" s="21">
-        <f>SUM(J5:J122)</f>
-        <v>181.2</v>
+        <f>SUM(J5:J126)</f>
+        <v>180.2</v>
       </c>
       <c r="K4" s="21">
-        <f>SUM(K5:K122)</f>
-        <v>156.19999999999999</v>
-      </c>
-      <c r="L4" s="21"/>
+        <f>SUM(K5:K126)</f>
+        <v>153.19999999999999</v>
+      </c>
+      <c r="L4" s="21">
+        <f>SUM(L5:L126)</f>
+        <v>139</v>
+      </c>
       <c r="M4" s="21"/>
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
@@ -17619,7 +17750,9 @@
       <c r="K6" s="19">
         <v>6</v>
       </c>
-      <c r="L6" s="22"/>
+      <c r="L6" s="19">
+        <v>6</v>
+      </c>
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
@@ -17652,7 +17785,7 @@
       </c>
       <c r="J7" s="145"/>
       <c r="K7" s="145"/>
-      <c r="L7" s="146"/>
+      <c r="L7" s="145"/>
       <c r="M7" s="146"/>
       <c r="N7" s="146"/>
       <c r="O7" s="146"/>
@@ -17693,7 +17826,9 @@
       <c r="K8" s="19">
         <v>6</v>
       </c>
-      <c r="L8" s="22"/>
+      <c r="L8" s="19">
+        <v>6</v>
+      </c>
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
@@ -17726,7 +17861,7 @@
       </c>
       <c r="J9" s="145"/>
       <c r="K9" s="145"/>
-      <c r="L9" s="146"/>
+      <c r="L9" s="145"/>
       <c r="M9" s="146"/>
       <c r="N9" s="146"/>
       <c r="O9" s="146"/>
@@ -17769,7 +17904,9 @@
       <c r="K10" s="19">
         <v>0</v>
       </c>
-      <c r="L10" s="22"/>
+      <c r="L10" s="19">
+        <v>0</v>
+      </c>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
@@ -17810,7 +17947,9 @@
       <c r="K11" s="19">
         <v>6</v>
       </c>
-      <c r="L11" s="22"/>
+      <c r="L11" s="19">
+        <v>6</v>
+      </c>
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
@@ -17946,36 +18085,21 @@
       <c r="A15" s="16">
         <v>11</v>
       </c>
-      <c r="B15" s="86" t="s">
-        <v>243</v>
-      </c>
+      <c r="B15" s="86"/>
       <c r="C15" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>作業中</v>
-      </c>
-      <c r="E15" s="4">
-        <v>43056</v>
-      </c>
-      <c r="F15" s="4">
-        <v>43056</v>
-      </c>
-      <c r="G15" s="19">
-        <v>15</v>
-      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="19"/>
-      <c r="I15" s="12">
+      <c r="I15" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="J15" s="19">
-        <v>15</v>
-      </c>
-      <c r="K15" s="22">
-        <v>15</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="K15" s="22"/>
       <c r="L15" s="22"/>
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
@@ -18116,7 +18240,9 @@
       <c r="K19" s="19">
         <v>0</v>
       </c>
-      <c r="L19" s="22"/>
+      <c r="L19" s="19">
+        <v>0</v>
+      </c>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
@@ -18137,7 +18263,7 @@
       </c>
       <c r="D20" s="12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="E20" s="4">
         <v>43053</v>
@@ -18149,11 +18275,11 @@
         <v>5</v>
       </c>
       <c r="H20" s="19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I20" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" s="19">
         <v>4</v>
@@ -18161,7 +18287,9 @@
       <c r="K20" s="19">
         <v>2</v>
       </c>
-      <c r="L20" s="22"/>
+      <c r="L20" s="19">
+        <v>0</v>
+      </c>
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
@@ -18182,7 +18310,7 @@
       </c>
       <c r="D21" s="12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="E21" s="4">
         <v>43053</v>
@@ -18194,11 +18322,11 @@
         <v>2</v>
       </c>
       <c r="H21" s="19">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I21" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J21" s="19">
         <v>0.2</v>
@@ -18206,7 +18334,9 @@
       <c r="K21" s="19">
         <v>0.2</v>
       </c>
-      <c r="L21" s="22"/>
+      <c r="L21" s="19">
+        <v>0</v>
+      </c>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
@@ -18247,7 +18377,9 @@
       <c r="K22" s="19">
         <v>2</v>
       </c>
-      <c r="L22" s="22"/>
+      <c r="L22" s="19">
+        <v>2</v>
+      </c>
       <c r="M22" s="22"/>
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
@@ -18288,7 +18420,9 @@
       <c r="K23" s="19">
         <v>4</v>
       </c>
-      <c r="L23" s="22"/>
+      <c r="L23" s="19">
+        <v>4</v>
+      </c>
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
@@ -18333,7 +18467,9 @@
       <c r="K24" s="19">
         <v>0</v>
       </c>
-      <c r="L24" s="22"/>
+      <c r="L24" s="19">
+        <v>0</v>
+      </c>
       <c r="M24" s="22"/>
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
@@ -18364,7 +18500,7 @@
       </c>
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
-      <c r="L25" s="22"/>
+      <c r="L25" s="19"/>
       <c r="M25" s="22"/>
       <c r="N25" s="22"/>
       <c r="O25" s="22"/>
@@ -18384,20 +18520,24 @@
         <v>108</v>
       </c>
       <c r="D26" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
       </c>
       <c r="E26" s="4">
         <v>43060</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="4">
+        <v>43060</v>
+      </c>
       <c r="G26" s="19">
         <v>4</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="19">
+        <v>1</v>
+      </c>
       <c r="I26" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J26" s="19">
         <v>4</v>
@@ -18405,7 +18545,9 @@
       <c r="K26" s="19">
         <v>4</v>
       </c>
-      <c r="L26" s="22"/>
+      <c r="L26" s="19">
+        <v>1</v>
+      </c>
       <c r="M26" s="22"/>
       <c r="N26" s="22"/>
       <c r="O26" s="22"/>
@@ -18438,7 +18580,7 @@
       </c>
       <c r="J27" s="145"/>
       <c r="K27" s="145"/>
-      <c r="L27" s="146"/>
+      <c r="L27" s="145"/>
       <c r="M27" s="146"/>
       <c r="N27" s="146"/>
       <c r="O27" s="146"/>
@@ -18479,7 +18621,9 @@
       <c r="K28" s="19">
         <v>3</v>
       </c>
-      <c r="L28" s="22"/>
+      <c r="L28" s="19">
+        <v>3</v>
+      </c>
       <c r="M28" s="22"/>
       <c r="N28" s="22"/>
       <c r="O28" s="22"/>
@@ -18520,7 +18664,9 @@
       <c r="K29" s="19">
         <v>2</v>
       </c>
-      <c r="L29" s="22"/>
+      <c r="L29" s="19">
+        <v>2</v>
+      </c>
       <c r="M29" s="22"/>
       <c r="N29" s="22"/>
       <c r="O29" s="22"/>
@@ -18561,7 +18707,9 @@
       <c r="K30" s="19">
         <v>4</v>
       </c>
-      <c r="L30" s="22"/>
+      <c r="L30" s="19">
+        <v>4</v>
+      </c>
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
       <c r="O30" s="22"/>
@@ -18594,7 +18742,7 @@
       </c>
       <c r="J31" s="145"/>
       <c r="K31" s="145"/>
-      <c r="L31" s="146"/>
+      <c r="L31" s="145"/>
       <c r="M31" s="146"/>
       <c r="N31" s="146"/>
       <c r="O31" s="146"/>
@@ -18635,7 +18783,9 @@
       <c r="K32" s="19">
         <v>1</v>
       </c>
-      <c r="L32" s="22"/>
+      <c r="L32" s="19">
+        <v>1</v>
+      </c>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -18676,7 +18826,9 @@
       <c r="K33" s="19">
         <v>3</v>
       </c>
-      <c r="L33" s="22"/>
+      <c r="L33" s="19">
+        <v>3</v>
+      </c>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -18709,7 +18861,7 @@
       </c>
       <c r="J34" s="145"/>
       <c r="K34" s="145"/>
-      <c r="L34" s="146"/>
+      <c r="L34" s="145"/>
       <c r="M34" s="146"/>
       <c r="N34" s="146"/>
       <c r="O34" s="146"/>
@@ -18730,7 +18882,7 @@
       </c>
       <c r="D35" s="12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="E35" s="4">
         <v>43063</v>
@@ -18746,7 +18898,7 @@
       </c>
       <c r="I35" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="19">
         <v>1</v>
@@ -18754,7 +18906,9 @@
       <c r="K35" s="19">
         <v>1</v>
       </c>
-      <c r="L35" s="22"/>
+      <c r="L35" s="19">
+        <v>0</v>
+      </c>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -18787,7 +18941,7 @@
       </c>
       <c r="J36" s="145"/>
       <c r="K36" s="145"/>
-      <c r="L36" s="146"/>
+      <c r="L36" s="145"/>
       <c r="M36" s="146"/>
       <c r="N36" s="146"/>
       <c r="O36" s="146"/>
@@ -18828,7 +18982,9 @@
       <c r="K37" s="19">
         <v>3</v>
       </c>
-      <c r="L37" s="22"/>
+      <c r="L37" s="19">
+        <v>3</v>
+      </c>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -18869,7 +19025,9 @@
       <c r="K38" s="19">
         <v>2</v>
       </c>
-      <c r="L38" s="22"/>
+      <c r="L38" s="19">
+        <v>2</v>
+      </c>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -18910,7 +19068,9 @@
       <c r="K39" s="19">
         <v>2</v>
       </c>
-      <c r="L39" s="22"/>
+      <c r="L39" s="19">
+        <v>2</v>
+      </c>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -18951,7 +19111,9 @@
       <c r="K40" s="19">
         <v>1</v>
       </c>
-      <c r="L40" s="22"/>
+      <c r="L40" s="19">
+        <v>1</v>
+      </c>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -18992,7 +19154,9 @@
       <c r="K41" s="19">
         <v>4</v>
       </c>
-      <c r="L41" s="22"/>
+      <c r="L41" s="19">
+        <v>4</v>
+      </c>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -19283,7 +19447,9 @@
       <c r="K50" s="19">
         <v>2</v>
       </c>
-      <c r="L50" s="22"/>
+      <c r="L50" s="22">
+        <v>2</v>
+      </c>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -19324,7 +19490,9 @@
       <c r="K51" s="19">
         <v>3</v>
       </c>
-      <c r="L51" s="22"/>
+      <c r="L51" s="22">
+        <v>3</v>
+      </c>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -19365,7 +19533,9 @@
       <c r="K52" s="19">
         <v>1</v>
       </c>
-      <c r="L52" s="22"/>
+      <c r="L52" s="22">
+        <v>1</v>
+      </c>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -19440,9 +19610,7 @@
       <c r="J54" s="19">
         <v>0</v>
       </c>
-      <c r="K54" s="22">
-        <v>0</v>
-      </c>
+      <c r="K54" s="22"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -19485,9 +19653,7 @@
       <c r="J55" s="19">
         <v>0</v>
       </c>
-      <c r="K55" s="22">
-        <v>0</v>
-      </c>
+      <c r="K55" s="22"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -19530,9 +19696,7 @@
       <c r="J56" s="19">
         <v>0</v>
       </c>
-      <c r="K56" s="22">
-        <v>0</v>
-      </c>
+      <c r="K56" s="22"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
@@ -19574,7 +19738,9 @@
       <c r="K57" s="19">
         <v>1</v>
       </c>
-      <c r="L57" s="22"/>
+      <c r="L57" s="22">
+        <v>1</v>
+      </c>
       <c r="M57" s="22"/>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
@@ -19602,7 +19768,7 @@
       <c r="G58" s="145"/>
       <c r="H58" s="145"/>
       <c r="I58" s="143" t="str">
-        <f t="shared" ref="I58:I121" ca="1" si="4">IF(ISBLANK(J58)=FALSE,OFFSET(I58,0,COUNTA(J58:S58)),"")</f>
+        <f t="shared" ref="I58:J121" ca="1" si="4">IF(ISBLANK(J58)=FALSE,OFFSET(I58,0,COUNTA(J58:S58)),"")</f>
         <v/>
       </c>
       <c r="J58" s="145"/>
@@ -19628,7 +19794,7 @@
       </c>
       <c r="D59" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="E59" s="4">
         <v>43060</v>
@@ -19640,11 +19806,11 @@
         <v>3</v>
       </c>
       <c r="H59" s="19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I59" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" s="19">
         <v>3</v>
@@ -19652,7 +19818,9 @@
       <c r="K59" s="22">
         <v>1</v>
       </c>
-      <c r="L59" s="22"/>
+      <c r="L59" s="22">
+        <v>0</v>
+      </c>
       <c r="M59" s="22"/>
       <c r="N59" s="22"/>
       <c r="O59" s="22"/>
@@ -19694,9 +19862,7 @@
       <c r="J60" s="19">
         <v>0</v>
       </c>
-      <c r="K60" s="22">
-        <v>0</v>
-      </c>
+      <c r="K60" s="22"/>
       <c r="L60" s="22"/>
       <c r="M60" s="22"/>
       <c r="N60" s="22"/>
@@ -19739,9 +19905,7 @@
       <c r="J61" s="19">
         <v>0</v>
       </c>
-      <c r="K61" s="22">
-        <v>0</v>
-      </c>
+      <c r="K61" s="22"/>
       <c r="L61" s="22"/>
       <c r="M61" s="22"/>
       <c r="N61" s="22"/>
@@ -19783,7 +19947,9 @@
       <c r="K62" s="19">
         <v>1</v>
       </c>
-      <c r="L62" s="22"/>
+      <c r="L62" s="22">
+        <v>1</v>
+      </c>
       <c r="M62" s="22"/>
       <c r="N62" s="22"/>
       <c r="O62" s="22"/>
@@ -19825,10 +19991,12 @@
       <c r="J63" s="19">
         <v>0</v>
       </c>
-      <c r="K63" s="22">
-        <v>0</v>
-      </c>
-      <c r="L63" s="22"/>
+      <c r="K63" s="19">
+        <v>0</v>
+      </c>
+      <c r="L63" s="19">
+        <v>0</v>
+      </c>
       <c r="M63" s="22"/>
       <c r="N63" s="22"/>
       <c r="O63" s="22"/>
@@ -19848,7 +20016,7 @@
         <v>107</v>
       </c>
       <c r="D64" s="12" t="str">
-        <f t="shared" ref="D64:D117" ca="1" si="5">IF(ISBLANK($B64),"",IF(ISBLANK($F64),"未着手",IF($I64=0,"完了","作業中")))</f>
+        <f t="shared" ref="D64:D126" ca="1" si="5">IF(ISBLANK($B64),"",IF(ISBLANK($F64),"未着手",IF($I64=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="E64" s="4">
@@ -19870,10 +20038,12 @@
       <c r="J64" s="19">
         <v>0</v>
       </c>
-      <c r="K64" s="22">
-        <v>0</v>
-      </c>
-      <c r="L64" s="22"/>
+      <c r="K64" s="19">
+        <v>0</v>
+      </c>
+      <c r="L64" s="19">
+        <v>0</v>
+      </c>
       <c r="M64" s="22"/>
       <c r="N64" s="22"/>
       <c r="O64" s="22"/>
@@ -19905,8 +20075,8 @@
         <v/>
       </c>
       <c r="J65" s="145"/>
-      <c r="K65" s="146"/>
-      <c r="L65" s="146"/>
+      <c r="K65" s="145"/>
+      <c r="L65" s="145"/>
       <c r="M65" s="146"/>
       <c r="N65" s="146"/>
       <c r="O65" s="146"/>
@@ -19948,10 +20118,12 @@
       <c r="J66" s="19">
         <v>0</v>
       </c>
-      <c r="K66" s="22">
-        <v>0</v>
-      </c>
-      <c r="L66" s="22"/>
+      <c r="K66" s="19">
+        <v>0</v>
+      </c>
+      <c r="L66" s="19">
+        <v>0</v>
+      </c>
       <c r="M66" s="22"/>
       <c r="N66" s="22"/>
       <c r="O66" s="22"/>
@@ -19993,10 +20165,12 @@
       <c r="J67" s="19">
         <v>0</v>
       </c>
-      <c r="K67" s="22">
-        <v>0</v>
-      </c>
-      <c r="L67" s="22"/>
+      <c r="K67" s="19">
+        <v>0</v>
+      </c>
+      <c r="L67" s="19">
+        <v>0</v>
+      </c>
       <c r="M67" s="22"/>
       <c r="N67" s="22"/>
       <c r="O67" s="22"/>
@@ -20037,7 +20211,9 @@
       <c r="K68" s="19">
         <v>1</v>
       </c>
-      <c r="L68" s="22"/>
+      <c r="L68" s="22">
+        <v>1</v>
+      </c>
       <c r="M68" s="22"/>
       <c r="N68" s="22"/>
       <c r="O68" s="22"/>
@@ -20078,7 +20254,9 @@
       <c r="K69" s="19">
         <v>2</v>
       </c>
-      <c r="L69" s="22"/>
+      <c r="L69" s="22">
+        <v>2</v>
+      </c>
       <c r="M69" s="22"/>
       <c r="N69" s="22"/>
       <c r="O69" s="22"/>
@@ -20152,7 +20330,9 @@
       <c r="K71" s="19">
         <v>3</v>
       </c>
-      <c r="L71" s="22"/>
+      <c r="L71" s="22">
+        <v>3</v>
+      </c>
       <c r="M71" s="22"/>
       <c r="N71" s="22"/>
       <c r="O71" s="22"/>
@@ -20193,7 +20373,9 @@
       <c r="K72" s="19">
         <v>3</v>
       </c>
-      <c r="L72" s="22"/>
+      <c r="L72" s="22">
+        <v>3</v>
+      </c>
       <c r="M72" s="22"/>
       <c r="N72" s="22"/>
       <c r="O72" s="22"/>
@@ -20267,7 +20449,9 @@
       <c r="K74" s="19">
         <v>3</v>
       </c>
-      <c r="L74" s="22"/>
+      <c r="L74" s="22">
+        <v>3</v>
+      </c>
       <c r="M74" s="22"/>
       <c r="N74" s="22"/>
       <c r="O74" s="22"/>
@@ -20341,7 +20525,9 @@
       <c r="K76" s="19">
         <v>3</v>
       </c>
-      <c r="L76" s="22"/>
+      <c r="L76" s="22">
+        <v>3</v>
+      </c>
       <c r="M76" s="22"/>
       <c r="N76" s="22"/>
       <c r="O76" s="22"/>
@@ -20394,20 +20580,24 @@
         <v>107</v>
       </c>
       <c r="D78" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>完了</v>
       </c>
       <c r="E78" s="4">
         <v>43077</v>
       </c>
-      <c r="F78" s="4"/>
+      <c r="F78" s="4">
+        <v>43060</v>
+      </c>
       <c r="G78" s="19">
         <v>1</v>
       </c>
-      <c r="H78" s="19"/>
+      <c r="H78" s="19">
+        <v>1</v>
+      </c>
       <c r="I78" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" s="19">
         <v>1</v>
@@ -20415,7 +20605,9 @@
       <c r="K78" s="19">
         <v>1</v>
       </c>
-      <c r="L78" s="22"/>
+      <c r="L78" s="22">
+        <v>0</v>
+      </c>
       <c r="M78" s="22"/>
       <c r="N78" s="22"/>
       <c r="O78" s="22"/>
@@ -20435,20 +20627,24 @@
         <v>107</v>
       </c>
       <c r="D79" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>完了</v>
       </c>
       <c r="E79" s="4">
         <v>43077</v>
       </c>
-      <c r="F79" s="4"/>
+      <c r="F79" s="4">
+        <v>43060</v>
+      </c>
       <c r="G79" s="19">
         <v>1</v>
       </c>
-      <c r="H79" s="19"/>
+      <c r="H79" s="19">
+        <v>1</v>
+      </c>
       <c r="I79" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" s="19">
         <v>1</v>
@@ -20456,7 +20652,9 @@
       <c r="K79" s="19">
         <v>1</v>
       </c>
-      <c r="L79" s="22"/>
+      <c r="L79" s="22">
+        <v>0</v>
+      </c>
       <c r="M79" s="22"/>
       <c r="N79" s="22"/>
       <c r="O79" s="22"/>
@@ -20509,20 +20707,24 @@
         <v>107</v>
       </c>
       <c r="D81" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>完了</v>
       </c>
       <c r="E81" s="4">
         <v>43077</v>
       </c>
-      <c r="F81" s="4"/>
+      <c r="F81" s="4">
+        <v>43060</v>
+      </c>
       <c r="G81" s="19">
         <v>1</v>
       </c>
-      <c r="H81" s="19"/>
+      <c r="H81" s="19">
+        <v>1</v>
+      </c>
       <c r="I81" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" s="19">
         <v>1</v>
@@ -20530,7 +20732,9 @@
       <c r="K81" s="19">
         <v>1</v>
       </c>
-      <c r="L81" s="22"/>
+      <c r="L81" s="22">
+        <v>0</v>
+      </c>
       <c r="M81" s="22"/>
       <c r="N81" s="22"/>
       <c r="O81" s="22"/>
@@ -20550,20 +20754,22 @@
         <v>107</v>
       </c>
       <c r="D82" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>作業中</v>
       </c>
       <c r="E82" s="4">
         <v>43066</v>
       </c>
-      <c r="F82" s="4"/>
+      <c r="F82" s="4">
+        <v>43060</v>
+      </c>
       <c r="G82" s="19">
         <v>6</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J82" s="19">
         <v>6</v>
@@ -20571,7 +20777,9 @@
       <c r="K82" s="19">
         <v>6</v>
       </c>
-      <c r="L82" s="22"/>
+      <c r="L82" s="22">
+        <v>5</v>
+      </c>
       <c r="M82" s="22"/>
       <c r="N82" s="22"/>
       <c r="O82" s="22"/>
@@ -20633,7 +20841,7 @@
       </c>
       <c r="J84" s="163"/>
       <c r="K84" s="164"/>
-      <c r="L84" s="164"/>
+      <c r="L84" s="158"/>
       <c r="M84" s="164"/>
       <c r="N84" s="164"/>
       <c r="O84" s="164"/>
@@ -20664,7 +20872,7 @@
       </c>
       <c r="J85" s="163"/>
       <c r="K85" s="164"/>
-      <c r="L85" s="164"/>
+      <c r="L85" s="158"/>
       <c r="M85" s="164"/>
       <c r="N85" s="164"/>
       <c r="O85" s="164"/>
@@ -20695,7 +20903,7 @@
       </c>
       <c r="J86" s="163"/>
       <c r="K86" s="164"/>
-      <c r="L86" s="164"/>
+      <c r="L86" s="158"/>
       <c r="M86" s="164"/>
       <c r="N86" s="164"/>
       <c r="O86" s="164"/>
@@ -20726,7 +20934,7 @@
       </c>
       <c r="J87" s="163"/>
       <c r="K87" s="164"/>
-      <c r="L87" s="164"/>
+      <c r="L87" s="158"/>
       <c r="M87" s="164"/>
       <c r="N87" s="164"/>
       <c r="O87" s="164"/>
@@ -20757,7 +20965,7 @@
       </c>
       <c r="J88" s="163"/>
       <c r="K88" s="164"/>
-      <c r="L88" s="164"/>
+      <c r="L88" s="158"/>
       <c r="M88" s="164"/>
       <c r="N88" s="164"/>
       <c r="O88" s="164"/>
@@ -20790,7 +20998,7 @@
       </c>
       <c r="J89" s="145"/>
       <c r="K89" s="145"/>
-      <c r="L89" s="170"/>
+      <c r="L89" s="145"/>
       <c r="M89" s="170"/>
       <c r="N89" s="170"/>
       <c r="O89" s="170"/>
@@ -20833,7 +21041,9 @@
       <c r="K90" s="151">
         <v>1</v>
       </c>
-      <c r="L90" s="152"/>
+      <c r="L90" s="158">
+        <v>1</v>
+      </c>
       <c r="M90" s="152"/>
       <c r="N90" s="152"/>
       <c r="O90" s="152"/>
@@ -20878,7 +21088,7 @@
       <c r="K91" s="151">
         <v>0</v>
       </c>
-      <c r="L91" s="152"/>
+      <c r="L91" s="158"/>
       <c r="M91" s="152"/>
       <c r="N91" s="152"/>
       <c r="O91" s="152"/>
@@ -20899,7 +21109,7 @@
       </c>
       <c r="D92" s="149" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="E92" s="150">
         <v>43053</v>
@@ -20910,18 +21120,20 @@
       <c r="G92" s="151">
         <v>2</v>
       </c>
-      <c r="H92" s="151"/>
+      <c r="H92" s="151">
+        <v>2</v>
+      </c>
       <c r="I92" s="149">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" s="151">
         <v>1</v>
       </c>
       <c r="K92" s="151">
-        <v>1</v>
-      </c>
-      <c r="L92" s="152"/>
+        <v>0</v>
+      </c>
+      <c r="L92" s="158"/>
       <c r="M92" s="152"/>
       <c r="N92" s="152"/>
       <c r="O92" s="152"/>
@@ -20932,115 +21144,117 @@
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="16">
-        <v>89</v>
-      </c>
-      <c r="B93" s="147" t="s">
-        <v>174</v>
-      </c>
-      <c r="C93" s="148" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93" s="138" t="s">
+        <v>223</v>
+      </c>
+      <c r="C93" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="D93" s="149" t="str">
+      <c r="D93" s="143" t="str">
+        <f t="shared" si="5"/>
+        <v>未着手</v>
+      </c>
+      <c r="E93" s="144"/>
+      <c r="F93" s="144"/>
+      <c r="G93" s="145"/>
+      <c r="H93" s="145"/>
+      <c r="I93" s="143" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J93" s="145"/>
+      <c r="K93" s="145"/>
+      <c r="L93" s="145"/>
+      <c r="M93" s="146"/>
+      <c r="N93" s="146"/>
+      <c r="O93" s="146"/>
+      <c r="P93" s="146"/>
+      <c r="Q93" s="146"/>
+      <c r="R93" s="146"/>
+      <c r="S93" s="146"/>
+    </row>
+    <row r="94" spans="1:19">
+      <c r="A94" s="16">
+        <v>91</v>
+      </c>
+      <c r="B94" s="147" t="s">
+        <v>175</v>
+      </c>
+      <c r="C94" s="148" t="s">
+        <v>109</v>
+      </c>
+      <c r="D94" s="149" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>作業中</v>
       </c>
-      <c r="E93" s="150">
+      <c r="E94" s="150">
+        <v>43060</v>
+      </c>
+      <c r="F94" s="150">
         <v>43056</v>
       </c>
-      <c r="F93" s="150">
-        <v>43056</v>
-      </c>
-      <c r="G93" s="151">
-        <v>2</v>
-      </c>
-      <c r="H93" s="151"/>
-      <c r="I93" s="149">
+      <c r="G94" s="151">
+        <v>3</v>
+      </c>
+      <c r="H94" s="151"/>
+      <c r="I94" s="149">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J93" s="151">
-        <v>2</v>
-      </c>
-      <c r="K93" s="151">
-        <v>2</v>
-      </c>
-      <c r="L93" s="152"/>
-      <c r="M93" s="152"/>
-      <c r="N93" s="152"/>
-      <c r="O93" s="152"/>
-      <c r="P93" s="152"/>
-      <c r="Q93" s="152"/>
-      <c r="R93" s="152"/>
-      <c r="S93" s="152"/>
-    </row>
-    <row r="94" spans="1:19">
-      <c r="A94" s="16">
-        <v>90</v>
-      </c>
-      <c r="B94" s="138" t="s">
-        <v>223</v>
-      </c>
-      <c r="C94" s="142" t="s">
+        <v>1</v>
+      </c>
+      <c r="J94" s="151">
+        <v>3</v>
+      </c>
+      <c r="K94" s="151">
+        <v>1</v>
+      </c>
+      <c r="L94" s="158">
+        <v>1</v>
+      </c>
+      <c r="M94" s="152"/>
+      <c r="N94" s="152"/>
+      <c r="O94" s="152"/>
+      <c r="P94" s="152"/>
+      <c r="Q94" s="152"/>
+      <c r="R94" s="152"/>
+      <c r="S94" s="152"/>
+    </row>
+    <row r="95" spans="1:19">
+      <c r="A95" s="16">
+        <v>92</v>
+      </c>
+      <c r="B95" s="147" t="s">
+        <v>176</v>
+      </c>
+      <c r="C95" s="148" t="s">
         <v>109</v>
       </c>
-      <c r="D94" s="143" t="str">
+      <c r="D95" s="149" t="str">
         <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
-      <c r="E94" s="144"/>
-      <c r="F94" s="144"/>
-      <c r="G94" s="145"/>
-      <c r="H94" s="145"/>
-      <c r="I94" s="143" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="J94" s="145"/>
-      <c r="K94" s="145"/>
-      <c r="L94" s="146"/>
-      <c r="M94" s="146"/>
-      <c r="N94" s="146"/>
-      <c r="O94" s="146"/>
-      <c r="P94" s="146"/>
-      <c r="Q94" s="146"/>
-      <c r="R94" s="146"/>
-      <c r="S94" s="146"/>
-    </row>
-    <row r="95" spans="1:19">
-      <c r="A95" s="16">
-        <v>91</v>
-      </c>
-      <c r="B95" s="147" t="s">
-        <v>175</v>
-      </c>
-      <c r="C95" s="148" t="s">
-        <v>109</v>
-      </c>
-      <c r="D95" s="149" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>作業中</v>
-      </c>
       <c r="E95" s="150">
-        <v>43060</v>
-      </c>
-      <c r="F95" s="150">
-        <v>43056</v>
-      </c>
+        <v>43063</v>
+      </c>
+      <c r="F95" s="150"/>
       <c r="G95" s="151">
         <v>3</v>
       </c>
       <c r="H95" s="151"/>
       <c r="I95" s="149">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J95" s="151">
         <v>3</v>
       </c>
       <c r="K95" s="151">
-        <v>2</v>
-      </c>
-      <c r="L95" s="152"/>
+        <v>3</v>
+      </c>
+      <c r="L95" s="158">
+        <v>3</v>
+      </c>
       <c r="M95" s="152"/>
       <c r="N95" s="152"/>
       <c r="O95" s="152"/>
@@ -21051,37 +21265,41 @@
     </row>
     <row r="96" spans="1:19">
       <c r="A96" s="16">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B96" s="147" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C96" s="148" t="s">
         <v>109</v>
       </c>
       <c r="D96" s="149" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>完了</v>
       </c>
       <c r="E96" s="150">
-        <v>43063</v>
-      </c>
-      <c r="F96" s="150"/>
+        <v>43056</v>
+      </c>
+      <c r="F96" s="150">
+        <v>43056</v>
+      </c>
       <c r="G96" s="151">
-        <v>3</v>
-      </c>
-      <c r="H96" s="151"/>
+        <v>2</v>
+      </c>
+      <c r="H96" s="151">
+        <v>1</v>
+      </c>
       <c r="I96" s="149">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J96" s="151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K96" s="151">
-        <v>3</v>
-      </c>
-      <c r="L96" s="152"/>
+        <v>0</v>
+      </c>
+      <c r="L96" s="158"/>
       <c r="M96" s="152"/>
       <c r="N96" s="152"/>
       <c r="O96" s="152"/>
@@ -21092,39 +21310,39 @@
     </row>
     <row r="97" spans="1:26">
       <c r="A97" s="16">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B97" s="147" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C97" s="148" t="s">
         <v>109</v>
       </c>
       <c r="D97" s="149" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>完了</v>
+        <f t="shared" si="5"/>
+        <v>未着手</v>
       </c>
       <c r="E97" s="150">
-        <v>43056</v>
-      </c>
-      <c r="F97" s="150">
-        <v>43056</v>
-      </c>
+        <v>43063</v>
+      </c>
+      <c r="F97" s="150"/>
       <c r="G97" s="151">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H97" s="151"/>
       <c r="I97" s="149">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J97" s="151">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K97" s="151">
-        <v>0</v>
-      </c>
-      <c r="L97" s="152"/>
+        <v>4</v>
+      </c>
+      <c r="L97" s="158">
+        <v>4</v>
+      </c>
       <c r="M97" s="152"/>
       <c r="N97" s="152"/>
       <c r="O97" s="152"/>
@@ -21135,10 +21353,10 @@
     </row>
     <row r="98" spans="1:26">
       <c r="A98" s="16">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B98" s="147" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C98" s="148" t="s">
         <v>109</v>
@@ -21148,24 +21366,26 @@
         <v>未着手</v>
       </c>
       <c r="E98" s="150">
-        <v>43063</v>
-      </c>
-      <c r="F98" s="150"/>
+        <v>43067</v>
+      </c>
+      <c r="F98" s="165"/>
       <c r="G98" s="151">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H98" s="151"/>
       <c r="I98" s="149">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J98" s="151">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K98" s="151">
-        <v>4</v>
-      </c>
-      <c r="L98" s="152"/>
+        <v>2</v>
+      </c>
+      <c r="L98" s="158">
+        <v>2</v>
+      </c>
       <c r="M98" s="152"/>
       <c r="N98" s="152"/>
       <c r="O98" s="152"/>
@@ -21176,111 +21396,103 @@
     </row>
     <row r="99" spans="1:26">
       <c r="A99" s="16">
-        <v>95</v>
-      </c>
-      <c r="B99" s="147" t="s">
-        <v>179</v>
-      </c>
-      <c r="C99" s="148" t="s">
+        <v>96</v>
+      </c>
+      <c r="B99" s="138" t="s">
+        <v>224</v>
+      </c>
+      <c r="C99" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="D99" s="149" t="str">
+      <c r="D99" s="143" t="str">
         <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
-      <c r="E99" s="150">
-        <v>43067</v>
-      </c>
-      <c r="F99" s="165"/>
-      <c r="G99" s="151">
-        <v>2</v>
-      </c>
-      <c r="H99" s="151"/>
-      <c r="I99" s="149">
+      <c r="E99" s="144"/>
+      <c r="F99" s="171"/>
+      <c r="G99" s="145"/>
+      <c r="H99" s="145"/>
+      <c r="I99" s="143" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J99" s="151">
-        <v>2</v>
-      </c>
-      <c r="K99" s="151">
-        <v>2</v>
-      </c>
-      <c r="L99" s="152"/>
-      <c r="M99" s="152"/>
-      <c r="N99" s="152"/>
-      <c r="O99" s="152"/>
-      <c r="P99" s="152"/>
-      <c r="Q99" s="152"/>
-      <c r="R99" s="152"/>
-      <c r="S99" s="152"/>
+        <v/>
+      </c>
+      <c r="J99" s="146"/>
+      <c r="K99" s="146"/>
+      <c r="L99" s="146"/>
+      <c r="M99" s="146"/>
+      <c r="N99" s="146"/>
+      <c r="O99" s="146"/>
+      <c r="P99" s="146"/>
+      <c r="Q99" s="146"/>
+      <c r="R99" s="146"/>
+      <c r="S99" s="146"/>
     </row>
     <row r="100" spans="1:26">
       <c r="A100" s="16">
-        <v>96</v>
-      </c>
-      <c r="B100" s="138" t="s">
-        <v>224</v>
-      </c>
-      <c r="C100" s="142" t="s">
+        <v>97</v>
+      </c>
+      <c r="B100" s="147" t="s">
+        <v>180</v>
+      </c>
+      <c r="C100" s="148" t="s">
         <v>109</v>
       </c>
-      <c r="D100" s="143" t="str">
+      <c r="D100" s="149" t="str">
         <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
-      <c r="E100" s="144"/>
-      <c r="F100" s="171"/>
-      <c r="G100" s="145"/>
-      <c r="H100" s="145"/>
-      <c r="I100" s="143" t="str">
+      <c r="E100" s="150">
+        <v>43070</v>
+      </c>
+      <c r="F100" s="165"/>
+      <c r="G100" s="151">
+        <v>3</v>
+      </c>
+      <c r="H100" s="151"/>
+      <c r="I100" s="149">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="J100" s="145"/>
-      <c r="K100" s="145"/>
-      <c r="L100" s="146"/>
-      <c r="M100" s="146"/>
-      <c r="N100" s="146"/>
-      <c r="O100" s="146"/>
-      <c r="P100" s="146"/>
-      <c r="Q100" s="146"/>
-      <c r="R100" s="146"/>
-      <c r="S100" s="146"/>
+        <v>3</v>
+      </c>
+      <c r="J100" s="151">
+        <v>3</v>
+      </c>
+      <c r="K100" s="151">
+        <v>3</v>
+      </c>
+      <c r="L100" s="158">
+        <v>3</v>
+      </c>
+      <c r="M100" s="152"/>
+      <c r="N100" s="152"/>
+      <c r="O100" s="152"/>
+      <c r="P100" s="152"/>
+      <c r="Q100" s="152"/>
+      <c r="R100" s="152"/>
+      <c r="S100" s="152"/>
     </row>
     <row r="101" spans="1:26">
       <c r="A101" s="16">
-        <v>97</v>
-      </c>
-      <c r="B101" s="147" t="s">
-        <v>180</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B101" s="147"/>
       <c r="C101" s="148" t="s">
         <v>109</v>
       </c>
       <c r="D101" s="149" t="str">
         <f t="shared" si="5"/>
-        <v>未着手</v>
-      </c>
-      <c r="E101" s="150">
-        <v>43070</v>
-      </c>
+        <v/>
+      </c>
+      <c r="E101" s="150"/>
       <c r="F101" s="165"/>
-      <c r="G101" s="151">
-        <v>3</v>
-      </c>
+      <c r="G101" s="151"/>
       <c r="H101" s="151"/>
-      <c r="I101" s="149">
+      <c r="I101" s="149" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="J101" s="151">
-        <v>3</v>
-      </c>
-      <c r="K101" s="151">
-        <v>3</v>
-      </c>
-      <c r="L101" s="152"/>
+        <v/>
+      </c>
+      <c r="J101" s="151"/>
+      <c r="K101" s="152"/>
+      <c r="L101" s="158"/>
       <c r="M101" s="152"/>
       <c r="N101" s="152"/>
       <c r="O101" s="152"/>
@@ -21291,7 +21503,7 @@
     </row>
     <row r="102" spans="1:26">
       <c r="A102" s="16">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B102" s="147"/>
       <c r="C102" s="148" t="s">
@@ -21311,7 +21523,7 @@
       </c>
       <c r="J102" s="151"/>
       <c r="K102" s="152"/>
-      <c r="L102" s="152"/>
+      <c r="L102" s="158"/>
       <c r="M102" s="152"/>
       <c r="N102" s="152"/>
       <c r="O102" s="152"/>
@@ -21322,7 +21534,7 @@
     </row>
     <row r="103" spans="1:26">
       <c r="A103" s="16">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B103" s="147"/>
       <c r="C103" s="148" t="s">
@@ -21342,7 +21554,7 @@
       </c>
       <c r="J103" s="151"/>
       <c r="K103" s="152"/>
-      <c r="L103" s="152"/>
+      <c r="L103" s="158"/>
       <c r="M103" s="152"/>
       <c r="N103" s="152"/>
       <c r="O103" s="152"/>
@@ -21351,9 +21563,9 @@
       <c r="R103" s="152"/>
       <c r="S103" s="152"/>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" ht="13.5" customHeight="1">
       <c r="A104" s="16">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B104" s="147"/>
       <c r="C104" s="148" t="s">
@@ -21366,25 +21578,25 @@
       <c r="E104" s="150"/>
       <c r="F104" s="165"/>
       <c r="G104" s="151"/>
-      <c r="H104" s="151"/>
+      <c r="H104" s="166"/>
       <c r="I104" s="149" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J104" s="151"/>
-      <c r="K104" s="152"/>
-      <c r="L104" s="152"/>
-      <c r="M104" s="152"/>
-      <c r="N104" s="152"/>
-      <c r="O104" s="152"/>
-      <c r="P104" s="152"/>
-      <c r="Q104" s="152"/>
-      <c r="R104" s="152"/>
-      <c r="S104" s="152"/>
-    </row>
-    <row r="105" spans="1:26" ht="13.5" customHeight="1">
+      <c r="K104" s="167"/>
+      <c r="L104" s="158"/>
+      <c r="M104" s="167"/>
+      <c r="N104" s="167"/>
+      <c r="O104" s="167"/>
+      <c r="P104" s="167"/>
+      <c r="Q104" s="167"/>
+      <c r="R104" s="167"/>
+      <c r="S104" s="167"/>
+    </row>
+    <row r="105" spans="1:26" ht="15.75" customHeight="1">
       <c r="A105" s="16">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B105" s="147"/>
       <c r="C105" s="148" t="s">
@@ -21404,7 +21616,7 @@
       </c>
       <c r="J105" s="151"/>
       <c r="K105" s="167"/>
-      <c r="L105" s="167"/>
+      <c r="L105" s="158"/>
       <c r="M105" s="167"/>
       <c r="N105" s="167"/>
       <c r="O105" s="167"/>
@@ -21412,10 +21624,28 @@
       <c r="Q105" s="167"/>
       <c r="R105" s="167"/>
       <c r="S105" s="167"/>
-    </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1">
+      <c r="U105" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="V105" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="W105" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="X105" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y105" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z105" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26">
       <c r="A106" s="16">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B106" s="147"/>
       <c r="C106" s="148" t="s">
@@ -21435,7 +21665,7 @@
       </c>
       <c r="J106" s="151"/>
       <c r="K106" s="167"/>
-      <c r="L106" s="167"/>
+      <c r="L106" s="158"/>
       <c r="M106" s="167"/>
       <c r="N106" s="167"/>
       <c r="O106" s="167"/>
@@ -21443,73 +21673,80 @@
       <c r="Q106" s="167"/>
       <c r="R106" s="167"/>
       <c r="S106" s="167"/>
-      <c r="U106" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="V106" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="W106" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="X106" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y106" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z106" s="13" t="s">
-        <v>13</v>
+      <c r="U106" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="V106" s="10">
+        <f>SUMIF($C$5:$C$121,U106,$G$5:$G$121)</f>
+        <v>34</v>
+      </c>
+      <c r="W106" s="10">
+        <f ca="1">SUMIF($C$5:$C$121,U106,$I$5:$I$121)</f>
+        <v>22</v>
+      </c>
+      <c r="X106" s="10">
+        <f>SUMIF($C$5:$C$121,U106,$H$5:$H$121)</f>
+        <v>6</v>
+      </c>
+      <c r="Y106" s="14">
+        <f>COUNTA($J$2:$S$2)*6-COUNTA($J$4:$S$4)*6</f>
+        <v>30</v>
+      </c>
+      <c r="Z106" s="15">
+        <f ca="1">IF(Y106&gt;W106,0,W106-Y106)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:26">
       <c r="A107" s="16">
-        <v>103</v>
-      </c>
-      <c r="B107" s="147"/>
-      <c r="C107" s="148" t="s">
-        <v>109</v>
-      </c>
-      <c r="D107" s="149" t="str">
+        <v>104</v>
+      </c>
+      <c r="B107" s="138" t="s">
+        <v>236</v>
+      </c>
+      <c r="C107" s="142" t="s">
+        <v>110</v>
+      </c>
+      <c r="D107" s="143" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E107" s="150"/>
-      <c r="F107" s="165"/>
-      <c r="G107" s="151"/>
-      <c r="H107" s="166"/>
-      <c r="I107" s="149" t="str">
+        <v>未着手</v>
+      </c>
+      <c r="E107" s="144"/>
+      <c r="F107" s="144"/>
+      <c r="G107" s="145"/>
+      <c r="H107" s="145"/>
+      <c r="I107" s="143" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="J107" s="151"/>
-      <c r="K107" s="167"/>
-      <c r="L107" s="167"/>
-      <c r="M107" s="167"/>
-      <c r="N107" s="167"/>
-      <c r="O107" s="167"/>
-      <c r="P107" s="167"/>
-      <c r="Q107" s="167"/>
-      <c r="R107" s="167"/>
-      <c r="S107" s="167"/>
+      <c r="J107" s="143"/>
+      <c r="K107" s="143"/>
+      <c r="L107" s="143"/>
+      <c r="M107" s="143"/>
+      <c r="N107" s="143"/>
+      <c r="O107" s="143"/>
+      <c r="P107" s="143"/>
+      <c r="Q107" s="143"/>
+      <c r="R107" s="143"/>
+      <c r="S107" s="143"/>
       <c r="U107" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="V107" s="10">
-        <f t="shared" ref="V107:V110" si="6">SUMIF($C$5:$C$122,U107,$G$5:$G$122)</f>
-        <v>45</v>
+        <f>SUMIF($C$5:$C$121,U107,$G$5:$G$121)</f>
+        <v>49</v>
       </c>
       <c r="W107" s="10">
-        <f ca="1">SUMIF($C$5:$C$122,U107,$I$5:$I$122)</f>
-        <v>33</v>
+        <f ca="1">SUMIF($C$5:$C$121,U107,$I$5:$I$121)</f>
+        <v>28</v>
       </c>
       <c r="X107" s="10">
-        <f>SUMIF($C$5:$C$122,U107,$H$5:$H$122)</f>
-        <v>6</v>
+        <f>SUMIF($C$5:$C$121,U107,$H$5:$H$121)</f>
+        <v>26</v>
       </c>
       <c r="Y107" s="14">
-        <f>COUNTA($J$2:$S$2)*6-COUNTA($J$4:$S$4)*6</f>
-        <v>36</v>
+        <f t="shared" ref="Y107:Y115" si="6">COUNTA($J$2:$S$2)*6-COUNTA($J$4:$S$4)*6</f>
+        <v>30</v>
       </c>
       <c r="Z107" s="15">
         <f ca="1">IF(Y107&gt;W107,0,W107-Y107)</f>
@@ -21518,95 +21755,107 @@
     </row>
     <row r="108" spans="1:26">
       <c r="A108" s="16">
-        <v>104</v>
-      </c>
-      <c r="B108" s="138" t="s">
-        <v>236</v>
-      </c>
-      <c r="C108" s="142" t="s">
+        <v>105</v>
+      </c>
+      <c r="B108" s="147" t="s">
+        <v>181</v>
+      </c>
+      <c r="C108" s="148" t="s">
         <v>110</v>
       </c>
-      <c r="D108" s="143" t="str">
+      <c r="D108" s="149" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>作業中</v>
+      </c>
+      <c r="E108" s="150">
+        <v>43049</v>
+      </c>
+      <c r="F108" s="165">
+        <v>43049</v>
+      </c>
+      <c r="G108" s="151">
+        <v>4</v>
+      </c>
+      <c r="H108" s="166"/>
+      <c r="I108" s="149">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J108" s="151">
+        <v>4</v>
+      </c>
+      <c r="K108" s="152">
+        <v>2</v>
+      </c>
+      <c r="L108" s="158">
+        <v>1</v>
+      </c>
+      <c r="M108" s="167"/>
+      <c r="N108" s="167"/>
+      <c r="O108" s="167"/>
+      <c r="P108" s="167"/>
+      <c r="Q108" s="167"/>
+      <c r="R108" s="167"/>
+      <c r="S108" s="167"/>
+      <c r="U108" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="V108" s="10">
+        <f>SUMIF($C$5:$C$121,U108,$G$5:$G$121)</f>
+        <v>46</v>
+      </c>
+      <c r="W108" s="10">
+        <f ca="1">SUMIF($C$5:$C$121,U108,$I$5:$I$121)</f>
+        <v>32</v>
+      </c>
+      <c r="X108" s="10">
+        <f>SUMIF($C$5:$C$121,U108,$H$5:$H$121)</f>
+        <v>17</v>
+      </c>
+      <c r="Y108" s="14">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="Z108" s="15">
+        <f ca="1">IF(Y108&gt;W108,0,W108-Y108)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26">
+      <c r="A109" s="16">
+        <v>106</v>
+      </c>
+      <c r="B109" s="147" t="s">
+        <v>182</v>
+      </c>
+      <c r="C109" s="148" t="s">
+        <v>110</v>
+      </c>
+      <c r="D109" s="149" t="str">
         <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
-      <c r="E108" s="144"/>
-      <c r="F108" s="144"/>
-      <c r="G108" s="145"/>
-      <c r="H108" s="145"/>
-      <c r="I108" s="143" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="J108" s="145"/>
-      <c r="K108" s="143"/>
-      <c r="L108" s="143"/>
-      <c r="M108" s="143"/>
-      <c r="N108" s="143"/>
-      <c r="O108" s="143"/>
-      <c r="P108" s="143"/>
-      <c r="Q108" s="143"/>
-      <c r="R108" s="143"/>
-      <c r="S108" s="143"/>
-      <c r="U108" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="V108" s="10">
-        <f t="shared" si="6"/>
-        <v>49</v>
-      </c>
-      <c r="W108" s="10">
-        <f t="shared" ref="W108:W116" ca="1" si="7">SUMIF($C$5:$C$122,U108,$I$5:$I$122)</f>
-        <v>33</v>
-      </c>
-      <c r="X108" s="10">
-        <f t="shared" ref="X108:X116" si="8">SUMIF($C$5:$C$122,U108,$H$5:$H$122)</f>
-        <v>19</v>
-      </c>
-      <c r="Y108" s="14">
-        <f t="shared" ref="Y108:Y116" si="9">COUNTA($J$2:$S$2)*6-COUNTA($J$4:$S$4)*6</f>
-        <v>36</v>
-      </c>
-      <c r="Z108" s="15">
-        <f ca="1">IF(Y108&gt;W108,0,W108-Y108)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:26">
-      <c r="A109" s="16">
-        <v>105</v>
-      </c>
-      <c r="B109" s="147" t="s">
-        <v>181</v>
-      </c>
-      <c r="C109" s="148" t="s">
-        <v>110</v>
-      </c>
-      <c r="D109" s="149" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>作業中</v>
-      </c>
-      <c r="E109" s="150">
-        <v>43049</v>
-      </c>
-      <c r="F109" s="165">
-        <v>43049</v>
-      </c>
-      <c r="G109" s="151">
+      <c r="E109" s="165">
+        <v>43053</v>
+      </c>
+      <c r="F109" s="165"/>
+      <c r="G109" s="166">
         <v>4</v>
       </c>
       <c r="H109" s="166"/>
       <c r="I109" s="149">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J109" s="151">
         <v>4</v>
       </c>
-      <c r="K109" s="152">
-        <v>2</v>
-      </c>
-      <c r="L109" s="167"/>
+      <c r="J109" s="166">
+        <v>4</v>
+      </c>
+      <c r="K109" s="166">
+        <v>4</v>
+      </c>
+      <c r="L109" s="166">
+        <v>4</v>
+      </c>
       <c r="M109" s="167"/>
       <c r="N109" s="167"/>
       <c r="O109" s="167"/>
@@ -21615,163 +21864,165 @@
       <c r="R109" s="167"/>
       <c r="S109" s="167"/>
       <c r="U109" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="V109" s="10">
+        <f>SUMIF($C$5:$C$121,U109,$G$5:$G$121)</f>
+        <v>23</v>
+      </c>
+      <c r="W109" s="10">
+        <f ca="1">SUMIF($C$5:$C$121,U109,$I$5:$I$121)</f>
+        <v>14</v>
+      </c>
+      <c r="X109" s="10">
+        <f>SUMIF($C$5:$C$121,U109,$H$5:$H$121)</f>
+        <v>5</v>
+      </c>
+      <c r="Y109" s="14">
         <f t="shared" si="6"/>
-        <v>46</v>
-      </c>
-      <c r="W109" s="10">
-        <f t="shared" ca="1" si="7"/>
-        <v>38.200000000000003</v>
-      </c>
-      <c r="X109" s="10">
-        <f t="shared" si="8"/>
-        <v>12.8</v>
-      </c>
-      <c r="Y109" s="14">
-        <f t="shared" si="9"/>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z109" s="15">
-        <f ca="1">IF(Y109&gt;W109,0,W109-Y109)</f>
-        <v>2.2000000000000028</v>
+        <f t="shared" ref="Z109:Z115" ca="1" si="7">IF(Y109&gt;W109,0,W109-Y109)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:26">
-      <c r="A110" s="16">
-        <v>106</v>
-      </c>
-      <c r="B110" s="147" t="s">
-        <v>182</v>
-      </c>
-      <c r="C110" s="148" t="s">
+      <c r="A110" s="172">
+        <v>107</v>
+      </c>
+      <c r="B110" s="173" t="s">
+        <v>183</v>
+      </c>
+      <c r="C110" s="174" t="s">
         <v>110</v>
       </c>
-      <c r="D110" s="149" t="str">
+      <c r="D110" s="175" t="str">
         <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
-      <c r="E110" s="165">
-        <v>43053</v>
+      <c r="E110" s="176">
+        <v>43056</v>
       </c>
       <c r="F110" s="165"/>
-      <c r="G110" s="166">
+      <c r="G110" s="177">
+        <v>5</v>
+      </c>
+      <c r="H110" s="177"/>
+      <c r="I110" s="175">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J110" s="177">
+        <v>5</v>
+      </c>
+      <c r="K110" s="177">
+        <v>5</v>
+      </c>
+      <c r="L110" s="177">
+        <v>5</v>
+      </c>
+      <c r="M110" s="178"/>
+      <c r="N110" s="178"/>
+      <c r="O110" s="178"/>
+      <c r="P110" s="178"/>
+      <c r="Q110" s="178"/>
+      <c r="R110" s="178"/>
+      <c r="S110" s="178"/>
+      <c r="U110" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="V110" s="10">
+        <f>SUMIF($C$5:$C$121,U110,$G$5:$G$121)</f>
+        <v>40</v>
+      </c>
+      <c r="W110" s="10">
+        <f ca="1">SUMIF($C$5:$C$121,U110,$I$5:$I$121)</f>
+        <v>32</v>
+      </c>
+      <c r="X110" s="10">
+        <f>SUMIF($C$5:$C$121,U110,$H$5:$H$121)</f>
+        <v>0</v>
+      </c>
+      <c r="Y110" s="14">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="Z110" s="15">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26">
+      <c r="A111" s="16">
+        <v>108</v>
+      </c>
+      <c r="B111" s="147" t="s">
+        <v>184</v>
+      </c>
+      <c r="C111" s="148" t="s">
+        <v>110</v>
+      </c>
+      <c r="D111" s="149" t="str">
+        <f t="shared" si="5"/>
+        <v>未着手</v>
+      </c>
+      <c r="E111" s="165">
+        <v>43060</v>
+      </c>
+      <c r="F111" s="165"/>
+      <c r="G111" s="166">
         <v>4</v>
       </c>
-      <c r="H110" s="166"/>
-      <c r="I110" s="149">
+      <c r="H111" s="166"/>
+      <c r="I111" s="175">
         <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
-      <c r="J110" s="166">
+      <c r="J111" s="166">
         <v>4</v>
       </c>
-      <c r="K110" s="166">
+      <c r="K111" s="166">
         <v>4</v>
       </c>
-      <c r="L110" s="167"/>
-      <c r="M110" s="167"/>
-      <c r="N110" s="167"/>
-      <c r="O110" s="167"/>
-      <c r="P110" s="167"/>
-      <c r="Q110" s="167"/>
-      <c r="R110" s="167"/>
-      <c r="S110" s="167"/>
-      <c r="U110" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="V110" s="10">
+      <c r="L111" s="166">
+        <v>4</v>
+      </c>
+      <c r="M111" s="167"/>
+      <c r="N111" s="167"/>
+      <c r="O111" s="167"/>
+      <c r="P111" s="167"/>
+      <c r="Q111" s="167"/>
+      <c r="R111" s="167"/>
+      <c r="S111" s="167"/>
+      <c r="U111" s="11"/>
+      <c r="V111" s="10">
+        <f>SUMIF($C$5:$C$103,U111,$G$5:$G$103)</f>
+        <v>0</v>
+      </c>
+      <c r="W111" s="10">
+        <f>SUMIF($C$5:$C$121,U111,$I$5:$I$121)</f>
+        <v>0</v>
+      </c>
+      <c r="X111" s="10">
+        <f>SUMIF($C$5:$C$121,U111,$H$5:$H$121)</f>
+        <v>0</v>
+      </c>
+      <c r="Y111" s="14">
         <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="W110" s="10">
-        <f t="shared" ca="1" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="X110" s="10">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="Y110" s="14">
-        <f t="shared" si="9"/>
-        <v>36</v>
-      </c>
-      <c r="Z110" s="15">
-        <f t="shared" ref="Z108:Z116" ca="1" si="10">IF(Y110&gt;W110,0,W110-Y110)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:26">
-      <c r="A111" s="172">
-        <v>107</v>
-      </c>
-      <c r="B111" s="173" t="s">
-        <v>183</v>
-      </c>
-      <c r="C111" s="174" t="s">
-        <v>110</v>
-      </c>
-      <c r="D111" s="175" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
-      </c>
-      <c r="E111" s="176">
-        <v>43056</v>
-      </c>
-      <c r="F111" s="165"/>
-      <c r="G111" s="177">
-        <v>5</v>
-      </c>
-      <c r="H111" s="177"/>
-      <c r="I111" s="175">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="J111" s="177">
-        <v>5</v>
-      </c>
-      <c r="K111" s="177">
-        <v>5</v>
-      </c>
-      <c r="L111" s="178"/>
-      <c r="M111" s="178"/>
-      <c r="N111" s="178"/>
-      <c r="O111" s="178"/>
-      <c r="P111" s="178"/>
-      <c r="Q111" s="178"/>
-      <c r="R111" s="178"/>
-      <c r="S111" s="178"/>
-      <c r="U111" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="V111" s="10">
-        <f>SUMIF($C$5:$C$122,U111,$G$5:$G$122)</f>
-        <v>40</v>
-      </c>
-      <c r="W111" s="10">
-        <f t="shared" ca="1" si="7"/>
-        <v>34</v>
-      </c>
-      <c r="X111" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y111" s="14">
-        <f t="shared" si="9"/>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z111" s="15">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:26">
-      <c r="A112" s="16">
-        <v>108</v>
+      <c r="A112" s="172">
+        <v>109</v>
       </c>
       <c r="B112" s="147" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C112" s="148" t="s">
         <v>110</v>
@@ -21781,24 +22032,26 @@
         <v>未着手</v>
       </c>
       <c r="E112" s="165">
-        <v>43060</v>
+        <v>43063</v>
       </c>
       <c r="F112" s="165"/>
       <c r="G112" s="166">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H112" s="166"/>
       <c r="I112" s="175">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J112" s="166">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K112" s="166">
-        <v>4</v>
-      </c>
-      <c r="L112" s="167"/>
+        <v>5</v>
+      </c>
+      <c r="L112" s="166">
+        <v>5</v>
+      </c>
       <c r="M112" s="167"/>
       <c r="N112" s="167"/>
       <c r="O112" s="167"/>
@@ -21808,94 +22061,96 @@
       <c r="S112" s="167"/>
       <c r="U112" s="11"/>
       <c r="V112" s="10">
-        <f t="shared" ref="V108:V116" si="11">SUMIF($C$5:$C$104,U112,$G$5:$G$104)</f>
+        <f>SUMIF($C$5:$C$103,U112,$G$5:$G$103)</f>
         <v>0</v>
       </c>
       <c r="W112" s="10">
+        <f>SUMIF($C$5:$C$121,U112,$I$5:$I$121)</f>
+        <v>0</v>
+      </c>
+      <c r="X112" s="10">
+        <f>SUMIF($C$5:$C$121,U112,$H$5:$H$121)</f>
+        <v>0</v>
+      </c>
+      <c r="Y112" s="14">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="Z112" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X112" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y112" s="14">
-        <f t="shared" si="9"/>
-        <v>36</v>
-      </c>
-      <c r="Z112" s="15">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="113" spans="1:26">
-      <c r="A113" s="172">
-        <v>109</v>
-      </c>
-      <c r="B113" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="C113" s="148" t="s">
+      <c r="A113" s="16">
         <v>110</v>
       </c>
-      <c r="D113" s="149" t="str">
+      <c r="B113" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D113" s="12" t="str">
         <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
-      <c r="E113" s="165">
-        <v>43063</v>
-      </c>
-      <c r="F113" s="165"/>
-      <c r="G113" s="166">
-        <v>5</v>
-      </c>
-      <c r="H113" s="166"/>
+      <c r="E113" s="135">
+        <v>43067</v>
+      </c>
+      <c r="F113" s="135"/>
+      <c r="G113" s="136">
+        <v>3</v>
+      </c>
+      <c r="H113" s="136"/>
       <c r="I113" s="175">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="J113" s="166">
-        <v>5</v>
-      </c>
-      <c r="K113" s="166">
-        <v>5</v>
-      </c>
-      <c r="L113" s="167"/>
-      <c r="M113" s="167"/>
-      <c r="N113" s="167"/>
-      <c r="O113" s="167"/>
-      <c r="P113" s="167"/>
-      <c r="Q113" s="167"/>
-      <c r="R113" s="167"/>
-      <c r="S113" s="167"/>
+        <v>3</v>
+      </c>
+      <c r="J113" s="136">
+        <v>3</v>
+      </c>
+      <c r="K113" s="136">
+        <v>3</v>
+      </c>
+      <c r="L113" s="136">
+        <v>3</v>
+      </c>
+      <c r="M113" s="137"/>
+      <c r="N113" s="137"/>
+      <c r="O113" s="137"/>
+      <c r="P113" s="137"/>
+      <c r="Q113" s="137"/>
+      <c r="R113" s="137"/>
+      <c r="S113" s="137"/>
       <c r="U113" s="11"/>
       <c r="V113" s="10">
-        <f t="shared" si="11"/>
+        <f>SUMIF($C$5:$C$103,U113,$G$5:$G$103)</f>
         <v>0</v>
       </c>
       <c r="W113" s="10">
+        <f>SUMIF($C$5:$C$121,U113,$I$5:$I$121)</f>
+        <v>0</v>
+      </c>
+      <c r="X113" s="10">
+        <f>SUMIF($C$5:$C$121,U113,$H$5:$H$121)</f>
+        <v>0</v>
+      </c>
+      <c r="Y113" s="14">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="Z113" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X113" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y113" s="14">
-        <f t="shared" si="9"/>
-        <v>36</v>
-      </c>
-      <c r="Z113" s="15">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="114" spans="1:26">
-      <c r="A114" s="16">
-        <v>110</v>
+      <c r="A114" s="172">
+        <v>111</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C114" s="18" t="s">
         <v>110</v>
@@ -21905,24 +22160,26 @@
         <v>未着手</v>
       </c>
       <c r="E114" s="135">
-        <v>43067</v>
+        <v>43070</v>
       </c>
       <c r="F114" s="135"/>
       <c r="G114" s="136">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H114" s="136"/>
       <c r="I114" s="175">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J114" s="136">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K114" s="136">
-        <v>3</v>
-      </c>
-      <c r="L114" s="137"/>
+        <v>4</v>
+      </c>
+      <c r="L114" s="136">
+        <v>4</v>
+      </c>
       <c r="M114" s="137"/>
       <c r="N114" s="137"/>
       <c r="O114" s="137"/>
@@ -21932,32 +22189,32 @@
       <c r="S114" s="137"/>
       <c r="U114" s="11"/>
       <c r="V114" s="10">
-        <f t="shared" si="11"/>
+        <f>SUMIF($C$5:$C$103,U114,$G$5:$G$103)</f>
         <v>0</v>
       </c>
       <c r="W114" s="10">
+        <f>SUMIF($C$5:$C$121,U114,$I$5:$I$121)</f>
+        <v>0</v>
+      </c>
+      <c r="X114" s="10">
+        <f>SUMIF($C$5:$C$121,U114,$H$5:$H$121)</f>
+        <v>0</v>
+      </c>
+      <c r="Y114" s="14">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="Z114" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X114" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y114" s="14">
-        <f t="shared" si="9"/>
-        <v>36</v>
-      </c>
-      <c r="Z114" s="15">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="115" spans="1:26">
-      <c r="A115" s="172">
-        <v>111</v>
+      <c r="A115" s="16">
+        <v>112</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C115" s="18" t="s">
         <v>110</v>
@@ -21967,24 +22224,26 @@
         <v>未着手</v>
       </c>
       <c r="E115" s="135">
-        <v>43070</v>
+        <v>43077</v>
       </c>
       <c r="F115" s="135"/>
       <c r="G115" s="136">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H115" s="136"/>
       <c r="I115" s="175">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J115" s="136">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K115" s="136">
-        <v>4</v>
-      </c>
-      <c r="L115" s="137"/>
+        <v>5</v>
+      </c>
+      <c r="L115" s="136">
+        <v>5</v>
+      </c>
       <c r="M115" s="137"/>
       <c r="N115" s="137"/>
       <c r="O115" s="137"/>
@@ -21994,59 +22253,63 @@
       <c r="S115" s="137"/>
       <c r="U115" s="11"/>
       <c r="V115" s="10">
-        <f t="shared" si="11"/>
+        <f>SUMIF($C$5:$C$103,U115,$G$5:$G$103)</f>
         <v>0</v>
       </c>
       <c r="W115" s="10">
+        <f>SUMIF($C$5:$C$121,U115,$I$5:$I$121)</f>
+        <v>0</v>
+      </c>
+      <c r="X115" s="10">
+        <f>SUMIF($C$5:$C$121,U115,$H$5:$H$121)</f>
+        <v>0</v>
+      </c>
+      <c r="Y115" s="14">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="Z115" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X115" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y115" s="14">
-        <f t="shared" si="9"/>
-        <v>36</v>
-      </c>
-      <c r="Z115" s="15">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="116" spans="1:26">
-      <c r="A116" s="16">
-        <v>112</v>
+      <c r="A116" s="172">
+        <v>113</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="C116" s="18" t="s">
         <v>110</v>
       </c>
       <c r="D116" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>作業中</v>
       </c>
       <c r="E116" s="135">
-        <v>43077</v>
-      </c>
-      <c r="F116" s="135"/>
+        <v>43056</v>
+      </c>
+      <c r="F116" s="135">
+        <v>43056</v>
+      </c>
       <c r="G116" s="136">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H116" s="136"/>
       <c r="I116" s="175">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J116" s="136">
         <v>5</v>
       </c>
-      <c r="K116" s="136">
-        <v>5</v>
-      </c>
-      <c r="L116" s="137"/>
+      <c r="K116" s="179">
+        <v>2</v>
+      </c>
+      <c r="L116" s="158">
+        <v>1</v>
+      </c>
       <c r="M116" s="137"/>
       <c r="N116" s="137"/>
       <c r="O116" s="137"/>
@@ -22054,63 +22317,30 @@
       <c r="Q116" s="137"/>
       <c r="R116" s="137"/>
       <c r="S116" s="137"/>
-      <c r="U116" s="11"/>
-      <c r="V116" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="W116" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X116" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y116" s="14">
-        <f t="shared" si="9"/>
-        <v>36</v>
-      </c>
-      <c r="Z116" s="15">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="117" spans="1:26">
-      <c r="A117" s="172">
-        <v>113</v>
-      </c>
-      <c r="B117" s="17" t="s">
-        <v>239</v>
-      </c>
+      <c r="A117" s="16">
+        <v>114</v>
+      </c>
+      <c r="B117" s="17"/>
       <c r="C117" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D117" s="179" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>作業中</v>
-      </c>
-      <c r="E117" s="135">
-        <v>43056</v>
-      </c>
-      <c r="F117" s="135">
-        <v>43056</v>
-      </c>
-      <c r="G117" s="136">
-        <v>6</v>
-      </c>
+      <c r="D117" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E117" s="135"/>
+      <c r="F117" s="135"/>
+      <c r="G117" s="136"/>
       <c r="H117" s="136"/>
-      <c r="I117" s="175">
+      <c r="I117" s="175" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J117" s="136">
-        <v>5</v>
-      </c>
-      <c r="K117" s="208">
-        <v>2</v>
-      </c>
-      <c r="L117" s="137"/>
+        <v/>
+      </c>
+      <c r="J117" s="136"/>
+      <c r="K117" s="179"/>
+      <c r="L117" s="158"/>
       <c r="M117" s="137"/>
       <c r="N117" s="137"/>
       <c r="O117" s="137"/>
@@ -22120,14 +22350,17 @@
       <c r="S117" s="137"/>
     </row>
     <row r="118" spans="1:26">
-      <c r="A118" s="16">
-        <v>114</v>
+      <c r="A118" s="172">
+        <v>115</v>
       </c>
       <c r="B118" s="17"/>
       <c r="C118" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D118" s="179"/>
+      <c r="D118" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="E118" s="135"/>
       <c r="F118" s="135"/>
       <c r="G118" s="136"/>
@@ -22136,9 +22369,9 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="J118" s="137"/>
-      <c r="K118" s="137"/>
-      <c r="L118" s="137"/>
+      <c r="J118" s="136"/>
+      <c r="K118" s="179"/>
+      <c r="L118" s="158"/>
       <c r="M118" s="137"/>
       <c r="N118" s="137"/>
       <c r="O118" s="137"/>
@@ -22148,81 +22381,106 @@
       <c r="S118" s="137"/>
     </row>
     <row r="119" spans="1:26">
-      <c r="A119" s="172">
-        <v>115</v>
-      </c>
-      <c r="B119" s="17"/>
-      <c r="C119" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D119" s="179"/>
-      <c r="E119" s="135"/>
-      <c r="F119" s="135"/>
-      <c r="G119" s="136"/>
-      <c r="H119" s="136"/>
-      <c r="I119" s="175" t="str">
+      <c r="A119" s="16">
+        <v>116</v>
+      </c>
+      <c r="B119" s="208" t="s">
+        <v>243</v>
+      </c>
+      <c r="C119" s="209"/>
+      <c r="D119" s="215" t="str">
+        <f t="shared" si="5"/>
+        <v>未着手</v>
+      </c>
+      <c r="E119" s="209"/>
+      <c r="F119" s="209"/>
+      <c r="G119" s="209"/>
+      <c r="H119" s="209"/>
+      <c r="I119" s="210" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="J119" s="137"/>
-      <c r="K119" s="137"/>
-      <c r="L119" s="137"/>
-      <c r="M119" s="137"/>
-      <c r="N119" s="137"/>
-      <c r="O119" s="137"/>
-      <c r="P119" s="137"/>
-      <c r="Q119" s="137"/>
-      <c r="R119" s="137"/>
-      <c r="S119" s="137"/>
+      <c r="J119" s="209"/>
+      <c r="K119" s="209"/>
+      <c r="L119" s="209"/>
+      <c r="M119" s="209"/>
+      <c r="N119" s="209"/>
+      <c r="O119" s="209"/>
+      <c r="P119" s="209"/>
+      <c r="Q119" s="209"/>
+      <c r="R119" s="209"/>
+      <c r="S119" s="209"/>
     </row>
     <row r="120" spans="1:26">
-      <c r="A120" s="16">
-        <v>116</v>
-      </c>
-      <c r="B120" s="17"/>
-      <c r="C120" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D120" s="179"/>
-      <c r="E120" s="135"/>
-      <c r="F120" s="135"/>
-      <c r="G120" s="136"/>
-      <c r="H120" s="136"/>
-      <c r="I120" s="175" t="str">
+      <c r="A120" s="172">
+        <v>117</v>
+      </c>
+      <c r="B120" s="138" t="s">
+        <v>244</v>
+      </c>
+      <c r="C120" s="142" t="s">
+        <v>249</v>
+      </c>
+      <c r="D120" s="143" t="str">
+        <f t="shared" si="5"/>
+        <v>未着手</v>
+      </c>
+      <c r="E120" s="144"/>
+      <c r="F120" s="144"/>
+      <c r="G120" s="144"/>
+      <c r="H120" s="144"/>
+      <c r="I120" s="216" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="J120" s="137"/>
-      <c r="K120" s="137"/>
-      <c r="L120" s="137"/>
-      <c r="M120" s="137"/>
-      <c r="N120" s="137"/>
-      <c r="O120" s="137"/>
-      <c r="P120" s="137"/>
-      <c r="Q120" s="137"/>
-      <c r="R120" s="137"/>
-      <c r="S120" s="137"/>
+      <c r="J120" s="216"/>
+      <c r="K120" s="216"/>
+      <c r="L120" s="216"/>
+      <c r="M120" s="216"/>
+      <c r="N120" s="216"/>
+      <c r="O120" s="216"/>
+      <c r="P120" s="216"/>
+      <c r="Q120" s="216"/>
+      <c r="R120" s="216"/>
+      <c r="S120" s="216"/>
     </row>
     <row r="121" spans="1:26">
       <c r="A121" s="172">
-        <v>117</v>
-      </c>
-      <c r="B121" s="17"/>
-      <c r="C121" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D121" s="179"/>
-      <c r="E121" s="135"/>
-      <c r="F121" s="135"/>
-      <c r="G121" s="136"/>
-      <c r="H121" s="136"/>
-      <c r="I121" s="175" t="str">
+        <v>118</v>
+      </c>
+      <c r="B121" s="211" t="s">
+        <v>245</v>
+      </c>
+      <c r="C121" s="212" t="s">
+        <v>249</v>
+      </c>
+      <c r="D121" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>作業中</v>
+      </c>
+      <c r="E121" s="4">
+        <v>43056</v>
+      </c>
+      <c r="F121" s="4">
+        <v>43056</v>
+      </c>
+      <c r="G121" s="213">
+        <v>4</v>
+      </c>
+      <c r="H121" s="213"/>
+      <c r="I121" s="175">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="J121" s="137"/>
-      <c r="K121" s="137"/>
-      <c r="L121" s="137"/>
+        <v>4</v>
+      </c>
+      <c r="J121" s="136">
+        <v>4</v>
+      </c>
+      <c r="K121" s="136">
+        <v>4</v>
+      </c>
+      <c r="L121" s="136">
+        <v>4</v>
+      </c>
       <c r="M121" s="137"/>
       <c r="N121" s="137"/>
       <c r="O121" s="137"/>
@@ -22232,25 +22490,42 @@
       <c r="S121" s="137"/>
     </row>
     <row r="122" spans="1:26">
-      <c r="A122" s="16">
-        <v>118</v>
-      </c>
-      <c r="B122" s="17"/>
-      <c r="C122" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D122" s="179"/>
-      <c r="E122" s="135"/>
-      <c r="F122" s="135"/>
-      <c r="G122" s="136"/>
+      <c r="A122" s="172">
+        <v>119</v>
+      </c>
+      <c r="B122" s="214" t="s">
+        <v>246</v>
+      </c>
+      <c r="C122" s="212" t="s">
+        <v>249</v>
+      </c>
+      <c r="D122" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>作業中</v>
+      </c>
+      <c r="E122" s="4">
+        <v>43056</v>
+      </c>
+      <c r="F122" s="4">
+        <v>43056</v>
+      </c>
+      <c r="G122" s="136">
+        <v>4</v>
+      </c>
       <c r="H122" s="136"/>
-      <c r="I122" s="175" t="str">
-        <f t="shared" ref="I122" ca="1" si="12">IF(ISBLANK(J122)=FALSE,OFFSET(I122,0,COUNTA(J122:S122)),"")</f>
-        <v/>
-      </c>
-      <c r="J122" s="137"/>
-      <c r="K122" s="137"/>
-      <c r="L122" s="137"/>
+      <c r="I122" s="175">
+        <f t="shared" ref="I122:I126" ca="1" si="8">IF(ISBLANK(J122)=FALSE,OFFSET(I122,0,COUNTA(J122:S122)),"")</f>
+        <v>4</v>
+      </c>
+      <c r="J122" s="136">
+        <v>4</v>
+      </c>
+      <c r="K122" s="136">
+        <v>4</v>
+      </c>
+      <c r="L122" s="136">
+        <v>4</v>
+      </c>
       <c r="M122" s="137"/>
       <c r="N122" s="137"/>
       <c r="O122" s="137"/>
@@ -22260,52 +22535,170 @@
       <c r="S122" s="137"/>
     </row>
     <row r="123" spans="1:26">
-      <c r="J123" s="6"/>
-      <c r="K123" s="6"/>
-      <c r="L123" s="6"/>
-      <c r="M123" s="6"/>
-      <c r="N123" s="6"/>
-      <c r="O123" s="6"/>
-      <c r="P123" s="6"/>
-      <c r="Q123" s="6"/>
-      <c r="R123" s="6"/>
-      <c r="S123" s="6"/>
+      <c r="A123" s="172">
+        <v>120</v>
+      </c>
+      <c r="B123" s="214" t="s">
+        <v>247</v>
+      </c>
+      <c r="C123" s="212" t="s">
+        <v>249</v>
+      </c>
+      <c r="D123" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>作業中</v>
+      </c>
+      <c r="E123" s="4">
+        <v>43056</v>
+      </c>
+      <c r="F123" s="4">
+        <v>43056</v>
+      </c>
+      <c r="G123" s="136">
+        <v>4</v>
+      </c>
+      <c r="H123" s="136"/>
+      <c r="I123" s="175">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="J123" s="136">
+        <v>4</v>
+      </c>
+      <c r="K123" s="136">
+        <v>4</v>
+      </c>
+      <c r="L123" s="136">
+        <v>4</v>
+      </c>
+      <c r="M123" s="137"/>
+      <c r="N123" s="137"/>
+      <c r="O123" s="137"/>
+      <c r="P123" s="137"/>
+      <c r="Q123" s="137"/>
+      <c r="R123" s="137"/>
+      <c r="S123" s="137"/>
     </row>
     <row r="124" spans="1:26">
-      <c r="J124" s="6"/>
-      <c r="K124" s="6"/>
-      <c r="L124" s="6"/>
-      <c r="M124" s="6"/>
-      <c r="N124" s="6"/>
-      <c r="O124" s="6"/>
-      <c r="P124" s="6"/>
-      <c r="Q124" s="6"/>
-      <c r="R124" s="6"/>
-      <c r="S124" s="6"/>
+      <c r="A124" s="172">
+        <v>121</v>
+      </c>
+      <c r="B124" s="214" t="s">
+        <v>248</v>
+      </c>
+      <c r="C124" s="212" t="s">
+        <v>249</v>
+      </c>
+      <c r="D124" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>作業中</v>
+      </c>
+      <c r="E124" s="4">
+        <v>43056</v>
+      </c>
+      <c r="F124" s="4">
+        <v>43056</v>
+      </c>
+      <c r="G124" s="136">
+        <v>3</v>
+      </c>
+      <c r="H124" s="136"/>
+      <c r="I124" s="175">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="J124" s="136">
+        <v>3</v>
+      </c>
+      <c r="K124" s="136">
+        <v>3</v>
+      </c>
+      <c r="L124" s="136">
+        <v>3</v>
+      </c>
+      <c r="M124" s="137"/>
+      <c r="N124" s="137"/>
+      <c r="O124" s="137"/>
+      <c r="P124" s="137"/>
+      <c r="Q124" s="137"/>
+      <c r="R124" s="137"/>
+      <c r="S124" s="137"/>
     </row>
     <row r="125" spans="1:26">
-      <c r="J125" s="6"/>
-      <c r="K125" s="6"/>
-      <c r="L125" s="6"/>
-      <c r="M125" s="6"/>
-      <c r="N125" s="6"/>
-      <c r="O125" s="6"/>
-      <c r="P125" s="6"/>
-      <c r="Q125" s="6"/>
-      <c r="R125" s="6"/>
-      <c r="S125" s="6"/>
+      <c r="A125" s="172">
+        <v>122</v>
+      </c>
+      <c r="B125" s="214" t="s">
+        <v>250</v>
+      </c>
+      <c r="C125" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D125" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>完了</v>
+      </c>
+      <c r="E125" s="135">
+        <v>43060</v>
+      </c>
+      <c r="F125" s="135">
+        <v>43060</v>
+      </c>
+      <c r="G125" s="136">
+        <v>1</v>
+      </c>
+      <c r="H125" s="136">
+        <v>1</v>
+      </c>
+      <c r="I125" s="175">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J125" s="136">
+        <v>1</v>
+      </c>
+      <c r="K125" s="179">
+        <v>1</v>
+      </c>
+      <c r="L125" s="158">
+        <v>0</v>
+      </c>
+      <c r="M125" s="137"/>
+      <c r="N125" s="137"/>
+      <c r="O125" s="137"/>
+      <c r="P125" s="137"/>
+      <c r="Q125" s="137"/>
+      <c r="R125" s="137"/>
+      <c r="S125" s="137"/>
     </row>
     <row r="126" spans="1:26">
-      <c r="J126" s="6"/>
-      <c r="K126" s="6"/>
-      <c r="L126" s="6"/>
-      <c r="M126" s="6"/>
-      <c r="N126" s="6"/>
-      <c r="O126" s="6"/>
-      <c r="P126" s="6"/>
-      <c r="Q126" s="6"/>
-      <c r="R126" s="6"/>
-      <c r="S126" s="6"/>
+      <c r="A126" s="172">
+        <v>123</v>
+      </c>
+      <c r="B126" s="214"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E126" s="135"/>
+      <c r="F126" s="135"/>
+      <c r="G126" s="136"/>
+      <c r="H126" s="136"/>
+      <c r="I126" s="149" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="J126" s="136"/>
+      <c r="K126" s="179"/>
+      <c r="L126" s="158"/>
+      <c r="M126" s="137"/>
+      <c r="N126" s="137"/>
+      <c r="O126" s="137"/>
+      <c r="P126" s="137"/>
+      <c r="Q126" s="137"/>
+      <c r="R126" s="137"/>
+      <c r="S126" s="137"/>
     </row>
     <row r="127" spans="1:26">
       <c r="J127" s="6"/>
@@ -23038,18 +23431,6 @@
       <c r="Q187" s="6"/>
       <c r="R187" s="6"/>
       <c r="S187" s="6"/>
-    </row>
-    <row r="188" spans="10:19">
-      <c r="J188" s="6"/>
-      <c r="K188" s="6"/>
-      <c r="L188" s="6"/>
-      <c r="M188" s="6"/>
-      <c r="N188" s="6"/>
-      <c r="O188" s="6"/>
-      <c r="P188" s="6"/>
-      <c r="Q188" s="6"/>
-      <c r="R188" s="6"/>
-      <c r="S188" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -23065,136 +23446,147 @@
     <mergeCell ref="F1:F4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <conditionalFormatting sqref="D117:D65536">
-    <cfRule type="expression" dxfId="53" priority="22" stopIfTrue="1">
-      <formula>D117="未着手"</formula>
+  <conditionalFormatting sqref="D127:D65535">
+    <cfRule type="expression" dxfId="56" priority="25" stopIfTrue="1">
+      <formula>D127="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="23" stopIfTrue="1">
-      <formula>D117="作業中"</formula>
+    <cfRule type="expression" dxfId="55" priority="26" stopIfTrue="1">
+      <formula>D127="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="24" stopIfTrue="1">
-      <formula>OR(D117="終了",D117="完了")</formula>
+    <cfRule type="expression" dxfId="54" priority="27" stopIfTrue="1">
+      <formula>OR(D127="終了",D127="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59:H82 E89:E115 E83:H104 D83:D116 A5:A122 I59:I122 G90:G115 F108 H108 K108:S108 K13:XFD18 D6:I58 K53:XFD56 L50:XFD52 K58:XFD61 L57:XFD57 K63:XFD67 L62:XFD62 K83:XFD88 L68:XFD82 K42:XFD49 L19:XFD41 K102:XFD104 L89:XFD101 L5:XFD12 D5:K5">
-    <cfRule type="expression" dxfId="50" priority="25" stopIfTrue="1">
+  <conditionalFormatting sqref="D59:H82 F107 H107 K107 K13:XFD18 D6:I58 K53:XFD56 L50:XFD52 K58:XFD61 L57:XFD57 L62:XFD62 L68:XFD82 K42:XFD49 M19:XFD41 D5:XFD5 E93:E114 E83:H103 G90:G114 K83:XFD83 A5:A126 I59:I126 B5:C101 B89:B121 J6:J98 D82:D126 K100:K103 J99:K99 K84:K98 M84:XFD103 M107:S107 J120:S120 J100:J114 L84:L108 L12:XFD12 M6:XFD11 L116:L118 L125:L126 K63:XFD67">
+    <cfRule type="expression" dxfId="53" priority="28" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="29" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="30" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B106:B65536">
-    <cfRule type="expression" dxfId="47" priority="28" stopIfTrue="1">
-      <formula>D106="未着手"</formula>
+  <conditionalFormatting sqref="B105:B65535">
+    <cfRule type="expression" dxfId="50" priority="31" stopIfTrue="1">
+      <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="29" stopIfTrue="1">
-      <formula>D106="作業中"</formula>
+    <cfRule type="expression" dxfId="49" priority="32" stopIfTrue="1">
+      <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="30" stopIfTrue="1">
-      <formula>OR(D106="終了",D106="完了")</formula>
+    <cfRule type="expression" dxfId="48" priority="33" stopIfTrue="1">
+      <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C123:C65536">
-    <cfRule type="expression" dxfId="44" priority="31" stopIfTrue="1">
-      <formula>D123="未着手"</formula>
+  <conditionalFormatting sqref="C127:C65535">
+    <cfRule type="expression" dxfId="47" priority="34" stopIfTrue="1">
+      <formula>D127="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="32" stopIfTrue="1">
-      <formula>D123="作業中"</formula>
+    <cfRule type="expression" dxfId="46" priority="35" stopIfTrue="1">
+      <formula>D127="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="33" stopIfTrue="1">
-      <formula>OR(D123="終了",D123="完了")</formula>
+    <cfRule type="expression" dxfId="45" priority="36" stopIfTrue="1">
+      <formula>OR(D127="終了",D127="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E123:S65536 E99:G116 E100:E122 K105:S107 E105:H122 J118:S122 K109:S117">
-    <cfRule type="expression" dxfId="41" priority="34" stopIfTrue="1">
-      <formula>$D99="未着手"</formula>
+  <conditionalFormatting sqref="E127:S65535 E98:G115 E99:E118 K104:K106 E104:H118 G121:H124 E125:H126 K108:K118 K125:K126 M121:S126 M108:S118 M104:S106 L109:L115">
+    <cfRule type="expression" dxfId="44" priority="37" stopIfTrue="1">
+      <formula>$D98="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="35" stopIfTrue="1">
-      <formula>$D99="作業中"</formula>
+    <cfRule type="expression" dxfId="43" priority="38" stopIfTrue="1">
+      <formula>$D98="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="36" stopIfTrue="1">
-      <formula>OR($D99="終了",$D99="完了")</formula>
+    <cfRule type="expression" dxfId="42" priority="39" stopIfTrue="1">
+      <formula>OR($D98="終了",$D98="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:C102 B89:B122 C97:C122">
+  <conditionalFormatting sqref="C96:C126 E119:H119 J119:S119">
+    <cfRule type="expression" dxfId="41" priority="22" stopIfTrue="1">
+      <formula>$D96="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="23" stopIfTrue="1">
+      <formula>$D96="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="24" stopIfTrue="1">
+      <formula>OR($D96="終了",$D96="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B109:B110">
     <cfRule type="expression" dxfId="38" priority="19" stopIfTrue="1">
-      <formula>$D5="未着手"</formula>
+      <formula>D109="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="37" priority="20" stopIfTrue="1">
-      <formula>$D5="作業中"</formula>
+      <formula>D109="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="36" priority="21" stopIfTrue="1">
-      <formula>OR($D5="終了",$D5="完了")</formula>
+      <formula>OR(D109="終了",D109="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B110:B111">
+  <conditionalFormatting sqref="B120:B121">
     <cfRule type="expression" dxfId="35" priority="16" stopIfTrue="1">
-      <formula>D110="未着手"</formula>
+      <formula>D120="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="34" priority="17" stopIfTrue="1">
-      <formula>D110="作業中"</formula>
+      <formula>D120="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="33" priority="18" stopIfTrue="1">
-      <formula>OR(D110="終了",D110="完了")</formula>
+      <formula>OR(D120="終了",D120="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B121:B122">
+  <conditionalFormatting sqref="B103:B104">
     <cfRule type="expression" dxfId="32" priority="13" stopIfTrue="1">
-      <formula>D121="未着手"</formula>
+      <formula>D103="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="31" priority="14" stopIfTrue="1">
-      <formula>D121="作業中"</formula>
+      <formula>D103="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="30" priority="15" stopIfTrue="1">
-      <formula>OR(D121="終了",D121="完了")</formula>
+      <formula>OR(D103="終了",D103="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B104:B105">
+  <conditionalFormatting sqref="B114:B115">
     <cfRule type="expression" dxfId="29" priority="10" stopIfTrue="1">
-      <formula>D104="未着手"</formula>
+      <formula>D114="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="28" priority="11" stopIfTrue="1">
-      <formula>D104="作業中"</formula>
+      <formula>D114="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="27" priority="12" stopIfTrue="1">
-      <formula>OR(D104="終了",D104="完了")</formula>
+      <formula>OR(D114="終了",D114="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B115:B116">
-    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
-      <formula>D115="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
-      <formula>D115="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="9" stopIfTrue="1">
-      <formula>OR(D115="終了",D115="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6:J115 K50:K52 K57 K62 K68:K82 K19:K41 K89:K101 K6:K12 K110:K115">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="K50:K52 K57 K62 K68:K82 K6:K12 K19:L41 L6:L11 K109:L114">
+    <cfRule type="expression" dxfId="26" priority="4" stopIfTrue="1">
       <formula>$D6="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="5" stopIfTrue="1">
       <formula>$D6="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="6" stopIfTrue="1">
       <formula>OR($D6="終了",$D6="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J99:J117 K99:K101 K110:L116">
-    <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
-      <formula>$D99="未着手"</formula>
+  <conditionalFormatting sqref="J98:K98 J121:J127 J100:J118 K100 K109:L115 K121:L124">
+    <cfRule type="expression" dxfId="23" priority="7" stopIfTrue="1">
+      <formula>$D98="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="5" stopIfTrue="1">
-      <formula>$D99="作業中"</formula>
+    <cfRule type="expression" dxfId="22" priority="8" stopIfTrue="1">
+      <formula>$D98="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="6" stopIfTrue="1">
-      <formula>OR($D99="終了",$D99="完了")</formula>
+    <cfRule type="expression" dxfId="21" priority="9" stopIfTrue="1">
+      <formula>OR($D98="終了",$D98="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120:F124 G120:H120">
+    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
+      <formula>$D120="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
+      <formula>$D120="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
+      <formula>OR($D120="終了",$D120="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -26429,57 +26821,57 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD104">
-    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:P65536">
-    <cfRule type="expression" dxfId="8" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="13" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="14" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27293,13 +27685,13 @@
   <autoFilter ref="B1:K51"/>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="A2:K51">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>$D2="要望"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$D2="確認済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$D2="対応"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/タスク/07班スプリントバックログ.xlsx
+++ b/タスク/07班スプリントバックログ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kousuke Nakagawa\Desktop\Team07\タスク\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kousuke Nakagawa\Desktop\team07バックログ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="258">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -2764,6 +2764,69 @@
     <t>志村</t>
     <rPh sb="0" eb="2">
       <t>シムラ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>中川</t>
+    <rPh sb="0" eb="2">
+      <t>ナカガワ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>敵おばちゃんのぐてーっとしたアニメーション追加</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>お客のぐてーっとしたアニメーション追加</t>
+    <rPh sb="1" eb="2">
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>警備員のぐてーっとしたアニメーション追加</t>
+    <rPh sb="0" eb="3">
+      <t>ケイビイン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>子連れ客のぐてーっとしたアニメーション追加</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>店員のぐてーっとしたアニメーション追加</t>
+    <rPh sb="0" eb="2">
+      <t>テンイン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -4184,6 +4247,39 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4264,39 +4360,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6471,13 +6534,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>180.2</c:v>
+                  <c:v>185.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>153.19999999999999</c:v>
+                  <c:v>158.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>139</c:v>
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6557,28 +6623,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>180</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>157</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>135</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>112</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7039,16 +7105,16 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -7176,13 +7242,13 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -7397,7 +7463,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -7406,7 +7472,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -9424,19 +9490,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="189" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1">
-      <c r="D2" s="181" t="s">
+      <c r="D2" s="190" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="181"/>
+      <c r="E2" s="190"/>
     </row>
     <row r="3" spans="1:5" ht="7.5" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:5" s="46" customFormat="1" ht="14.25" thickBot="1">
@@ -9455,7 +9521,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="191" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="76"/>
@@ -9464,21 +9530,21 @@
       <c r="E5" s="49"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="183"/>
+      <c r="A6" s="192"/>
       <c r="B6" s="70"/>
       <c r="C6" s="50"/>
       <c r="D6" s="51"/>
       <c r="E6" s="52"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="183"/>
+      <c r="A7" s="192"/>
       <c r="B7" s="70"/>
       <c r="C7" s="50"/>
       <c r="D7" s="51"/>
       <c r="E7" s="52"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="183"/>
+      <c r="A8" s="192"/>
       <c r="B8" s="71">
         <v>43025</v>
       </c>
@@ -9487,7 +9553,7 @@
       <c r="E8" s="52"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="183"/>
+      <c r="A9" s="192"/>
       <c r="B9" s="72">
         <f>B8</f>
         <v>43025</v>
@@ -9497,49 +9563,49 @@
       <c r="E9" s="52"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="183"/>
+      <c r="A10" s="192"/>
       <c r="B10" s="72"/>
       <c r="C10" s="50"/>
       <c r="D10" s="51"/>
       <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="183"/>
+      <c r="A11" s="192"/>
       <c r="B11" s="71"/>
       <c r="C11" s="50"/>
       <c r="D11" s="51"/>
       <c r="E11" s="52"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="183"/>
+      <c r="A12" s="192"/>
       <c r="B12" s="69"/>
       <c r="C12" s="55"/>
       <c r="D12" s="51"/>
       <c r="E12" s="52"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="183"/>
+      <c r="A13" s="192"/>
       <c r="B13" s="68"/>
       <c r="C13" s="53"/>
       <c r="D13" s="51"/>
       <c r="E13" s="52"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="183"/>
+      <c r="A14" s="192"/>
       <c r="B14" s="70"/>
       <c r="C14" s="50"/>
       <c r="D14" s="51"/>
       <c r="E14" s="52"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="183"/>
+      <c r="A15" s="192"/>
       <c r="B15" s="71"/>
       <c r="C15" s="50"/>
       <c r="D15" s="51"/>
       <c r="E15" s="52"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="183"/>
+      <c r="A16" s="192"/>
       <c r="B16" s="71">
         <v>43028</v>
       </c>
@@ -9548,7 +9614,7 @@
       <c r="E16" s="52"/>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="183"/>
+      <c r="A17" s="192"/>
       <c r="B17" s="72">
         <f>B16</f>
         <v>43028</v>
@@ -9558,49 +9624,49 @@
       <c r="E17" s="52"/>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="183"/>
+      <c r="A18" s="192"/>
       <c r="B18" s="72"/>
       <c r="C18" s="50"/>
       <c r="D18" s="51"/>
       <c r="E18" s="52"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="183"/>
+      <c r="A19" s="192"/>
       <c r="B19" s="71"/>
       <c r="C19" s="50"/>
       <c r="D19" s="51"/>
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="183"/>
+      <c r="A20" s="192"/>
       <c r="B20" s="69"/>
       <c r="C20" s="55"/>
       <c r="D20" s="51"/>
       <c r="E20" s="52"/>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="183"/>
+      <c r="A21" s="192"/>
       <c r="B21" s="68"/>
       <c r="C21" s="53"/>
       <c r="D21" s="51"/>
       <c r="E21" s="52"/>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="183"/>
+      <c r="A22" s="192"/>
       <c r="B22" s="70"/>
       <c r="C22" s="50"/>
       <c r="D22" s="51"/>
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="183"/>
+      <c r="A23" s="192"/>
       <c r="B23" s="70"/>
       <c r="C23" s="50"/>
       <c r="D23" s="51"/>
       <c r="E23" s="52"/>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="183"/>
+      <c r="A24" s="192"/>
       <c r="B24" s="71">
         <v>43032</v>
       </c>
@@ -9609,7 +9675,7 @@
       <c r="E24" s="52"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="183"/>
+      <c r="A25" s="192"/>
       <c r="B25" s="72">
         <f>B24</f>
         <v>43032</v>
@@ -9619,49 +9685,49 @@
       <c r="E25" s="52"/>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="183"/>
+      <c r="A26" s="192"/>
       <c r="B26" s="72"/>
       <c r="C26" s="50"/>
       <c r="D26" s="51"/>
       <c r="E26" s="52"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="183"/>
+      <c r="A27" s="192"/>
       <c r="B27" s="71"/>
       <c r="C27" s="50"/>
       <c r="D27" s="51"/>
       <c r="E27" s="52"/>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="183"/>
+      <c r="A28" s="192"/>
       <c r="B28" s="70"/>
       <c r="C28" s="55"/>
       <c r="D28" s="51"/>
       <c r="E28" s="52"/>
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="183"/>
+      <c r="A29" s="192"/>
       <c r="B29" s="68"/>
       <c r="C29" s="78"/>
       <c r="D29" s="51"/>
       <c r="E29" s="54"/>
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="183"/>
+      <c r="A30" s="192"/>
       <c r="B30" s="70"/>
       <c r="C30" s="75"/>
       <c r="D30" s="51"/>
       <c r="E30" s="54"/>
     </row>
     <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="183"/>
+      <c r="A31" s="192"/>
       <c r="B31" s="70"/>
       <c r="C31" s="50"/>
       <c r="D31" s="51"/>
       <c r="E31" s="54"/>
     </row>
     <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="183"/>
+      <c r="A32" s="192"/>
       <c r="B32" s="71">
         <v>43035</v>
       </c>
@@ -9670,7 +9736,7 @@
       <c r="E32" s="52"/>
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="183"/>
+      <c r="A33" s="192"/>
       <c r="B33" s="72">
         <f>B32</f>
         <v>43035</v>
@@ -9680,49 +9746,49 @@
       <c r="E33" s="52"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="183"/>
+      <c r="A34" s="192"/>
       <c r="B34" s="72"/>
       <c r="C34" s="50"/>
       <c r="D34" s="51"/>
       <c r="E34" s="52"/>
     </row>
     <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="183"/>
+      <c r="A35" s="192"/>
       <c r="B35" s="71"/>
       <c r="C35" s="50"/>
       <c r="D35" s="51"/>
       <c r="E35" s="52"/>
     </row>
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="183"/>
+      <c r="A36" s="192"/>
       <c r="B36" s="69"/>
       <c r="C36" s="55"/>
       <c r="D36" s="51"/>
       <c r="E36" s="52"/>
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="183"/>
+      <c r="A37" s="192"/>
       <c r="B37" s="68"/>
       <c r="C37" s="50"/>
       <c r="D37" s="51"/>
       <c r="E37" s="52"/>
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="183"/>
+      <c r="A38" s="192"/>
       <c r="B38" s="70"/>
       <c r="C38" s="50"/>
       <c r="D38" s="51"/>
       <c r="E38" s="52"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="183"/>
+      <c r="A39" s="192"/>
       <c r="B39" s="70"/>
       <c r="C39" s="50"/>
       <c r="D39" s="51"/>
       <c r="E39" s="52"/>
     </row>
     <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="183"/>
+      <c r="A40" s="192"/>
       <c r="B40" s="71">
         <v>43039</v>
       </c>
@@ -9731,7 +9797,7 @@
       <c r="E40" s="52"/>
     </row>
     <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="183"/>
+      <c r="A41" s="192"/>
       <c r="B41" s="72">
         <f>B40</f>
         <v>43039</v>
@@ -9741,28 +9807,28 @@
       <c r="E41" s="52"/>
     </row>
     <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="183"/>
+      <c r="A42" s="192"/>
       <c r="B42" s="72"/>
       <c r="C42" s="50"/>
       <c r="D42" s="51"/>
       <c r="E42" s="52"/>
     </row>
     <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="183"/>
+      <c r="A43" s="192"/>
       <c r="B43" s="71"/>
       <c r="C43" s="50"/>
       <c r="D43" s="51"/>
       <c r="E43" s="52"/>
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="183"/>
+      <c r="A44" s="192"/>
       <c r="B44" s="69"/>
       <c r="C44" s="50"/>
       <c r="D44" s="51"/>
       <c r="E44" s="52"/>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="183"/>
+      <c r="A45" s="192"/>
       <c r="B45" s="87" t="s">
         <v>43</v>
       </c>
@@ -9771,21 +9837,21 @@
       <c r="E45" s="52"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="183"/>
+      <c r="A46" s="192"/>
       <c r="B46" s="70"/>
       <c r="C46" s="50"/>
       <c r="D46" s="51"/>
       <c r="E46" s="54"/>
     </row>
     <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="183"/>
+      <c r="A47" s="192"/>
       <c r="B47" s="70"/>
       <c r="C47" s="50"/>
       <c r="D47" s="51"/>
       <c r="E47" s="54"/>
     </row>
     <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="183"/>
+      <c r="A48" s="192"/>
       <c r="B48" s="71">
         <v>43042</v>
       </c>
@@ -9794,7 +9860,7 @@
       <c r="E48" s="54"/>
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="183"/>
+      <c r="A49" s="192"/>
       <c r="B49" s="72">
         <f>B48</f>
         <v>43042</v>
@@ -9804,28 +9870,28 @@
       <c r="E49" s="52"/>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="183"/>
+      <c r="A50" s="192"/>
       <c r="B50" s="72"/>
       <c r="C50" s="50"/>
       <c r="D50" s="56"/>
       <c r="E50" s="52"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="183"/>
+      <c r="A51" s="192"/>
       <c r="B51" s="71"/>
       <c r="C51" s="50"/>
       <c r="D51" s="56"/>
       <c r="E51" s="63"/>
     </row>
     <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="183"/>
+      <c r="A52" s="192"/>
       <c r="B52" s="69"/>
       <c r="C52" s="55"/>
       <c r="D52" s="56"/>
       <c r="E52" s="57"/>
     </row>
     <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="183"/>
+      <c r="A53" s="192"/>
       <c r="B53" s="80"/>
       <c r="C53" s="78" t="s">
         <v>41</v>
@@ -9834,7 +9900,7 @@
       <c r="E53" s="57"/>
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="183"/>
+      <c r="A54" s="192"/>
       <c r="B54" s="81"/>
       <c r="C54" s="75" t="s">
         <v>40</v>
@@ -9843,14 +9909,14 @@
       <c r="E54" s="57"/>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="183"/>
+      <c r="A55" s="192"/>
       <c r="B55" s="81"/>
       <c r="C55" s="50"/>
       <c r="D55" s="56"/>
       <c r="E55" s="57"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="183"/>
+      <c r="A56" s="192"/>
       <c r="B56" s="82">
         <v>43046</v>
       </c>
@@ -9859,7 +9925,7 @@
       <c r="E56" s="57"/>
     </row>
     <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A57" s="183"/>
+      <c r="A57" s="192"/>
       <c r="B57" s="83">
         <f>B56</f>
         <v>43046</v>
@@ -9869,28 +9935,28 @@
       <c r="E57" s="57"/>
     </row>
     <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="183"/>
+      <c r="A58" s="192"/>
       <c r="B58" s="83"/>
       <c r="C58" s="50"/>
       <c r="D58" s="56"/>
       <c r="E58" s="57"/>
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="183"/>
+      <c r="A59" s="192"/>
       <c r="B59" s="82"/>
       <c r="C59" s="50"/>
       <c r="D59" s="56"/>
       <c r="E59" s="57"/>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="183"/>
+      <c r="A60" s="192"/>
       <c r="B60" s="84"/>
       <c r="C60" s="55"/>
       <c r="D60" s="56"/>
       <c r="E60" s="57"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="183"/>
+      <c r="A61" s="192"/>
       <c r="B61" s="80"/>
       <c r="C61" s="78" t="s">
         <v>41</v>
@@ -9899,7 +9965,7 @@
       <c r="E61" s="57"/>
     </row>
     <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="183"/>
+      <c r="A62" s="192"/>
       <c r="B62" s="81"/>
       <c r="C62" s="75" t="s">
         <v>40</v>
@@ -9908,14 +9974,14 @@
       <c r="E62" s="57"/>
     </row>
     <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="183"/>
+      <c r="A63" s="192"/>
       <c r="B63" s="81"/>
       <c r="C63" s="50"/>
       <c r="D63" s="56"/>
       <c r="E63" s="57"/>
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="183"/>
+      <c r="A64" s="192"/>
       <c r="B64" s="82">
         <v>43049</v>
       </c>
@@ -9924,7 +9990,7 @@
       <c r="E64" s="57"/>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="183"/>
+      <c r="A65" s="192"/>
       <c r="B65" s="83">
         <f>B64</f>
         <v>43049</v>
@@ -9934,28 +10000,28 @@
       <c r="E65" s="57"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="183"/>
+      <c r="A66" s="192"/>
       <c r="B66" s="83"/>
       <c r="C66" s="50"/>
       <c r="D66" s="56"/>
       <c r="E66" s="57"/>
     </row>
     <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="183"/>
+      <c r="A67" s="192"/>
       <c r="B67" s="82"/>
       <c r="C67" s="50"/>
       <c r="D67" s="56"/>
       <c r="E67" s="57"/>
     </row>
     <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A68" s="183"/>
+      <c r="A68" s="192"/>
       <c r="B68" s="84"/>
       <c r="C68" s="55"/>
       <c r="D68" s="56"/>
       <c r="E68" s="57"/>
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="184" t="s">
+      <c r="A69" s="193" t="s">
         <v>45</v>
       </c>
       <c r="B69" s="76"/>
@@ -9964,21 +10030,21 @@
       <c r="E69" s="49"/>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="185"/>
+      <c r="A70" s="194"/>
       <c r="B70" s="70"/>
       <c r="C70" s="50"/>
       <c r="D70" s="89"/>
       <c r="E70" s="52"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="185"/>
+      <c r="A71" s="194"/>
       <c r="B71" s="70"/>
       <c r="C71" s="50"/>
       <c r="D71" s="89"/>
       <c r="E71" s="52"/>
     </row>
     <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="185"/>
+      <c r="A72" s="194"/>
       <c r="B72" s="71">
         <v>43053</v>
       </c>
@@ -9987,7 +10053,7 @@
       <c r="E72" s="52"/>
     </row>
     <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="185"/>
+      <c r="A73" s="194"/>
       <c r="B73" s="72">
         <f>B72</f>
         <v>43053</v>
@@ -9997,49 +10063,49 @@
       <c r="E73" s="57"/>
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="185"/>
+      <c r="A74" s="194"/>
       <c r="B74" s="72"/>
       <c r="C74" s="50"/>
       <c r="D74" s="90"/>
       <c r="E74" s="57"/>
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="185"/>
+      <c r="A75" s="194"/>
       <c r="B75" s="71"/>
       <c r="C75" s="50"/>
       <c r="D75" s="90"/>
       <c r="E75" s="57"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="185"/>
+      <c r="A76" s="194"/>
       <c r="B76" s="69"/>
       <c r="C76" s="55"/>
       <c r="D76" s="90"/>
       <c r="E76" s="57"/>
     </row>
     <row r="77" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="185"/>
+      <c r="A77" s="194"/>
       <c r="B77" s="70"/>
       <c r="C77" s="78"/>
       <c r="D77" s="89"/>
       <c r="E77" s="52"/>
     </row>
     <row r="78" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="185"/>
+      <c r="A78" s="194"/>
       <c r="B78" s="70"/>
       <c r="C78" s="75"/>
       <c r="D78" s="91"/>
       <c r="E78" s="54"/>
     </row>
     <row r="79" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="185"/>
+      <c r="A79" s="194"/>
       <c r="B79" s="70"/>
       <c r="C79" s="73"/>
       <c r="D79" s="91"/>
       <c r="E79" s="54"/>
     </row>
     <row r="80" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="185"/>
+      <c r="A80" s="194"/>
       <c r="B80" s="71">
         <v>43056</v>
       </c>
@@ -10048,7 +10114,7 @@
       <c r="E80" s="52"/>
     </row>
     <row r="81" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="185"/>
+      <c r="A81" s="194"/>
       <c r="B81" s="72">
         <f>B80</f>
         <v>43056</v>
@@ -10058,49 +10124,49 @@
       <c r="E81" s="52"/>
     </row>
     <row r="82" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="185"/>
+      <c r="A82" s="194"/>
       <c r="B82" s="72"/>
       <c r="C82" s="50"/>
       <c r="D82" s="89"/>
       <c r="E82" s="52"/>
     </row>
     <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="185"/>
+      <c r="A83" s="194"/>
       <c r="B83" s="71"/>
       <c r="C83" s="50"/>
       <c r="D83" s="89"/>
       <c r="E83" s="52"/>
     </row>
     <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="185"/>
+      <c r="A84" s="194"/>
       <c r="B84" s="70"/>
       <c r="C84" s="55"/>
       <c r="D84" s="90"/>
       <c r="E84" s="57"/>
     </row>
     <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="185"/>
+      <c r="A85" s="194"/>
       <c r="B85" s="68"/>
       <c r="C85" s="73"/>
       <c r="D85" s="89"/>
       <c r="E85" s="52"/>
     </row>
     <row r="86" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="185"/>
+      <c r="A86" s="194"/>
       <c r="B86" s="70"/>
       <c r="C86" s="73"/>
       <c r="D86" s="91"/>
       <c r="E86" s="54"/>
     </row>
     <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A87" s="185"/>
+      <c r="A87" s="194"/>
       <c r="B87" s="70"/>
       <c r="C87" s="73"/>
       <c r="D87" s="91"/>
       <c r="E87" s="54"/>
     </row>
     <row r="88" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A88" s="185"/>
+      <c r="A88" s="194"/>
       <c r="B88" s="71">
         <v>43060</v>
       </c>
@@ -10109,7 +10175,7 @@
       <c r="E88" s="52"/>
     </row>
     <row r="89" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A89" s="185"/>
+      <c r="A89" s="194"/>
       <c r="B89" s="72">
         <f>B88</f>
         <v>43060</v>
@@ -10119,49 +10185,49 @@
       <c r="E89" s="52"/>
     </row>
     <row r="90" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A90" s="185"/>
+      <c r="A90" s="194"/>
       <c r="B90" s="72"/>
       <c r="C90" s="50"/>
       <c r="D90" s="89"/>
       <c r="E90" s="52"/>
     </row>
     <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="185"/>
+      <c r="A91" s="194"/>
       <c r="B91" s="71"/>
       <c r="C91" s="50"/>
       <c r="D91" s="89"/>
       <c r="E91" s="52"/>
     </row>
     <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A92" s="185"/>
+      <c r="A92" s="194"/>
       <c r="B92" s="69"/>
       <c r="C92" s="55"/>
       <c r="D92" s="89"/>
       <c r="E92" s="52"/>
     </row>
     <row r="93" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A93" s="185"/>
+      <c r="A93" s="194"/>
       <c r="B93" s="70"/>
       <c r="C93" s="73"/>
       <c r="D93" s="89"/>
       <c r="E93" s="54"/>
     </row>
     <row r="94" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A94" s="185"/>
+      <c r="A94" s="194"/>
       <c r="B94" s="70"/>
       <c r="C94" s="75"/>
       <c r="D94" s="89"/>
       <c r="E94" s="54"/>
     </row>
     <row r="95" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A95" s="185"/>
+      <c r="A95" s="194"/>
       <c r="B95" s="70"/>
       <c r="C95" s="75"/>
       <c r="D95" s="89"/>
       <c r="E95" s="54"/>
     </row>
     <row r="96" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A96" s="185"/>
+      <c r="A96" s="194"/>
       <c r="B96" s="71">
         <v>43063</v>
       </c>
@@ -10170,7 +10236,7 @@
       <c r="E96" s="52"/>
     </row>
     <row r="97" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A97" s="185"/>
+      <c r="A97" s="194"/>
       <c r="B97" s="72">
         <f>B96</f>
         <v>43063</v>
@@ -10180,49 +10246,49 @@
       <c r="E97" s="52"/>
     </row>
     <row r="98" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A98" s="185"/>
+      <c r="A98" s="194"/>
       <c r="B98" s="72"/>
       <c r="C98" s="50"/>
       <c r="D98" s="89"/>
       <c r="E98" s="52"/>
     </row>
     <row r="99" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A99" s="185"/>
+      <c r="A99" s="194"/>
       <c r="B99" s="71"/>
       <c r="C99" s="50"/>
       <c r="D99" s="89"/>
       <c r="E99" s="52"/>
     </row>
     <row r="100" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A100" s="185"/>
+      <c r="A100" s="194"/>
       <c r="B100" s="69"/>
       <c r="C100" s="55"/>
       <c r="D100" s="89"/>
       <c r="E100" s="52"/>
     </row>
     <row r="101" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A101" s="185"/>
+      <c r="A101" s="194"/>
       <c r="B101" s="70"/>
       <c r="C101" s="78"/>
       <c r="D101" s="89"/>
       <c r="E101" s="54"/>
     </row>
     <row r="102" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A102" s="185"/>
+      <c r="A102" s="194"/>
       <c r="B102" s="70"/>
       <c r="C102" s="75"/>
       <c r="D102" s="89"/>
       <c r="E102" s="52"/>
     </row>
     <row r="103" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A103" s="185"/>
+      <c r="A103" s="194"/>
       <c r="B103" s="70"/>
       <c r="C103" s="75"/>
       <c r="D103" s="89"/>
       <c r="E103" s="52"/>
     </row>
     <row r="104" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A104" s="185"/>
+      <c r="A104" s="194"/>
       <c r="B104" s="71">
         <v>43067</v>
       </c>
@@ -10231,7 +10297,7 @@
       <c r="E104" s="52"/>
     </row>
     <row r="105" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A105" s="185"/>
+      <c r="A105" s="194"/>
       <c r="B105" s="72">
         <f>B104</f>
         <v>43067</v>
@@ -10241,49 +10307,49 @@
       <c r="E105" s="52"/>
     </row>
     <row r="106" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A106" s="185"/>
+      <c r="A106" s="194"/>
       <c r="B106" s="72"/>
       <c r="C106" s="50"/>
       <c r="D106" s="89"/>
       <c r="E106" s="52"/>
     </row>
     <row r="107" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A107" s="185"/>
+      <c r="A107" s="194"/>
       <c r="B107" s="71"/>
       <c r="C107" s="50"/>
       <c r="D107" s="89"/>
       <c r="E107" s="52"/>
     </row>
     <row r="108" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A108" s="185"/>
+      <c r="A108" s="194"/>
       <c r="B108" s="69"/>
       <c r="C108" s="55"/>
       <c r="D108" s="51"/>
       <c r="E108" s="52"/>
     </row>
     <row r="109" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A109" s="185"/>
+      <c r="A109" s="194"/>
       <c r="B109" s="70"/>
       <c r="C109" s="73"/>
       <c r="D109" s="91"/>
       <c r="E109" s="54"/>
     </row>
     <row r="110" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A110" s="185"/>
+      <c r="A110" s="194"/>
       <c r="B110" s="70"/>
       <c r="C110" s="75"/>
       <c r="D110" s="89"/>
       <c r="E110" s="54"/>
     </row>
     <row r="111" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A111" s="185"/>
+      <c r="A111" s="194"/>
       <c r="B111" s="70"/>
       <c r="C111" s="75"/>
       <c r="D111" s="89"/>
       <c r="E111" s="54"/>
     </row>
     <row r="112" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A112" s="185"/>
+      <c r="A112" s="194"/>
       <c r="B112" s="71">
         <v>43070</v>
       </c>
@@ -10292,7 +10358,7 @@
       <c r="E112" s="52"/>
     </row>
     <row r="113" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A113" s="185"/>
+      <c r="A113" s="194"/>
       <c r="B113" s="72">
         <f>B112</f>
         <v>43070</v>
@@ -10302,49 +10368,49 @@
       <c r="E113" s="52"/>
     </row>
     <row r="114" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A114" s="185"/>
+      <c r="A114" s="194"/>
       <c r="B114" s="72"/>
       <c r="C114" s="50"/>
       <c r="D114" s="89"/>
       <c r="E114" s="52"/>
     </row>
     <row r="115" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A115" s="185"/>
+      <c r="A115" s="194"/>
       <c r="B115" s="71"/>
       <c r="C115" s="50"/>
       <c r="D115" s="89"/>
       <c r="E115" s="52"/>
     </row>
     <row r="116" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A116" s="185"/>
+      <c r="A116" s="194"/>
       <c r="B116" s="69"/>
       <c r="C116" s="55"/>
       <c r="D116" s="89"/>
       <c r="E116" s="52"/>
     </row>
     <row r="117" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A117" s="185"/>
+      <c r="A117" s="194"/>
       <c r="B117" s="70"/>
       <c r="C117" s="73"/>
       <c r="D117" s="89"/>
       <c r="E117" s="52"/>
     </row>
     <row r="118" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A118" s="185"/>
+      <c r="A118" s="194"/>
       <c r="B118" s="70"/>
       <c r="C118" s="75"/>
       <c r="D118" s="89"/>
       <c r="E118" s="52"/>
     </row>
     <row r="119" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A119" s="185"/>
+      <c r="A119" s="194"/>
       <c r="B119" s="70"/>
       <c r="C119" s="75"/>
       <c r="D119" s="89"/>
       <c r="E119" s="52"/>
     </row>
     <row r="120" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A120" s="185"/>
+      <c r="A120" s="194"/>
       <c r="B120" s="71">
         <v>43074</v>
       </c>
@@ -10353,7 +10419,7 @@
       <c r="E120" s="52"/>
     </row>
     <row r="121" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A121" s="185"/>
+      <c r="A121" s="194"/>
       <c r="B121" s="72">
         <f>B120</f>
         <v>43074</v>
@@ -10363,49 +10429,49 @@
       <c r="E121" s="52"/>
     </row>
     <row r="122" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A122" s="185"/>
+      <c r="A122" s="194"/>
       <c r="B122" s="72"/>
       <c r="C122" s="50"/>
       <c r="D122" s="89"/>
       <c r="E122" s="52"/>
     </row>
     <row r="123" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A123" s="185"/>
+      <c r="A123" s="194"/>
       <c r="B123" s="71"/>
       <c r="C123" s="50"/>
       <c r="D123" s="89"/>
       <c r="E123" s="52"/>
     </row>
     <row r="124" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A124" s="185"/>
+      <c r="A124" s="194"/>
       <c r="B124" s="69"/>
       <c r="C124" s="55"/>
       <c r="D124" s="89"/>
       <c r="E124" s="52"/>
     </row>
     <row r="125" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A125" s="185"/>
+      <c r="A125" s="194"/>
       <c r="B125" s="70"/>
       <c r="C125" s="73"/>
       <c r="D125" s="89"/>
       <c r="E125" s="52"/>
     </row>
     <row r="126" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A126" s="185"/>
+      <c r="A126" s="194"/>
       <c r="B126" s="70"/>
       <c r="C126" s="75"/>
       <c r="D126" s="89"/>
       <c r="E126" s="52"/>
     </row>
     <row r="127" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A127" s="185"/>
+      <c r="A127" s="194"/>
       <c r="B127" s="70"/>
       <c r="C127" s="75"/>
       <c r="D127" s="89"/>
       <c r="E127" s="52"/>
     </row>
     <row r="128" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A128" s="185"/>
+      <c r="A128" s="194"/>
       <c r="B128" s="71">
         <v>43077</v>
       </c>
@@ -10414,7 +10480,7 @@
       <c r="E128" s="52"/>
     </row>
     <row r="129" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A129" s="185"/>
+      <c r="A129" s="194"/>
       <c r="B129" s="72">
         <f>B128</f>
         <v>43077</v>
@@ -10424,28 +10490,28 @@
       <c r="E129" s="52"/>
     </row>
     <row r="130" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A130" s="185"/>
+      <c r="A130" s="194"/>
       <c r="B130" s="72"/>
       <c r="C130" s="50"/>
       <c r="D130" s="89"/>
       <c r="E130" s="52"/>
     </row>
     <row r="131" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A131" s="185"/>
+      <c r="A131" s="194"/>
       <c r="B131" s="71"/>
       <c r="C131" s="50"/>
       <c r="D131" s="89"/>
       <c r="E131" s="52"/>
     </row>
     <row r="132" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A132" s="185"/>
+      <c r="A132" s="194"/>
       <c r="B132" s="69"/>
       <c r="C132" s="55"/>
       <c r="D132" s="89"/>
       <c r="E132" s="52"/>
     </row>
     <row r="133" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A133" s="185"/>
+      <c r="A133" s="194"/>
       <c r="B133" s="81"/>
       <c r="C133" s="78" t="s">
         <v>42</v>
@@ -10454,7 +10520,7 @@
       <c r="E133" s="52"/>
     </row>
     <row r="134" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A134" s="185"/>
+      <c r="A134" s="194"/>
       <c r="B134" s="81"/>
       <c r="C134" s="75" t="s">
         <v>40</v>
@@ -10463,14 +10529,14 @@
       <c r="E134" s="52"/>
     </row>
     <row r="135" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A135" s="185"/>
+      <c r="A135" s="194"/>
       <c r="B135" s="81"/>
       <c r="C135" s="75"/>
       <c r="D135" s="89"/>
       <c r="E135" s="52"/>
     </row>
     <row r="136" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A136" s="185"/>
+      <c r="A136" s="194"/>
       <c r="B136" s="82">
         <v>43081</v>
       </c>
@@ -10479,7 +10545,7 @@
       <c r="E136" s="52"/>
     </row>
     <row r="137" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A137" s="185"/>
+      <c r="A137" s="194"/>
       <c r="B137" s="83">
         <f>B136</f>
         <v>43081</v>
@@ -10489,28 +10555,28 @@
       <c r="E137" s="52"/>
     </row>
     <row r="138" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A138" s="185"/>
+      <c r="A138" s="194"/>
       <c r="B138" s="83"/>
       <c r="C138" s="50"/>
       <c r="D138" s="89"/>
       <c r="E138" s="52"/>
     </row>
     <row r="139" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A139" s="185"/>
+      <c r="A139" s="194"/>
       <c r="B139" s="82"/>
       <c r="C139" s="50"/>
       <c r="D139" s="89"/>
       <c r="E139" s="52"/>
     </row>
     <row r="140" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A140" s="185"/>
+      <c r="A140" s="194"/>
       <c r="B140" s="84"/>
       <c r="C140" s="55"/>
       <c r="D140" s="89"/>
       <c r="E140" s="52"/>
     </row>
     <row r="141" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A141" s="185"/>
+      <c r="A141" s="194"/>
       <c r="B141" s="81"/>
       <c r="C141" s="78" t="s">
         <v>42</v>
@@ -10519,7 +10585,7 @@
       <c r="E141" s="52"/>
     </row>
     <row r="142" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A142" s="185"/>
+      <c r="A142" s="194"/>
       <c r="B142" s="81"/>
       <c r="C142" s="75" t="s">
         <v>40</v>
@@ -10528,14 +10594,14 @@
       <c r="E142" s="52"/>
     </row>
     <row r="143" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A143" s="185"/>
+      <c r="A143" s="194"/>
       <c r="B143" s="81"/>
       <c r="C143" s="75"/>
       <c r="D143" s="89"/>
       <c r="E143" s="52"/>
     </row>
     <row r="144" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A144" s="185"/>
+      <c r="A144" s="194"/>
       <c r="B144" s="82">
         <v>43084</v>
       </c>
@@ -10544,7 +10610,7 @@
       <c r="E144" s="52"/>
     </row>
     <row r="145" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A145" s="185"/>
+      <c r="A145" s="194"/>
       <c r="B145" s="83">
         <f>B144</f>
         <v>43084</v>
@@ -10554,28 +10620,28 @@
       <c r="E145" s="52"/>
     </row>
     <row r="146" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A146" s="185"/>
+      <c r="A146" s="194"/>
       <c r="B146" s="83"/>
       <c r="C146" s="50"/>
       <c r="D146" s="89"/>
       <c r="E146" s="52"/>
     </row>
     <row r="147" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A147" s="185"/>
+      <c r="A147" s="194"/>
       <c r="B147" s="82"/>
       <c r="C147" s="50"/>
       <c r="D147" s="89"/>
       <c r="E147" s="52"/>
     </row>
     <row r="148" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A148" s="186"/>
+      <c r="A148" s="195"/>
       <c r="B148" s="94"/>
       <c r="C148" s="58"/>
       <c r="D148" s="92"/>
       <c r="E148" s="59"/>
     </row>
     <row r="149" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A149" s="187" t="s">
+      <c r="A149" s="196" t="s">
         <v>47</v>
       </c>
       <c r="B149" s="76"/>
@@ -10584,21 +10650,21 @@
       <c r="E149" s="49"/>
     </row>
     <row r="150" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A150" s="188"/>
+      <c r="A150" s="197"/>
       <c r="B150" s="70"/>
       <c r="C150" s="75"/>
       <c r="D150" s="89"/>
       <c r="E150" s="52"/>
     </row>
     <row r="151" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A151" s="188"/>
+      <c r="A151" s="197"/>
       <c r="B151" s="70"/>
       <c r="C151" s="75"/>
       <c r="D151" s="89"/>
       <c r="E151" s="52"/>
     </row>
     <row r="152" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A152" s="188"/>
+      <c r="A152" s="197"/>
       <c r="B152" s="71">
         <v>43088</v>
       </c>
@@ -10607,7 +10673,7 @@
       <c r="E152" s="52"/>
     </row>
     <row r="153" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A153" s="188"/>
+      <c r="A153" s="197"/>
       <c r="B153" s="72">
         <f>B152</f>
         <v>43088</v>
@@ -10617,49 +10683,49 @@
       <c r="E153" s="52"/>
     </row>
     <row r="154" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A154" s="188"/>
+      <c r="A154" s="197"/>
       <c r="B154" s="72"/>
       <c r="C154" s="50"/>
       <c r="D154" s="89"/>
       <c r="E154" s="52"/>
     </row>
     <row r="155" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A155" s="188"/>
+      <c r="A155" s="197"/>
       <c r="B155" s="71"/>
       <c r="C155" s="50"/>
       <c r="D155" s="89"/>
       <c r="E155" s="52"/>
     </row>
     <row r="156" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A156" s="188"/>
+      <c r="A156" s="197"/>
       <c r="B156" s="69"/>
       <c r="C156" s="60"/>
       <c r="D156" s="89"/>
       <c r="E156" s="52"/>
     </row>
     <row r="157" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A157" s="188"/>
+      <c r="A157" s="197"/>
       <c r="B157" s="70"/>
       <c r="C157" s="75"/>
       <c r="D157" s="91"/>
       <c r="E157" s="54"/>
     </row>
     <row r="158" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A158" s="188"/>
+      <c r="A158" s="197"/>
       <c r="B158" s="65"/>
       <c r="C158" s="75"/>
       <c r="D158" s="91"/>
       <c r="E158" s="54"/>
     </row>
     <row r="159" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A159" s="188"/>
+      <c r="A159" s="197"/>
       <c r="B159" s="65"/>
       <c r="C159" s="50"/>
       <c r="D159" s="91"/>
       <c r="E159" s="54"/>
     </row>
     <row r="160" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A160" s="188"/>
+      <c r="A160" s="197"/>
       <c r="B160" s="71">
         <v>43091</v>
       </c>
@@ -10668,7 +10734,7 @@
       <c r="E160" s="52"/>
     </row>
     <row r="161" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A161" s="188"/>
+      <c r="A161" s="197"/>
       <c r="B161" s="77">
         <f>B160</f>
         <v>43091</v>
@@ -10678,49 +10744,49 @@
       <c r="E161" s="52"/>
     </row>
     <row r="162" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A162" s="188"/>
+      <c r="A162" s="197"/>
       <c r="B162" s="77"/>
       <c r="C162" s="50"/>
       <c r="D162" s="89"/>
       <c r="E162" s="52"/>
     </row>
     <row r="163" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A163" s="188"/>
+      <c r="A163" s="197"/>
       <c r="B163" s="66"/>
       <c r="C163" s="50"/>
       <c r="D163" s="89"/>
       <c r="E163" s="52"/>
     </row>
     <row r="164" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A164" s="188"/>
+      <c r="A164" s="197"/>
       <c r="B164" s="67"/>
       <c r="C164" s="55"/>
       <c r="D164" s="89"/>
       <c r="E164" s="52"/>
     </row>
     <row r="165" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A165" s="188"/>
+      <c r="A165" s="197"/>
       <c r="B165" s="70"/>
       <c r="C165" s="75"/>
       <c r="D165" s="89"/>
       <c r="E165" s="54"/>
     </row>
     <row r="166" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A166" s="188"/>
+      <c r="A166" s="197"/>
       <c r="B166" s="70"/>
       <c r="C166" s="75"/>
       <c r="D166" s="89"/>
       <c r="E166" s="54"/>
     </row>
     <row r="167" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A167" s="188"/>
+      <c r="A167" s="197"/>
       <c r="B167" s="70"/>
       <c r="C167" s="75"/>
       <c r="D167" s="89"/>
       <c r="E167" s="54"/>
     </row>
     <row r="168" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A168" s="188"/>
+      <c r="A168" s="197"/>
       <c r="B168" s="71">
         <v>43105</v>
       </c>
@@ -10729,7 +10795,7 @@
       <c r="E168" s="54"/>
     </row>
     <row r="169" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A169" s="188"/>
+      <c r="A169" s="197"/>
       <c r="B169" s="72">
         <f>B168</f>
         <v>43105</v>
@@ -10739,49 +10805,49 @@
       <c r="E169" s="54"/>
     </row>
     <row r="170" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A170" s="188"/>
+      <c r="A170" s="197"/>
       <c r="B170" s="72"/>
       <c r="C170" s="50"/>
       <c r="D170" s="89"/>
       <c r="E170" s="54"/>
     </row>
     <row r="171" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A171" s="188"/>
+      <c r="A171" s="197"/>
       <c r="B171" s="71"/>
       <c r="C171" s="50"/>
       <c r="D171" s="89"/>
       <c r="E171" s="54"/>
     </row>
     <row r="172" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A172" s="188"/>
+      <c r="A172" s="197"/>
       <c r="B172" s="69"/>
       <c r="C172" s="55"/>
       <c r="D172" s="89"/>
       <c r="E172" s="54"/>
     </row>
     <row r="173" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A173" s="188"/>
+      <c r="A173" s="197"/>
       <c r="B173" s="70"/>
       <c r="C173" s="73"/>
       <c r="D173" s="89"/>
       <c r="E173" s="54"/>
     </row>
     <row r="174" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A174" s="188"/>
+      <c r="A174" s="197"/>
       <c r="B174" s="70"/>
       <c r="C174" s="75"/>
       <c r="D174" s="89"/>
       <c r="E174" s="54"/>
     </row>
     <row r="175" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A175" s="188"/>
+      <c r="A175" s="197"/>
       <c r="B175" s="70"/>
       <c r="C175" s="75"/>
       <c r="D175" s="89"/>
       <c r="E175" s="54"/>
     </row>
     <row r="176" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A176" s="188"/>
+      <c r="A176" s="197"/>
       <c r="B176" s="71">
         <v>43109</v>
       </c>
@@ -10790,7 +10856,7 @@
       <c r="E176" s="54"/>
     </row>
     <row r="177" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A177" s="188"/>
+      <c r="A177" s="197"/>
       <c r="B177" s="72">
         <f>B176</f>
         <v>43109</v>
@@ -10800,49 +10866,49 @@
       <c r="E177" s="54"/>
     </row>
     <row r="178" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A178" s="188"/>
+      <c r="A178" s="197"/>
       <c r="B178" s="72"/>
       <c r="C178" s="50"/>
       <c r="D178" s="89"/>
       <c r="E178" s="54"/>
     </row>
     <row r="179" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A179" s="188"/>
+      <c r="A179" s="197"/>
       <c r="B179" s="71"/>
       <c r="C179" s="50"/>
       <c r="D179" s="89"/>
       <c r="E179" s="54"/>
     </row>
     <row r="180" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A180" s="188"/>
+      <c r="A180" s="197"/>
       <c r="B180" s="69"/>
       <c r="C180" s="55"/>
       <c r="D180" s="89"/>
       <c r="E180" s="54"/>
     </row>
     <row r="181" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A181" s="188"/>
+      <c r="A181" s="197"/>
       <c r="B181" s="70"/>
       <c r="C181" s="75"/>
       <c r="D181" s="89"/>
       <c r="E181" s="54"/>
     </row>
     <row r="182" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A182" s="188"/>
+      <c r="A182" s="197"/>
       <c r="B182" s="70"/>
       <c r="C182" s="75"/>
       <c r="D182" s="89"/>
       <c r="E182" s="54"/>
     </row>
     <row r="183" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A183" s="188"/>
+      <c r="A183" s="197"/>
       <c r="B183" s="70"/>
       <c r="C183" s="75"/>
       <c r="D183" s="89"/>
       <c r="E183" s="54"/>
     </row>
     <row r="184" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A184" s="188"/>
+      <c r="A184" s="197"/>
       <c r="B184" s="71">
         <v>43112</v>
       </c>
@@ -10851,7 +10917,7 @@
       <c r="E184" s="54"/>
     </row>
     <row r="185" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A185" s="188"/>
+      <c r="A185" s="197"/>
       <c r="B185" s="72">
         <f>B184</f>
         <v>43112</v>
@@ -10861,28 +10927,28 @@
       <c r="E185" s="54"/>
     </row>
     <row r="186" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A186" s="188"/>
+      <c r="A186" s="197"/>
       <c r="B186" s="72"/>
       <c r="C186" s="50"/>
       <c r="D186" s="89"/>
       <c r="E186" s="54"/>
     </row>
     <row r="187" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A187" s="188"/>
+      <c r="A187" s="197"/>
       <c r="B187" s="71"/>
       <c r="C187" s="50"/>
       <c r="D187" s="89"/>
       <c r="E187" s="54"/>
     </row>
     <row r="188" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A188" s="188"/>
+      <c r="A188" s="197"/>
       <c r="B188" s="69"/>
       <c r="C188" s="55"/>
       <c r="D188" s="89"/>
       <c r="E188" s="54"/>
     </row>
     <row r="189" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A189" s="188"/>
+      <c r="A189" s="197"/>
       <c r="B189" s="95"/>
       <c r="C189" s="75" t="s">
         <v>48</v>
@@ -10891,7 +10957,7 @@
       <c r="E189" s="54"/>
     </row>
     <row r="190" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A190" s="188"/>
+      <c r="A190" s="197"/>
       <c r="B190" s="96"/>
       <c r="C190" s="75" t="s">
         <v>40</v>
@@ -10900,14 +10966,14 @@
       <c r="E190" s="54"/>
     </row>
     <row r="191" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A191" s="188"/>
+      <c r="A191" s="197"/>
       <c r="B191" s="96"/>
       <c r="C191" s="75"/>
       <c r="D191" s="89"/>
       <c r="E191" s="54"/>
     </row>
     <row r="192" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A192" s="188"/>
+      <c r="A192" s="197"/>
       <c r="B192" s="82">
         <v>43116</v>
       </c>
@@ -10916,7 +10982,7 @@
       <c r="E192" s="52"/>
     </row>
     <row r="193" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A193" s="188"/>
+      <c r="A193" s="197"/>
       <c r="B193" s="97">
         <f>B192</f>
         <v>43116</v>
@@ -10926,28 +10992,28 @@
       <c r="E193" s="52"/>
     </row>
     <row r="194" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A194" s="188"/>
+      <c r="A194" s="197"/>
       <c r="B194" s="97"/>
       <c r="C194" s="50"/>
       <c r="D194" s="89"/>
       <c r="E194" s="52"/>
     </row>
     <row r="195" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A195" s="188"/>
+      <c r="A195" s="197"/>
       <c r="B195" s="98"/>
       <c r="C195" s="50"/>
       <c r="D195" s="89"/>
       <c r="E195" s="52"/>
     </row>
     <row r="196" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A196" s="188"/>
+      <c r="A196" s="197"/>
       <c r="B196" s="84"/>
       <c r="C196" s="55"/>
       <c r="D196" s="89"/>
       <c r="E196" s="52"/>
     </row>
     <row r="197" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A197" s="188"/>
+      <c r="A197" s="197"/>
       <c r="B197" s="95"/>
       <c r="C197" s="75" t="s">
         <v>48</v>
@@ -10956,7 +11022,7 @@
       <c r="E197" s="54"/>
     </row>
     <row r="198" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A198" s="188"/>
+      <c r="A198" s="197"/>
       <c r="B198" s="96"/>
       <c r="C198" s="75" t="s">
         <v>40</v>
@@ -10965,14 +11031,14 @@
       <c r="E198" s="54"/>
     </row>
     <row r="199" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A199" s="188"/>
+      <c r="A199" s="197"/>
       <c r="B199" s="96"/>
       <c r="C199" s="50"/>
       <c r="D199" s="89"/>
       <c r="E199" s="54"/>
     </row>
     <row r="200" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A200" s="188"/>
+      <c r="A200" s="197"/>
       <c r="B200" s="82">
         <v>43119</v>
       </c>
@@ -10981,7 +11047,7 @@
       <c r="E200" s="54"/>
     </row>
     <row r="201" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A201" s="188"/>
+      <c r="A201" s="197"/>
       <c r="B201" s="97">
         <f>B200</f>
         <v>43119</v>
@@ -10991,21 +11057,21 @@
       <c r="E201" s="54"/>
     </row>
     <row r="202" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A202" s="188"/>
+      <c r="A202" s="197"/>
       <c r="B202" s="97"/>
       <c r="C202" s="50"/>
       <c r="D202" s="89"/>
       <c r="E202" s="54"/>
     </row>
     <row r="203" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A203" s="188"/>
+      <c r="A203" s="197"/>
       <c r="B203" s="98"/>
       <c r="C203" s="50"/>
       <c r="D203" s="89"/>
       <c r="E203" s="54"/>
     </row>
     <row r="204" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A204" s="189"/>
+      <c r="A204" s="198"/>
       <c r="B204" s="94"/>
       <c r="C204" s="58"/>
       <c r="D204" s="92"/>
@@ -11121,53 +11187,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="100" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="202" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="193" t="s">
+      <c r="B1" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="193" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="193" t="s">
+      <c r="C1" s="202" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="202" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="196" t="s">
+      <c r="E1" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="196" t="s">
+      <c r="F1" s="205" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="197" t="s">
+      <c r="G1" s="206" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="197" t="s">
+      <c r="H1" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="193" t="s">
+      <c r="I1" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="190" t="s">
+      <c r="J1" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="192"/>
-      <c r="P1" s="192"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="201"/>
+      <c r="P1" s="201"/>
     </row>
     <row r="2" spans="1:31" s="100" customFormat="1">
-      <c r="A2" s="193"/>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="198"/>
-      <c r="I2" s="193"/>
+      <c r="A2" s="202"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="202"/>
       <c r="J2" s="101" t="s">
         <v>49</v>
       </c>
@@ -11191,15 +11257,15 @@
       </c>
     </row>
     <row r="3" spans="1:31" s="100" customFormat="1">
-      <c r="A3" s="193"/>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="196"/>
-      <c r="G3" s="198"/>
-      <c r="H3" s="198"/>
-      <c r="I3" s="193"/>
+      <c r="A3" s="202"/>
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="202"/>
       <c r="J3" s="103">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
         <v>190</v>
@@ -11230,15 +11296,15 @@
       </c>
     </row>
     <row r="4" spans="1:31" s="100" customFormat="1">
-      <c r="A4" s="193"/>
-      <c r="B4" s="194"/>
-      <c r="C4" s="195"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="196"/>
-      <c r="G4" s="198"/>
-      <c r="H4" s="198"/>
-      <c r="I4" s="193"/>
+      <c r="A4" s="202"/>
+      <c r="B4" s="203"/>
+      <c r="C4" s="204"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="202"/>
       <c r="J4" s="104">
         <f>SUM(J5:J157)</f>
         <v>190</v>
@@ -17511,8 +17577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="D103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N108" sqref="N108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17533,56 +17599,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="210" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="201" t="s">
+      <c r="C1" s="210" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="207" t="s">
+      <c r="E1" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="207" t="s">
+      <c r="F1" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="199" t="s">
+      <c r="G1" s="208" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="199" t="s">
+      <c r="H1" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="201" t="s">
+      <c r="I1" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="202" t="s">
+      <c r="J1" s="211" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="204"/>
-      <c r="P1" s="204"/>
-      <c r="Q1" s="204"/>
-      <c r="R1" s="204"/>
-      <c r="S1" s="204"/>
+      <c r="K1" s="212"/>
+      <c r="L1" s="212"/>
+      <c r="M1" s="212"/>
+      <c r="N1" s="213"/>
+      <c r="O1" s="213"/>
+      <c r="P1" s="213"/>
+      <c r="Q1" s="213"/>
+      <c r="R1" s="213"/>
+      <c r="S1" s="213"/>
     </row>
     <row r="2" spans="1:19" s="8" customFormat="1">
-      <c r="A2" s="201"/>
-      <c r="B2" s="205"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="201"/>
+      <c r="A2" s="210"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="210"/>
       <c r="J2" s="23" t="s">
         <v>56</v>
       </c>
@@ -17611,73 +17677,76 @@
       <c r="S2" s="99"/>
     </row>
     <row r="3" spans="1:19" s="8" customFormat="1">
-      <c r="A3" s="201"/>
-      <c r="B3" s="205"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="200"/>
-      <c r="H3" s="200"/>
-      <c r="I3" s="201"/>
+      <c r="A3" s="210"/>
+      <c r="B3" s="214"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="210"/>
       <c r="J3" s="20">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$S$2))))</f>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="K3" s="20">
         <f t="shared" ref="K3:Q3" si="0">INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$S$2))))</f>
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L3" s="20">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M3" s="20">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="N3" s="20">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O3" s="20">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P3" s="20">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="20">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R3" s="20"/>
       <c r="S3" s="20"/>
     </row>
     <row r="4" spans="1:19" s="8" customFormat="1">
-      <c r="A4" s="201"/>
-      <c r="B4" s="205"/>
-      <c r="C4" s="206"/>
-      <c r="D4" s="201"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="200"/>
-      <c r="H4" s="200"/>
-      <c r="I4" s="201"/>
+      <c r="A4" s="210"/>
+      <c r="B4" s="214"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="210"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="209"/>
+      <c r="H4" s="209"/>
+      <c r="I4" s="210"/>
       <c r="J4" s="21">
-        <f>SUM(J5:J126)</f>
-        <v>180.2</v>
+        <f>SUM(J5:J186)</f>
+        <v>185.2</v>
       </c>
       <c r="K4" s="21">
-        <f>SUM(K5:K126)</f>
-        <v>153.19999999999999</v>
+        <f t="shared" ref="K4:M4" si="1">SUM(K5:K186)</f>
+        <v>158.19999999999999</v>
       </c>
       <c r="L4" s="21">
-        <f>SUM(L5:L126)</f>
-        <v>139</v>
-      </c>
-      <c r="M4" s="21"/>
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="M4" s="21">
+        <f>SUM(M5:M186)</f>
+        <v>124</v>
+      </c>
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>
@@ -17696,7 +17765,7 @@
         <v>106</v>
       </c>
       <c r="D5" s="143" t="str">
-        <f t="shared" ref="D5:D50" si="1">IF(ISBLANK($B5),"",IF(ISBLANK($F5),"未着手",IF($I5=0,"完了","作業中")))</f>
+        <f t="shared" ref="D5:D50" si="2">IF(ISBLANK($B5),"",IF(ISBLANK($F5),"未着手",IF($I5=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="E5" s="144"/>
@@ -17704,7 +17773,7 @@
       <c r="G5" s="145"/>
       <c r="H5" s="145"/>
       <c r="I5" s="143" t="str">
-        <f t="shared" ref="I5:I57" ca="1" si="2">IF(ISBLANK(J5)=FALSE,OFFSET(I5,0,COUNTA(J5:S5)),"")</f>
+        <f t="shared" ref="I5:I57" ca="1" si="3">IF(ISBLANK(J5)=FALSE,OFFSET(I5,0,COUNTA(J5:S5)),"")</f>
         <v/>
       </c>
       <c r="J5" s="146"/>
@@ -17729,7 +17798,7 @@
         <v>106</v>
       </c>
       <c r="D6" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E6" s="4">
@@ -17741,7 +17810,7 @@
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
       <c r="J6" s="19">
@@ -17753,7 +17822,9 @@
       <c r="L6" s="19">
         <v>6</v>
       </c>
-      <c r="M6" s="22"/>
+      <c r="M6" s="19">
+        <v>6</v>
+      </c>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
@@ -17772,7 +17843,7 @@
         <v>106</v>
       </c>
       <c r="D7" s="143" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E7" s="144"/>
@@ -17780,13 +17851,13 @@
       <c r="G7" s="145"/>
       <c r="H7" s="145"/>
       <c r="I7" s="143" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J7" s="145"/>
       <c r="K7" s="145"/>
       <c r="L7" s="145"/>
-      <c r="M7" s="146"/>
+      <c r="M7" s="145"/>
       <c r="N7" s="146"/>
       <c r="O7" s="146"/>
       <c r="P7" s="146"/>
@@ -17805,7 +17876,7 @@
         <v>106</v>
       </c>
       <c r="D8" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E8" s="4">
@@ -17817,7 +17888,7 @@
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
       <c r="J8" s="19">
@@ -17829,7 +17900,9 @@
       <c r="L8" s="19">
         <v>6</v>
       </c>
-      <c r="M8" s="22"/>
+      <c r="M8" s="19">
+        <v>6</v>
+      </c>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
@@ -17848,7 +17921,7 @@
         <v>106</v>
       </c>
       <c r="D9" s="143" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E9" s="144"/>
@@ -17856,13 +17929,13 @@
       <c r="G9" s="145"/>
       <c r="H9" s="145"/>
       <c r="I9" s="143" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J9" s="145"/>
       <c r="K9" s="145"/>
       <c r="L9" s="145"/>
-      <c r="M9" s="146"/>
+      <c r="M9" s="145"/>
       <c r="N9" s="146"/>
       <c r="O9" s="146"/>
       <c r="P9" s="146"/>
@@ -17881,7 +17954,7 @@
         <v>106</v>
       </c>
       <c r="D10" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E10" s="4">
@@ -17895,7 +17968,7 @@
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J10" s="19">
@@ -17907,7 +17980,9 @@
       <c r="L10" s="19">
         <v>0</v>
       </c>
-      <c r="M10" s="22"/>
+      <c r="M10" s="19">
+        <v>0</v>
+      </c>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
@@ -17926,7 +18001,7 @@
         <v>106</v>
       </c>
       <c r="D11" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E11" s="4">
@@ -17938,7 +18013,7 @@
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
       <c r="J11" s="19">
@@ -17950,7 +18025,9 @@
       <c r="L11" s="19">
         <v>6</v>
       </c>
-      <c r="M11" s="22"/>
+      <c r="M11" s="19">
+        <v>6</v>
+      </c>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
@@ -17969,7 +18046,7 @@
         <v>106</v>
       </c>
       <c r="D12" s="143" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E12" s="144"/>
@@ -17977,7 +18054,7 @@
       <c r="G12" s="145"/>
       <c r="H12" s="145"/>
       <c r="I12" s="143" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J12" s="145"/>
@@ -18002,7 +18079,7 @@
         <v>106</v>
       </c>
       <c r="D13" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E13" s="4">
@@ -18018,7 +18095,7 @@
         <v>3</v>
       </c>
       <c r="I13" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J13" s="19">
@@ -18047,7 +18124,7 @@
         <v>106</v>
       </c>
       <c r="D14" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E14" s="4">
@@ -18063,7 +18140,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J14" s="19">
@@ -18095,7 +18172,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J15" s="19"/>
@@ -18118,7 +18195,7 @@
         <v>106</v>
       </c>
       <c r="D16" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E16" s="4"/>
@@ -18126,7 +18203,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J16" s="19"/>
@@ -18149,7 +18226,7 @@
         <v>106</v>
       </c>
       <c r="D17" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E17" s="4"/>
@@ -18157,7 +18234,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J17" s="19"/>
@@ -18182,7 +18259,7 @@
         <v>108</v>
       </c>
       <c r="D18" s="143" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E18" s="144"/>
@@ -18190,7 +18267,7 @@
       <c r="G18" s="145"/>
       <c r="H18" s="145"/>
       <c r="I18" s="143" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J18" s="145"/>
@@ -18215,7 +18292,7 @@
         <v>108</v>
       </c>
       <c r="D19" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E19" s="4">
@@ -18231,7 +18308,7 @@
         <v>3</v>
       </c>
       <c r="I19" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J19" s="19">
@@ -18243,7 +18320,9 @@
       <c r="L19" s="19">
         <v>0</v>
       </c>
-      <c r="M19" s="22"/>
+      <c r="M19" s="19">
+        <v>0</v>
+      </c>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
@@ -18262,7 +18341,7 @@
         <v>108</v>
       </c>
       <c r="D20" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E20" s="4">
@@ -18278,7 +18357,7 @@
         <v>7</v>
       </c>
       <c r="I20" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J20" s="19">
@@ -18290,7 +18369,9 @@
       <c r="L20" s="19">
         <v>0</v>
       </c>
-      <c r="M20" s="22"/>
+      <c r="M20" s="19">
+        <v>0</v>
+      </c>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
       <c r="P20" s="22"/>
@@ -18309,7 +18390,7 @@
         <v>108</v>
       </c>
       <c r="D21" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E21" s="4">
@@ -18325,7 +18406,7 @@
         <v>4</v>
       </c>
       <c r="I21" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J21" s="19">
@@ -18337,7 +18418,9 @@
       <c r="L21" s="19">
         <v>0</v>
       </c>
-      <c r="M21" s="22"/>
+      <c r="M21" s="19">
+        <v>0</v>
+      </c>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
@@ -18356,20 +18439,24 @@
         <v>108</v>
       </c>
       <c r="D22" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
       </c>
       <c r="E22" s="4">
         <v>43056</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4">
+        <v>43063</v>
+      </c>
       <c r="G22" s="19">
         <v>2</v>
       </c>
-      <c r="H22" s="19"/>
+      <c r="H22" s="19">
+        <v>2</v>
+      </c>
       <c r="I22" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="J22" s="19">
         <v>2</v>
@@ -18380,7 +18467,9 @@
       <c r="L22" s="19">
         <v>2</v>
       </c>
-      <c r="M22" s="22"/>
+      <c r="M22" s="19">
+        <v>0</v>
+      </c>
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
@@ -18399,20 +18488,24 @@
         <v>108</v>
       </c>
       <c r="D23" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>作業中</v>
       </c>
       <c r="E23" s="4">
         <v>43056</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="4">
+        <v>43063</v>
+      </c>
       <c r="G23" s="19">
         <v>4</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="19">
+        <v>1</v>
+      </c>
       <c r="I23" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="J23" s="19">
         <v>4</v>
@@ -18423,7 +18516,9 @@
       <c r="L23" s="19">
         <v>4</v>
       </c>
-      <c r="M23" s="22"/>
+      <c r="M23" s="19">
+        <v>3</v>
+      </c>
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
@@ -18442,7 +18537,7 @@
         <v>108</v>
       </c>
       <c r="D24" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E24" s="4">
@@ -18458,7 +18553,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J24" s="19">
@@ -18470,7 +18565,9 @@
       <c r="L24" s="19">
         <v>0</v>
       </c>
-      <c r="M24" s="22"/>
+      <c r="M24" s="19">
+        <v>0</v>
+      </c>
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
       <c r="P24" s="22"/>
@@ -18487,7 +18584,7 @@
         <v>108</v>
       </c>
       <c r="D25" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E25" s="4"/>
@@ -18495,13 +18592,13 @@
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
       <c r="I25" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
-      <c r="M25" s="22"/>
+      <c r="M25" s="19"/>
       <c r="N25" s="22"/>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
@@ -18520,8 +18617,8 @@
         <v>108</v>
       </c>
       <c r="D26" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
       </c>
       <c r="E26" s="4">
         <v>43060</v>
@@ -18533,11 +18630,11 @@
         <v>4</v>
       </c>
       <c r="H26" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="J26" s="19">
         <v>4</v>
@@ -18548,7 +18645,9 @@
       <c r="L26" s="19">
         <v>1</v>
       </c>
-      <c r="M26" s="22"/>
+      <c r="M26" s="19">
+        <v>0</v>
+      </c>
       <c r="N26" s="22"/>
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
@@ -18567,7 +18666,7 @@
         <v>108</v>
       </c>
       <c r="D27" s="143" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E27" s="144"/>
@@ -18575,13 +18674,13 @@
       <c r="G27" s="145"/>
       <c r="H27" s="145"/>
       <c r="I27" s="143" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J27" s="145"/>
       <c r="K27" s="145"/>
       <c r="L27" s="145"/>
-      <c r="M27" s="146"/>
+      <c r="M27" s="145"/>
       <c r="N27" s="146"/>
       <c r="O27" s="146"/>
       <c r="P27" s="146"/>
@@ -18600,20 +18699,24 @@
         <v>108</v>
       </c>
       <c r="D28" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>作業中</v>
       </c>
       <c r="E28" s="4">
         <v>43067</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="4">
+        <v>43063</v>
+      </c>
       <c r="G28" s="19">
         <v>3</v>
       </c>
-      <c r="H28" s="19"/>
+      <c r="H28" s="19">
+        <v>2</v>
+      </c>
       <c r="I28" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="J28" s="19">
         <v>3</v>
@@ -18624,7 +18727,9 @@
       <c r="L28" s="19">
         <v>3</v>
       </c>
-      <c r="M28" s="22"/>
+      <c r="M28" s="19">
+        <v>1</v>
+      </c>
       <c r="N28" s="22"/>
       <c r="O28" s="22"/>
       <c r="P28" s="22"/>
@@ -18643,7 +18748,7 @@
         <v>108</v>
       </c>
       <c r="D29" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E29" s="4">
@@ -18655,7 +18760,7 @@
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="J29" s="19">
@@ -18667,7 +18772,9 @@
       <c r="L29" s="19">
         <v>2</v>
       </c>
-      <c r="M29" s="22"/>
+      <c r="M29" s="19">
+        <v>2</v>
+      </c>
       <c r="N29" s="22"/>
       <c r="O29" s="22"/>
       <c r="P29" s="22"/>
@@ -18686,7 +18793,7 @@
         <v>108</v>
       </c>
       <c r="D30" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E30" s="4">
@@ -18698,7 +18805,7 @@
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
       <c r="J30" s="19">
@@ -18710,7 +18817,9 @@
       <c r="L30" s="19">
         <v>4</v>
       </c>
-      <c r="M30" s="22"/>
+      <c r="M30" s="19">
+        <v>4</v>
+      </c>
       <c r="N30" s="22"/>
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
@@ -18729,7 +18838,7 @@
         <v>108</v>
       </c>
       <c r="D31" s="143" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E31" s="144"/>
@@ -18737,13 +18846,13 @@
       <c r="G31" s="145"/>
       <c r="H31" s="145"/>
       <c r="I31" s="143" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J31" s="145"/>
       <c r="K31" s="145"/>
       <c r="L31" s="145"/>
-      <c r="M31" s="146"/>
+      <c r="M31" s="145"/>
       <c r="N31" s="146"/>
       <c r="O31" s="146"/>
       <c r="P31" s="146"/>
@@ -18762,7 +18871,7 @@
         <v>108</v>
       </c>
       <c r="D32" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E32" s="4">
@@ -18774,7 +18883,7 @@
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="J32" s="19">
@@ -18786,7 +18895,9 @@
       <c r="L32" s="19">
         <v>1</v>
       </c>
-      <c r="M32" s="22"/>
+      <c r="M32" s="19">
+        <v>1</v>
+      </c>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
@@ -18805,7 +18916,7 @@
         <v>108</v>
       </c>
       <c r="D33" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E33" s="4">
@@ -18817,7 +18928,7 @@
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="J33" s="19">
@@ -18829,7 +18940,9 @@
       <c r="L33" s="19">
         <v>3</v>
       </c>
-      <c r="M33" s="22"/>
+      <c r="M33" s="19">
+        <v>3</v>
+      </c>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
       <c r="P33" s="22"/>
@@ -18848,7 +18961,7 @@
         <v>108</v>
       </c>
       <c r="D34" s="143" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E34" s="144"/>
@@ -18856,13 +18969,13 @@
       <c r="G34" s="145"/>
       <c r="H34" s="145"/>
       <c r="I34" s="143" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J34" s="145"/>
       <c r="K34" s="145"/>
       <c r="L34" s="145"/>
-      <c r="M34" s="146"/>
+      <c r="M34" s="145"/>
       <c r="N34" s="146"/>
       <c r="O34" s="146"/>
       <c r="P34" s="146"/>
@@ -18881,7 +18994,7 @@
         <v>108</v>
       </c>
       <c r="D35" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="E35" s="4">
@@ -18897,7 +19010,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J35" s="19">
@@ -18909,7 +19022,9 @@
       <c r="L35" s="19">
         <v>0</v>
       </c>
-      <c r="M35" s="22"/>
+      <c r="M35" s="19">
+        <v>0</v>
+      </c>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
       <c r="P35" s="22"/>
@@ -18928,7 +19043,7 @@
         <v>108</v>
       </c>
       <c r="D36" s="143" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E36" s="144"/>
@@ -18936,13 +19051,13 @@
       <c r="G36" s="145"/>
       <c r="H36" s="145"/>
       <c r="I36" s="143" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J36" s="145"/>
       <c r="K36" s="145"/>
       <c r="L36" s="145"/>
-      <c r="M36" s="146"/>
+      <c r="M36" s="145"/>
       <c r="N36" s="146"/>
       <c r="O36" s="146"/>
       <c r="P36" s="146"/>
@@ -18961,7 +19076,7 @@
         <v>108</v>
       </c>
       <c r="D37" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E37" s="4">
@@ -18973,7 +19088,7 @@
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="J37" s="19">
@@ -18985,7 +19100,9 @@
       <c r="L37" s="19">
         <v>3</v>
       </c>
-      <c r="M37" s="22"/>
+      <c r="M37" s="19">
+        <v>3</v>
+      </c>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
       <c r="P37" s="22"/>
@@ -19004,7 +19121,7 @@
         <v>108</v>
       </c>
       <c r="D38" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E38" s="4">
@@ -19016,7 +19133,7 @@
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="J38" s="19">
@@ -19028,7 +19145,9 @@
       <c r="L38" s="19">
         <v>2</v>
       </c>
-      <c r="M38" s="22"/>
+      <c r="M38" s="19">
+        <v>2</v>
+      </c>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
       <c r="P38" s="22"/>
@@ -19047,7 +19166,7 @@
         <v>108</v>
       </c>
       <c r="D39" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E39" s="4">
@@ -19059,7 +19178,7 @@
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="J39" s="19">
@@ -19071,7 +19190,9 @@
       <c r="L39" s="19">
         <v>2</v>
       </c>
-      <c r="M39" s="22"/>
+      <c r="M39" s="19">
+        <v>2</v>
+      </c>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
       <c r="P39" s="22"/>
@@ -19090,7 +19211,7 @@
         <v>108</v>
       </c>
       <c r="D40" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E40" s="4">
@@ -19102,7 +19223,7 @@
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="J40" s="19">
@@ -19114,7 +19235,9 @@
       <c r="L40" s="19">
         <v>1</v>
       </c>
-      <c r="M40" s="22"/>
+      <c r="M40" s="19">
+        <v>1</v>
+      </c>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
       <c r="P40" s="22"/>
@@ -19133,7 +19256,7 @@
         <v>108</v>
       </c>
       <c r="D41" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E41" s="4">
@@ -19145,7 +19268,7 @@
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
       <c r="J41" s="19">
@@ -19157,7 +19280,9 @@
       <c r="L41" s="19">
         <v>4</v>
       </c>
-      <c r="M41" s="22"/>
+      <c r="M41" s="19">
+        <v>4</v>
+      </c>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
       <c r="P41" s="22"/>
@@ -19174,7 +19299,7 @@
         <v>108</v>
       </c>
       <c r="D42" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E42" s="4"/>
@@ -19182,7 +19307,7 @@
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
       <c r="I42" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J42" s="19"/>
@@ -19205,7 +19330,7 @@
         <v>108</v>
       </c>
       <c r="D43" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E43" s="4"/>
@@ -19213,7 +19338,7 @@
       <c r="G43" s="19"/>
       <c r="H43" s="19"/>
       <c r="I43" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J43" s="19"/>
@@ -19236,7 +19361,7 @@
         <v>108</v>
       </c>
       <c r="D44" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E44" s="4"/>
@@ -19244,7 +19369,7 @@
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
       <c r="I44" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J44" s="19"/>
@@ -19267,7 +19392,7 @@
         <v>108</v>
       </c>
       <c r="D45" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E45" s="4"/>
@@ -19275,7 +19400,7 @@
       <c r="G45" s="19"/>
       <c r="H45" s="19"/>
       <c r="I45" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J45" s="19"/>
@@ -19298,7 +19423,7 @@
         <v>108</v>
       </c>
       <c r="D46" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E46" s="4"/>
@@ -19306,7 +19431,7 @@
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
       <c r="I46" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J46" s="19"/>
@@ -19329,7 +19454,7 @@
         <v>108</v>
       </c>
       <c r="D47" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E47" s="4"/>
@@ -19337,7 +19462,7 @@
       <c r="G47" s="19"/>
       <c r="H47" s="19"/>
       <c r="I47" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J47" s="19"/>
@@ -19360,7 +19485,7 @@
         <v>108</v>
       </c>
       <c r="D48" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E48" s="4"/>
@@ -19368,7 +19493,7 @@
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
       <c r="I48" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J48" s="19"/>
@@ -19393,7 +19518,7 @@
         <v>107</v>
       </c>
       <c r="D49" s="143" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E49" s="144"/>
@@ -19401,7 +19526,7 @@
       <c r="G49" s="145"/>
       <c r="H49" s="145"/>
       <c r="I49" s="143" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J49" s="145"/>
@@ -19426,7 +19551,7 @@
         <v>107</v>
       </c>
       <c r="D50" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
       <c r="E50" s="4">
@@ -19438,7 +19563,7 @@
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="J50" s="19">
@@ -19450,7 +19575,9 @@
       <c r="L50" s="22">
         <v>2</v>
       </c>
-      <c r="M50" s="22"/>
+      <c r="M50" s="22">
+        <v>2</v>
+      </c>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
       <c r="P50" s="22"/>
@@ -19469,7 +19596,7 @@
         <v>107</v>
       </c>
       <c r="D51" s="12" t="str">
-        <f t="shared" ref="D51:D63" si="3">IF(ISBLANK($B51),"",IF(ISBLANK($F51),"未着手",IF($I51=0,"完了","作業中")))</f>
+        <f t="shared" ref="D51:D63" si="4">IF(ISBLANK($B51),"",IF(ISBLANK($F51),"未着手",IF($I51=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="E51" s="4">
@@ -19481,7 +19608,7 @@
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="J51" s="19">
@@ -19493,7 +19620,9 @@
       <c r="L51" s="22">
         <v>3</v>
       </c>
-      <c r="M51" s="22"/>
+      <c r="M51" s="22">
+        <v>3</v>
+      </c>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
       <c r="P51" s="22"/>
@@ -19512,7 +19641,7 @@
         <v>107</v>
       </c>
       <c r="D52" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E52" s="4">
@@ -19524,7 +19653,7 @@
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="J52" s="19">
@@ -19536,7 +19665,9 @@
       <c r="L52" s="22">
         <v>1</v>
       </c>
-      <c r="M52" s="22"/>
+      <c r="M52" s="22">
+        <v>1</v>
+      </c>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
       <c r="P52" s="22"/>
@@ -19555,7 +19686,7 @@
         <v>107</v>
       </c>
       <c r="D53" s="143" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E53" s="144"/>
@@ -19563,7 +19694,7 @@
       <c r="G53" s="145"/>
       <c r="H53" s="145"/>
       <c r="I53" s="143" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J53" s="145"/>
@@ -19588,7 +19719,7 @@
         <v>107</v>
       </c>
       <c r="D54" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="E54" s="4">
@@ -19604,7 +19735,7 @@
         <v>4</v>
       </c>
       <c r="I54" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J54" s="19">
@@ -19631,7 +19762,7 @@
         <v>107</v>
       </c>
       <c r="D55" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="E55" s="4">
@@ -19647,7 +19778,7 @@
         <v>6</v>
       </c>
       <c r="I55" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J55" s="19">
@@ -19674,7 +19805,7 @@
         <v>107</v>
       </c>
       <c r="D56" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="E56" s="4">
@@ -19690,7 +19821,7 @@
         <v>1</v>
       </c>
       <c r="I56" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J56" s="19">
@@ -19717,7 +19848,7 @@
         <v>107</v>
       </c>
       <c r="D57" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E57" s="4">
@@ -19729,7 +19860,7 @@
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="J57" s="19">
@@ -19741,7 +19872,9 @@
       <c r="L57" s="22">
         <v>1</v>
       </c>
-      <c r="M57" s="22"/>
+      <c r="M57" s="22">
+        <v>1</v>
+      </c>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
       <c r="P57" s="22"/>
@@ -19760,7 +19893,7 @@
         <v>107</v>
       </c>
       <c r="D58" s="143" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E58" s="144"/>
@@ -19768,7 +19901,7 @@
       <c r="G58" s="145"/>
       <c r="H58" s="145"/>
       <c r="I58" s="143" t="str">
-        <f t="shared" ref="I58:J121" ca="1" si="4">IF(ISBLANK(J58)=FALSE,OFFSET(I58,0,COUNTA(J58:S58)),"")</f>
+        <f t="shared" ref="I58:I121" ca="1" si="5">IF(ISBLANK(J58)=FALSE,OFFSET(I58,0,COUNTA(J58:S58)),"")</f>
         <v/>
       </c>
       <c r="J58" s="145"/>
@@ -19793,7 +19926,7 @@
         <v>107</v>
       </c>
       <c r="D59" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="E59" s="4">
@@ -19809,7 +19942,7 @@
         <v>6</v>
       </c>
       <c r="I59" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J59" s="19">
@@ -19821,7 +19954,9 @@
       <c r="L59" s="22">
         <v>0</v>
       </c>
-      <c r="M59" s="22"/>
+      <c r="M59" s="22">
+        <v>0</v>
+      </c>
       <c r="N59" s="22"/>
       <c r="O59" s="22"/>
       <c r="P59" s="22"/>
@@ -19840,7 +19975,7 @@
         <v>107</v>
       </c>
       <c r="D60" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="E60" s="4">
@@ -19856,7 +19991,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J60" s="19">
@@ -19883,7 +20018,7 @@
         <v>107</v>
       </c>
       <c r="D61" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="E61" s="4">
@@ -19899,7 +20034,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J61" s="19">
@@ -19926,7 +20061,7 @@
         <v>107</v>
       </c>
       <c r="D62" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E62" s="4">
@@ -19938,7 +20073,7 @@
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="J62" s="19">
@@ -19950,7 +20085,9 @@
       <c r="L62" s="22">
         <v>1</v>
       </c>
-      <c r="M62" s="22"/>
+      <c r="M62" s="22">
+        <v>1</v>
+      </c>
       <c r="N62" s="22"/>
       <c r="O62" s="22"/>
       <c r="P62" s="22"/>
@@ -19969,7 +20106,7 @@
         <v>107</v>
       </c>
       <c r="D63" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="E63" s="4">
@@ -19985,7 +20122,7 @@
         <v>1</v>
       </c>
       <c r="I63" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J63" s="19">
@@ -19997,7 +20134,9 @@
       <c r="L63" s="19">
         <v>0</v>
       </c>
-      <c r="M63" s="22"/>
+      <c r="M63" s="19">
+        <v>0</v>
+      </c>
       <c r="N63" s="22"/>
       <c r="O63" s="22"/>
       <c r="P63" s="22"/>
@@ -20016,7 +20155,7 @@
         <v>107</v>
       </c>
       <c r="D64" s="12" t="str">
-        <f t="shared" ref="D64:D126" ca="1" si="5">IF(ISBLANK($B64),"",IF(ISBLANK($F64),"未着手",IF($I64=0,"完了","作業中")))</f>
+        <f t="shared" ref="D64:D127" ca="1" si="6">IF(ISBLANK($B64),"",IF(ISBLANK($F64),"未着手",IF($I64=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="E64" s="4">
@@ -20032,7 +20171,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J64" s="19">
@@ -20044,7 +20183,9 @@
       <c r="L64" s="19">
         <v>0</v>
       </c>
-      <c r="M64" s="22"/>
+      <c r="M64" s="19">
+        <v>0</v>
+      </c>
       <c r="N64" s="22"/>
       <c r="O64" s="22"/>
       <c r="P64" s="22"/>
@@ -20063,7 +20204,7 @@
         <v>107</v>
       </c>
       <c r="D65" s="143" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="E65" s="144"/>
@@ -20071,13 +20212,13 @@
       <c r="G65" s="145"/>
       <c r="H65" s="145"/>
       <c r="I65" s="143" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J65" s="145"/>
       <c r="K65" s="145"/>
       <c r="L65" s="145"/>
-      <c r="M65" s="146"/>
+      <c r="M65" s="145"/>
       <c r="N65" s="146"/>
       <c r="O65" s="146"/>
       <c r="P65" s="146"/>
@@ -20096,7 +20237,7 @@
         <v>107</v>
       </c>
       <c r="D66" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>完了</v>
       </c>
       <c r="E66" s="4">
@@ -20112,7 +20253,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J66" s="19">
@@ -20124,7 +20265,9 @@
       <c r="L66" s="19">
         <v>0</v>
       </c>
-      <c r="M66" s="22"/>
+      <c r="M66" s="19">
+        <v>0</v>
+      </c>
       <c r="N66" s="22"/>
       <c r="O66" s="22"/>
       <c r="P66" s="22"/>
@@ -20143,7 +20286,7 @@
         <v>107</v>
       </c>
       <c r="D67" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>完了</v>
       </c>
       <c r="E67" s="4">
@@ -20159,7 +20302,7 @@
         <v>1</v>
       </c>
       <c r="I67" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J67" s="19">
@@ -20171,7 +20314,9 @@
       <c r="L67" s="19">
         <v>0</v>
       </c>
-      <c r="M67" s="22"/>
+      <c r="M67" s="19">
+        <v>0</v>
+      </c>
       <c r="N67" s="22"/>
       <c r="O67" s="22"/>
       <c r="P67" s="22"/>
@@ -20190,7 +20335,7 @@
         <v>107</v>
       </c>
       <c r="D68" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="E68" s="4">
@@ -20202,7 +20347,7 @@
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="J68" s="19">
@@ -20214,7 +20359,9 @@
       <c r="L68" s="22">
         <v>1</v>
       </c>
-      <c r="M68" s="22"/>
+      <c r="M68" s="22">
+        <v>1</v>
+      </c>
       <c r="N68" s="22"/>
       <c r="O68" s="22"/>
       <c r="P68" s="22"/>
@@ -20233,7 +20380,7 @@
         <v>107</v>
       </c>
       <c r="D69" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="E69" s="4">
@@ -20245,7 +20392,7 @@
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
       <c r="J69" s="19">
@@ -20257,7 +20404,9 @@
       <c r="L69" s="22">
         <v>2</v>
       </c>
-      <c r="M69" s="22"/>
+      <c r="M69" s="22">
+        <v>2</v>
+      </c>
       <c r="N69" s="22"/>
       <c r="O69" s="22"/>
       <c r="P69" s="22"/>
@@ -20276,7 +20425,7 @@
         <v>107</v>
       </c>
       <c r="D70" s="143" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="E70" s="144"/>
@@ -20284,7 +20433,7 @@
       <c r="G70" s="145"/>
       <c r="H70" s="145"/>
       <c r="I70" s="143" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J70" s="145"/>
@@ -20309,7 +20458,7 @@
         <v>107</v>
       </c>
       <c r="D71" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="E71" s="4">
@@ -20321,7 +20470,7 @@
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
       <c r="J71" s="19">
@@ -20333,7 +20482,9 @@
       <c r="L71" s="22">
         <v>3</v>
       </c>
-      <c r="M71" s="22"/>
+      <c r="M71" s="22">
+        <v>3</v>
+      </c>
       <c r="N71" s="22"/>
       <c r="O71" s="22"/>
       <c r="P71" s="22"/>
@@ -20352,7 +20503,7 @@
         <v>107</v>
       </c>
       <c r="D72" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="E72" s="4">
@@ -20364,7 +20515,7 @@
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
       <c r="J72" s="19">
@@ -20376,7 +20527,9 @@
       <c r="L72" s="22">
         <v>3</v>
       </c>
-      <c r="M72" s="22"/>
+      <c r="M72" s="22">
+        <v>3</v>
+      </c>
       <c r="N72" s="22"/>
       <c r="O72" s="22"/>
       <c r="P72" s="22"/>
@@ -20395,7 +20548,7 @@
         <v>107</v>
       </c>
       <c r="D73" s="143" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="E73" s="144"/>
@@ -20403,7 +20556,7 @@
       <c r="G73" s="145"/>
       <c r="H73" s="145"/>
       <c r="I73" s="143" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J73" s="145"/>
@@ -20428,7 +20581,7 @@
         <v>107</v>
       </c>
       <c r="D74" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="E74" s="4">
@@ -20440,7 +20593,7 @@
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
       <c r="J74" s="19">
@@ -20452,7 +20605,9 @@
       <c r="L74" s="22">
         <v>3</v>
       </c>
-      <c r="M74" s="22"/>
+      <c r="M74" s="22">
+        <v>3</v>
+      </c>
       <c r="N74" s="22"/>
       <c r="O74" s="22"/>
       <c r="P74" s="22"/>
@@ -20471,7 +20626,7 @@
         <v>107</v>
       </c>
       <c r="D75" s="143" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="E75" s="144"/>
@@ -20479,7 +20634,7 @@
       <c r="G75" s="145"/>
       <c r="H75" s="145"/>
       <c r="I75" s="143" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J75" s="145"/>
@@ -20504,7 +20659,7 @@
         <v>107</v>
       </c>
       <c r="D76" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="E76" s="4">
@@ -20516,7 +20671,7 @@
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
       <c r="J76" s="19">
@@ -20528,7 +20683,9 @@
       <c r="L76" s="22">
         <v>3</v>
       </c>
-      <c r="M76" s="22"/>
+      <c r="M76" s="22">
+        <v>3</v>
+      </c>
       <c r="N76" s="22"/>
       <c r="O76" s="22"/>
       <c r="P76" s="22"/>
@@ -20547,7 +20704,7 @@
         <v>107</v>
       </c>
       <c r="D77" s="143" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="E77" s="144"/>
@@ -20555,7 +20712,7 @@
       <c r="G77" s="145"/>
       <c r="H77" s="145"/>
       <c r="I77" s="143" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J77" s="145"/>
@@ -20580,7 +20737,7 @@
         <v>107</v>
       </c>
       <c r="D78" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>完了</v>
       </c>
       <c r="E78" s="4">
@@ -20596,7 +20753,7 @@
         <v>1</v>
       </c>
       <c r="I78" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J78" s="19">
@@ -20608,7 +20765,9 @@
       <c r="L78" s="22">
         <v>0</v>
       </c>
-      <c r="M78" s="22"/>
+      <c r="M78" s="22">
+        <v>0</v>
+      </c>
       <c r="N78" s="22"/>
       <c r="O78" s="22"/>
       <c r="P78" s="22"/>
@@ -20627,7 +20786,7 @@
         <v>107</v>
       </c>
       <c r="D79" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>完了</v>
       </c>
       <c r="E79" s="4">
@@ -20643,7 +20802,7 @@
         <v>1</v>
       </c>
       <c r="I79" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J79" s="19">
@@ -20655,7 +20814,9 @@
       <c r="L79" s="22">
         <v>0</v>
       </c>
-      <c r="M79" s="22"/>
+      <c r="M79" s="22">
+        <v>0</v>
+      </c>
       <c r="N79" s="22"/>
       <c r="O79" s="22"/>
       <c r="P79" s="22"/>
@@ -20674,7 +20835,7 @@
         <v>107</v>
       </c>
       <c r="D80" s="143" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="E80" s="144"/>
@@ -20682,7 +20843,7 @@
       <c r="G80" s="145"/>
       <c r="H80" s="145"/>
       <c r="I80" s="143" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J80" s="145"/>
@@ -20707,7 +20868,7 @@
         <v>107</v>
       </c>
       <c r="D81" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>完了</v>
       </c>
       <c r="E81" s="4">
@@ -20723,7 +20884,7 @@
         <v>1</v>
       </c>
       <c r="I81" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J81" s="19">
@@ -20735,7 +20896,9 @@
       <c r="L81" s="22">
         <v>0</v>
       </c>
-      <c r="M81" s="22"/>
+      <c r="M81" s="22">
+        <v>0</v>
+      </c>
       <c r="N81" s="22"/>
       <c r="O81" s="22"/>
       <c r="P81" s="22"/>
@@ -20754,7 +20917,7 @@
         <v>107</v>
       </c>
       <c r="D82" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>作業中</v>
       </c>
       <c r="E82" s="4">
@@ -20768,8 +20931,8 @@
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="J82" s="19">
         <v>6</v>
@@ -20780,7 +20943,9 @@
       <c r="L82" s="22">
         <v>5</v>
       </c>
-      <c r="M82" s="22"/>
+      <c r="M82" s="22">
+        <v>3</v>
+      </c>
       <c r="N82" s="22"/>
       <c r="O82" s="22"/>
       <c r="P82" s="22"/>
@@ -20797,7 +20962,7 @@
         <v>107</v>
       </c>
       <c r="D83" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E83" s="156"/>
@@ -20805,7 +20970,7 @@
       <c r="G83" s="157"/>
       <c r="H83" s="157"/>
       <c r="I83" s="155" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J83" s="157"/>
@@ -20828,7 +20993,7 @@
         <v>107</v>
       </c>
       <c r="D84" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E84" s="162"/>
@@ -20836,13 +21001,13 @@
       <c r="G84" s="163"/>
       <c r="H84" s="163"/>
       <c r="I84" s="161" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J84" s="163"/>
       <c r="K84" s="164"/>
       <c r="L84" s="158"/>
-      <c r="M84" s="164"/>
+      <c r="M84" s="158"/>
       <c r="N84" s="164"/>
       <c r="O84" s="164"/>
       <c r="P84" s="164"/>
@@ -20859,7 +21024,7 @@
         <v>107</v>
       </c>
       <c r="D85" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E85" s="162"/>
@@ -20867,13 +21032,13 @@
       <c r="G85" s="163"/>
       <c r="H85" s="163"/>
       <c r="I85" s="161" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J85" s="163"/>
       <c r="K85" s="164"/>
       <c r="L85" s="158"/>
-      <c r="M85" s="164"/>
+      <c r="M85" s="158"/>
       <c r="N85" s="164"/>
       <c r="O85" s="164"/>
       <c r="P85" s="164"/>
@@ -20890,7 +21055,7 @@
         <v>107</v>
       </c>
       <c r="D86" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E86" s="162"/>
@@ -20898,13 +21063,13 @@
       <c r="G86" s="163"/>
       <c r="H86" s="163"/>
       <c r="I86" s="161" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J86" s="163"/>
       <c r="K86" s="164"/>
       <c r="L86" s="158"/>
-      <c r="M86" s="164"/>
+      <c r="M86" s="158"/>
       <c r="N86" s="164"/>
       <c r="O86" s="164"/>
       <c r="P86" s="164"/>
@@ -20921,7 +21086,7 @@
         <v>107</v>
       </c>
       <c r="D87" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E87" s="162"/>
@@ -20929,13 +21094,13 @@
       <c r="G87" s="163"/>
       <c r="H87" s="163"/>
       <c r="I87" s="161" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J87" s="163"/>
       <c r="K87" s="164"/>
       <c r="L87" s="158"/>
-      <c r="M87" s="164"/>
+      <c r="M87" s="158"/>
       <c r="N87" s="164"/>
       <c r="O87" s="164"/>
       <c r="P87" s="164"/>
@@ -20952,7 +21117,7 @@
         <v>107</v>
       </c>
       <c r="D88" s="149" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E88" s="162"/>
@@ -20960,13 +21125,13 @@
       <c r="G88" s="163"/>
       <c r="H88" s="163"/>
       <c r="I88" s="161" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J88" s="163"/>
       <c r="K88" s="164"/>
       <c r="L88" s="158"/>
-      <c r="M88" s="164"/>
+      <c r="M88" s="158"/>
       <c r="N88" s="164"/>
       <c r="O88" s="164"/>
       <c r="P88" s="164"/>
@@ -20985,7 +21150,7 @@
         <v>109</v>
       </c>
       <c r="D89" s="143" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="E89" s="144"/>
@@ -20993,13 +21158,13 @@
       <c r="G89" s="145"/>
       <c r="H89" s="168"/>
       <c r="I89" s="169" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J89" s="145"/>
       <c r="K89" s="145"/>
       <c r="L89" s="145"/>
-      <c r="M89" s="170"/>
+      <c r="M89" s="145"/>
       <c r="N89" s="170"/>
       <c r="O89" s="170"/>
       <c r="P89" s="170"/>
@@ -21018,8 +21183,8 @@
         <v>109</v>
       </c>
       <c r="D90" s="149" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>完了</v>
       </c>
       <c r="E90" s="150">
         <v>43053</v>
@@ -21030,10 +21195,12 @@
       <c r="G90" s="151">
         <v>2</v>
       </c>
-      <c r="H90" s="151"/>
+      <c r="H90" s="151">
+        <v>3</v>
+      </c>
       <c r="I90" s="149">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="J90" s="151">
         <v>1</v>
@@ -21044,7 +21211,9 @@
       <c r="L90" s="158">
         <v>1</v>
       </c>
-      <c r="M90" s="152"/>
+      <c r="M90" s="158">
+        <v>0</v>
+      </c>
       <c r="N90" s="152"/>
       <c r="O90" s="152"/>
       <c r="P90" s="152"/>
@@ -21063,7 +21232,7 @@
         <v>109</v>
       </c>
       <c r="D91" s="149" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>完了</v>
       </c>
       <c r="E91" s="150">
@@ -21079,7 +21248,7 @@
         <v>2</v>
       </c>
       <c r="I91" s="149">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J91" s="151">
@@ -21089,7 +21258,7 @@
         <v>0</v>
       </c>
       <c r="L91" s="158"/>
-      <c r="M91" s="152"/>
+      <c r="M91" s="158"/>
       <c r="N91" s="152"/>
       <c r="O91" s="152"/>
       <c r="P91" s="152"/>
@@ -21108,7 +21277,7 @@
         <v>109</v>
       </c>
       <c r="D92" s="149" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>完了</v>
       </c>
       <c r="E92" s="150">
@@ -21124,7 +21293,7 @@
         <v>2</v>
       </c>
       <c r="I92" s="149">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J92" s="151">
@@ -21134,7 +21303,7 @@
         <v>0</v>
       </c>
       <c r="L92" s="158"/>
-      <c r="M92" s="152"/>
+      <c r="M92" s="158"/>
       <c r="N92" s="152"/>
       <c r="O92" s="152"/>
       <c r="P92" s="152"/>
@@ -21153,7 +21322,7 @@
         <v>109</v>
       </c>
       <c r="D93" s="143" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="E93" s="144"/>
@@ -21161,13 +21330,13 @@
       <c r="G93" s="145"/>
       <c r="H93" s="145"/>
       <c r="I93" s="143" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J93" s="145"/>
       <c r="K93" s="145"/>
       <c r="L93" s="145"/>
-      <c r="M93" s="146"/>
+      <c r="M93" s="145"/>
       <c r="N93" s="146"/>
       <c r="O93" s="146"/>
       <c r="P93" s="146"/>
@@ -21186,8 +21355,8 @@
         <v>109</v>
       </c>
       <c r="D94" s="149" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>完了</v>
       </c>
       <c r="E94" s="150">
         <v>43060</v>
@@ -21198,10 +21367,12 @@
       <c r="G94" s="151">
         <v>3</v>
       </c>
-      <c r="H94" s="151"/>
+      <c r="H94" s="151">
+        <v>3</v>
+      </c>
       <c r="I94" s="149">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="J94" s="151">
         <v>3</v>
@@ -21212,7 +21383,9 @@
       <c r="L94" s="158">
         <v>1</v>
       </c>
-      <c r="M94" s="152"/>
+      <c r="M94" s="158">
+        <v>0</v>
+      </c>
       <c r="N94" s="152"/>
       <c r="O94" s="152"/>
       <c r="P94" s="152"/>
@@ -21231,20 +21404,22 @@
         <v>109</v>
       </c>
       <c r="D95" s="149" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>作業中</v>
       </c>
       <c r="E95" s="150">
         <v>43063</v>
       </c>
-      <c r="F95" s="150"/>
+      <c r="F95" s="150">
+        <v>43063</v>
+      </c>
       <c r="G95" s="151">
         <v>3</v>
       </c>
       <c r="H95" s="151"/>
       <c r="I95" s="149">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="J95" s="151">
         <v>3</v>
@@ -21255,7 +21430,9 @@
       <c r="L95" s="158">
         <v>3</v>
       </c>
-      <c r="M95" s="152"/>
+      <c r="M95" s="158">
+        <v>2</v>
+      </c>
       <c r="N95" s="152"/>
       <c r="O95" s="152"/>
       <c r="P95" s="152"/>
@@ -21274,7 +21451,7 @@
         <v>109</v>
       </c>
       <c r="D96" s="149" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>完了</v>
       </c>
       <c r="E96" s="150">
@@ -21290,7 +21467,7 @@
         <v>1</v>
       </c>
       <c r="I96" s="149">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J96" s="151">
@@ -21300,7 +21477,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="158"/>
-      <c r="M96" s="152"/>
+      <c r="M96" s="158"/>
       <c r="N96" s="152"/>
       <c r="O96" s="152"/>
       <c r="P96" s="152"/>
@@ -21319,20 +21496,22 @@
         <v>109</v>
       </c>
       <c r="D97" s="149" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>作業中</v>
       </c>
       <c r="E97" s="150">
         <v>43063</v>
       </c>
-      <c r="F97" s="150"/>
+      <c r="F97" s="150">
+        <v>43063</v>
+      </c>
       <c r="G97" s="151">
         <v>4</v>
       </c>
       <c r="H97" s="151"/>
       <c r="I97" s="149">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="J97" s="151">
         <v>4</v>
@@ -21343,7 +21522,9 @@
       <c r="L97" s="158">
         <v>4</v>
       </c>
-      <c r="M97" s="152"/>
+      <c r="M97" s="158">
+        <v>3</v>
+      </c>
       <c r="N97" s="152"/>
       <c r="O97" s="152"/>
       <c r="P97" s="152"/>
@@ -21362,7 +21543,7 @@
         <v>109</v>
       </c>
       <c r="D98" s="149" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="E98" s="150">
@@ -21374,7 +21555,7 @@
       </c>
       <c r="H98" s="151"/>
       <c r="I98" s="149">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
       <c r="J98" s="151">
@@ -21386,7 +21567,9 @@
       <c r="L98" s="158">
         <v>2</v>
       </c>
-      <c r="M98" s="152"/>
+      <c r="M98" s="158">
+        <v>2</v>
+      </c>
       <c r="N98" s="152"/>
       <c r="O98" s="152"/>
       <c r="P98" s="152"/>
@@ -21405,7 +21588,7 @@
         <v>109</v>
       </c>
       <c r="D99" s="143" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="E99" s="144"/>
@@ -21413,7 +21596,7 @@
       <c r="G99" s="145"/>
       <c r="H99" s="145"/>
       <c r="I99" s="143" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J99" s="146"/>
@@ -21438,7 +21621,7 @@
         <v>109</v>
       </c>
       <c r="D100" s="149" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="E100" s="150">
@@ -21450,7 +21633,7 @@
       </c>
       <c r="H100" s="151"/>
       <c r="I100" s="149">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
       <c r="J100" s="151">
@@ -21462,7 +21645,9 @@
       <c r="L100" s="158">
         <v>3</v>
       </c>
-      <c r="M100" s="152"/>
+      <c r="M100" s="158">
+        <v>3</v>
+      </c>
       <c r="N100" s="152"/>
       <c r="O100" s="152"/>
       <c r="P100" s="152"/>
@@ -21479,7 +21664,7 @@
         <v>109</v>
       </c>
       <c r="D101" s="149" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E101" s="150"/>
@@ -21487,13 +21672,13 @@
       <c r="G101" s="151"/>
       <c r="H101" s="151"/>
       <c r="I101" s="149" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J101" s="151"/>
       <c r="K101" s="152"/>
       <c r="L101" s="158"/>
-      <c r="M101" s="152"/>
+      <c r="M101" s="158"/>
       <c r="N101" s="152"/>
       <c r="O101" s="152"/>
       <c r="P101" s="152"/>
@@ -21510,7 +21695,7 @@
         <v>109</v>
       </c>
       <c r="D102" s="149" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E102" s="150"/>
@@ -21518,13 +21703,13 @@
       <c r="G102" s="151"/>
       <c r="H102" s="151"/>
       <c r="I102" s="149" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J102" s="151"/>
       <c r="K102" s="152"/>
       <c r="L102" s="158"/>
-      <c r="M102" s="152"/>
+      <c r="M102" s="158"/>
       <c r="N102" s="152"/>
       <c r="O102" s="152"/>
       <c r="P102" s="152"/>
@@ -21541,7 +21726,7 @@
         <v>109</v>
       </c>
       <c r="D103" s="149" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E103" s="150"/>
@@ -21549,13 +21734,13 @@
       <c r="G103" s="151"/>
       <c r="H103" s="151"/>
       <c r="I103" s="149" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J103" s="151"/>
       <c r="K103" s="152"/>
       <c r="L103" s="158"/>
-      <c r="M103" s="152"/>
+      <c r="M103" s="158"/>
       <c r="N103" s="152"/>
       <c r="O103" s="152"/>
       <c r="P103" s="152"/>
@@ -21572,7 +21757,7 @@
         <v>109</v>
       </c>
       <c r="D104" s="149" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E104" s="150"/>
@@ -21580,13 +21765,13 @@
       <c r="G104" s="151"/>
       <c r="H104" s="166"/>
       <c r="I104" s="149" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J104" s="151"/>
       <c r="K104" s="167"/>
       <c r="L104" s="158"/>
-      <c r="M104" s="167"/>
+      <c r="M104" s="158"/>
       <c r="N104" s="167"/>
       <c r="O104" s="167"/>
       <c r="P104" s="167"/>
@@ -21603,7 +21788,7 @@
         <v>109</v>
       </c>
       <c r="D105" s="149" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E105" s="150"/>
@@ -21611,13 +21796,13 @@
       <c r="G105" s="151"/>
       <c r="H105" s="166"/>
       <c r="I105" s="149" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J105" s="151"/>
       <c r="K105" s="167"/>
       <c r="L105" s="158"/>
-      <c r="M105" s="167"/>
+      <c r="M105" s="158"/>
       <c r="N105" s="167"/>
       <c r="O105" s="167"/>
       <c r="P105" s="167"/>
@@ -21652,7 +21837,7 @@
         <v>109</v>
       </c>
       <c r="D106" s="149" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E106" s="150"/>
@@ -21660,13 +21845,13 @@
       <c r="G106" s="151"/>
       <c r="H106" s="166"/>
       <c r="I106" s="149" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J106" s="151"/>
       <c r="K106" s="167"/>
       <c r="L106" s="158"/>
-      <c r="M106" s="167"/>
+      <c r="M106" s="158"/>
       <c r="N106" s="167"/>
       <c r="O106" s="167"/>
       <c r="P106" s="167"/>
@@ -21681,16 +21866,16 @@
         <v>34</v>
       </c>
       <c r="W106" s="10">
-        <f ca="1">SUMIF($C$5:$C$121,U106,$I$5:$I$121)</f>
+        <f t="shared" ref="W106:W115" ca="1" si="7">SUMIF($C$5:$C$121,U106,$I$5:$I$121)</f>
         <v>22</v>
       </c>
       <c r="X106" s="10">
-        <f>SUMIF($C$5:$C$121,U106,$H$5:$H$121)</f>
+        <f t="shared" ref="X106:X115" si="8">SUMIF($C$5:$C$121,U106,$H$5:$H$121)</f>
         <v>6</v>
       </c>
       <c r="Y106" s="14">
         <f>COUNTA($J$2:$S$2)*6-COUNTA($J$4:$S$4)*6</f>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Z106" s="15">
         <f ca="1">IF(Y106&gt;W106,0,W106-Y106)</f>
@@ -21708,7 +21893,7 @@
         <v>110</v>
       </c>
       <c r="D107" s="143" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="E107" s="144"/>
@@ -21716,7 +21901,7 @@
       <c r="G107" s="145"/>
       <c r="H107" s="145"/>
       <c r="I107" s="143" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J107" s="143"/>
@@ -21737,20 +21922,20 @@
         <v>49</v>
       </c>
       <c r="W107" s="10">
-        <f ca="1">SUMIF($C$5:$C$121,U107,$I$5:$I$121)</f>
-        <v>28</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>26</v>
       </c>
       <c r="X107" s="10">
-        <f>SUMIF($C$5:$C$121,U107,$H$5:$H$121)</f>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="Y107" s="14">
-        <f t="shared" ref="Y107:Y115" si="6">COUNTA($J$2:$S$2)*6-COUNTA($J$4:$S$4)*6</f>
-        <v>30</v>
+        <f t="shared" ref="Y107:Y115" si="9">COUNTA($J$2:$S$2)*6-COUNTA($J$4:$S$4)*6</f>
+        <v>24</v>
       </c>
       <c r="Z107" s="15">
         <f ca="1">IF(Y107&gt;W107,0,W107-Y107)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:26">
@@ -21764,8 +21949,8 @@
         <v>110</v>
       </c>
       <c r="D108" s="149" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>完了</v>
       </c>
       <c r="E108" s="150">
         <v>43049</v>
@@ -21776,10 +21961,12 @@
       <c r="G108" s="151">
         <v>4</v>
       </c>
-      <c r="H108" s="166"/>
+      <c r="H108" s="166">
+        <v>4</v>
+      </c>
       <c r="I108" s="149">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="J108" s="151">
         <v>4</v>
@@ -21790,7 +21977,9 @@
       <c r="L108" s="158">
         <v>1</v>
       </c>
-      <c r="M108" s="167"/>
+      <c r="M108" s="167">
+        <v>0</v>
+      </c>
       <c r="N108" s="167"/>
       <c r="O108" s="167"/>
       <c r="P108" s="167"/>
@@ -21805,16 +21994,16 @@
         <v>46</v>
       </c>
       <c r="W108" s="10">
-        <f ca="1">SUMIF($C$5:$C$121,U108,$I$5:$I$121)</f>
-        <v>32</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>26</v>
       </c>
       <c r="X108" s="10">
-        <f>SUMIF($C$5:$C$121,U108,$H$5:$H$121)</f>
-        <v>17</v>
+        <f t="shared" si="8"/>
+        <v>23</v>
       </c>
       <c r="Y108" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
+        <f t="shared" si="9"/>
+        <v>24</v>
       </c>
       <c r="Z108" s="15">
         <f ca="1">IF(Y108&gt;W108,0,W108-Y108)</f>
@@ -21832,20 +22021,24 @@
         <v>110</v>
       </c>
       <c r="D109" s="149" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>完了</v>
       </c>
       <c r="E109" s="165">
         <v>43053</v>
       </c>
-      <c r="F109" s="165"/>
+      <c r="F109" s="165">
+        <v>43063</v>
+      </c>
       <c r="G109" s="166">
         <v>4</v>
       </c>
-      <c r="H109" s="166"/>
+      <c r="H109" s="166">
+        <v>4</v>
+      </c>
       <c r="I109" s="149">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="J109" s="166">
         <v>4</v>
@@ -21856,7 +22049,9 @@
       <c r="L109" s="166">
         <v>4</v>
       </c>
-      <c r="M109" s="167"/>
+      <c r="M109" s="167">
+        <v>0</v>
+      </c>
       <c r="N109" s="167"/>
       <c r="O109" s="167"/>
       <c r="P109" s="167"/>
@@ -21871,19 +22066,19 @@
         <v>23</v>
       </c>
       <c r="W109" s="10">
-        <f ca="1">SUMIF($C$5:$C$121,U109,$I$5:$I$121)</f>
-        <v>14</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>10</v>
       </c>
       <c r="X109" s="10">
-        <f>SUMIF($C$5:$C$121,U109,$H$5:$H$121)</f>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>11</v>
       </c>
       <c r="Y109" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
+        <f t="shared" si="9"/>
+        <v>24</v>
       </c>
       <c r="Z109" s="15">
-        <f t="shared" ref="Z109:Z115" ca="1" si="7">IF(Y109&gt;W109,0,W109-Y109)</f>
+        <f t="shared" ref="Z109:Z115" ca="1" si="10">IF(Y109&gt;W109,0,W109-Y109)</f>
         <v>0</v>
       </c>
     </row>
@@ -21898,20 +22093,24 @@
         <v>110</v>
       </c>
       <c r="D110" s="175" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>作業中</v>
       </c>
       <c r="E110" s="176">
         <v>43056</v>
       </c>
-      <c r="F110" s="165"/>
+      <c r="F110" s="165">
+        <v>43063</v>
+      </c>
       <c r="G110" s="177">
         <v>5</v>
       </c>
-      <c r="H110" s="177"/>
+      <c r="H110" s="177">
+        <v>2</v>
+      </c>
       <c r="I110" s="175">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="J110" s="177">
         <v>5</v>
@@ -21922,7 +22121,9 @@
       <c r="L110" s="177">
         <v>5</v>
       </c>
-      <c r="M110" s="178"/>
+      <c r="M110" s="178">
+        <v>3</v>
+      </c>
       <c r="N110" s="178"/>
       <c r="O110" s="178"/>
       <c r="P110" s="178"/>
@@ -21937,20 +22138,20 @@
         <v>40</v>
       </c>
       <c r="W110" s="10">
-        <f ca="1">SUMIF($C$5:$C$121,U110,$I$5:$I$121)</f>
-        <v>32</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>25</v>
       </c>
       <c r="X110" s="10">
-        <f>SUMIF($C$5:$C$121,U110,$H$5:$H$121)</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="Y110" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
+        <f t="shared" si="9"/>
+        <v>24</v>
       </c>
       <c r="Z110" s="15">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:26">
@@ -21964,7 +22165,7 @@
         <v>110</v>
       </c>
       <c r="D111" s="149" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="E111" s="165">
@@ -21976,7 +22177,7 @@
       </c>
       <c r="H111" s="166"/>
       <c r="I111" s="175">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
       <c r="J111" s="166">
@@ -21988,7 +22189,9 @@
       <c r="L111" s="166">
         <v>4</v>
       </c>
-      <c r="M111" s="167"/>
+      <c r="M111" s="166">
+        <v>4</v>
+      </c>
       <c r="N111" s="167"/>
       <c r="O111" s="167"/>
       <c r="P111" s="167"/>
@@ -22001,19 +22204,19 @@
         <v>0</v>
       </c>
       <c r="W111" s="10">
-        <f>SUMIF($C$5:$C$121,U111,$I$5:$I$121)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X111" s="10">
-        <f>SUMIF($C$5:$C$121,U111,$H$5:$H$121)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y111" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
+        <f t="shared" si="9"/>
+        <v>24</v>
       </c>
       <c r="Z111" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22028,7 +22231,7 @@
         <v>110</v>
       </c>
       <c r="D112" s="149" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="E112" s="165">
@@ -22040,7 +22243,7 @@
       </c>
       <c r="H112" s="166"/>
       <c r="I112" s="175">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>5</v>
       </c>
       <c r="J112" s="166">
@@ -22052,7 +22255,9 @@
       <c r="L112" s="166">
         <v>5</v>
       </c>
-      <c r="M112" s="167"/>
+      <c r="M112" s="166">
+        <v>5</v>
+      </c>
       <c r="N112" s="167"/>
       <c r="O112" s="167"/>
       <c r="P112" s="167"/>
@@ -22065,19 +22270,19 @@
         <v>0</v>
       </c>
       <c r="W112" s="10">
-        <f>SUMIF($C$5:$C$121,U112,$I$5:$I$121)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X112" s="10">
-        <f>SUMIF($C$5:$C$121,U112,$H$5:$H$121)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y112" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
+        <f t="shared" si="9"/>
+        <v>24</v>
       </c>
       <c r="Z112" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22092,7 +22297,7 @@
         <v>110</v>
       </c>
       <c r="D113" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="E113" s="135">
@@ -22104,7 +22309,7 @@
       </c>
       <c r="H113" s="136"/>
       <c r="I113" s="175">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
       <c r="J113" s="136">
@@ -22116,7 +22321,9 @@
       <c r="L113" s="136">
         <v>3</v>
       </c>
-      <c r="M113" s="137"/>
+      <c r="M113" s="136">
+        <v>3</v>
+      </c>
       <c r="N113" s="137"/>
       <c r="O113" s="137"/>
       <c r="P113" s="137"/>
@@ -22129,19 +22336,19 @@
         <v>0</v>
       </c>
       <c r="W113" s="10">
-        <f>SUMIF($C$5:$C$121,U113,$I$5:$I$121)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X113" s="10">
-        <f>SUMIF($C$5:$C$121,U113,$H$5:$H$121)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y113" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
+        <f t="shared" si="9"/>
+        <v>24</v>
       </c>
       <c r="Z113" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22156,7 +22363,7 @@
         <v>110</v>
       </c>
       <c r="D114" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="E114" s="135">
@@ -22168,7 +22375,7 @@
       </c>
       <c r="H114" s="136"/>
       <c r="I114" s="175">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
       <c r="J114" s="136">
@@ -22180,7 +22387,9 @@
       <c r="L114" s="136">
         <v>4</v>
       </c>
-      <c r="M114" s="137"/>
+      <c r="M114" s="136">
+        <v>4</v>
+      </c>
       <c r="N114" s="137"/>
       <c r="O114" s="137"/>
       <c r="P114" s="137"/>
@@ -22193,19 +22402,19 @@
         <v>0</v>
       </c>
       <c r="W114" s="10">
-        <f>SUMIF($C$5:$C$121,U114,$I$5:$I$121)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X114" s="10">
-        <f>SUMIF($C$5:$C$121,U114,$H$5:$H$121)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y114" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
+        <f t="shared" si="9"/>
+        <v>24</v>
       </c>
       <c r="Z114" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22220,7 +22429,7 @@
         <v>110</v>
       </c>
       <c r="D115" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="E115" s="135">
@@ -22232,7 +22441,7 @@
       </c>
       <c r="H115" s="136"/>
       <c r="I115" s="175">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>5</v>
       </c>
       <c r="J115" s="136">
@@ -22244,7 +22453,9 @@
       <c r="L115" s="136">
         <v>5</v>
       </c>
-      <c r="M115" s="137"/>
+      <c r="M115" s="136">
+        <v>5</v>
+      </c>
       <c r="N115" s="137"/>
       <c r="O115" s="137"/>
       <c r="P115" s="137"/>
@@ -22257,19 +22468,19 @@
         <v>0</v>
       </c>
       <c r="W115" s="10">
-        <f>SUMIF($C$5:$C$121,U115,$I$5:$I$121)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X115" s="10">
-        <f>SUMIF($C$5:$C$121,U115,$H$5:$H$121)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y115" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
+        <f t="shared" si="9"/>
+        <v>24</v>
       </c>
       <c r="Z115" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22284,7 +22495,7 @@
         <v>110</v>
       </c>
       <c r="D116" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>作業中</v>
       </c>
       <c r="E116" s="135">
@@ -22298,7 +22509,7 @@
       </c>
       <c r="H116" s="136"/>
       <c r="I116" s="175">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="J116" s="136">
@@ -22310,7 +22521,9 @@
       <c r="L116" s="158">
         <v>1</v>
       </c>
-      <c r="M116" s="137"/>
+      <c r="M116" s="158">
+        <v>1</v>
+      </c>
       <c r="N116" s="137"/>
       <c r="O116" s="137"/>
       <c r="P116" s="137"/>
@@ -22327,7 +22540,7 @@
         <v>110</v>
       </c>
       <c r="D117" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E117" s="135"/>
@@ -22335,13 +22548,13 @@
       <c r="G117" s="136"/>
       <c r="H117" s="136"/>
       <c r="I117" s="175" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J117" s="136"/>
       <c r="K117" s="179"/>
       <c r="L117" s="158"/>
-      <c r="M117" s="137"/>
+      <c r="M117" s="158"/>
       <c r="N117" s="137"/>
       <c r="O117" s="137"/>
       <c r="P117" s="137"/>
@@ -22358,7 +22571,7 @@
         <v>110</v>
       </c>
       <c r="D118" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E118" s="135"/>
@@ -22366,13 +22579,13 @@
       <c r="G118" s="136"/>
       <c r="H118" s="136"/>
       <c r="I118" s="175" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J118" s="136"/>
       <c r="K118" s="179"/>
       <c r="L118" s="158"/>
-      <c r="M118" s="137"/>
+      <c r="M118" s="158"/>
       <c r="N118" s="137"/>
       <c r="O118" s="137"/>
       <c r="P118" s="137"/>
@@ -22384,32 +22597,32 @@
       <c r="A119" s="16">
         <v>116</v>
       </c>
-      <c r="B119" s="208" t="s">
+      <c r="B119" s="180" t="s">
         <v>243</v>
       </c>
-      <c r="C119" s="209"/>
-      <c r="D119" s="215" t="str">
-        <f t="shared" si="5"/>
+      <c r="C119" s="181"/>
+      <c r="D119" s="187" t="str">
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
-      <c r="E119" s="209"/>
-      <c r="F119" s="209"/>
-      <c r="G119" s="209"/>
-      <c r="H119" s="209"/>
-      <c r="I119" s="210" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="J119" s="209"/>
-      <c r="K119" s="209"/>
-      <c r="L119" s="209"/>
-      <c r="M119" s="209"/>
-      <c r="N119" s="209"/>
-      <c r="O119" s="209"/>
-      <c r="P119" s="209"/>
-      <c r="Q119" s="209"/>
-      <c r="R119" s="209"/>
-      <c r="S119" s="209"/>
+      <c r="E119" s="181"/>
+      <c r="F119" s="181"/>
+      <c r="G119" s="181"/>
+      <c r="H119" s="181"/>
+      <c r="I119" s="182" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J119" s="181"/>
+      <c r="K119" s="181"/>
+      <c r="L119" s="181"/>
+      <c r="M119" s="181"/>
+      <c r="N119" s="181"/>
+      <c r="O119" s="181"/>
+      <c r="P119" s="181"/>
+      <c r="Q119" s="181"/>
+      <c r="R119" s="181"/>
+      <c r="S119" s="181"/>
     </row>
     <row r="120" spans="1:26">
       <c r="A120" s="172">
@@ -22422,40 +22635,40 @@
         <v>249</v>
       </c>
       <c r="D120" s="143" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="E120" s="144"/>
       <c r="F120" s="144"/>
       <c r="G120" s="144"/>
       <c r="H120" s="144"/>
-      <c r="I120" s="216" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="J120" s="216"/>
-      <c r="K120" s="216"/>
-      <c r="L120" s="216"/>
-      <c r="M120" s="216"/>
-      <c r="N120" s="216"/>
-      <c r="O120" s="216"/>
-      <c r="P120" s="216"/>
-      <c r="Q120" s="216"/>
-      <c r="R120" s="216"/>
-      <c r="S120" s="216"/>
+      <c r="I120" s="188" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J120" s="188"/>
+      <c r="K120" s="188"/>
+      <c r="L120" s="188"/>
+      <c r="M120" s="188"/>
+      <c r="N120" s="188"/>
+      <c r="O120" s="188"/>
+      <c r="P120" s="188"/>
+      <c r="Q120" s="188"/>
+      <c r="R120" s="188"/>
+      <c r="S120" s="188"/>
     </row>
     <row r="121" spans="1:26">
       <c r="A121" s="172">
         <v>118</v>
       </c>
-      <c r="B121" s="211" t="s">
+      <c r="B121" s="183" t="s">
         <v>245</v>
       </c>
-      <c r="C121" s="212" t="s">
+      <c r="C121" s="184" t="s">
         <v>249</v>
       </c>
       <c r="D121" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>作業中</v>
       </c>
       <c r="E121" s="4">
@@ -22464,12 +22677,12 @@
       <c r="F121" s="4">
         <v>43056</v>
       </c>
-      <c r="G121" s="213">
+      <c r="G121" s="185">
         <v>4</v>
       </c>
-      <c r="H121" s="213"/>
+      <c r="H121" s="185"/>
       <c r="I121" s="175">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
       <c r="J121" s="136">
@@ -22481,7 +22694,9 @@
       <c r="L121" s="136">
         <v>4</v>
       </c>
-      <c r="M121" s="137"/>
+      <c r="M121" s="136">
+        <v>4</v>
+      </c>
       <c r="N121" s="137"/>
       <c r="O121" s="137"/>
       <c r="P121" s="137"/>
@@ -22493,14 +22708,14 @@
       <c r="A122" s="172">
         <v>119</v>
       </c>
-      <c r="B122" s="214" t="s">
+      <c r="B122" s="186" t="s">
         <v>246</v>
       </c>
-      <c r="C122" s="212" t="s">
+      <c r="C122" s="184" t="s">
         <v>249</v>
       </c>
       <c r="D122" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>作業中</v>
       </c>
       <c r="E122" s="4">
@@ -22514,7 +22729,7 @@
       </c>
       <c r="H122" s="136"/>
       <c r="I122" s="175">
-        <f t="shared" ref="I122:I126" ca="1" si="8">IF(ISBLANK(J122)=FALSE,OFFSET(I122,0,COUNTA(J122:S122)),"")</f>
+        <f t="shared" ref="I122:I185" ca="1" si="11">IF(ISBLANK(J122)=FALSE,OFFSET(I122,0,COUNTA(J122:S122)),"")</f>
         <v>4</v>
       </c>
       <c r="J122" s="136">
@@ -22526,7 +22741,9 @@
       <c r="L122" s="136">
         <v>4</v>
       </c>
-      <c r="M122" s="137"/>
+      <c r="M122" s="136">
+        <v>4</v>
+      </c>
       <c r="N122" s="137"/>
       <c r="O122" s="137"/>
       <c r="P122" s="137"/>
@@ -22538,14 +22755,14 @@
       <c r="A123" s="172">
         <v>120</v>
       </c>
-      <c r="B123" s="214" t="s">
+      <c r="B123" s="186" t="s">
         <v>247</v>
       </c>
-      <c r="C123" s="212" t="s">
+      <c r="C123" s="184" t="s">
         <v>249</v>
       </c>
       <c r="D123" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>作業中</v>
       </c>
       <c r="E123" s="4">
@@ -22559,7 +22776,7 @@
       </c>
       <c r="H123" s="136"/>
       <c r="I123" s="175">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v>4</v>
       </c>
       <c r="J123" s="136">
@@ -22571,7 +22788,9 @@
       <c r="L123" s="136">
         <v>4</v>
       </c>
-      <c r="M123" s="137"/>
+      <c r="M123" s="136">
+        <v>4</v>
+      </c>
       <c r="N123" s="137"/>
       <c r="O123" s="137"/>
       <c r="P123" s="137"/>
@@ -22583,14 +22802,14 @@
       <c r="A124" s="172">
         <v>121</v>
       </c>
-      <c r="B124" s="214" t="s">
+      <c r="B124" s="186" t="s">
         <v>248</v>
       </c>
-      <c r="C124" s="212" t="s">
+      <c r="C124" s="184" t="s">
         <v>249</v>
       </c>
       <c r="D124" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>作業中</v>
       </c>
       <c r="E124" s="4">
@@ -22604,7 +22823,7 @@
       </c>
       <c r="H124" s="136"/>
       <c r="I124" s="175">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v>3</v>
       </c>
       <c r="J124" s="136">
@@ -22616,7 +22835,9 @@
       <c r="L124" s="136">
         <v>3</v>
       </c>
-      <c r="M124" s="137"/>
+      <c r="M124" s="136">
+        <v>3</v>
+      </c>
       <c r="N124" s="137"/>
       <c r="O124" s="137"/>
       <c r="P124" s="137"/>
@@ -22628,14 +22849,14 @@
       <c r="A125" s="172">
         <v>122</v>
       </c>
-      <c r="B125" s="214" t="s">
+      <c r="B125" s="186" t="s">
         <v>250</v>
       </c>
       <c r="C125" s="18" t="s">
         <v>251</v>
       </c>
       <c r="D125" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>完了</v>
       </c>
       <c r="E125" s="135">
@@ -22651,7 +22872,7 @@
         <v>1</v>
       </c>
       <c r="I125" s="175">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="J125" s="136">
@@ -22663,7 +22884,9 @@
       <c r="L125" s="158">
         <v>0</v>
       </c>
-      <c r="M125" s="137"/>
+      <c r="M125" s="158">
+        <v>0</v>
+      </c>
       <c r="N125" s="137"/>
       <c r="O125" s="137"/>
       <c r="P125" s="137"/>
@@ -22675,24 +22898,44 @@
       <c r="A126" s="172">
         <v>123</v>
       </c>
-      <c r="B126" s="214"/>
-      <c r="C126" s="18"/>
+      <c r="B126" s="186" t="s">
+        <v>253</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>252</v>
+      </c>
       <c r="D126" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E126" s="135"/>
-      <c r="F126" s="135"/>
-      <c r="G126" s="136"/>
-      <c r="H126" s="136"/>
-      <c r="I126" s="149" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="J126" s="136"/>
-      <c r="K126" s="179"/>
-      <c r="L126" s="158"/>
-      <c r="M126" s="137"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>完了</v>
+      </c>
+      <c r="E126" s="135">
+        <v>43063</v>
+      </c>
+      <c r="F126" s="135">
+        <v>43063</v>
+      </c>
+      <c r="G126" s="136">
+        <v>1</v>
+      </c>
+      <c r="H126" s="136">
+        <v>1</v>
+      </c>
+      <c r="I126" s="149">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J126" s="136">
+        <v>1</v>
+      </c>
+      <c r="K126" s="179">
+        <v>1</v>
+      </c>
+      <c r="L126" s="158">
+        <v>1</v>
+      </c>
+      <c r="M126" s="137">
+        <v>0</v>
+      </c>
       <c r="N126" s="137"/>
       <c r="O126" s="137"/>
       <c r="P126" s="137"/>
@@ -22701,726 +22944,1810 @@
       <c r="S126" s="137"/>
     </row>
     <row r="127" spans="1:26">
-      <c r="J127" s="6"/>
-      <c r="K127" s="6"/>
-      <c r="L127" s="6"/>
-      <c r="M127" s="6"/>
-      <c r="N127" s="6"/>
-      <c r="O127" s="6"/>
-      <c r="P127" s="6"/>
-      <c r="Q127" s="6"/>
-      <c r="R127" s="6"/>
-      <c r="S127" s="6"/>
+      <c r="A127" s="16">
+        <v>124</v>
+      </c>
+      <c r="B127" s="186" t="s">
+        <v>254</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D127" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>未着手</v>
+      </c>
+      <c r="E127" s="135">
+        <v>43074</v>
+      </c>
+      <c r="F127" s="135"/>
+      <c r="G127" s="136">
+        <v>1</v>
+      </c>
+      <c r="H127" s="136"/>
+      <c r="I127" s="149">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J127" s="136">
+        <v>1</v>
+      </c>
+      <c r="K127" s="136">
+        <v>1</v>
+      </c>
+      <c r="L127" s="136">
+        <v>1</v>
+      </c>
+      <c r="M127" s="136">
+        <v>1</v>
+      </c>
+      <c r="N127" s="137"/>
+      <c r="O127" s="137"/>
+      <c r="P127" s="137"/>
+      <c r="Q127" s="137"/>
+      <c r="R127" s="137"/>
+      <c r="S127" s="137"/>
     </row>
     <row r="128" spans="1:26">
-      <c r="J128" s="6"/>
-      <c r="K128" s="6"/>
-      <c r="L128" s="6"/>
-      <c r="M128" s="6"/>
-      <c r="N128" s="6"/>
-      <c r="O128" s="6"/>
-      <c r="P128" s="6"/>
-      <c r="Q128" s="6"/>
-      <c r="R128" s="6"/>
-      <c r="S128" s="6"/>
-    </row>
-    <row r="129" spans="10:19">
-      <c r="J129" s="6"/>
-      <c r="K129" s="6"/>
-      <c r="L129" s="6"/>
-      <c r="M129" s="6"/>
-      <c r="N129" s="6"/>
-      <c r="O129" s="6"/>
-      <c r="P129" s="6"/>
-      <c r="Q129" s="6"/>
-      <c r="R129" s="6"/>
-      <c r="S129" s="6"/>
-    </row>
-    <row r="130" spans="10:19">
-      <c r="J130" s="6"/>
-      <c r="K130" s="6"/>
-      <c r="L130" s="6"/>
-      <c r="M130" s="6"/>
-      <c r="N130" s="6"/>
-      <c r="O130" s="6"/>
-      <c r="P130" s="6"/>
-      <c r="Q130" s="6"/>
-      <c r="R130" s="6"/>
-      <c r="S130" s="6"/>
-    </row>
-    <row r="131" spans="10:19">
-      <c r="J131" s="6"/>
-      <c r="K131" s="6"/>
-      <c r="L131" s="6"/>
-      <c r="M131" s="6"/>
-      <c r="N131" s="6"/>
-      <c r="O131" s="6"/>
-      <c r="P131" s="6"/>
-      <c r="Q131" s="6"/>
-      <c r="R131" s="6"/>
-      <c r="S131" s="6"/>
-    </row>
-    <row r="132" spans="10:19">
-      <c r="J132" s="6"/>
-      <c r="K132" s="6"/>
-      <c r="L132" s="6"/>
-      <c r="M132" s="6"/>
-      <c r="N132" s="6"/>
-      <c r="O132" s="6"/>
-      <c r="P132" s="6"/>
-      <c r="Q132" s="6"/>
-      <c r="R132" s="6"/>
-      <c r="S132" s="6"/>
-    </row>
-    <row r="133" spans="10:19">
-      <c r="J133" s="6"/>
-      <c r="K133" s="6"/>
-      <c r="L133" s="6"/>
-      <c r="M133" s="6"/>
-      <c r="N133" s="6"/>
-      <c r="O133" s="6"/>
-      <c r="P133" s="6"/>
-      <c r="Q133" s="6"/>
-      <c r="R133" s="6"/>
-      <c r="S133" s="6"/>
-    </row>
-    <row r="134" spans="10:19">
-      <c r="J134" s="6"/>
-      <c r="K134" s="6"/>
-      <c r="L134" s="6"/>
-      <c r="M134" s="6"/>
-      <c r="N134" s="6"/>
-      <c r="O134" s="6"/>
-      <c r="P134" s="6"/>
-      <c r="Q134" s="6"/>
-      <c r="R134" s="6"/>
-      <c r="S134" s="6"/>
-    </row>
-    <row r="135" spans="10:19">
-      <c r="J135" s="6"/>
-      <c r="K135" s="6"/>
-      <c r="L135" s="6"/>
-      <c r="M135" s="6"/>
-      <c r="N135" s="6"/>
-      <c r="O135" s="6"/>
-      <c r="P135" s="6"/>
-      <c r="Q135" s="6"/>
-      <c r="R135" s="6"/>
-      <c r="S135" s="6"/>
-    </row>
-    <row r="136" spans="10:19">
-      <c r="J136" s="6"/>
-      <c r="K136" s="6"/>
-      <c r="L136" s="6"/>
-      <c r="M136" s="6"/>
-      <c r="N136" s="6"/>
-      <c r="O136" s="6"/>
-      <c r="P136" s="6"/>
-      <c r="Q136" s="6"/>
-      <c r="R136" s="6"/>
-      <c r="S136" s="6"/>
-    </row>
-    <row r="137" spans="10:19">
-      <c r="J137" s="6"/>
-      <c r="K137" s="6"/>
-      <c r="L137" s="6"/>
-      <c r="M137" s="6"/>
-      <c r="N137" s="6"/>
-      <c r="O137" s="6"/>
-      <c r="P137" s="6"/>
-      <c r="Q137" s="6"/>
-      <c r="R137" s="6"/>
-      <c r="S137" s="6"/>
-    </row>
-    <row r="138" spans="10:19">
-      <c r="J138" s="6"/>
-      <c r="K138" s="6"/>
-      <c r="L138" s="6"/>
-      <c r="M138" s="6"/>
-      <c r="N138" s="6"/>
-      <c r="O138" s="6"/>
-      <c r="P138" s="6"/>
-      <c r="Q138" s="6"/>
-      <c r="R138" s="6"/>
-      <c r="S138" s="6"/>
-    </row>
-    <row r="139" spans="10:19">
-      <c r="J139" s="6"/>
-      <c r="K139" s="6"/>
-      <c r="L139" s="6"/>
-      <c r="M139" s="6"/>
-      <c r="N139" s="6"/>
-      <c r="O139" s="6"/>
-      <c r="P139" s="6"/>
-      <c r="Q139" s="6"/>
-      <c r="R139" s="6"/>
-      <c r="S139" s="6"/>
-    </row>
-    <row r="140" spans="10:19">
-      <c r="J140" s="6"/>
-      <c r="K140" s="6"/>
-      <c r="L140" s="6"/>
-      <c r="M140" s="6"/>
-      <c r="N140" s="6"/>
-      <c r="O140" s="6"/>
-      <c r="P140" s="6"/>
-      <c r="Q140" s="6"/>
-      <c r="R140" s="6"/>
-      <c r="S140" s="6"/>
-    </row>
-    <row r="141" spans="10:19">
-      <c r="J141" s="6"/>
-      <c r="K141" s="6"/>
-      <c r="L141" s="6"/>
-      <c r="M141" s="6"/>
-      <c r="N141" s="6"/>
-      <c r="O141" s="6"/>
-      <c r="P141" s="6"/>
-      <c r="Q141" s="6"/>
-      <c r="R141" s="6"/>
-      <c r="S141" s="6"/>
-    </row>
-    <row r="142" spans="10:19">
-      <c r="J142" s="6"/>
-      <c r="K142" s="6"/>
-      <c r="L142" s="6"/>
-      <c r="M142" s="6"/>
-      <c r="N142" s="6"/>
-      <c r="O142" s="6"/>
-      <c r="P142" s="6"/>
-      <c r="Q142" s="6"/>
-      <c r="R142" s="6"/>
-      <c r="S142" s="6"/>
-    </row>
-    <row r="143" spans="10:19">
-      <c r="J143" s="6"/>
-      <c r="K143" s="6"/>
-      <c r="L143" s="6"/>
-      <c r="M143" s="6"/>
-      <c r="N143" s="6"/>
-      <c r="O143" s="6"/>
-      <c r="P143" s="6"/>
-      <c r="Q143" s="6"/>
-      <c r="R143" s="6"/>
-      <c r="S143" s="6"/>
-    </row>
-    <row r="144" spans="10:19">
-      <c r="J144" s="6"/>
-      <c r="K144" s="6"/>
-      <c r="L144" s="6"/>
-      <c r="M144" s="6"/>
-      <c r="N144" s="6"/>
-      <c r="O144" s="6"/>
-      <c r="P144" s="6"/>
-      <c r="Q144" s="6"/>
-      <c r="R144" s="6"/>
-      <c r="S144" s="6"/>
-    </row>
-    <row r="145" spans="10:19">
-      <c r="J145" s="6"/>
-      <c r="K145" s="6"/>
-      <c r="L145" s="6"/>
-      <c r="M145" s="6"/>
-      <c r="N145" s="6"/>
-      <c r="O145" s="6"/>
-      <c r="P145" s="6"/>
-      <c r="Q145" s="6"/>
-      <c r="R145" s="6"/>
-      <c r="S145" s="6"/>
-    </row>
-    <row r="146" spans="10:19">
-      <c r="J146" s="6"/>
-      <c r="K146" s="6"/>
-      <c r="L146" s="6"/>
-      <c r="M146" s="6"/>
-      <c r="N146" s="6"/>
-      <c r="O146" s="6"/>
-      <c r="P146" s="6"/>
-      <c r="Q146" s="6"/>
-      <c r="R146" s="6"/>
-      <c r="S146" s="6"/>
-    </row>
-    <row r="147" spans="10:19">
-      <c r="J147" s="6"/>
-      <c r="K147" s="6"/>
-      <c r="L147" s="6"/>
-      <c r="M147" s="6"/>
-      <c r="N147" s="6"/>
-      <c r="O147" s="6"/>
-      <c r="P147" s="6"/>
-      <c r="Q147" s="6"/>
-      <c r="R147" s="6"/>
-      <c r="S147" s="6"/>
-    </row>
-    <row r="148" spans="10:19">
-      <c r="J148" s="6"/>
-      <c r="K148" s="6"/>
-      <c r="L148" s="6"/>
-      <c r="M148" s="6"/>
-      <c r="N148" s="6"/>
-      <c r="O148" s="6"/>
-      <c r="P148" s="6"/>
-      <c r="Q148" s="6"/>
-      <c r="R148" s="6"/>
-      <c r="S148" s="6"/>
-    </row>
-    <row r="149" spans="10:19">
-      <c r="J149" s="6"/>
-      <c r="K149" s="6"/>
-      <c r="L149" s="6"/>
-      <c r="M149" s="6"/>
-      <c r="N149" s="6"/>
-      <c r="O149" s="6"/>
-      <c r="P149" s="6"/>
-      <c r="Q149" s="6"/>
-      <c r="R149" s="6"/>
-      <c r="S149" s="6"/>
-    </row>
-    <row r="150" spans="10:19">
-      <c r="J150" s="6"/>
-      <c r="K150" s="6"/>
-      <c r="L150" s="6"/>
-      <c r="M150" s="6"/>
-      <c r="N150" s="6"/>
-      <c r="O150" s="6"/>
-      <c r="P150" s="6"/>
-      <c r="Q150" s="6"/>
-      <c r="R150" s="6"/>
-      <c r="S150" s="6"/>
-    </row>
-    <row r="151" spans="10:19">
-      <c r="J151" s="6"/>
-      <c r="K151" s="6"/>
-      <c r="L151" s="6"/>
-      <c r="M151" s="6"/>
-      <c r="N151" s="6"/>
-      <c r="O151" s="6"/>
-      <c r="P151" s="6"/>
-      <c r="Q151" s="6"/>
-      <c r="R151" s="6"/>
-      <c r="S151" s="6"/>
-    </row>
-    <row r="152" spans="10:19">
-      <c r="J152" s="6"/>
-      <c r="K152" s="6"/>
-      <c r="L152" s="6"/>
-      <c r="M152" s="6"/>
-      <c r="N152" s="6"/>
-      <c r="O152" s="6"/>
-      <c r="P152" s="6"/>
-      <c r="Q152" s="6"/>
-      <c r="R152" s="6"/>
-      <c r="S152" s="6"/>
-    </row>
-    <row r="153" spans="10:19">
-      <c r="J153" s="6"/>
-      <c r="K153" s="6"/>
-      <c r="L153" s="6"/>
-      <c r="M153" s="6"/>
-      <c r="N153" s="6"/>
-      <c r="O153" s="6"/>
-      <c r="P153" s="6"/>
-      <c r="Q153" s="6"/>
-      <c r="R153" s="6"/>
-      <c r="S153" s="6"/>
-    </row>
-    <row r="154" spans="10:19">
-      <c r="J154" s="6"/>
-      <c r="K154" s="6"/>
-      <c r="L154" s="6"/>
-      <c r="M154" s="6"/>
-      <c r="N154" s="6"/>
-      <c r="O154" s="6"/>
-      <c r="P154" s="6"/>
-      <c r="Q154" s="6"/>
-      <c r="R154" s="6"/>
-      <c r="S154" s="6"/>
-    </row>
-    <row r="155" spans="10:19">
-      <c r="J155" s="6"/>
-      <c r="K155" s="6"/>
-      <c r="L155" s="6"/>
-      <c r="M155" s="6"/>
-      <c r="N155" s="6"/>
-      <c r="O155" s="6"/>
-      <c r="P155" s="6"/>
-      <c r="Q155" s="6"/>
-      <c r="R155" s="6"/>
-      <c r="S155" s="6"/>
-    </row>
-    <row r="156" spans="10:19">
-      <c r="J156" s="6"/>
-      <c r="K156" s="6"/>
-      <c r="L156" s="6"/>
-      <c r="M156" s="6"/>
-      <c r="N156" s="6"/>
-      <c r="O156" s="6"/>
-      <c r="P156" s="6"/>
-      <c r="Q156" s="6"/>
-      <c r="R156" s="6"/>
-      <c r="S156" s="6"/>
-    </row>
-    <row r="157" spans="10:19">
-      <c r="J157" s="6"/>
-      <c r="K157" s="6"/>
-      <c r="L157" s="6"/>
-      <c r="M157" s="6"/>
-      <c r="N157" s="6"/>
-      <c r="O157" s="6"/>
-      <c r="P157" s="6"/>
-      <c r="Q157" s="6"/>
-      <c r="R157" s="6"/>
-      <c r="S157" s="6"/>
-    </row>
-    <row r="158" spans="10:19">
-      <c r="J158" s="6"/>
-      <c r="K158" s="6"/>
-      <c r="L158" s="6"/>
-      <c r="M158" s="6"/>
-      <c r="N158" s="6"/>
-      <c r="O158" s="6"/>
-      <c r="P158" s="6"/>
-      <c r="Q158" s="6"/>
-      <c r="R158" s="6"/>
-      <c r="S158" s="6"/>
-    </row>
-    <row r="159" spans="10:19">
-      <c r="J159" s="6"/>
-      <c r="K159" s="6"/>
-      <c r="L159" s="6"/>
-      <c r="M159" s="6"/>
-      <c r="N159" s="6"/>
-      <c r="O159" s="6"/>
-      <c r="P159" s="6"/>
-      <c r="Q159" s="6"/>
-      <c r="R159" s="6"/>
-      <c r="S159" s="6"/>
-    </row>
-    <row r="160" spans="10:19">
-      <c r="J160" s="6"/>
-      <c r="K160" s="6"/>
-      <c r="L160" s="6"/>
-      <c r="M160" s="6"/>
-      <c r="N160" s="6"/>
-      <c r="O160" s="6"/>
-      <c r="P160" s="6"/>
-      <c r="Q160" s="6"/>
-      <c r="R160" s="6"/>
-      <c r="S160" s="6"/>
-    </row>
-    <row r="161" spans="10:19">
-      <c r="J161" s="6"/>
-      <c r="K161" s="6"/>
-      <c r="L161" s="6"/>
-      <c r="M161" s="6"/>
-      <c r="N161" s="6"/>
-      <c r="O161" s="6"/>
-      <c r="P161" s="6"/>
-      <c r="Q161" s="6"/>
-      <c r="R161" s="6"/>
-      <c r="S161" s="6"/>
-    </row>
-    <row r="162" spans="10:19">
-      <c r="J162" s="6"/>
-      <c r="K162" s="6"/>
-      <c r="L162" s="6"/>
-      <c r="M162" s="6"/>
-      <c r="N162" s="6"/>
-      <c r="O162" s="6"/>
-      <c r="P162" s="6"/>
-      <c r="Q162" s="6"/>
-      <c r="R162" s="6"/>
-      <c r="S162" s="6"/>
-    </row>
-    <row r="163" spans="10:19">
-      <c r="J163" s="6"/>
-      <c r="K163" s="6"/>
-      <c r="L163" s="6"/>
-      <c r="M163" s="6"/>
-      <c r="N163" s="6"/>
-      <c r="O163" s="6"/>
-      <c r="P163" s="6"/>
-      <c r="Q163" s="6"/>
-      <c r="R163" s="6"/>
-      <c r="S163" s="6"/>
-    </row>
-    <row r="164" spans="10:19">
-      <c r="J164" s="6"/>
-      <c r="K164" s="6"/>
-      <c r="L164" s="6"/>
-      <c r="M164" s="6"/>
-      <c r="N164" s="6"/>
-      <c r="O164" s="6"/>
-      <c r="P164" s="6"/>
-      <c r="Q164" s="6"/>
-      <c r="R164" s="6"/>
-      <c r="S164" s="6"/>
-    </row>
-    <row r="165" spans="10:19">
-      <c r="J165" s="6"/>
-      <c r="K165" s="6"/>
-      <c r="L165" s="6"/>
-      <c r="M165" s="6"/>
-      <c r="N165" s="6"/>
-      <c r="O165" s="6"/>
-      <c r="P165" s="6"/>
-      <c r="Q165" s="6"/>
-      <c r="R165" s="6"/>
-      <c r="S165" s="6"/>
-    </row>
-    <row r="166" spans="10:19">
-      <c r="J166" s="6"/>
-      <c r="K166" s="6"/>
-      <c r="L166" s="6"/>
-      <c r="M166" s="6"/>
-      <c r="N166" s="6"/>
-      <c r="O166" s="6"/>
-      <c r="P166" s="6"/>
-      <c r="Q166" s="6"/>
-      <c r="R166" s="6"/>
-      <c r="S166" s="6"/>
-    </row>
-    <row r="167" spans="10:19">
-      <c r="J167" s="6"/>
-      <c r="K167" s="6"/>
-      <c r="L167" s="6"/>
-      <c r="M167" s="6"/>
-      <c r="N167" s="6"/>
-      <c r="O167" s="6"/>
-      <c r="P167" s="6"/>
-      <c r="Q167" s="6"/>
-      <c r="R167" s="6"/>
-      <c r="S167" s="6"/>
-    </row>
-    <row r="168" spans="10:19">
-      <c r="J168" s="6"/>
-      <c r="K168" s="6"/>
-      <c r="L168" s="6"/>
-      <c r="M168" s="6"/>
-      <c r="N168" s="6"/>
-      <c r="O168" s="6"/>
-      <c r="P168" s="6"/>
-      <c r="Q168" s="6"/>
-      <c r="R168" s="6"/>
-      <c r="S168" s="6"/>
-    </row>
-    <row r="169" spans="10:19">
-      <c r="J169" s="6"/>
-      <c r="K169" s="6"/>
-      <c r="L169" s="6"/>
-      <c r="M169" s="6"/>
-      <c r="N169" s="6"/>
-      <c r="O169" s="6"/>
-      <c r="P169" s="6"/>
-      <c r="Q169" s="6"/>
-      <c r="R169" s="6"/>
-      <c r="S169" s="6"/>
-    </row>
-    <row r="170" spans="10:19">
-      <c r="J170" s="6"/>
-      <c r="K170" s="6"/>
-      <c r="L170" s="6"/>
-      <c r="M170" s="6"/>
-      <c r="N170" s="6"/>
-      <c r="O170" s="6"/>
-      <c r="P170" s="6"/>
-      <c r="Q170" s="6"/>
-      <c r="R170" s="6"/>
-      <c r="S170" s="6"/>
-    </row>
-    <row r="171" spans="10:19">
-      <c r="J171" s="6"/>
-      <c r="K171" s="6"/>
-      <c r="L171" s="6"/>
-      <c r="M171" s="6"/>
-      <c r="N171" s="6"/>
-      <c r="O171" s="6"/>
-      <c r="P171" s="6"/>
-      <c r="Q171" s="6"/>
-      <c r="R171" s="6"/>
-      <c r="S171" s="6"/>
-    </row>
-    <row r="172" spans="10:19">
-      <c r="J172" s="6"/>
-      <c r="K172" s="6"/>
-      <c r="L172" s="6"/>
-      <c r="M172" s="6"/>
-      <c r="N172" s="6"/>
-      <c r="O172" s="6"/>
-      <c r="P172" s="6"/>
-      <c r="Q172" s="6"/>
-      <c r="R172" s="6"/>
-      <c r="S172" s="6"/>
-    </row>
-    <row r="173" spans="10:19">
-      <c r="J173" s="6"/>
-      <c r="K173" s="6"/>
-      <c r="L173" s="6"/>
-      <c r="M173" s="6"/>
-      <c r="N173" s="6"/>
-      <c r="O173" s="6"/>
-      <c r="P173" s="6"/>
-      <c r="Q173" s="6"/>
-      <c r="R173" s="6"/>
-      <c r="S173" s="6"/>
-    </row>
-    <row r="174" spans="10:19">
-      <c r="J174" s="6"/>
-      <c r="K174" s="6"/>
-      <c r="L174" s="6"/>
-      <c r="M174" s="6"/>
-      <c r="N174" s="6"/>
-      <c r="O174" s="6"/>
-      <c r="P174" s="6"/>
-      <c r="Q174" s="6"/>
-      <c r="R174" s="6"/>
-      <c r="S174" s="6"/>
-    </row>
-    <row r="175" spans="10:19">
-      <c r="J175" s="6"/>
-      <c r="K175" s="6"/>
-      <c r="L175" s="6"/>
-      <c r="M175" s="6"/>
-      <c r="N175" s="6"/>
-      <c r="O175" s="6"/>
-      <c r="P175" s="6"/>
-      <c r="Q175" s="6"/>
-      <c r="R175" s="6"/>
-      <c r="S175" s="6"/>
-    </row>
-    <row r="176" spans="10:19">
-      <c r="J176" s="6"/>
-      <c r="K176" s="6"/>
-      <c r="L176" s="6"/>
-      <c r="M176" s="6"/>
-      <c r="N176" s="6"/>
-      <c r="O176" s="6"/>
-      <c r="P176" s="6"/>
-      <c r="Q176" s="6"/>
-      <c r="R176" s="6"/>
-      <c r="S176" s="6"/>
-    </row>
-    <row r="177" spans="10:19">
-      <c r="J177" s="6"/>
-      <c r="K177" s="6"/>
-      <c r="L177" s="6"/>
-      <c r="M177" s="6"/>
-      <c r="N177" s="6"/>
-      <c r="O177" s="6"/>
-      <c r="P177" s="6"/>
-      <c r="Q177" s="6"/>
-      <c r="R177" s="6"/>
-      <c r="S177" s="6"/>
-    </row>
-    <row r="178" spans="10:19">
-      <c r="J178" s="6"/>
-      <c r="K178" s="6"/>
-      <c r="L178" s="6"/>
-      <c r="M178" s="6"/>
-      <c r="N178" s="6"/>
-      <c r="O178" s="6"/>
-      <c r="P178" s="6"/>
-      <c r="Q178" s="6"/>
-      <c r="R178" s="6"/>
-      <c r="S178" s="6"/>
-    </row>
-    <row r="179" spans="10:19">
-      <c r="J179" s="6"/>
-      <c r="K179" s="6"/>
-      <c r="L179" s="6"/>
-      <c r="M179" s="6"/>
-      <c r="N179" s="6"/>
-      <c r="O179" s="6"/>
-      <c r="P179" s="6"/>
-      <c r="Q179" s="6"/>
-      <c r="R179" s="6"/>
-      <c r="S179" s="6"/>
-    </row>
-    <row r="180" spans="10:19">
-      <c r="J180" s="6"/>
-      <c r="K180" s="6"/>
-      <c r="L180" s="6"/>
-      <c r="M180" s="6"/>
-      <c r="N180" s="6"/>
-      <c r="O180" s="6"/>
-      <c r="P180" s="6"/>
-      <c r="Q180" s="6"/>
-      <c r="R180" s="6"/>
-      <c r="S180" s="6"/>
-    </row>
-    <row r="181" spans="10:19">
-      <c r="J181" s="6"/>
-      <c r="K181" s="6"/>
-      <c r="L181" s="6"/>
-      <c r="M181" s="6"/>
-      <c r="N181" s="6"/>
-      <c r="O181" s="6"/>
-      <c r="P181" s="6"/>
-      <c r="Q181" s="6"/>
-      <c r="R181" s="6"/>
-      <c r="S181" s="6"/>
-    </row>
-    <row r="182" spans="10:19">
-      <c r="J182" s="6"/>
-      <c r="K182" s="6"/>
-      <c r="L182" s="6"/>
-      <c r="M182" s="6"/>
-      <c r="N182" s="6"/>
-      <c r="O182" s="6"/>
-      <c r="P182" s="6"/>
-      <c r="Q182" s="6"/>
-      <c r="R182" s="6"/>
-      <c r="S182" s="6"/>
-    </row>
-    <row r="183" spans="10:19">
-      <c r="J183" s="6"/>
-      <c r="K183" s="6"/>
-      <c r="L183" s="6"/>
-      <c r="M183" s="6"/>
-      <c r="N183" s="6"/>
-      <c r="O183" s="6"/>
-      <c r="P183" s="6"/>
-      <c r="Q183" s="6"/>
-      <c r="R183" s="6"/>
-      <c r="S183" s="6"/>
-    </row>
-    <row r="184" spans="10:19">
-      <c r="J184" s="6"/>
-      <c r="K184" s="6"/>
-      <c r="L184" s="6"/>
-      <c r="M184" s="6"/>
-      <c r="N184" s="6"/>
-      <c r="O184" s="6"/>
-      <c r="P184" s="6"/>
-      <c r="Q184" s="6"/>
-      <c r="R184" s="6"/>
-      <c r="S184" s="6"/>
-    </row>
-    <row r="185" spans="10:19">
-      <c r="J185" s="6"/>
-      <c r="K185" s="6"/>
-      <c r="L185" s="6"/>
-      <c r="M185" s="6"/>
-      <c r="N185" s="6"/>
-      <c r="O185" s="6"/>
-      <c r="P185" s="6"/>
-      <c r="Q185" s="6"/>
-      <c r="R185" s="6"/>
-      <c r="S185" s="6"/>
-    </row>
-    <row r="186" spans="10:19">
-      <c r="J186" s="6"/>
-      <c r="K186" s="6"/>
-      <c r="L186" s="6"/>
-      <c r="M186" s="6"/>
-      <c r="N186" s="6"/>
-      <c r="O186" s="6"/>
-      <c r="P186" s="6"/>
-      <c r="Q186" s="6"/>
-      <c r="R186" s="6"/>
-      <c r="S186" s="6"/>
-    </row>
-    <row r="187" spans="10:19">
+      <c r="A128" s="16">
+        <v>125</v>
+      </c>
+      <c r="B128" s="186" t="s">
+        <v>255</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D128" s="12" t="str">
+        <f t="shared" ref="D128:D186" si="12">IF(ISBLANK($B128),"",IF(ISBLANK($F128),"未着手",IF($I128=0,"完了","作業中")))</f>
+        <v>未着手</v>
+      </c>
+      <c r="E128" s="135">
+        <v>43074</v>
+      </c>
+      <c r="F128" s="135"/>
+      <c r="G128" s="136">
+        <v>1</v>
+      </c>
+      <c r="H128" s="136"/>
+      <c r="I128" s="149">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J128" s="136">
+        <v>1</v>
+      </c>
+      <c r="K128" s="136">
+        <v>1</v>
+      </c>
+      <c r="L128" s="136">
+        <v>1</v>
+      </c>
+      <c r="M128" s="136">
+        <v>1</v>
+      </c>
+      <c r="N128" s="137"/>
+      <c r="O128" s="137"/>
+      <c r="P128" s="137"/>
+      <c r="Q128" s="137"/>
+      <c r="R128" s="137"/>
+      <c r="S128" s="137"/>
+    </row>
+    <row r="129" spans="1:19">
+      <c r="A129" s="16">
+        <v>126</v>
+      </c>
+      <c r="B129" s="186" t="s">
+        <v>256</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D129" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>未着手</v>
+      </c>
+      <c r="E129" s="135">
+        <v>43074</v>
+      </c>
+      <c r="F129" s="135"/>
+      <c r="G129" s="136">
+        <v>1</v>
+      </c>
+      <c r="H129" s="136"/>
+      <c r="I129" s="149">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J129" s="136">
+        <v>1</v>
+      </c>
+      <c r="K129" s="136">
+        <v>1</v>
+      </c>
+      <c r="L129" s="136">
+        <v>1</v>
+      </c>
+      <c r="M129" s="136">
+        <v>1</v>
+      </c>
+      <c r="N129" s="137"/>
+      <c r="O129" s="137"/>
+      <c r="P129" s="137"/>
+      <c r="Q129" s="137"/>
+      <c r="R129" s="137"/>
+      <c r="S129" s="137"/>
+    </row>
+    <row r="130" spans="1:19">
+      <c r="A130" s="16">
+        <v>127</v>
+      </c>
+      <c r="B130" s="186" t="s">
+        <v>257</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D130" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>未着手</v>
+      </c>
+      <c r="E130" s="135">
+        <v>43074</v>
+      </c>
+      <c r="F130" s="135"/>
+      <c r="G130" s="136">
+        <v>1</v>
+      </c>
+      <c r="H130" s="136"/>
+      <c r="I130" s="149">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J130" s="136">
+        <v>1</v>
+      </c>
+      <c r="K130" s="136">
+        <v>1</v>
+      </c>
+      <c r="L130" s="136">
+        <v>1</v>
+      </c>
+      <c r="M130" s="136">
+        <v>1</v>
+      </c>
+      <c r="N130" s="137"/>
+      <c r="O130" s="137"/>
+      <c r="P130" s="137"/>
+      <c r="Q130" s="137"/>
+      <c r="R130" s="137"/>
+      <c r="S130" s="137"/>
+    </row>
+    <row r="131" spans="1:19">
+      <c r="A131" s="16">
+        <v>128</v>
+      </c>
+      <c r="B131" s="186"/>
+      <c r="C131" s="186"/>
+      <c r="D131" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E131" s="135"/>
+      <c r="F131" s="135"/>
+      <c r="G131" s="136"/>
+      <c r="H131" s="136"/>
+      <c r="I131" s="149" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="J131" s="137"/>
+      <c r="K131" s="137"/>
+      <c r="L131" s="137"/>
+      <c r="M131" s="137"/>
+      <c r="N131" s="137"/>
+      <c r="O131" s="137"/>
+      <c r="P131" s="137"/>
+      <c r="Q131" s="137"/>
+      <c r="R131" s="137"/>
+      <c r="S131" s="137"/>
+    </row>
+    <row r="132" spans="1:19">
+      <c r="A132" s="16">
+        <v>129</v>
+      </c>
+      <c r="B132" s="186"/>
+      <c r="C132" s="186"/>
+      <c r="D132" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E132" s="135"/>
+      <c r="F132" s="135"/>
+      <c r="G132" s="136"/>
+      <c r="H132" s="136"/>
+      <c r="I132" s="149" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="J132" s="137"/>
+      <c r="K132" s="137"/>
+      <c r="L132" s="137"/>
+      <c r="M132" s="137"/>
+      <c r="N132" s="137"/>
+      <c r="O132" s="137"/>
+      <c r="P132" s="137"/>
+      <c r="Q132" s="137"/>
+      <c r="R132" s="137"/>
+      <c r="S132" s="137"/>
+    </row>
+    <row r="133" spans="1:19">
+      <c r="A133" s="16">
+        <v>130</v>
+      </c>
+      <c r="B133" s="186"/>
+      <c r="C133" s="186"/>
+      <c r="D133" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E133" s="135"/>
+      <c r="F133" s="135"/>
+      <c r="G133" s="136"/>
+      <c r="H133" s="136"/>
+      <c r="I133" s="149" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="J133" s="137"/>
+      <c r="K133" s="137"/>
+      <c r="L133" s="137"/>
+      <c r="M133" s="137"/>
+      <c r="N133" s="137"/>
+      <c r="O133" s="137"/>
+      <c r="P133" s="137"/>
+      <c r="Q133" s="137"/>
+      <c r="R133" s="137"/>
+      <c r="S133" s="137"/>
+    </row>
+    <row r="134" spans="1:19">
+      <c r="A134" s="16">
+        <v>131</v>
+      </c>
+      <c r="B134" s="186"/>
+      <c r="C134" s="186"/>
+      <c r="D134" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E134" s="135"/>
+      <c r="F134" s="135"/>
+      <c r="G134" s="136"/>
+      <c r="H134" s="136"/>
+      <c r="I134" s="149" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="J134" s="137"/>
+      <c r="K134" s="137"/>
+      <c r="L134" s="137"/>
+      <c r="M134" s="137"/>
+      <c r="N134" s="137"/>
+      <c r="O134" s="137"/>
+      <c r="P134" s="137"/>
+      <c r="Q134" s="137"/>
+      <c r="R134" s="137"/>
+      <c r="S134" s="137"/>
+    </row>
+    <row r="135" spans="1:19">
+      <c r="A135" s="16">
+        <v>132</v>
+      </c>
+      <c r="B135" s="186"/>
+      <c r="C135" s="186"/>
+      <c r="D135" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E135" s="135"/>
+      <c r="F135" s="135"/>
+      <c r="G135" s="136"/>
+      <c r="H135" s="136"/>
+      <c r="I135" s="149" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="J135" s="137"/>
+      <c r="K135" s="137"/>
+      <c r="L135" s="137"/>
+      <c r="M135" s="137"/>
+      <c r="N135" s="137"/>
+      <c r="O135" s="137"/>
+      <c r="P135" s="137"/>
+      <c r="Q135" s="137"/>
+      <c r="R135" s="137"/>
+      <c r="S135" s="137"/>
+    </row>
+    <row r="136" spans="1:19">
+      <c r="A136" s="16">
+        <v>133</v>
+      </c>
+      <c r="B136" s="186"/>
+      <c r="C136" s="186"/>
+      <c r="D136" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E136" s="135"/>
+      <c r="F136" s="135"/>
+      <c r="G136" s="136"/>
+      <c r="H136" s="136"/>
+      <c r="I136" s="149" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="J136" s="137"/>
+      <c r="K136" s="137"/>
+      <c r="L136" s="137"/>
+      <c r="M136" s="137"/>
+      <c r="N136" s="137"/>
+      <c r="O136" s="137"/>
+      <c r="P136" s="137"/>
+      <c r="Q136" s="137"/>
+      <c r="R136" s="137"/>
+      <c r="S136" s="137"/>
+    </row>
+    <row r="137" spans="1:19">
+      <c r="A137" s="16">
+        <v>134</v>
+      </c>
+      <c r="B137" s="186"/>
+      <c r="C137" s="186"/>
+      <c r="D137" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E137" s="135"/>
+      <c r="F137" s="135"/>
+      <c r="G137" s="136"/>
+      <c r="H137" s="136"/>
+      <c r="I137" s="149" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="J137" s="137"/>
+      <c r="K137" s="137"/>
+      <c r="L137" s="137"/>
+      <c r="M137" s="137"/>
+      <c r="N137" s="137"/>
+      <c r="O137" s="137"/>
+      <c r="P137" s="137"/>
+      <c r="Q137" s="137"/>
+      <c r="R137" s="137"/>
+      <c r="S137" s="137"/>
+    </row>
+    <row r="138" spans="1:19">
+      <c r="A138" s="16">
+        <v>135</v>
+      </c>
+      <c r="B138" s="186"/>
+      <c r="C138" s="186"/>
+      <c r="D138" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E138" s="135"/>
+      <c r="F138" s="135"/>
+      <c r="G138" s="136"/>
+      <c r="H138" s="136"/>
+      <c r="I138" s="149" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="J138" s="137"/>
+      <c r="K138" s="137"/>
+      <c r="L138" s="137"/>
+      <c r="M138" s="137"/>
+      <c r="N138" s="137"/>
+      <c r="O138" s="137"/>
+      <c r="P138" s="137"/>
+      <c r="Q138" s="137"/>
+      <c r="R138" s="137"/>
+      <c r="S138" s="137"/>
+    </row>
+    <row r="139" spans="1:19">
+      <c r="A139" s="16">
+        <v>136</v>
+      </c>
+      <c r="B139" s="186"/>
+      <c r="C139" s="186"/>
+      <c r="D139" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E139" s="135"/>
+      <c r="F139" s="135"/>
+      <c r="G139" s="136"/>
+      <c r="H139" s="136"/>
+      <c r="I139" s="149" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="J139" s="137"/>
+      <c r="K139" s="137"/>
+      <c r="L139" s="137"/>
+      <c r="M139" s="137"/>
+      <c r="N139" s="137"/>
+      <c r="O139" s="137"/>
+      <c r="P139" s="137"/>
+      <c r="Q139" s="137"/>
+      <c r="R139" s="137"/>
+      <c r="S139" s="137"/>
+    </row>
+    <row r="140" spans="1:19">
+      <c r="A140" s="16">
+        <v>137</v>
+      </c>
+      <c r="B140" s="186"/>
+      <c r="C140" s="186"/>
+      <c r="D140" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E140" s="135"/>
+      <c r="F140" s="135"/>
+      <c r="G140" s="136"/>
+      <c r="H140" s="136"/>
+      <c r="I140" s="149" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="J140" s="137"/>
+      <c r="K140" s="137"/>
+      <c r="L140" s="137"/>
+      <c r="M140" s="137"/>
+      <c r="N140" s="137"/>
+      <c r="O140" s="137"/>
+      <c r="P140" s="137"/>
+      <c r="Q140" s="137"/>
+      <c r="R140" s="137"/>
+      <c r="S140" s="137"/>
+    </row>
+    <row r="141" spans="1:19">
+      <c r="A141" s="16">
+        <v>138</v>
+      </c>
+      <c r="B141" s="186"/>
+      <c r="C141" s="186"/>
+      <c r="D141" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E141" s="135"/>
+      <c r="F141" s="135"/>
+      <c r="G141" s="136"/>
+      <c r="H141" s="136"/>
+      <c r="I141" s="149" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="J141" s="137"/>
+      <c r="K141" s="137"/>
+      <c r="L141" s="137"/>
+      <c r="M141" s="137"/>
+      <c r="N141" s="137"/>
+      <c r="O141" s="137"/>
+      <c r="P141" s="137"/>
+      <c r="Q141" s="137"/>
+      <c r="R141" s="137"/>
+      <c r="S141" s="137"/>
+    </row>
+    <row r="142" spans="1:19">
+      <c r="A142" s="16">
+        <v>139</v>
+      </c>
+      <c r="B142" s="186"/>
+      <c r="C142" s="186"/>
+      <c r="D142" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E142" s="135"/>
+      <c r="F142" s="135"/>
+      <c r="G142" s="136"/>
+      <c r="H142" s="136"/>
+      <c r="I142" s="149" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="J142" s="137"/>
+      <c r="K142" s="137"/>
+      <c r="L142" s="137"/>
+      <c r="M142" s="137"/>
+      <c r="N142" s="137"/>
+      <c r="O142" s="137"/>
+      <c r="P142" s="137"/>
+      <c r="Q142" s="137"/>
+      <c r="R142" s="137"/>
+      <c r="S142" s="137"/>
+    </row>
+    <row r="143" spans="1:19">
+      <c r="A143" s="16">
+        <v>140</v>
+      </c>
+      <c r="B143" s="186"/>
+      <c r="C143" s="186"/>
+      <c r="D143" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E143" s="135"/>
+      <c r="F143" s="135"/>
+      <c r="G143" s="136"/>
+      <c r="H143" s="136"/>
+      <c r="I143" s="149" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="J143" s="137"/>
+      <c r="K143" s="137"/>
+      <c r="L143" s="137"/>
+      <c r="M143" s="137"/>
+      <c r="N143" s="137"/>
+      <c r="O143" s="137"/>
+      <c r="P143" s="137"/>
+      <c r="Q143" s="137"/>
+      <c r="R143" s="137"/>
+      <c r="S143" s="137"/>
+    </row>
+    <row r="144" spans="1:19">
+      <c r="A144" s="16">
+        <v>141</v>
+      </c>
+      <c r="B144" s="186"/>
+      <c r="C144" s="186"/>
+      <c r="D144" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E144" s="135"/>
+      <c r="F144" s="135"/>
+      <c r="G144" s="136"/>
+      <c r="H144" s="136"/>
+      <c r="I144" s="149" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="J144" s="137"/>
+      <c r="K144" s="137"/>
+      <c r="L144" s="137"/>
+      <c r="M144" s="137"/>
+      <c r="N144" s="137"/>
+      <c r="O144" s="137"/>
+      <c r="P144" s="137"/>
+      <c r="Q144" s="137"/>
+      <c r="R144" s="137"/>
+      <c r="S144" s="137"/>
+    </row>
+    <row r="145" spans="1:19">
+      <c r="A145" s="16">
+        <v>142</v>
+      </c>
+      <c r="B145" s="186"/>
+      <c r="C145" s="186"/>
+      <c r="D145" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E145" s="135"/>
+      <c r="F145" s="135"/>
+      <c r="G145" s="136"/>
+      <c r="H145" s="136"/>
+      <c r="I145" s="149" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="J145" s="137"/>
+      <c r="K145" s="137"/>
+      <c r="L145" s="137"/>
+      <c r="M145" s="137"/>
+      <c r="N145" s="137"/>
+      <c r="O145" s="137"/>
+      <c r="P145" s="137"/>
+      <c r="Q145" s="137"/>
+      <c r="R145" s="137"/>
+      <c r="S145" s="137"/>
+    </row>
+    <row r="146" spans="1:19">
+      <c r="A146" s="16">
+        <v>143</v>
+      </c>
+      <c r="B146" s="186"/>
+      <c r="C146" s="186"/>
+      <c r="D146" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E146" s="135"/>
+      <c r="F146" s="135"/>
+      <c r="G146" s="136"/>
+      <c r="H146" s="136"/>
+      <c r="I146" s="149" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="J146" s="137"/>
+      <c r="K146" s="137"/>
+      <c r="L146" s="137"/>
+      <c r="M146" s="137"/>
+      <c r="N146" s="137"/>
+      <c r="O146" s="137"/>
+      <c r="P146" s="137"/>
+      <c r="Q146" s="137"/>
+      <c r="R146" s="137"/>
+      <c r="S146" s="137"/>
+    </row>
+    <row r="147" spans="1:19">
+      <c r="A147" s="16">
+        <v>144</v>
+      </c>
+      <c r="B147" s="186"/>
+      <c r="C147" s="186"/>
+      <c r="D147" s="12" t="str">
+   